--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ED5E77-DA5F-AD42-B24C-8337EC856900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ADFD6F-13B4-4C57-909B-CB2E0DB248F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1660" yWindow="6640" windowWidth="35740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,97 +60,134 @@
     <t>[{'Category':'Real GDP','Outdoor recreation':'18.9','U.S. economy':'5.9'},{'Category':'Real Gross Output','Outdoor recreation':'21.8','U.S. economy':'6.3'},{'Category':'Compensation','Outdoor recreation':'16.2','U.S. economy':'7.8'},{'Category':'Compensation','Outdoor recreation':'13.1','U.S. economy':'2.7'}]</t>
   </si>
   <si>
+    <t>[{'Time':'2017/1/1','Mini- and subcompact size':'0.61','Compact size':'0.35', 'Midsize to large':'0.04'},{'Time':'2018/1/1','Mini- and subcompact size':'0.49','Compact size':'0.41', 'Midsize to large':'0.10'},{'Time':'2019/1/1','Mini- and subcompact size':'0.33','Compact size':'0.54', 'Midsize to large':'0.13'},{'Time':'2020/1/1','Mini- and subcompact size':'0.35','Compact size':'0.33', 'Midsize to large':'0.32'},{'Time':'2021/1/1','Mini- and subcompact size':'0.37','Compact size':'0.28', 'Midsize to large':'0.35'},{'Time':'2022/1/1','Mini- and subcompact size':'0.37','Compact size':'0.31', 'Midsize to large':'0.32'},{'Time':'2023/1/1','Mini- and subcompact size':'0.30','Compact size':'0.30', 'Midsize to large':'0.40'}]</t>
+  </si>
+  <si>
+    <t>In 2023, the sales proportion of NEVs that were subcompact and below declined to 30%, from 61% in 2017. During the same periods of comparison, the mix of compact and midsize-to-large NEVs increased to 70% from 39%, reflecting the upgrade trend in terms of vehicle size.</t>
+  </si>
+  <si>
+    <t>[{'Date': '1999/8/2', 'Close': 2.35}, {'Date': '1999/8/3', 'Close': 2.371875}, {'Date': '1999/8/4', 'Close': 2.210938}, {'Date': '1999/8/5', 'Close': 2.43125}, {'Date': '1999/8/6', 'Close': 2.239063}, {'Date': '1999/8/9', 'Close': 2.1375}, {'Date': '1999/8/10', 'Close': 2.275}, {'Date': '1999/8/11', 'Close': 2.273438}, {'Date': '1999/8/12', 'Close': 2.29375}, {'Date': '1999/8/13', 'Close': 2.435938}, {'Date': '1999/8/16', 'Close': 2.457813}, {'Date': '1999/8/17', 'Close': 2.73125}, {'Date': '1999/8/18', 'Close': 2.828125}, {'Date': '1999/8/19', 'Close': 2.653125}, {'Date': '1999/8/20', 'Close': 2.835938}, {'Date': '1999/8/23', 'Close': 2.959375}, {'Date': '1999/8/24', 'Close': 3.001563}, {'Date': '1999/8/25', 'Close': 3.321875}, {'Date': '1999/8/26', 'Close': 3.214063}, {'Date': '1999/8/27', 'Close': 3.2125}, {'Date': '1999/8/30', 'Close': 2.98125}, {'Date': '1999/8/31', 'Close': 3.109375}, {'Date': '1999/9/1', 'Close': 2.976563}, {'Date': '1999/9/2', 'Close': 3.003125}, {'Date': '1999/9/3', 'Close': 3.121875}, {'Date': '1999/9/7', 'Close': 3.146875}, {'Date': '1999/9/8', 'Close': 3.071875}, {'Date': '1999/9/9', 'Close': 3.18125}, {'Date': '1999/9/10', 'Close': 3.325}, {'Date': '1999/9/13', 'Close': 3.165625}, {'Date': '1999/9/14', 'Close': 3.3}, {'Date': '1999/9/15', 'Close': 3.278125}, {'Date': '1999/9/16', 'Close': 3.2625}, {'Date': '1999/9/17', 'Close': 3.190625}, {'Date': '1999/9/20', 'Close': 3.1375}, {'Date': '1999/9/21', 'Close': 3.1125}, {'Date': '1999/9/22', 'Close': 3.3}, {'Date': '1999/9/23', 'Close': 3.1125}, {'Date': '1999/9/24', 'Close': 3.25}, {'Date': '1999/9/27', 'Close': 3.128125}, {'Date': '1999/9/28', 'Close': 3.29375}, {'Date': '1999/9/29', 'Close': 4.0375}, {'Date': '1999/9/30', 'Close': 3.996875}, {'Date': '1999/10/1', 'Close': 3.8625}, {'Date': '1999/10/4', 'Close': 3.853125}, {'Date': '1999/10/5', 'Close': 3.921875}, {'Date': '1999/10/6', 'Close': 4.121875}, {'Date': '1999/10/7', 'Close': 4.365625}, {'Date': '1999/10/8', 'Close': 4.4625}, {'Date': '1999/10/11', 'Close': 4.41875}, {'Date': '1999/10/12', 'Close': 4.246875}, {'Date': '1999/10/13', 'Close': 3.996875}, {'Date': '1999/10/14', 'Close': 3.979688}, {'Date': '1999/10/15', 'Close': 3.753125}, {'Date': '1999/10/18', 'Close': 3.703125}, {'Date': '1999/10/19', 'Close': 3.83125}, {'Date': '1999/10/20', 'Close': 4.025}, {'Date': '1999/10/21', 'Close': 4.0375}, {'Date': '1999/10/22', 'Close': 3.93125}, {'Date': '1999/10/25', 'Close': 4.1375}, {'Date': '1999/10/26', 'Close': 4.0625}, {'Date': '1999/10/27', 'Close': 3.796875}, {'Date': '1999/10/28', 'Close': 3.55}, {'Date': '1999/10/29', 'Close': 3.53125}, {'Date': '1999/11/1', 'Close': 3.45625}, {'Date': '1999/11/2', 'Close': 3.321875}, {'Date': '1999/11/3', 'Close': 3.290625}, {'Date': '1999/11/4', 'Close': 3.153125}, {'Date': '1999/11/5', 'Close': 3.246875}, {'Date': '1999/11/8', 'Close': 3.9}, {'Date': '1999/11/9', 'Close': 3.540625}, {'Date': '1999/11/10', 'Close': 3.6}, {'Date': '1999/11/11', 'Close': 3.65}, {'Date': '1999/11/12', 'Close': 3.746875}, {'Date': '1999/11/15', 'Close': 3.675}, {'Date': '1999/11/16', 'Close': 3.946875}, {'Date': '1999/11/17', 'Close': 3.825}, {'Date': '1999/11/18', 'Close': 3.896875}, {'Date': '1999/11/19', 'Close': 3.896875}, {'Date': '1999/11/22', 'Close': 4.025}, {'Date': '1999/11/23', 'Close': 4.0875}, {'Date': '1999/11/24', 'Close': 4.3625}, {'Date': '1999/11/26', 'Close': 4.65625}, {'Date': '1999/11/29', 'Close': 4.521875}, {'Date': '1999/11/30', 'Close': 4.253125}, {'Date': '1999/12/1', 'Close': 4.25}, {'Date': '1999/12/2', 'Close': 4.453125}, {'Date': '1999/12/3', 'Close': 4.328125}, {'Date': '1999/12/6', 'Close': 4.3875}, {'Date': '1999/12/7', 'Close': 4.303125}, {'Date': '1999/12/8', 'Close': 4.428125}, {'Date': '1999/12/9', 'Close': 5.18125}, {'Date': '1999/12/10', 'Close': 5.334375}, {'Date': '1999/12/13', 'Close': 5.125}, {'Date': '1999/12/14', 'Close': 4.78125}, {'Date': '1999/12/15', 'Close': 4.825}, {'Date': '1999/12/16', 'Close': 4.74375}, {'Date': '1999/12/17', 'Close': 4.703125}, {'Date': '1999/12/20', 'Close': 4.85}, {'Date': '1999/12/21', 'Close': 4.99375}, {'Date': '1999/12/22', 'Close': 4.884375}, {'Date': '1999/12/23', 'Close': 4.5}, {'Date': '1999/12/27', 'Close': 4.05625}, {'Date': '1999/12/28', 'Close': 4.115625}, {'Date': '1999/12/29', 'Close': 4.175}, {'Date': '1999/12/30', 'Close': 3.953125}, {'Date': '1999/12/31', 'Close': 3.80625}, {'Date': '2000/1/3', 'Close': 4.46875}, {'Date': '2000/1/4', 'Close': 4.096875}, {'Date': '2000/1/5', 'Close': 3.4875}, {'Date': '2000/1/6', 'Close': 3.278125}, {'Date': '2000/1/7', 'Close': 3.478125}, {'Date': '2000/1/10', 'Close': 3.459375}, {'Date': '2000/1/11', 'Close': 3.3375}, {'Date': '2000/1/12', 'Close': 3.178125}, {'Date': '2000/1/13', 'Close': 3.296875}, {'Date': '2000/1/14', 'Close': 3.2125}, {'Date': '2000/1/18', 'Close': 3.20625}, {'Date': '2000/1/19', 'Close': 3.340625}, {'Date': '2000/1/20', 'Close': 3.2375}, {'Date': '2000/1/21', 'Close': 3.103125}, {'Date': '2000/1/24', 'Close': 3.50625}, {'Date': '2000/1/25', 'Close': 3.4625}, {'Date': '2000/1/26', 'Close': 3.240625}, {'Date': '2000/1/27', 'Close': 3.346875}, {'Date': '2000/1/28', 'Close': 3.084375}, {'Date': '2000/1/31', 'Close': 3.228125}, {'Date': '2000/2/1', 'Close': 3.371875}, {'Date': '2000/2/2', 'Close': 3.471875}, {'Date': '2000/2/3', 'Close': 4.209375}, {'Date': '2000/2/4', 'Close': 3.928125}, {'Date': '2000/2/7', 'Close': 3.75}, {'Date': '2000/2/8', 'Close': 4.15625}, {'Date': '2000/2/9', 'Close': 4.0125}, {'Date': '2000/2/10', 'Close': 3.809375}, {'Date': '2000/2/11', 'Close': 3.809375}, {'Date': '2000/2/14', 'Close': 3.721875}, {'Date': '2000/2/15', 'Close': 3.690625}, {'Date': '2000/2/16', 'Close': 3.534375}, {'Date': '2000/2/17', 'Close': 3.45}, {'Date': '2000/2/18', 'Close': 3.2375}, {'Date': '2000/2/22', 'Close': 3.178125}, {'Date': '2000/2/23', 'Close': 3.521875}, {'Date': '2000/2/24', 'Close': 3.421875}, {'Date': '2000/2/25', 'Close': 3.45625}, {'Date': '2000/2/28', 'Close': 3.2875}, {'Date': '2000/2/29', 'Close': 3.44375}, {'Date': '2000/3/1', 'Close': 3.29375}, {'Date': '2000/3/2', 'Close': 3.128125}, {'Date': '2000/3/3', 'Close': 3.125}, {'Date': '2000/3/6', 'Close': 3.196875}, {'Date': '2000/3/7', 'Close': 3.175}, {'Date': '2000/3/8', 'Close': 3.18125}, {'Date': '2000/3/9', 'Close': 3.440625}, {'Date': '2000/3/10', 'Close': 3.34375}, {'Date': '2000/3/13', 'Close': 3.265625}, {'Date': '2000/3/14', 'Close': 3.28125}, {'Date': '2000/3/15', 'Close': 3.1875}, {'Date': '2000/3/16', 'Close': 3.3125}, {'Date': '2000/3/17', 'Close': 3.240625}, {'Date': '2000/3/20', 'Close': 3.209375}, {'Date': '2000/3/21', 'Close': 3.61875}, {'Date': '2000/3/22', 'Close': 3.534375}, {'Date': '2000/3/23', 'Close': 3.384375}, {'Date': '2000/3/24', 'Close': 3.634375}, {'Date': '2000/3/27', 'Close': 3.65625}, {'Date': '2000/3/28', 'Close': 3.50625}, {'Date': '2000/3/29', 'Close': 3.3125}, {'Date': '2000/3/30', 'Close': 3.325}, {'Date': '2000/3/31', 'Close': 3.35}, {'Date': '2000/4/3', 'Close': 3.178125}, {'Date': '2000/4/4', 'Close': 3.196875}, {'Date': '2000/4/5', 'Close': 3.109375}, {'Date': '2000/4/6', 'Close': 3.2125}, {'Date': '2000/4/7', 'Close': 3.378125}, {'Date': '2000/4/10', 'Close': 3.16875}, {'Date': '2000/4/11', 'Close': 3.16875}, {'Date': '2000/4/12', 'Close': 2.81875}, {'Date': '2000/4/13', 'Close': 2.4}, {'Date': '2000/4/14', 'Close': 2.34375}, {'Date': '2000/4/17', 'Close': 2.353125}, {'Date': '2000/4/18', 'Close': 2.746875}, {'Date': '2000/4/19', 'Close': 2.671875}, {'Date': '2000/4/20', 'Close': 2.61875}, {'Date': '2000/4/24', 'Close': 2.490625}, {'Date': '2000/4/25', 'Close': 2.621875}, {'Date': '2000/4/26', 'Close': 2.675}, {'Date': '2000/4/27', 'Close': 2.64375}, {'Date': '2000/4/28', 'Close': 2.759375}, {'Date': '2000/5/1', 'Close': 2.996875}, {'Date': '2000/5/2', 'Close': 2.80625}, {'Date': '2000/5/3', 'Close': 2.70625}, {'Date': '2000/5/4', 'Close': 2.753125}, {'Date': '2000/5/5', 'Close': 2.925}, {'Date': '2000/5/8', 'Close': 2.800781}, {'Date': '2000/5/9', 'Close': 2.8125}, {'Date': '2000/5/10', 'Close': 2.665625}, {'Date': '2000/5/11', 'Close': 2.74375}, {'Date': '2000/5/12', 'Close': 2.6875}, {'Date': '2000/5/15', 'Close': 2.803125}, {'Date': '2000/5/16', 'Close': 2.953125}, {'Date': '2000/5/17', 'Close': 3.05}, {'Date': '2000/5/18', 'Close': 2.76875}, {'Date': '2000/5/19', 'Close': 2.63125}, {'Date': '2000/5/22', 'Close': 2.59375}, {'Date': '2000/5/23', 'Close': 2.334375}, {'Date': '2000/5/24', 'Close': 2.428125}, {'Date': '2000/5/25', 'Close': 2.275}, {'Date': '2000/5/26', 'Close': 2.325}, {'Date': '2000/5/30', 'Close': 2.5875}, {'Date': '2000/5/31', 'Close': 2.415625}]</t>
+  </si>
+  <si>
+    <t>[{'Date': '1999/4/26', 'Adj Close': 5.179688}, {'Date': '1999/4/27', 'Adj Close': 5.146875}, {'Date': '1999/4/28', 'Adj Close': 4.8375}, {'Date': '1999/4/29', 'Adj Close': 4.20625}, {'Date': '1999/4/30', 'Adj Close': 4.301563}, {'Date': '1999/5/3', 'Adj Close': 3.773438}, {'Date': '1999/5/4', 'Adj Close': 3.575}, {'Date': '1999/5/5', 'Adj Close': 3.6625}, {'Date': '1999/5/6', 'Adj Close': 3.434375}, {'Date': '1999/5/7', 'Adj Close': 3.409375}, {'Date': '1999/5/10', 'Adj Close': 3.671875}, {'Date': '1999/5/11', 'Adj Close': 3.709375}, {'Date': '1999/5/12', 'Adj Close': 3.573438}, {'Date': '1999/5/13', 'Adj Close': 3.4}, {'Date': '1999/5/14', 'Adj Close': 3.309375}, {'Date': '1999/5/17', 'Adj Close': 3.440625}, {'Date': '1999/5/18', 'Adj Close': 3.315625}, {'Date': '1999/5/19', 'Adj Close': 3.489063}, {'Date': '1999/5/20', 'Adj Close': 3.270313}, {'Date': '1999/5/21', 'Adj Close': 3.214063}, {'Date': '1999/5/24', 'Adj Close': 2.9375}, {'Date': '1999/5/25', 'Adj Close': 2.789063}, {'Date': '1999/5/26', 'Adj Close': 3.023438}, {'Date': '1999/5/27', 'Adj Close': 2.864063}, {'Date': '1999/5/28', 'Adj Close': 2.96875}, {'Date': '1999/6/1', 'Adj Close': 2.645313}, {'Date': '1999/6/2', 'Adj Close': 2.803125}, {'Date': '1999/6/3', 'Adj Close': 2.626563}, {'Date': '1999/6/4', 'Adj Close': 2.710938}, {'Date': '1999/6/7', 'Adj Close': 2.934375}, {'Date': '1999/6/8', 'Adj Close': 2.789063}, {'Date': '1999/6/9', 'Adj Close': 2.85}, {'Date': '1999/6/10', 'Adj Close': 2.898438}, {'Date': '1999/6/11', 'Adj Close': 2.645313}, {'Date': '1999/6/14', 'Adj Close': 2.3}, {'Date': '1999/6/15', 'Adj Close': 2.4125}, {'Date': '1999/6/16', 'Adj Close': 2.792188}, {'Date': '1999/6/17', 'Adj Close': 2.823438}, {'Date': '1999/6/18', 'Adj Close': 2.782813}, {'Date': '1999/6/21', 'Adj Close': 3.0875}, {'Date': '1999/6/22', 'Adj Close': 2.9375}, {'Date': '1999/6/23', 'Adj Close': 2.94375}, {'Date': '1999/6/24', 'Adj Close': 2.840625}, {'Date': '1999/6/25', 'Adj Close': 2.754688}, {'Date': '1999/6/28', 'Adj Close': 2.767188}, {'Date': '1999/6/29', 'Adj Close': 2.901563}, {'Date': '1999/6/30', 'Adj Close': 3.128125}, {'Date': '1999/7/1', 'Adj Close': 3.059375}, {'Date': '1999/7/2', 'Adj Close': 3.101563}, {'Date': '1999/7/6', 'Adj Close': 3.171875}, {'Date': '1999/7/7', 'Adj Close': 3.046875}, {'Date': '1999/7/8', 'Adj Close': 3.134375}, {'Date': '1999/7/9', 'Adj Close': 3.1375}, {'Date': '1999/7/12', 'Adj Close': 2.934375}, {'Date': '1999/7/13', 'Adj Close': 3.153125}, {'Date': '1999/7/14', 'Adj Close': 3.375}, {'Date': '1999/7/15', 'Adj Close': 3.489063}, {'Date': '1999/7/16', 'Adj Close': 3.440625}, {'Date': '1999/7/19', 'Adj Close': 3.292188}, {'Date': '1999/7/20', 'Adj Close': 3.003125}, {'Date': '1999/7/21', 'Adj Close': 3.135938}, {'Date': '1999/7/22', 'Adj Close': 2.670313}, {'Date': '1999/7/23', 'Adj Close': 2.864063}, {'Date': '1999/7/26', 'Adj Close': 2.648438}, {'Date': '1999/7/27', 'Adj Close': 2.525}, {'Date': '1999/7/28', 'Adj Close': 2.64375}, {'Date': '1999/7/29', 'Adj Close': 2.539063}, {'Date': '1999/7/30', 'Adj Close': 2.501563}, {'Date': '1999/8/2', 'Adj Close': 2.35}, {'Date': '1999/8/3', 'Adj Close': 2.371875}, {'Date': '1999/8/4', 'Adj Close': 2.210938}, {'Date': '1999/8/5', 'Adj Close': 2.43125}, {'Date': '1999/8/6', 'Adj Close': 2.239063}, {'Date': '1999/8/9', 'Adj Close': 2.1375}, {'Date': '1999/8/10', 'Adj Close': 2.275}, {'Date': '1999/8/11', 'Adj Close': 2.273438}, {'Date': '1999/8/12', 'Adj Close': 2.29375}, {'Date': '1999/8/13', 'Adj Close': 2.435938}, {'Date': '1999/8/16', 'Adj Close': 2.457813}, {'Date': '1999/8/17', 'Adj Close': 2.73125}, {'Date': '1999/8/18', 'Adj Close': 2.828125}, {'Date': '1999/8/19', 'Adj Close': 2.653125}, {'Date': '1999/8/20', 'Adj Close': 2.835938}, {'Date': '1999/8/23', 'Adj Close': 2.959375}, {'Date': '1999/8/24', 'Adj Close': 3.001563}, {'Date': '1999/8/25', 'Adj Close': 3.321875}, {'Date': '1999/8/26', 'Adj Close': 3.214063}, {'Date': '1999/8/27', 'Adj Close': 3.2125}, {'Date': '1999/8/30', 'Adj Close': 2.98125}, {'Date': '1999/8/31', 'Adj Close': 3.109375}, {'Date': '1999/9/1', 'Adj Close': 2.976563}, {'Date': '1999/9/2', 'Adj Close': 3.003125}, {'Date': '1999/9/3', 'Adj Close': 3.121875}, {'Date': '1999/9/7', 'Adj Close': 3.146875}, {'Date': '1999/9/8', 'Adj Close': 3.071875}, {'Date': '1999/9/9', 'Adj Close': 3.18125}, {'Date': '1999/9/10', 'Adj Close': 3.325}, {'Date': '1999/9/13', 'Adj Close': 3.165625}, {'Date': '1999/9/14', 'Adj Close': 3.3}, {'Date': '1999/9/15', 'Adj Close': 3.278125}, {'Date': '1999/9/16', 'Adj Close': 3.2625}, {'Date': '1999/9/17', 'Adj Close': 3.190625}, {'Date': '1999/9/20', 'Adj Close': 3.1375}, {'Date': '1999/9/21', 'Adj Close': 3.1125}, {'Date': '1999/9/22', 'Adj Close': 3.3}, {'Date': '1999/9/23', 'Adj Close': 3.1125}, {'Date': '1999/9/24', 'Adj Close': 3.25}, {'Date': '1999/9/27', 'Adj Close': 3.128125}, {'Date': '1999/9/28', 'Adj Close': 3.29375}, {'Date': '1999/9/29', 'Adj Close': 4.0375}, {'Date': '1999/9/30', 'Adj Close': 3.996875}, {'Date': '1999/10/1', 'Adj Close': 3.8625}, {'Date': '1999/10/4', 'Adj Close': 3.853125}, {'Date': '1999/10/5', 'Adj Close': 3.921875}, {'Date': '1999/10/6', 'Adj Close': 4.121875}, {'Date': '1999/10/7', 'Adj Close': 4.365625}, {'Date': '1999/10/8', 'Adj Close': 4.4625}, {'Date': '1999/10/11', 'Adj Close': 4.41875}, {'Date': '1999/10/12', 'Adj Close': 4.246875}, {'Date': '1999/10/13', 'Adj Close': 3.996875}, {'Date': '1999/10/14', 'Adj Close': 3.979688}, {'Date': '1999/10/15', 'Adj Close': 3.753125}, {'Date': '1999/10/18', 'Adj Close': 3.703125}, {'Date': '1999/10/19'99/12/8', 'Adj Close': 4.428125}, {'Date': '1999/12/9', 'Adj Close': 5.18125}, {'Date': '1999/12/10', 'Adj Close': 5.334375}, {'Date': '1999/12/13', 'Adj Close': 5.125}, {'Date': '1999/12/14', 'Adj Close': 4.78125}, {'Date': '1999/12/15', 'Adj Close': 4.825}, {'Date': '1999/12/16', 'Adj Close': 4.74375}, {'Date': '1999/12/17', 'Adj Close': 4.703125}, {'Date': '1999/12/20', 'Adj Close': 4.85}, {'Date': '1999/12/21', 'Adj Close': 4.99375}, {'Date': '1999/12/22', 'Adj Close': 4.884375}, {'Date': '1999/12/23', 'Adj Close': 4.5}, {'Date': '1999/12/27', 'Adj Close': 4.05625}, {'Date': '1999/12/28', 'Adj Close': 4.115625}, {'Date': '1999/12/29', 'Adj Close': 4.175}, {'Date': '1999/12/30', 'Adj Close': 3.953125}, {'Date': '1999/12/31', 'Adj Close': 3.80625}, {'Date': '2000/1/3', 'Adj Close': 4.46875}, {'Date': '2000/1/4', 'Adj Close': 4.096875}, {'Date': '2000/1/5', 'Adj Close': 3.4875}, {'Date': '2000/1/6', 'Adj Close': 3.278125}, {'Date': '2000/1/7', 'Adj Close': 3.478125}, {'Date': '2000/1/10', 'Adj Close': 3.459375}, {'Date': '2000/1/11', 'Adj Close': 3.3375}, {'Date': '2000/1/12', 'Adj Close': 3.178125}, {'Date': '2000/1/13', 'Adj Close': 3.296875}, {'Date': '2000/1/14', 'Adj Close': 3.2125}, {'Date': '2000/1/18', 'Adj Close': 3.20625}, {'Date': '2000/1/19', 'Adj Close': 3.340625}, {'Date': '2000/1/20', 'Adj Close': 3.2375}]</t>
+  </si>
+  <si>
+    <t>[{'Date': '3-Nov-16', 'Close': 17930.67}, {'Date': '2-Nov-16', 'Close': 17959.64}, {'Date': '1-Nov-16', 'Close': 18037.1}, {'Date': '31-Oct-16', 'Close': 18142.42}, {'Date': '28-Oct-16', 'Close': 18161.19}, {'Date': '27-Oct-16', 'Close': 18169.68}, {'Date': '26-Oct-16', 'Close': 18199.33}, {'Date': '25-Oct-16', 'Close': 18169.27}, {'Date': '24-Oct-16', 'Close': 18223.03}, {'Date': '21-Oct-16', 'Close': 18145.71}, {'Date': '20-Oct-16', 'Close': 18162.35}, {'Date': '19-Oct-16', 'Close': 18202.62}, {'Date': '18-Oct-16', 'Close': 18161.94}, {'Date': '17-Oct-16', 'Close': 18086.4}, {'Date': '14-Oct-16', 'Close': 18138.38}, {'Date': '13-Oct-16', 'Close': 18098.94}, {'Date': '12-Oct-16', 'Close': 18144.2}, {'Date': '11-Oct-16', 'Close': 18128.66}, {'Date': '10-Oct-16', 'Close': 18329.04}, {'Date': '7-Oct-16', 'Close': 18240.49}, {'Date': '6-Oct-16', 'Close': 18268.5}, {'Date': '5-Oct-16', 'Close': 18281.03}, {'Date': '4-Oct-16', 'Close': 18168.45}, {'Date': '3-Oct-16', 'Close': 18253.85}, {'Date': '30-Sep-16', 'Close': 18308.15}, {'Date': '29-Sep-16', 'Close': 18143.45}, {'Date': '28-Sep-16', 'Close': 18339.24}, {'Date': '27-Sep-16', 'Close': 18228.3}, {'Date': '26-Sep-16', 'Close': 18094.83}, {'Date': '23-Sep-16', 'Close': 18261.45}, {'Date': '22-Sep-16', 'Close': 18392.46}, {'Date': '21-Sep-16', 'Close': 18293.7}, {'Date': '20-Sep-16', 'Close': 18129.96}, {'Date': '19-Sep-16', 'Close': 18120.17}, {'Date': '16-Sep-16', 'Close': 18123.8}, {'Date': '15-Sep-16', 'Close': 18212.48}, {'Date': '14-Sep-16', 'Close': 18034.77}, {'Date': '13-Sep-16', 'Close': 18066.75}, {'Date': '12-Sep-16', 'Close': 18325.07}, {'Date': '9-Sep-16', 'Close': 18085.45}, {'Date': '8-Sep-16', 'Close': 18479.91}, {'Date': '7-Sep-16', 'Close': 18526.14}, {'Date': '6-Sep-16', 'Close': 18538.12}, {'Date': '2-Sep-16', 'Close': 18491.96}, {'Date': '1-Sep-16', 'Close': 18419.3}, {'Date': '31-Aug-16', 'Close': 18400.88}, {'Date': '30-Aug-16', 'Close': 18454.3}, {'Date': '29-Aug-16', 'Close': 18502.99}, {'Date': '26-Aug-16', 'Close': 18395.4}, {'Date': '25-Aug-16', 'Close': 18448.41}, {'Date': '24-Aug-16', 'Close': 18481.48}, {'Date': '23-Aug-16', 'Close': 18547.3}, {'Date': '22-Aug-16', 'Close': 18529.42}, {'Date': '19-Aug-16', 'Close': 18552.57}, {'Date': '18-Aug-16', 'Close': 18597.7}, {'Date': '17-Aug-16', 'Close': 18573.94}, {'Date': '16-Aug-16', 'Close': 18552.02}, {'Date': '15-Aug-16', 'Close': 18636.05}, {'Date': '12-Aug-16', 'Close': 18576.47}, {'Date': '11-Aug-16', 'Close': 18613.52}, {'Date': '10-Aug-16', 'Close': 18495.66}, {'Date': '9-Aug-16', 'Close': 18533.05}, {'Date': '8-Aug-16', 'Close': 18529.29}, {'Date': '5-Aug-16', 'Close': 18543.53}, {'Date': '4-Aug-16', 'Close': 18352.05}, {'Date': '3-Aug-16', 'Close': 18355.0}, {'Date': '2-Aug-16', 'Close': 18313.77}, {'Date': '1-Aug-16', 'Close': 18404.51}, {'Date': '29-Jul-16', 'Close': 18432.24}, {'Date': '28-Jul-16', 'Close': 18456.35}, {'Date': '27-Jul-16', 'Close': 18472.17}, {'Date': '26-Jul-16', 'Close': 18473.75}, {'Date': '25-Jul-16', 'Close': 18493.06}, {'Date': '22-Jul-16', 'Close': 18570.85}, {'Date': '21-Jul-16', 'Close': 18517.23}, {'Date': '20-Jul-16', 'Close': 18595.03}, {'Date': '19-Jul-16', 'Close': 18559.01}, {'Date': '18-Jul-16', 'Close': 18533.05}, {'Date': '15-Jul-16', 'Close': 18516.55}, {'Date': '14-Jul-16', 'Close': 18506.41}, {'Date': '13-Jul-16', 'Close': 18372.12}, {'Date': '12-Jul-16', 'Close': 18347.67}, {'Date': '11-Jul-16', 'Close': 18226.93}, {'Date': '8-Jul-16', 'Close': 18146.74}, {'Date': '7-Jul-16', 'Close': 17895.88}, {'Date': '6-Jul-16', 'Close': 17918.62}, {'Date': '5-Jul-16', 'Close': 17840.62}, {'Date': '1-Jul-16', 'Close': 17949.37}, {'Date': '30-Jun-16', 'Close': 17929.99}, {'Date': '29-Jun-16', 'Close': 17694.68}, {'Date': '28-Jun-16', 'Close': 17409.72}, {'Date': '27-Jun-16', 'Close': 17140.24}, {'Date': '24-Jun-16', 'Close': 17400.75}, {'Date': '23-Jun-16', 'Close': 18011.07}, {'Date': '22-Jun-16', 'Close': 17780.83}, {'Date': '21-Jun-16', 'Close': 17829.73}, {'Date': '20-Jun-16', 'Close': 17804.87}, {'Date': '17-Jun-16', 'Close': 17675.16}, {'Date': '16-Jun-16', 'Close': 17733.1}, {'Date': '15-Jun-16', 'Close': 17640.17}, {'Date': '14-Jun-16', 'Close': 17674.82}, {'Date': '13-Jun-16', 'Close': 17732.48}, {'Date': '10-Jun-16', 'Close': 17865.34}, {'Date': '9-Jun-16', 'Close': 17985.19}, {'Date': '8-Jun-16', 'Close': 18005.05}, {'Date': '7-Jun-16', 'Close': 17938.28}, {'Date': '6-Jun-16', 'Close': 17920.33}, {'Date': '3-Jun-16', 'Close': 17807.06}, {'Date': '2-Jun-16', 'Close': 17838.56}, {'Date': '1-Jun-16', 'Close': 17789.67}, {'Date': '31-May-16', 'Close': 17787.2}, {'Date': '27-May-16', 'Close': 17873.22}, {'Date': '26-May-16', 'Close': 17828.29}, {'Date': '25-May-16', 'Close': 17851.51}, {'Date': '24-May-16', 'Close': 17706.05}, {'Date': '23-May-16', 'Close': 17492.93}, {'Date': '20-May-16', 'Close': 17500.94}, {'Date': '19-May-16', 'Close': 17435.4}, {'Date': '18-May-16', 'Close': 17526.62}, {'Date': '17-May-16', 'Close': 17529.98}, {'Date': '16-May-16', 'Close': 17710.71}, {'Date': '13-May-16', 'Close': 17535.32}, {'Date': '12-May-16', 'Close': 17720.5}, {'Date': '11-May-16', 'Close': 17711.12}, {'Date': '10-May-16', 'Close': 17928.35}, {'Date': '9-May-16', 'Close': 17705.91}, {'Date': '6-May-16', 'Close': 17740.63}, {'Date': '5-May-16', 'Close': 17660.71}, {'Date': '4-May-16', 'Close': 17651.26}, {'Date': '3-May-16', 'Close': 17750.91}, {'Date': '2-May-16', 'Close': 17891.16}, {'Date': '29-Apr-16', 'Close': 17773.64}, {'Date': '28-Apr-16', 'Close': 17830.76}, {'Date': '27-Apr-16', 'Close': 18041.55}, {'Date': '26-Apr-16', 'Close': 17990.32}, {'Date': '25-Apr-16', 'Close': 17977.24}, {'Date': '22-Apr-16', 'Close': 18003.75}, {'Date': '21-Apr-16', 'Close': 17982.52}, {'Date': '20-Apr-16', 'Close': 18096.27}, {'Date': '19-Apr-16', 'Close': 18053.6}, {'Date': '18-Apr-16', 'Close': 18004.16}, {'Date': '15-Apr-16', 'Close': 17897.46}, {'Date': '14-Apr-16', 'Close': 17926.43}, {'Date': '13-Apr-16', 'Close': 17908.28}, {'Date': '12-Apr-16', 'Close': 17721.25}, {'Date': '11-Apr-16', 'Close': 17556.41}, {'Date': '8-Apr-16', 'Close': 17576.96}, {'Date': '7-Apr-16', 'Close': 17541.96}, {'Date': '6-Apr-16', 'Close': 17716.05}, {'Date': '5-Apr-16', 'Close': 17603.32}, {'Date': '4-Apr-16', 'Close': 17737.0}, {'Date': '1-Apr-16', 'Close': 17792.75}, {'Date': '31-Mar-16', 'Close': 17685.09}, {'Date': '30-Mar-16', 'Close': 17716.66}, {'Date': '29-Mar-16', 'Close': 17633.11}, {'Date': '28-Mar-16', 'Close': 17535.39}, {'Date': '24-Mar-16', 'Close': 17515.73}, {'Date': '23-Mar-16', 'Close': 17502.59}, {'Date': '22-Mar-16', 'Close': 17582.57}, {'Date': '21-Mar-16', 'Close': 17623.87}, {'Date': '18-Mar-16', 'Close': 17602.3}, {'Date': '17-Mar-16', 'Close': 17481.49}, {'Date': '16-Mar-16', 'Close': 17325.76}, {'Date': '15-Mar-16', 'Close': 17251.53}, {'Date': '14-Mar-16', 'Close': 17229.13}, {'Date': '11-Mar-16', 'Close': 17213.31}, {'Date': '10-Mar-16', 'Close': 16995.13}, {'Date': '9-Mar-16', 'Close': 17000.36}, {'Date': '8-Mar-16', 'Close': 16964.1}, {'Date': '7-Mar-16', 'Close': 17073.95}, {'Date': '4-Mar-16', 'Close': 17006.77}, {'Date': '3-Mar-16', 'Close': 16943.9}, {'Date': '2-Mar-16', 'Close': 16899.32}, {'Date': '1-Mar-16', 'Close': 16865.08}, {'Date': '29-Feb-16', 'Close': 16516.5}, {'Date': '26-Feb-16', 'Close': 16639.97}, {'Date': '25-Feb-16', 'Close': 16697.29}, {'Date': '24-Feb-16', 'Close': 16484.99}, {'Date': '23-Feb-16', 'Close': 16431.78}, {'Date': '22-Feb-16', 'Close': 16620.66}, {'Date': '19-Feb-16', 'Close': 16391.99}, {'Date': '18-Feb-16', 'Close': 16413.43}, {'Date': '17-Feb-16', 'Close': 16453.83}, {'Date': '16-Feb-16', 'Close': 16196.41}, {'Date': '12-Feb-16', 'Close': 15973.84}, {'Date': '11-Feb-16', 'Close': 15660.18}, {'Date': '10-Feb-16', 'Close': 15914.74}, {'Date': '9-Feb-16', 'Close': 16014.38}, {'Date': '8-Feb-16', 'Close': 16027.05}, {'Date': '5-Feb-16', 'Close': 16204.97}, {'Date': '4-Feb-16', 'Close': 16416.58}, {'Date': '3-Feb-16', 'Close': 16336.66}, {'Date': '2-Feb-16', 'Close': 16153.54}, {'Date': '1-Feb-16', 'Close': 16449.18}, {'Date': '29-Jan-16', 'Close': 16466.3}, {'Date': '28-Jan-16', 'Close': 16069.64}, {'Date': '27-Jan-16', 'Close': 15944.46}, {'Date': '26-Jan-16', 'Close': 16167.23}, {'Date': '25-Jan-16', 'Close': 15885.22}, {'Date': '22-Jan-16', 'Close': 16093.51}, {'Date': '21-Jan-16', 'Close': 15882.68}, {'Date': '20-Jan-16', 'Close': 15766.74}, {'Date': '19-Jan-16', 'Close': 16016.02}, {'Date': '15-Jan-16', 'Close': 15988.08}, {'Date': '14-Jan-16', 'Close': 16379.05}, {'Date': '13-Jan-16', 'Close': 16151.41}, {'Date': '12-Jan-16', 'Close': 16516.22}, {'Date': '11-Jan-16', 'Close': 16398.57}, {'Date': '8-Jan-16', 'Close': 16346.45}, {'Date': '7-Jan-16', 'Close': 16514.1}, {'Date': '6-Jan-16', 'Close': 16906.51}, {'Date': '5-Jan-16', 'Close': 17158.66}, {'Date': '4-Jan-16', 'Close': 17148.94}, {'Date': '31-Dec-15', 'Close': 17425.03}, {'Date': '30-Dec-15', 'Close': 17603.87}, {'Date': '29-Dec-15', 'Close': 17720.98}, {'Date': '28-Dec-15', 'Close': 17528.27}, {'Date': '24-Dec-15', 'Close': 17552.17}, {'Date': '23-Dec-15', 'Close': 17602.61}, {'Date': '22-Dec-15', 'Close': 17417.27}, {'Date': '21-Dec-15', 'Close': 17251.62}, {'Date': '18-Dec-15', 'Close': 17128.55}, {'Date': '17-Dec-15', 'Close': 17495.84}, {'Date': '16-Dec-15', 'Close': 17749.09}, {'Date': '15-Dec-15', 'Close': 17524.91}, {'Date': '14-Dec-15', 'Close': 17368.5}, {'Date': '11-Dec-15', 'Close': 17265.21}, {'Date': '10-Dec-15', 'Close': 17574.75}, {'Date': '9-Dec-15', 'Close': 17492.3}, {'Date': '8-Dec-15', 'Close': 17568.0}, {'Date': '7-Dec-15', 'Close': 17730.51}, {'Date': '4-Dec-15', 'Close': 17847.63}, {'Date': '3-Dec-15', 'Close': 17477.67}, {'Date': '2-Dec-15', 'Close': 17729.68}, {'Date': '1-Dec-15', 'Close': 17888.35}, {'Date': '30-Nov-15', 'Close': 17719.92}, {'Date': '27-Nov-15', 'Close': 17813.39}, {'Date': '25-Nov-15', 'Close': 17813.39}, {'Date': '24-Nov-15', 'Close': 17812.19}, {'Date': '23-Nov-15', 'Close': 17792.68}, {'Date': '20-Nov-15', 'Close': 17823.81}, {'Date': '19-Nov-15', 'Close': 17732.75}, {'Date': '18-Nov-15', 'Close': 17737.16}, {'Date': '17-Nov-15', 'Close': 17489.5}, {'Date': '16-Nov-15', 'Close': 17483.01}, {'Date': '13-Nov-15', 'Close': 17245.24}, {'Date': '12-Nov-15', 'Close': 17448.07}, {'Date': '11-Nov-15', 'Close': 17702.22}, {'Date': '10-Nov-15', 'Close': 17758.21}, {'Date': '9-Nov-15', 'Close': 17730.48}, {'Date': '6-Nov-15', 'Close': 17910.33}, {'Date': '5-Nov-15', 'Close': 17863.43}, {'Date': '4-Nov-15', 'Close': 17867.58}, {'Date': '3-Nov-15', 'Close': 17918.15}, {'Date': '2-Nov-15', 'Close': 17828.76}, {'Date': '30-Oct-15', 'Close': 17663.54}, {'Date': '29-Oct-15', 'Close': 17755.8}, {'Date': '28-Oct-15', 'Close': 17779.52}, {'Date': '27-Oct-15', 'Close': 17581.43}, {'Date': '26-Oct-15', 'Close': 17623.05}, {'Date': '23-Oct-15', 'Close': 17646.7}, {'Date': '22-Oct-15', 'Close': 17489.16}, {'Date': '21-Oct-15', 'Close': 17168.61}, {'Date': '20-Oct-15', 'Close': 17217.11}, {'Date': '19-Oct-15', 'Close': 17230.54}, {'Date': '16-Oct-15', 'Close': 17215.97}, {'Date': '15-Oct-15', 'Close': 17141.75}, {'Date': '14-Oct-15', 'Close': 16924.75}, {'Date': '13-Oct-15', 'Close': 17081.89}, {'Date': '12-Oct-15', 'Close': 17131.86}]</t>
+  </si>
+  <si>
+    <t>[{'Date': '25-Jan-18', 'Close': '26,392.79'}, {'Date': '24-Jan-18', 'Close': '26,252.12'}, {'Date': '23-Jan-18', 'Close': '26,210.81'}, {'Date': '22-Jan-18', 'Close': '26,214.60'}, {'Date': '19-Jan-18', 'Close': '26,071.72'}, {'Date': '18-Jan-18', 'Close': '26,017.81'}, {'Date': '17-Jan-18', 'Close': '26,115.65'}, {'Date': '16-Jan-18', 'Close': '25,792.86'}, {'Date': '12-Jan-18', 'Close': '25,803.19'}, {'Date': '11-Jan-18', 'Close': '25,574.73'}, {'Date': '10-Jan-18', 'Close': '25,369.13'}, {'Date': '9-Jan-18', 'Close': '25,385.80'}, {'Date': '8-Jan-18', 'Close': '25,283.00'}, {'Date': '5-Jan-18', 'Close': '25,295.87'}, {'Date': '4-Jan-18', 'Close': '25,075.13'}, {'Date': '3-Jan-18', 'Close': '24,922.68'}, {'Date': '2-Jan-18', 'Close': '24,824.01'}, {'Date': '29-Dec-17', 'Close': '24,719.22'}, {'Date': '28-Dec-17', 'Close': '24,837.51'}, {'Date': '27-Dec-17', 'Close': '24,774.30'}, {'Date': '26-Dec-17', 'Close': '24,746.21'}, {'Date': '22-Dec-17', 'Close': '24,754.06'}, {'Date': '21-Dec-17', 'Close': '24,782.29'}, {'Date': '20-Dec-17', 'Close': '24,726.65'}, {'Date': '19-Dec-17', 'Close': '24,754.75'}, {'Date': '18-Dec-17', 'Close': '24,792.20'}, {'Date': '15-Dec-17', 'Close': '24,651.74'}, {'Date': '14-Dec-17', 'Close': '24,508.66'}, {'Date': '13-Dec-17', 'Close': '24,585.43'}, {'Date': '12-Dec-17', 'Close': '24,504.80'}, {'Date': '11-Dec-17', 'Close': '24,386.03'}, {'Date': '8-Dec-17', 'Close': '24,329.16'}, {'Date': '7-Dec-17', 'Close': '24,211.48'}, {'Date': '6-Dec-17', 'Close': '24,140.91'}, {'Date': '5-Dec-17', 'Close': '24,180.64'}, {'Date': '4-Dec-17', 'Close': '24,290.05'}, {'Date': '1-Dec-17', 'Close': '24,231.59'}, {'Date': '30-Nov-17', 'Close': '24,272.35'}, {'Date': '29-Nov-17', 'Close': '23,940.68'}, {'Date': '28-Nov-17', 'Close': '23,836.71'}, {'Date': '27-Nov-17', 'Close': '23,580.78'}, {'Date': '24-Nov-17', 'Close': '23,557.99'}, {'Date': '22-Nov-17', 'Close': '23,526.18'}, {'Date': '21-Nov-17', 'Close': '23,590.83'}, {'Date': '20-Nov-17', 'Close': '23,430.33'}, {'Date': '17-Nov-17', 'Close': '23,358.24'}, {'Date': '16-Nov-17', 'Close': '23,458.36'}, {'Date': '15-Nov-17', 'Close': '23,271.28'}, {'Date': '14-Nov-17', 'Close': '23,409.47'}, {'Date': '13-Nov-17', 'Close': '23,439.70'}, {'Date': '10-Nov-17', 'Close': '23,422.21'}, {'Date': '9-Nov-17', 'Close': '23,461.94'}, {'Date': '8-Nov-17', 'Close': '23,563.36'}, {'Date': '7-Nov-17', 'Close': '23,557.23'}, {'Date': '6-Nov-17', 'Close': '23,548.42'}, {'Date': '3-Nov-17', 'Close': '23,539.19'}, {'Date': '2-Nov-17', 'Close': '23,516.26'}, {'Date': '1-Nov-17', 'Close': '23,435.01'}, {'Date': '31-Oct-17', 'Close': '23,377.24'}, {'Date': '30-Oct-17', 'Close': '23,348.74'}, {'Date': '27-Oct-17', 'Close': '23,434.19'}, {'Date': '26-Oct-17', 'Close': '23,400.86'}, {'Date': '25-Oct-17', 'Close': '23,329.46'}, {'Date': '24-Oct-17', 'Close': '23,441.76'}, {'Date': '23-Oct-17', 'Close': '23,273.96'}, {'Date': '20-Oct-17', 'Close': '23,328.63'}, {'Date': '19-Oct-17', 'Close': '23,163.04'}, {'Date': '18-Oct-17', 'Close': '23,157.60'}, {'Date': '17-Oct-17', 'Close': '22,997.44'}, {'Date': '16-Oct-17', 'Close': '22,956.96'}, {'Date': '13-Oct-17', 'Close': '22,871.72'}, {'Date': '12-Oct-17', 'Close': '22,841.01'}, {'Date': '11-Oct-17', 'Close': '22,872.89'}, {'Date': '10-Oct-17', 'Close': '22,830.68'}, {'Date': '9-Oct-17', 'Close': '22,761.07'}, {'Date': '6-Oct-17', 'Close': '22,773.67'}, {'Date': '5-Oct-17', 'Close': '22,775.39'}, {'Date': '4-Oct-17', 'Close': '22,661.64'}, {'Date': '3-Oct-17', 'Close': '22,641.67'}, {'Date': '2-Oct-17', 'Close': '22,557.60'}, {'Date': '29-Sep-17', 'Close': '22,405.09'}, {'Date': '28-Sep-17', 'Close': '22,381.20'}, {'Date': '27-Sep-17', 'Close': '22,340.71'}, {'Date': '26-Sep-17', 'Close': '22,284.32'}, {'Date': '25-Sep-17', 'Close': '22,296.09'}, {'Date': '22-Sep-17', 'Close': '22,349.59'}, {'Date': '21-Sep-17', 'Close': '22,359.23'}, {'Date': '20-Sep-17', 'Close': '22,412.59'}, {'Date': '19-Sep-17', 'Close': '22,370.80'}, {'Date': '18-Sep-17', 'Close': '22,331.35'}, {'Date': '15-Sep-17', 'Close': '22,268.34'}, {'Date': '14-Sep-17', 'Close': '22,203.48'}, {'Date': '13-Sep-17', 'Close': '22,158.18'}, {'Date': '12-Sep-17', 'Close': '22,118.86'}, {'Date': '11-Sep-17', 'Close': '22,057.37'}, {'Date': '8-Sep-17', 'Close': '21,797.79'}, {'Date': '7-Sep-17', 'Close': '21,784.78'}, {'Date': '6-Sep-17', 'Close': '21,807.64'}, {'Date': '5-Sep-17', 'Close': '21,753.31'}, {'Date': '1-Sep-17', 'Close': '21,987.56'}, {'Date': '31-Aug-17', 'Close': '21,948.10'}, {'Date': '30-Aug-17', 'Close': '21,892.43'}, {'Date': '29-Aug-17', 'Close': '21,865.37'}, {'Date': '28-Aug-17', 'Close': '21,808.40'}, {'Date': '25-Aug-17', 'Close': '21,813.67'}, {'Date': '24-Aug-17', 'Close': '21,783.40'}, {'Date': '23-Aug-17', 'Close': '21,812.09'}, {'Date': '22-Aug-17', 'Close': '21,899.89'}, {'Date': '21-Aug-17', 'Close': '21,703.75'}, {'Date': '18-Aug-17', 'Close': '21,674.51'}, {'Date': '17-Aug-17', 'Close': '21,750.73'}, {'Date': '16-Aug-17', 'Close': '22,024.87'}, {'Date': '15-Aug-17', 'Close': '21,998.99'}, {'Date': '14-Aug-17', 'Close': '21,993.71'}, {'Date': '11-Aug-17', 'Close': '21,858.32'}, {'Date': '10-Aug-17', 'Close': '21,844.01'}, {'Date': '9-Aug-17', 'Close': '22,048.70'}, {'Date': '8-Aug-17', 'Close': '22,085.34'}, {'Date': '7-Aug-17', 'Close': '22,118.42'}, {'Date': '4-Aug-17', 'Close': '22,092.81'}, {'Date': '3-Aug-17', 'Close': '22,026.10'}, {'Date': '2-Aug-17', 'Close': '22,016.24'}, {'Date': '1-Aug-17', 'Close': '21,963.92'}, {'Date': '31-Jul-17', 'Close': '21,891.12'}, {'Date': '28-Jul-17', 'Close': '21,830.31'}, {'Date': '27-Jul-17', 'Close': '21,796.55'}, {'Date': '26-Jul-17', 'Close': '21,711.01'}, {'Date': '25-Jul-17', 'Close': '21,613.43'}, {'Date': '24-Jul-17', 'Close': '21,513.17'}, {'Date': '21-Jul-17', 'Close': '21,580.07'}, {'Date': '20-Jul-17', 'Close': '21,611.78'}, {'Date': '19-Jul-17', 'Close': '21,640.75'}, {'Date': '18-Jul-17', 'Close': '21,574.73'}, {'Date': '17-Jul-17', 'Close': '21,629.72'}, {'Date': '14-Jul-17', 'Close': '21,637.74'}, {'Date': '13-Jul-17', 'Close': '21,553.09'}, {'Date': '12-Jul-17', 'Close': '21,532.14'}, {'Date': '11-Jul-17', 'Close': '21,409.07'}, {'Date': '10-Jul-17', 'Close': '21,408.52'}, {'Date': '7-Jul-17', 'Close': '21,414.34'}, {'Date': '6-Jul-17', 'Close': '21,320.04'}, {'Date': '5-Jul-17', 'Close': '21,478.17'}, {'Date': '3-Jul-17', 'Close': '21,479.27'}, {'Date': '30-Jun-17', 'Close': '21,349.63'}, {'Date': '29-Jun-17', 'Close': '21,287.03'}, {'Date': '28-Jun-17', 'Close': '21,454.61'}, {'Date': '27-Jun-17', 'Close': '21,310.66'}, {'Date': '26-Jun-17', 'Close': '21,409.55'}, {'Date': '23-Jun-17', 'Close': '21,394.76'}, {'Date': '22-Jun-17', 'Close': '21,397.29'}, {'Date': '21-Jun-17', 'Close': '21,410.03'}, {'Date': '20-Jun-17', 'Close': '21,467.14'}, {'Date': '19-Jun-17', 'Close': '21,528.99'}, {'Date': '16-Jun-17', 'Close': '21,384.28'}, {'Date': '15-Jun-17', 'Close': '21,359.90'}, {'Date': '14-Jun-17', 'Close': '21,374.56'}, {'Date': '13-Jun-17', 'Close': '21,328.47'}, {'Date': '12-Jun-17', 'Close': '21,235.67'}, {'Date': '9-Jun-17', 'Close': '21,271.97'}, {'Date': '8-Jun-17', 'Close': '21,182.53'}, {'Date': '7-Jun-17', 'Close': '21,173.69'}, {'Date': '6-Jun-17', 'Close': '21,136.23'}, {'Date': '5-Jun-17', 'Close': '21,184.04'}, {'Date': '2-Jun-17', 'Close': '21,206.29'}, {'Date': '1-Jun-17', 'Close': '21,144.18'}, {'Date': '31-May-17', 'Close': '21,008.65'}, {'Date': '30-May-17', 'Close': '21,029.47'}, {'Date': '26-May-17', 'Close': '21,080.28'}, {'Date': '25-May-17', 'Close': '21,082.95'}, {'Date': '24-May-17', 'Close': '21,012.42'}, {'Date': '23-May-17', 'Close': '20,937.91'}, {'Date': '22-May-17', 'Close': '20,894.83'}, {'Date': '19-May-17', 'Close': '20,804.84'}, {'Date': '18-May-17', 'Close': '20,663.02'}, {'Date': '17-May-17', 'Close': '20,606.93'}, {'Date': '16-May-17', 'Close': '20,979.75'}, {'Date': '15-May-17', 'Close': '20,981.94'}, {'Date': '12-May-17', 'Close': '20,896.61'}, {'Date': '11-May-17', 'Close': '20,919.42'}, {'Date': '10-May-17', 'Close': '20,943.11'}, {'Date': '9-May-17', 'Close': '20,975.78'}, {'Date': '8-May-17', 'Close': '21,012.28'}, {'Date': '5-May-17', 'Close': '21,006.94'}, {'Date': '4-May-17', 'Close': '20,951.47'}, {'Date': '3-May-17', 'Close': '20,957.90'}, {'Date': '2-May-17', 'Close': '20,949.89'}, {'Date': '1-May-17', 'Close': '20,913.46'}, {'Date': '28-Apr-17', 'Close': '20,940.51'}, {'Date': '27-Apr-17', 'Close': '20,981.33'}, {'Date': '26-Apr-17', 'Close': '20,975.09'}, {'Date': '25-Apr-17', 'Close': '20,996.12'}, {'Date': '24-Apr-17', 'Close': '20,763.89'}, {'Date': '21-Apr-17', 'Close': '20,547.76'}, {'Date': '20-Apr-17', 'Close': '20,578.71'}, {'Date': '19-Apr-17', 'Close': '20,404.49'}, {'Date': '18-Apr-17', 'Close': '20,523.28'}, {'Date': '17-Apr-17', 'Close': '20,636.92'}, {'Date': '13-Apr-17', 'Close': '20,453.25'}, {'Date': '12-Apr-17', 'Close': '20,591.86'}, {'Date': '11-Apr-17', 'Close': '20,651.30'}, {'Date': '10-Apr-17', 'Close': '20,658.02'}, {'Date': '7-Apr-17', 'Close': '20,656.10'}, {'Date': '6-Apr-17', 'Close': '20,662.95'}, {'Date': '5-Apr-17', 'Close': '20,648.15'}, {'Date': '4-Apr-17', 'Close': '20,689.24'}, {'Date': '3-Apr-17', 'Close': '20,650.21'}, {'Date': '31-Mar-17', 'Close': '20,663.22'}, {'Date': '30-Mar-17', 'Close': '20,728.49'}, {'Date': '29-Mar-17', 'Close': '20,659.32'}, {'Date': '28-Mar-17', 'Close': '20,701.50'}, {'Date': '27-Mar-17', 'Close': '20,550.98'}, {'Date': '24-Mar-17', 'Close': '20,596.72'}, {'Date': '23-Mar-17', 'Close': '20,656.58'}, {'Date': '22-Mar-17', 'Close': '20,661.30'}, {'Date': '21-Mar-17', 'Close': '20,668.01'}, {'Date': '20-Mar-17', 'Close': '20,905.86'}, {'Date': '17-Mar-17', 'Close': '20,914.62'}, {'Date': '16-Mar-17', 'Close': '20,934.55'}, {'Date': '15-Mar-17', 'Close': '20,950.10'}, {'Date': '14-Mar-17', 'Close': '20,837.37'}, {'Date': '13-Mar-17', 'Close': '20,881.48'}, {'Date': '10-Mar-17', 'Close': '20,902.98'}, {'Date': '9-Mar-17', 'Close': '20,858.19'}, {'Date': '8-Mar-17', 'Close': '20,855.73'}, {'Date': '7-Mar-17', 'Close': '20,924.76'}, {'Date': '6-Mar-17', 'Close': '20,954.34'}, {'Date': '3-Mar-17', 'Close': '21,005.71'}, {'Date': '2-Mar-17', 'Close': '21,002.97'}, {'Date': '1-Mar-17', 'Close': '21,115.55'}, {'Date': '28-Feb-17', 'Close': '20,812.24'}, {'Date': '27-Feb-17', 'Close': '20,837.44'}, {'Date': '24-Feb-17', 'Close': '20,821.76'}, {'Date': '23-Feb-17', 'Close': '20,810.32'}, {'Date': '22-Feb-17', 'Close': '20,775.60'}, {'Date': '21-Feb-17', 'Close': '20,743.00'}, {'Date': '17-Feb-17', 'Close': '20,624.05'}, {'Date': '16-Feb-17', 'Close': '20,619.77'}, {'Date': '15-Feb-17', 'Close': '20,611.86'}, {'Date': '14-Feb-17', 'Close': '20,504.41'}, {'Date': '13-Feb-17', 'Close': '20,412.16'}, {'Date': '10-Feb-17', 'Close': '20,269.37'}, {'Date': '9-Feb-17', 'Close': '20,172.40'}, {'Date': '8-Feb-17', 'Close': '20,054.34'}, {'Date': '7-Feb-17', 'Close': '20,090.29'}, {'Date': '6-Feb-17', 'Close': '20,052.42'}, {'Date': '3-Feb-17', 'Close': '20,071.46'}, {'Date': '2-Feb-17', 'Close': '19,884.91'}, {'Date': '1-Feb-17', 'Close': '19,890.94'}, {'Date': '31-Jan-17', 'Close': '19,864.09'}, {'Date': '30-Jan-17', 'Close': '19,971.13'}, {'Date': '27-Jan-17', 'Close': '20,093.78'}]</t>
+  </si>
+  <si>
+    <t>[{'Date': '7-May-20', 'Close': '23,875.89'}, {'Date': '6-May-20', 'Close': '23,664.64'}, {'Date': '5-May-20', 'Close': '23,883.09'}, {'Date': '4-May-20', 'Close': '23,749.76'}, {'Date': '1-May-20', 'Close': '23,723.69'}, {'Date': '30-Apr-20', 'Close': '24,345.72'}, {'Date': '29-Apr-20', 'Close': '24,633.86'}, {'Date': '28-Apr-20', 'Close': '24,101.55'}, {'Date': '27-Apr-20', 'Close': '24,133.78'}, {'Date': '24-Apr-20', 'Close': '23,775.27'}, {'Date': '23-Apr-20', 'Close': '23,515.26'}, {'Date': '22-Apr-20', 'Close': '23,475.82'}, {'Date': '21-Apr-20', 'Close': '23,018.88'}, {'Date': '20-Apr-20', 'Close': '23,650.44'}, {'Date': '17-Apr-20', 'Close': '24,242.49'}, {'Date': '16-Apr-20', 'Close': '23,537.68'}, {'Date': '15-Apr-20', 'Close': '23,504.35'}, {'Date': '14-Apr-20', 'Close': '23,949.76'}, {'Date': '13-Apr-20', 'Close': '23,390.77'}, {'Date': '9-Apr-20', 'Close': '23,719.37'}, {'Date': '8-Apr-20', 'Close': '23,433.57'}, {'Date': '7-Apr-20', 'Close': '22,653.86'}, {'Date': '6-Apr-20', 'Close': '22,679.99'}, {'Date': '3-Apr-20', 'Close': '21,052.53'}, {'Date': '2-Apr-20', 'Close': '21,413.44'}, {'Date': '1-Apr-20', 'Close': '20,943.51'}, {'Date': '31-Mar-20', 'Close': '21,917.16'}, {'Date': '30-Mar-20', 'Close': '22,327.48'}, {'Date': '27-Mar-20', 'Close': '21,636.78'}, {'Date': '26-Mar-20', 'Close': '22,552.17'}, {'Date': '25-Mar-20', 'Close': '21,200.55'}, {'Date': '24-Mar-20', 'Close': '20,704.91'}, {'Date': '23-Mar-20', 'Close': '18,591.93'}, {'Date': '20-Mar-20', 'Close': '19,173.98'}, {'Date': '19-Mar-20', 'Close': '20,087.19'}, {'Date': '18-Mar-20', 'Close': '19,898.92'}, {'Date': '17-Mar-20', 'Close': '21,237.38'}, {'Date': '16-Mar-20', 'Close': '20,188.52'}, {'Date': '13-Mar-20', 'Close': '23,185.62'}, {'Date': '12-Mar-20', 'Close': '21,200.62'}, {'Date': '11-Mar-20', 'Close': '23,553.22'}, {'Date': '10-Mar-20', 'Close': '25,018.16'}, {'Date': '9-Mar-20', 'Close': '23,851.02'}, {'Date': '6-Mar-20', 'Close': '25,864.78'}, {'Date': '5-Mar-20', 'Close': '26,121.28'}, {'Date': '4-Mar-20', 'Close': '27,090.86'}, {'Date': '3-Mar-20', 'Close': '25,917.41'}, {'Date': '2-Mar-20', 'Close': '26,703.32'}, {'Date': '28-Feb-20', 'Close': '25,409.36'}, {'Date': '27-Feb-20', 'Close': '25,766.64'}, {'Date': '26-Feb-20', 'Close': '26,957.59'}, {'Date': '25-Feb-20', 'Close': '27,081.36'}, {'Date': '24-Feb-20', 'Close': '27,960.80'}, {'Date': '21-Feb-20', 'Close': '28,992.41'}, {'Date': '20-Feb-20', 'Close': '29,219.98'}, {'Date': '19-Feb-20', 'Close': '29,348.03'}, {'Date': '18-Feb-20', 'Close': '29,232.19'}, {'Date': '14-Feb-20', 'Close': '29,398.08'}, {'Date': '13-Feb-20', 'Close': '29,423.31'}, {'Date': '12-Feb-20', 'Close': '29,551.42'}, {'Date': '11-Feb-20', 'Close': '29,276.34'}, {'Date': '10-Feb-20', 'Close': '29,276.82'}, {'Date': '7-Feb-20', 'Close': '29,102.51'}, {'Date': '6-Feb-20', 'Close': '29,379.77'}, {'Date': '5-Feb-20', 'Close': '29,290.85'}, {'Date': '4-Feb-20', 'Close': '28,807.63'}, {'Date': '3-Feb-20', 'Close': '28,399.81'}, {'Date': '31-Jan-20', 'Close': '28,256.03'}, {'Date': '30-Jan-20', 'Close': '28,859.44'}, {'Date': '29-Jan-20', 'Close': '28,734.45'}, {'Date': '28-Jan-20', 'Close': '28,722.85'}, {'Date': '27-Jan-20', 'Close': '28,535.80'}, {'Date': '24-Jan-20', 'Close': '28,989.73'}, {'Date': '23-Jan-20', 'Close': '29,160.09'}, {'Date': '22-Jan-20', 'Close': '29,186.27'}, {'Date': '21-Jan-20', 'Close': '29,196.04'}, {'Date': '17-Jan-20', 'Close': '29,348.10'}, {'Date': '16-Jan-20', 'Close': '29,297.64'}, {'Date': '15-Jan-20', 'Close': '29,030.22'}, {'Date': '14-Jan-20', 'Close': '28,939.67'}, {'Date': '13-Jan-20', 'Close': '28,907.05'}, {'Date': '10-Jan-20', 'Close': '28,823.77'}, {'Date': '9-Jan-20', 'Close': '28,956.90'}]</t>
+  </si>
+  <si>
+    <t>[{'Date': '2018/4/27', 'Close': 78.630997}, {'Date': '2018/4/30', 'Close': 78.306503}, {'Date': '2018/5/1', 'Close': 79.112999}, {'Date': '2018/5/2', 'Close': 78.484001}, {'Date': '2018/5/3', 'Close': 78.603996}, {'Date': '2018/5/4', 'Close': 79.047501}, {'Date': '2018/5/7', 'Close': 80.007004}, {'Date': '2018/5/8', 'Close': 79.619499}, {'Date': '2018/5/9', 'Close': 80.400002}, {'Date': '2018/5/10', 'Close': 80.454002}, {'Date': '2018/5/11', 'Close': 80.1455}, {'Date': '2018/5/14', 'Close': 80.077003}, {'Date': '2018/5/15', 'Close': 78.806}, {'Date': '2018/5/16', 'Close': 79.363998}, {'Date': '2018/5/17', 'Close': 79.087997}, {'Date': '2018/5/18', 'Close': 78.718498}, {'Date': '2018/5/21', 'Close': 79.273003}, {'Date': '2018/5/22', 'Close': 79.07}, {'Date': '2018/5/23', 'Close': 80.093002}, {'Date': '2018/5/24', 'Close': 80.153503}, {'Date': '2018/5/25', 'Close': 80.5075}, {'Date': '2018/5/29', 'Close': 80.643501}, {'Date': '2018/5/30', 'Close': 81.244499}, {'Date': '2018/5/31', 'Close': 81.481003}, {'Date': '2018/6/1', 'Close': 82.077003}, {'Date': '2018/6/4', 'Close': 83.263496}, {'Date': '2018/6/5', 'Close': 84.817497}, {'Date': '2018/6/6', 'Close': 84.787498}, {'Date': '2018/6/7', 'Close': 84.464996}, {'Date': '2018/6/8', 'Close': 84.199501}, {'Date': '2018/6/11', 'Close': 84.456001}, {'Date': '2018/6/12', 'Close': 84.9375}, {'Date': '2018/6/13', 'Close': 85.242996}, {'Date': '2018/6/14', 'Close': 86.193001}, {'Date': '2018/6/15', 'Close': 85.7985}, {'Date': '2018/6/18', 'Close': 86.189499}, {'Date': '2018/6/19', 'Close': 86.738998}, {'Date': '2018/6/20', 'Close': 87.503998}, {'Date': '2018/6/21', 'Close': 86.511002}, {'Date': '2018/6/22', 'Close': 85.783501}, {'Date': '2018/6/25', 'Close': 83.157501}, {'Date': '2018/6/26', 'Close': 84.554497}, {'Date': '2018/6/27', 'Close': 83.025497}, {'Date': '2018/6/28', 'Close': 85.072502}, {'Date': '2018/6/29', 'Close': 84.989998}, {'Date': '2018/7/2', 'Close': 85.689003}, {'Date': '2018/7/3', 'Close': 84.697998}, {'Date': '2018/7/5', 'Close': 84.986504}, {'Date': '2018/7/6', 'Close': 85.531502}, {'Date': '2018/7/9', 'Close': 86.950996}, {'Date': '2018/7/10', 'Close': 87.153503}, {'Date': '2018/7/11', 'Close': 87.75}, {'Date': '2018/7/12', 'Close': 89.831001}, {'Date': '2018/7/13', 'Close': 90.651497}, {'Date': '2018/7/16', 'Close': 91.124496}, {'Date': '2018/7/17', 'Close': 92.196503}, {'Date': '2018/7/18', 'Close': 92.146004}, {'Date': '2018/7/19', 'Close': 90.648499}, {'Date': '2018/7/20', 'Close': 90.684998}, {'Date': '2018/7/23', 'Close': 90.099998}, {'Date': '2018/7/24', 'Close': 91.461998}, {'Date': '2018/7/25', 'Close': 93.180496}, {'Date': '2018/7/26', 'Close': 90.400002}, {'Date': '2018/7/27', 'Close': 90.863503}, {'Date': '2018/7/30', 'Close': 88.960999}, {'Date': '2018/7/31', 'Close': 88.872002}, {'Date': '2018/8/1', 'Close': 89.858498}, {'Date': '2018/8/2', 'Close': 91.716499}, {'Date': '2018/8/3', 'Close': 91.164497}, {'Date': '2018/8/6', 'Close': 92.387497}, {'Date': '2018/8/7', 'Close': 93.124001}, {'Date': '2018/8/8', 'Close': 94.325996}, {'Date': '2018/8/9', 'Close': 94.926003}, {'Date': '2018/8/10', 'Close': 94.315002}, {'Date': '2018/8/13', 'Close': 94.809998}, {'Date': '2018/8/14', 'Close': 95.982498}, {'Date': '2018/8/15', 'Close': 94.130997}, {'Date': '2018/8/16', 'Close': 94.325996}, {'Date': '2018/8/17', 'Close': 94.111}, {'Date': '2018/8/20', 'Close': 93.835503}, {'Date': '2018/8/21', 'Close': 94.170998}, {'Date': '2018/8/22', 'Close': 95.245003}, {'Date': '2018/8/23', 'Close': 95.144997}, {'Date': '2018/8/24', 'Close': 95.269501}, {'Date': '2018/8/27', 'Close': 96.384003}, {'Date': '2018/8/28', 'Close': 96.640999}, {'Date': '2018/8/29', 'Close': 99.904999}, {'Date': '2018/8/30', 'Close': 100.119003}, {'Date': '2018/8/31', 'Close': 100.635498}, {'Date': '2018/9/4', 'Close': 101.975502}, {'Date': '2018/9/5', 'Close': 101.740997}, {'Date': '2018/9/6', 'Close': 99.915497}, {'Date': '2018/9/7', 'Close': 98.6035}, {'Date': '2018/9/10', 'Close': 97.9505}, {'Date': '2018/9/11', 'Close': 97.357498}, {'Date': '2018/9/12', 'Close': 96.93}, {'Date': '2018/9/13', 'Close': 96.7935}, {'Date': '2018/9/14', 'Close': 96.809499}, {'Date': '2018/9/17', 'Close': 96.901497}, {'Date': '2018/9/18', 'Close': 97.052498}, {'Date': '2018/9/19', 'Close': 96.320999}, {'Date': '2018/9/20', 'Close': 97.214996}, {'Date': '2018/9/21', 'Close': 95.750504}, {'Date': '2018/9/24', 'Close': 96.718002}, {'Date': '2018/9/25', 'Close': 98.727501}, {'Date': '2018/9/26', 'Close': 98.7425}, {'Date': '2018/9/27', 'Close': 100.649002}, {'Date': '2018/9/28', 'Close': 100.150002}, {'Date': '2018/10/1', 'Close': 100.218002}, {'Date': '2018/10/2', 'Close': 98.565498}, {'Date': '2018/10/3', 'Close': 97.638}, {'Date': '2018/10/4', 'Close': 95.471001}, {'Date': '2018/10/5', 'Close': 94.482498}, {'Date': '2018/10/8', 'Close': 93.221001}, {'Date': '2018/10/9', 'Close': 93.515999}, {'Date': '2018/10/10', 'Close': 87.762497}, {'Date': '2018/10/11', 'Close': 85.968002}, {'Date': '2018/10/12', 'Close': 89.430496}, {'Date': '2018/10/15', 'Close': 88.047501}, {'Date': '2018/10/16', 'Close': 90.998001}, {'Date': '2018/10/17', 'Close': 91.586502}, {'Date': '2018/10/18', 'Close': 88.536003}, {'Date': '2018/10/19', 'Close': 88.2015}, {'Date': '2018/10/22', 'Close': 89.464996}, {'Date': '2018/10/23', 'Close': 88.434998}, {'Date': '2018/10/24', 'Close': 83.209999}, {'Date': '2018/10/25', 'Close': 89.108498}, {'Date': '2018/10/26', 'Close': 82.140503}, {'Date': '2018/10/29', 'Close': 76.944}, {'Date': '2018/10/30', 'Close': 76.521004}, {'Date': '2018/10/31', 'Close': 79.900497}, {'Date': '2018/11/1', 'Close': 83.276497}, {'Date': '2018/11/2', 'Close': 83.276497}, {'Date': '2018/11/5', 'Close': 81.389999}, {'Date': '2018/11/6', 'Close': 82.140503}, {'Date': '2018/11/7', 'Close': 87.774498}, {'Date': '2018/11/8', 'Close': 87.745499}, {'Date': '2018/11/9', 'Close': 85.621498}, {'Date': '2018/11/12', 'Close': 81.842499}, {'Date': '2018/11/13', 'Close': 81.558502}, {'Date': '2018/11/14', 'Close': 79.9505}, {'Date': '2018/11/15', 'Close': 80.972}, {'Date': '2018/11/16', 'Close': 79.670502}, {'Date': '2018/11/19', 'Close': 75.614502}, {'Date': '2018/11/20', 'Close': 74.773003}]</t>
+  </si>
+  <si>
+    <t>The chart of Amazon.com Inc. (AMZN) shows a double top pattern that formed in the stock between September and October 2018 around a price of $2,050. The important support level in this case formed around $1,880. Despite the stock falling nearly 8% from October peak to support at $1,880, one could not confirm the double top until after the stock fell below $1,880. From that point forward the shares went on to plunge almost 31% further.</t>
+  </si>
+  <si>
+    <t>pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head and shoulder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cup with handle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rouding bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uptrend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">down trend </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triple top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"Mini- and subcompact size","BeginIndex":"7","EndIndex":"7","Trend":"Declined","Number":"0.30"},{"ObjectName":"Mini- and subcompact size","BeginIndex":"0","EndIndex":"0","Trend":"None","Number":"0.61"}，{"ObjectName":"Compact Size" + "Midsize to large","BeginIndex":"7","EndIndex":"7","Trend":"upgrade trend","Number":"0.30" + "0.40"},{"ObjectName":"Compact Size" + "Midsize to large","BeginIndex":"0","EndIndex":"0","Trend":"None","Number":"0.35" + "0.04"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The object in unit 1 is "Mini- and subcompact size". Its compact size goes from '0.61' in 2017 to '0.30' in 2023. The subject in unit 2 is the combination of  "Compact Size" and  "Midsize to large". Its sompact size goes from the combination from "0.35"+"0.04" in 2017 to "0.30+0.40" in 2023.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The corresponding value for object "Netherlands" is "43.1". The corresponding value for object "France" is "35.3".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"Netherlands","BeginIndex":"1","EndIndex":"1","Trend":"None",Number:"43.1"},{"ObjectName":"France","BeginIndex":"2","EndIndex":"2","Trend":"None","Number":"35.3"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result 模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":"None","BeginIndex":"1","EndIndex":"1","Trend":"None","Number":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"Real GDP for the outdoor recreation economy", "BeginIndex”:"0","EndIndex":"0","Trend":"increase","Number":"18.9"},{"ObjectName":"U.S. economy", "BeginIndex":"0","EndIndex":"0"，"Trend":"rebound","Number":"5.9"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">Inflation-adjusted ("real") GDP for the outdoor recreation economy increased 18.9 percent in 2021, compared with a 5.9 percent increase for the overall U.S. economy, reflecting a rebound in outdoor recreation after the decrease of 21.6 percent in 2020. </t>
-  </si>
-  <si>
-    <t>[{'Time':'2017/1/1','Mini- and subcompact size':'0.61','Compact size':'0.35', 'Midsize to large':'0.04'},{'Time':'2018/1/1','Mini- and subcompact size':'0.49','Compact size':'0.41', 'Midsize to large':'0.10'},{'Time':'2019/1/1','Mini- and subcompact size':'0.33','Compact size':'0.54', 'Midsize to large':'0.13'},{'Time':'2020/1/1','Mini- and subcompact size':'0.35','Compact size':'0.33', 'Midsize to large':'0.32'},{'Time':'2021/1/1','Mini- and subcompact size':'0.37','Compact size':'0.28', 'Midsize to large':'0.35'},{'Time':'2022/1/1','Mini- and subcompact size':'0.37','Compact size':'0.31', 'Midsize to large':'0.32'},{'Time':'2023/1/1','Mini- and subcompact size':'0.30','Compact size':'0.30', 'Midsize to large':'0.40'}]</t>
-  </si>
-  <si>
-    <t>In 2023, the sales proportion of NEVs that were subcompact and below declined to 30%, from 61% in 2017. During the same periods of comparison, the mix of compact and midsize-to-large NEVs increased to 70% from 39%, reflecting the upgrade trend in terms of vehicle size.</t>
-  </si>
-  <si>
-    <t>[{'Date': '1999/8/2', 'Close': 2.35}, {'Date': '1999/8/3', 'Close': 2.371875}, {'Date': '1999/8/4', 'Close': 2.210938}, {'Date': '1999/8/5', 'Close': 2.43125}, {'Date': '1999/8/6', 'Close': 2.239063}, {'Date': '1999/8/9', 'Close': 2.1375}, {'Date': '1999/8/10', 'Close': 2.275}, {'Date': '1999/8/11', 'Close': 2.273438}, {'Date': '1999/8/12', 'Close': 2.29375}, {'Date': '1999/8/13', 'Close': 2.435938}, {'Date': '1999/8/16', 'Close': 2.457813}, {'Date': '1999/8/17', 'Close': 2.73125}, {'Date': '1999/8/18', 'Close': 2.828125}, {'Date': '1999/8/19', 'Close': 2.653125}, {'Date': '1999/8/20', 'Close': 2.835938}, {'Date': '1999/8/23', 'Close': 2.959375}, {'Date': '1999/8/24', 'Close': 3.001563}, {'Date': '1999/8/25', 'Close': 3.321875}, {'Date': '1999/8/26', 'Close': 3.214063}, {'Date': '1999/8/27', 'Close': 3.2125}, {'Date': '1999/8/30', 'Close': 2.98125}, {'Date': '1999/8/31', 'Close': 3.109375}, {'Date': '1999/9/1', 'Close': 2.976563}, {'Date': '1999/9/2', 'Close': 3.003125}, {'Date': '1999/9/3', 'Close': 3.121875}, {'Date': '1999/9/7', 'Close': 3.146875}, {'Date': '1999/9/8', 'Close': 3.071875}, {'Date': '1999/9/9', 'Close': 3.18125}, {'Date': '1999/9/10', 'Close': 3.325}, {'Date': '1999/9/13', 'Close': 3.165625}, {'Date': '1999/9/14', 'Close': 3.3}, {'Date': '1999/9/15', 'Close': 3.278125}, {'Date': '1999/9/16', 'Close': 3.2625}, {'Date': '1999/9/17', 'Close': 3.190625}, {'Date': '1999/9/20', 'Close': 3.1375}, {'Date': '1999/9/21', 'Close': 3.1125}, {'Date': '1999/9/22', 'Close': 3.3}, {'Date': '1999/9/23', 'Close': 3.1125}, {'Date': '1999/9/24', 'Close': 3.25}, {'Date': '1999/9/27', 'Close': 3.128125}, {'Date': '1999/9/28', 'Close': 3.29375}, {'Date': '1999/9/29', 'Close': 4.0375}, {'Date': '1999/9/30', 'Close': 3.996875}, {'Date': '1999/10/1', 'Close': 3.8625}, {'Date': '1999/10/4', 'Close': 3.853125}, {'Date': '1999/10/5', 'Close': 3.921875}, {'Date': '1999/10/6', 'Close': 4.121875}, {'Date': '1999/10/7', 'Close': 4.365625}, {'Date': '1999/10/8', 'Close': 4.4625}, {'Date': '1999/10/11', 'Close': 4.41875}, {'Date': '1999/10/12', 'Close': 4.246875}, {'Date': '1999/10/13', 'Close': 3.996875}, {'Date': '1999/10/14', 'Close': 3.979688}, {'Date': '1999/10/15', 'Close': 3.753125}, {'Date': '1999/10/18', 'Close': 3.703125}, {'Date': '1999/10/19', 'Close': 3.83125}, {'Date': '1999/10/20', 'Close': 4.025}, {'Date': '1999/10/21', 'Close': 4.0375}, {'Date': '1999/10/22', 'Close': 3.93125}, {'Date': '1999/10/25', 'Close': 4.1375}, {'Date': '1999/10/26', 'Close': 4.0625}, {'Date': '1999/10/27', 'Close': 3.796875}, {'Date': '1999/10/28', 'Close': 3.55}, {'Date': '1999/10/29', 'Close': 3.53125}, {'Date': '1999/11/1', 'Close': 3.45625}, {'Date': '1999/11/2', 'Close': 3.321875}, {'Date': '1999/11/3', 'Close': 3.290625}, {'Date': '1999/11/4', 'Close': 3.153125}, {'Date': '1999/11/5', 'Close': 3.246875}, {'Date': '1999/11/8', 'Close': 3.9}, {'Date': '1999/11/9', 'Close': 3.540625}, {'Date': '1999/11/10', 'Close': 3.6}, {'Date': '1999/11/11', 'Close': 3.65}, {'Date': '1999/11/12', 'Close': 3.746875}, {'Date': '1999/11/15', 'Close': 3.675}, {'Date': '1999/11/16', 'Close': 3.946875}, {'Date': '1999/11/17', 'Close': 3.825}, {'Date': '1999/11/18', 'Close': 3.896875}, {'Date': '1999/11/19', 'Close': 3.896875}, {'Date': '1999/11/22', 'Close': 4.025}, {'Date': '1999/11/23', 'Close': 4.0875}, {'Date': '1999/11/24', 'Close': 4.3625}, {'Date': '1999/11/26', 'Close': 4.65625}, {'Date': '1999/11/29', 'Close': 4.521875}, {'Date': '1999/11/30', 'Close': 4.253125}, {'Date': '1999/12/1', 'Close': 4.25}, {'Date': '1999/12/2', 'Close': 4.453125}, {'Date': '1999/12/3', 'Close': 4.328125}, {'Date': '1999/12/6', 'Close': 4.3875}, {'Date': '1999/12/7', 'Close': 4.303125}, {'Date': '1999/12/8', 'Close': 4.428125}, {'Date': '1999/12/9', 'Close': 5.18125}, {'Date': '1999/12/10', 'Close': 5.334375}, {'Date': '1999/12/13', 'Close': 5.125}, {'Date': '1999/12/14', 'Close': 4.78125}, {'Date': '1999/12/15', 'Close': 4.825}, {'Date': '1999/12/16', 'Close': 4.74375}, {'Date': '1999/12/17', 'Close': 4.703125}, {'Date': '1999/12/20', 'Close': 4.85}, {'Date': '1999/12/21', 'Close': 4.99375}, {'Date': '1999/12/22', 'Close': 4.884375}, {'Date': '1999/12/23', 'Close': 4.5}, {'Date': '1999/12/27', 'Close': 4.05625}, {'Date': '1999/12/28', 'Close': 4.115625}, {'Date': '1999/12/29', 'Close': 4.175}, {'Date': '1999/12/30', 'Close': 3.953125}, {'Date': '1999/12/31', 'Close': 3.80625}, {'Date': '2000/1/3', 'Close': 4.46875}, {'Date': '2000/1/4', 'Close': 4.096875}, {'Date': '2000/1/5', 'Close': 3.4875}, {'Date': '2000/1/6', 'Close': 3.278125}, {'Date': '2000/1/7', 'Close': 3.478125}, {'Date': '2000/1/10', 'Close': 3.459375}, {'Date': '2000/1/11', 'Close': 3.3375}, {'Date': '2000/1/12', 'Close': 3.178125}, {'Date': '2000/1/13', 'Close': 3.296875}, {'Date': '2000/1/14', 'Close': 3.2125}, {'Date': '2000/1/18', 'Close': 3.20625}, {'Date': '2000/1/19', 'Close': 3.340625}, {'Date': '2000/1/20', 'Close': 3.2375}, {'Date': '2000/1/21', 'Close': 3.103125}, {'Date': '2000/1/24', 'Close': 3.50625}, {'Date': '2000/1/25', 'Close': 3.4625}, {'Date': '2000/1/26', 'Close': 3.240625}, {'Date': '2000/1/27', 'Close': 3.346875}, {'Date': '2000/1/28', 'Close': 3.084375}, {'Date': '2000/1/31', 'Close': 3.228125}, {'Date': '2000/2/1', 'Close': 3.371875}, {'Date': '2000/2/2', 'Close': 3.471875}, {'Date': '2000/2/3', 'Close': 4.209375}, {'Date': '2000/2/4', 'Close': 3.928125}, {'Date': '2000/2/7', 'Close': 3.75}, {'Date': '2000/2/8', 'Close': 4.15625}, {'Date': '2000/2/9', 'Close': 4.0125}, {'Date': '2000/2/10', 'Close': 3.809375}, {'Date': '2000/2/11', 'Close': 3.809375}, {'Date': '2000/2/14', 'Close': 3.721875}, {'Date': '2000/2/15', 'Close': 3.690625}, {'Date': '2000/2/16', 'Close': 3.534375}, {'Date': '2000/2/17', 'Close': 3.45}, {'Date': '2000/2/18', 'Close': 3.2375}, {'Date': '2000/2/22', 'Close': 3.178125}, {'Date': '2000/2/23', 'Close': 3.521875}, {'Date': '2000/2/24', 'Close': 3.421875}, {'Date': '2000/2/25', 'Close': 3.45625}, {'Date': '2000/2/28', 'Close': 3.2875}, {'Date': '2000/2/29', 'Close': 3.44375}, {'Date': '2000/3/1', 'Close': 3.29375}, {'Date': '2000/3/2', 'Close': 3.128125}, {'Date': '2000/3/3', 'Close': 3.125}, {'Date': '2000/3/6', 'Close': 3.196875}, {'Date': '2000/3/7', 'Close': 3.175}, {'Date': '2000/3/8', 'Close': 3.18125}, {'Date': '2000/3/9', 'Close': 3.440625}, {'Date': '2000/3/10', 'Close': 3.34375}, {'Date': '2000/3/13', 'Close': 3.265625}, {'Date': '2000/3/14', 'Close': 3.28125}, {'Date': '2000/3/15', 'Close': 3.1875}, {'Date': '2000/3/16', 'Close': 3.3125}, {'Date': '2000/3/17', 'Close': 3.240625}, {'Date': '2000/3/20', 'Close': 3.209375}, {'Date': '2000/3/21', 'Close': 3.61875}, {'Date': '2000/3/22', 'Close': 3.534375}, {'Date': '2000/3/23', 'Close': 3.384375}, {'Date': '2000/3/24', 'Close': 3.634375}, {'Date': '2000/3/27', 'Close': 3.65625}, {'Date': '2000/3/28', 'Close': 3.50625}, {'Date': '2000/3/29', 'Close': 3.3125}, {'Date': '2000/3/30', 'Close': 3.325}, {'Date': '2000/3/31', 'Close': 3.35}, {'Date': '2000/4/3', 'Close': 3.178125}, {'Date': '2000/4/4', 'Close': 3.196875}, {'Date': '2000/4/5', 'Close': 3.109375}, {'Date': '2000/4/6', 'Close': 3.2125}, {'Date': '2000/4/7', 'Close': 3.378125}, {'Date': '2000/4/10', 'Close': 3.16875}, {'Date': '2000/4/11', 'Close': 3.16875}, {'Date': '2000/4/12', 'Close': 2.81875}, {'Date': '2000/4/13', 'Close': 2.4}, {'Date': '2000/4/14', 'Close': 2.34375}, {'Date': '2000/4/17', 'Close': 2.353125}, {'Date': '2000/4/18', 'Close': 2.746875}, {'Date': '2000/4/19', 'Close': 2.671875}, {'Date': '2000/4/20', 'Close': 2.61875}, {'Date': '2000/4/24', 'Close': 2.490625}, {'Date': '2000/4/25', 'Close': 2.621875}, {'Date': '2000/4/26', 'Close': 2.675}, {'Date': '2000/4/27', 'Close': 2.64375}, {'Date': '2000/4/28', 'Close': 2.759375}, {'Date': '2000/5/1', 'Close': 2.996875}, {'Date': '2000/5/2', 'Close': 2.80625}, {'Date': '2000/5/3', 'Close': 2.70625}, {'Date': '2000/5/4', 'Close': 2.753125}, {'Date': '2000/5/5', 'Close': 2.925}, {'Date': '2000/5/8', 'Close': 2.800781}, {'Date': '2000/5/9', 'Close': 2.8125}, {'Date': '2000/5/10', 'Close': 2.665625}, {'Date': '2000/5/11', 'Close': 2.74375}, {'Date': '2000/5/12', 'Close': 2.6875}, {'Date': '2000/5/15', 'Close': 2.803125}, {'Date': '2000/5/16', 'Close': 2.953125}, {'Date': '2000/5/17', 'Close': 3.05}, {'Date': '2000/5/18', 'Close': 2.76875}, {'Date': '2000/5/19', 'Close': 2.63125}, {'Date': '2000/5/22', 'Close': 2.59375}, {'Date': '2000/5/23', 'Close': 2.334375}, {'Date': '2000/5/24', 'Close': 2.428125}, {'Date': '2000/5/25', 'Close': 2.275}, {'Date': '2000/5/26', 'Close': 2.325}, {'Date': '2000/5/30', 'Close': 2.5875}, {'Date': '2000/5/31', 'Close': 2.415625}]</t>
-  </si>
-  <si>
-    <t>[{'Date': '1999/4/26', 'Adj Close': 5.179688}, {'Date': '1999/4/27', 'Adj Close': 5.146875}, {'Date': '1999/4/28', 'Adj Close': 4.8375}, {'Date': '1999/4/29', 'Adj Close': 4.20625}, {'Date': '1999/4/30', 'Adj Close': 4.301563}, {'Date': '1999/5/3', 'Adj Close': 3.773438}, {'Date': '1999/5/4', 'Adj Close': 3.575}, {'Date': '1999/5/5', 'Adj Close': 3.6625}, {'Date': '1999/5/6', 'Adj Close': 3.434375}, {'Date': '1999/5/7', 'Adj Close': 3.409375}, {'Date': '1999/5/10', 'Adj Close': 3.671875}, {'Date': '1999/5/11', 'Adj Close': 3.709375}, {'Date': '1999/5/12', 'Adj Close': 3.573438}, {'Date': '1999/5/13', 'Adj Close': 3.4}, {'Date': '1999/5/14', 'Adj Close': 3.309375}, {'Date': '1999/5/17', 'Adj Close': 3.440625}, {'Date': '1999/5/18', 'Adj Close': 3.315625}, {'Date': '1999/5/19', 'Adj Close': 3.489063}, {'Date': '1999/5/20', 'Adj Close': 3.270313}, {'Date': '1999/5/21', 'Adj Close': 3.214063}, {'Date': '1999/5/24', 'Adj Close': 2.9375}, {'Date': '1999/5/25', 'Adj Close': 2.789063}, {'Date': '1999/5/26', 'Adj Close': 3.023438}, {'Date': '1999/5/27', 'Adj Close': 2.864063}, {'Date': '1999/5/28', 'Adj Close': 2.96875}, {'Date': '1999/6/1', 'Adj Close': 2.645313}, {'Date': '1999/6/2', 'Adj Close': 2.803125}, {'Date': '1999/6/3', 'Adj Close': 2.626563}, {'Date': '1999/6/4', 'Adj Close': 2.710938}, {'Date': '1999/6/7', 'Adj Close': 2.934375}, {'Date': '1999/6/8', 'Adj Close': 2.789063}, {'Date': '1999/6/9', 'Adj Close': 2.85}, {'Date': '1999/6/10', 'Adj Close': 2.898438}, {'Date': '1999/6/11', 'Adj Close': 2.645313}, {'Date': '1999/6/14', 'Adj Close': 2.3}, {'Date': '1999/6/15', 'Adj Close': 2.4125}, {'Date': '1999/6/16', 'Adj Close': 2.792188}, {'Date': '1999/6/17', 'Adj Close': 2.823438}, {'Date': '1999/6/18', 'Adj Close': 2.782813}, {'Date': '1999/6/21', 'Adj Close': 3.0875}, {'Date': '1999/6/22', 'Adj Close': 2.9375}, {'Date': '1999/6/23', 'Adj Close': 2.94375}, {'Date': '1999/6/24', 'Adj Close': 2.840625}, {'Date': '1999/6/25', 'Adj Close': 2.754688}, {'Date': '1999/6/28', 'Adj Close': 2.767188}, {'Date': '1999/6/29', 'Adj Close': 2.901563}, {'Date': '1999/6/30', 'Adj Close': 3.128125}, {'Date': '1999/7/1', 'Adj Close': 3.059375}, {'Date': '1999/7/2', 'Adj Close': 3.101563}, {'Date': '1999/7/6', 'Adj Close': 3.171875}, {'Date': '1999/7/7', 'Adj Close': 3.046875}, {'Date': '1999/7/8', 'Adj Close': 3.134375}, {'Date': '1999/7/9', 'Adj Close': 3.1375}, {'Date': '1999/7/12', 'Adj Close': 2.934375}, {'Date': '1999/7/13', 'Adj Close': 3.153125}, {'Date': '1999/7/14', 'Adj Close': 3.375}, {'Date': '1999/7/15', 'Adj Close': 3.489063}, {'Date': '1999/7/16', 'Adj Close': 3.440625}, {'Date': '1999/7/19', 'Adj Close': 3.292188}, {'Date': '1999/7/20', 'Adj Close': 3.003125}, {'Date': '1999/7/21', 'Adj Close': 3.135938}, {'Date': '1999/7/22', 'Adj Close': 2.670313}, {'Date': '1999/7/23', 'Adj Close': 2.864063}, {'Date': '1999/7/26', 'Adj Close': 2.648438}, {'Date': '1999/7/27', 'Adj Close': 2.525}, {'Date': '1999/7/28', 'Adj Close': 2.64375}, {'Date': '1999/7/29', 'Adj Close': 2.539063}, {'Date': '1999/7/30', 'Adj Close': 2.501563}, {'Date': '1999/8/2', 'Adj Close': 2.35}, {'Date': '1999/8/3', 'Adj Close': 2.371875}, {'Date': '1999/8/4', 'Adj Close': 2.210938}, {'Date': '1999/8/5', 'Adj Close': 2.43125}, {'Date': '1999/8/6', 'Adj Close': 2.239063}, {'Date': '1999/8/9', 'Adj Close': 2.1375}, {'Date': '1999/8/10', 'Adj Close': 2.275}, {'Date': '1999/8/11', 'Adj Close': 2.273438}, {'Date': '1999/8/12', 'Adj Close': 2.29375}, {'Date': '1999/8/13', 'Adj Close': 2.435938}, {'Date': '1999/8/16', 'Adj Close': 2.457813}, {'Date': '1999/8/17', 'Adj Close': 2.73125}, {'Date': '1999/8/18', 'Adj Close': 2.828125}, {'Date': '1999/8/19', 'Adj Close': 2.653125}, {'Date': '1999/8/20', 'Adj Close': 2.835938}, {'Date': '1999/8/23', 'Adj Close': 2.959375}, {'Date': '1999/8/24', 'Adj Close': 3.001563}, {'Date': '1999/8/25', 'Adj Close': 3.321875}, {'Date': '1999/8/26', 'Adj Close': 3.214063}, {'Date': '1999/8/27', 'Adj Close': 3.2125}, {'Date': '1999/8/30', 'Adj Close': 2.98125}, {'Date': '1999/8/31', 'Adj Close': 3.109375}, {'Date': '1999/9/1', 'Adj Close': 2.976563}, {'Date': '1999/9/2', 'Adj Close': 3.003125}, {'Date': '1999/9/3', 'Adj Close': 3.121875}, {'Date': '1999/9/7', 'Adj Close': 3.146875}, {'Date': '1999/9/8', 'Adj Close': 3.071875}, {'Date': '1999/9/9', 'Adj Close': 3.18125}, {'Date': '1999/9/10', 'Adj Close': 3.325}, {'Date': '1999/9/13', 'Adj Close': 3.165625}, {'Date': '1999/9/14', 'Adj Close': 3.3}, {'Date': '1999/9/15', 'Adj Close': 3.278125}, {'Date': '1999/9/16', 'Adj Close': 3.2625}, {'Date': '1999/9/17', 'Adj Close': 3.190625}, {'Date': '1999/9/20', 'Adj Close': 3.1375}, {'Date': '1999/9/21', 'Adj Close': 3.1125}, {'Date': '1999/9/22', 'Adj Close': 3.3}, {'Date': '1999/9/23', 'Adj Close': 3.1125}, {'Date': '1999/9/24', 'Adj Close': 3.25}, {'Date': '1999/9/27', 'Adj Close': 3.128125}, {'Date': '1999/9/28', 'Adj Close': 3.29375}, {'Date': '1999/9/29', 'Adj Close': 4.0375}, {'Date': '1999/9/30', 'Adj Close': 3.996875}, {'Date': '1999/10/1', 'Adj Close': 3.8625}, {'Date': '1999/10/4', 'Adj Close': 3.853125}, {'Date': '1999/10/5', 'Adj Close': 3.921875}, {'Date': '1999/10/6', 'Adj Close': 4.121875}, {'Date': '1999/10/7', 'Adj Close': 4.365625}, {'Date': '1999/10/8', 'Adj Close': 4.4625}, {'Date': '1999/10/11', 'Adj Close': 4.41875}, {'Date': '1999/10/12', 'Adj Close': 4.246875}, {'Date': '1999/10/13', 'Adj Close': 3.996875}, {'Date': '1999/10/14', 'Adj Close': 3.979688}, {'Date': '1999/10/15', 'Adj Close': 3.753125}, {'Date': '1999/10/18', 'Adj Close': 3.703125}, {'Date': '1999/10/19'99/12/8', 'Adj Close': 4.428125}, {'Date': '1999/12/9', 'Adj Close': 5.18125}, {'Date': '1999/12/10', 'Adj Close': 5.334375}, {'Date': '1999/12/13', 'Adj Close': 5.125}, {'Date': '1999/12/14', 'Adj Close': 4.78125}, {'Date': '1999/12/15', 'Adj Close': 4.825}, {'Date': '1999/12/16', 'Adj Close': 4.74375}, {'Date': '1999/12/17', 'Adj Close': 4.703125}, {'Date': '1999/12/20', 'Adj Close': 4.85}, {'Date': '1999/12/21', 'Adj Close': 4.99375}, {'Date': '1999/12/22', 'Adj Close': 4.884375}, {'Date': '1999/12/23', 'Adj Close': 4.5}, {'Date': '1999/12/27', 'Adj Close': 4.05625}, {'Date': '1999/12/28', 'Adj Close': 4.115625}, {'Date': '1999/12/29', 'Adj Close': 4.175}, {'Date': '1999/12/30', 'Adj Close': 3.953125}, {'Date': '1999/12/31', 'Adj Close': 3.80625}, {'Date': '2000/1/3', 'Adj Close': 4.46875}, {'Date': '2000/1/4', 'Adj Close': 4.096875}, {'Date': '2000/1/5', 'Adj Close': 3.4875}, {'Date': '2000/1/6', 'Adj Close': 3.278125}, {'Date': '2000/1/7', 'Adj Close': 3.478125}, {'Date': '2000/1/10', 'Adj Close': 3.459375}, {'Date': '2000/1/11', 'Adj Close': 3.3375}, {'Date': '2000/1/12', 'Adj Close': 3.178125}, {'Date': '2000/1/13', 'Adj Close': 3.296875}, {'Date': '2000/1/14', 'Adj Close': 3.2125}, {'Date': '2000/1/18', 'Adj Close': 3.20625}, {'Date': '2000/1/19', 'Adj Close': 3.340625}, {'Date': '2000/1/20', 'Adj Close': 3.2375}]</t>
-  </si>
-  <si>
-    <t>[{'Date': '3-Nov-16', 'Close': 17930.67}, {'Date': '2-Nov-16', 'Close': 17959.64}, {'Date': '1-Nov-16', 'Close': 18037.1}, {'Date': '31-Oct-16', 'Close': 18142.42}, {'Date': '28-Oct-16', 'Close': 18161.19}, {'Date': '27-Oct-16', 'Close': 18169.68}, {'Date': '26-Oct-16', 'Close': 18199.33}, {'Date': '25-Oct-16', 'Close': 18169.27}, {'Date': '24-Oct-16', 'Close': 18223.03}, {'Date': '21-Oct-16', 'Close': 18145.71}, {'Date': '20-Oct-16', 'Close': 18162.35}, {'Date': '19-Oct-16', 'Close': 18202.62}, {'Date': '18-Oct-16', 'Close': 18161.94}, {'Date': '17-Oct-16', 'Close': 18086.4}, {'Date': '14-Oct-16', 'Close': 18138.38}, {'Date': '13-Oct-16', 'Close': 18098.94}, {'Date': '12-Oct-16', 'Close': 18144.2}, {'Date': '11-Oct-16', 'Close': 18128.66}, {'Date': '10-Oct-16', 'Close': 18329.04}, {'Date': '7-Oct-16', 'Close': 18240.49}, {'Date': '6-Oct-16', 'Close': 18268.5}, {'Date': '5-Oct-16', 'Close': 18281.03}, {'Date': '4-Oct-16', 'Close': 18168.45}, {'Date': '3-Oct-16', 'Close': 18253.85}, {'Date': '30-Sep-16', 'Close': 18308.15}, {'Date': '29-Sep-16', 'Close': 18143.45}, {'Date': '28-Sep-16', 'Close': 18339.24}, {'Date': '27-Sep-16', 'Close': 18228.3}, {'Date': '26-Sep-16', 'Close': 18094.83}, {'Date': '23-Sep-16', 'Close': 18261.45}, {'Date': '22-Sep-16', 'Close': 18392.46}, {'Date': '21-Sep-16', 'Close': 18293.7}, {'Date': '20-Sep-16', 'Close': 18129.96}, {'Date': '19-Sep-16', 'Close': 18120.17}, {'Date': '16-Sep-16', 'Close': 18123.8}, {'Date': '15-Sep-16', 'Close': 18212.48}, {'Date': '14-Sep-16', 'Close': 18034.77}, {'Date': '13-Sep-16', 'Close': 18066.75}, {'Date': '12-Sep-16', 'Close': 18325.07}, {'Date': '9-Sep-16', 'Close': 18085.45}, {'Date': '8-Sep-16', 'Close': 18479.91}, {'Date': '7-Sep-16', 'Close': 18526.14}, {'Date': '6-Sep-16', 'Close': 18538.12}, {'Date': '2-Sep-16', 'Close': 18491.96}, {'Date': '1-Sep-16', 'Close': 18419.3}, {'Date': '31-Aug-16', 'Close': 18400.88}, {'Date': '30-Aug-16', 'Close': 18454.3}, {'Date': '29-Aug-16', 'Close': 18502.99}, {'Date': '26-Aug-16', 'Close': 18395.4}, {'Date': '25-Aug-16', 'Close': 18448.41}, {'Date': '24-Aug-16', 'Close': 18481.48}, {'Date': '23-Aug-16', 'Close': 18547.3}, {'Date': '22-Aug-16', 'Close': 18529.42}, {'Date': '19-Aug-16', 'Close': 18552.57}, {'Date': '18-Aug-16', 'Close': 18597.7}, {'Date': '17-Aug-16', 'Close': 18573.94}, {'Date': '16-Aug-16', 'Close': 18552.02}, {'Date': '15-Aug-16', 'Close': 18636.05}, {'Date': '12-Aug-16', 'Close': 18576.47}, {'Date': '11-Aug-16', 'Close': 18613.52}, {'Date': '10-Aug-16', 'Close': 18495.66}, {'Date': '9-Aug-16', 'Close': 18533.05}, {'Date': '8-Aug-16', 'Close': 18529.29}, {'Date': '5-Aug-16', 'Close': 18543.53}, {'Date': '4-Aug-16', 'Close': 18352.05}, {'Date': '3-Aug-16', 'Close': 18355.0}, {'Date': '2-Aug-16', 'Close': 18313.77}, {'Date': '1-Aug-16', 'Close': 18404.51}, {'Date': '29-Jul-16', 'Close': 18432.24}, {'Date': '28-Jul-16', 'Close': 18456.35}, {'Date': '27-Jul-16', 'Close': 18472.17}, {'Date': '26-Jul-16', 'Close': 18473.75}, {'Date': '25-Jul-16', 'Close': 18493.06}, {'Date': '22-Jul-16', 'Close': 18570.85}, {'Date': '21-Jul-16', 'Close': 18517.23}, {'Date': '20-Jul-16', 'Close': 18595.03}, {'Date': '19-Jul-16', 'Close': 18559.01}, {'Date': '18-Jul-16', 'Close': 18533.05}, {'Date': '15-Jul-16', 'Close': 18516.55}, {'Date': '14-Jul-16', 'Close': 18506.41}, {'Date': '13-Jul-16', 'Close': 18372.12}, {'Date': '12-Jul-16', 'Close': 18347.67}, {'Date': '11-Jul-16', 'Close': 18226.93}, {'Date': '8-Jul-16', 'Close': 18146.74}, {'Date': '7-Jul-16', 'Close': 17895.88}, {'Date': '6-Jul-16', 'Close': 17918.62}, {'Date': '5-Jul-16', 'Close': 17840.62}, {'Date': '1-Jul-16', 'Close': 17949.37}, {'Date': '30-Jun-16', 'Close': 17929.99}, {'Date': '29-Jun-16', 'Close': 17694.68}, {'Date': '28-Jun-16', 'Close': 17409.72}, {'Date': '27-Jun-16', 'Close': 17140.24}, {'Date': '24-Jun-16', 'Close': 17400.75}, {'Date': '23-Jun-16', 'Close': 18011.07}, {'Date': '22-Jun-16', 'Close': 17780.83}, {'Date': '21-Jun-16', 'Close': 17829.73}, {'Date': '20-Jun-16', 'Close': 17804.87}, {'Date': '17-Jun-16', 'Close': 17675.16}, {'Date': '16-Jun-16', 'Close': 17733.1}, {'Date': '15-Jun-16', 'Close': 17640.17}, {'Date': '14-Jun-16', 'Close': 17674.82}, {'Date': '13-Jun-16', 'Close': 17732.48}, {'Date': '10-Jun-16', 'Close': 17865.34}, {'Date': '9-Jun-16', 'Close': 17985.19}, {'Date': '8-Jun-16', 'Close': 18005.05}, {'Date': '7-Jun-16', 'Close': 17938.28}, {'Date': '6-Jun-16', 'Close': 17920.33}, {'Date': '3-Jun-16', 'Close': 17807.06}, {'Date': '2-Jun-16', 'Close': 17838.56}, {'Date': '1-Jun-16', 'Close': 17789.67}, {'Date': '31-May-16', 'Close': 17787.2}, {'Date': '27-May-16', 'Close': 17873.22}, {'Date': '26-May-16', 'Close': 17828.29}, {'Date': '25-May-16', 'Close': 17851.51}, {'Date': '24-May-16', 'Close': 17706.05}, {'Date': '23-May-16', 'Close': 17492.93}, {'Date': '20-May-16', 'Close': 17500.94}, {'Date': '19-May-16', 'Close': 17435.4}, {'Date': '18-May-16', 'Close': 17526.62}, {'Date': '17-May-16', 'Close': 17529.98}, {'Date': '16-May-16', 'Close': 17710.71}, {'Date': '13-May-16', 'Close': 17535.32}, {'Date': '12-May-16', 'Close': 17720.5}, {'Date': '11-May-16', 'Close': 17711.12}, {'Date': '10-May-16', 'Close': 17928.35}, {'Date': '9-May-16', 'Close': 17705.91}, {'Date': '6-May-16', 'Close': 17740.63}, {'Date': '5-May-16', 'Close': 17660.71}, {'Date': '4-May-16', 'Close': 17651.26}, {'Date': '3-May-16', 'Close': 17750.91}, {'Date': '2-May-16', 'Close': 17891.16}, {'Date': '29-Apr-16', 'Close': 17773.64}, {'Date': '28-Apr-16', 'Close': 17830.76}, {'Date': '27-Apr-16', 'Close': 18041.55}, {'Date': '26-Apr-16', 'Close': 17990.32}, {'Date': '25-Apr-16', 'Close': 17977.24}, {'Date': '22-Apr-16', 'Close': 18003.75}, {'Date': '21-Apr-16', 'Close': 17982.52}, {'Date': '20-Apr-16', 'Close': 18096.27}, {'Date': '19-Apr-16', 'Close': 18053.6}, {'Date': '18-Apr-16', 'Close': 18004.16}, {'Date': '15-Apr-16', 'Close': 17897.46}, {'Date': '14-Apr-16', 'Close': 17926.43}, {'Date': '13-Apr-16', 'Close': 17908.28}, {'Date': '12-Apr-16', 'Close': 17721.25}, {'Date': '11-Apr-16', 'Close': 17556.41}, {'Date': '8-Apr-16', 'Close': 17576.96}, {'Date': '7-Apr-16', 'Close': 17541.96}, {'Date': '6-Apr-16', 'Close': 17716.05}, {'Date': '5-Apr-16', 'Close': 17603.32}, {'Date': '4-Apr-16', 'Close': 17737.0}, {'Date': '1-Apr-16', 'Close': 17792.75}, {'Date': '31-Mar-16', 'Close': 17685.09}, {'Date': '30-Mar-16', 'Close': 17716.66}, {'Date': '29-Mar-16', 'Close': 17633.11}, {'Date': '28-Mar-16', 'Close': 17535.39}, {'Date': '24-Mar-16', 'Close': 17515.73}, {'Date': '23-Mar-16', 'Close': 17502.59}, {'Date': '22-Mar-16', 'Close': 17582.57}, {'Date': '21-Mar-16', 'Close': 17623.87}, {'Date': '18-Mar-16', 'Close': 17602.3}, {'Date': '17-Mar-16', 'Close': 17481.49}, {'Date': '16-Mar-16', 'Close': 17325.76}, {'Date': '15-Mar-16', 'Close': 17251.53}, {'Date': '14-Mar-16', 'Close': 17229.13}, {'Date': '11-Mar-16', 'Close': 17213.31}, {'Date': '10-Mar-16', 'Close': 16995.13}, {'Date': '9-Mar-16', 'Close': 17000.36}, {'Date': '8-Mar-16', 'Close': 16964.1}, {'Date': '7-Mar-16', 'Close': 17073.95}, {'Date': '4-Mar-16', 'Close': 17006.77}, {'Date': '3-Mar-16', 'Close': 16943.9}, {'Date': '2-Mar-16', 'Close': 16899.32}, {'Date': '1-Mar-16', 'Close': 16865.08}, {'Date': '29-Feb-16', 'Close': 16516.5}, {'Date': '26-Feb-16', 'Close': 16639.97}, {'Date': '25-Feb-16', 'Close': 16697.29}, {'Date': '24-Feb-16', 'Close': 16484.99}, {'Date': '23-Feb-16', 'Close': 16431.78}, {'Date': '22-Feb-16', 'Close': 16620.66}, {'Date': '19-Feb-16', 'Close': 16391.99}, {'Date': '18-Feb-16', 'Close': 16413.43}, {'Date': '17-Feb-16', 'Close': 16453.83}, {'Date': '16-Feb-16', 'Close': 16196.41}, {'Date': '12-Feb-16', 'Close': 15973.84}, {'Date': '11-Feb-16', 'Close': 15660.18}, {'Date': '10-Feb-16', 'Close': 15914.74}, {'Date': '9-Feb-16', 'Close': 16014.38}, {'Date': '8-Feb-16', 'Close': 16027.05}, {'Date': '5-Feb-16', 'Close': 16204.97}, {'Date': '4-Feb-16', 'Close': 16416.58}, {'Date': '3-Feb-16', 'Close': 16336.66}, {'Date': '2-Feb-16', 'Close': 16153.54}, {'Date': '1-Feb-16', 'Close': 16449.18}, {'Date': '29-Jan-16', 'Close': 16466.3}, {'Date': '28-Jan-16', 'Close': 16069.64}, {'Date': '27-Jan-16', 'Close': 15944.46}, {'Date': '26-Jan-16', 'Close': 16167.23}, {'Date': '25-Jan-16', 'Close': 15885.22}, {'Date': '22-Jan-16', 'Close': 16093.51}, {'Date': '21-Jan-16', 'Close': 15882.68}, {'Date': '20-Jan-16', 'Close': 15766.74}, {'Date': '19-Jan-16', 'Close': 16016.02}, {'Date': '15-Jan-16', 'Close': 15988.08}, {'Date': '14-Jan-16', 'Close': 16379.05}, {'Date': '13-Jan-16', 'Close': 16151.41}, {'Date': '12-Jan-16', 'Close': 16516.22}, {'Date': '11-Jan-16', 'Close': 16398.57}, {'Date': '8-Jan-16', 'Close': 16346.45}, {'Date': '7-Jan-16', 'Close': 16514.1}, {'Date': '6-Jan-16', 'Close': 16906.51}, {'Date': '5-Jan-16', 'Close': 17158.66}, {'Date': '4-Jan-16', 'Close': 17148.94}, {'Date': '31-Dec-15', 'Close': 17425.03}, {'Date': '30-Dec-15', 'Close': 17603.87}, {'Date': '29-Dec-15', 'Close': 17720.98}, {'Date': '28-Dec-15', 'Close': 17528.27}, {'Date': '24-Dec-15', 'Close': 17552.17}, {'Date': '23-Dec-15', 'Close': 17602.61}, {'Date': '22-Dec-15', 'Close': 17417.27}, {'Date': '21-Dec-15', 'Close': 17251.62}, {'Date': '18-Dec-15', 'Close': 17128.55}, {'Date': '17-Dec-15', 'Close': 17495.84}, {'Date': '16-Dec-15', 'Close': 17749.09}, {'Date': '15-Dec-15', 'Close': 17524.91}, {'Date': '14-Dec-15', 'Close': 17368.5}, {'Date': '11-Dec-15', 'Close': 17265.21}, {'Date': '10-Dec-15', 'Close': 17574.75}, {'Date': '9-Dec-15', 'Close': 17492.3}, {'Date': '8-Dec-15', 'Close': 17568.0}, {'Date': '7-Dec-15', 'Close': 17730.51}, {'Date': '4-Dec-15', 'Close': 17847.63}, {'Date': '3-Dec-15', 'Close': 17477.67}, {'Date': '2-Dec-15', 'Close': 17729.68}, {'Date': '1-Dec-15', 'Close': 17888.35}, {'Date': '30-Nov-15', 'Close': 17719.92}, {'Date': '27-Nov-15', 'Close': 17813.39}, {'Date': '25-Nov-15', 'Close': 17813.39}, {'Date': '24-Nov-15', 'Close': 17812.19}, {'Date': '23-Nov-15', 'Close': 17792.68}, {'Date': '20-Nov-15', 'Close': 17823.81}, {'Date': '19-Nov-15', 'Close': 17732.75}, {'Date': '18-Nov-15', 'Close': 17737.16}, {'Date': '17-Nov-15', 'Close': 17489.5}, {'Date': '16-Nov-15', 'Close': 17483.01}, {'Date': '13-Nov-15', 'Close': 17245.24}, {'Date': '12-Nov-15', 'Close': 17448.07}, {'Date': '11-Nov-15', 'Close': 17702.22}, {'Date': '10-Nov-15', 'Close': 17758.21}, {'Date': '9-Nov-15', 'Close': 17730.48}, {'Date': '6-Nov-15', 'Close': 17910.33}, {'Date': '5-Nov-15', 'Close': 17863.43}, {'Date': '4-Nov-15', 'Close': 17867.58}, {'Date': '3-Nov-15', 'Close': 17918.15}, {'Date': '2-Nov-15', 'Close': 17828.76}, {'Date': '30-Oct-15', 'Close': 17663.54}, {'Date': '29-Oct-15', 'Close': 17755.8}, {'Date': '28-Oct-15', 'Close': 17779.52}, {'Date': '27-Oct-15', 'Close': 17581.43}, {'Date': '26-Oct-15', 'Close': 17623.05}, {'Date': '23-Oct-15', 'Close': 17646.7}, {'Date': '22-Oct-15', 'Close': 17489.16}, {'Date': '21-Oct-15', 'Close': 17168.61}, {'Date': '20-Oct-15', 'Close': 17217.11}, {'Date': '19-Oct-15', 'Close': 17230.54}, {'Date': '16-Oct-15', 'Close': 17215.97}, {'Date': '15-Oct-15', 'Close': 17141.75}, {'Date': '14-Oct-15', 'Close': 16924.75}, {'Date': '13-Oct-15', 'Close': 17081.89}, {'Date': '12-Oct-15', 'Close': 17131.86}]</t>
-  </si>
-  <si>
-    <t>[{'Date': '25-Jan-18', 'Close': '26,392.79'}, {'Date': '24-Jan-18', 'Close': '26,252.12'}, {'Date': '23-Jan-18', 'Close': '26,210.81'}, {'Date': '22-Jan-18', 'Close': '26,214.60'}, {'Date': '19-Jan-18', 'Close': '26,071.72'}, {'Date': '18-Jan-18', 'Close': '26,017.81'}, {'Date': '17-Jan-18', 'Close': '26,115.65'}, {'Date': '16-Jan-18', 'Close': '25,792.86'}, {'Date': '12-Jan-18', 'Close': '25,803.19'}, {'Date': '11-Jan-18', 'Close': '25,574.73'}, {'Date': '10-Jan-18', 'Close': '25,369.13'}, {'Date': '9-Jan-18', 'Close': '25,385.80'}, {'Date': '8-Jan-18', 'Close': '25,283.00'}, {'Date': '5-Jan-18', 'Close': '25,295.87'}, {'Date': '4-Jan-18', 'Close': '25,075.13'}, {'Date': '3-Jan-18', 'Close': '24,922.68'}, {'Date': '2-Jan-18', 'Close': '24,824.01'}, {'Date': '29-Dec-17', 'Close': '24,719.22'}, {'Date': '28-Dec-17', 'Close': '24,837.51'}, {'Date': '27-Dec-17', 'Close': '24,774.30'}, {'Date': '26-Dec-17', 'Close': '24,746.21'}, {'Date': '22-Dec-17', 'Close': '24,754.06'}, {'Date': '21-Dec-17', 'Close': '24,782.29'}, {'Date': '20-Dec-17', 'Close': '24,726.65'}, {'Date': '19-Dec-17', 'Close': '24,754.75'}, {'Date': '18-Dec-17', 'Close': '24,792.20'}, {'Date': '15-Dec-17', 'Close': '24,651.74'}, {'Date': '14-Dec-17', 'Close': '24,508.66'}, {'Date': '13-Dec-17', 'Close': '24,585.43'}, {'Date': '12-Dec-17', 'Close': '24,504.80'}, {'Date': '11-Dec-17', 'Close': '24,386.03'}, {'Date': '8-Dec-17', 'Close': '24,329.16'}, {'Date': '7-Dec-17', 'Close': '24,211.48'}, {'Date': '6-Dec-17', 'Close': '24,140.91'}, {'Date': '5-Dec-17', 'Close': '24,180.64'}, {'Date': '4-Dec-17', 'Close': '24,290.05'}, {'Date': '1-Dec-17', 'Close': '24,231.59'}, {'Date': '30-Nov-17', 'Close': '24,272.35'}, {'Date': '29-Nov-17', 'Close': '23,940.68'}, {'Date': '28-Nov-17', 'Close': '23,836.71'}, {'Date': '27-Nov-17', 'Close': '23,580.78'}, {'Date': '24-Nov-17', 'Close': '23,557.99'}, {'Date': '22-Nov-17', 'Close': '23,526.18'}, {'Date': '21-Nov-17', 'Close': '23,590.83'}, {'Date': '20-Nov-17', 'Close': '23,430.33'}, {'Date': '17-Nov-17', 'Close': '23,358.24'}, {'Date': '16-Nov-17', 'Close': '23,458.36'}, {'Date': '15-Nov-17', 'Close': '23,271.28'}, {'Date': '14-Nov-17', 'Close': '23,409.47'}, {'Date': '13-Nov-17', 'Close': '23,439.70'}, {'Date': '10-Nov-17', 'Close': '23,422.21'}, {'Date': '9-Nov-17', 'Close': '23,461.94'}, {'Date': '8-Nov-17', 'Close': '23,563.36'}, {'Date': '7-Nov-17', 'Close': '23,557.23'}, {'Date': '6-Nov-17', 'Close': '23,548.42'}, {'Date': '3-Nov-17', 'Close': '23,539.19'}, {'Date': '2-Nov-17', 'Close': '23,516.26'}, {'Date': '1-Nov-17', 'Close': '23,435.01'}, {'Date': '31-Oct-17', 'Close': '23,377.24'}, {'Date': '30-Oct-17', 'Close': '23,348.74'}, {'Date': '27-Oct-17', 'Close': '23,434.19'}, {'Date': '26-Oct-17', 'Close': '23,400.86'}, {'Date': '25-Oct-17', 'Close': '23,329.46'}, {'Date': '24-Oct-17', 'Close': '23,441.76'}, {'Date': '23-Oct-17', 'Close': '23,273.96'}, {'Date': '20-Oct-17', 'Close': '23,328.63'}, {'Date': '19-Oct-17', 'Close': '23,163.04'}, {'Date': '18-Oct-17', 'Close': '23,157.60'}, {'Date': '17-Oct-17', 'Close': '22,997.44'}, {'Date': '16-Oct-17', 'Close': '22,956.96'}, {'Date': '13-Oct-17', 'Close': '22,871.72'}, {'Date': '12-Oct-17', 'Close': '22,841.01'}, {'Date': '11-Oct-17', 'Close': '22,872.89'}, {'Date': '10-Oct-17', 'Close': '22,830.68'}, {'Date': '9-Oct-17', 'Close': '22,761.07'}, {'Date': '6-Oct-17', 'Close': '22,773.67'}, {'Date': '5-Oct-17', 'Close': '22,775.39'}, {'Date': '4-Oct-17', 'Close': '22,661.64'}, {'Date': '3-Oct-17', 'Close': '22,641.67'}, {'Date': '2-Oct-17', 'Close': '22,557.60'}, {'Date': '29-Sep-17', 'Close': '22,405.09'}, {'Date': '28-Sep-17', 'Close': '22,381.20'}, {'Date': '27-Sep-17', 'Close': '22,340.71'}, {'Date': '26-Sep-17', 'Close': '22,284.32'}, {'Date': '25-Sep-17', 'Close': '22,296.09'}, {'Date': '22-Sep-17', 'Close': '22,349.59'}, {'Date': '21-Sep-17', 'Close': '22,359.23'}, {'Date': '20-Sep-17', 'Close': '22,412.59'}, {'Date': '19-Sep-17', 'Close': '22,370.80'}, {'Date': '18-Sep-17', 'Close': '22,331.35'}, {'Date': '15-Sep-17', 'Close': '22,268.34'}, {'Date': '14-Sep-17', 'Close': '22,203.48'}, {'Date': '13-Sep-17', 'Close': '22,158.18'}, {'Date': '12-Sep-17', 'Close': '22,118.86'}, {'Date': '11-Sep-17', 'Close': '22,057.37'}, {'Date': '8-Sep-17', 'Close': '21,797.79'}, {'Date': '7-Sep-17', 'Close': '21,784.78'}, {'Date': '6-Sep-17', 'Close': '21,807.64'}, {'Date': '5-Sep-17', 'Close': '21,753.31'}, {'Date': '1-Sep-17', 'Close': '21,987.56'}, {'Date': '31-Aug-17', 'Close': '21,948.10'}, {'Date': '30-Aug-17', 'Close': '21,892.43'}, {'Date': '29-Aug-17', 'Close': '21,865.37'}, {'Date': '28-Aug-17', 'Close': '21,808.40'}, {'Date': '25-Aug-17', 'Close': '21,813.67'}, {'Date': '24-Aug-17', 'Close': '21,783.40'}, {'Date': '23-Aug-17', 'Close': '21,812.09'}, {'Date': '22-Aug-17', 'Close': '21,899.89'}, {'Date': '21-Aug-17', 'Close': '21,703.75'}, {'Date': '18-Aug-17', 'Close': '21,674.51'}, {'Date': '17-Aug-17', 'Close': '21,750.73'}, {'Date': '16-Aug-17', 'Close': '22,024.87'}, {'Date': '15-Aug-17', 'Close': '21,998.99'}, {'Date': '14-Aug-17', 'Close': '21,993.71'}, {'Date': '11-Aug-17', 'Close': '21,858.32'}, {'Date': '10-Aug-17', 'Close': '21,844.01'}, {'Date': '9-Aug-17', 'Close': '22,048.70'}, {'Date': '8-Aug-17', 'Close': '22,085.34'}, {'Date': '7-Aug-17', 'Close': '22,118.42'}, {'Date': '4-Aug-17', 'Close': '22,092.81'}, {'Date': '3-Aug-17', 'Close': '22,026.10'}, {'Date': '2-Aug-17', 'Close': '22,016.24'}, {'Date': '1-Aug-17', 'Close': '21,963.92'}, {'Date': '31-Jul-17', 'Close': '21,891.12'}, {'Date': '28-Jul-17', 'Close': '21,830.31'}, {'Date': '27-Jul-17', 'Close': '21,796.55'}, {'Date': '26-Jul-17', 'Close': '21,711.01'}, {'Date': '25-Jul-17', 'Close': '21,613.43'}, {'Date': '24-Jul-17', 'Close': '21,513.17'}, {'Date': '21-Jul-17', 'Close': '21,580.07'}, {'Date': '20-Jul-17', 'Close': '21,611.78'}, {'Date': '19-Jul-17', 'Close': '21,640.75'}, {'Date': '18-Jul-17', 'Close': '21,574.73'}, {'Date': '17-Jul-17', 'Close': '21,629.72'}, {'Date': '14-Jul-17', 'Close': '21,637.74'}, {'Date': '13-Jul-17', 'Close': '21,553.09'}, {'Date': '12-Jul-17', 'Close': '21,532.14'}, {'Date': '11-Jul-17', 'Close': '21,409.07'}, {'Date': '10-Jul-17', 'Close': '21,408.52'}, {'Date': '7-Jul-17', 'Close': '21,414.34'}, {'Date': '6-Jul-17', 'Close': '21,320.04'}, {'Date': '5-Jul-17', 'Close': '21,478.17'}, {'Date': '3-Jul-17', 'Close': '21,479.27'}, {'Date': '30-Jun-17', 'Close': '21,349.63'}, {'Date': '29-Jun-17', 'Close': '21,287.03'}, {'Date': '28-Jun-17', 'Close': '21,454.61'}, {'Date': '27-Jun-17', 'Close': '21,310.66'}, {'Date': '26-Jun-17', 'Close': '21,409.55'}, {'Date': '23-Jun-17', 'Close': '21,394.76'}, {'Date': '22-Jun-17', 'Close': '21,397.29'}, {'Date': '21-Jun-17', 'Close': '21,410.03'}, {'Date': '20-Jun-17', 'Close': '21,467.14'}, {'Date': '19-Jun-17', 'Close': '21,528.99'}, {'Date': '16-Jun-17', 'Close': '21,384.28'}, {'Date': '15-Jun-17', 'Close': '21,359.90'}, {'Date': '14-Jun-17', 'Close': '21,374.56'}, {'Date': '13-Jun-17', 'Close': '21,328.47'}, {'Date': '12-Jun-17', 'Close': '21,235.67'}, {'Date': '9-Jun-17', 'Close': '21,271.97'}, {'Date': '8-Jun-17', 'Close': '21,182.53'}, {'Date': '7-Jun-17', 'Close': '21,173.69'}, {'Date': '6-Jun-17', 'Close': '21,136.23'}, {'Date': '5-Jun-17', 'Close': '21,184.04'}, {'Date': '2-Jun-17', 'Close': '21,206.29'}, {'Date': '1-Jun-17', 'Close': '21,144.18'}, {'Date': '31-May-17', 'Close': '21,008.65'}, {'Date': '30-May-17', 'Close': '21,029.47'}, {'Date': '26-May-17', 'Close': '21,080.28'}, {'Date': '25-May-17', 'Close': '21,082.95'}, {'Date': '24-May-17', 'Close': '21,012.42'}, {'Date': '23-May-17', 'Close': '20,937.91'}, {'Date': '22-May-17', 'Close': '20,894.83'}, {'Date': '19-May-17', 'Close': '20,804.84'}, {'Date': '18-May-17', 'Close': '20,663.02'}, {'Date': '17-May-17', 'Close': '20,606.93'}, {'Date': '16-May-17', 'Close': '20,979.75'}, {'Date': '15-May-17', 'Close': '20,981.94'}, {'Date': '12-May-17', 'Close': '20,896.61'}, {'Date': '11-May-17', 'Close': '20,919.42'}, {'Date': '10-May-17', 'Close': '20,943.11'}, {'Date': '9-May-17', 'Close': '20,975.78'}, {'Date': '8-May-17', 'Close': '21,012.28'}, {'Date': '5-May-17', 'Close': '21,006.94'}, {'Date': '4-May-17', 'Close': '20,951.47'}, {'Date': '3-May-17', 'Close': '20,957.90'}, {'Date': '2-May-17', 'Close': '20,949.89'}, {'Date': '1-May-17', 'Close': '20,913.46'}, {'Date': '28-Apr-17', 'Close': '20,940.51'}, {'Date': '27-Apr-17', 'Close': '20,981.33'}, {'Date': '26-Apr-17', 'Close': '20,975.09'}, {'Date': '25-Apr-17', 'Close': '20,996.12'}, {'Date': '24-Apr-17', 'Close': '20,763.89'}, {'Date': '21-Apr-17', 'Close': '20,547.76'}, {'Date': '20-Apr-17', 'Close': '20,578.71'}, {'Date': '19-Apr-17', 'Close': '20,404.49'}, {'Date': '18-Apr-17', 'Close': '20,523.28'}, {'Date': '17-Apr-17', 'Close': '20,636.92'}, {'Date': '13-Apr-17', 'Close': '20,453.25'}, {'Date': '12-Apr-17', 'Close': '20,591.86'}, {'Date': '11-Apr-17', 'Close': '20,651.30'}, {'Date': '10-Apr-17', 'Close': '20,658.02'}, {'Date': '7-Apr-17', 'Close': '20,656.10'}, {'Date': '6-Apr-17', 'Close': '20,662.95'}, {'Date': '5-Apr-17', 'Close': '20,648.15'}, {'Date': '4-Apr-17', 'Close': '20,689.24'}, {'Date': '3-Apr-17', 'Close': '20,650.21'}, {'Date': '31-Mar-17', 'Close': '20,663.22'}, {'Date': '30-Mar-17', 'Close': '20,728.49'}, {'Date': '29-Mar-17', 'Close': '20,659.32'}, {'Date': '28-Mar-17', 'Close': '20,701.50'}, {'Date': '27-Mar-17', 'Close': '20,550.98'}, {'Date': '24-Mar-17', 'Close': '20,596.72'}, {'Date': '23-Mar-17', 'Close': '20,656.58'}, {'Date': '22-Mar-17', 'Close': '20,661.30'}, {'Date': '21-Mar-17', 'Close': '20,668.01'}, {'Date': '20-Mar-17', 'Close': '20,905.86'}, {'Date': '17-Mar-17', 'Close': '20,914.62'}, {'Date': '16-Mar-17', 'Close': '20,934.55'}, {'Date': '15-Mar-17', 'Close': '20,950.10'}, {'Date': '14-Mar-17', 'Close': '20,837.37'}, {'Date': '13-Mar-17', 'Close': '20,881.48'}, {'Date': '10-Mar-17', 'Close': '20,902.98'}, {'Date': '9-Mar-17', 'Close': '20,858.19'}, {'Date': '8-Mar-17', 'Close': '20,855.73'}, {'Date': '7-Mar-17', 'Close': '20,924.76'}, {'Date': '6-Mar-17', 'Close': '20,954.34'}, {'Date': '3-Mar-17', 'Close': '21,005.71'}, {'Date': '2-Mar-17', 'Close': '21,002.97'}, {'Date': '1-Mar-17', 'Close': '21,115.55'}, {'Date': '28-Feb-17', 'Close': '20,812.24'}, {'Date': '27-Feb-17', 'Close': '20,837.44'}, {'Date': '24-Feb-17', 'Close': '20,821.76'}, {'Date': '23-Feb-17', 'Close': '20,810.32'}, {'Date': '22-Feb-17', 'Close': '20,775.60'}, {'Date': '21-Feb-17', 'Close': '20,743.00'}, {'Date': '17-Feb-17', 'Close': '20,624.05'}, {'Date': '16-Feb-17', 'Close': '20,619.77'}, {'Date': '15-Feb-17', 'Close': '20,611.86'}, {'Date': '14-Feb-17', 'Close': '20,504.41'}, {'Date': '13-Feb-17', 'Close': '20,412.16'}, {'Date': '10-Feb-17', 'Close': '20,269.37'}, {'Date': '9-Feb-17', 'Close': '20,172.40'}, {'Date': '8-Feb-17', 'Close': '20,054.34'}, {'Date': '7-Feb-17', 'Close': '20,090.29'}, {'Date': '6-Feb-17', 'Close': '20,052.42'}, {'Date': '3-Feb-17', 'Close': '20,071.46'}, {'Date': '2-Feb-17', 'Close': '19,884.91'}, {'Date': '1-Feb-17', 'Close': '19,890.94'}, {'Date': '31-Jan-17', 'Close': '19,864.09'}, {'Date': '30-Jan-17', 'Close': '19,971.13'}, {'Date': '27-Jan-17', 'Close': '20,093.78'}]</t>
-  </si>
-  <si>
-    <t>[{'Date': '7-May-20', 'Close': '23,875.89'}, {'Date': '6-May-20', 'Close': '23,664.64'}, {'Date': '5-May-20', 'Close': '23,883.09'}, {'Date': '4-May-20', 'Close': '23,749.76'}, {'Date': '1-May-20', 'Close': '23,723.69'}, {'Date': '30-Apr-20', 'Close': '24,345.72'}, {'Date': '29-Apr-20', 'Close': '24,633.86'}, {'Date': '28-Apr-20', 'Close': '24,101.55'}, {'Date': '27-Apr-20', 'Close': '24,133.78'}, {'Date': '24-Apr-20', 'Close': '23,775.27'}, {'Date': '23-Apr-20', 'Close': '23,515.26'}, {'Date': '22-Apr-20', 'Close': '23,475.82'}, {'Date': '21-Apr-20', 'Close': '23,018.88'}, {'Date': '20-Apr-20', 'Close': '23,650.44'}, {'Date': '17-Apr-20', 'Close': '24,242.49'}, {'Date': '16-Apr-20', 'Close': '23,537.68'}, {'Date': '15-Apr-20', 'Close': '23,504.35'}, {'Date': '14-Apr-20', 'Close': '23,949.76'}, {'Date': '13-Apr-20', 'Close': '23,390.77'}, {'Date': '9-Apr-20', 'Close': '23,719.37'}, {'Date': '8-Apr-20', 'Close': '23,433.57'}, {'Date': '7-Apr-20', 'Close': '22,653.86'}, {'Date': '6-Apr-20', 'Close': '22,679.99'}, {'Date': '3-Apr-20', 'Close': '21,052.53'}, {'Date': '2-Apr-20', 'Close': '21,413.44'}, {'Date': '1-Apr-20', 'Close': '20,943.51'}, {'Date': '31-Mar-20', 'Close': '21,917.16'}, {'Date': '30-Mar-20', 'Close': '22,327.48'}, {'Date': '27-Mar-20', 'Close': '21,636.78'}, {'Date': '26-Mar-20', 'Close': '22,552.17'}, {'Date': '25-Mar-20', 'Close': '21,200.55'}, {'Date': '24-Mar-20', 'Close': '20,704.91'}, {'Date': '23-Mar-20', 'Close': '18,591.93'}, {'Date': '20-Mar-20', 'Close': '19,173.98'}, {'Date': '19-Mar-20', 'Close': '20,087.19'}, {'Date': '18-Mar-20', 'Close': '19,898.92'}, {'Date': '17-Mar-20', 'Close': '21,237.38'}, {'Date': '16-Mar-20', 'Close': '20,188.52'}, {'Date': '13-Mar-20', 'Close': '23,185.62'}, {'Date': '12-Mar-20', 'Close': '21,200.62'}, {'Date': '11-Mar-20', 'Close': '23,553.22'}, {'Date': '10-Mar-20', 'Close': '25,018.16'}, {'Date': '9-Mar-20', 'Close': '23,851.02'}, {'Date': '6-Mar-20', 'Close': '25,864.78'}, {'Date': '5-Mar-20', 'Close': '26,121.28'}, {'Date': '4-Mar-20', 'Close': '27,090.86'}, {'Date': '3-Mar-20', 'Close': '25,917.41'}, {'Date': '2-Mar-20', 'Close': '26,703.32'}, {'Date': '28-Feb-20', 'Close': '25,409.36'}, {'Date': '27-Feb-20', 'Close': '25,766.64'}, {'Date': '26-Feb-20', 'Close': '26,957.59'}, {'Date': '25-Feb-20', 'Close': '27,081.36'}, {'Date': '24-Feb-20', 'Close': '27,960.80'}, {'Date': '21-Feb-20', 'Close': '28,992.41'}, {'Date': '20-Feb-20', 'Close': '29,219.98'}, {'Date': '19-Feb-20', 'Close': '29,348.03'}, {'Date': '18-Feb-20', 'Close': '29,232.19'}, {'Date': '14-Feb-20', 'Close': '29,398.08'}, {'Date': '13-Feb-20', 'Close': '29,423.31'}, {'Date': '12-Feb-20', 'Close': '29,551.42'}, {'Date': '11-Feb-20', 'Close': '29,276.34'}, {'Date': '10-Feb-20', 'Close': '29,276.82'}, {'Date': '7-Feb-20', 'Close': '29,102.51'}, {'Date': '6-Feb-20', 'Close': '29,379.77'}, {'Date': '5-Feb-20', 'Close': '29,290.85'}, {'Date': '4-Feb-20', 'Close': '28,807.63'}, {'Date': '3-Feb-20', 'Close': '28,399.81'}, {'Date': '31-Jan-20', 'Close': '28,256.03'}, {'Date': '30-Jan-20', 'Close': '28,859.44'}, {'Date': '29-Jan-20', 'Close': '28,734.45'}, {'Date': '28-Jan-20', 'Close': '28,722.85'}, {'Date': '27-Jan-20', 'Close': '28,535.80'}, {'Date': '24-Jan-20', 'Close': '28,989.73'}, {'Date': '23-Jan-20', 'Close': '29,160.09'}, {'Date': '22-Jan-20', 'Close': '29,186.27'}, {'Date': '21-Jan-20', 'Close': '29,196.04'}, {'Date': '17-Jan-20', 'Close': '29,348.10'}, {'Date': '16-Jan-20', 'Close': '29,297.64'}, {'Date': '15-Jan-20', 'Close': '29,030.22'}, {'Date': '14-Jan-20', 'Close': '28,939.67'}, {'Date': '13-Jan-20', 'Close': '28,907.05'}, {'Date': '10-Jan-20', 'Close': '28,823.77'}, {'Date': '9-Jan-20', 'Close': '28,956.90'}]</t>
-  </si>
-  <si>
-    <t>[{'Date': '2018/4/27', 'Close': 78.630997}, {'Date': '2018/4/30', 'Close': 78.306503}, {'Date': '2018/5/1', 'Close': 79.112999}, {'Date': '2018/5/2', 'Close': 78.484001}, {'Date': '2018/5/3', 'Close': 78.603996}, {'Date': '2018/5/4', 'Close': 79.047501}, {'Date': '2018/5/7', 'Close': 80.007004}, {'Date': '2018/5/8', 'Close': 79.619499}, {'Date': '2018/5/9', 'Close': 80.400002}, {'Date': '2018/5/10', 'Close': 80.454002}, {'Date': '2018/5/11', 'Close': 80.1455}, {'Date': '2018/5/14', 'Close': 80.077003}, {'Date': '2018/5/15', 'Close': 78.806}, {'Date': '2018/5/16', 'Close': 79.363998}, {'Date': '2018/5/17', 'Close': 79.087997}, {'Date': '2018/5/18', 'Close': 78.718498}, {'Date': '2018/5/21', 'Close': 79.273003}, {'Date': '2018/5/22', 'Close': 79.07}, {'Date': '2018/5/23', 'Close': 80.093002}, {'Date': '2018/5/24', 'Close': 80.153503}, {'Date': '2018/5/25', 'Close': 80.5075}, {'Date': '2018/5/29', 'Close': 80.643501}, {'Date': '2018/5/30', 'Close': 81.244499}, {'Date': '2018/5/31', 'Close': 81.481003}, {'Date': '2018/6/1', 'Close': 82.077003}, {'Date': '2018/6/4', 'Close': 83.263496}, {'Date': '2018/6/5', 'Close': 84.817497}, {'Date': '2018/6/6', 'Close': 84.787498}, {'Date': '2018/6/7', 'Close': 84.464996}, {'Date': '2018/6/8', 'Close': 84.199501}, {'Date': '2018/6/11', 'Close': 84.456001}, {'Date': '2018/6/12', 'Close': 84.9375}, {'Date': '2018/6/13', 'Close': 85.242996}, {'Date': '2018/6/14', 'Close': 86.193001}, {'Date': '2018/6/15', 'Close': 85.7985}, {'Date': '2018/6/18', 'Close': 86.189499}, {'Date': '2018/6/19', 'Close': 86.738998}, {'Date': '2018/6/20', 'Close': 87.503998}, {'Date': '2018/6/21', 'Close': 86.511002}, {'Date': '2018/6/22', 'Close': 85.783501}, {'Date': '2018/6/25', 'Close': 83.157501}, {'Date': '2018/6/26', 'Close': 84.554497}, {'Date': '2018/6/27', 'Close': 83.025497}, {'Date': '2018/6/28', 'Close': 85.072502}, {'Date': '2018/6/29', 'Close': 84.989998}, {'Date': '2018/7/2', 'Close': 85.689003}, {'Date': '2018/7/3', 'Close': 84.697998}, {'Date': '2018/7/5', 'Close': 84.986504}, {'Date': '2018/7/6', 'Close': 85.531502}, {'Date': '2018/7/9', 'Close': 86.950996}, {'Date': '2018/7/10', 'Close': 87.153503}, {'Date': '2018/7/11', 'Close': 87.75}, {'Date': '2018/7/12', 'Close': 89.831001}, {'Date': '2018/7/13', 'Close': 90.651497}, {'Date': '2018/7/16', 'Close': 91.124496}, {'Date': '2018/7/17', 'Close': 92.196503}, {'Date': '2018/7/18', 'Close': 92.146004}, {'Date': '2018/7/19', 'Close': 90.648499}, {'Date': '2018/7/20', 'Close': 90.684998}, {'Date': '2018/7/23', 'Close': 90.099998}, {'Date': '2018/7/24', 'Close': 91.461998}, {'Date': '2018/7/25', 'Close': 93.180496}, {'Date': '2018/7/26', 'Close': 90.400002}, {'Date': '2018/7/27', 'Close': 90.863503}, {'Date': '2018/7/30', 'Close': 88.960999}, {'Date': '2018/7/31', 'Close': 88.872002}, {'Date': '2018/8/1', 'Close': 89.858498}, {'Date': '2018/8/2', 'Close': 91.716499}, {'Date': '2018/8/3', 'Close': 91.164497}, {'Date': '2018/8/6', 'Close': 92.387497}, {'Date': '2018/8/7', 'Close': 93.124001}, {'Date': '2018/8/8', 'Close': 94.325996}, {'Date': '2018/8/9', 'Close': 94.926003}, {'Date': '2018/8/10', 'Close': 94.315002}, {'Date': '2018/8/13', 'Close': 94.809998}, {'Date': '2018/8/14', 'Close': 95.982498}, {'Date': '2018/8/15', 'Close': 94.130997}, {'Date': '2018/8/16', 'Close': 94.325996}, {'Date': '2018/8/17', 'Close': 94.111}, {'Date': '2018/8/20', 'Close': 93.835503}, {'Date': '2018/8/21', 'Close': 94.170998}, {'Date': '2018/8/22', 'Close': 95.245003}, {'Date': '2018/8/23', 'Close': 95.144997}, {'Date': '2018/8/24', 'Close': 95.269501}, {'Date': '2018/8/27', 'Close': 96.384003}, {'Date': '2018/8/28', 'Close': 96.640999}, {'Date': '2018/8/29', 'Close': 99.904999}, {'Date': '2018/8/30', 'Close': 100.119003}, {'Date': '2018/8/31', 'Close': 100.635498}, {'Date': '2018/9/4', 'Close': 101.975502}, {'Date': '2018/9/5', 'Close': 101.740997}, {'Date': '2018/9/6', 'Close': 99.915497}, {'Date': '2018/9/7', 'Close': 98.6035}, {'Date': '2018/9/10', 'Close': 97.9505}, {'Date': '2018/9/11', 'Close': 97.357498}, {'Date': '2018/9/12', 'Close': 96.93}, {'Date': '2018/9/13', 'Close': 96.7935}, {'Date': '2018/9/14', 'Close': 96.809499}, {'Date': '2018/9/17', 'Close': 96.901497}, {'Date': '2018/9/18', 'Close': 97.052498}, {'Date': '2018/9/19', 'Close': 96.320999}, {'Date': '2018/9/20', 'Close': 97.214996}, {'Date': '2018/9/21', 'Close': 95.750504}, {'Date': '2018/9/24', 'Close': 96.718002}, {'Date': '2018/9/25', 'Close': 98.727501}, {'Date': '2018/9/26', 'Close': 98.7425}, {'Date': '2018/9/27', 'Close': 100.649002}, {'Date': '2018/9/28', 'Close': 100.150002}, {'Date': '2018/10/1', 'Close': 100.218002}, {'Date': '2018/10/2', 'Close': 98.565498}, {'Date': '2018/10/3', 'Close': 97.638}, {'Date': '2018/10/4', 'Close': 95.471001}, {'Date': '2018/10/5', 'Close': 94.482498}, {'Date': '2018/10/8', 'Close': 93.221001}, {'Date': '2018/10/9', 'Close': 93.515999}, {'Date': '2018/10/10', 'Close': 87.762497}, {'Date': '2018/10/11', 'Close': 85.968002}, {'Date': '2018/10/12', 'Close': 89.430496}, {'Date': '2018/10/15', 'Close': 88.047501}, {'Date': '2018/10/16', 'Close': 90.998001}, {'Date': '2018/10/17', 'Close': 91.586502}, {'Date': '2018/10/18', 'Close': 88.536003}, {'Date': '2018/10/19', 'Close': 88.2015}, {'Date': '2018/10/22', 'Close': 89.464996}, {'Date': '2018/10/23', 'Close': 88.434998}, {'Date': '2018/10/24', 'Close': 83.209999}, {'Date': '2018/10/25', 'Close': 89.108498}, {'Date': '2018/10/26', 'Close': 82.140503}, {'Date': '2018/10/29', 'Close': 76.944}, {'Date': '2018/10/30', 'Close': 76.521004}, {'Date': '2018/10/31', 'Close': 79.900497}, {'Date': '2018/11/1', 'Close': 83.276497}, {'Date': '2018/11/2', 'Close': 83.276497}, {'Date': '2018/11/5', 'Close': 81.389999}, {'Date': '2018/11/6', 'Close': 82.140503}, {'Date': '2018/11/7', 'Close': 87.774498}, {'Date': '2018/11/8', 'Close': 87.745499}, {'Date': '2018/11/9', 'Close': 85.621498}, {'Date': '2018/11/12', 'Close': 81.842499}, {'Date': '2018/11/13', 'Close': 81.558502}, {'Date': '2018/11/14', 'Close': 79.9505}, {'Date': '2018/11/15', 'Close': 80.972}, {'Date': '2018/11/16', 'Close': 79.670502}, {'Date': '2018/11/19', 'Close': 75.614502}, {'Date': '2018/11/20', 'Close': 74.773003}]</t>
-  </si>
-  <si>
-    <t>The chart of Amazon.com Inc. (AMZN) shows a double top pattern that formed in the stock between September and October 2018 around a price of $2,050. The important support level in this case formed around $1,880. Despite the stock falling nearly 8% from October peak to support at $1,880, one could not confirm the double top until after the stock fell below $1,880. From that point forward the shares went on to plunge almost 31% further.</t>
-  </si>
-  <si>
-    <t>pattern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multiple bar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>head and shoulder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>single line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cup with handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rouding bottom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double bottom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>line chart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uptrend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">down trend </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double top</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>triple top</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"Mini- and subcompact size","BeginIndex":"7","EndIndex":"7","Trend":"Declined","Number":"0.30"},{"ObjectName":"Mini- and subcompact size","BeginIndex":"0","EndIndex":"0","Trend":"None","Number":"0.61"}，{"ObjectName":"Compact Size" + "Midsize to large","BeginIndex":"7","EndIndex":"7","Trend":"upgrade trend","Number":"0.30" + "0.40"},{"ObjectName":"Compact Size" + "Midsize to large","BeginIndex":"0","EndIndex":"0","Trend":"None","Number":"0.35" + "0.04"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The object in unit 1 is "Mini- and subcompact size". Its compact size goes from '0.61' in 2017 to '0.30' in 2023. The subject in unit 2 is the combination of  "Compact Size" and  "Midsize to large". Its sompact size goes from the combination from "0.35"+"0.04" in 2017 to "0.30+0.40" in 2023.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The first object is "Inflation-adjusted ("real") GDP for the outdoor recreation economy" and its value is 18.9. The second object is "U.S. economy" and its value is 5.9.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There exists a "head and shoulder" pattern on the Amazon stock moving averages from 1999/09/27 to 2000/02/22.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":"Close","BeginIndex":"39","EndIndex":"141","Trend":"Head and shoulder","Number":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The "head and shoulder" pattern consists of three rises and falls from three localized highs. The high point in the center is higher than the other two. This pattern is around from '1999/09/27' to '2000/02/22' and the middle high point exist on '1999/12/09'.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,13 +516,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="126" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
@@ -494,11 +531,12 @@
     <col min="5" max="5" width="34.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.83203125" customWidth="1"/>
     <col min="7" max="7" width="26.5" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -518,10 +556,13 @@
       <c r="G1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="88" customHeight="1">
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="88" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -535,10 +576,19 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="125" customHeight="1">
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="125" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -550,153 +600,168 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="288">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="252" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="409" customHeight="1">
+    <row r="6" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="409.6">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="409.6">
+    <row r="10" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="409.6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="409.6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="409.6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
     </row>
   </sheetData>

--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ADFD6F-13B4-4C57-909B-CB2E0DB248F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E294B28-220F-4D85-9B6B-42D4E68AC88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="6640" windowWidth="35740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15470" yWindow="1040" windowWidth="21830" windowHeight="19850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,15 +72,6 @@
     <t>[{'Date': '1999/4/26', 'Adj Close': 5.179688}, {'Date': '1999/4/27', 'Adj Close': 5.146875}, {'Date': '1999/4/28', 'Adj Close': 4.8375}, {'Date': '1999/4/29', 'Adj Close': 4.20625}, {'Date': '1999/4/30', 'Adj Close': 4.301563}, {'Date': '1999/5/3', 'Adj Close': 3.773438}, {'Date': '1999/5/4', 'Adj Close': 3.575}, {'Date': '1999/5/5', 'Adj Close': 3.6625}, {'Date': '1999/5/6', 'Adj Close': 3.434375}, {'Date': '1999/5/7', 'Adj Close': 3.409375}, {'Date': '1999/5/10', 'Adj Close': 3.671875}, {'Date': '1999/5/11', 'Adj Close': 3.709375}, {'Date': '1999/5/12', 'Adj Close': 3.573438}, {'Date': '1999/5/13', 'Adj Close': 3.4}, {'Date': '1999/5/14', 'Adj Close': 3.309375}, {'Date': '1999/5/17', 'Adj Close': 3.440625}, {'Date': '1999/5/18', 'Adj Close': 3.315625}, {'Date': '1999/5/19', 'Adj Close': 3.489063}, {'Date': '1999/5/20', 'Adj Close': 3.270313}, {'Date': '1999/5/21', 'Adj Close': 3.214063}, {'Date': '1999/5/24', 'Adj Close': 2.9375}, {'Date': '1999/5/25', 'Adj Close': 2.789063}, {'Date': '1999/5/26', 'Adj Close': 3.023438}, {'Date': '1999/5/27', 'Adj Close': 2.864063}, {'Date': '1999/5/28', 'Adj Close': 2.96875}, {'Date': '1999/6/1', 'Adj Close': 2.645313}, {'Date': '1999/6/2', 'Adj Close': 2.803125}, {'Date': '1999/6/3', 'Adj Close': 2.626563}, {'Date': '1999/6/4', 'Adj Close': 2.710938}, {'Date': '1999/6/7', 'Adj Close': 2.934375}, {'Date': '1999/6/8', 'Adj Close': 2.789063}, {'Date': '1999/6/9', 'Adj Close': 2.85}, {'Date': '1999/6/10', 'Adj Close': 2.898438}, {'Date': '1999/6/11', 'Adj Close': 2.645313}, {'Date': '1999/6/14', 'Adj Close': 2.3}, {'Date': '1999/6/15', 'Adj Close': 2.4125}, {'Date': '1999/6/16', 'Adj Close': 2.792188}, {'Date': '1999/6/17', 'Adj Close': 2.823438}, {'Date': '1999/6/18', 'Adj Close': 2.782813}, {'Date': '1999/6/21', 'Adj Close': 3.0875}, {'Date': '1999/6/22', 'Adj Close': 2.9375}, {'Date': '1999/6/23', 'Adj Close': 2.94375}, {'Date': '1999/6/24', 'Adj Close': 2.840625}, {'Date': '1999/6/25', 'Adj Close': 2.754688}, {'Date': '1999/6/28', 'Adj Close': 2.767188}, {'Date': '1999/6/29', 'Adj Close': 2.901563}, {'Date': '1999/6/30', 'Adj Close': 3.128125}, {'Date': '1999/7/1', 'Adj Close': 3.059375}, {'Date': '1999/7/2', 'Adj Close': 3.101563}, {'Date': '1999/7/6', 'Adj Close': 3.171875}, {'Date': '1999/7/7', 'Adj Close': 3.046875}, {'Date': '1999/7/8', 'Adj Close': 3.134375}, {'Date': '1999/7/9', 'Adj Close': 3.1375}, {'Date': '1999/7/12', 'Adj Close': 2.934375}, {'Date': '1999/7/13', 'Adj Close': 3.153125}, {'Date': '1999/7/14', 'Adj Close': 3.375}, {'Date': '1999/7/15', 'Adj Close': 3.489063}, {'Date': '1999/7/16', 'Adj Close': 3.440625}, {'Date': '1999/7/19', 'Adj Close': 3.292188}, {'Date': '1999/7/20', 'Adj Close': 3.003125}, {'Date': '1999/7/21', 'Adj Close': 3.135938}, {'Date': '1999/7/22', 'Adj Close': 2.670313}, {'Date': '1999/7/23', 'Adj Close': 2.864063}, {'Date': '1999/7/26', 'Adj Close': 2.648438}, {'Date': '1999/7/27', 'Adj Close': 2.525}, {'Date': '1999/7/28', 'Adj Close': 2.64375}, {'Date': '1999/7/29', 'Adj Close': 2.539063}, {'Date': '1999/7/30', 'Adj Close': 2.501563}, {'Date': '1999/8/2', 'Adj Close': 2.35}, {'Date': '1999/8/3', 'Adj Close': 2.371875}, {'Date': '1999/8/4', 'Adj Close': 2.210938}, {'Date': '1999/8/5', 'Adj Close': 2.43125}, {'Date': '1999/8/6', 'Adj Close': 2.239063}, {'Date': '1999/8/9', 'Adj Close': 2.1375}, {'Date': '1999/8/10', 'Adj Close': 2.275}, {'Date': '1999/8/11', 'Adj Close': 2.273438}, {'Date': '1999/8/12', 'Adj Close': 2.29375}, {'Date': '1999/8/13', 'Adj Close': 2.435938}, {'Date': '1999/8/16', 'Adj Close': 2.457813}, {'Date': '1999/8/17', 'Adj Close': 2.73125}, {'Date': '1999/8/18', 'Adj Close': 2.828125}, {'Date': '1999/8/19', 'Adj Close': 2.653125}, {'Date': '1999/8/20', 'Adj Close': 2.835938}, {'Date': '1999/8/23', 'Adj Close': 2.959375}, {'Date': '1999/8/24', 'Adj Close': 3.001563}, {'Date': '1999/8/25', 'Adj Close': 3.321875}, {'Date': '1999/8/26', 'Adj Close': 3.214063}, {'Date': '1999/8/27', 'Adj Close': 3.2125}, {'Date': '1999/8/30', 'Adj Close': 2.98125}, {'Date': '1999/8/31', 'Adj Close': 3.109375}, {'Date': '1999/9/1', 'Adj Close': 2.976563}, {'Date': '1999/9/2', 'Adj Close': 3.003125}, {'Date': '1999/9/3', 'Adj Close': 3.121875}, {'Date': '1999/9/7', 'Adj Close': 3.146875}, {'Date': '1999/9/8', 'Adj Close': 3.071875}, {'Date': '1999/9/9', 'Adj Close': 3.18125}, {'Date': '1999/9/10', 'Adj Close': 3.325}, {'Date': '1999/9/13', 'Adj Close': 3.165625}, {'Date': '1999/9/14', 'Adj Close': 3.3}, {'Date': '1999/9/15', 'Adj Close': 3.278125}, {'Date': '1999/9/16', 'Adj Close': 3.2625}, {'Date': '1999/9/17', 'Adj Close': 3.190625}, {'Date': '1999/9/20', 'Adj Close': 3.1375}, {'Date': '1999/9/21', 'Adj Close': 3.1125}, {'Date': '1999/9/22', 'Adj Close': 3.3}, {'Date': '1999/9/23', 'Adj Close': 3.1125}, {'Date': '1999/9/24', 'Adj Close': 3.25}, {'Date': '1999/9/27', 'Adj Close': 3.128125}, {'Date': '1999/9/28', 'Adj Close': 3.29375}, {'Date': '1999/9/29', 'Adj Close': 4.0375}, {'Date': '1999/9/30', 'Adj Close': 3.996875}, {'Date': '1999/10/1', 'Adj Close': 3.8625}, {'Date': '1999/10/4', 'Adj Close': 3.853125}, {'Date': '1999/10/5', 'Adj Close': 3.921875}, {'Date': '1999/10/6', 'Adj Close': 4.121875}, {'Date': '1999/10/7', 'Adj Close': 4.365625}, {'Date': '1999/10/8', 'Adj Close': 4.4625}, {'Date': '1999/10/11', 'Adj Close': 4.41875}, {'Date': '1999/10/12', 'Adj Close': 4.246875}, {'Date': '1999/10/13', 'Adj Close': 3.996875}, {'Date': '1999/10/14', 'Adj Close': 3.979688}, {'Date': '1999/10/15', 'Adj Close': 3.753125}, {'Date': '1999/10/18', 'Adj Close': 3.703125}, {'Date': '1999/10/19'99/12/8', 'Adj Close': 4.428125}, {'Date': '1999/12/9', 'Adj Close': 5.18125}, {'Date': '1999/12/10', 'Adj Close': 5.334375}, {'Date': '1999/12/13', 'Adj Close': 5.125}, {'Date': '1999/12/14', 'Adj Close': 4.78125}, {'Date': '1999/12/15', 'Adj Close': 4.825}, {'Date': '1999/12/16', 'Adj Close': 4.74375}, {'Date': '1999/12/17', 'Adj Close': 4.703125}, {'Date': '1999/12/20', 'Adj Close': 4.85}, {'Date': '1999/12/21', 'Adj Close': 4.99375}, {'Date': '1999/12/22', 'Adj Close': 4.884375}, {'Date': '1999/12/23', 'Adj Close': 4.5}, {'Date': '1999/12/27', 'Adj Close': 4.05625}, {'Date': '1999/12/28', 'Adj Close': 4.115625}, {'Date': '1999/12/29', 'Adj Close': 4.175}, {'Date': '1999/12/30', 'Adj Close': 3.953125}, {'Date': '1999/12/31', 'Adj Close': 3.80625}, {'Date': '2000/1/3', 'Adj Close': 4.46875}, {'Date': '2000/1/4', 'Adj Close': 4.096875}, {'Date': '2000/1/5', 'Adj Close': 3.4875}, {'Date': '2000/1/6', 'Adj Close': 3.278125}, {'Date': '2000/1/7', 'Adj Close': 3.478125}, {'Date': '2000/1/10', 'Adj Close': 3.459375}, {'Date': '2000/1/11', 'Adj Close': 3.3375}, {'Date': '2000/1/12', 'Adj Close': 3.178125}, {'Date': '2000/1/13', 'Adj Close': 3.296875}, {'Date': '2000/1/14', 'Adj Close': 3.2125}, {'Date': '2000/1/18', 'Adj Close': 3.20625}, {'Date': '2000/1/19', 'Adj Close': 3.340625}, {'Date': '2000/1/20', 'Adj Close': 3.2375}]</t>
   </si>
   <si>
-    <t>[{'Date': '3-Nov-16', 'Close': 17930.67}, {'Date': '2-Nov-16', 'Close': 17959.64}, {'Date': '1-Nov-16', 'Close': 18037.1}, {'Date': '31-Oct-16', 'Close': 18142.42}, {'Date': '28-Oct-16', 'Close': 18161.19}, {'Date': '27-Oct-16', 'Close': 18169.68}, {'Date': '26-Oct-16', 'Close': 18199.33}, {'Date': '25-Oct-16', 'Close': 18169.27}, {'Date': '24-Oct-16', 'Close': 18223.03}, {'Date': '21-Oct-16', 'Close': 18145.71}, {'Date': '20-Oct-16', 'Close': 18162.35}, {'Date': '19-Oct-16', 'Close': 18202.62}, {'Date': '18-Oct-16', 'Close': 18161.94}, {'Date': '17-Oct-16', 'Close': 18086.4}, {'Date': '14-Oct-16', 'Close': 18138.38}, {'Date': '13-Oct-16', 'Close': 18098.94}, {'Date': '12-Oct-16', 'Close': 18144.2}, {'Date': '11-Oct-16', 'Close': 18128.66}, {'Date': '10-Oct-16', 'Close': 18329.04}, {'Date': '7-Oct-16', 'Close': 18240.49}, {'Date': '6-Oct-16', 'Close': 18268.5}, {'Date': '5-Oct-16', 'Close': 18281.03}, {'Date': '4-Oct-16', 'Close': 18168.45}, {'Date': '3-Oct-16', 'Close': 18253.85}, {'Date': '30-Sep-16', 'Close': 18308.15}, {'Date': '29-Sep-16', 'Close': 18143.45}, {'Date': '28-Sep-16', 'Close': 18339.24}, {'Date': '27-Sep-16', 'Close': 18228.3}, {'Date': '26-Sep-16', 'Close': 18094.83}, {'Date': '23-Sep-16', 'Close': 18261.45}, {'Date': '22-Sep-16', 'Close': 18392.46}, {'Date': '21-Sep-16', 'Close': 18293.7}, {'Date': '20-Sep-16', 'Close': 18129.96}, {'Date': '19-Sep-16', 'Close': 18120.17}, {'Date': '16-Sep-16', 'Close': 18123.8}, {'Date': '15-Sep-16', 'Close': 18212.48}, {'Date': '14-Sep-16', 'Close': 18034.77}, {'Date': '13-Sep-16', 'Close': 18066.75}, {'Date': '12-Sep-16', 'Close': 18325.07}, {'Date': '9-Sep-16', 'Close': 18085.45}, {'Date': '8-Sep-16', 'Close': 18479.91}, {'Date': '7-Sep-16', 'Close': 18526.14}, {'Date': '6-Sep-16', 'Close': 18538.12}, {'Date': '2-Sep-16', 'Close': 18491.96}, {'Date': '1-Sep-16', 'Close': 18419.3}, {'Date': '31-Aug-16', 'Close': 18400.88}, {'Date': '30-Aug-16', 'Close': 18454.3}, {'Date': '29-Aug-16', 'Close': 18502.99}, {'Date': '26-Aug-16', 'Close': 18395.4}, {'Date': '25-Aug-16', 'Close': 18448.41}, {'Date': '24-Aug-16', 'Close': 18481.48}, {'Date': '23-Aug-16', 'Close': 18547.3}, {'Date': '22-Aug-16', 'Close': 18529.42}, {'Date': '19-Aug-16', 'Close': 18552.57}, {'Date': '18-Aug-16', 'Close': 18597.7}, {'Date': '17-Aug-16', 'Close': 18573.94}, {'Date': '16-Aug-16', 'Close': 18552.02}, {'Date': '15-Aug-16', 'Close': 18636.05}, {'Date': '12-Aug-16', 'Close': 18576.47}, {'Date': '11-Aug-16', 'Close': 18613.52}, {'Date': '10-Aug-16', 'Close': 18495.66}, {'Date': '9-Aug-16', 'Close': 18533.05}, {'Date': '8-Aug-16', 'Close': 18529.29}, {'Date': '5-Aug-16', 'Close': 18543.53}, {'Date': '4-Aug-16', 'Close': 18352.05}, {'Date': '3-Aug-16', 'Close': 18355.0}, {'Date': '2-Aug-16', 'Close': 18313.77}, {'Date': '1-Aug-16', 'Close': 18404.51}, {'Date': '29-Jul-16', 'Close': 18432.24}, {'Date': '28-Jul-16', 'Close': 18456.35}, {'Date': '27-Jul-16', 'Close': 18472.17}, {'Date': '26-Jul-16', 'Close': 18473.75}, {'Date': '25-Jul-16', 'Close': 18493.06}, {'Date': '22-Jul-16', 'Close': 18570.85}, {'Date': '21-Jul-16', 'Close': 18517.23}, {'Date': '20-Jul-16', 'Close': 18595.03}, {'Date': '19-Jul-16', 'Close': 18559.01}, {'Date': '18-Jul-16', 'Close': 18533.05}, {'Date': '15-Jul-16', 'Close': 18516.55}, {'Date': '14-Jul-16', 'Close': 18506.41}, {'Date': '13-Jul-16', 'Close': 18372.12}, {'Date': '12-Jul-16', 'Close': 18347.67}, {'Date': '11-Jul-16', 'Close': 18226.93}, {'Date': '8-Jul-16', 'Close': 18146.74}, {'Date': '7-Jul-16', 'Close': 17895.88}, {'Date': '6-Jul-16', 'Close': 17918.62}, {'Date': '5-Jul-16', 'Close': 17840.62}, {'Date': '1-Jul-16', 'Close': 17949.37}, {'Date': '30-Jun-16', 'Close': 17929.99}, {'Date': '29-Jun-16', 'Close': 17694.68}, {'Date': '28-Jun-16', 'Close': 17409.72}, {'Date': '27-Jun-16', 'Close': 17140.24}, {'Date': '24-Jun-16', 'Close': 17400.75}, {'Date': '23-Jun-16', 'Close': 18011.07}, {'Date': '22-Jun-16', 'Close': 17780.83}, {'Date': '21-Jun-16', 'Close': 17829.73}, {'Date': '20-Jun-16', 'Close': 17804.87}, {'Date': '17-Jun-16', 'Close': 17675.16}, {'Date': '16-Jun-16', 'Close': 17733.1}, {'Date': '15-Jun-16', 'Close': 17640.17}, {'Date': '14-Jun-16', 'Close': 17674.82}, {'Date': '13-Jun-16', 'Close': 17732.48}, {'Date': '10-Jun-16', 'Close': 17865.34}, {'Date': '9-Jun-16', 'Close': 17985.19}, {'Date': '8-Jun-16', 'Close': 18005.05}, {'Date': '7-Jun-16', 'Close': 17938.28}, {'Date': '6-Jun-16', 'Close': 17920.33}, {'Date': '3-Jun-16', 'Close': 17807.06}, {'Date': '2-Jun-16', 'Close': 17838.56}, {'Date': '1-Jun-16', 'Close': 17789.67}, {'Date': '31-May-16', 'Close': 17787.2}, {'Date': '27-May-16', 'Close': 17873.22}, {'Date': '26-May-16', 'Close': 17828.29}, {'Date': '25-May-16', 'Close': 17851.51}, {'Date': '24-May-16', 'Close': 17706.05}, {'Date': '23-May-16', 'Close': 17492.93}, {'Date': '20-May-16', 'Close': 17500.94}, {'Date': '19-May-16', 'Close': 17435.4}, {'Date': '18-May-16', 'Close': 17526.62}, {'Date': '17-May-16', 'Close': 17529.98}, {'Date': '16-May-16', 'Close': 17710.71}, {'Date': '13-May-16', 'Close': 17535.32}, {'Date': '12-May-16', 'Close': 17720.5}, {'Date': '11-May-16', 'Close': 17711.12}, {'Date': '10-May-16', 'Close': 17928.35}, {'Date': '9-May-16', 'Close': 17705.91}, {'Date': '6-May-16', 'Close': 17740.63}, {'Date': '5-May-16', 'Close': 17660.71}, {'Date': '4-May-16', 'Close': 17651.26}, {'Date': '3-May-16', 'Close': 17750.91}, {'Date': '2-May-16', 'Close': 17891.16}, {'Date': '29-Apr-16', 'Close': 17773.64}, {'Date': '28-Apr-16', 'Close': 17830.76}, {'Date': '27-Apr-16', 'Close': 18041.55}, {'Date': '26-Apr-16', 'Close': 17990.32}, {'Date': '25-Apr-16', 'Close': 17977.24}, {'Date': '22-Apr-16', 'Close': 18003.75}, {'Date': '21-Apr-16', 'Close': 17982.52}, {'Date': '20-Apr-16', 'Close': 18096.27}, {'Date': '19-Apr-16', 'Close': 18053.6}, {'Date': '18-Apr-16', 'Close': 18004.16}, {'Date': '15-Apr-16', 'Close': 17897.46}, {'Date': '14-Apr-16', 'Close': 17926.43}, {'Date': '13-Apr-16', 'Close': 17908.28}, {'Date': '12-Apr-16', 'Close': 17721.25}, {'Date': '11-Apr-16', 'Close': 17556.41}, {'Date': '8-Apr-16', 'Close': 17576.96}, {'Date': '7-Apr-16', 'Close': 17541.96}, {'Date': '6-Apr-16', 'Close': 17716.05}, {'Date': '5-Apr-16', 'Close': 17603.32}, {'Date': '4-Apr-16', 'Close': 17737.0}, {'Date': '1-Apr-16', 'Close': 17792.75}, {'Date': '31-Mar-16', 'Close': 17685.09}, {'Date': '30-Mar-16', 'Close': 17716.66}, {'Date': '29-Mar-16', 'Close': 17633.11}, {'Date': '28-Mar-16', 'Close': 17535.39}, {'Date': '24-Mar-16', 'Close': 17515.73}, {'Date': '23-Mar-16', 'Close': 17502.59}, {'Date': '22-Mar-16', 'Close': 17582.57}, {'Date': '21-Mar-16', 'Close': 17623.87}, {'Date': '18-Mar-16', 'Close': 17602.3}, {'Date': '17-Mar-16', 'Close': 17481.49}, {'Date': '16-Mar-16', 'Close': 17325.76}, {'Date': '15-Mar-16', 'Close': 17251.53}, {'Date': '14-Mar-16', 'Close': 17229.13}, {'Date': '11-Mar-16', 'Close': 17213.31}, {'Date': '10-Mar-16', 'Close': 16995.13}, {'Date': '9-Mar-16', 'Close': 17000.36}, {'Date': '8-Mar-16', 'Close': 16964.1}, {'Date': '7-Mar-16', 'Close': 17073.95}, {'Date': '4-Mar-16', 'Close': 17006.77}, {'Date': '3-Mar-16', 'Close': 16943.9}, {'Date': '2-Mar-16', 'Close': 16899.32}, {'Date': '1-Mar-16', 'Close': 16865.08}, {'Date': '29-Feb-16', 'Close': 16516.5}, {'Date': '26-Feb-16', 'Close': 16639.97}, {'Date': '25-Feb-16', 'Close': 16697.29}, {'Date': '24-Feb-16', 'Close': 16484.99}, {'Date': '23-Feb-16', 'Close': 16431.78}, {'Date': '22-Feb-16', 'Close': 16620.66}, {'Date': '19-Feb-16', 'Close': 16391.99}, {'Date': '18-Feb-16', 'Close': 16413.43}, {'Date': '17-Feb-16', 'Close': 16453.83}, {'Date': '16-Feb-16', 'Close': 16196.41}, {'Date': '12-Feb-16', 'Close': 15973.84}, {'Date': '11-Feb-16', 'Close': 15660.18}, {'Date': '10-Feb-16', 'Close': 15914.74}, {'Date': '9-Feb-16', 'Close': 16014.38}, {'Date': '8-Feb-16', 'Close': 16027.05}, {'Date': '5-Feb-16', 'Close': 16204.97}, {'Date': '4-Feb-16', 'Close': 16416.58}, {'Date': '3-Feb-16', 'Close': 16336.66}, {'Date': '2-Feb-16', 'Close': 16153.54}, {'Date': '1-Feb-16', 'Close': 16449.18}, {'Date': '29-Jan-16', 'Close': 16466.3}, {'Date': '28-Jan-16', 'Close': 16069.64}, {'Date': '27-Jan-16', 'Close': 15944.46}, {'Date': '26-Jan-16', 'Close': 16167.23}, {'Date': '25-Jan-16', 'Close': 15885.22}, {'Date': '22-Jan-16', 'Close': 16093.51}, {'Date': '21-Jan-16', 'Close': 15882.68}, {'Date': '20-Jan-16', 'Close': 15766.74}, {'Date': '19-Jan-16', 'Close': 16016.02}, {'Date': '15-Jan-16', 'Close': 15988.08}, {'Date': '14-Jan-16', 'Close': 16379.05}, {'Date': '13-Jan-16', 'Close': 16151.41}, {'Date': '12-Jan-16', 'Close': 16516.22}, {'Date': '11-Jan-16', 'Close': 16398.57}, {'Date': '8-Jan-16', 'Close': 16346.45}, {'Date': '7-Jan-16', 'Close': 16514.1}, {'Date': '6-Jan-16', 'Close': 16906.51}, {'Date': '5-Jan-16', 'Close': 17158.66}, {'Date': '4-Jan-16', 'Close': 17148.94}, {'Date': '31-Dec-15', 'Close': 17425.03}, {'Date': '30-Dec-15', 'Close': 17603.87}, {'Date': '29-Dec-15', 'Close': 17720.98}, {'Date': '28-Dec-15', 'Close': 17528.27}, {'Date': '24-Dec-15', 'Close': 17552.17}, {'Date': '23-Dec-15', 'Close': 17602.61}, {'Date': '22-Dec-15', 'Close': 17417.27}, {'Date': '21-Dec-15', 'Close': 17251.62}, {'Date': '18-Dec-15', 'Close': 17128.55}, {'Date': '17-Dec-15', 'Close': 17495.84}, {'Date': '16-Dec-15', 'Close': 17749.09}, {'Date': '15-Dec-15', 'Close': 17524.91}, {'Date': '14-Dec-15', 'Close': 17368.5}, {'Date': '11-Dec-15', 'Close': 17265.21}, {'Date': '10-Dec-15', 'Close': 17574.75}, {'Date': '9-Dec-15', 'Close': 17492.3}, {'Date': '8-Dec-15', 'Close': 17568.0}, {'Date': '7-Dec-15', 'Close': 17730.51}, {'Date': '4-Dec-15', 'Close': 17847.63}, {'Date': '3-Dec-15', 'Close': 17477.67}, {'Date': '2-Dec-15', 'Close': 17729.68}, {'Date': '1-Dec-15', 'Close': 17888.35}, {'Date': '30-Nov-15', 'Close': 17719.92}, {'Date': '27-Nov-15', 'Close': 17813.39}, {'Date': '25-Nov-15', 'Close': 17813.39}, {'Date': '24-Nov-15', 'Close': 17812.19}, {'Date': '23-Nov-15', 'Close': 17792.68}, {'Date': '20-Nov-15', 'Close': 17823.81}, {'Date': '19-Nov-15', 'Close': 17732.75}, {'Date': '18-Nov-15', 'Close': 17737.16}, {'Date': '17-Nov-15', 'Close': 17489.5}, {'Date': '16-Nov-15', 'Close': 17483.01}, {'Date': '13-Nov-15', 'Close': 17245.24}, {'Date': '12-Nov-15', 'Close': 17448.07}, {'Date': '11-Nov-15', 'Close': 17702.22}, {'Date': '10-Nov-15', 'Close': 17758.21}, {'Date': '9-Nov-15', 'Close': 17730.48}, {'Date': '6-Nov-15', 'Close': 17910.33}, {'Date': '5-Nov-15', 'Close': 17863.43}, {'Date': '4-Nov-15', 'Close': 17867.58}, {'Date': '3-Nov-15', 'Close': 17918.15}, {'Date': '2-Nov-15', 'Close': 17828.76}, {'Date': '30-Oct-15', 'Close': 17663.54}, {'Date': '29-Oct-15', 'Close': 17755.8}, {'Date': '28-Oct-15', 'Close': 17779.52}, {'Date': '27-Oct-15', 'Close': 17581.43}, {'Date': '26-Oct-15', 'Close': 17623.05}, {'Date': '23-Oct-15', 'Close': 17646.7}, {'Date': '22-Oct-15', 'Close': 17489.16}, {'Date': '21-Oct-15', 'Close': 17168.61}, {'Date': '20-Oct-15', 'Close': 17217.11}, {'Date': '19-Oct-15', 'Close': 17230.54}, {'Date': '16-Oct-15', 'Close': 17215.97}, {'Date': '15-Oct-15', 'Close': 17141.75}, {'Date': '14-Oct-15', 'Close': 16924.75}, {'Date': '13-Oct-15', 'Close': 17081.89}, {'Date': '12-Oct-15', 'Close': 17131.86}]</t>
-  </si>
-  <si>
-    <t>[{'Date': '25-Jan-18', 'Close': '26,392.79'}, {'Date': '24-Jan-18', 'Close': '26,252.12'}, {'Date': '23-Jan-18', 'Close': '26,210.81'}, {'Date': '22-Jan-18', 'Close': '26,214.60'}, {'Date': '19-Jan-18', 'Close': '26,071.72'}, {'Date': '18-Jan-18', 'Close': '26,017.81'}, {'Date': '17-Jan-18', 'Close': '26,115.65'}, {'Date': '16-Jan-18', 'Close': '25,792.86'}, {'Date': '12-Jan-18', 'Close': '25,803.19'}, {'Date': '11-Jan-18', 'Close': '25,574.73'}, {'Date': '10-Jan-18', 'Close': '25,369.13'}, {'Date': '9-Jan-18', 'Close': '25,385.80'}, {'Date': '8-Jan-18', 'Close': '25,283.00'}, {'Date': '5-Jan-18', 'Close': '25,295.87'}, {'Date': '4-Jan-18', 'Close': '25,075.13'}, {'Date': '3-Jan-18', 'Close': '24,922.68'}, {'Date': '2-Jan-18', 'Close': '24,824.01'}, {'Date': '29-Dec-17', 'Close': '24,719.22'}, {'Date': '28-Dec-17', 'Close': '24,837.51'}, {'Date': '27-Dec-17', 'Close': '24,774.30'}, {'Date': '26-Dec-17', 'Close': '24,746.21'}, {'Date': '22-Dec-17', 'Close': '24,754.06'}, {'Date': '21-Dec-17', 'Close': '24,782.29'}, {'Date': '20-Dec-17', 'Close': '24,726.65'}, {'Date': '19-Dec-17', 'Close': '24,754.75'}, {'Date': '18-Dec-17', 'Close': '24,792.20'}, {'Date': '15-Dec-17', 'Close': '24,651.74'}, {'Date': '14-Dec-17', 'Close': '24,508.66'}, {'Date': '13-Dec-17', 'Close': '24,585.43'}, {'Date': '12-Dec-17', 'Close': '24,504.80'}, {'Date': '11-Dec-17', 'Close': '24,386.03'}, {'Date': '8-Dec-17', 'Close': '24,329.16'}, {'Date': '7-Dec-17', 'Close': '24,211.48'}, {'Date': '6-Dec-17', 'Close': '24,140.91'}, {'Date': '5-Dec-17', 'Close': '24,180.64'}, {'Date': '4-Dec-17', 'Close': '24,290.05'}, {'Date': '1-Dec-17', 'Close': '24,231.59'}, {'Date': '30-Nov-17', 'Close': '24,272.35'}, {'Date': '29-Nov-17', 'Close': '23,940.68'}, {'Date': '28-Nov-17', 'Close': '23,836.71'}, {'Date': '27-Nov-17', 'Close': '23,580.78'}, {'Date': '24-Nov-17', 'Close': '23,557.99'}, {'Date': '22-Nov-17', 'Close': '23,526.18'}, {'Date': '21-Nov-17', 'Close': '23,590.83'}, {'Date': '20-Nov-17', 'Close': '23,430.33'}, {'Date': '17-Nov-17', 'Close': '23,358.24'}, {'Date': '16-Nov-17', 'Close': '23,458.36'}, {'Date': '15-Nov-17', 'Close': '23,271.28'}, {'Date': '14-Nov-17', 'Close': '23,409.47'}, {'Date': '13-Nov-17', 'Close': '23,439.70'}, {'Date': '10-Nov-17', 'Close': '23,422.21'}, {'Date': '9-Nov-17', 'Close': '23,461.94'}, {'Date': '8-Nov-17', 'Close': '23,563.36'}, {'Date': '7-Nov-17', 'Close': '23,557.23'}, {'Date': '6-Nov-17', 'Close': '23,548.42'}, {'Date': '3-Nov-17', 'Close': '23,539.19'}, {'Date': '2-Nov-17', 'Close': '23,516.26'}, {'Date': '1-Nov-17', 'Close': '23,435.01'}, {'Date': '31-Oct-17', 'Close': '23,377.24'}, {'Date': '30-Oct-17', 'Close': '23,348.74'}, {'Date': '27-Oct-17', 'Close': '23,434.19'}, {'Date': '26-Oct-17', 'Close': '23,400.86'}, {'Date': '25-Oct-17', 'Close': '23,329.46'}, {'Date': '24-Oct-17', 'Close': '23,441.76'}, {'Date': '23-Oct-17', 'Close': '23,273.96'}, {'Date': '20-Oct-17', 'Close': '23,328.63'}, {'Date': '19-Oct-17', 'Close': '23,163.04'}, {'Date': '18-Oct-17', 'Close': '23,157.60'}, {'Date': '17-Oct-17', 'Close': '22,997.44'}, {'Date': '16-Oct-17', 'Close': '22,956.96'}, {'Date': '13-Oct-17', 'Close': '22,871.72'}, {'Date': '12-Oct-17', 'Close': '22,841.01'}, {'Date': '11-Oct-17', 'Close': '22,872.89'}, {'Date': '10-Oct-17', 'Close': '22,830.68'}, {'Date': '9-Oct-17', 'Close': '22,761.07'}, {'Date': '6-Oct-17', 'Close': '22,773.67'}, {'Date': '5-Oct-17', 'Close': '22,775.39'}, {'Date': '4-Oct-17', 'Close': '22,661.64'}, {'Date': '3-Oct-17', 'Close': '22,641.67'}, {'Date': '2-Oct-17', 'Close': '22,557.60'}, {'Date': '29-Sep-17', 'Close': '22,405.09'}, {'Date': '28-Sep-17', 'Close': '22,381.20'}, {'Date': '27-Sep-17', 'Close': '22,340.71'}, {'Date': '26-Sep-17', 'Close': '22,284.32'}, {'Date': '25-Sep-17', 'Close': '22,296.09'}, {'Date': '22-Sep-17', 'Close': '22,349.59'}, {'Date': '21-Sep-17', 'Close': '22,359.23'}, {'Date': '20-Sep-17', 'Close': '22,412.59'}, {'Date': '19-Sep-17', 'Close': '22,370.80'}, {'Date': '18-Sep-17', 'Close': '22,331.35'}, {'Date': '15-Sep-17', 'Close': '22,268.34'}, {'Date': '14-Sep-17', 'Close': '22,203.48'}, {'Date': '13-Sep-17', 'Close': '22,158.18'}, {'Date': '12-Sep-17', 'Close': '22,118.86'}, {'Date': '11-Sep-17', 'Close': '22,057.37'}, {'Date': '8-Sep-17', 'Close': '21,797.79'}, {'Date': '7-Sep-17', 'Close': '21,784.78'}, {'Date': '6-Sep-17', 'Close': '21,807.64'}, {'Date': '5-Sep-17', 'Close': '21,753.31'}, {'Date': '1-Sep-17', 'Close': '21,987.56'}, {'Date': '31-Aug-17', 'Close': '21,948.10'}, {'Date': '30-Aug-17', 'Close': '21,892.43'}, {'Date': '29-Aug-17', 'Close': '21,865.37'}, {'Date': '28-Aug-17', 'Close': '21,808.40'}, {'Date': '25-Aug-17', 'Close': '21,813.67'}, {'Date': '24-Aug-17', 'Close': '21,783.40'}, {'Date': '23-Aug-17', 'Close': '21,812.09'}, {'Date': '22-Aug-17', 'Close': '21,899.89'}, {'Date': '21-Aug-17', 'Close': '21,703.75'}, {'Date': '18-Aug-17', 'Close': '21,674.51'}, {'Date': '17-Aug-17', 'Close': '21,750.73'}, {'Date': '16-Aug-17', 'Close': '22,024.87'}, {'Date': '15-Aug-17', 'Close': '21,998.99'}, {'Date': '14-Aug-17', 'Close': '21,993.71'}, {'Date': '11-Aug-17', 'Close': '21,858.32'}, {'Date': '10-Aug-17', 'Close': '21,844.01'}, {'Date': '9-Aug-17', 'Close': '22,048.70'}, {'Date': '8-Aug-17', 'Close': '22,085.34'}, {'Date': '7-Aug-17', 'Close': '22,118.42'}, {'Date': '4-Aug-17', 'Close': '22,092.81'}, {'Date': '3-Aug-17', 'Close': '22,026.10'}, {'Date': '2-Aug-17', 'Close': '22,016.24'}, {'Date': '1-Aug-17', 'Close': '21,963.92'}, {'Date': '31-Jul-17', 'Close': '21,891.12'}, {'Date': '28-Jul-17', 'Close': '21,830.31'}, {'Date': '27-Jul-17', 'Close': '21,796.55'}, {'Date': '26-Jul-17', 'Close': '21,711.01'}, {'Date': '25-Jul-17', 'Close': '21,613.43'}, {'Date': '24-Jul-17', 'Close': '21,513.17'}, {'Date': '21-Jul-17', 'Close': '21,580.07'}, {'Date': '20-Jul-17', 'Close': '21,611.78'}, {'Date': '19-Jul-17', 'Close': '21,640.75'}, {'Date': '18-Jul-17', 'Close': '21,574.73'}, {'Date': '17-Jul-17', 'Close': '21,629.72'}, {'Date': '14-Jul-17', 'Close': '21,637.74'}, {'Date': '13-Jul-17', 'Close': '21,553.09'}, {'Date': '12-Jul-17', 'Close': '21,532.14'}, {'Date': '11-Jul-17', 'Close': '21,409.07'}, {'Date': '10-Jul-17', 'Close': '21,408.52'}, {'Date': '7-Jul-17', 'Close': '21,414.34'}, {'Date': '6-Jul-17', 'Close': '21,320.04'}, {'Date': '5-Jul-17', 'Close': '21,478.17'}, {'Date': '3-Jul-17', 'Close': '21,479.27'}, {'Date': '30-Jun-17', 'Close': '21,349.63'}, {'Date': '29-Jun-17', 'Close': '21,287.03'}, {'Date': '28-Jun-17', 'Close': '21,454.61'}, {'Date': '27-Jun-17', 'Close': '21,310.66'}, {'Date': '26-Jun-17', 'Close': '21,409.55'}, {'Date': '23-Jun-17', 'Close': '21,394.76'}, {'Date': '22-Jun-17', 'Close': '21,397.29'}, {'Date': '21-Jun-17', 'Close': '21,410.03'}, {'Date': '20-Jun-17', 'Close': '21,467.14'}, {'Date': '19-Jun-17', 'Close': '21,528.99'}, {'Date': '16-Jun-17', 'Close': '21,384.28'}, {'Date': '15-Jun-17', 'Close': '21,359.90'}, {'Date': '14-Jun-17', 'Close': '21,374.56'}, {'Date': '13-Jun-17', 'Close': '21,328.47'}, {'Date': '12-Jun-17', 'Close': '21,235.67'}, {'Date': '9-Jun-17', 'Close': '21,271.97'}, {'Date': '8-Jun-17', 'Close': '21,182.53'}, {'Date': '7-Jun-17', 'Close': '21,173.69'}, {'Date': '6-Jun-17', 'Close': '21,136.23'}, {'Date': '5-Jun-17', 'Close': '21,184.04'}, {'Date': '2-Jun-17', 'Close': '21,206.29'}, {'Date': '1-Jun-17', 'Close': '21,144.18'}, {'Date': '31-May-17', 'Close': '21,008.65'}, {'Date': '30-May-17', 'Close': '21,029.47'}, {'Date': '26-May-17', 'Close': '21,080.28'}, {'Date': '25-May-17', 'Close': '21,082.95'}, {'Date': '24-May-17', 'Close': '21,012.42'}, {'Date': '23-May-17', 'Close': '20,937.91'}, {'Date': '22-May-17', 'Close': '20,894.83'}, {'Date': '19-May-17', 'Close': '20,804.84'}, {'Date': '18-May-17', 'Close': '20,663.02'}, {'Date': '17-May-17', 'Close': '20,606.93'}, {'Date': '16-May-17', 'Close': '20,979.75'}, {'Date': '15-May-17', 'Close': '20,981.94'}, {'Date': '12-May-17', 'Close': '20,896.61'}, {'Date': '11-May-17', 'Close': '20,919.42'}, {'Date': '10-May-17', 'Close': '20,943.11'}, {'Date': '9-May-17', 'Close': '20,975.78'}, {'Date': '8-May-17', 'Close': '21,012.28'}, {'Date': '5-May-17', 'Close': '21,006.94'}, {'Date': '4-May-17', 'Close': '20,951.47'}, {'Date': '3-May-17', 'Close': '20,957.90'}, {'Date': '2-May-17', 'Close': '20,949.89'}, {'Date': '1-May-17', 'Close': '20,913.46'}, {'Date': '28-Apr-17', 'Close': '20,940.51'}, {'Date': '27-Apr-17', 'Close': '20,981.33'}, {'Date': '26-Apr-17', 'Close': '20,975.09'}, {'Date': '25-Apr-17', 'Close': '20,996.12'}, {'Date': '24-Apr-17', 'Close': '20,763.89'}, {'Date': '21-Apr-17', 'Close': '20,547.76'}, {'Date': '20-Apr-17', 'Close': '20,578.71'}, {'Date': '19-Apr-17', 'Close': '20,404.49'}, {'Date': '18-Apr-17', 'Close': '20,523.28'}, {'Date': '17-Apr-17', 'Close': '20,636.92'}, {'Date': '13-Apr-17', 'Close': '20,453.25'}, {'Date': '12-Apr-17', 'Close': '20,591.86'}, {'Date': '11-Apr-17', 'Close': '20,651.30'}, {'Date': '10-Apr-17', 'Close': '20,658.02'}, {'Date': '7-Apr-17', 'Close': '20,656.10'}, {'Date': '6-Apr-17', 'Close': '20,662.95'}, {'Date': '5-Apr-17', 'Close': '20,648.15'}, {'Date': '4-Apr-17', 'Close': '20,689.24'}, {'Date': '3-Apr-17', 'Close': '20,650.21'}, {'Date': '31-Mar-17', 'Close': '20,663.22'}, {'Date': '30-Mar-17', 'Close': '20,728.49'}, {'Date': '29-Mar-17', 'Close': '20,659.32'}, {'Date': '28-Mar-17', 'Close': '20,701.50'}, {'Date': '27-Mar-17', 'Close': '20,550.98'}, {'Date': '24-Mar-17', 'Close': '20,596.72'}, {'Date': '23-Mar-17', 'Close': '20,656.58'}, {'Date': '22-Mar-17', 'Close': '20,661.30'}, {'Date': '21-Mar-17', 'Close': '20,668.01'}, {'Date': '20-Mar-17', 'Close': '20,905.86'}, {'Date': '17-Mar-17', 'Close': '20,914.62'}, {'Date': '16-Mar-17', 'Close': '20,934.55'}, {'Date': '15-Mar-17', 'Close': '20,950.10'}, {'Date': '14-Mar-17', 'Close': '20,837.37'}, {'Date': '13-Mar-17', 'Close': '20,881.48'}, {'Date': '10-Mar-17', 'Close': '20,902.98'}, {'Date': '9-Mar-17', 'Close': '20,858.19'}, {'Date': '8-Mar-17', 'Close': '20,855.73'}, {'Date': '7-Mar-17', 'Close': '20,924.76'}, {'Date': '6-Mar-17', 'Close': '20,954.34'}, {'Date': '3-Mar-17', 'Close': '21,005.71'}, {'Date': '2-Mar-17', 'Close': '21,002.97'}, {'Date': '1-Mar-17', 'Close': '21,115.55'}, {'Date': '28-Feb-17', 'Close': '20,812.24'}, {'Date': '27-Feb-17', 'Close': '20,837.44'}, {'Date': '24-Feb-17', 'Close': '20,821.76'}, {'Date': '23-Feb-17', 'Close': '20,810.32'}, {'Date': '22-Feb-17', 'Close': '20,775.60'}, {'Date': '21-Feb-17', 'Close': '20,743.00'}, {'Date': '17-Feb-17', 'Close': '20,624.05'}, {'Date': '16-Feb-17', 'Close': '20,619.77'}, {'Date': '15-Feb-17', 'Close': '20,611.86'}, {'Date': '14-Feb-17', 'Close': '20,504.41'}, {'Date': '13-Feb-17', 'Close': '20,412.16'}, {'Date': '10-Feb-17', 'Close': '20,269.37'}, {'Date': '9-Feb-17', 'Close': '20,172.40'}, {'Date': '8-Feb-17', 'Close': '20,054.34'}, {'Date': '7-Feb-17', 'Close': '20,090.29'}, {'Date': '6-Feb-17', 'Close': '20,052.42'}, {'Date': '3-Feb-17', 'Close': '20,071.46'}, {'Date': '2-Feb-17', 'Close': '19,884.91'}, {'Date': '1-Feb-17', 'Close': '19,890.94'}, {'Date': '31-Jan-17', 'Close': '19,864.09'}, {'Date': '30-Jan-17', 'Close': '19,971.13'}, {'Date': '27-Jan-17', 'Close': '20,093.78'}]</t>
-  </si>
-  <si>
-    <t>[{'Date': '7-May-20', 'Close': '23,875.89'}, {'Date': '6-May-20', 'Close': '23,664.64'}, {'Date': '5-May-20', 'Close': '23,883.09'}, {'Date': '4-May-20', 'Close': '23,749.76'}, {'Date': '1-May-20', 'Close': '23,723.69'}, {'Date': '30-Apr-20', 'Close': '24,345.72'}, {'Date': '29-Apr-20', 'Close': '24,633.86'}, {'Date': '28-Apr-20', 'Close': '24,101.55'}, {'Date': '27-Apr-20', 'Close': '24,133.78'}, {'Date': '24-Apr-20', 'Close': '23,775.27'}, {'Date': '23-Apr-20', 'Close': '23,515.26'}, {'Date': '22-Apr-20', 'Close': '23,475.82'}, {'Date': '21-Apr-20', 'Close': '23,018.88'}, {'Date': '20-Apr-20', 'Close': '23,650.44'}, {'Date': '17-Apr-20', 'Close': '24,242.49'}, {'Date': '16-Apr-20', 'Close': '23,537.68'}, {'Date': '15-Apr-20', 'Close': '23,504.35'}, {'Date': '14-Apr-20', 'Close': '23,949.76'}, {'Date': '13-Apr-20', 'Close': '23,390.77'}, {'Date': '9-Apr-20', 'Close': '23,719.37'}, {'Date': '8-Apr-20', 'Close': '23,433.57'}, {'Date': '7-Apr-20', 'Close': '22,653.86'}, {'Date': '6-Apr-20', 'Close': '22,679.99'}, {'Date': '3-Apr-20', 'Close': '21,052.53'}, {'Date': '2-Apr-20', 'Close': '21,413.44'}, {'Date': '1-Apr-20', 'Close': '20,943.51'}, {'Date': '31-Mar-20', 'Close': '21,917.16'}, {'Date': '30-Mar-20', 'Close': '22,327.48'}, {'Date': '27-Mar-20', 'Close': '21,636.78'}, {'Date': '26-Mar-20', 'Close': '22,552.17'}, {'Date': '25-Mar-20', 'Close': '21,200.55'}, {'Date': '24-Mar-20', 'Close': '20,704.91'}, {'Date': '23-Mar-20', 'Close': '18,591.93'}, {'Date': '20-Mar-20', 'Close': '19,173.98'}, {'Date': '19-Mar-20', 'Close': '20,087.19'}, {'Date': '18-Mar-20', 'Close': '19,898.92'}, {'Date': '17-Mar-20', 'Close': '21,237.38'}, {'Date': '16-Mar-20', 'Close': '20,188.52'}, {'Date': '13-Mar-20', 'Close': '23,185.62'}, {'Date': '12-Mar-20', 'Close': '21,200.62'}, {'Date': '11-Mar-20', 'Close': '23,553.22'}, {'Date': '10-Mar-20', 'Close': '25,018.16'}, {'Date': '9-Mar-20', 'Close': '23,851.02'}, {'Date': '6-Mar-20', 'Close': '25,864.78'}, {'Date': '5-Mar-20', 'Close': '26,121.28'}, {'Date': '4-Mar-20', 'Close': '27,090.86'}, {'Date': '3-Mar-20', 'Close': '25,917.41'}, {'Date': '2-Mar-20', 'Close': '26,703.32'}, {'Date': '28-Feb-20', 'Close': '25,409.36'}, {'Date': '27-Feb-20', 'Close': '25,766.64'}, {'Date': '26-Feb-20', 'Close': '26,957.59'}, {'Date': '25-Feb-20', 'Close': '27,081.36'}, {'Date': '24-Feb-20', 'Close': '27,960.80'}, {'Date': '21-Feb-20', 'Close': '28,992.41'}, {'Date': '20-Feb-20', 'Close': '29,219.98'}, {'Date': '19-Feb-20', 'Close': '29,348.03'}, {'Date': '18-Feb-20', 'Close': '29,232.19'}, {'Date': '14-Feb-20', 'Close': '29,398.08'}, {'Date': '13-Feb-20', 'Close': '29,423.31'}, {'Date': '12-Feb-20', 'Close': '29,551.42'}, {'Date': '11-Feb-20', 'Close': '29,276.34'}, {'Date': '10-Feb-20', 'Close': '29,276.82'}, {'Date': '7-Feb-20', 'Close': '29,102.51'}, {'Date': '6-Feb-20', 'Close': '29,379.77'}, {'Date': '5-Feb-20', 'Close': '29,290.85'}, {'Date': '4-Feb-20', 'Close': '28,807.63'}, {'Date': '3-Feb-20', 'Close': '28,399.81'}, {'Date': '31-Jan-20', 'Close': '28,256.03'}, {'Date': '30-Jan-20', 'Close': '28,859.44'}, {'Date': '29-Jan-20', 'Close': '28,734.45'}, {'Date': '28-Jan-20', 'Close': '28,722.85'}, {'Date': '27-Jan-20', 'Close': '28,535.80'}, {'Date': '24-Jan-20', 'Close': '28,989.73'}, {'Date': '23-Jan-20', 'Close': '29,160.09'}, {'Date': '22-Jan-20', 'Close': '29,186.27'}, {'Date': '21-Jan-20', 'Close': '29,196.04'}, {'Date': '17-Jan-20', 'Close': '29,348.10'}, {'Date': '16-Jan-20', 'Close': '29,297.64'}, {'Date': '15-Jan-20', 'Close': '29,030.22'}, {'Date': '14-Jan-20', 'Close': '28,939.67'}, {'Date': '13-Jan-20', 'Close': '28,907.05'}, {'Date': '10-Jan-20', 'Close': '28,823.77'}, {'Date': '9-Jan-20', 'Close': '28,956.90'}]</t>
-  </si>
-  <si>
     <t>[{'Date': '2018/4/27', 'Close': 78.630997}, {'Date': '2018/4/30', 'Close': 78.306503}, {'Date': '2018/5/1', 'Close': 79.112999}, {'Date': '2018/5/2', 'Close': 78.484001}, {'Date': '2018/5/3', 'Close': 78.603996}, {'Date': '2018/5/4', 'Close': 79.047501}, {'Date': '2018/5/7', 'Close': 80.007004}, {'Date': '2018/5/8', 'Close': 79.619499}, {'Date': '2018/5/9', 'Close': 80.400002}, {'Date': '2018/5/10', 'Close': 80.454002}, {'Date': '2018/5/11', 'Close': 80.1455}, {'Date': '2018/5/14', 'Close': 80.077003}, {'Date': '2018/5/15', 'Close': 78.806}, {'Date': '2018/5/16', 'Close': 79.363998}, {'Date': '2018/5/17', 'Close': 79.087997}, {'Date': '2018/5/18', 'Close': 78.718498}, {'Date': '2018/5/21', 'Close': 79.273003}, {'Date': '2018/5/22', 'Close': 79.07}, {'Date': '2018/5/23', 'Close': 80.093002}, {'Date': '2018/5/24', 'Close': 80.153503}, {'Date': '2018/5/25', 'Close': 80.5075}, {'Date': '2018/5/29', 'Close': 80.643501}, {'Date': '2018/5/30', 'Close': 81.244499}, {'Date': '2018/5/31', 'Close': 81.481003}, {'Date': '2018/6/1', 'Close': 82.077003}, {'Date': '2018/6/4', 'Close': 83.263496}, {'Date': '2018/6/5', 'Close': 84.817497}, {'Date': '2018/6/6', 'Close': 84.787498}, {'Date': '2018/6/7', 'Close': 84.464996}, {'Date': '2018/6/8', 'Close': 84.199501}, {'Date': '2018/6/11', 'Close': 84.456001}, {'Date': '2018/6/12', 'Close': 84.9375}, {'Date': '2018/6/13', 'Close': 85.242996}, {'Date': '2018/6/14', 'Close': 86.193001}, {'Date': '2018/6/15', 'Close': 85.7985}, {'Date': '2018/6/18', 'Close': 86.189499}, {'Date': '2018/6/19', 'Close': 86.738998}, {'Date': '2018/6/20', 'Close': 87.503998}, {'Date': '2018/6/21', 'Close': 86.511002}, {'Date': '2018/6/22', 'Close': 85.783501}, {'Date': '2018/6/25', 'Close': 83.157501}, {'Date': '2018/6/26', 'Close': 84.554497}, {'Date': '2018/6/27', 'Close': 83.025497}, {'Date': '2018/6/28', 'Close': 85.072502}, {'Date': '2018/6/29', 'Close': 84.989998}, {'Date': '2018/7/2', 'Close': 85.689003}, {'Date': '2018/7/3', 'Close': 84.697998}, {'Date': '2018/7/5', 'Close': 84.986504}, {'Date': '2018/7/6', 'Close': 85.531502}, {'Date': '2018/7/9', 'Close': 86.950996}, {'Date': '2018/7/10', 'Close': 87.153503}, {'Date': '2018/7/11', 'Close': 87.75}, {'Date': '2018/7/12', 'Close': 89.831001}, {'Date': '2018/7/13', 'Close': 90.651497}, {'Date': '2018/7/16', 'Close': 91.124496}, {'Date': '2018/7/17', 'Close': 92.196503}, {'Date': '2018/7/18', 'Close': 92.146004}, {'Date': '2018/7/19', 'Close': 90.648499}, {'Date': '2018/7/20', 'Close': 90.684998}, {'Date': '2018/7/23', 'Close': 90.099998}, {'Date': '2018/7/24', 'Close': 91.461998}, {'Date': '2018/7/25', 'Close': 93.180496}, {'Date': '2018/7/26', 'Close': 90.400002}, {'Date': '2018/7/27', 'Close': 90.863503}, {'Date': '2018/7/30', 'Close': 88.960999}, {'Date': '2018/7/31', 'Close': 88.872002}, {'Date': '2018/8/1', 'Close': 89.858498}, {'Date': '2018/8/2', 'Close': 91.716499}, {'Date': '2018/8/3', 'Close': 91.164497}, {'Date': '2018/8/6', 'Close': 92.387497}, {'Date': '2018/8/7', 'Close': 93.124001}, {'Date': '2018/8/8', 'Close': 94.325996}, {'Date': '2018/8/9', 'Close': 94.926003}, {'Date': '2018/8/10', 'Close': 94.315002}, {'Date': '2018/8/13', 'Close': 94.809998}, {'Date': '2018/8/14', 'Close': 95.982498}, {'Date': '2018/8/15', 'Close': 94.130997}, {'Date': '2018/8/16', 'Close': 94.325996}, {'Date': '2018/8/17', 'Close': 94.111}, {'Date': '2018/8/20', 'Close': 93.835503}, {'Date': '2018/8/21', 'Close': 94.170998}, {'Date': '2018/8/22', 'Close': 95.245003}, {'Date': '2018/8/23', 'Close': 95.144997}, {'Date': '2018/8/24', 'Close': 95.269501}, {'Date': '2018/8/27', 'Close': 96.384003}, {'Date': '2018/8/28', 'Close': 96.640999}, {'Date': '2018/8/29', 'Close': 99.904999}, {'Date': '2018/8/30', 'Close': 100.119003}, {'Date': '2018/8/31', 'Close': 100.635498}, {'Date': '2018/9/4', 'Close': 101.975502}, {'Date': '2018/9/5', 'Close': 101.740997}, {'Date': '2018/9/6', 'Close': 99.915497}, {'Date': '2018/9/7', 'Close': 98.6035}, {'Date': '2018/9/10', 'Close': 97.9505}, {'Date': '2018/9/11', 'Close': 97.357498}, {'Date': '2018/9/12', 'Close': 96.93}, {'Date': '2018/9/13', 'Close': 96.7935}, {'Date': '2018/9/14', 'Close': 96.809499}, {'Date': '2018/9/17', 'Close': 96.901497}, {'Date': '2018/9/18', 'Close': 97.052498}, {'Date': '2018/9/19', 'Close': 96.320999}, {'Date': '2018/9/20', 'Close': 97.214996}, {'Date': '2018/9/21', 'Close': 95.750504}, {'Date': '2018/9/24', 'Close': 96.718002}, {'Date': '2018/9/25', 'Close': 98.727501}, {'Date': '2018/9/26', 'Close': 98.7425}, {'Date': '2018/9/27', 'Close': 100.649002}, {'Date': '2018/9/28', 'Close': 100.150002}, {'Date': '2018/10/1', 'Close': 100.218002}, {'Date': '2018/10/2', 'Close': 98.565498}, {'Date': '2018/10/3', 'Close': 97.638}, {'Date': '2018/10/4', 'Close': 95.471001}, {'Date': '2018/10/5', 'Close': 94.482498}, {'Date': '2018/10/8', 'Close': 93.221001}, {'Date': '2018/10/9', 'Close': 93.515999}, {'Date': '2018/10/10', 'Close': 87.762497}, {'Date': '2018/10/11', 'Close': 85.968002}, {'Date': '2018/10/12', 'Close': 89.430496}, {'Date': '2018/10/15', 'Close': 88.047501}, {'Date': '2018/10/16', 'Close': 90.998001}, {'Date': '2018/10/17', 'Close': 91.586502}, {'Date': '2018/10/18', 'Close': 88.536003}, {'Date': '2018/10/19', 'Close': 88.2015}, {'Date': '2018/10/22', 'Close': 89.464996}, {'Date': '2018/10/23', 'Close': 88.434998}, {'Date': '2018/10/24', 'Close': 83.209999}, {'Date': '2018/10/25', 'Close': 89.108498}, {'Date': '2018/10/26', 'Close': 82.140503}, {'Date': '2018/10/29', 'Close': 76.944}, {'Date': '2018/10/30', 'Close': 76.521004}, {'Date': '2018/10/31', 'Close': 79.900497}, {'Date': '2018/11/1', 'Close': 83.276497}, {'Date': '2018/11/2', 'Close': 83.276497}, {'Date': '2018/11/5', 'Close': 81.389999}, {'Date': '2018/11/6', 'Close': 82.140503}, {'Date': '2018/11/7', 'Close': 87.774498}, {'Date': '2018/11/8', 'Close': 87.745499}, {'Date': '2018/11/9', 'Close': 85.621498}, {'Date': '2018/11/12', 'Close': 81.842499}, {'Date': '2018/11/13', 'Close': 81.558502}, {'Date': '2018/11/14', 'Close': 79.9505}, {'Date': '2018/11/15', 'Close': 80.972}, {'Date': '2018/11/16', 'Close': 79.670502}, {'Date': '2018/11/19', 'Close': 75.614502}, {'Date': '2018/11/20', 'Close': 74.773003}]</t>
   </si>
   <si>
@@ -119,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>line chart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uptrend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,6 +175,46 @@
   </si>
   <si>
     <t>The "head and shoulder" pattern consists of three rises and falls from three localized highs. The high point in the center is higher than the other two. This pattern is around from '1999/09/27' to '2000/02/22' and the middle high point exist on '1999/12/09'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":"Close","BeginIndex":"54","EndIndex":"100","Trend":"double bottom","Number":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The "double bottom" pattern has two lows. The first low in the data is at 2016/01/20 , and the second low is at 2016/02/11.  This pattern is around from '2015/12/29' to '2016/03/07'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The "double bottom" pattern happens on the 'Dow Janes Industrial (.DJI) from 2015/12/29 to 2016/03/07.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>From 2017/05/17 to 2018/01/26, the 'Dow Janes Industrial (.DJI)' is on an uptrend, which drew a much attention form analysts.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Date': '12-Oct-15', 'Close': 17131.86}, {'Date': '13-Oct-15', 'Close': 17081.89}, {'Date': '14-Oct-15', 'Close': 16924.75}, {'Date': '15-Oct-15', 'Close': 17141.75}, {'Date': '16-Oct-15', 'Close': 17215.97}, {'Date': '19-Oct-15', 'Close': 17230.54}, {'Date': '20-Oct-15', 'Close': 17217.11}, {'Date': '21-Oct-15', 'Close': 17168.61}, {'Date': '22-Oct-15', 'Close': 17489.16}, {'Date': '23-Oct-15', 'Close': 17646.7}, {'Date': '26-Oct-15', 'Close': 17623.05}, {'Date': '27-Oct-15', 'Close': 17581.43}, {'Date': '28-Oct-15', 'Close': 17779.52}, {'Date': '29-Oct-15', 'Close': 17755.8}, {'Date': '30-Oct-15', 'Close': 17663.54}, {'Date': '2-Nov-15', 'Close': 17828.76}, {'Date': '3-Nov-15', 'Close': 17918.15}, {'Date': '4-Nov-15', 'Close': 17867.58}, {'Date': '5-Nov-15', 'Close': 17863.43}, {'Date': '6-Nov-15', 'Close': 17910.33}, {'Date': '9-Nov-15', 'Close': 17730.48}, {'Date': '10-Nov-15', 'Close': 17758.21}, {'Date': '11-Nov-15', 'Close': 17702.22}, {'Date': '12-Nov-15', 'Close': 17448.07}, {'Date': '13-Nov-15', 'Close': 17245.24}, {'Date': '16-Nov-15', 'Close': 17483.01}, {'Date': '17-Nov-15', 'Close': 17489.5}, {'Date': '18-Nov-15', 'Close': 17737.16}, {'Date': '19-Nov-15', 'Close': 17732.75}, {'Date': '20-Nov-15', 'Close': 17823.81}, {'Date': '23-Nov-15', 'Close': 17792.68}, {'Date': '24-Nov-15', 'Close': 17812.19}, {'Date': '25-Nov-15', 'Close': 17813.39}, {'Date': '27-Nov-15', 'Close': 17813.39}, {'Date': '30-Nov-15', 'Close': 17719.92}, {'Date': '1-Dec-15', 'Close': 17888.35}, {'Date': '2-Dec-15', 'Close': 17729.68}, {'Date': '3-Dec-15', 'Close': 17477.67}, {'Date': '4-Dec-15', 'Close': 17847.63}, {'Date': '7-Dec-15', 'Close': 17730.51}, {'Date': '8-Dec-15', 'Close': 17568.0}, {'Date': '9-Dec-15', 'Close': 17492.3}, {'Date': '10-Dec-15', 'Close': 17574.75}, {'Date': '11-Dec-15', 'Close': 17265.21}, {'Date': '14-Dec-15', 'Close': 17368.5}, {'Date': '15-Dec-15', 'Close': 17524.91}, {'Date': '16-Dec-15', 'Close': 17749.09}, {'Date': '17-Dec-15', 'Close': 17495.84}, {'Date': '18-Dec-15', 'Close': 17128.55}, {'Date': '21-Dec-15', 'Close': 17251.62}, {'Date': '22-Dec-15', 'Close': 17417.27}, {'Date': '23-Dec-15', 'Close': 17602.61}, {'Date': '24-Dec-15', 'Close': 17552.17}, {'Date': '28-Dec-15', 'Close': 17528.27}, {'Date': '29-Dec-15', 'Close': 17720.98}, {'Date': '30-Dec-15', 'Close': 17603.87}, {'Date': '31-Dec-15', 'Close': 17425.03}, {'Date': '4-Jan-16', 'Close': 17148.94}, {'Date': '5-Jan-16', 'Close': 17158.66}, {'Date': '6-Jan-16', 'Close': 16906.51}, {'Date': '7-Jan-16', 'Close': 16514.1}, {'Date': '8-Jan-16', 'Close': 16346.45}, {'Date': '11-Jan-16', 'Close': 16398.57}, {'Date': '12-Jan-16', 'Close': 16516.22}, {'Date': '13-Jan-16', 'Close': 16151.41}, {'Date': '14-Jan-16', 'Close': 16379.05}, {'Date': '15-Jan-16', 'Close': 15988.08}, {'Date': '19-Jan-16', 'Close': 16016.02}, {'Date': '20-Jan-16', 'Close': 15766.74}, {'Date': '21-Jan-16', 'Close': 15882.68}, {'Date': '22-Jan-16', 'Close': 16093.51}, {'Date': '25-Jan-16', 'Close': 15885.22}, {'Date': '26-Jan-16', 'Close': 16167.23}, {'Date': '27-Jan-16', 'Close': 15944.46}, {'Date': '28-Jan-16', 'Close': 16069.64}, {'Date': '29-Jan-16', 'Close': 16466.3}, {'Date': '1-Feb-16', 'Close': 16449.18}, {'Date': '2-Feb-16', 'Close': 16153.54}, {'Date': '3-Feb-16', 'Close': 16336.66}, {'Date': '4-Feb-16', 'Close': 16416.58}, {'Date': '5-Feb-16', 'Close': 16204.97}, {'Date': '8-Feb-16', 'Close': 16027.05}, {'Date': '9-Feb-16', 'Close': 16014.38}, {'Date': '10-Feb-16', 'Close': 15914.74}, {'Date': '11-Feb-16', 'Close': 15660.18}, {'Date': '12-Feb-16', 'Close': 15973.84}, {'Date': '16-Feb-16', 'Close': 16196.41}, {'Date': '17-Feb-16', 'Close': 16453.83}, {'Date': '18-Feb-16', 'Close': 16413.43}, {'Date': '19-Feb-16', 'Close': 16391.99}, {'Date': '22-Feb-16', 'Close': 16620.66}, {'Date': '23-Feb-16', 'Close': 16431.78}, {'Date': '24-Feb-16', 'Close': 16484.99}, {'Date': '25-Feb-16', 'Close': 16697.29}, {'Date': '26-Feb-16', 'Close': 16639.97}, {'Date': '29-Feb-16', 'Close': 16516.5}, {'Date': '1-Mar-16', 'Close': 16865.08}, {'Date': '2-Mar-16', 'Close': 16899.32}, {'Date': '3-Mar-16', 'Close': 16943.9}, {'Date': '4-Mar-16', 'Close': 17006.77}, {'Date': '7-Mar-16', 'Close': 17073.95}, {'Date': '8-Mar-16', 'Close': 16964.1}, {'Date': '9-Mar-16', 'Close': 17000.36}, {'Date': '10-Mar-16', 'Close': 16995.13}, {'Date': '11-Mar-16', 'Close': 17213.31}, {'Date': '14-Mar-16', 'Close': 17229.13}, {'Date': '15-Mar-16', 'Close': 17251.53}, {'Date': '16-Mar-16', 'Close': 17325.76}, {'Date': '17-Mar-16', 'Close': 17481.49}, {'Date': '18-Mar-16', 'Close': 17602.3}, {'Date': '21-Mar-16', 'Close': 17623.87}, {'Date': '22-Mar-16', 'Close': 17582.57}, {'Date': '23-Mar-16', 'Close': 17502.59}, {'Date': '24-Mar-16', 'Close': 17515.73}, {'Date': '28-Mar-16', 'Close': 17535.39}, {'Date': '29-Mar-16', 'Close': 17633.11}, {'Date': '30-Mar-16', 'Close': 17716.66}, {'Date': '31-Mar-16', 'Close': 17685.09}, {'Date': '1-Apr-16', 'Close': 17792.75}, {'Date': '4-Apr-16', 'Close': 17737.0}, {'Date': '5-Apr-16', 'Close': 17603.32}, {'Date': '6-Apr-16', 'Close': 17716.05}, {'Date': '7-Apr-16', 'Close': 17541.96}, {'Date': '8-Apr-16', 'Close': 17576.96}, {'Date': '11-Apr-16', 'Close': 17556.41}, {'Date': '12-Apr-16', 'Close': 17721.25}, {'Date': '13-Apr-16', 'Close': 17908.28}, {'Date': '14-Apr-16', 'Close': 17926.43}, {'Date': '15-Apr-16', 'Close': 17897.46}, {'Date': '18-Apr-16', 'Close': 18004.16}, {'Date': '19-Apr-16', 'Close': 18053.6}, {'Date': '20-Apr-16', 'Close': 18096.27}, {'Date': '21-Apr-16', 'Close': 17982.52}, {'Date': '22-Apr-16', 'Close': 18003.75}, {'Date': '25-Apr-16', 'Close': 17977.24}, {'Date': '26-Apr-16', 'Close': 17990.32}, {'Date': '27-Apr-16', 'Close': 18041.55}, {'Date': '28-Apr-16', 'Close': 17830.76}, {'Date': '29-Apr-16', 'Close': 17773.64}, {'Date': '2-May-16', 'Close': 17891.16}, {'Date': '3-May-16', 'Close': 17750.91}, {'Date': '4-May-16', 'Close': 17651.26}, {'Date': '5-May-16', 'Close': 17660.71}, {'Date': '6-May-16', 'Close': 17740.63}, {'Date': '9-May-16', 'Close': 17705.91}, {'Date': '10-May-16', 'Close': 17928.35}, {'Date': '11-May-16', 'Close': 17711.12}, {'Date': '12-May-16', 'Close': 17720.5}, {'Date': '13-May-16', 'Close': 17535.32}, {'Date': '16-May-16', 'Close': 17710.71}, {'Date': '17-May-16', 'Close': 17529.98}, {'Date': '18-May-16', 'Close': 17526.62}, {'Date': '19-May-16', 'Close': 17435.4}, {'Date': '20-May-16', 'Close': 17500.94}, {'Date': '23-May-16', 'Close': 17492.93}, {'Date': '24-May-16', 'Close': 17706.05}, {'Date': '25-May-16', 'Close': 17851.51}, {'Date': '26-May-16', 'Close': 17828.29}, {'Date': '27-May-16', 'Close': 17873.22}, {'Date': '31-May-16', 'Close': 17787.2}, {'Date': '1-Jun-16', 'Close': 17789.67}, {'Date': '2-Jun-16', 'Close': 17838.56}, {'Date': '3-Jun-16', 'Close': 17807.06}, {'Date': '6-Jun-16', 'Close': 17920.33}, {'Date': '7-Jun-16', 'Close': 17938.28}, {'Date': '8-Jun-16', 'Close': 18005.05}, {'Date': '9-Jun-16', 'Close': 17985.19}, {'Date': '10-Jun-16', 'Close': 17865.34}, {'Date': '13-Jun-16', 'Close': 17732.48}, {'Date': '14-Jun-16', 'Close': 17674.82}, {'Date': '15-Jun-16', 'Close': 17640.17}, {'Date': '16-Jun-16', 'Close': 17733.1}, {'Date': '17-Jun-16', 'Close': 17675.16}, {'Date': '20-Jun-16', 'Close': 17804.87}, {'Date': '21-Jun-16', 'Close': 17829.73}, {'Date': '22-Jun-16', 'Close': 17780.83}, {'Date': '23-Jun-16', 'Close': 18011.07}, {'Date': '24-Jun-16', 'Close': 17400.75}, {'Date': '27-Jun-16', 'Close': 17140.24}, {'Date': '28-Jun-16', 'Close': 17409.72}, {'Date': '29-Jun-16', 'Close': 17694.68}, {'Date': '30-Jun-16', 'Close': 17929.99}, {'Date': '1-Jul-16', 'Close': 17949.37}, {'Date': '5-Jul-16', 'Close': 17840.62}, {'Date': '6-Jul-16', 'Close': 17918.62}, {'Date': '7-Jul-16', 'Close': 17895.88}, {'Date': '8-Jul-16', 'Close': 18146.74}, {'Date': '11-Jul-16', 'Close': 18226.93}, {'Date': '12-Jul-16', 'Close': 18347.67}, {'Date': '13-Jul-16', 'Close': 18372.12}, {'Date': '14-Jul-16', 'Close': 18506.41}, {'Date': '15-Jul-16', 'Close': 18516.55}, {'Date': '18-Jul-16', 'Close': 18533.05}, {'Date': '19-Jul-16', 'Close': 18559.01}, {'Date': '20-Jul-16', 'Close': 18595.03}, {'Date': '21-Jul-16', 'Close': 18517.23}, {'Date': '22-Jul-16', 'Close': 18570.85}, {'Date': '25-Jul-16', 'Close': 18493.06}, {'Date': '26-Jul-16', 'Close': 18473.75}, {'Date': '27-Jul-16', 'Close': 18472.17}, {'Date': '28-Jul-16', 'Close': 18456.35}, {'Date': '29-Jul-16', 'Close': 18432.24}, {'Date': '1-Aug-16', 'Close': 18404.51}, {'Date': '2-Aug-16', 'Close': 18313.77}, {'Date': '3-Aug-16', 'Close': 18355.0}, {'Date': '4-Aug-16', 'Close': 18352.05}, {'Date': '5-Aug-16', 'Close': 18543.53}, {'Date': '8-Aug-16', 'Close': 18529.29}, {'Date': '9-Aug-16', 'Close': 18533.05}, {'Date': '10-Aug-16', 'Close': 18495.66}, {'Date': '11-Aug-16', 'Close': 18613.52}, {'Date': '12-Aug-16', 'Close': 18576.47}, {'Date': '15-Aug-16', 'Close': 18636.05}, {'Date': '16-Aug-16', 'Close': 18552.02}, {'Date': '17-Aug-16', 'Close': 18573.94}, {'Date': '18-Aug-16', 'Close': 18597.7}, {'Date': '19-Aug-16', 'Close': 18552.57}, {'Date': '22-Aug-16', 'Close': 18529.42}, {'Date': '23-Aug-16', 'Close': 18547.3}, {'Date': '24-Aug-16', 'Close': 18481.48}, {'Date': '25-Aug-16', 'Close': 18448.41}, {'Date': '26-Aug-16', 'Close': 18395.4}, {'Date': '29-Aug-16', 'Close': 18502.99}, {'Date': '30-Aug-16', 'Close': 18454.3}, {'Date': '31-Aug-16', 'Close': 18400.88}, {'Date': '1-Sep-16', 'Close': 18419.3}, {'Date': '2-Sep-16', 'Close': 18491.96}, {'Date': '6-Sep-16', 'Close': 18538.12}, {'Date': '7-Sep-16', 'Close': 18526.14}, {'Date': '8-Sep-16', 'Close': 18479.91}, {'Date': '9-Sep-16', 'Close': 18085.45}, {'Date': '12-Sep-16', 'Close': 18325.07}, {'Date': '13-Sep-16', 'Close': 18066.75}, {'Date': '14-Sep-16', 'Close': 18034.77}, {'Date': '15-Sep-16', 'Close': 18212.48}, {'Date': '16-Sep-16', 'Close': 18123.8}, {'Date': '19-Sep-16', 'Close': 18120.17}, {'Date': '20-Sep-16', 'Close': 18129.96}, {'Date': '21-Sep-16', 'Close': 18293.7}, {'Date': '22-Sep-16', 'Close': 18392.46}, {'Date': '23-Sep-16', 'Close': 18261.45}, {'Date': '26-Sep-16', 'Close': 18094.83}, {'Date': '27-Sep-16', 'Close': 18228.3}, {'Date': '28-Sep-16', 'Close': 18339.24}, {'Date': '29-Sep-16', 'Close': 18143.45}, {'Date': '30-Sep-16', 'Close': 18308.15}, {'Date': '3-Oct-16', 'Close': 18253.85}, {'Date': '4-Oct-16', 'Close': 18168.45}, {'Date': '5-Oct-16', 'Close': 18281.03}, {'Date': '6-Oct-16', 'Close': 18268.5}, {'Date': '7-Oct-16', 'Close': 18240.49}, {'Date': '10-Oct-16', 'Close': 18329.04}, {'Date': '11-Oct-16', 'Close': 18128.66}, {'Date': '12-Oct-16', 'Close': 18144.2}, {'Date': '13-Oct-16', 'Close': 18098.94}, {'Date': '14-Oct-16', 'Close': 18138.38}, {'Date': '17-Oct-16', 'Close': 18086.4}, {'Date': '18-Oct-16', 'Close': 18161.94}, {'Date': '19-Oct-16', 'Close': 18202.62}, {'Date': '20-Oct-16', 'Close': 18162.35}, {'Date': '21-Oct-16', 'Close': 18145.71}, {'Date': '24-Oct-16', 'Close': 18223.03}, {'Date': '25-Oct-16', 'Close': 18169.27}, {'Date': '26-Oct-16', 'Close': 18199.33}, {'Date': '27-Oct-16', 'Close': 18169.68}, {'Date': '28-Oct-16', 'Close': 18161.19}, {'Date': '31-Oct-16', 'Close': 18142.42}, {'Date': '1-Nov-16', 'Close': 18037.1}, {'Date': '2-Nov-16', 'Close': 17959.64}, {'Date': '3-Nov-16', 'Close': 17930.67}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Date': '27-Jan-17', 'Close': '20,093.78'}, {'Date': '30-Jan-17', 'Close': '19,971.13'}, {'Date': '31-Jan-17', 'Close': '19,864.09'}, {'Date': '1-Feb-17', 'Close': '19,890.94'}, {'Date': '2-Feb-17', 'Close': '19,884.91'}, {'Date': '3-Feb-17', 'Close': '20,071.46'}, {'Date': '6-Feb-17', 'Close': '20,052.42'}, {'Date': '7-Feb-17', 'Close': '20,090.29'}, {'Date': '8-Feb-17', 'Close': '20,054.34'}, {'Date': '9-Feb-17', 'Close': '20,172.40'}, {'Date': '10-Feb-17', 'Close': '20,269.37'}, {'Date': '13-Feb-17', 'Close': '20,412.16'}, {'Date': '14-Feb-17', 'Close': '20,504.41'}, {'Date': '15-Feb-17', 'Close': '20,611.86'}, {'Date': '16-Feb-17', 'Close': '20,619.77'}, {'Date': '17-Feb-17', 'Close': '20,624.05'}, {'Date': '21-Feb-17', 'Close': '20,743.00'}, {'Date': '22-Feb-17', 'Close': '20,775.60'}, {'Date': '23-Feb-17', 'Close': '20,810.32'}, {'Date': '24-Feb-17', 'Close': '20,821.76'}, {'Date': '27-Feb-17', 'Close': '20,837.44'}, {'Date': '28-Feb-17', 'Close': '20,812.24'}, {'Date': '1-Mar-17', 'Close': '21,115.55'}, {'Date': '2-Mar-17', 'Close': '21,002.97'}, {'Date': '3-Mar-17', 'Close': '21,005.71'}, {'Date': '6-Mar-17', 'Close': '20,954.34'}, {'Date': '7-Mar-17', 'Close': '20,924.76'}, {'Date': '8-Mar-17', 'Close': '20,855.73'}, {'Date': '9-Mar-17', 'Close': '20,858.19'}, {'Date': '10-Mar-17', 'Close': '20,902.98'}, {'Date': '13-Mar-17', 'Close': '20,881.48'}, {'Date': '14-Mar-17', 'Close': '20,837.37'}, {'Date': '15-Mar-17', 'Close': '20,950.10'}, {'Date': '16-Mar-17', 'Close': '20,934.55'}, {'Date': '17-Mar-17', 'Close': '20,914.62'}, {'Date': '20-Mar-17', 'Close': '20,905.86'}, {'Date': '21-Mar-17', 'Close': '20,668.01'}, {'Date': '22-Mar-17', 'Close': '20,661.30'}, {'Date': '23-Mar-17', 'Close': '20,656.58'}, {'Date': '24-Mar-17', 'Close': '20,596.72'}, {'Date': '27-Mar-17', 'Close': '20,550.98'}, {'Date': '28-Mar-17', 'Close': '20,701.50'}, {'Date': '29-Mar-17', 'Close': '20,659.32'}, {'Date': '30-Mar-17', 'Close': '20,728.49'}, {'Date': '31-Mar-17', 'Close': '20,663.22'}, {'Date': '3-Apr-17', 'Close': '20,650.21'}, {'Date': '4-Apr-17', 'Close': '20,689.24'}, {'Date': '5-Apr-17', 'Close': '20,648.15'}, {'Date': '6-Apr-17', 'Close': '20,662.95'}, {'Date': '7-Apr-17', 'Close': '20,656.10'}, {'Date': '10-Apr-17', 'Close': '20,658.02'}, {'Date': '11-Apr-17', 'Close': '20,651.30'}, {'Date': '12-Apr-17', 'Close': '20,591.86'}, {'Date': '13-Apr-17', 'Close': '20,453.25'}, {'Date': '17-Apr-17', 'Close': '20,636.92'}, {'Date': '18-Apr-17', 'Close': '20,523.28'}, {'Date': '19-Apr-17', 'Close': '20,404.49'}, {'Date': '20-Apr-17', 'Close': '20,578.71'}, {'Date': '21-Apr-17', 'Close': '20,547.76'}, {'Date': '24-Apr-17', 'Close': '20,763.89'}, {'Date': '25-Apr-17', 'Close': '20,996.12'}, {'Date': '26-Apr-17', 'Close': '20,975.09'}, {'Date': '27-Apr-17', 'Close': '20,981.33'}, {'Date': '28-Apr-17', 'Close': '20,940.51'}, {'Date': '1-May-17', 'Close': '20,913.46'}, {'Date': '2-May-17', 'Close': '20,949.89'}, {'Date': '3-May-17', 'Close': '20,957.90'}, {'Date': '4-May-17', 'Close': '20,951.47'}, {'Date': '5-May-17', 'Close': '21,006.94'}, {'Date': '8-May-17', 'Close': '21,012.28'}, {'Date': '9-May-17', 'Close': '20,975.78'}, {'Date': '10-May-17', 'Close': '20,943.11'}, {'Date': '11-May-17', 'Close': '20,919.42'}, {'Date': '12-May-17', 'Close': '20,896.61'}, {'Date': '15-May-17', 'Close': '20,981.94'}, {'Date': '16-May-17', 'Close': '20,979.75'}, {'Date': '17-May-17', 'Close': '20,606.93'}, {'Date': '18-May-17', 'Close': '20,663.02'}, {'Date': '19-May-17', 'Close': '20,804.84'}, {'Date': '22-May-17', 'Close': '20,894.83'}, {'Date': '23-May-17', 'Close': '20,937.91'}, {'Date': '24-May-17', 'Close': '21,012.42'}, {'Date': '25-May-17', 'Close': '21,082.95'}, {'Date': '26-May-17', 'Close': '21,080.28'}, {'Date': '30-May-17', 'Close': '21,029.47'}, {'Date': '31-May-17', 'Close': '21,008.65'}, {'Date': '1-Jun-17', 'Close': '21,144.18'}, {'Date': '2-Jun-17', 'Close': '21,206.29'}, {'Date': '5-Jun-17', 'Close': '21,184.04'}, {'Date': '6-Jun-17', 'Close': '21,136.23'}, {'Date': '7-Jun-17', 'Close': '21,173.69'}, {'Date': '8-Jun-17', 'Close': '21,182.53'}, {'Date': '9-Jun-17', 'Close': '21,271.97'}, {'Date': '12-Jun-17', 'Close': '21,235.67'}, {'Date': '13-Jun-17', 'Close': '21,328.47'}, {'Date': '14-Jun-17', 'Close': '21,374.56'}, {'Date': '15-Jun-17', 'Close': '21,359.90'}, {'Date': '16-Jun-17', 'Close': '21,384.28'}, {'Date': '19-Jun-17', 'Close': '21,528.99'}, {'Date': '20-Jun-17', 'Close': '21,467.14'}, {'Date': '21-Jun-17', 'Close': '21,410.03'}, {'Date': '22-Jun-17', 'Close': '21,397.29'}, {'Date': '23-Jun-17', 'Close': '21,394.76'}, {'Date': '26-Jun-17', 'Close': '21,409.55'}, {'Date': '27-Jun-17', 'Close': '21,310.66'}, {'Date': '28-Jun-17', 'Close': '21,454.61'}, {'Date': '29-Jun-17', 'Close': '21,287.03'}, {'Date': '30-Jun-17', 'Close': '21,349.63'}, {'Date': '3-Jul-17', 'Close': '21,479.27'}, {'Date': '5-Jul-17', 'Close': '21,478.17'}, {'Date': '6-Jul-17', 'Close': '21,320.04'}, {'Date': '7-Jul-17', 'Close': '21,414.34'}, {'Date': '10-Jul-17', 'Close': '21,408.52'}, {'Date': '11-Jul-17', 'Close': '21,409.07'}, {'Date': '12-Jul-17', 'Close': '21,532.14'}, {'Date': '13-Jul-17', 'Close': '21,553.09'}, {'Date': '14-Jul-17', 'Close': '21,637.74'}, {'Date': '17-Jul-17', 'Close': '21,629.72'}, {'Date': '18-Jul-17', 'Close': '21,574.73'}, {'Date': '19-Jul-17', 'Close': '21,640.75'}, {'Date': '20-Jul-17', 'Close': '21,611.78'}, {'Date': '21-Jul-17', 'Close': '21,580.07'}, {'Date': '24-Jul-17', 'Close': '21,513.17'}, {'Date': '25-Jul-17', 'Close': '21,613.43'}, {'Date': '26-Jul-17', 'Close': '21,711.01'}, {'Date': '27-Jul-17', 'Close': '21,796.55'}, {'Date': '28-Jul-17', 'Close': '21,830.31'}, {'Date': '31-Jul-17', 'Close': '21,891.12'}, {'Date': '1-Aug-17', 'Close': '21,963.92'}, {'Date': '2-Aug-17', 'Close': '22,016.24'}, {'Date': '3-Aug-17', 'Close': '22,026.10'}, {'Date': '4-Aug-17', 'Close': '22,092.81'}, {'Date': '7-Aug-17', 'Close': '22,118.42'}, {'Date': '8-Aug-17', 'Close': '22,085.34'}, {'Date': '9-Aug-17', 'Close': '22,048.70'}, {'Date': '10-Aug-17', 'Close': '21,844.01'}, {'Date': '11-Aug-17', 'Close': '21,858.32'}, {'Date': '14-Aug-17', 'Close': '21,993.71'}, {'Date': '15-Aug-17', 'Close': '21,998.99'}, {'Date': '16-Aug-17', 'Close': '22,024.87'}, {'Date': '17-Aug-17', 'Close': '21,750.73'}, {'Date': '18-Aug-17', 'Close': '21,674.51'}, {'Date': '21-Aug-17', 'Close': '21,703.75'}, {'Date': '22-Aug-17', 'Close': '21,899.89'}, {'Date': '23-Aug-17', 'Close': '21,812.09'}, {'Date': '24-Aug-17', 'Close': '21,783.40'}, {'Date': '25-Aug-17', 'Close': '21,813.67'}, {'Date': '28-Aug-17', 'Close': '21,808.40'}, {'Date': '29-Aug-17', 'Close': '21,865.37'}, {'Date': '30-Aug-17', 'Close': '21,892.43'}, {'Date': '31-Aug-17', 'Close': '21,948.10'}, {'Date': '1-Sep-17', 'Close': '21,987.56'}, {'Date': '5-Sep-17', 'Close': '21,753.31'}, {'Date': '6-Sep-17', 'Close': '21,807.64'}, {'Date': '7-Sep-17', 'Close': '21,784.78'}, {'Date': '8-Sep-17', 'Close': '21,797.79'}, {'Date': '11-Sep-17', 'Close': '22,057.37'}, {'Date': '12-Sep-17', 'Close': '22,118.86'}, {'Date': '13-Sep-17', 'Close': '22,158.18'}, {'Date': '14-Sep-17', 'Close': '22,203.48'}, {'Date': '15-Sep-17', 'Close': '22,268.34'}, {'Date': '18-Sep-17', 'Close': '22,331.35'}, {'Date': '19-Sep-17', 'Close': '22,370.80'}, {'Date': '20-Sep-17', 'Close': '22,412.59'}, {'Date': '21-Sep-17', 'Close': '22,359.23'}, {'Date': '22-Sep-17', 'Close': '22,349.59'}, {'Date': '25-Sep-17', 'Close': '22,296.09'}, {'Date': '26-Sep-17', 'Close': '22,284.32'}, {'Date': '27-Sep-17', 'Close': '22,340.71'}, {'Date': '28-Sep-17', 'Close': '22,381.20'}, {'Date': '29-Sep-17', 'Close': '22,405.09'}, {'Date': '2-Oct-17', 'Close': '22,557.60'}, {'Date': '3-Oct-17', 'Close': '22,641.67'}, {'Date': '4-Oct-17', 'Close': '22,661.64'}, {'Date': '5-Oct-17', 'Close': '22,775.39'}, {'Date': '6-Oct-17', 'Close': '22,773.67'}, {'Date': '9-Oct-17', 'Close': '22,761.07'}, {'Date': '10-Oct-17', 'Close': '22,830.68'}, {'Date': '11-Oct-17', 'Close': '22,872.89'}, {'Date': '12-Oct-17', 'Close': '22,841.01'}, {'Date': '13-Oct-17', 'Close': '22,871.72'}, {'Date': '16-Oct-17', 'Close': '22,956.96'}, {'Date': '17-Oct-17', 'Close': '22,997.44'}, {'Date': '18-Oct-17', 'Close': '23,157.60'}, {'Date': '19-Oct-17', 'Close': '23,163.04'}, {'Date': '20-Oct-17', 'Close': '23,328.63'}, {'Date': '23-Oct-17', 'Close': '23,273.96'}, {'Date': '24-Oct-17', 'Close': '23,441.76'}, {'Date': '25-Oct-17', 'Close': '23,329.46'}, {'Date': '26-Oct-17', 'Close': '23,400.86'}, {'Date': '27-Oct-17', 'Close': '23,434.19'}, {'Date': '30-Oct-17', 'Close': '23,348.74'}, {'Date': '31-Oct-17', 'Close': '23,377.24'}, {'Date': '1-Nov-17', 'Close': '23,435.01'}, {'Date': '2-Nov-17', 'Close': '23,516.26'}, {'Date': '3-Nov-17', 'Close': '23,539.19'}, {'Date': '6-Nov-17', 'Close': '23,548.42'}, {'Date': '7-Nov-17', 'Close': '23,557.23'}, {'Date': '8-Nov-17', 'Close': '23,563.36'}, {'Date': '9-Nov-17', 'Close': '23,461.94'}, {'Date': '10-Nov-17', 'Close': '23,422.21'}, {'Date': '13-Nov-17', 'Close': '23,439.70'}, {'Date': '14-Nov-17', 'Close': '23,409.47'}, {'Date': '15-Nov-17', 'Close': '23,271.28'}, {'Date': '16-Nov-17', 'Close': '23,458.36'}, {'Date': '17-Nov-17', 'Close': '23,358.24'}, {'Date': '20-Nov-17', 'Close': '23,430.33'}, {'Date': '21-Nov-17', 'Close': '23,590.83'}, {'Date': '22-Nov-17', 'Close': '23,526.18'}, {'Date': '24-Nov-17', 'Close': '23,557.99'}, {'Date': '27-Nov-17', 'Close': '23,580.78'}, {'Date': '28-Nov-17', 'Close': '23,836.71'}, {'Date': '29-Nov-17', 'Close': '23,940.68'}, {'Date': '30-Nov-17', 'Close': '24,272.35'}, {'Date': '1-Dec-17', 'Close': '24,231.59'}, {'Date': '4-Dec-17', 'Close': '24,290.05'}, {'Date': '5-Dec-17', 'Close': '24,180.64'}, {'Date': '6-Dec-17', 'Close': '24,140.91'}, {'Date': '7-Dec-17', 'Close': '24,211.48'}, {'Date': '8-Dec-17', 'Close': '24,329.16'}, {'Date': '11-Dec-17', 'Close': '24,386.03'}, {'Date': '12-Dec-17', 'Close': '24,504.80'}, {'Date': '13-Dec-17', 'Close': '24,585.43'}, {'Date': '14-Dec-17', 'Close': '24,508.66'}, {'Date': '15-Dec-17', 'Close': '24,651.74'}, {'Date': '18-Dec-17', 'Close': '24,792.20'}, {'Date': '19-Dec-17', 'Close': '24,754.75'}, {'Date': '20-Dec-17', 'Close': '24,726.65'}, {'Date': '21-Dec-17', 'Close': '24,782.29'}, {'Date': '22-Dec-17', 'Close': '24,754.06'}, {'Date': '26-Dec-17', 'Close': '24,746.21'}, {'Date': '27-Dec-17', 'Close': '24,774.30'}, {'Date': '28-Dec-17', 'Close': '24,837.51'}, {'Date': '29-Dec-17', 'Close': '24,719.22'}, {'Date': '2-Jan-18', 'Close': '24,824.01'}, {'Date': '3-Jan-18', 'Close': '24,922.68'}, {'Date': '4-Jan-18', 'Close': '25,075.13'}, {'Date': '5-Jan-18', 'Close': '25,295.87'}, {'Date': '8-Jan-18', 'Close': '25,283.00'}, {'Date': '9-Jan-18', 'Close': '25,385.80'}, {'Date': '10-Jan-18', 'Close': '25,369.13'}, {'Date': '11-Jan-18', 'Close': '25,574.73'}, {'Date': '12-Jan-18', 'Close': '25,803.19'}, {'Date': '16-Jan-18', 'Close': '25,792.86'}, {'Date': '17-Jan-18', 'Close': '26,115.65'}, {'Date': '18-Jan-18', 'Close': '26,017.81'}, {'Date': '19-Jan-18', 'Close': '26,071.72'}, {'Date': '22-Jan-18', 'Close': '26,214.60'}, {'Date': '23-Jan-18', 'Close': '26,210.81'}, {'Date': '24-Jan-18', 'Close': '26,252.12'}, {'Date': '25-Jan-18', 'Close': '26,392.79'}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Date': '9-Jan-20', 'Close': '28,956.90'}, {'Date': '10-Jan-20', 'Close': '28,823.77'}, {'Date': '13-Jan-20', 'Close': '28,907.05'}, {'Date': '14-Jan-20', 'Close': '28,939.67'}, {'Date': '15-Jan-20', 'Close': '29,030.22'}, {'Date': '16-Jan-20', 'Close': '29,297.64'}, {'Date': '17-Jan-20', 'Close': '29,348.10'}, {'Date': '21-Jan-20', 'Close': '29,196.04'}, {'Date': '22-Jan-20', 'Close': '29,186.27'}, {'Date': '23-Jan-20', 'Close': '29,160.09'}, {'Date': '24-Jan-20', 'Close': '28,989.73'}, {'Date': '27-Jan-20', 'Close': '28,535.80'}, {'Date': '28-Jan-20', 'Close': '28,722.85'}, {'Date': '29-Jan-20', 'Close': '28,734.45'}, {'Date': '30-Jan-20', 'Close': '28,859.44'}, {'Date': '31-Jan-20', 'Close': '28,256.03'}, {'Date': '3-Feb-20', 'Close': '28,399.81'}, {'Date': '4-Feb-20', 'Close': '28,807.63'}, {'Date': '5-Feb-20', 'Close': '29,290.85'}, {'Date': '6-Feb-20', 'Close': '29,379.77'}, {'Date': '7-Feb-20', 'Close': '29,102.51'}, {'Date': '10-Feb-20', 'Close': '29,276.82'}, {'Date': '11-Feb-20', 'Close': '29,276.34'}, {'Date': '12-Feb-20', 'Close': '29,551.42'}, {'Date': '13-Feb-20', 'Close': '29,423.31'}, {'Date': '14-Feb-20', 'Close': '29,398.08'}, {'Date': '18-Feb-20', 'Close': '29,232.19'}, {'Date': '19-Feb-20', 'Close': '29,348.03'}, {'Date': '20-Feb-20', 'Close': '29,219.98'}, {'Date': '21-Feb-20', 'Close': '28,992.41'}, {'Date': '24-Feb-20', 'Close': '27,960.80'}, {'Date': '25-Feb-20', 'Close': '27,081.36'}, {'Date': '26-Feb-20', 'Close': '26,957.59'}, {'Date': '27-Feb-20', 'Close': '25,766.64'}, {'Date': '28-Feb-20', 'Close': '25,409.36'}, {'Date': '2-Mar-20', 'Close': '26,703.32'}, {'Date': '3-Mar-20', 'Close': '25,917.41'}, {'Date': '4-Mar-20', 'Close': '27,090.86'}, {'Date': '5-Mar-20', 'Close': '26,121.28'}, {'Date': '6-Mar-20', 'Close': '25,864.78'}, {'Date': '9-Mar-20', 'Close': '23,851.02'}, {'Date': '10-Mar-20', 'Close': '25,018.16'}, {'Date': '11-Mar-20', 'Close': '23,553.22'}, {'Date': '12-Mar-20', 'Close': '21,200.62'}, {'Date': '13-Mar-20', 'Close': '23,185.62'}, {'Date': '16-Mar-20', 'Close': '20,188.52'}, {'Date': '17-Mar-20', 'Close': '21,237.38'}, {'Date': '18-Mar-20', 'Close': '19,898.92'}, {'Date': '19-Mar-20', 'Close': '20,087.19'}, {'Date': '20-Mar-20', 'Close': '19,173.98'}, {'Date': '23-Mar-20', 'Close': '18,591.93'}, {'Date': '24-Mar-20', 'Close': '20,704.91'}, {'Date': '25-Mar-20', 'Close': '21,200.55'}, {'Date': '26-Mar-20', 'Close': '22,552.17'}, {'Date': '27-Mar-20', 'Close': '21,636.78'}, {'Date': '30-Mar-20', 'Close': '22,327.48'}, {'Date': '31-Mar-20', 'Close': '21,917.16'}, {'Date': '1-Apr-20', 'Close': '20,943.51'}, {'Date': '2-Apr-20', 'Close': '21,413.44'}, {'Date': '3-Apr-20', 'Close': '21,052.53'}, {'Date': '6-Apr-20', 'Close': '22,679.99'}, {'Date': '7-Apr-20', 'Close': '22,653.86'}, {'Date': '8-Apr-20', 'Close': '23,433.57'}, {'Date': '9-Apr-20', 'Close': '23,719.37'}, {'Date': '13-Apr-20', 'Close': '23,390.77'}, {'Date': '14-Apr-20', 'Close': '23,949.76'}, {'Date': '15-Apr-20', 'Close': '23,504.35'}, {'Date': '16-Apr-20', 'Close': '23,537.68'}, {'Date': '17-Apr-20', 'Close': '24,242.49'}, {'Date': '20-Apr-20', 'Close': '23,650.44'}, {'Date': '21-Apr-20', 'Close': '23,018.88'}, {'Date': '22-Apr-20', 'Close': '23,475.82'}, {'Date': '23-Apr-20', 'Close': '23,515.26'}, {'Date': '24-Apr-20', 'Close': '23,775.27'}, {'Date': '27-Apr-20', 'Close': '24,133.78'}, {'Date': '28-Apr-20', 'Close': '24,101.55'}, {'Date': '29-Apr-20', 'Close': '24,633.86'}, {'Date': '30-Apr-20', 'Close': '24,345.72'}, {'Date': '1-May-20', 'Close': '23,723.69'}, {'Date': '4-May-20', 'Close': '23,749.76'}, {'Date': '5-May-20', 'Close': '23,883.09'}, {'Date': '6-May-20', 'Close': '23,664.64'}, {'Date': '7-May-20', 'Close': '23,875.89'}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>From 2020/03/04 to 2020/03/23, the 'Dow Janes Industrial (.DJI) is on an downtrend.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":"Close","BeginIndex":"37","EndIndex":"50","Trend":"downtrend","Number":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":"Close","BeginIndex":"76","EndIndex":"250","Trend":"uptrend","Number":"None"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="126" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="126" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -536,7 +563,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -557,12 +584,12 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="88" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -577,18 +604,18 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="125" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -600,21 +627,21 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="252" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -626,10 +653,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -640,10 +667,10 @@
     </row>
     <row r="6" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -652,21 +679,21 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -677,10 +704,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -693,69 +720,90 @@
     </row>
     <row r="10" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>13</v>

--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E294B28-220F-4D85-9B6B-42D4E68AC88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E330D03-381D-BF4F-8C8C-6B7418B7EEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15470" yWindow="1040" windowWidth="21830" windowHeight="19850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9100" yWindow="-28300" windowWidth="32980" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,12 +72,6 @@
     <t>[{'Date': '1999/4/26', 'Adj Close': 5.179688}, {'Date': '1999/4/27', 'Adj Close': 5.146875}, {'Date': '1999/4/28', 'Adj Close': 4.8375}, {'Date': '1999/4/29', 'Adj Close': 4.20625}, {'Date': '1999/4/30', 'Adj Close': 4.301563}, {'Date': '1999/5/3', 'Adj Close': 3.773438}, {'Date': '1999/5/4', 'Adj Close': 3.575}, {'Date': '1999/5/5', 'Adj Close': 3.6625}, {'Date': '1999/5/6', 'Adj Close': 3.434375}, {'Date': '1999/5/7', 'Adj Close': 3.409375}, {'Date': '1999/5/10', 'Adj Close': 3.671875}, {'Date': '1999/5/11', 'Adj Close': 3.709375}, {'Date': '1999/5/12', 'Adj Close': 3.573438}, {'Date': '1999/5/13', 'Adj Close': 3.4}, {'Date': '1999/5/14', 'Adj Close': 3.309375}, {'Date': '1999/5/17', 'Adj Close': 3.440625}, {'Date': '1999/5/18', 'Adj Close': 3.315625}, {'Date': '1999/5/19', 'Adj Close': 3.489063}, {'Date': '1999/5/20', 'Adj Close': 3.270313}, {'Date': '1999/5/21', 'Adj Close': 3.214063}, {'Date': '1999/5/24', 'Adj Close': 2.9375}, {'Date': '1999/5/25', 'Adj Close': 2.789063}, {'Date': '1999/5/26', 'Adj Close': 3.023438}, {'Date': '1999/5/27', 'Adj Close': 2.864063}, {'Date': '1999/5/28', 'Adj Close': 2.96875}, {'Date': '1999/6/1', 'Adj Close': 2.645313}, {'Date': '1999/6/2', 'Adj Close': 2.803125}, {'Date': '1999/6/3', 'Adj Close': 2.626563}, {'Date': '1999/6/4', 'Adj Close': 2.710938}, {'Date': '1999/6/7', 'Adj Close': 2.934375}, {'Date': '1999/6/8', 'Adj Close': 2.789063}, {'Date': '1999/6/9', 'Adj Close': 2.85}, {'Date': '1999/6/10', 'Adj Close': 2.898438}, {'Date': '1999/6/11', 'Adj Close': 2.645313}, {'Date': '1999/6/14', 'Adj Close': 2.3}, {'Date': '1999/6/15', 'Adj Close': 2.4125}, {'Date': '1999/6/16', 'Adj Close': 2.792188}, {'Date': '1999/6/17', 'Adj Close': 2.823438}, {'Date': '1999/6/18', 'Adj Close': 2.782813}, {'Date': '1999/6/21', 'Adj Close': 3.0875}, {'Date': '1999/6/22', 'Adj Close': 2.9375}, {'Date': '1999/6/23', 'Adj Close': 2.94375}, {'Date': '1999/6/24', 'Adj Close': 2.840625}, {'Date': '1999/6/25', 'Adj Close': 2.754688}, {'Date': '1999/6/28', 'Adj Close': 2.767188}, {'Date': '1999/6/29', 'Adj Close': 2.901563}, {'Date': '1999/6/30', 'Adj Close': 3.128125}, {'Date': '1999/7/1', 'Adj Close': 3.059375}, {'Date': '1999/7/2', 'Adj Close': 3.101563}, {'Date': '1999/7/6', 'Adj Close': 3.171875}, {'Date': '1999/7/7', 'Adj Close': 3.046875}, {'Date': '1999/7/8', 'Adj Close': 3.134375}, {'Date': '1999/7/9', 'Adj Close': 3.1375}, {'Date': '1999/7/12', 'Adj Close': 2.934375}, {'Date': '1999/7/13', 'Adj Close': 3.153125}, {'Date': '1999/7/14', 'Adj Close': 3.375}, {'Date': '1999/7/15', 'Adj Close': 3.489063}, {'Date': '1999/7/16', 'Adj Close': 3.440625}, {'Date': '1999/7/19', 'Adj Close': 3.292188}, {'Date': '1999/7/20', 'Adj Close': 3.003125}, {'Date': '1999/7/21', 'Adj Close': 3.135938}, {'Date': '1999/7/22', 'Adj Close': 2.670313}, {'Date': '1999/7/23', 'Adj Close': 2.864063}, {'Date': '1999/7/26', 'Adj Close': 2.648438}, {'Date': '1999/7/27', 'Adj Close': 2.525}, {'Date': '1999/7/28', 'Adj Close': 2.64375}, {'Date': '1999/7/29', 'Adj Close': 2.539063}, {'Date': '1999/7/30', 'Adj Close': 2.501563}, {'Date': '1999/8/2', 'Adj Close': 2.35}, {'Date': '1999/8/3', 'Adj Close': 2.371875}, {'Date': '1999/8/4', 'Adj Close': 2.210938}, {'Date': '1999/8/5', 'Adj Close': 2.43125}, {'Date': '1999/8/6', 'Adj Close': 2.239063}, {'Date': '1999/8/9', 'Adj Close': 2.1375}, {'Date': '1999/8/10', 'Adj Close': 2.275}, {'Date': '1999/8/11', 'Adj Close': 2.273438}, {'Date': '1999/8/12', 'Adj Close': 2.29375}, {'Date': '1999/8/13', 'Adj Close': 2.435938}, {'Date': '1999/8/16', 'Adj Close': 2.457813}, {'Date': '1999/8/17', 'Adj Close': 2.73125}, {'Date': '1999/8/18', 'Adj Close': 2.828125}, {'Date': '1999/8/19', 'Adj Close': 2.653125}, {'Date': '1999/8/20', 'Adj Close': 2.835938}, {'Date': '1999/8/23', 'Adj Close': 2.959375}, {'Date': '1999/8/24', 'Adj Close': 3.001563}, {'Date': '1999/8/25', 'Adj Close': 3.321875}, {'Date': '1999/8/26', 'Adj Close': 3.214063}, {'Date': '1999/8/27', 'Adj Close': 3.2125}, {'Date': '1999/8/30', 'Adj Close': 2.98125}, {'Date': '1999/8/31', 'Adj Close': 3.109375}, {'Date': '1999/9/1', 'Adj Close': 2.976563}, {'Date': '1999/9/2', 'Adj Close': 3.003125}, {'Date': '1999/9/3', 'Adj Close': 3.121875}, {'Date': '1999/9/7', 'Adj Close': 3.146875}, {'Date': '1999/9/8', 'Adj Close': 3.071875}, {'Date': '1999/9/9', 'Adj Close': 3.18125}, {'Date': '1999/9/10', 'Adj Close': 3.325}, {'Date': '1999/9/13', 'Adj Close': 3.165625}, {'Date': '1999/9/14', 'Adj Close': 3.3}, {'Date': '1999/9/15', 'Adj Close': 3.278125}, {'Date': '1999/9/16', 'Adj Close': 3.2625}, {'Date': '1999/9/17', 'Adj Close': 3.190625}, {'Date': '1999/9/20', 'Adj Close': 3.1375}, {'Date': '1999/9/21', 'Adj Close': 3.1125}, {'Date': '1999/9/22', 'Adj Close': 3.3}, {'Date': '1999/9/23', 'Adj Close': 3.1125}, {'Date': '1999/9/24', 'Adj Close': 3.25}, {'Date': '1999/9/27', 'Adj Close': 3.128125}, {'Date': '1999/9/28', 'Adj Close': 3.29375}, {'Date': '1999/9/29', 'Adj Close': 4.0375}, {'Date': '1999/9/30', 'Adj Close': 3.996875}, {'Date': '1999/10/1', 'Adj Close': 3.8625}, {'Date': '1999/10/4', 'Adj Close': 3.853125}, {'Date': '1999/10/5', 'Adj Close': 3.921875}, {'Date': '1999/10/6', 'Adj Close': 4.121875}, {'Date': '1999/10/7', 'Adj Close': 4.365625}, {'Date': '1999/10/8', 'Adj Close': 4.4625}, {'Date': '1999/10/11', 'Adj Close': 4.41875}, {'Date': '1999/10/12', 'Adj Close': 4.246875}, {'Date': '1999/10/13', 'Adj Close': 3.996875}, {'Date': '1999/10/14', 'Adj Close': 3.979688}, {'Date': '1999/10/15', 'Adj Close': 3.753125}, {'Date': '1999/10/18', 'Adj Close': 3.703125}, {'Date': '1999/10/19'99/12/8', 'Adj Close': 4.428125}, {'Date': '1999/12/9', 'Adj Close': 5.18125}, {'Date': '1999/12/10', 'Adj Close': 5.334375}, {'Date': '1999/12/13', 'Adj Close': 5.125}, {'Date': '1999/12/14', 'Adj Close': 4.78125}, {'Date': '1999/12/15', 'Adj Close': 4.825}, {'Date': '1999/12/16', 'Adj Close': 4.74375}, {'Date': '1999/12/17', 'Adj Close': 4.703125}, {'Date': '1999/12/20', 'Adj Close': 4.85}, {'Date': '1999/12/21', 'Adj Close': 4.99375}, {'Date': '1999/12/22', 'Adj Close': 4.884375}, {'Date': '1999/12/23', 'Adj Close': 4.5}, {'Date': '1999/12/27', 'Adj Close': 4.05625}, {'Date': '1999/12/28', 'Adj Close': 4.115625}, {'Date': '1999/12/29', 'Adj Close': 4.175}, {'Date': '1999/12/30', 'Adj Close': 3.953125}, {'Date': '1999/12/31', 'Adj Close': 3.80625}, {'Date': '2000/1/3', 'Adj Close': 4.46875}, {'Date': '2000/1/4', 'Adj Close': 4.096875}, {'Date': '2000/1/5', 'Adj Close': 3.4875}, {'Date': '2000/1/6', 'Adj Close': 3.278125}, {'Date': '2000/1/7', 'Adj Close': 3.478125}, {'Date': '2000/1/10', 'Adj Close': 3.459375}, {'Date': '2000/1/11', 'Adj Close': 3.3375}, {'Date': '2000/1/12', 'Adj Close': 3.178125}, {'Date': '2000/1/13', 'Adj Close': 3.296875}, {'Date': '2000/1/14', 'Adj Close': 3.2125}, {'Date': '2000/1/18', 'Adj Close': 3.20625}, {'Date': '2000/1/19', 'Adj Close': 3.340625}, {'Date': '2000/1/20', 'Adj Close': 3.2375}]</t>
   </si>
   <si>
-    <t>[{'Date': '2018/4/27', 'Close': 78.630997}, {'Date': '2018/4/30', 'Close': 78.306503}, {'Date': '2018/5/1', 'Close': 79.112999}, {'Date': '2018/5/2', 'Close': 78.484001}, {'Date': '2018/5/3', 'Close': 78.603996}, {'Date': '2018/5/4', 'Close': 79.047501}, {'Date': '2018/5/7', 'Close': 80.007004}, {'Date': '2018/5/8', 'Close': 79.619499}, {'Date': '2018/5/9', 'Close': 80.400002}, {'Date': '2018/5/10', 'Close': 80.454002}, {'Date': '2018/5/11', 'Close': 80.1455}, {'Date': '2018/5/14', 'Close': 80.077003}, {'Date': '2018/5/15', 'Close': 78.806}, {'Date': '2018/5/16', 'Close': 79.363998}, {'Date': '2018/5/17', 'Close': 79.087997}, {'Date': '2018/5/18', 'Close': 78.718498}, {'Date': '2018/5/21', 'Close': 79.273003}, {'Date': '2018/5/22', 'Close': 79.07}, {'Date': '2018/5/23', 'Close': 80.093002}, {'Date': '2018/5/24', 'Close': 80.153503}, {'Date': '2018/5/25', 'Close': 80.5075}, {'Date': '2018/5/29', 'Close': 80.643501}, {'Date': '2018/5/30', 'Close': 81.244499}, {'Date': '2018/5/31', 'Close': 81.481003}, {'Date': '2018/6/1', 'Close': 82.077003}, {'Date': '2018/6/4', 'Close': 83.263496}, {'Date': '2018/6/5', 'Close': 84.817497}, {'Date': '2018/6/6', 'Close': 84.787498}, {'Date': '2018/6/7', 'Close': 84.464996}, {'Date': '2018/6/8', 'Close': 84.199501}, {'Date': '2018/6/11', 'Close': 84.456001}, {'Date': '2018/6/12', 'Close': 84.9375}, {'Date': '2018/6/13', 'Close': 85.242996}, {'Date': '2018/6/14', 'Close': 86.193001}, {'Date': '2018/6/15', 'Close': 85.7985}, {'Date': '2018/6/18', 'Close': 86.189499}, {'Date': '2018/6/19', 'Close': 86.738998}, {'Date': '2018/6/20', 'Close': 87.503998}, {'Date': '2018/6/21', 'Close': 86.511002}, {'Date': '2018/6/22', 'Close': 85.783501}, {'Date': '2018/6/25', 'Close': 83.157501}, {'Date': '2018/6/26', 'Close': 84.554497}, {'Date': '2018/6/27', 'Close': 83.025497}, {'Date': '2018/6/28', 'Close': 85.072502}, {'Date': '2018/6/29', 'Close': 84.989998}, {'Date': '2018/7/2', 'Close': 85.689003}, {'Date': '2018/7/3', 'Close': 84.697998}, {'Date': '2018/7/5', 'Close': 84.986504}, {'Date': '2018/7/6', 'Close': 85.531502}, {'Date': '2018/7/9', 'Close': 86.950996}, {'Date': '2018/7/10', 'Close': 87.153503}, {'Date': '2018/7/11', 'Close': 87.75}, {'Date': '2018/7/12', 'Close': 89.831001}, {'Date': '2018/7/13', 'Close': 90.651497}, {'Date': '2018/7/16', 'Close': 91.124496}, {'Date': '2018/7/17', 'Close': 92.196503}, {'Date': '2018/7/18', 'Close': 92.146004}, {'Date': '2018/7/19', 'Close': 90.648499}, {'Date': '2018/7/20', 'Close': 90.684998}, {'Date': '2018/7/23', 'Close': 90.099998}, {'Date': '2018/7/24', 'Close': 91.461998}, {'Date': '2018/7/25', 'Close': 93.180496}, {'Date': '2018/7/26', 'Close': 90.400002}, {'Date': '2018/7/27', 'Close': 90.863503}, {'Date': '2018/7/30', 'Close': 88.960999}, {'Date': '2018/7/31', 'Close': 88.872002}, {'Date': '2018/8/1', 'Close': 89.858498}, {'Date': '2018/8/2', 'Close': 91.716499}, {'Date': '2018/8/3', 'Close': 91.164497}, {'Date': '2018/8/6', 'Close': 92.387497}, {'Date': '2018/8/7', 'Close': 93.124001}, {'Date': '2018/8/8', 'Close': 94.325996}, {'Date': '2018/8/9', 'Close': 94.926003}, {'Date': '2018/8/10', 'Close': 94.315002}, {'Date': '2018/8/13', 'Close': 94.809998}, {'Date': '2018/8/14', 'Close': 95.982498}, {'Date': '2018/8/15', 'Close': 94.130997}, {'Date': '2018/8/16', 'Close': 94.325996}, {'Date': '2018/8/17', 'Close': 94.111}, {'Date': '2018/8/20', 'Close': 93.835503}, {'Date': '2018/8/21', 'Close': 94.170998}, {'Date': '2018/8/22', 'Close': 95.245003}, {'Date': '2018/8/23', 'Close': 95.144997}, {'Date': '2018/8/24', 'Close': 95.269501}, {'Date': '2018/8/27', 'Close': 96.384003}, {'Date': '2018/8/28', 'Close': 96.640999}, {'Date': '2018/8/29', 'Close': 99.904999}, {'Date': '2018/8/30', 'Close': 100.119003}, {'Date': '2018/8/31', 'Close': 100.635498}, {'Date': '2018/9/4', 'Close': 101.975502}, {'Date': '2018/9/5', 'Close': 101.740997}, {'Date': '2018/9/6', 'Close': 99.915497}, {'Date': '2018/9/7', 'Close': 98.6035}, {'Date': '2018/9/10', 'Close': 97.9505}, {'Date': '2018/9/11', 'Close': 97.357498}, {'Date': '2018/9/12', 'Close': 96.93}, {'Date': '2018/9/13', 'Close': 96.7935}, {'Date': '2018/9/14', 'Close': 96.809499}, {'Date': '2018/9/17', 'Close': 96.901497}, {'Date': '2018/9/18', 'Close': 97.052498}, {'Date': '2018/9/19', 'Close': 96.320999}, {'Date': '2018/9/20', 'Close': 97.214996}, {'Date': '2018/9/21', 'Close': 95.750504}, {'Date': '2018/9/24', 'Close': 96.718002}, {'Date': '2018/9/25', 'Close': 98.727501}, {'Date': '2018/9/26', 'Close': 98.7425}, {'Date': '2018/9/27', 'Close': 100.649002}, {'Date': '2018/9/28', 'Close': 100.150002}, {'Date': '2018/10/1', 'Close': 100.218002}, {'Date': '2018/10/2', 'Close': 98.565498}, {'Date': '2018/10/3', 'Close': 97.638}, {'Date': '2018/10/4', 'Close': 95.471001}, {'Date': '2018/10/5', 'Close': 94.482498}, {'Date': '2018/10/8', 'Close': 93.221001}, {'Date': '2018/10/9', 'Close': 93.515999}, {'Date': '2018/10/10', 'Close': 87.762497}, {'Date': '2018/10/11', 'Close': 85.968002}, {'Date': '2018/10/12', 'Close': 89.430496}, {'Date': '2018/10/15', 'Close': 88.047501}, {'Date': '2018/10/16', 'Close': 90.998001}, {'Date': '2018/10/17', 'Close': 91.586502}, {'Date': '2018/10/18', 'Close': 88.536003}, {'Date': '2018/10/19', 'Close': 88.2015}, {'Date': '2018/10/22', 'Close': 89.464996}, {'Date': '2018/10/23', 'Close': 88.434998}, {'Date': '2018/10/24', 'Close': 83.209999}, {'Date': '2018/10/25', 'Close': 89.108498}, {'Date': '2018/10/26', 'Close': 82.140503}, {'Date': '2018/10/29', 'Close': 76.944}, {'Date': '2018/10/30', 'Close': 76.521004}, {'Date': '2018/10/31', 'Close': 79.900497}, {'Date': '2018/11/1', 'Close': 83.276497}, {'Date': '2018/11/2', 'Close': 83.276497}, {'Date': '2018/11/5', 'Close': 81.389999}, {'Date': '2018/11/6', 'Close': 82.140503}, {'Date': '2018/11/7', 'Close': 87.774498}, {'Date': '2018/11/8', 'Close': 87.745499}, {'Date': '2018/11/9', 'Close': 85.621498}, {'Date': '2018/11/12', 'Close': 81.842499}, {'Date': '2018/11/13', 'Close': 81.558502}, {'Date': '2018/11/14', 'Close': 79.9505}, {'Date': '2018/11/15', 'Close': 80.972}, {'Date': '2018/11/16', 'Close': 79.670502}, {'Date': '2018/11/19', 'Close': 75.614502}, {'Date': '2018/11/20', 'Close': 74.773003}]</t>
-  </si>
-  <si>
-    <t>The chart of Amazon.com Inc. (AMZN) shows a double top pattern that formed in the stock between September and October 2018 around a price of $2,050. The important support level in this case formed around $1,880. Despite the stock falling nearly 8% from October peak to support at $1,880, one could not confirm the double top until after the stock fell below $1,880. From that point forward the shares went on to plunge almost 31% further.</t>
-  </si>
-  <si>
     <t>pattern</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,13 +210,35 @@
   <si>
     <t>{"ObjectName":"Close","BeginIndex":"76","EndIndex":"250","Trend":"uptrend","Number":"None"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The chart of Amazon.com Inc. (AMZN) shows a double top pattern that formed in the stock between September and October 2018. After the pattern appears, shares plunges another 31%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"Close","BeginIndex":"42","EndIndex":"69","Trend":"double top","Number":"None"}, {"ObjectName":"Close","BeginIndex":"70","EndIndex":"102","Trend":"plunges","Number":"31%"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Date': '2018/6/27', 'Close': 83.025497}, {'Date': '2018/6/28', 'Close': 85.072502}, {'Date': '2018/6/29', 'Close': 84.989998}, {'Date': '2018/7/2', 'Close': 85.689003}, {'Date': '2018/7/3', 'Close': 84.697998}, {'Date': '2018/7/5', 'Close': 84.986504}, {'Date': '2018/7/6', 'Close': 85.531502}, {'Date': '2018/7/9', 'Close': 86.950996}, {'Date': '2018/7/10', 'Close': 87.153503}, {'Date': '2018/7/11', 'Close': 87.75}, {'Date': '2018/7/12', 'Close': 89.831001}, {'Date': '2018/7/13', 'Close': 90.651497}, {'Date': '2018/7/16', 'Close': 91.124496}, {'Date': '2018/7/17', 'Close': 92.196503}, {'Date': '2018/7/18', 'Close': 92.146004}, {'Date': '2018/7/19', 'Close': 90.648499}, {'Date': '2018/7/20', 'Close': 90.684998}, {'Date': '2018/7/23', 'Close': 90.099998}, {'Date': '2018/7/24', 'Close': 91.461998}, {'Date': '2018/7/25', 'Close': 93.180496}, {'Date': '2018/7/26', 'Close': 90.400002}, {'Date': '2018/7/27', 'Close': 90.863503}, {'Date': '2018/7/30', 'Close': 88.960999}, {'Date': '2018/7/31', 'Close': 88.872002}, {'Date': '2018/8/1', 'Close': 89.858498}, {'Date': '2018/8/2', 'Close': 91.716499}, {'Date': '2018/8/3', 'Close': 91.164497}, {'Date': '2018/8/6', 'Close': 92.387497}, {'Date': '2018/8/7', 'Close': 93.124001}, {'Date': '2018/8/8', 'Close': 94.325996}, {'Date': '2018/8/9', 'Close': 94.926003}, {'Date': '2018/8/10', 'Close': 94.315002}, {'Date': '2018/8/13', 'Close': 94.809998}, {'Date': '2018/8/14', 'Close': 95.982498}, {'Date': '2018/8/15', 'Close': 94.130997}, {'Date': '2018/8/16', 'Close': 94.325996}, {'Date': '2018/8/17', 'Close': 94.111}, {'Date': '2018/8/20', 'Close': 93.835503}, {'Date': '2018/8/21', 'Close': 94.170998}, {'Date': '2018/8/22', 'Close': 95.245003}, {'Date': '2018/8/23', 'Close': 95.144997}, {'Date': '2018/8/24', 'Close': 95.269501}, {'Date': '2018/8/27', 'Close': 96.384003}, {'Date': '2018/8/28', 'Close': 96.640999}, {'Date': '2018/8/29', 'Close': 99.904999}, {'Date': '2018/8/30', 'Close': 100.119003}, {'Date': '2018/8/31', 'Close': 100.635498}, {'Date': '2018/9/4', 'Close': 101.975502}, {'Date': '2018/9/5', 'Close': 101.740997}, {'Date': '2018/9/6', 'Close': 99.915497}, {'Date': '2018/9/7', 'Close': 98.6035}, {'Date': '2018/9/10', 'Close': 97.9505}, {'Date': '2018/9/11', 'Close': 97.357498}, {'Date': '2018/9/12', 'Close': 96.93}, {'Date': '2018/9/13', 'Close': 96.7935}, {'Date': '2018/9/14', 'Close': 96.809499}, {'Date': '2018/9/17', 'Close': 96.901497}, {'Date': '2018/9/18', 'Close': 97.052498}, {'Date': '2018/9/19', 'Close': 96.320999}, {'Date': '2018/9/20', 'Close': 97.214996}, {'Date': '2018/9/21', 'Close': 95.750504}, {'Date': '2018/9/24', 'Close': 96.718002}, {'Date': '2018/9/25', 'Close': 98.727501}, {'Date': '2018/9/26', 'Close': 98.7425}, {'Date': '2018/9/27', 'Close': 100.649002}, {'Date': '2018/9/28', 'Close': 100.150002}, {'Date': '2018/10/1', 'Close': 100.218002}, {'Date': '2018/10/2', 'Close': 98.565498}, {'Date': '2018/10/3', 'Close': 97.638}, {'Date': '2018/10/4', 'Close': 95.471001}, {'Date': '2018/10/5', 'Close': 94.482498}, {'Date': '2018/10/8', 'Close': 93.221001}, {'Date': '2018/10/9', 'Close': 93.515999}, {'Date': '2018/10/10', 'Close': 87.762497}, {'Date': '2018/10/11', 'Close': 85.968002}, {'Date': '2018/10/12', 'Close': 89.430496}, {'Date': '2018/10/15', 'Close': 88.047501}, {'Date': '2018/10/16', 'Close': 90.998001}, {'Date': '2018/10/17', 'Close': 91.586502}, {'Date': '2018/10/18', 'Close': 88.536003}, {'Date': '2018/10/19', 'Close': 88.2015}, {'Date': '2018/10/22', 'Close': 89.464996}, {'Date': '2018/10/23', 'Close': 88.434998}, {'Date': '2018/10/24', 'Close': 83.209999}, {'Date': '2018/10/25', 'Close': 89.108498}, {'Date': '2018/10/26', 'Close': 82.140503}, {'Date': '2018/10/29', 'Close': 76.944}, {'Date': '2018/10/30', 'Close': 76.521004}, {'Date': '2018/10/31', 'Close': 79.900497}, {'Date': '2018/11/1', 'Close': 83.276497}, {'Date': '2018/11/2', 'Close': 83.276497}, {'Date': '2018/11/5', 'Close': 81.389999}, {'Date': '2018/11/6', 'Close': 82.140503}, {'Date': '2018/11/7', 'Close': 87.774498}, {'Date': '2018/11/8', 'Close': 87.745499}, {'Date': '2018/11/9', 'Close': 85.621498}, {'Date': '2018/11/12', 'Close': 81.842499}, {'Date': '2018/11/13', 'Close': 81.558502}, {'Date': '2018/11/14', 'Close': 79.9505}, {'Date': '2018/11/15', 'Close': 80.972}, {'Date': '2018/11/16', 'Close': 79.670502}, {'Date': '2018/11/19', 'Close': 75.614502}, {'Date': '2018/11/20', 'Close': 74.773003}]</t>
+  </si>
+  <si>
+    <t>{"ObjectName":"Price","BeginIndex":"22","EndIndex":"56","Trend":"triple top","Number":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The "triple top" pattern happens from 2010/04/01 to 2010/05/05. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'time': '2010/3/10', 'price': 96.4}, {'time': '2010/3/11', 'price': 98.8}, {'time': '2010/3/12', 'price': 101.23}, {'time': '2010/3/13', 'price': 98.6}, {'time': '2010/3/14', 'price': 96.5}, {'time': '2010/3/15', 'price': 94.3}, {'time': '2010/3/16', 'price': 98.023}, {'time': '2010/3/17', 'price': 97.25}, {'time': '2010/3/18', 'price': 98.089}, {'time': '2010/3/19', 'price': 98.144}, {'time': '2010/3/20', 'price': 98.899}, {'time': '2010/3/21', 'price': 100.001}, {'time': '2010/3/22', 'price': 102.2}, {'time': '2010/3/23', 'price': 103.7}, {'time': '2010/3/24', 'price': 102.46}, {'time': '2010/3/25', 'price': 99.46}, {'time': '2010/3/26', 'price': 97.01}, {'time': '2010/3/27', 'price': 99.14}, {'time': '2010/3/28', 'price': 100.74}, {'time': '2010/3/29', 'price': 104.58}, {'time': '2010/3/30', 'price': 105.31}, {'time': '2010/3/31', 'price': 107.07}, {'time': '2010/4/1', 'price': 110.13}, {'time': '2010/4/2', 'price': 111.26}, {'time': '2010/4/3', 'price': 113.0}, {'time': '2010/4/4', 'price': 115.8}, {'time': '2010/4/5', 'price': 116.6}, {'time': '2010/4/6', 'price': 117.0}, {'time': '2010/4/7', 'price': 116.7}, {'time': '2010/4/8', 'price': 116.5}, {'time': '2010/4/9', 'price': 116.6}, {'time': '2010/4/10', 'price': 116.7}, {'time': '2010/4/11', 'price': 116.0}, {'time': '2010/4/12', 'price': 115.0}, {'time': '2010/4/13', 'price': 112.9}, {'time': '2010/4/14', 'price': 112.7}, {'time': '2010/4/15', 'price': 113.0}, {'time': '2010/4/16', 'price': 113.2}, {'time': '2010/4/17', 'price': 114.6}, {'time': '2010/4/18', 'price': 115.5}, {'time': '2010/4/19', 'price': 117.8}, {'time': '2010/4/20', 'price': 117.6}, {'time': '2010/4/21', 'price': 116.2}, {'time': '2010/4/22', 'price': 115.2}, {'time': '2010/4/23', 'price': 114.4}, {'time': '2010/4/24', 'price': 113.0}, {'time': '2010/4/25', 'price': 112.8}, {'time': '2010/4/26', 'price': 113.8}, {'time': '2010/4/27', 'price': 116.0}, {'time': '2010/4/28', 'price': 115.5}, {'time': '2010/4/29', 'price': 114.9}, {'time': '2010/4/30', 'price': 114.7}, {'time': '2010/5/1', 'price': 112.2}, {'time': '2010/5/2', 'price': 111.4}, {'time': '2010/5/3', 'price': 110.8}, {'time': '2010/5/4', 'price': 110.9}, {'time': '2010/5/5', 'price': 109.9}, {'time': '2010/5/6', 'price': 106.8}, {'time': '2010/5/7', 'price': 105.5}, {'time': '2010/5/8', 'price': 104.6}, {'time': '2010/5/9', 'price': 106.5}, {'time': '2010/5/10', 'price': 110.5}, {'time': '2010/5/11', 'price': 111.0}, {'time': '2010/5/12', 'price': 110.6}, {'time': '2010/5/13', 'price': 110.2}, {'time': '2010/5/14', 'price': 104.9}, {'time': '2010/5/15', 'price': 105.8}, {'time': '2010/5/16', 'price': 106.6}, {'time': '2010/5/17', 'price': 106.0}, {'time': '2010/5/18', 'price': 105.6}, {'time': '2010/5/19', 'price': 106.0}, {'time': '2010/5/20', 'price': 105.0}, {'time': '2010/5/21', 'price': 106.6}, {'time': '2010/5/22', 'price': 106.9}, {'time': '2010/5/23', 'price': 107.7}, {'time': '2010/5/24', 'price': 110.3}, {'time': '2010/5/25', 'price': 111.5}, {'time': '2010/5/26', 'price': 110.4}, {'time': '2010/5/27', 'price': 107.0}, {'time': '2010/5/28', 'price': 105.5}, {'time': '2010/5/29', 'price': 103.0}]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,11 +561,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="126" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
@@ -561,9 +577,9 @@
     <col min="11" max="11" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -584,12 +600,12 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="88" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="88" customHeight="1">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -604,18 +620,18 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="125" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" ht="125" customHeight="1">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -627,21 +643,21 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="252" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" ht="288">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -653,24 +669,24 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="409" customHeight="1">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -679,21 +695,21 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" ht="409.6">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -702,114 +718,126 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="409.6">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="409.6">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="409.6">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" ht="96">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="409.6">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="D15" s="1"/>
     </row>
   </sheetData>

--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E330D03-381D-BF4F-8C8C-6B7418B7EEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578A9A4F-4866-4541-906F-5768E78880CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9100" yWindow="-28300" windowWidth="32980" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15800" yWindow="1280" windowWidth="21960" windowHeight="19850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,185 +60,218 @@
     <t>[{'Category':'Real GDP','Outdoor recreation':'18.9','U.S. economy':'5.9'},{'Category':'Real Gross Output','Outdoor recreation':'21.8','U.S. economy':'6.3'},{'Category':'Compensation','Outdoor recreation':'16.2','U.S. economy':'7.8'},{'Category':'Compensation','Outdoor recreation':'13.1','U.S. economy':'2.7'}]</t>
   </si>
   <si>
+    <t>In 2023, the sales proportion of NEVs that were subcompact and below declined to 30%, from 61% in 2017. During the same periods of comparison, the mix of compact and midsize-to-large NEVs increased to 70% from 39%, reflecting the upgrade trend in terms of vehicle size.</t>
+  </si>
+  <si>
+    <t>[{'Date': '1999/8/2', 'Close': 2.35}, {'Date': '1999/8/3', 'Close': 2.371875}, {'Date': '1999/8/4', 'Close': 2.210938}, {'Date': '1999/8/5', 'Close': 2.43125}, {'Date': '1999/8/6', 'Close': 2.239063}, {'Date': '1999/8/9', 'Close': 2.1375}, {'Date': '1999/8/10', 'Close': 2.275}, {'Date': '1999/8/11', 'Close': 2.273438}, {'Date': '1999/8/12', 'Close': 2.29375}, {'Date': '1999/8/13', 'Close': 2.435938}, {'Date': '1999/8/16', 'Close': 2.457813}, {'Date': '1999/8/17', 'Close': 2.73125}, {'Date': '1999/8/18', 'Close': 2.828125}, {'Date': '1999/8/19', 'Close': 2.653125}, {'Date': '1999/8/20', 'Close': 2.835938}, {'Date': '1999/8/23', 'Close': 2.959375}, {'Date': '1999/8/24', 'Close': 3.001563}, {'Date': '1999/8/25', 'Close': 3.321875}, {'Date': '1999/8/26', 'Close': 3.214063}, {'Date': '1999/8/27', 'Close': 3.2125}, {'Date': '1999/8/30', 'Close': 2.98125}, {'Date': '1999/8/31', 'Close': 3.109375}, {'Date': '1999/9/1', 'Close': 2.976563}, {'Date': '1999/9/2', 'Close': 3.003125}, {'Date': '1999/9/3', 'Close': 3.121875}, {'Date': '1999/9/7', 'Close': 3.146875}, {'Date': '1999/9/8', 'Close': 3.071875}, {'Date': '1999/9/9', 'Close': 3.18125}, {'Date': '1999/9/10', 'Close': 3.325}, {'Date': '1999/9/13', 'Close': 3.165625}, {'Date': '1999/9/14', 'Close': 3.3}, {'Date': '1999/9/15', 'Close': 3.278125}, {'Date': '1999/9/16', 'Close': 3.2625}, {'Date': '1999/9/17', 'Close': 3.190625}, {'Date': '1999/9/20', 'Close': 3.1375}, {'Date': '1999/9/21', 'Close': 3.1125}, {'Date': '1999/9/22', 'Close': 3.3}, {'Date': '1999/9/23', 'Close': 3.1125}, {'Date': '1999/9/24', 'Close': 3.25}, {'Date': '1999/9/27', 'Close': 3.128125}, {'Date': '1999/9/28', 'Close': 3.29375}, {'Date': '1999/9/29', 'Close': 4.0375}, {'Date': '1999/9/30', 'Close': 3.996875}, {'Date': '1999/10/1', 'Close': 3.8625}, {'Date': '1999/10/4', 'Close': 3.853125}, {'Date': '1999/10/5', 'Close': 3.921875}, {'Date': '1999/10/6', 'Close': 4.121875}, {'Date': '1999/10/7', 'Close': 4.365625}, {'Date': '1999/10/8', 'Close': 4.4625}, {'Date': '1999/10/11', 'Close': 4.41875}, {'Date': '1999/10/12', 'Close': 4.246875}, {'Date': '1999/10/13', 'Close': 3.996875}, {'Date': '1999/10/14', 'Close': 3.979688}, {'Date': '1999/10/15', 'Close': 3.753125}, {'Date': '1999/10/18', 'Close': 3.703125}, {'Date': '1999/10/19', 'Close': 3.83125}, {'Date': '1999/10/20', 'Close': 4.025}, {'Date': '1999/10/21', 'Close': 4.0375}, {'Date': '1999/10/22', 'Close': 3.93125}, {'Date': '1999/10/25', 'Close': 4.1375}, {'Date': '1999/10/26', 'Close': 4.0625}, {'Date': '1999/10/27', 'Close': 3.796875}, {'Date': '1999/10/28', 'Close': 3.55}, {'Date': '1999/10/29', 'Close': 3.53125}, {'Date': '1999/11/1', 'Close': 3.45625}, {'Date': '1999/11/2', 'Close': 3.321875}, {'Date': '1999/11/3', 'Close': 3.290625}, {'Date': '1999/11/4', 'Close': 3.153125}, {'Date': '1999/11/5', 'Close': 3.246875}, {'Date': '1999/11/8', 'Close': 3.9}, {'Date': '1999/11/9', 'Close': 3.540625}, {'Date': '1999/11/10', 'Close': 3.6}, {'Date': '1999/11/11', 'Close': 3.65}, {'Date': '1999/11/12', 'Close': 3.746875}, {'Date': '1999/11/15', 'Close': 3.675}, {'Date': '1999/11/16', 'Close': 3.946875}, {'Date': '1999/11/17', 'Close': 3.825}, {'Date': '1999/11/18', 'Close': 3.896875}, {'Date': '1999/11/19', 'Close': 3.896875}, {'Date': '1999/11/22', 'Close': 4.025}, {'Date': '1999/11/23', 'Close': 4.0875}, {'Date': '1999/11/24', 'Close': 4.3625}, {'Date': '1999/11/26', 'Close': 4.65625}, {'Date': '1999/11/29', 'Close': 4.521875}, {'Date': '1999/11/30', 'Close': 4.253125}, {'Date': '1999/12/1', 'Close': 4.25}, {'Date': '1999/12/2', 'Close': 4.453125}, {'Date': '1999/12/3', 'Close': 4.328125}, {'Date': '1999/12/6', 'Close': 4.3875}, {'Date': '1999/12/7', 'Close': 4.303125}, {'Date': '1999/12/8', 'Close': 4.428125}, {'Date': '1999/12/9', 'Close': 5.18125}, {'Date': '1999/12/10', 'Close': 5.334375}, {'Date': '1999/12/13', 'Close': 5.125}, {'Date': '1999/12/14', 'Close': 4.78125}, {'Date': '1999/12/15', 'Close': 4.825}, {'Date': '1999/12/16', 'Close': 4.74375}, {'Date': '1999/12/17', 'Close': 4.703125}, {'Date': '1999/12/20', 'Close': 4.85}, {'Date': '1999/12/21', 'Close': 4.99375}, {'Date': '1999/12/22', 'Close': 4.884375}, {'Date': '1999/12/23', 'Close': 4.5}, {'Date': '1999/12/27', 'Close': 4.05625}, {'Date': '1999/12/28', 'Close': 4.115625}, {'Date': '1999/12/29', 'Close': 4.175}, {'Date': '1999/12/30', 'Close': 3.953125}, {'Date': '1999/12/31', 'Close': 3.80625}, {'Date': '2000/1/3', 'Close': 4.46875}, {'Date': '2000/1/4', 'Close': 4.096875}, {'Date': '2000/1/5', 'Close': 3.4875}, {'Date': '2000/1/6', 'Close': 3.278125}, {'Date': '2000/1/7', 'Close': 3.478125}, {'Date': '2000/1/10', 'Close': 3.459375}, {'Date': '2000/1/11', 'Close': 3.3375}, {'Date': '2000/1/12', 'Close': 3.178125}, {'Date': '2000/1/13', 'Close': 3.296875}, {'Date': '2000/1/14', 'Close': 3.2125}, {'Date': '2000/1/18', 'Close': 3.20625}, {'Date': '2000/1/19', 'Close': 3.340625}, {'Date': '2000/1/20', 'Close': 3.2375}, {'Date': '2000/1/21', 'Close': 3.103125}, {'Date': '2000/1/24', 'Close': 3.50625}, {'Date': '2000/1/25', 'Close': 3.4625}, {'Date': '2000/1/26', 'Close': 3.240625}, {'Date': '2000/1/27', 'Close': 3.346875}, {'Date': '2000/1/28', 'Close': 3.084375}, {'Date': '2000/1/31', 'Close': 3.228125}, {'Date': '2000/2/1', 'Close': 3.371875}, {'Date': '2000/2/2', 'Close': 3.471875}, {'Date': '2000/2/3', 'Close': 4.209375}, {'Date': '2000/2/4', 'Close': 3.928125}, {'Date': '2000/2/7', 'Close': 3.75}, {'Date': '2000/2/8', 'Close': 4.15625}, {'Date': '2000/2/9', 'Close': 4.0125}, {'Date': '2000/2/10', 'Close': 3.809375}, {'Date': '2000/2/11', 'Close': 3.809375}, {'Date': '2000/2/14', 'Close': 3.721875}, {'Date': '2000/2/15', 'Close': 3.690625}, {'Date': '2000/2/16', 'Close': 3.534375}, {'Date': '2000/2/17', 'Close': 3.45}, {'Date': '2000/2/18', 'Close': 3.2375}, {'Date': '2000/2/22', 'Close': 3.178125}, {'Date': '2000/2/23', 'Close': 3.521875}, {'Date': '2000/2/24', 'Close': 3.421875}, {'Date': '2000/2/25', 'Close': 3.45625}, {'Date': '2000/2/28', 'Close': 3.2875}, {'Date': '2000/2/29', 'Close': 3.44375}, {'Date': '2000/3/1', 'Close': 3.29375}, {'Date': '2000/3/2', 'Close': 3.128125}, {'Date': '2000/3/3', 'Close': 3.125}, {'Date': '2000/3/6', 'Close': 3.196875}, {'Date': '2000/3/7', 'Close': 3.175}, {'Date': '2000/3/8', 'Close': 3.18125}, {'Date': '2000/3/9', 'Close': 3.440625}, {'Date': '2000/3/10', 'Close': 3.34375}, {'Date': '2000/3/13', 'Close': 3.265625}, {'Date': '2000/3/14', 'Close': 3.28125}, {'Date': '2000/3/15', 'Close': 3.1875}, {'Date': '2000/3/16', 'Close': 3.3125}, {'Date': '2000/3/17', 'Close': 3.240625}, {'Date': '2000/3/20', 'Close': 3.209375}, {'Date': '2000/3/21', 'Close': 3.61875}, {'Date': '2000/3/22', 'Close': 3.534375}, {'Date': '2000/3/23', 'Close': 3.384375}, {'Date': '2000/3/24', 'Close': 3.634375}, {'Date': '2000/3/27', 'Close': 3.65625}, {'Date': '2000/3/28', 'Close': 3.50625}, {'Date': '2000/3/29', 'Close': 3.3125}, {'Date': '2000/3/30', 'Close': 3.325}, {'Date': '2000/3/31', 'Close': 3.35}, {'Date': '2000/4/3', 'Close': 3.178125}, {'Date': '2000/4/4', 'Close': 3.196875}, {'Date': '2000/4/5', 'Close': 3.109375}, {'Date': '2000/4/6', 'Close': 3.2125}, {'Date': '2000/4/7', 'Close': 3.378125}, {'Date': '2000/4/10', 'Close': 3.16875}, {'Date': '2000/4/11', 'Close': 3.16875}, {'Date': '2000/4/12', 'Close': 2.81875}, {'Date': '2000/4/13', 'Close': 2.4}, {'Date': '2000/4/14', 'Close': 2.34375}, {'Date': '2000/4/17', 'Close': 2.353125}, {'Date': '2000/4/18', 'Close': 2.746875}, {'Date': '2000/4/19', 'Close': 2.671875}, {'Date': '2000/4/20', 'Close': 2.61875}, {'Date': '2000/4/24', 'Close': 2.490625}, {'Date': '2000/4/25', 'Close': 2.621875}, {'Date': '2000/4/26', 'Close': 2.675}, {'Date': '2000/4/27', 'Close': 2.64375}, {'Date': '2000/4/28', 'Close': 2.759375}, {'Date': '2000/5/1', 'Close': 2.996875}, {'Date': '2000/5/2', 'Close': 2.80625}, {'Date': '2000/5/3', 'Close': 2.70625}, {'Date': '2000/5/4', 'Close': 2.753125}, {'Date': '2000/5/5', 'Close': 2.925}, {'Date': '2000/5/8', 'Close': 2.800781}, {'Date': '2000/5/9', 'Close': 2.8125}, {'Date': '2000/5/10', 'Close': 2.665625}, {'Date': '2000/5/11', 'Close': 2.74375}, {'Date': '2000/5/12', 'Close': 2.6875}, {'Date': '2000/5/15', 'Close': 2.803125}, {'Date': '2000/5/16', 'Close': 2.953125}, {'Date': '2000/5/17', 'Close': 3.05}, {'Date': '2000/5/18', 'Close': 2.76875}, {'Date': '2000/5/19', 'Close': 2.63125}, {'Date': '2000/5/22', 'Close': 2.59375}, {'Date': '2000/5/23', 'Close': 2.334375}, {'Date': '2000/5/24', 'Close': 2.428125}, {'Date': '2000/5/25', 'Close': 2.275}, {'Date': '2000/5/26', 'Close': 2.325}, {'Date': '2000/5/30', 'Close': 2.5875}, {'Date': '2000/5/31', 'Close': 2.415625}]</t>
+  </si>
+  <si>
+    <t>pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head and shoulder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cup with handle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rouding bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uptrend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">down trend </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triple top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The object in unit 1 is "Mini- and subcompact size". Its compact size goes from '0.61' in 2017 to '0.30' in 2023. The subject in unit 2 is the combination of  "Compact Size" and  "Midsize to large". Its sompact size goes from the combination from "0.35"+"0.04" in 2017 to "0.30+0.40" in 2023.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The corresponding value for object "Netherlands" is "43.1". The corresponding value for object "France" is "35.3".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"Netherlands","BeginIndex":"1","EndIndex":"1","Trend":"None",Number:"43.1"},{"ObjectName":"France","BeginIndex":"2","EndIndex":"2","Trend":"None","Number":"35.3"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result 模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":"None","BeginIndex":"1","EndIndex":"1","Trend":"None","Number":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"Real GDP for the outdoor recreation economy", "BeginIndex”:"0","EndIndex":"0","Trend":"increase","Number":"18.9"},{"ObjectName":"U.S. economy", "BeginIndex":"0","EndIndex":"0"，"Trend":"rebound","Number":"5.9"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflation-adjusted ("real") GDP for the outdoor recreation economy increased 18.9 percent in 2021, compared with a 5.9 percent increase for the overall U.S. economy, reflecting a rebound in outdoor recreation after the decrease of 21.6 percent in 2020. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The first object is "Inflation-adjusted ("real") GDP for the outdoor recreation economy" and its value is 18.9. The second object is "U.S. economy" and its value is 5.9.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There exists a "head and shoulder" pattern on the Amazon stock moving averages from 1999/09/27 to 2000/02/22.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":"Close","BeginIndex":"39","EndIndex":"141","Trend":"Head and shoulder","Number":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The "head and shoulder" pattern consists of three rises and falls from three localized highs. The high point in the center is higher than the other two. This pattern is around from '1999/09/27' to '2000/02/22' and the middle high point exist on '1999/12/09'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":"Close","BeginIndex":"54","EndIndex":"100","Trend":"double bottom","Number":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The "double bottom" pattern has two lows. The first low in the data is at 2016/01/20 , and the second low is at 2016/02/11.  This pattern is around from '2015/12/29' to '2016/03/07'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The "double bottom" pattern happens on the 'Dow Janes Industrial (.DJI) from 2015/12/29 to 2016/03/07.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>From 2017/05/17 to 2018/01/26, the 'Dow Janes Industrial (.DJI)' is on an uptrend, which drew a much attention form analysts.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Date': '12-Oct-15', 'Close': 17131.86}, {'Date': '13-Oct-15', 'Close': 17081.89}, {'Date': '14-Oct-15', 'Close': 16924.75}, {'Date': '15-Oct-15', 'Close': 17141.75}, {'Date': '16-Oct-15', 'Close': 17215.97}, {'Date': '19-Oct-15', 'Close': 17230.54}, {'Date': '20-Oct-15', 'Close': 17217.11}, {'Date': '21-Oct-15', 'Close': 17168.61}, {'Date': '22-Oct-15', 'Close': 17489.16}, {'Date': '23-Oct-15', 'Close': 17646.7}, {'Date': '26-Oct-15', 'Close': 17623.05}, {'Date': '27-Oct-15', 'Close': 17581.43}, {'Date': '28-Oct-15', 'Close': 17779.52}, {'Date': '29-Oct-15', 'Close': 17755.8}, {'Date': '30-Oct-15', 'Close': 17663.54}, {'Date': '2-Nov-15', 'Close': 17828.76}, {'Date': '3-Nov-15', 'Close': 17918.15}, {'Date': '4-Nov-15', 'Close': 17867.58}, {'Date': '5-Nov-15', 'Close': 17863.43}, {'Date': '6-Nov-15', 'Close': 17910.33}, {'Date': '9-Nov-15', 'Close': 17730.48}, {'Date': '10-Nov-15', 'Close': 17758.21}, {'Date': '11-Nov-15', 'Close': 17702.22}, {'Date': '12-Nov-15', 'Close': 17448.07}, {'Date': '13-Nov-15', 'Close': 17245.24}, {'Date': '16-Nov-15', 'Close': 17483.01}, {'Date': '17-Nov-15', 'Close': 17489.5}, {'Date': '18-Nov-15', 'Close': 17737.16}, {'Date': '19-Nov-15', 'Close': 17732.75}, {'Date': '20-Nov-15', 'Close': 17823.81}, {'Date': '23-Nov-15', 'Close': 17792.68}, {'Date': '24-Nov-15', 'Close': 17812.19}, {'Date': '25-Nov-15', 'Close': 17813.39}, {'Date': '27-Nov-15', 'Close': 17813.39}, {'Date': '30-Nov-15', 'Close': 17719.92}, {'Date': '1-Dec-15', 'Close': 17888.35}, {'Date': '2-Dec-15', 'Close': 17729.68}, {'Date': '3-Dec-15', 'Close': 17477.67}, {'Date': '4-Dec-15', 'Close': 17847.63}, {'Date': '7-Dec-15', 'Close': 17730.51}, {'Date': '8-Dec-15', 'Close': 17568.0}, {'Date': '9-Dec-15', 'Close': 17492.3}, {'Date': '10-Dec-15', 'Close': 17574.75}, {'Date': '11-Dec-15', 'Close': 17265.21}, {'Date': '14-Dec-15', 'Close': 17368.5}, {'Date': '15-Dec-15', 'Close': 17524.91}, {'Date': '16-Dec-15', 'Close': 17749.09}, {'Date': '17-Dec-15', 'Close': 17495.84}, {'Date': '18-Dec-15', 'Close': 17128.55}, {'Date': '21-Dec-15', 'Close': 17251.62}, {'Date': '22-Dec-15', 'Close': 17417.27}, {'Date': '23-Dec-15', 'Close': 17602.61}, {'Date': '24-Dec-15', 'Close': 17552.17}, {'Date': '28-Dec-15', 'Close': 17528.27}, {'Date': '29-Dec-15', 'Close': 17720.98}, {'Date': '30-Dec-15', 'Close': 17603.87}, {'Date': '31-Dec-15', 'Close': 17425.03}, {'Date': '4-Jan-16', 'Close': 17148.94}, {'Date': '5-Jan-16', 'Close': 17158.66}, {'Date': '6-Jan-16', 'Close': 16906.51}, {'Date': '7-Jan-16', 'Close': 16514.1}, {'Date': '8-Jan-16', 'Close': 16346.45}, {'Date': '11-Jan-16', 'Close': 16398.57}, {'Date': '12-Jan-16', 'Close': 16516.22}, {'Date': '13-Jan-16', 'Close': 16151.41}, {'Date': '14-Jan-16', 'Close': 16379.05}, {'Date': '15-Jan-16', 'Close': 15988.08}, {'Date': '19-Jan-16', 'Close': 16016.02}, {'Date': '20-Jan-16', 'Close': 15766.74}, {'Date': '21-Jan-16', 'Close': 15882.68}, {'Date': '22-Jan-16', 'Close': 16093.51}, {'Date': '25-Jan-16', 'Close': 15885.22}, {'Date': '26-Jan-16', 'Close': 16167.23}, {'Date': '27-Jan-16', 'Close': 15944.46}, {'Date': '28-Jan-16', 'Close': 16069.64}, {'Date': '29-Jan-16', 'Close': 16466.3}, {'Date': '1-Feb-16', 'Close': 16449.18}, {'Date': '2-Feb-16', 'Close': 16153.54}, {'Date': '3-Feb-16', 'Close': 16336.66}, {'Date': '4-Feb-16', 'Close': 16416.58}, {'Date': '5-Feb-16', 'Close': 16204.97}, {'Date': '8-Feb-16', 'Close': 16027.05}, {'Date': '9-Feb-16', 'Close': 16014.38}, {'Date': '10-Feb-16', 'Close': 15914.74}, {'Date': '11-Feb-16', 'Close': 15660.18}, {'Date': '12-Feb-16', 'Close': 15973.84}, {'Date': '16-Feb-16', 'Close': 16196.41}, {'Date': '17-Feb-16', 'Close': 16453.83}, {'Date': '18-Feb-16', 'Close': 16413.43}, {'Date': '19-Feb-16', 'Close': 16391.99}, {'Date': '22-Feb-16', 'Close': 16620.66}, {'Date': '23-Feb-16', 'Close': 16431.78}, {'Date': '24-Feb-16', 'Close': 16484.99}, {'Date': '25-Feb-16', 'Close': 16697.29}, {'Date': '26-Feb-16', 'Close': 16639.97}, {'Date': '29-Feb-16', 'Close': 16516.5}, {'Date': '1-Mar-16', 'Close': 16865.08}, {'Date': '2-Mar-16', 'Close': 16899.32}, {'Date': '3-Mar-16', 'Close': 16943.9}, {'Date': '4-Mar-16', 'Close': 17006.77}, {'Date': '7-Mar-16', 'Close': 17073.95}, {'Date': '8-Mar-16', 'Close': 16964.1}, {'Date': '9-Mar-16', 'Close': 17000.36}, {'Date': '10-Mar-16', 'Close': 16995.13}, {'Date': '11-Mar-16', 'Close': 17213.31}, {'Date': '14-Mar-16', 'Close': 17229.13}, {'Date': '15-Mar-16', 'Close': 17251.53}, {'Date': '16-Mar-16', 'Close': 17325.76}, {'Date': '17-Mar-16', 'Close': 17481.49}, {'Date': '18-Mar-16', 'Close': 17602.3}, {'Date': '21-Mar-16', 'Close': 17623.87}, {'Date': '22-Mar-16', 'Close': 17582.57}, {'Date': '23-Mar-16', 'Close': 17502.59}, {'Date': '24-Mar-16', 'Close': 17515.73}, {'Date': '28-Mar-16', 'Close': 17535.39}, {'Date': '29-Mar-16', 'Close': 17633.11}, {'Date': '30-Mar-16', 'Close': 17716.66}, {'Date': '31-Mar-16', 'Close': 17685.09}, {'Date': '1-Apr-16', 'Close': 17792.75}, {'Date': '4-Apr-16', 'Close': 17737.0}, {'Date': '5-Apr-16', 'Close': 17603.32}, {'Date': '6-Apr-16', 'Close': 17716.05}, {'Date': '7-Apr-16', 'Close': 17541.96}, {'Date': '8-Apr-16', 'Close': 17576.96}, {'Date': '11-Apr-16', 'Close': 17556.41}, {'Date': '12-Apr-16', 'Close': 17721.25}, {'Date': '13-Apr-16', 'Close': 17908.28}, {'Date': '14-Apr-16', 'Close': 17926.43}, {'Date': '15-Apr-16', 'Close': 17897.46}, {'Date': '18-Apr-16', 'Close': 18004.16}, {'Date': '19-Apr-16', 'Close': 18053.6}, {'Date': '20-Apr-16', 'Close': 18096.27}, {'Date': '21-Apr-16', 'Close': 17982.52}, {'Date': '22-Apr-16', 'Close': 18003.75}, {'Date': '25-Apr-16', 'Close': 17977.24}, {'Date': '26-Apr-16', 'Close': 17990.32}, {'Date': '27-Apr-16', 'Close': 18041.55}, {'Date': '28-Apr-16', 'Close': 17830.76}, {'Date': '29-Apr-16', 'Close': 17773.64}, {'Date': '2-May-16', 'Close': 17891.16}, {'Date': '3-May-16', 'Close': 17750.91}, {'Date': '4-May-16', 'Close': 17651.26}, {'Date': '5-May-16', 'Close': 17660.71}, {'Date': '6-May-16', 'Close': 17740.63}, {'Date': '9-May-16', 'Close': 17705.91}, {'Date': '10-May-16', 'Close': 17928.35}, {'Date': '11-May-16', 'Close': 17711.12}, {'Date': '12-May-16', 'Close': 17720.5}, {'Date': '13-May-16', 'Close': 17535.32}, {'Date': '16-May-16', 'Close': 17710.71}, {'Date': '17-May-16', 'Close': 17529.98}, {'Date': '18-May-16', 'Close': 17526.62}, {'Date': '19-May-16', 'Close': 17435.4}, {'Date': '20-May-16', 'Close': 17500.94}, {'Date': '23-May-16', 'Close': 17492.93}, {'Date': '24-May-16', 'Close': 17706.05}, {'Date': '25-May-16', 'Close': 17851.51}, {'Date': '26-May-16', 'Close': 17828.29}, {'Date': '27-May-16', 'Close': 17873.22}, {'Date': '31-May-16', 'Close': 17787.2}, {'Date': '1-Jun-16', 'Close': 17789.67}, {'Date': '2-Jun-16', 'Close': 17838.56}, {'Date': '3-Jun-16', 'Close': 17807.06}, {'Date': '6-Jun-16', 'Close': 17920.33}, {'Date': '7-Jun-16', 'Close': 17938.28}, {'Date': '8-Jun-16', 'Close': 18005.05}, {'Date': '9-Jun-16', 'Close': 17985.19}, {'Date': '10-Jun-16', 'Close': 17865.34}, {'Date': '13-Jun-16', 'Close': 17732.48}, {'Date': '14-Jun-16', 'Close': 17674.82}, {'Date': '15-Jun-16', 'Close': 17640.17}, {'Date': '16-Jun-16', 'Close': 17733.1}, {'Date': '17-Jun-16', 'Close': 17675.16}, {'Date': '20-Jun-16', 'Close': 17804.87}, {'Date': '21-Jun-16', 'Close': 17829.73}, {'Date': '22-Jun-16', 'Close': 17780.83}, {'Date': '23-Jun-16', 'Close': 18011.07}, {'Date': '24-Jun-16', 'Close': 17400.75}, {'Date': '27-Jun-16', 'Close': 17140.24}, {'Date': '28-Jun-16', 'Close': 17409.72}, {'Date': '29-Jun-16', 'Close': 17694.68}, {'Date': '30-Jun-16', 'Close': 17929.99}, {'Date': '1-Jul-16', 'Close': 17949.37}, {'Date': '5-Jul-16', 'Close': 17840.62}, {'Date': '6-Jul-16', 'Close': 17918.62}, {'Date': '7-Jul-16', 'Close': 17895.88}, {'Date': '8-Jul-16', 'Close': 18146.74}, {'Date': '11-Jul-16', 'Close': 18226.93}, {'Date': '12-Jul-16', 'Close': 18347.67}, {'Date': '13-Jul-16', 'Close': 18372.12}, {'Date': '14-Jul-16', 'Close': 18506.41}, {'Date': '15-Jul-16', 'Close': 18516.55}, {'Date': '18-Jul-16', 'Close': 18533.05}, {'Date': '19-Jul-16', 'Close': 18559.01}, {'Date': '20-Jul-16', 'Close': 18595.03}, {'Date': '21-Jul-16', 'Close': 18517.23}, {'Date': '22-Jul-16', 'Close': 18570.85}, {'Date': '25-Jul-16', 'Close': 18493.06}, {'Date': '26-Jul-16', 'Close': 18473.75}, {'Date': '27-Jul-16', 'Close': 18472.17}, {'Date': '28-Jul-16', 'Close': 18456.35}, {'Date': '29-Jul-16', 'Close': 18432.24}, {'Date': '1-Aug-16', 'Close': 18404.51}, {'Date': '2-Aug-16', 'Close': 18313.77}, {'Date': '3-Aug-16', 'Close': 18355.0}, {'Date': '4-Aug-16', 'Close': 18352.05}, {'Date': '5-Aug-16', 'Close': 18543.53}, {'Date': '8-Aug-16', 'Close': 18529.29}, {'Date': '9-Aug-16', 'Close': 18533.05}, {'Date': '10-Aug-16', 'Close': 18495.66}, {'Date': '11-Aug-16', 'Close': 18613.52}, {'Date': '12-Aug-16', 'Close': 18576.47}, {'Date': '15-Aug-16', 'Close': 18636.05}, {'Date': '16-Aug-16', 'Close': 18552.02}, {'Date': '17-Aug-16', 'Close': 18573.94}, {'Date': '18-Aug-16', 'Close': 18597.7}, {'Date': '19-Aug-16', 'Close': 18552.57}, {'Date': '22-Aug-16', 'Close': 18529.42}, {'Date': '23-Aug-16', 'Close': 18547.3}, {'Date': '24-Aug-16', 'Close': 18481.48}, {'Date': '25-Aug-16', 'Close': 18448.41}, {'Date': '26-Aug-16', 'Close': 18395.4}, {'Date': '29-Aug-16', 'Close': 18502.99}, {'Date': '30-Aug-16', 'Close': 18454.3}, {'Date': '31-Aug-16', 'Close': 18400.88}, {'Date': '1-Sep-16', 'Close': 18419.3}, {'Date': '2-Sep-16', 'Close': 18491.96}, {'Date': '6-Sep-16', 'Close': 18538.12}, {'Date': '7-Sep-16', 'Close': 18526.14}, {'Date': '8-Sep-16', 'Close': 18479.91}, {'Date': '9-Sep-16', 'Close': 18085.45}, {'Date': '12-Sep-16', 'Close': 18325.07}, {'Date': '13-Sep-16', 'Close': 18066.75}, {'Date': '14-Sep-16', 'Close': 18034.77}, {'Date': '15-Sep-16', 'Close': 18212.48}, {'Date': '16-Sep-16', 'Close': 18123.8}, {'Date': '19-Sep-16', 'Close': 18120.17}, {'Date': '20-Sep-16', 'Close': 18129.96}, {'Date': '21-Sep-16', 'Close': 18293.7}, {'Date': '22-Sep-16', 'Close': 18392.46}, {'Date': '23-Sep-16', 'Close': 18261.45}, {'Date': '26-Sep-16', 'Close': 18094.83}, {'Date': '27-Sep-16', 'Close': 18228.3}, {'Date': '28-Sep-16', 'Close': 18339.24}, {'Date': '29-Sep-16', 'Close': 18143.45}, {'Date': '30-Sep-16', 'Close': 18308.15}, {'Date': '3-Oct-16', 'Close': 18253.85}, {'Date': '4-Oct-16', 'Close': 18168.45}, {'Date': '5-Oct-16', 'Close': 18281.03}, {'Date': '6-Oct-16', 'Close': 18268.5}, {'Date': '7-Oct-16', 'Close': 18240.49}, {'Date': '10-Oct-16', 'Close': 18329.04}, {'Date': '11-Oct-16', 'Close': 18128.66}, {'Date': '12-Oct-16', 'Close': 18144.2}, {'Date': '13-Oct-16', 'Close': 18098.94}, {'Date': '14-Oct-16', 'Close': 18138.38}, {'Date': '17-Oct-16', 'Close': 18086.4}, {'Date': '18-Oct-16', 'Close': 18161.94}, {'Date': '19-Oct-16', 'Close': 18202.62}, {'Date': '20-Oct-16', 'Close': 18162.35}, {'Date': '21-Oct-16', 'Close': 18145.71}, {'Date': '24-Oct-16', 'Close': 18223.03}, {'Date': '25-Oct-16', 'Close': 18169.27}, {'Date': '26-Oct-16', 'Close': 18199.33}, {'Date': '27-Oct-16', 'Close': 18169.68}, {'Date': '28-Oct-16', 'Close': 18161.19}, {'Date': '31-Oct-16', 'Close': 18142.42}, {'Date': '1-Nov-16', 'Close': 18037.1}, {'Date': '2-Nov-16', 'Close': 17959.64}, {'Date': '3-Nov-16', 'Close': 17930.67}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Date': '27-Jan-17', 'Close': '20,093.78'}, {'Date': '30-Jan-17', 'Close': '19,971.13'}, {'Date': '31-Jan-17', 'Close': '19,864.09'}, {'Date': '1-Feb-17', 'Close': '19,890.94'}, {'Date': '2-Feb-17', 'Close': '19,884.91'}, {'Date': '3-Feb-17', 'Close': '20,071.46'}, {'Date': '6-Feb-17', 'Close': '20,052.42'}, {'Date': '7-Feb-17', 'Close': '20,090.29'}, {'Date': '8-Feb-17', 'Close': '20,054.34'}, {'Date': '9-Feb-17', 'Close': '20,172.40'}, {'Date': '10-Feb-17', 'Close': '20,269.37'}, {'Date': '13-Feb-17', 'Close': '20,412.16'}, {'Date': '14-Feb-17', 'Close': '20,504.41'}, {'Date': '15-Feb-17', 'Close': '20,611.86'}, {'Date': '16-Feb-17', 'Close': '20,619.77'}, {'Date': '17-Feb-17', 'Close': '20,624.05'}, {'Date': '21-Feb-17', 'Close': '20,743.00'}, {'Date': '22-Feb-17', 'Close': '20,775.60'}, {'Date': '23-Feb-17', 'Close': '20,810.32'}, {'Date': '24-Feb-17', 'Close': '20,821.76'}, {'Date': '27-Feb-17', 'Close': '20,837.44'}, {'Date': '28-Feb-17', 'Close': '20,812.24'}, {'Date': '1-Mar-17', 'Close': '21,115.55'}, {'Date': '2-Mar-17', 'Close': '21,002.97'}, {'Date': '3-Mar-17', 'Close': '21,005.71'}, {'Date': '6-Mar-17', 'Close': '20,954.34'}, {'Date': '7-Mar-17', 'Close': '20,924.76'}, {'Date': '8-Mar-17', 'Close': '20,855.73'}, {'Date': '9-Mar-17', 'Close': '20,858.19'}, {'Date': '10-Mar-17', 'Close': '20,902.98'}, {'Date': '13-Mar-17', 'Close': '20,881.48'}, {'Date': '14-Mar-17', 'Close': '20,837.37'}, {'Date': '15-Mar-17', 'Close': '20,950.10'}, {'Date': '16-Mar-17', 'Close': '20,934.55'}, {'Date': '17-Mar-17', 'Close': '20,914.62'}, {'Date': '20-Mar-17', 'Close': '20,905.86'}, {'Date': '21-Mar-17', 'Close': '20,668.01'}, {'Date': '22-Mar-17', 'Close': '20,661.30'}, {'Date': '23-Mar-17', 'Close': '20,656.58'}, {'Date': '24-Mar-17', 'Close': '20,596.72'}, {'Date': '27-Mar-17', 'Close': '20,550.98'}, {'Date': '28-Mar-17', 'Close': '20,701.50'}, {'Date': '29-Mar-17', 'Close': '20,659.32'}, {'Date': '30-Mar-17', 'Close': '20,728.49'}, {'Date': '31-Mar-17', 'Close': '20,663.22'}, {'Date': '3-Apr-17', 'Close': '20,650.21'}, {'Date': '4-Apr-17', 'Close': '20,689.24'}, {'Date': '5-Apr-17', 'Close': '20,648.15'}, {'Date': '6-Apr-17', 'Close': '20,662.95'}, {'Date': '7-Apr-17', 'Close': '20,656.10'}, {'Date': '10-Apr-17', 'Close': '20,658.02'}, {'Date': '11-Apr-17', 'Close': '20,651.30'}, {'Date': '12-Apr-17', 'Close': '20,591.86'}, {'Date': '13-Apr-17', 'Close': '20,453.25'}, {'Date': '17-Apr-17', 'Close': '20,636.92'}, {'Date': '18-Apr-17', 'Close': '20,523.28'}, {'Date': '19-Apr-17', 'Close': '20,404.49'}, {'Date': '20-Apr-17', 'Close': '20,578.71'}, {'Date': '21-Apr-17', 'Close': '20,547.76'}, {'Date': '24-Apr-17', 'Close': '20,763.89'}, {'Date': '25-Apr-17', 'Close': '20,996.12'}, {'Date': '26-Apr-17', 'Close': '20,975.09'}, {'Date': '27-Apr-17', 'Close': '20,981.33'}, {'Date': '28-Apr-17', 'Close': '20,940.51'}, {'Date': '1-May-17', 'Close': '20,913.46'}, {'Date': '2-May-17', 'Close': '20,949.89'}, {'Date': '3-May-17', 'Close': '20,957.90'}, {'Date': '4-May-17', 'Close': '20,951.47'}, {'Date': '5-May-17', 'Close': '21,006.94'}, {'Date': '8-May-17', 'Close': '21,012.28'}, {'Date': '9-May-17', 'Close': '20,975.78'}, {'Date': '10-May-17', 'Close': '20,943.11'}, {'Date': '11-May-17', 'Close': '20,919.42'}, {'Date': '12-May-17', 'Close': '20,896.61'}, {'Date': '15-May-17', 'Close': '20,981.94'}, {'Date': '16-May-17', 'Close': '20,979.75'}, {'Date': '17-May-17', 'Close': '20,606.93'}, {'Date': '18-May-17', 'Close': '20,663.02'}, {'Date': '19-May-17', 'Close': '20,804.84'}, {'Date': '22-May-17', 'Close': '20,894.83'}, {'Date': '23-May-17', 'Close': '20,937.91'}, {'Date': '24-May-17', 'Close': '21,012.42'}, {'Date': '25-May-17', 'Close': '21,082.95'}, {'Date': '26-May-17', 'Close': '21,080.28'}, {'Date': '30-May-17', 'Close': '21,029.47'}, {'Date': '31-May-17', 'Close': '21,008.65'}, {'Date': '1-Jun-17', 'Close': '21,144.18'}, {'Date': '2-Jun-17', 'Close': '21,206.29'}, {'Date': '5-Jun-17', 'Close': '21,184.04'}, {'Date': '6-Jun-17', 'Close': '21,136.23'}, {'Date': '7-Jun-17', 'Close': '21,173.69'}, {'Date': '8-Jun-17', 'Close': '21,182.53'}, {'Date': '9-Jun-17', 'Close': '21,271.97'}, {'Date': '12-Jun-17', 'Close': '21,235.67'}, {'Date': '13-Jun-17', 'Close': '21,328.47'}, {'Date': '14-Jun-17', 'Close': '21,374.56'}, {'Date': '15-Jun-17', 'Close': '21,359.90'}, {'Date': '16-Jun-17', 'Close': '21,384.28'}, {'Date': '19-Jun-17', 'Close': '21,528.99'}, {'Date': '20-Jun-17', 'Close': '21,467.14'}, {'Date': '21-Jun-17', 'Close': '21,410.03'}, {'Date': '22-Jun-17', 'Close': '21,397.29'}, {'Date': '23-Jun-17', 'Close': '21,394.76'}, {'Date': '26-Jun-17', 'Close': '21,409.55'}, {'Date': '27-Jun-17', 'Close': '21,310.66'}, {'Date': '28-Jun-17', 'Close': '21,454.61'}, {'Date': '29-Jun-17', 'Close': '21,287.03'}, {'Date': '30-Jun-17', 'Close': '21,349.63'}, {'Date': '3-Jul-17', 'Close': '21,479.27'}, {'Date': '5-Jul-17', 'Close': '21,478.17'}, {'Date': '6-Jul-17', 'Close': '21,320.04'}, {'Date': '7-Jul-17', 'Close': '21,414.34'}, {'Date': '10-Jul-17', 'Close': '21,408.52'}, {'Date': '11-Jul-17', 'Close': '21,409.07'}, {'Date': '12-Jul-17', 'Close': '21,532.14'}, {'Date': '13-Jul-17', 'Close': '21,553.09'}, {'Date': '14-Jul-17', 'Close': '21,637.74'}, {'Date': '17-Jul-17', 'Close': '21,629.72'}, {'Date': '18-Jul-17', 'Close': '21,574.73'}, {'Date': '19-Jul-17', 'Close': '21,640.75'}, {'Date': '20-Jul-17', 'Close': '21,611.78'}, {'Date': '21-Jul-17', 'Close': '21,580.07'}, {'Date': '24-Jul-17', 'Close': '21,513.17'}, {'Date': '25-Jul-17', 'Close': '21,613.43'}, {'Date': '26-Jul-17', 'Close': '21,711.01'}, {'Date': '27-Jul-17', 'Close': '21,796.55'}, {'Date': '28-Jul-17', 'Close': '21,830.31'}, {'Date': '31-Jul-17', 'Close': '21,891.12'}, {'Date': '1-Aug-17', 'Close': '21,963.92'}, {'Date': '2-Aug-17', 'Close': '22,016.24'}, {'Date': '3-Aug-17', 'Close': '22,026.10'}, {'Date': '4-Aug-17', 'Close': '22,092.81'}, {'Date': '7-Aug-17', 'Close': '22,118.42'}, {'Date': '8-Aug-17', 'Close': '22,085.34'}, {'Date': '9-Aug-17', 'Close': '22,048.70'}, {'Date': '10-Aug-17', 'Close': '21,844.01'}, {'Date': '11-Aug-17', 'Close': '21,858.32'}, {'Date': '14-Aug-17', 'Close': '21,993.71'}, {'Date': '15-Aug-17', 'Close': '21,998.99'}, {'Date': '16-Aug-17', 'Close': '22,024.87'}, {'Date': '17-Aug-17', 'Close': '21,750.73'}, {'Date': '18-Aug-17', 'Close': '21,674.51'}, {'Date': '21-Aug-17', 'Close': '21,703.75'}, {'Date': '22-Aug-17', 'Close': '21,899.89'}, {'Date': '23-Aug-17', 'Close': '21,812.09'}, {'Date': '24-Aug-17', 'Close': '21,783.40'}, {'Date': '25-Aug-17', 'Close': '21,813.67'}, {'Date': '28-Aug-17', 'Close': '21,808.40'}, {'Date': '29-Aug-17', 'Close': '21,865.37'}, {'Date': '30-Aug-17', 'Close': '21,892.43'}, {'Date': '31-Aug-17', 'Close': '21,948.10'}, {'Date': '1-Sep-17', 'Close': '21,987.56'}, {'Date': '5-Sep-17', 'Close': '21,753.31'}, {'Date': '6-Sep-17', 'Close': '21,807.64'}, {'Date': '7-Sep-17', 'Close': '21,784.78'}, {'Date': '8-Sep-17', 'Close': '21,797.79'}, {'Date': '11-Sep-17', 'Close': '22,057.37'}, {'Date': '12-Sep-17', 'Close': '22,118.86'}, {'Date': '13-Sep-17', 'Close': '22,158.18'}, {'Date': '14-Sep-17', 'Close': '22,203.48'}, {'Date': '15-Sep-17', 'Close': '22,268.34'}, {'Date': '18-Sep-17', 'Close': '22,331.35'}, {'Date': '19-Sep-17', 'Close': '22,370.80'}, {'Date': '20-Sep-17', 'Close': '22,412.59'}, {'Date': '21-Sep-17', 'Close': '22,359.23'}, {'Date': '22-Sep-17', 'Close': '22,349.59'}, {'Date': '25-Sep-17', 'Close': '22,296.09'}, {'Date': '26-Sep-17', 'Close': '22,284.32'}, {'Date': '27-Sep-17', 'Close': '22,340.71'}, {'Date': '28-Sep-17', 'Close': '22,381.20'}, {'Date': '29-Sep-17', 'Close': '22,405.09'}, {'Date': '2-Oct-17', 'Close': '22,557.60'}, {'Date': '3-Oct-17', 'Close': '22,641.67'}, {'Date': '4-Oct-17', 'Close': '22,661.64'}, {'Date': '5-Oct-17', 'Close': '22,775.39'}, {'Date': '6-Oct-17', 'Close': '22,773.67'}, {'Date': '9-Oct-17', 'Close': '22,761.07'}, {'Date': '10-Oct-17', 'Close': '22,830.68'}, {'Date': '11-Oct-17', 'Close': '22,872.89'}, {'Date': '12-Oct-17', 'Close': '22,841.01'}, {'Date': '13-Oct-17', 'Close': '22,871.72'}, {'Date': '16-Oct-17', 'Close': '22,956.96'}, {'Date': '17-Oct-17', 'Close': '22,997.44'}, {'Date': '18-Oct-17', 'Close': '23,157.60'}, {'Date': '19-Oct-17', 'Close': '23,163.04'}, {'Date': '20-Oct-17', 'Close': '23,328.63'}, {'Date': '23-Oct-17', 'Close': '23,273.96'}, {'Date': '24-Oct-17', 'Close': '23,441.76'}, {'Date': '25-Oct-17', 'Close': '23,329.46'}, {'Date': '26-Oct-17', 'Close': '23,400.86'}, {'Date': '27-Oct-17', 'Close': '23,434.19'}, {'Date': '30-Oct-17', 'Close': '23,348.74'}, {'Date': '31-Oct-17', 'Close': '23,377.24'}, {'Date': '1-Nov-17', 'Close': '23,435.01'}, {'Date': '2-Nov-17', 'Close': '23,516.26'}, {'Date': '3-Nov-17', 'Close': '23,539.19'}, {'Date': '6-Nov-17', 'Close': '23,548.42'}, {'Date': '7-Nov-17', 'Close': '23,557.23'}, {'Date': '8-Nov-17', 'Close': '23,563.36'}, {'Date': '9-Nov-17', 'Close': '23,461.94'}, {'Date': '10-Nov-17', 'Close': '23,422.21'}, {'Date': '13-Nov-17', 'Close': '23,439.70'}, {'Date': '14-Nov-17', 'Close': '23,409.47'}, {'Date': '15-Nov-17', 'Close': '23,271.28'}, {'Date': '16-Nov-17', 'Close': '23,458.36'}, {'Date': '17-Nov-17', 'Close': '23,358.24'}, {'Date': '20-Nov-17', 'Close': '23,430.33'}, {'Date': '21-Nov-17', 'Close': '23,590.83'}, {'Date': '22-Nov-17', 'Close': '23,526.18'}, {'Date': '24-Nov-17', 'Close': '23,557.99'}, {'Date': '27-Nov-17', 'Close': '23,580.78'}, {'Date': '28-Nov-17', 'Close': '23,836.71'}, {'Date': '29-Nov-17', 'Close': '23,940.68'}, {'Date': '30-Nov-17', 'Close': '24,272.35'}, {'Date': '1-Dec-17', 'Close': '24,231.59'}, {'Date': '4-Dec-17', 'Close': '24,290.05'}, {'Date': '5-Dec-17', 'Close': '24,180.64'}, {'Date': '6-Dec-17', 'Close': '24,140.91'}, {'Date': '7-Dec-17', 'Close': '24,211.48'}, {'Date': '8-Dec-17', 'Close': '24,329.16'}, {'Date': '11-Dec-17', 'Close': '24,386.03'}, {'Date': '12-Dec-17', 'Close': '24,504.80'}, {'Date': '13-Dec-17', 'Close': '24,585.43'}, {'Date': '14-Dec-17', 'Close': '24,508.66'}, {'Date': '15-Dec-17', 'Close': '24,651.74'}, {'Date': '18-Dec-17', 'Close': '24,792.20'}, {'Date': '19-Dec-17', 'Close': '24,754.75'}, {'Date': '20-Dec-17', 'Close': '24,726.65'}, {'Date': '21-Dec-17', 'Close': '24,782.29'}, {'Date': '22-Dec-17', 'Close': '24,754.06'}, {'Date': '26-Dec-17', 'Close': '24,746.21'}, {'Date': '27-Dec-17', 'Close': '24,774.30'}, {'Date': '28-Dec-17', 'Close': '24,837.51'}, {'Date': '29-Dec-17', 'Close': '24,719.22'}, {'Date': '2-Jan-18', 'Close': '24,824.01'}, {'Date': '3-Jan-18', 'Close': '24,922.68'}, {'Date': '4-Jan-18', 'Close': '25,075.13'}, {'Date': '5-Jan-18', 'Close': '25,295.87'}, {'Date': '8-Jan-18', 'Close': '25,283.00'}, {'Date': '9-Jan-18', 'Close': '25,385.80'}, {'Date': '10-Jan-18', 'Close': '25,369.13'}, {'Date': '11-Jan-18', 'Close': '25,574.73'}, {'Date': '12-Jan-18', 'Close': '25,803.19'}, {'Date': '16-Jan-18', 'Close': '25,792.86'}, {'Date': '17-Jan-18', 'Close': '26,115.65'}, {'Date': '18-Jan-18', 'Close': '26,017.81'}, {'Date': '19-Jan-18', 'Close': '26,071.72'}, {'Date': '22-Jan-18', 'Close': '26,214.60'}, {'Date': '23-Jan-18', 'Close': '26,210.81'}, {'Date': '24-Jan-18', 'Close': '26,252.12'}, {'Date': '25-Jan-18', 'Close': '26,392.79'}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Date': '9-Jan-20', 'Close': '28,956.90'}, {'Date': '10-Jan-20', 'Close': '28,823.77'}, {'Date': '13-Jan-20', 'Close': '28,907.05'}, {'Date': '14-Jan-20', 'Close': '28,939.67'}, {'Date': '15-Jan-20', 'Close': '29,030.22'}, {'Date': '16-Jan-20', 'Close': '29,297.64'}, {'Date': '17-Jan-20', 'Close': '29,348.10'}, {'Date': '21-Jan-20', 'Close': '29,196.04'}, {'Date': '22-Jan-20', 'Close': '29,186.27'}, {'Date': '23-Jan-20', 'Close': '29,160.09'}, {'Date': '24-Jan-20', 'Close': '28,989.73'}, {'Date': '27-Jan-20', 'Close': '28,535.80'}, {'Date': '28-Jan-20', 'Close': '28,722.85'}, {'Date': '29-Jan-20', 'Close': '28,734.45'}, {'Date': '30-Jan-20', 'Close': '28,859.44'}, {'Date': '31-Jan-20', 'Close': '28,256.03'}, {'Date': '3-Feb-20', 'Close': '28,399.81'}, {'Date': '4-Feb-20', 'Close': '28,807.63'}, {'Date': '5-Feb-20', 'Close': '29,290.85'}, {'Date': '6-Feb-20', 'Close': '29,379.77'}, {'Date': '7-Feb-20', 'Close': '29,102.51'}, {'Date': '10-Feb-20', 'Close': '29,276.82'}, {'Date': '11-Feb-20', 'Close': '29,276.34'}, {'Date': '12-Feb-20', 'Close': '29,551.42'}, {'Date': '13-Feb-20', 'Close': '29,423.31'}, {'Date': '14-Feb-20', 'Close': '29,398.08'}, {'Date': '18-Feb-20', 'Close': '29,232.19'}, {'Date': '19-Feb-20', 'Close': '29,348.03'}, {'Date': '20-Feb-20', 'Close': '29,219.98'}, {'Date': '21-Feb-20', 'Close': '28,992.41'}, {'Date': '24-Feb-20', 'Close': '27,960.80'}, {'Date': '25-Feb-20', 'Close': '27,081.36'}, {'Date': '26-Feb-20', 'Close': '26,957.59'}, {'Date': '27-Feb-20', 'Close': '25,766.64'}, {'Date': '28-Feb-20', 'Close': '25,409.36'}, {'Date': '2-Mar-20', 'Close': '26,703.32'}, {'Date': '3-Mar-20', 'Close': '25,917.41'}, {'Date': '4-Mar-20', 'Close': '27,090.86'}, {'Date': '5-Mar-20', 'Close': '26,121.28'}, {'Date': '6-Mar-20', 'Close': '25,864.78'}, {'Date': '9-Mar-20', 'Close': '23,851.02'}, {'Date': '10-Mar-20', 'Close': '25,018.16'}, {'Date': '11-Mar-20', 'Close': '23,553.22'}, {'Date': '12-Mar-20', 'Close': '21,200.62'}, {'Date': '13-Mar-20', 'Close': '23,185.62'}, {'Date': '16-Mar-20', 'Close': '20,188.52'}, {'Date': '17-Mar-20', 'Close': '21,237.38'}, {'Date': '18-Mar-20', 'Close': '19,898.92'}, {'Date': '19-Mar-20', 'Close': '20,087.19'}, {'Date': '20-Mar-20', 'Close': '19,173.98'}, {'Date': '23-Mar-20', 'Close': '18,591.93'}, {'Date': '24-Mar-20', 'Close': '20,704.91'}, {'Date': '25-Mar-20', 'Close': '21,200.55'}, {'Date': '26-Mar-20', 'Close': '22,552.17'}, {'Date': '27-Mar-20', 'Close': '21,636.78'}, {'Date': '30-Mar-20', 'Close': '22,327.48'}, {'Date': '31-Mar-20', 'Close': '21,917.16'}, {'Date': '1-Apr-20', 'Close': '20,943.51'}, {'Date': '2-Apr-20', 'Close': '21,413.44'}, {'Date': '3-Apr-20', 'Close': '21,052.53'}, {'Date': '6-Apr-20', 'Close': '22,679.99'}, {'Date': '7-Apr-20', 'Close': '22,653.86'}, {'Date': '8-Apr-20', 'Close': '23,433.57'}, {'Date': '9-Apr-20', 'Close': '23,719.37'}, {'Date': '13-Apr-20', 'Close': '23,390.77'}, {'Date': '14-Apr-20', 'Close': '23,949.76'}, {'Date': '15-Apr-20', 'Close': '23,504.35'}, {'Date': '16-Apr-20', 'Close': '23,537.68'}, {'Date': '17-Apr-20', 'Close': '24,242.49'}, {'Date': '20-Apr-20', 'Close': '23,650.44'}, {'Date': '21-Apr-20', 'Close': '23,018.88'}, {'Date': '22-Apr-20', 'Close': '23,475.82'}, {'Date': '23-Apr-20', 'Close': '23,515.26'}, {'Date': '24-Apr-20', 'Close': '23,775.27'}, {'Date': '27-Apr-20', 'Close': '24,133.78'}, {'Date': '28-Apr-20', 'Close': '24,101.55'}, {'Date': '29-Apr-20', 'Close': '24,633.86'}, {'Date': '30-Apr-20', 'Close': '24,345.72'}, {'Date': '1-May-20', 'Close': '23,723.69'}, {'Date': '4-May-20', 'Close': '23,749.76'}, {'Date': '5-May-20', 'Close': '23,883.09'}, {'Date': '6-May-20', 'Close': '23,664.64'}, {'Date': '7-May-20', 'Close': '23,875.89'}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>From 2020/03/04 to 2020/03/23, the 'Dow Janes Industrial (.DJI) is on an downtrend.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":"Close","BeginIndex":"37","EndIndex":"50","Trend":"downtrend","Number":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":"Close","BeginIndex":"76","EndIndex":"250","Trend":"uptrend","Number":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The chart of Amazon.com Inc. (AMZN) shows a double top pattern that formed in the stock between September and October 2018. After the pattern appears, shares plunges another 31%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"Close","BeginIndex":"42","EndIndex":"69","Trend":"double top","Number":"None"}, {"ObjectName":"Close","BeginIndex":"70","EndIndex":"102","Trend":"plunges","Number":"31%"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Date': '2018/6/27', 'Close': 83.025497}, {'Date': '2018/6/28', 'Close': 85.072502}, {'Date': '2018/6/29', 'Close': 84.989998}, {'Date': '2018/7/2', 'Close': 85.689003}, {'Date': '2018/7/3', 'Close': 84.697998}, {'Date': '2018/7/5', 'Close': 84.986504}, {'Date': '2018/7/6', 'Close': 85.531502}, {'Date': '2018/7/9', 'Close': 86.950996}, {'Date': '2018/7/10', 'Close': 87.153503}, {'Date': '2018/7/11', 'Close': 87.75}, {'Date': '2018/7/12', 'Close': 89.831001}, {'Date': '2018/7/13', 'Close': 90.651497}, {'Date': '2018/7/16', 'Close': 91.124496}, {'Date': '2018/7/17', 'Close': 92.196503}, {'Date': '2018/7/18', 'Close': 92.146004}, {'Date': '2018/7/19', 'Close': 90.648499}, {'Date': '2018/7/20', 'Close': 90.684998}, {'Date': '2018/7/23', 'Close': 90.099998}, {'Date': '2018/7/24', 'Close': 91.461998}, {'Date': '2018/7/25', 'Close': 93.180496}, {'Date': '2018/7/26', 'Close': 90.400002}, {'Date': '2018/7/27', 'Close': 90.863503}, {'Date': '2018/7/30', 'Close': 88.960999}, {'Date': '2018/7/31', 'Close': 88.872002}, {'Date': '2018/8/1', 'Close': 89.858498}, {'Date': '2018/8/2', 'Close': 91.716499}, {'Date': '2018/8/3', 'Close': 91.164497}, {'Date': '2018/8/6', 'Close': 92.387497}, {'Date': '2018/8/7', 'Close': 93.124001}, {'Date': '2018/8/8', 'Close': 94.325996}, {'Date': '2018/8/9', 'Close': 94.926003}, {'Date': '2018/8/10', 'Close': 94.315002}, {'Date': '2018/8/13', 'Close': 94.809998}, {'Date': '2018/8/14', 'Close': 95.982498}, {'Date': '2018/8/15', 'Close': 94.130997}, {'Date': '2018/8/16', 'Close': 94.325996}, {'Date': '2018/8/17', 'Close': 94.111}, {'Date': '2018/8/20', 'Close': 93.835503}, {'Date': '2018/8/21', 'Close': 94.170998}, {'Date': '2018/8/22', 'Close': 95.245003}, {'Date': '2018/8/23', 'Close': 95.144997}, {'Date': '2018/8/24', 'Close': 95.269501}, {'Date': '2018/8/27', 'Close': 96.384003}, {'Date': '2018/8/28', 'Close': 96.640999}, {'Date': '2018/8/29', 'Close': 99.904999}, {'Date': '2018/8/30', 'Close': 100.119003}, {'Date': '2018/8/31', 'Close': 100.635498}, {'Date': '2018/9/4', 'Close': 101.975502}, {'Date': '2018/9/5', 'Close': 101.740997}, {'Date': '2018/9/6', 'Close': 99.915497}, {'Date': '2018/9/7', 'Close': 98.6035}, {'Date': '2018/9/10', 'Close': 97.9505}, {'Date': '2018/9/11', 'Close': 97.357498}, {'Date': '2018/9/12', 'Close': 96.93}, {'Date': '2018/9/13', 'Close': 96.7935}, {'Date': '2018/9/14', 'Close': 96.809499}, {'Date': '2018/9/17', 'Close': 96.901497}, {'Date': '2018/9/18', 'Close': 97.052498}, {'Date': '2018/9/19', 'Close': 96.320999}, {'Date': '2018/9/20', 'Close': 97.214996}, {'Date': '2018/9/21', 'Close': 95.750504}, {'Date': '2018/9/24', 'Close': 96.718002}, {'Date': '2018/9/25', 'Close': 98.727501}, {'Date': '2018/9/26', 'Close': 98.7425}, {'Date': '2018/9/27', 'Close': 100.649002}, {'Date': '2018/9/28', 'Close': 100.150002}, {'Date': '2018/10/1', 'Close': 100.218002}, {'Date': '2018/10/2', 'Close': 98.565498}, {'Date': '2018/10/3', 'Close': 97.638}, {'Date': '2018/10/4', 'Close': 95.471001}, {'Date': '2018/10/5', 'Close': 94.482498}, {'Date': '2018/10/8', 'Close': 93.221001}, {'Date': '2018/10/9', 'Close': 93.515999}, {'Date': '2018/10/10', 'Close': 87.762497}, {'Date': '2018/10/11', 'Close': 85.968002}, {'Date': '2018/10/12', 'Close': 89.430496}, {'Date': '2018/10/15', 'Close': 88.047501}, {'Date': '2018/10/16', 'Close': 90.998001}, {'Date': '2018/10/17', 'Close': 91.586502}, {'Date': '2018/10/18', 'Close': 88.536003}, {'Date': '2018/10/19', 'Close': 88.2015}, {'Date': '2018/10/22', 'Close': 89.464996}, {'Date': '2018/10/23', 'Close': 88.434998}, {'Date': '2018/10/24', 'Close': 83.209999}, {'Date': '2018/10/25', 'Close': 89.108498}, {'Date': '2018/10/26', 'Close': 82.140503}, {'Date': '2018/10/29', 'Close': 76.944}, {'Date': '2018/10/30', 'Close': 76.521004}, {'Date': '2018/10/31', 'Close': 79.900497}, {'Date': '2018/11/1', 'Close': 83.276497}, {'Date': '2018/11/2', 'Close': 83.276497}, {'Date': '2018/11/5', 'Close': 81.389999}, {'Date': '2018/11/6', 'Close': 82.140503}, {'Date': '2018/11/7', 'Close': 87.774498}, {'Date': '2018/11/8', 'Close': 87.745499}, {'Date': '2018/11/9', 'Close': 85.621498}, {'Date': '2018/11/12', 'Close': 81.842499}, {'Date': '2018/11/13', 'Close': 81.558502}, {'Date': '2018/11/14', 'Close': 79.9505}, {'Date': '2018/11/15', 'Close': 80.972}, {'Date': '2018/11/16', 'Close': 79.670502}, {'Date': '2018/11/19', 'Close': 75.614502}, {'Date': '2018/11/20', 'Close': 74.773003}]</t>
+  </si>
+  <si>
+    <t>{"ObjectName":"Price","BeginIndex":"22","EndIndex":"56","Trend":"triple top","Number":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The "triple top" pattern happens from 2010/04/01 to 2010/05/05. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'time': '2010/3/10', 'price': 96.4}, {'time': '2010/3/11', 'price': 98.8}, {'time': '2010/3/12', 'price': 101.23}, {'time': '2010/3/13', 'price': 98.6}, {'time': '2010/3/14', 'price': 96.5}, {'time': '2010/3/15', 'price': 94.3}, {'time': '2010/3/16', 'price': 98.023}, {'time': '2010/3/17', 'price': 97.25}, {'time': '2010/3/18', 'price': 98.089}, {'time': '2010/3/19', 'price': 98.144}, {'time': '2010/3/20', 'price': 98.899}, {'time': '2010/3/21', 'price': 100.001}, {'time': '2010/3/22', 'price': 102.2}, {'time': '2010/3/23', 'price': 103.7}, {'time': '2010/3/24', 'price': 102.46}, {'time': '2010/3/25', 'price': 99.46}, {'time': '2010/3/26', 'price': 97.01}, {'time': '2010/3/27', 'price': 99.14}, {'time': '2010/3/28', 'price': 100.74}, {'time': '2010/3/29', 'price': 104.58}, {'time': '2010/3/30', 'price': 105.31}, {'time': '2010/3/31', 'price': 107.07}, {'time': '2010/4/1', 'price': 110.13}, {'time': '2010/4/2', 'price': 111.26}, {'time': '2010/4/3', 'price': 113.0}, {'time': '2010/4/4', 'price': 115.8}, {'time': '2010/4/5', 'price': 116.6}, {'time': '2010/4/6', 'price': 117.0}, {'time': '2010/4/7', 'price': 116.7}, {'time': '2010/4/8', 'price': 116.5}, {'time': '2010/4/9', 'price': 116.6}, {'time': '2010/4/10', 'price': 116.7}, {'time': '2010/4/11', 'price': 116.0}, {'time': '2010/4/12', 'price': 115.0}, {'time': '2010/4/13', 'price': 112.9}, {'time': '2010/4/14', 'price': 112.7}, {'time': '2010/4/15', 'price': 113.0}, {'time': '2010/4/16', 'price': 113.2}, {'time': '2010/4/17', 'price': 114.6}, {'time': '2010/4/18', 'price': 115.5}, {'time': '2010/4/19', 'price': 117.8}, {'time': '2010/4/20', 'price': 117.6}, {'time': '2010/4/21', 'price': 116.2}, {'time': '2010/4/22', 'price': 115.2}, {'time': '2010/4/23', 'price': 114.4}, {'time': '2010/4/24', 'price': 113.0}, {'time': '2010/4/25', 'price': 112.8}, {'time': '2010/4/26', 'price': 113.8}, {'time': '2010/4/27', 'price': 116.0}, {'time': '2010/4/28', 'price': 115.5}, {'time': '2010/4/29', 'price': 114.9}, {'time': '2010/4/30', 'price': 114.7}, {'time': '2010/5/1', 'price': 112.2}, {'time': '2010/5/2', 'price': 111.4}, {'time': '2010/5/3', 'price': 110.8}, {'time': '2010/5/4', 'price': 110.9}, {'time': '2010/5/5', 'price': 109.9}, {'time': '2010/5/6', 'price': 106.8}, {'time': '2010/5/7', 'price': 105.5}, {'time': '2010/5/8', 'price': 104.6}, {'time': '2010/5/9', 'price': 106.5}, {'time': '2010/5/10', 'price': 110.5}, {'time': '2010/5/11', 'price': 111.0}, {'time': '2010/5/12', 'price': 110.6}, {'time': '2010/5/13', 'price': 110.2}, {'time': '2010/5/14', 'price': 104.9}, {'time': '2010/5/15', 'price': 105.8}, {'time': '2010/5/16', 'price': 106.6}, {'time': '2010/5/17', 'price': 106.0}, {'time': '2010/5/18', 'price': 105.6}, {'time': '2010/5/19', 'price': 106.0}, {'time': '2010/5/20', 'price': 105.0}, {'time': '2010/5/21', 'price': 106.6}, {'time': '2010/5/22', 'price': 106.9}, {'time': '2010/5/23', 'price': 107.7}, {'time': '2010/5/24', 'price': 110.3}, {'time': '2010/5/25', 'price': 111.5}, {'time': '2010/5/26', 'price': 110.4}, {'time': '2010/5/27', 'price': 107.0}, {'time': '2010/5/28', 'price': 105.5}, {'time': '2010/5/29', 'price': 103.0}]</t>
+  </si>
+  <si>
+    <t>There happens a 'cup and handle' pattern in Amazon stock from 1999/07/15 to 1999/09/29.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":"Close","BeginIndex":"51","EndIndex":"104","Trend":"cup and handle","Number":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The stock of Goodyear Tire &amp; Rubber company (GT) suffers a year-long 'rouding bottom' pattern from 1990.6.11 to 1991.6.3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":"Close","BeginIndex":"70","EndIndex":"317","Trend":"rouding bottom","Number":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The China Lithium Industry Development Index white paper predicts a rising trend for installed wind and PV capacity (GW). It is expected to reach 1,200 GW and reach a 25% energy percentage.</t>
+  </si>
+  <si>
+    <t>[{"ObjectName":"installed wind and PV capacity (GW)","BeginIndex":"0","EndIndex":"5","Trend":"rising","Number":"None"},{"ObjectName":"installed wind and PV capacity (GW)","BeginIndex":"5","EndIndex":"5","Trend":"None","Number":"1200"},{"ObjectName":"energy percentage","BeginIndex":"5","EndIndex":"5","Trend":"None","Number":"25%"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[{'Time':'2017/1/1','Mini- and subcompact size':'0.61','Compact size':'0.35', 'Midsize to large':'0.04'},{'Time':'2018/1/1','Mini- and subcompact size':'0.49','Compact size':'0.41', 'Midsize to large':'0.10'},{'Time':'2019/1/1','Mini- and subcompact size':'0.33','Compact size':'0.54', 'Midsize to large':'0.13'},{'Time':'2020/1/1','Mini- and subcompact size':'0.35','Compact size':'0.33', 'Midsize to large':'0.32'},{'Time':'2021/1/1','Mini- and subcompact size':'0.37','Compact size':'0.28', 'Midsize to large':'0.35'},{'Time':'2022/1/1','Mini- and subcompact size':'0.37','Compact size':'0.31', 'Midsize to large':'0.32'},{'Time':'2023/1/1','Mini- and subcompact size':'0.30','Compact size':'0.30', 'Midsize to large':'0.40'}]</t>
-  </si>
-  <si>
-    <t>In 2023, the sales proportion of NEVs that were subcompact and below declined to 30%, from 61% in 2017. During the same periods of comparison, the mix of compact and midsize-to-large NEVs increased to 70% from 39%, reflecting the upgrade trend in terms of vehicle size.</t>
-  </si>
-  <si>
-    <t>[{'Date': '1999/8/2', 'Close': 2.35}, {'Date': '1999/8/3', 'Close': 2.371875}, {'Date': '1999/8/4', 'Close': 2.210938}, {'Date': '1999/8/5', 'Close': 2.43125}, {'Date': '1999/8/6', 'Close': 2.239063}, {'Date': '1999/8/9', 'Close': 2.1375}, {'Date': '1999/8/10', 'Close': 2.275}, {'Date': '1999/8/11', 'Close': 2.273438}, {'Date': '1999/8/12', 'Close': 2.29375}, {'Date': '1999/8/13', 'Close': 2.435938}, {'Date': '1999/8/16', 'Close': 2.457813}, {'Date': '1999/8/17', 'Close': 2.73125}, {'Date': '1999/8/18', 'Close': 2.828125}, {'Date': '1999/8/19', 'Close': 2.653125}, {'Date': '1999/8/20', 'Close': 2.835938}, {'Date': '1999/8/23', 'Close': 2.959375}, {'Date': '1999/8/24', 'Close': 3.001563}, {'Date': '1999/8/25', 'Close': 3.321875}, {'Date': '1999/8/26', 'Close': 3.214063}, {'Date': '1999/8/27', 'Close': 3.2125}, {'Date': '1999/8/30', 'Close': 2.98125}, {'Date': '1999/8/31', 'Close': 3.109375}, {'Date': '1999/9/1', 'Close': 2.976563}, {'Date': '1999/9/2', 'Close': 3.003125}, {'Date': '1999/9/3', 'Close': 3.121875}, {'Date': '1999/9/7', 'Close': 3.146875}, {'Date': '1999/9/8', 'Close': 3.071875}, {'Date': '1999/9/9', 'Close': 3.18125}, {'Date': '1999/9/10', 'Close': 3.325}, {'Date': '1999/9/13', 'Close': 3.165625}, {'Date': '1999/9/14', 'Close': 3.3}, {'Date': '1999/9/15', 'Close': 3.278125}, {'Date': '1999/9/16', 'Close': 3.2625}, {'Date': '1999/9/17', 'Close': 3.190625}, {'Date': '1999/9/20', 'Close': 3.1375}, {'Date': '1999/9/21', 'Close': 3.1125}, {'Date': '1999/9/22', 'Close': 3.3}, {'Date': '1999/9/23', 'Close': 3.1125}, {'Date': '1999/9/24', 'Close': 3.25}, {'Date': '1999/9/27', 'Close': 3.128125}, {'Date': '1999/9/28', 'Close': 3.29375}, {'Date': '1999/9/29', 'Close': 4.0375}, {'Date': '1999/9/30', 'Close': 3.996875}, {'Date': '1999/10/1', 'Close': 3.8625}, {'Date': '1999/10/4', 'Close': 3.853125}, {'Date': '1999/10/5', 'Close': 3.921875}, {'Date': '1999/10/6', 'Close': 4.121875}, {'Date': '1999/10/7', 'Close': 4.365625}, {'Date': '1999/10/8', 'Close': 4.4625}, {'Date': '1999/10/11', 'Close': 4.41875}, {'Date': '1999/10/12', 'Close': 4.246875}, {'Date': '1999/10/13', 'Close': 3.996875}, {'Date': '1999/10/14', 'Close': 3.979688}, {'Date': '1999/10/15', 'Close': 3.753125}, {'Date': '1999/10/18', 'Close': 3.703125}, {'Date': '1999/10/19', 'Close': 3.83125}, {'Date': '1999/10/20', 'Close': 4.025}, {'Date': '1999/10/21', 'Close': 4.0375}, {'Date': '1999/10/22', 'Close': 3.93125}, {'Date': '1999/10/25', 'Close': 4.1375}, {'Date': '1999/10/26', 'Close': 4.0625}, {'Date': '1999/10/27', 'Close': 3.796875}, {'Date': '1999/10/28', 'Close': 3.55}, {'Date': '1999/10/29', 'Close': 3.53125}, {'Date': '1999/11/1', 'Close': 3.45625}, {'Date': '1999/11/2', 'Close': 3.321875}, {'Date': '1999/11/3', 'Close': 3.290625}, {'Date': '1999/11/4', 'Close': 3.153125}, {'Date': '1999/11/5', 'Close': 3.246875}, {'Date': '1999/11/8', 'Close': 3.9}, {'Date': '1999/11/9', 'Close': 3.540625}, {'Date': '1999/11/10', 'Close': 3.6}, {'Date': '1999/11/11', 'Close': 3.65}, {'Date': '1999/11/12', 'Close': 3.746875}, {'Date': '1999/11/15', 'Close': 3.675}, {'Date': '1999/11/16', 'Close': 3.946875}, {'Date': '1999/11/17', 'Close': 3.825}, {'Date': '1999/11/18', 'Close': 3.896875}, {'Date': '1999/11/19', 'Close': 3.896875}, {'Date': '1999/11/22', 'Close': 4.025}, {'Date': '1999/11/23', 'Close': 4.0875}, {'Date': '1999/11/24', 'Close': 4.3625}, {'Date': '1999/11/26', 'Close': 4.65625}, {'Date': '1999/11/29', 'Close': 4.521875}, {'Date': '1999/11/30', 'Close': 4.253125}, {'Date': '1999/12/1', 'Close': 4.25}, {'Date': '1999/12/2', 'Close': 4.453125}, {'Date': '1999/12/3', 'Close': 4.328125}, {'Date': '1999/12/6', 'Close': 4.3875}, {'Date': '1999/12/7', 'Close': 4.303125}, {'Date': '1999/12/8', 'Close': 4.428125}, {'Date': '1999/12/9', 'Close': 5.18125}, {'Date': '1999/12/10', 'Close': 5.334375}, {'Date': '1999/12/13', 'Close': 5.125}, {'Date': '1999/12/14', 'Close': 4.78125}, {'Date': '1999/12/15', 'Close': 4.825}, {'Date': '1999/12/16', 'Close': 4.74375}, {'Date': '1999/12/17', 'Close': 4.703125}, {'Date': '1999/12/20', 'Close': 4.85}, {'Date': '1999/12/21', 'Close': 4.99375}, {'Date': '1999/12/22', 'Close': 4.884375}, {'Date': '1999/12/23', 'Close': 4.5}, {'Date': '1999/12/27', 'Close': 4.05625}, {'Date': '1999/12/28', 'Close': 4.115625}, {'Date': '1999/12/29', 'Close': 4.175}, {'Date': '1999/12/30', 'Close': 3.953125}, {'Date': '1999/12/31', 'Close': 3.80625}, {'Date': '2000/1/3', 'Close': 4.46875}, {'Date': '2000/1/4', 'Close': 4.096875}, {'Date': '2000/1/5', 'Close': 3.4875}, {'Date': '2000/1/6', 'Close': 3.278125}, {'Date': '2000/1/7', 'Close': 3.478125}, {'Date': '2000/1/10', 'Close': 3.459375}, {'Date': '2000/1/11', 'Close': 3.3375}, {'Date': '2000/1/12', 'Close': 3.178125}, {'Date': '2000/1/13', 'Close': 3.296875}, {'Date': '2000/1/14', 'Close': 3.2125}, {'Date': '2000/1/18', 'Close': 3.20625}, {'Date': '2000/1/19', 'Close': 3.340625}, {'Date': '2000/1/20', 'Close': 3.2375}, {'Date': '2000/1/21', 'Close': 3.103125}, {'Date': '2000/1/24', 'Close': 3.50625}, {'Date': '2000/1/25', 'Close': 3.4625}, {'Date': '2000/1/26', 'Close': 3.240625}, {'Date': '2000/1/27', 'Close': 3.346875}, {'Date': '2000/1/28', 'Close': 3.084375}, {'Date': '2000/1/31', 'Close': 3.228125}, {'Date': '2000/2/1', 'Close': 3.371875}, {'Date': '2000/2/2', 'Close': 3.471875}, {'Date': '2000/2/3', 'Close': 4.209375}, {'Date': '2000/2/4', 'Close': 3.928125}, {'Date': '2000/2/7', 'Close': 3.75}, {'Date': '2000/2/8', 'Close': 4.15625}, {'Date': '2000/2/9', 'Close': 4.0125}, {'Date': '2000/2/10', 'Close': 3.809375}, {'Date': '2000/2/11', 'Close': 3.809375}, {'Date': '2000/2/14', 'Close': 3.721875}, {'Date': '2000/2/15', 'Close': 3.690625}, {'Date': '2000/2/16', 'Close': 3.534375}, {'Date': '2000/2/17', 'Close': 3.45}, {'Date': '2000/2/18', 'Close': 3.2375}, {'Date': '2000/2/22', 'Close': 3.178125}, {'Date': '2000/2/23', 'Close': 3.521875}, {'Date': '2000/2/24', 'Close': 3.421875}, {'Date': '2000/2/25', 'Close': 3.45625}, {'Date': '2000/2/28', 'Close': 3.2875}, {'Date': '2000/2/29', 'Close': 3.44375}, {'Date': '2000/3/1', 'Close': 3.29375}, {'Date': '2000/3/2', 'Close': 3.128125}, {'Date': '2000/3/3', 'Close': 3.125}, {'Date': '2000/3/6', 'Close': 3.196875}, {'Date': '2000/3/7', 'Close': 3.175}, {'Date': '2000/3/8', 'Close': 3.18125}, {'Date': '2000/3/9', 'Close': 3.440625}, {'Date': '2000/3/10', 'Close': 3.34375}, {'Date': '2000/3/13', 'Close': 3.265625}, {'Date': '2000/3/14', 'Close': 3.28125}, {'Date': '2000/3/15', 'Close': 3.1875}, {'Date': '2000/3/16', 'Close': 3.3125}, {'Date': '2000/3/17', 'Close': 3.240625}, {'Date': '2000/3/20', 'Close': 3.209375}, {'Date': '2000/3/21', 'Close': 3.61875}, {'Date': '2000/3/22', 'Close': 3.534375}, {'Date': '2000/3/23', 'Close': 3.384375}, {'Date': '2000/3/24', 'Close': 3.634375}, {'Date': '2000/3/27', 'Close': 3.65625}, {'Date': '2000/3/28', 'Close': 3.50625}, {'Date': '2000/3/29', 'Close': 3.3125}, {'Date': '2000/3/30', 'Close': 3.325}, {'Date': '2000/3/31', 'Close': 3.35}, {'Date': '2000/4/3', 'Close': 3.178125}, {'Date': '2000/4/4', 'Close': 3.196875}, {'Date': '2000/4/5', 'Close': 3.109375}, {'Date': '2000/4/6', 'Close': 3.2125}, {'Date': '2000/4/7', 'Close': 3.378125}, {'Date': '2000/4/10', 'Close': 3.16875}, {'Date': '2000/4/11', 'Close': 3.16875}, {'Date': '2000/4/12', 'Close': 2.81875}, {'Date': '2000/4/13', 'Close': 2.4}, {'Date': '2000/4/14', 'Close': 2.34375}, {'Date': '2000/4/17', 'Close': 2.353125}, {'Date': '2000/4/18', 'Close': 2.746875}, {'Date': '2000/4/19', 'Close': 2.671875}, {'Date': '2000/4/20', 'Close': 2.61875}, {'Date': '2000/4/24', 'Close': 2.490625}, {'Date': '2000/4/25', 'Close': 2.621875}, {'Date': '2000/4/26', 'Close': 2.675}, {'Date': '2000/4/27', 'Close': 2.64375}, {'Date': '2000/4/28', 'Close': 2.759375}, {'Date': '2000/5/1', 'Close': 2.996875}, {'Date': '2000/5/2', 'Close': 2.80625}, {'Date': '2000/5/3', 'Close': 2.70625}, {'Date': '2000/5/4', 'Close': 2.753125}, {'Date': '2000/5/5', 'Close': 2.925}, {'Date': '2000/5/8', 'Close': 2.800781}, {'Date': '2000/5/9', 'Close': 2.8125}, {'Date': '2000/5/10', 'Close': 2.665625}, {'Date': '2000/5/11', 'Close': 2.74375}, {'Date': '2000/5/12', 'Close': 2.6875}, {'Date': '2000/5/15', 'Close': 2.803125}, {'Date': '2000/5/16', 'Close': 2.953125}, {'Date': '2000/5/17', 'Close': 3.05}, {'Date': '2000/5/18', 'Close': 2.76875}, {'Date': '2000/5/19', 'Close': 2.63125}, {'Date': '2000/5/22', 'Close': 2.59375}, {'Date': '2000/5/23', 'Close': 2.334375}, {'Date': '2000/5/24', 'Close': 2.428125}, {'Date': '2000/5/25', 'Close': 2.275}, {'Date': '2000/5/26', 'Close': 2.325}, {'Date': '2000/5/30', 'Close': 2.5875}, {'Date': '2000/5/31', 'Close': 2.415625}]</t>
-  </si>
-  <si>
-    <t>[{'Date': '1999/4/26', 'Adj Close': 5.179688}, {'Date': '1999/4/27', 'Adj Close': 5.146875}, {'Date': '1999/4/28', 'Adj Close': 4.8375}, {'Date': '1999/4/29', 'Adj Close': 4.20625}, {'Date': '1999/4/30', 'Adj Close': 4.301563}, {'Date': '1999/5/3', 'Adj Close': 3.773438}, {'Date': '1999/5/4', 'Adj Close': 3.575}, {'Date': '1999/5/5', 'Adj Close': 3.6625}, {'Date': '1999/5/6', 'Adj Close': 3.434375}, {'Date': '1999/5/7', 'Adj Close': 3.409375}, {'Date': '1999/5/10', 'Adj Close': 3.671875}, {'Date': '1999/5/11', 'Adj Close': 3.709375}, {'Date': '1999/5/12', 'Adj Close': 3.573438}, {'Date': '1999/5/13', 'Adj Close': 3.4}, {'Date': '1999/5/14', 'Adj Close': 3.309375}, {'Date': '1999/5/17', 'Adj Close': 3.440625}, {'Date': '1999/5/18', 'Adj Close': 3.315625}, {'Date': '1999/5/19', 'Adj Close': 3.489063}, {'Date': '1999/5/20', 'Adj Close': 3.270313}, {'Date': '1999/5/21', 'Adj Close': 3.214063}, {'Date': '1999/5/24', 'Adj Close': 2.9375}, {'Date': '1999/5/25', 'Adj Close': 2.789063}, {'Date': '1999/5/26', 'Adj Close': 3.023438}, {'Date': '1999/5/27', 'Adj Close': 2.864063}, {'Date': '1999/5/28', 'Adj Close': 2.96875}, {'Date': '1999/6/1', 'Adj Close': 2.645313}, {'Date': '1999/6/2', 'Adj Close': 2.803125}, {'Date': '1999/6/3', 'Adj Close': 2.626563}, {'Date': '1999/6/4', 'Adj Close': 2.710938}, {'Date': '1999/6/7', 'Adj Close': 2.934375}, {'Date': '1999/6/8', 'Adj Close': 2.789063}, {'Date': '1999/6/9', 'Adj Close': 2.85}, {'Date': '1999/6/10', 'Adj Close': 2.898438}, {'Date': '1999/6/11', 'Adj Close': 2.645313}, {'Date': '1999/6/14', 'Adj Close': 2.3}, {'Date': '1999/6/15', 'Adj Close': 2.4125}, {'Date': '1999/6/16', 'Adj Close': 2.792188}, {'Date': '1999/6/17', 'Adj Close': 2.823438}, {'Date': '1999/6/18', 'Adj Close': 2.782813}, {'Date': '1999/6/21', 'Adj Close': 3.0875}, {'Date': '1999/6/22', 'Adj Close': 2.9375}, {'Date': '1999/6/23', 'Adj Close': 2.94375}, {'Date': '1999/6/24', 'Adj Close': 2.840625}, {'Date': '1999/6/25', 'Adj Close': 2.754688}, {'Date': '1999/6/28', 'Adj Close': 2.767188}, {'Date': '1999/6/29', 'Adj Close': 2.901563}, {'Date': '1999/6/30', 'Adj Close': 3.128125}, {'Date': '1999/7/1', 'Adj Close': 3.059375}, {'Date': '1999/7/2', 'Adj Close': 3.101563}, {'Date': '1999/7/6', 'Adj Close': 3.171875}, {'Date': '1999/7/7', 'Adj Close': 3.046875}, {'Date': '1999/7/8', 'Adj Close': 3.134375}, {'Date': '1999/7/9', 'Adj Close': 3.1375}, {'Date': '1999/7/12', 'Adj Close': 2.934375}, {'Date': '1999/7/13', 'Adj Close': 3.153125}, {'Date': '1999/7/14', 'Adj Close': 3.375}, {'Date': '1999/7/15', 'Adj Close': 3.489063}, {'Date': '1999/7/16', 'Adj Close': 3.440625}, {'Date': '1999/7/19', 'Adj Close': 3.292188}, {'Date': '1999/7/20', 'Adj Close': 3.003125}, {'Date': '1999/7/21', 'Adj Close': 3.135938}, {'Date': '1999/7/22', 'Adj Close': 2.670313}, {'Date': '1999/7/23', 'Adj Close': 2.864063}, {'Date': '1999/7/26', 'Adj Close': 2.648438}, {'Date': '1999/7/27', 'Adj Close': 2.525}, {'Date': '1999/7/28', 'Adj Close': 2.64375}, {'Date': '1999/7/29', 'Adj Close': 2.539063}, {'Date': '1999/7/30', 'Adj Close': 2.501563}, {'Date': '1999/8/2', 'Adj Close': 2.35}, {'Date': '1999/8/3', 'Adj Close': 2.371875}, {'Date': '1999/8/4', 'Adj Close': 2.210938}, {'Date': '1999/8/5', 'Adj Close': 2.43125}, {'Date': '1999/8/6', 'Adj Close': 2.239063}, {'Date': '1999/8/9', 'Adj Close': 2.1375}, {'Date': '1999/8/10', 'Adj Close': 2.275}, {'Date': '1999/8/11', 'Adj Close': 2.273438}, {'Date': '1999/8/12', 'Adj Close': 2.29375}, {'Date': '1999/8/13', 'Adj Close': 2.435938}, {'Date': '1999/8/16', 'Adj Close': 2.457813}, {'Date': '1999/8/17', 'Adj Close': 2.73125}, {'Date': '1999/8/18', 'Adj Close': 2.828125}, {'Date': '1999/8/19', 'Adj Close': 2.653125}, {'Date': '1999/8/20', 'Adj Close': 2.835938}, {'Date': '1999/8/23', 'Adj Close': 2.959375}, {'Date': '1999/8/24', 'Adj Close': 3.001563}, {'Date': '1999/8/25', 'Adj Close': 3.321875}, {'Date': '1999/8/26', 'Adj Close': 3.214063}, {'Date': '1999/8/27', 'Adj Close': 3.2125}, {'Date': '1999/8/30', 'Adj Close': 2.98125}, {'Date': '1999/8/31', 'Adj Close': 3.109375}, {'Date': '1999/9/1', 'Adj Close': 2.976563}, {'Date': '1999/9/2', 'Adj Close': 3.003125}, {'Date': '1999/9/3', 'Adj Close': 3.121875}, {'Date': '1999/9/7', 'Adj Close': 3.146875}, {'Date': '1999/9/8', 'Adj Close': 3.071875}, {'Date': '1999/9/9', 'Adj Close': 3.18125}, {'Date': '1999/9/10', 'Adj Close': 3.325}, {'Date': '1999/9/13', 'Adj Close': 3.165625}, {'Date': '1999/9/14', 'Adj Close': 3.3}, {'Date': '1999/9/15', 'Adj Close': 3.278125}, {'Date': '1999/9/16', 'Adj Close': 3.2625}, {'Date': '1999/9/17', 'Adj Close': 3.190625}, {'Date': '1999/9/20', 'Adj Close': 3.1375}, {'Date': '1999/9/21', 'Adj Close': 3.1125}, {'Date': '1999/9/22', 'Adj Close': 3.3}, {'Date': '1999/9/23', 'Adj Close': 3.1125}, {'Date': '1999/9/24', 'Adj Close': 3.25}, {'Date': '1999/9/27', 'Adj Close': 3.128125}, {'Date': '1999/9/28', 'Adj Close': 3.29375}, {'Date': '1999/9/29', 'Adj Close': 4.0375}, {'Date': '1999/9/30', 'Adj Close': 3.996875}, {'Date': '1999/10/1', 'Adj Close': 3.8625}, {'Date': '1999/10/4', 'Adj Close': 3.853125}, {'Date': '1999/10/5', 'Adj Close': 3.921875}, {'Date': '1999/10/6', 'Adj Close': 4.121875}, {'Date': '1999/10/7', 'Adj Close': 4.365625}, {'Date': '1999/10/8', 'Adj Close': 4.4625}, {'Date': '1999/10/11', 'Adj Close': 4.41875}, {'Date': '1999/10/12', 'Adj Close': 4.246875}, {'Date': '1999/10/13', 'Adj Close': 3.996875}, {'Date': '1999/10/14', 'Adj Close': 3.979688}, {'Date': '1999/10/15', 'Adj Close': 3.753125}, {'Date': '1999/10/18', 'Adj Close': 3.703125}, {'Date': '1999/10/19'99/12/8', 'Adj Close': 4.428125}, {'Date': '1999/12/9', 'Adj Close': 5.18125}, {'Date': '1999/12/10', 'Adj Close': 5.334375}, {'Date': '1999/12/13', 'Adj Close': 5.125}, {'Date': '1999/12/14', 'Adj Close': 4.78125}, {'Date': '1999/12/15', 'Adj Close': 4.825}, {'Date': '1999/12/16', 'Adj Close': 4.74375}, {'Date': '1999/12/17', 'Adj Close': 4.703125}, {'Date': '1999/12/20', 'Adj Close': 4.85}, {'Date': '1999/12/21', 'Adj Close': 4.99375}, {'Date': '1999/12/22', 'Adj Close': 4.884375}, {'Date': '1999/12/23', 'Adj Close': 4.5}, {'Date': '1999/12/27', 'Adj Close': 4.05625}, {'Date': '1999/12/28', 'Adj Close': 4.115625}, {'Date': '1999/12/29', 'Adj Close': 4.175}, {'Date': '1999/12/30', 'Adj Close': 3.953125}, {'Date': '1999/12/31', 'Adj Close': 3.80625}, {'Date': '2000/1/3', 'Adj Close': 4.46875}, {'Date': '2000/1/4', 'Adj Close': 4.096875}, {'Date': '2000/1/5', 'Adj Close': 3.4875}, {'Date': '2000/1/6', 'Adj Close': 3.278125}, {'Date': '2000/1/7', 'Adj Close': 3.478125}, {'Date': '2000/1/10', 'Adj Close': 3.459375}, {'Date': '2000/1/11', 'Adj Close': 3.3375}, {'Date': '2000/1/12', 'Adj Close': 3.178125}, {'Date': '2000/1/13', 'Adj Close': 3.296875}, {'Date': '2000/1/14', 'Adj Close': 3.2125}, {'Date': '2000/1/18', 'Adj Close': 3.20625}, {'Date': '2000/1/19', 'Adj Close': 3.340625}, {'Date': '2000/1/20', 'Adj Close': 3.2375}]</t>
-  </si>
-  <si>
-    <t>pattern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multiple bar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>head and shoulder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>single line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cup with handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rouding bottom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double bottom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uptrend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">down trend </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double top</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>triple top</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"Mini- and subcompact size","BeginIndex":"7","EndIndex":"7","Trend":"Declined","Number":"0.30"},{"ObjectName":"Mini- and subcompact size","BeginIndex":"0","EndIndex":"0","Trend":"None","Number":"0.61"}，{"ObjectName":"Compact Size" + "Midsize to large","BeginIndex":"7","EndIndex":"7","Trend":"upgrade trend","Number":"0.30" + "0.40"},{"ObjectName":"Compact Size" + "Midsize to large","BeginIndex":"0","EndIndex":"0","Trend":"None","Number":"0.35" + "0.04"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The object in unit 1 is "Mini- and subcompact size". Its compact size goes from '0.61' in 2017 to '0.30' in 2023. The subject in unit 2 is the combination of  "Compact Size" and  "Midsize to large". Its sompact size goes from the combination from "0.35"+"0.04" in 2017 to "0.30+0.40" in 2023.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The corresponding value for object "Netherlands" is "43.1". The corresponding value for object "France" is "35.3".</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"Netherlands","BeginIndex":"1","EndIndex":"1","Trend":"None",Number:"43.1"},{"ObjectName":"France","BeginIndex":"2","EndIndex":"2","Trend":"None","Number":"35.3"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result 模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"ObjectName":"None","BeginIndex":"1","EndIndex":"1","Trend":"None","Number":"None"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"Real GDP for the outdoor recreation economy", "BeginIndex”:"0","EndIndex":"0","Trend":"increase","Number":"18.9"},{"ObjectName":"U.S. economy", "BeginIndex":"0","EndIndex":"0"，"Trend":"rebound","Number":"5.9"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflation-adjusted ("real") GDP for the outdoor recreation economy increased 18.9 percent in 2021, compared with a 5.9 percent increase for the overall U.S. economy, reflecting a rebound in outdoor recreation after the decrease of 21.6 percent in 2020. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The first object is "Inflation-adjusted ("real") GDP for the outdoor recreation economy" and its value is 18.9. The second object is "U.S. economy" and its value is 5.9.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>There exists a "head and shoulder" pattern on the Amazon stock moving averages from 1999/09/27 to 2000/02/22.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"ObjectName":"Close","BeginIndex":"39","EndIndex":"141","Trend":"Head and shoulder","Number":"None"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The "head and shoulder" pattern consists of three rises and falls from three localized highs. The high point in the center is higher than the other two. This pattern is around from '1999/09/27' to '2000/02/22' and the middle high point exist on '1999/12/09'.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"ObjectName":"Close","BeginIndex":"54","EndIndex":"100","Trend":"double bottom","Number":"None"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The "double bottom" pattern has two lows. The first low in the data is at 2016/01/20 , and the second low is at 2016/02/11.  This pattern is around from '2015/12/29' to '2016/03/07'.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The "double bottom" pattern happens on the 'Dow Janes Industrial (.DJI) from 2015/12/29 to 2016/03/07.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>From 2017/05/17 to 2018/01/26, the 'Dow Janes Industrial (.DJI)' is on an uptrend, which drew a much attention form analysts.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{'Date': '12-Oct-15', 'Close': 17131.86}, {'Date': '13-Oct-15', 'Close': 17081.89}, {'Date': '14-Oct-15', 'Close': 16924.75}, {'Date': '15-Oct-15', 'Close': 17141.75}, {'Date': '16-Oct-15', 'Close': 17215.97}, {'Date': '19-Oct-15', 'Close': 17230.54}, {'Date': '20-Oct-15', 'Close': 17217.11}, {'Date': '21-Oct-15', 'Close': 17168.61}, {'Date': '22-Oct-15', 'Close': 17489.16}, {'Date': '23-Oct-15', 'Close': 17646.7}, {'Date': '26-Oct-15', 'Close': 17623.05}, {'Date': '27-Oct-15', 'Close': 17581.43}, {'Date': '28-Oct-15', 'Close': 17779.52}, {'Date': '29-Oct-15', 'Close': 17755.8}, {'Date': '30-Oct-15', 'Close': 17663.54}, {'Date': '2-Nov-15', 'Close': 17828.76}, {'Date': '3-Nov-15', 'Close': 17918.15}, {'Date': '4-Nov-15', 'Close': 17867.58}, {'Date': '5-Nov-15', 'Close': 17863.43}, {'Date': '6-Nov-15', 'Close': 17910.33}, {'Date': '9-Nov-15', 'Close': 17730.48}, {'Date': '10-Nov-15', 'Close': 17758.21}, {'Date': '11-Nov-15', 'Close': 17702.22}, {'Date': '12-Nov-15', 'Close': 17448.07}, {'Date': '13-Nov-15', 'Close': 17245.24}, {'Date': '16-Nov-15', 'Close': 17483.01}, {'Date': '17-Nov-15', 'Close': 17489.5}, {'Date': '18-Nov-15', 'Close': 17737.16}, {'Date': '19-Nov-15', 'Close': 17732.75}, {'Date': '20-Nov-15', 'Close': 17823.81}, {'Date': '23-Nov-15', 'Close': 17792.68}, {'Date': '24-Nov-15', 'Close': 17812.19}, {'Date': '25-Nov-15', 'Close': 17813.39}, {'Date': '27-Nov-15', 'Close': 17813.39}, {'Date': '30-Nov-15', 'Close': 17719.92}, {'Date': '1-Dec-15', 'Close': 17888.35}, {'Date': '2-Dec-15', 'Close': 17729.68}, {'Date': '3-Dec-15', 'Close': 17477.67}, {'Date': '4-Dec-15', 'Close': 17847.63}, {'Date': '7-Dec-15', 'Close': 17730.51}, {'Date': '8-Dec-15', 'Close': 17568.0}, {'Date': '9-Dec-15', 'Close': 17492.3}, {'Date': '10-Dec-15', 'Close': 17574.75}, {'Date': '11-Dec-15', 'Close': 17265.21}, {'Date': '14-Dec-15', 'Close': 17368.5}, {'Date': '15-Dec-15', 'Close': 17524.91}, {'Date': '16-Dec-15', 'Close': 17749.09}, {'Date': '17-Dec-15', 'Close': 17495.84}, {'Date': '18-Dec-15', 'Close': 17128.55}, {'Date': '21-Dec-15', 'Close': 17251.62}, {'Date': '22-Dec-15', 'Close': 17417.27}, {'Date': '23-Dec-15', 'Close': 17602.61}, {'Date': '24-Dec-15', 'Close': 17552.17}, {'Date': '28-Dec-15', 'Close': 17528.27}, {'Date': '29-Dec-15', 'Close': 17720.98}, {'Date': '30-Dec-15', 'Close': 17603.87}, {'Date': '31-Dec-15', 'Close': 17425.03}, {'Date': '4-Jan-16', 'Close': 17148.94}, {'Date': '5-Jan-16', 'Close': 17158.66}, {'Date': '6-Jan-16', 'Close': 16906.51}, {'Date': '7-Jan-16', 'Close': 16514.1}, {'Date': '8-Jan-16', 'Close': 16346.45}, {'Date': '11-Jan-16', 'Close': 16398.57}, {'Date': '12-Jan-16', 'Close': 16516.22}, {'Date': '13-Jan-16', 'Close': 16151.41}, {'Date': '14-Jan-16', 'Close': 16379.05}, {'Date': '15-Jan-16', 'Close': 15988.08}, {'Date': '19-Jan-16', 'Close': 16016.02}, {'Date': '20-Jan-16', 'Close': 15766.74}, {'Date': '21-Jan-16', 'Close': 15882.68}, {'Date': '22-Jan-16', 'Close': 16093.51}, {'Date': '25-Jan-16', 'Close': 15885.22}, {'Date': '26-Jan-16', 'Close': 16167.23}, {'Date': '27-Jan-16', 'Close': 15944.46}, {'Date': '28-Jan-16', 'Close': 16069.64}, {'Date': '29-Jan-16', 'Close': 16466.3}, {'Date': '1-Feb-16', 'Close': 16449.18}, {'Date': '2-Feb-16', 'Close': 16153.54}, {'Date': '3-Feb-16', 'Close': 16336.66}, {'Date': '4-Feb-16', 'Close': 16416.58}, {'Date': '5-Feb-16', 'Close': 16204.97}, {'Date': '8-Feb-16', 'Close': 16027.05}, {'Date': '9-Feb-16', 'Close': 16014.38}, {'Date': '10-Feb-16', 'Close': 15914.74}, {'Date': '11-Feb-16', 'Close': 15660.18}, {'Date': '12-Feb-16', 'Close': 15973.84}, {'Date': '16-Feb-16', 'Close': 16196.41}, {'Date': '17-Feb-16', 'Close': 16453.83}, {'Date': '18-Feb-16', 'Close': 16413.43}, {'Date': '19-Feb-16', 'Close': 16391.99}, {'Date': '22-Feb-16', 'Close': 16620.66}, {'Date': '23-Feb-16', 'Close': 16431.78}, {'Date': '24-Feb-16', 'Close': 16484.99}, {'Date': '25-Feb-16', 'Close': 16697.29}, {'Date': '26-Feb-16', 'Close': 16639.97}, {'Date': '29-Feb-16', 'Close': 16516.5}, {'Date': '1-Mar-16', 'Close': 16865.08}, {'Date': '2-Mar-16', 'Close': 16899.32}, {'Date': '3-Mar-16', 'Close': 16943.9}, {'Date': '4-Mar-16', 'Close': 17006.77}, {'Date': '7-Mar-16', 'Close': 17073.95}, {'Date': '8-Mar-16', 'Close': 16964.1}, {'Date': '9-Mar-16', 'Close': 17000.36}, {'Date': '10-Mar-16', 'Close': 16995.13}, {'Date': '11-Mar-16', 'Close': 17213.31}, {'Date': '14-Mar-16', 'Close': 17229.13}, {'Date': '15-Mar-16', 'Close': 17251.53}, {'Date': '16-Mar-16', 'Close': 17325.76}, {'Date': '17-Mar-16', 'Close': 17481.49}, {'Date': '18-Mar-16', 'Close': 17602.3}, {'Date': '21-Mar-16', 'Close': 17623.87}, {'Date': '22-Mar-16', 'Close': 17582.57}, {'Date': '23-Mar-16', 'Close': 17502.59}, {'Date': '24-Mar-16', 'Close': 17515.73}, {'Date': '28-Mar-16', 'Close': 17535.39}, {'Date': '29-Mar-16', 'Close': 17633.11}, {'Date': '30-Mar-16', 'Close': 17716.66}, {'Date': '31-Mar-16', 'Close': 17685.09}, {'Date': '1-Apr-16', 'Close': 17792.75}, {'Date': '4-Apr-16', 'Close': 17737.0}, {'Date': '5-Apr-16', 'Close': 17603.32}, {'Date': '6-Apr-16', 'Close': 17716.05}, {'Date': '7-Apr-16', 'Close': 17541.96}, {'Date': '8-Apr-16', 'Close': 17576.96}, {'Date': '11-Apr-16', 'Close': 17556.41}, {'Date': '12-Apr-16', 'Close': 17721.25}, {'Date': '13-Apr-16', 'Close': 17908.28}, {'Date': '14-Apr-16', 'Close': 17926.43}, {'Date': '15-Apr-16', 'Close': 17897.46}, {'Date': '18-Apr-16', 'Close': 18004.16}, {'Date': '19-Apr-16', 'Close': 18053.6}, {'Date': '20-Apr-16', 'Close': 18096.27}, {'Date': '21-Apr-16', 'Close': 17982.52}, {'Date': '22-Apr-16', 'Close': 18003.75}, {'Date': '25-Apr-16', 'Close': 17977.24}, {'Date': '26-Apr-16', 'Close': 17990.32}, {'Date': '27-Apr-16', 'Close': 18041.55}, {'Date': '28-Apr-16', 'Close': 17830.76}, {'Date': '29-Apr-16', 'Close': 17773.64}, {'Date': '2-May-16', 'Close': 17891.16}, {'Date': '3-May-16', 'Close': 17750.91}, {'Date': '4-May-16', 'Close': 17651.26}, {'Date': '5-May-16', 'Close': 17660.71}, {'Date': '6-May-16', 'Close': 17740.63}, {'Date': '9-May-16', 'Close': 17705.91}, {'Date': '10-May-16', 'Close': 17928.35}, {'Date': '11-May-16', 'Close': 17711.12}, {'Date': '12-May-16', 'Close': 17720.5}, {'Date': '13-May-16', 'Close': 17535.32}, {'Date': '16-May-16', 'Close': 17710.71}, {'Date': '17-May-16', 'Close': 17529.98}, {'Date': '18-May-16', 'Close': 17526.62}, {'Date': '19-May-16', 'Close': 17435.4}, {'Date': '20-May-16', 'Close': 17500.94}, {'Date': '23-May-16', 'Close': 17492.93}, {'Date': '24-May-16', 'Close': 17706.05}, {'Date': '25-May-16', 'Close': 17851.51}, {'Date': '26-May-16', 'Close': 17828.29}, {'Date': '27-May-16', 'Close': 17873.22}, {'Date': '31-May-16', 'Close': 17787.2}, {'Date': '1-Jun-16', 'Close': 17789.67}, {'Date': '2-Jun-16', 'Close': 17838.56}, {'Date': '3-Jun-16', 'Close': 17807.06}, {'Date': '6-Jun-16', 'Close': 17920.33}, {'Date': '7-Jun-16', 'Close': 17938.28}, {'Date': '8-Jun-16', 'Close': 18005.05}, {'Date': '9-Jun-16', 'Close': 17985.19}, {'Date': '10-Jun-16', 'Close': 17865.34}, {'Date': '13-Jun-16', 'Close': 17732.48}, {'Date': '14-Jun-16', 'Close': 17674.82}, {'Date': '15-Jun-16', 'Close': 17640.17}, {'Date': '16-Jun-16', 'Close': 17733.1}, {'Date': '17-Jun-16', 'Close': 17675.16}, {'Date': '20-Jun-16', 'Close': 17804.87}, {'Date': '21-Jun-16', 'Close': 17829.73}, {'Date': '22-Jun-16', 'Close': 17780.83}, {'Date': '23-Jun-16', 'Close': 18011.07}, {'Date': '24-Jun-16', 'Close': 17400.75}, {'Date': '27-Jun-16', 'Close': 17140.24}, {'Date': '28-Jun-16', 'Close': 17409.72}, {'Date': '29-Jun-16', 'Close': 17694.68}, {'Date': '30-Jun-16', 'Close': 17929.99}, {'Date': '1-Jul-16', 'Close': 17949.37}, {'Date': '5-Jul-16', 'Close': 17840.62}, {'Date': '6-Jul-16', 'Close': 17918.62}, {'Date': '7-Jul-16', 'Close': 17895.88}, {'Date': '8-Jul-16', 'Close': 18146.74}, {'Date': '11-Jul-16', 'Close': 18226.93}, {'Date': '12-Jul-16', 'Close': 18347.67}, {'Date': '13-Jul-16', 'Close': 18372.12}, {'Date': '14-Jul-16', 'Close': 18506.41}, {'Date': '15-Jul-16', 'Close': 18516.55}, {'Date': '18-Jul-16', 'Close': 18533.05}, {'Date': '19-Jul-16', 'Close': 18559.01}, {'Date': '20-Jul-16', 'Close': 18595.03}, {'Date': '21-Jul-16', 'Close': 18517.23}, {'Date': '22-Jul-16', 'Close': 18570.85}, {'Date': '25-Jul-16', 'Close': 18493.06}, {'Date': '26-Jul-16', 'Close': 18473.75}, {'Date': '27-Jul-16', 'Close': 18472.17}, {'Date': '28-Jul-16', 'Close': 18456.35}, {'Date': '29-Jul-16', 'Close': 18432.24}, {'Date': '1-Aug-16', 'Close': 18404.51}, {'Date': '2-Aug-16', 'Close': 18313.77}, {'Date': '3-Aug-16', 'Close': 18355.0}, {'Date': '4-Aug-16', 'Close': 18352.05}, {'Date': '5-Aug-16', 'Close': 18543.53}, {'Date': '8-Aug-16', 'Close': 18529.29}, {'Date': '9-Aug-16', 'Close': 18533.05}, {'Date': '10-Aug-16', 'Close': 18495.66}, {'Date': '11-Aug-16', 'Close': 18613.52}, {'Date': '12-Aug-16', 'Close': 18576.47}, {'Date': '15-Aug-16', 'Close': 18636.05}, {'Date': '16-Aug-16', 'Close': 18552.02}, {'Date': '17-Aug-16', 'Close': 18573.94}, {'Date': '18-Aug-16', 'Close': 18597.7}, {'Date': '19-Aug-16', 'Close': 18552.57}, {'Date': '22-Aug-16', 'Close': 18529.42}, {'Date': '23-Aug-16', 'Close': 18547.3}, {'Date': '24-Aug-16', 'Close': 18481.48}, {'Date': '25-Aug-16', 'Close': 18448.41}, {'Date': '26-Aug-16', 'Close': 18395.4}, {'Date': '29-Aug-16', 'Close': 18502.99}, {'Date': '30-Aug-16', 'Close': 18454.3}, {'Date': '31-Aug-16', 'Close': 18400.88}, {'Date': '1-Sep-16', 'Close': 18419.3}, {'Date': '2-Sep-16', 'Close': 18491.96}, {'Date': '6-Sep-16', 'Close': 18538.12}, {'Date': '7-Sep-16', 'Close': 18526.14}, {'Date': '8-Sep-16', 'Close': 18479.91}, {'Date': '9-Sep-16', 'Close': 18085.45}, {'Date': '12-Sep-16', 'Close': 18325.07}, {'Date': '13-Sep-16', 'Close': 18066.75}, {'Date': '14-Sep-16', 'Close': 18034.77}, {'Date': '15-Sep-16', 'Close': 18212.48}, {'Date': '16-Sep-16', 'Close': 18123.8}, {'Date': '19-Sep-16', 'Close': 18120.17}, {'Date': '20-Sep-16', 'Close': 18129.96}, {'Date': '21-Sep-16', 'Close': 18293.7}, {'Date': '22-Sep-16', 'Close': 18392.46}, {'Date': '23-Sep-16', 'Close': 18261.45}, {'Date': '26-Sep-16', 'Close': 18094.83}, {'Date': '27-Sep-16', 'Close': 18228.3}, {'Date': '28-Sep-16', 'Close': 18339.24}, {'Date': '29-Sep-16', 'Close': 18143.45}, {'Date': '30-Sep-16', 'Close': 18308.15}, {'Date': '3-Oct-16', 'Close': 18253.85}, {'Date': '4-Oct-16', 'Close': 18168.45}, {'Date': '5-Oct-16', 'Close': 18281.03}, {'Date': '6-Oct-16', 'Close': 18268.5}, {'Date': '7-Oct-16', 'Close': 18240.49}, {'Date': '10-Oct-16', 'Close': 18329.04}, {'Date': '11-Oct-16', 'Close': 18128.66}, {'Date': '12-Oct-16', 'Close': 18144.2}, {'Date': '13-Oct-16', 'Close': 18098.94}, {'Date': '14-Oct-16', 'Close': 18138.38}, {'Date': '17-Oct-16', 'Close': 18086.4}, {'Date': '18-Oct-16', 'Close': 18161.94}, {'Date': '19-Oct-16', 'Close': 18202.62}, {'Date': '20-Oct-16', 'Close': 18162.35}, {'Date': '21-Oct-16', 'Close': 18145.71}, {'Date': '24-Oct-16', 'Close': 18223.03}, {'Date': '25-Oct-16', 'Close': 18169.27}, {'Date': '26-Oct-16', 'Close': 18199.33}, {'Date': '27-Oct-16', 'Close': 18169.68}, {'Date': '28-Oct-16', 'Close': 18161.19}, {'Date': '31-Oct-16', 'Close': 18142.42}, {'Date': '1-Nov-16', 'Close': 18037.1}, {'Date': '2-Nov-16', 'Close': 17959.64}, {'Date': '3-Nov-16', 'Close': 17930.67}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{'Date': '27-Jan-17', 'Close': '20,093.78'}, {'Date': '30-Jan-17', 'Close': '19,971.13'}, {'Date': '31-Jan-17', 'Close': '19,864.09'}, {'Date': '1-Feb-17', 'Close': '19,890.94'}, {'Date': '2-Feb-17', 'Close': '19,884.91'}, {'Date': '3-Feb-17', 'Close': '20,071.46'}, {'Date': '6-Feb-17', 'Close': '20,052.42'}, {'Date': '7-Feb-17', 'Close': '20,090.29'}, {'Date': '8-Feb-17', 'Close': '20,054.34'}, {'Date': '9-Feb-17', 'Close': '20,172.40'}, {'Date': '10-Feb-17', 'Close': '20,269.37'}, {'Date': '13-Feb-17', 'Close': '20,412.16'}, {'Date': '14-Feb-17', 'Close': '20,504.41'}, {'Date': '15-Feb-17', 'Close': '20,611.86'}, {'Date': '16-Feb-17', 'Close': '20,619.77'}, {'Date': '17-Feb-17', 'Close': '20,624.05'}, {'Date': '21-Feb-17', 'Close': '20,743.00'}, {'Date': '22-Feb-17', 'Close': '20,775.60'}, {'Date': '23-Feb-17', 'Close': '20,810.32'}, {'Date': '24-Feb-17', 'Close': '20,821.76'}, {'Date': '27-Feb-17', 'Close': '20,837.44'}, {'Date': '28-Feb-17', 'Close': '20,812.24'}, {'Date': '1-Mar-17', 'Close': '21,115.55'}, {'Date': '2-Mar-17', 'Close': '21,002.97'}, {'Date': '3-Mar-17', 'Close': '21,005.71'}, {'Date': '6-Mar-17', 'Close': '20,954.34'}, {'Date': '7-Mar-17', 'Close': '20,924.76'}, {'Date': '8-Mar-17', 'Close': '20,855.73'}, {'Date': '9-Mar-17', 'Close': '20,858.19'}, {'Date': '10-Mar-17', 'Close': '20,902.98'}, {'Date': '13-Mar-17', 'Close': '20,881.48'}, {'Date': '14-Mar-17', 'Close': '20,837.37'}, {'Date': '15-Mar-17', 'Close': '20,950.10'}, {'Date': '16-Mar-17', 'Close': '20,934.55'}, {'Date': '17-Mar-17', 'Close': '20,914.62'}, {'Date': '20-Mar-17', 'Close': '20,905.86'}, {'Date': '21-Mar-17', 'Close': '20,668.01'}, {'Date': '22-Mar-17', 'Close': '20,661.30'}, {'Date': '23-Mar-17', 'Close': '20,656.58'}, {'Date': '24-Mar-17', 'Close': '20,596.72'}, {'Date': '27-Mar-17', 'Close': '20,550.98'}, {'Date': '28-Mar-17', 'Close': '20,701.50'}, {'Date': '29-Mar-17', 'Close': '20,659.32'}, {'Date': '30-Mar-17', 'Close': '20,728.49'}, {'Date': '31-Mar-17', 'Close': '20,663.22'}, {'Date': '3-Apr-17', 'Close': '20,650.21'}, {'Date': '4-Apr-17', 'Close': '20,689.24'}, {'Date': '5-Apr-17', 'Close': '20,648.15'}, {'Date': '6-Apr-17', 'Close': '20,662.95'}, {'Date': '7-Apr-17', 'Close': '20,656.10'}, {'Date': '10-Apr-17', 'Close': '20,658.02'}, {'Date': '11-Apr-17', 'Close': '20,651.30'}, {'Date': '12-Apr-17', 'Close': '20,591.86'}, {'Date': '13-Apr-17', 'Close': '20,453.25'}, {'Date': '17-Apr-17', 'Close': '20,636.92'}, {'Date': '18-Apr-17', 'Close': '20,523.28'}, {'Date': '19-Apr-17', 'Close': '20,404.49'}, {'Date': '20-Apr-17', 'Close': '20,578.71'}, {'Date': '21-Apr-17', 'Close': '20,547.76'}, {'Date': '24-Apr-17', 'Close': '20,763.89'}, {'Date': '25-Apr-17', 'Close': '20,996.12'}, {'Date': '26-Apr-17', 'Close': '20,975.09'}, {'Date': '27-Apr-17', 'Close': '20,981.33'}, {'Date': '28-Apr-17', 'Close': '20,940.51'}, {'Date': '1-May-17', 'Close': '20,913.46'}, {'Date': '2-May-17', 'Close': '20,949.89'}, {'Date': '3-May-17', 'Close': '20,957.90'}, {'Date': '4-May-17', 'Close': '20,951.47'}, {'Date': '5-May-17', 'Close': '21,006.94'}, {'Date': '8-May-17', 'Close': '21,012.28'}, {'Date': '9-May-17', 'Close': '20,975.78'}, {'Date': '10-May-17', 'Close': '20,943.11'}, {'Date': '11-May-17', 'Close': '20,919.42'}, {'Date': '12-May-17', 'Close': '20,896.61'}, {'Date': '15-May-17', 'Close': '20,981.94'}, {'Date': '16-May-17', 'Close': '20,979.75'}, {'Date': '17-May-17', 'Close': '20,606.93'}, {'Date': '18-May-17', 'Close': '20,663.02'}, {'Date': '19-May-17', 'Close': '20,804.84'}, {'Date': '22-May-17', 'Close': '20,894.83'}, {'Date': '23-May-17', 'Close': '20,937.91'}, {'Date': '24-May-17', 'Close': '21,012.42'}, {'Date': '25-May-17', 'Close': '21,082.95'}, {'Date': '26-May-17', 'Close': '21,080.28'}, {'Date': '30-May-17', 'Close': '21,029.47'}, {'Date': '31-May-17', 'Close': '21,008.65'}, {'Date': '1-Jun-17', 'Close': '21,144.18'}, {'Date': '2-Jun-17', 'Close': '21,206.29'}, {'Date': '5-Jun-17', 'Close': '21,184.04'}, {'Date': '6-Jun-17', 'Close': '21,136.23'}, {'Date': '7-Jun-17', 'Close': '21,173.69'}, {'Date': '8-Jun-17', 'Close': '21,182.53'}, {'Date': '9-Jun-17', 'Close': '21,271.97'}, {'Date': '12-Jun-17', 'Close': '21,235.67'}, {'Date': '13-Jun-17', 'Close': '21,328.47'}, {'Date': '14-Jun-17', 'Close': '21,374.56'}, {'Date': '15-Jun-17', 'Close': '21,359.90'}, {'Date': '16-Jun-17', 'Close': '21,384.28'}, {'Date': '19-Jun-17', 'Close': '21,528.99'}, {'Date': '20-Jun-17', 'Close': '21,467.14'}, {'Date': '21-Jun-17', 'Close': '21,410.03'}, {'Date': '22-Jun-17', 'Close': '21,397.29'}, {'Date': '23-Jun-17', 'Close': '21,394.76'}, {'Date': '26-Jun-17', 'Close': '21,409.55'}, {'Date': '27-Jun-17', 'Close': '21,310.66'}, {'Date': '28-Jun-17', 'Close': '21,454.61'}, {'Date': '29-Jun-17', 'Close': '21,287.03'}, {'Date': '30-Jun-17', 'Close': '21,349.63'}, {'Date': '3-Jul-17', 'Close': '21,479.27'}, {'Date': '5-Jul-17', 'Close': '21,478.17'}, {'Date': '6-Jul-17', 'Close': '21,320.04'}, {'Date': '7-Jul-17', 'Close': '21,414.34'}, {'Date': '10-Jul-17', 'Close': '21,408.52'}, {'Date': '11-Jul-17', 'Close': '21,409.07'}, {'Date': '12-Jul-17', 'Close': '21,532.14'}, {'Date': '13-Jul-17', 'Close': '21,553.09'}, {'Date': '14-Jul-17', 'Close': '21,637.74'}, {'Date': '17-Jul-17', 'Close': '21,629.72'}, {'Date': '18-Jul-17', 'Close': '21,574.73'}, {'Date': '19-Jul-17', 'Close': '21,640.75'}, {'Date': '20-Jul-17', 'Close': '21,611.78'}, {'Date': '21-Jul-17', 'Close': '21,580.07'}, {'Date': '24-Jul-17', 'Close': '21,513.17'}, {'Date': '25-Jul-17', 'Close': '21,613.43'}, {'Date': '26-Jul-17', 'Close': '21,711.01'}, {'Date': '27-Jul-17', 'Close': '21,796.55'}, {'Date': '28-Jul-17', 'Close': '21,830.31'}, {'Date': '31-Jul-17', 'Close': '21,891.12'}, {'Date': '1-Aug-17', 'Close': '21,963.92'}, {'Date': '2-Aug-17', 'Close': '22,016.24'}, {'Date': '3-Aug-17', 'Close': '22,026.10'}, {'Date': '4-Aug-17', 'Close': '22,092.81'}, {'Date': '7-Aug-17', 'Close': '22,118.42'}, {'Date': '8-Aug-17', 'Close': '22,085.34'}, {'Date': '9-Aug-17', 'Close': '22,048.70'}, {'Date': '10-Aug-17', 'Close': '21,844.01'}, {'Date': '11-Aug-17', 'Close': '21,858.32'}, {'Date': '14-Aug-17', 'Close': '21,993.71'}, {'Date': '15-Aug-17', 'Close': '21,998.99'}, {'Date': '16-Aug-17', 'Close': '22,024.87'}, {'Date': '17-Aug-17', 'Close': '21,750.73'}, {'Date': '18-Aug-17', 'Close': '21,674.51'}, {'Date': '21-Aug-17', 'Close': '21,703.75'}, {'Date': '22-Aug-17', 'Close': '21,899.89'}, {'Date': '23-Aug-17', 'Close': '21,812.09'}, {'Date': '24-Aug-17', 'Close': '21,783.40'}, {'Date': '25-Aug-17', 'Close': '21,813.67'}, {'Date': '28-Aug-17', 'Close': '21,808.40'}, {'Date': '29-Aug-17', 'Close': '21,865.37'}, {'Date': '30-Aug-17', 'Close': '21,892.43'}, {'Date': '31-Aug-17', 'Close': '21,948.10'}, {'Date': '1-Sep-17', 'Close': '21,987.56'}, {'Date': '5-Sep-17', 'Close': '21,753.31'}, {'Date': '6-Sep-17', 'Close': '21,807.64'}, {'Date': '7-Sep-17', 'Close': '21,784.78'}, {'Date': '8-Sep-17', 'Close': '21,797.79'}, {'Date': '11-Sep-17', 'Close': '22,057.37'}, {'Date': '12-Sep-17', 'Close': '22,118.86'}, {'Date': '13-Sep-17', 'Close': '22,158.18'}, {'Date': '14-Sep-17', 'Close': '22,203.48'}, {'Date': '15-Sep-17', 'Close': '22,268.34'}, {'Date': '18-Sep-17', 'Close': '22,331.35'}, {'Date': '19-Sep-17', 'Close': '22,370.80'}, {'Date': '20-Sep-17', 'Close': '22,412.59'}, {'Date': '21-Sep-17', 'Close': '22,359.23'}, {'Date': '22-Sep-17', 'Close': '22,349.59'}, {'Date': '25-Sep-17', 'Close': '22,296.09'}, {'Date': '26-Sep-17', 'Close': '22,284.32'}, {'Date': '27-Sep-17', 'Close': '22,340.71'}, {'Date': '28-Sep-17', 'Close': '22,381.20'}, {'Date': '29-Sep-17', 'Close': '22,405.09'}, {'Date': '2-Oct-17', 'Close': '22,557.60'}, {'Date': '3-Oct-17', 'Close': '22,641.67'}, {'Date': '4-Oct-17', 'Close': '22,661.64'}, {'Date': '5-Oct-17', 'Close': '22,775.39'}, {'Date': '6-Oct-17', 'Close': '22,773.67'}, {'Date': '9-Oct-17', 'Close': '22,761.07'}, {'Date': '10-Oct-17', 'Close': '22,830.68'}, {'Date': '11-Oct-17', 'Close': '22,872.89'}, {'Date': '12-Oct-17', 'Close': '22,841.01'}, {'Date': '13-Oct-17', 'Close': '22,871.72'}, {'Date': '16-Oct-17', 'Close': '22,956.96'}, {'Date': '17-Oct-17', 'Close': '22,997.44'}, {'Date': '18-Oct-17', 'Close': '23,157.60'}, {'Date': '19-Oct-17', 'Close': '23,163.04'}, {'Date': '20-Oct-17', 'Close': '23,328.63'}, {'Date': '23-Oct-17', 'Close': '23,273.96'}, {'Date': '24-Oct-17', 'Close': '23,441.76'}, {'Date': '25-Oct-17', 'Close': '23,329.46'}, {'Date': '26-Oct-17', 'Close': '23,400.86'}, {'Date': '27-Oct-17', 'Close': '23,434.19'}, {'Date': '30-Oct-17', 'Close': '23,348.74'}, {'Date': '31-Oct-17', 'Close': '23,377.24'}, {'Date': '1-Nov-17', 'Close': '23,435.01'}, {'Date': '2-Nov-17', 'Close': '23,516.26'}, {'Date': '3-Nov-17', 'Close': '23,539.19'}, {'Date': '6-Nov-17', 'Close': '23,548.42'}, {'Date': '7-Nov-17', 'Close': '23,557.23'}, {'Date': '8-Nov-17', 'Close': '23,563.36'}, {'Date': '9-Nov-17', 'Close': '23,461.94'}, {'Date': '10-Nov-17', 'Close': '23,422.21'}, {'Date': '13-Nov-17', 'Close': '23,439.70'}, {'Date': '14-Nov-17', 'Close': '23,409.47'}, {'Date': '15-Nov-17', 'Close': '23,271.28'}, {'Date': '16-Nov-17', 'Close': '23,458.36'}, {'Date': '17-Nov-17', 'Close': '23,358.24'}, {'Date': '20-Nov-17', 'Close': '23,430.33'}, {'Date': '21-Nov-17', 'Close': '23,590.83'}, {'Date': '22-Nov-17', 'Close': '23,526.18'}, {'Date': '24-Nov-17', 'Close': '23,557.99'}, {'Date': '27-Nov-17', 'Close': '23,580.78'}, {'Date': '28-Nov-17', 'Close': '23,836.71'}, {'Date': '29-Nov-17', 'Close': '23,940.68'}, {'Date': '30-Nov-17', 'Close': '24,272.35'}, {'Date': '1-Dec-17', 'Close': '24,231.59'}, {'Date': '4-Dec-17', 'Close': '24,290.05'}, {'Date': '5-Dec-17', 'Close': '24,180.64'}, {'Date': '6-Dec-17', 'Close': '24,140.91'}, {'Date': '7-Dec-17', 'Close': '24,211.48'}, {'Date': '8-Dec-17', 'Close': '24,329.16'}, {'Date': '11-Dec-17', 'Close': '24,386.03'}, {'Date': '12-Dec-17', 'Close': '24,504.80'}, {'Date': '13-Dec-17', 'Close': '24,585.43'}, {'Date': '14-Dec-17', 'Close': '24,508.66'}, {'Date': '15-Dec-17', 'Close': '24,651.74'}, {'Date': '18-Dec-17', 'Close': '24,792.20'}, {'Date': '19-Dec-17', 'Close': '24,754.75'}, {'Date': '20-Dec-17', 'Close': '24,726.65'}, {'Date': '21-Dec-17', 'Close': '24,782.29'}, {'Date': '22-Dec-17', 'Close': '24,754.06'}, {'Date': '26-Dec-17', 'Close': '24,746.21'}, {'Date': '27-Dec-17', 'Close': '24,774.30'}, {'Date': '28-Dec-17', 'Close': '24,837.51'}, {'Date': '29-Dec-17', 'Close': '24,719.22'}, {'Date': '2-Jan-18', 'Close': '24,824.01'}, {'Date': '3-Jan-18', 'Close': '24,922.68'}, {'Date': '4-Jan-18', 'Close': '25,075.13'}, {'Date': '5-Jan-18', 'Close': '25,295.87'}, {'Date': '8-Jan-18', 'Close': '25,283.00'}, {'Date': '9-Jan-18', 'Close': '25,385.80'}, {'Date': '10-Jan-18', 'Close': '25,369.13'}, {'Date': '11-Jan-18', 'Close': '25,574.73'}, {'Date': '12-Jan-18', 'Close': '25,803.19'}, {'Date': '16-Jan-18', 'Close': '25,792.86'}, {'Date': '17-Jan-18', 'Close': '26,115.65'}, {'Date': '18-Jan-18', 'Close': '26,017.81'}, {'Date': '19-Jan-18', 'Close': '26,071.72'}, {'Date': '22-Jan-18', 'Close': '26,214.60'}, {'Date': '23-Jan-18', 'Close': '26,210.81'}, {'Date': '24-Jan-18', 'Close': '26,252.12'}, {'Date': '25-Jan-18', 'Close': '26,392.79'}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{'Date': '9-Jan-20', 'Close': '28,956.90'}, {'Date': '10-Jan-20', 'Close': '28,823.77'}, {'Date': '13-Jan-20', 'Close': '28,907.05'}, {'Date': '14-Jan-20', 'Close': '28,939.67'}, {'Date': '15-Jan-20', 'Close': '29,030.22'}, {'Date': '16-Jan-20', 'Close': '29,297.64'}, {'Date': '17-Jan-20', 'Close': '29,348.10'}, {'Date': '21-Jan-20', 'Close': '29,196.04'}, {'Date': '22-Jan-20', 'Close': '29,186.27'}, {'Date': '23-Jan-20', 'Close': '29,160.09'}, {'Date': '24-Jan-20', 'Close': '28,989.73'}, {'Date': '27-Jan-20', 'Close': '28,535.80'}, {'Date': '28-Jan-20', 'Close': '28,722.85'}, {'Date': '29-Jan-20', 'Close': '28,734.45'}, {'Date': '30-Jan-20', 'Close': '28,859.44'}, {'Date': '31-Jan-20', 'Close': '28,256.03'}, {'Date': '3-Feb-20', 'Close': '28,399.81'}, {'Date': '4-Feb-20', 'Close': '28,807.63'}, {'Date': '5-Feb-20', 'Close': '29,290.85'}, {'Date': '6-Feb-20', 'Close': '29,379.77'}, {'Date': '7-Feb-20', 'Close': '29,102.51'}, {'Date': '10-Feb-20', 'Close': '29,276.82'}, {'Date': '11-Feb-20', 'Close': '29,276.34'}, {'Date': '12-Feb-20', 'Close': '29,551.42'}, {'Date': '13-Feb-20', 'Close': '29,423.31'}, {'Date': '14-Feb-20', 'Close': '29,398.08'}, {'Date': '18-Feb-20', 'Close': '29,232.19'}, {'Date': '19-Feb-20', 'Close': '29,348.03'}, {'Date': '20-Feb-20', 'Close': '29,219.98'}, {'Date': '21-Feb-20', 'Close': '28,992.41'}, {'Date': '24-Feb-20', 'Close': '27,960.80'}, {'Date': '25-Feb-20', 'Close': '27,081.36'}, {'Date': '26-Feb-20', 'Close': '26,957.59'}, {'Date': '27-Feb-20', 'Close': '25,766.64'}, {'Date': '28-Feb-20', 'Close': '25,409.36'}, {'Date': '2-Mar-20', 'Close': '26,703.32'}, {'Date': '3-Mar-20', 'Close': '25,917.41'}, {'Date': '4-Mar-20', 'Close': '27,090.86'}, {'Date': '5-Mar-20', 'Close': '26,121.28'}, {'Date': '6-Mar-20', 'Close': '25,864.78'}, {'Date': '9-Mar-20', 'Close': '23,851.02'}, {'Date': '10-Mar-20', 'Close': '25,018.16'}, {'Date': '11-Mar-20', 'Close': '23,553.22'}, {'Date': '12-Mar-20', 'Close': '21,200.62'}, {'Date': '13-Mar-20', 'Close': '23,185.62'}, {'Date': '16-Mar-20', 'Close': '20,188.52'}, {'Date': '17-Mar-20', 'Close': '21,237.38'}, {'Date': '18-Mar-20', 'Close': '19,898.92'}, {'Date': '19-Mar-20', 'Close': '20,087.19'}, {'Date': '20-Mar-20', 'Close': '19,173.98'}, {'Date': '23-Mar-20', 'Close': '18,591.93'}, {'Date': '24-Mar-20', 'Close': '20,704.91'}, {'Date': '25-Mar-20', 'Close': '21,200.55'}, {'Date': '26-Mar-20', 'Close': '22,552.17'}, {'Date': '27-Mar-20', 'Close': '21,636.78'}, {'Date': '30-Mar-20', 'Close': '22,327.48'}, {'Date': '31-Mar-20', 'Close': '21,917.16'}, {'Date': '1-Apr-20', 'Close': '20,943.51'}, {'Date': '2-Apr-20', 'Close': '21,413.44'}, {'Date': '3-Apr-20', 'Close': '21,052.53'}, {'Date': '6-Apr-20', 'Close': '22,679.99'}, {'Date': '7-Apr-20', 'Close': '22,653.86'}, {'Date': '8-Apr-20', 'Close': '23,433.57'}, {'Date': '9-Apr-20', 'Close': '23,719.37'}, {'Date': '13-Apr-20', 'Close': '23,390.77'}, {'Date': '14-Apr-20', 'Close': '23,949.76'}, {'Date': '15-Apr-20', 'Close': '23,504.35'}, {'Date': '16-Apr-20', 'Close': '23,537.68'}, {'Date': '17-Apr-20', 'Close': '24,242.49'}, {'Date': '20-Apr-20', 'Close': '23,650.44'}, {'Date': '21-Apr-20', 'Close': '23,018.88'}, {'Date': '22-Apr-20', 'Close': '23,475.82'}, {'Date': '23-Apr-20', 'Close': '23,515.26'}, {'Date': '24-Apr-20', 'Close': '23,775.27'}, {'Date': '27-Apr-20', 'Close': '24,133.78'}, {'Date': '28-Apr-20', 'Close': '24,101.55'}, {'Date': '29-Apr-20', 'Close': '24,633.86'}, {'Date': '30-Apr-20', 'Close': '24,345.72'}, {'Date': '1-May-20', 'Close': '23,723.69'}, {'Date': '4-May-20', 'Close': '23,749.76'}, {'Date': '5-May-20', 'Close': '23,883.09'}, {'Date': '6-May-20', 'Close': '23,664.64'}, {'Date': '7-May-20', 'Close': '23,875.89'}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>From 2020/03/04 to 2020/03/23, the 'Dow Janes Industrial (.DJI) is on an downtrend.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"ObjectName":"Close","BeginIndex":"37","EndIndex":"50","Trend":"downtrend","Number":"None"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"ObjectName":"Close","BeginIndex":"76","EndIndex":"250","Trend":"uptrend","Number":"None"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The chart of Amazon.com Inc. (AMZN) shows a double top pattern that formed in the stock between September and October 2018. After the pattern appears, shares plunges another 31%.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"Close","BeginIndex":"42","EndIndex":"69","Trend":"double top","Number":"None"}, {"ObjectName":"Close","BeginIndex":"70","EndIndex":"102","Trend":"plunges","Number":"31%"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{'Date': '2018/6/27', 'Close': 83.025497}, {'Date': '2018/6/28', 'Close': 85.072502}, {'Date': '2018/6/29', 'Close': 84.989998}, {'Date': '2018/7/2', 'Close': 85.689003}, {'Date': '2018/7/3', 'Close': 84.697998}, {'Date': '2018/7/5', 'Close': 84.986504}, {'Date': '2018/7/6', 'Close': 85.531502}, {'Date': '2018/7/9', 'Close': 86.950996}, {'Date': '2018/7/10', 'Close': 87.153503}, {'Date': '2018/7/11', 'Close': 87.75}, {'Date': '2018/7/12', 'Close': 89.831001}, {'Date': '2018/7/13', 'Close': 90.651497}, {'Date': '2018/7/16', 'Close': 91.124496}, {'Date': '2018/7/17', 'Close': 92.196503}, {'Date': '2018/7/18', 'Close': 92.146004}, {'Date': '2018/7/19', 'Close': 90.648499}, {'Date': '2018/7/20', 'Close': 90.684998}, {'Date': '2018/7/23', 'Close': 90.099998}, {'Date': '2018/7/24', 'Close': 91.461998}, {'Date': '2018/7/25', 'Close': 93.180496}, {'Date': '2018/7/26', 'Close': 90.400002}, {'Date': '2018/7/27', 'Close': 90.863503}, {'Date': '2018/7/30', 'Close': 88.960999}, {'Date': '2018/7/31', 'Close': 88.872002}, {'Date': '2018/8/1', 'Close': 89.858498}, {'Date': '2018/8/2', 'Close': 91.716499}, {'Date': '2018/8/3', 'Close': 91.164497}, {'Date': '2018/8/6', 'Close': 92.387497}, {'Date': '2018/8/7', 'Close': 93.124001}, {'Date': '2018/8/8', 'Close': 94.325996}, {'Date': '2018/8/9', 'Close': 94.926003}, {'Date': '2018/8/10', 'Close': 94.315002}, {'Date': '2018/8/13', 'Close': 94.809998}, {'Date': '2018/8/14', 'Close': 95.982498}, {'Date': '2018/8/15', 'Close': 94.130997}, {'Date': '2018/8/16', 'Close': 94.325996}, {'Date': '2018/8/17', 'Close': 94.111}, {'Date': '2018/8/20', 'Close': 93.835503}, {'Date': '2018/8/21', 'Close': 94.170998}, {'Date': '2018/8/22', 'Close': 95.245003}, {'Date': '2018/8/23', 'Close': 95.144997}, {'Date': '2018/8/24', 'Close': 95.269501}, {'Date': '2018/8/27', 'Close': 96.384003}, {'Date': '2018/8/28', 'Close': 96.640999}, {'Date': '2018/8/29', 'Close': 99.904999}, {'Date': '2018/8/30', 'Close': 100.119003}, {'Date': '2018/8/31', 'Close': 100.635498}, {'Date': '2018/9/4', 'Close': 101.975502}, {'Date': '2018/9/5', 'Close': 101.740997}, {'Date': '2018/9/6', 'Close': 99.915497}, {'Date': '2018/9/7', 'Close': 98.6035}, {'Date': '2018/9/10', 'Close': 97.9505}, {'Date': '2018/9/11', 'Close': 97.357498}, {'Date': '2018/9/12', 'Close': 96.93}, {'Date': '2018/9/13', 'Close': 96.7935}, {'Date': '2018/9/14', 'Close': 96.809499}, {'Date': '2018/9/17', 'Close': 96.901497}, {'Date': '2018/9/18', 'Close': 97.052498}, {'Date': '2018/9/19', 'Close': 96.320999}, {'Date': '2018/9/20', 'Close': 97.214996}, {'Date': '2018/9/21', 'Close': 95.750504}, {'Date': '2018/9/24', 'Close': 96.718002}, {'Date': '2018/9/25', 'Close': 98.727501}, {'Date': '2018/9/26', 'Close': 98.7425}, {'Date': '2018/9/27', 'Close': 100.649002}, {'Date': '2018/9/28', 'Close': 100.150002}, {'Date': '2018/10/1', 'Close': 100.218002}, {'Date': '2018/10/2', 'Close': 98.565498}, {'Date': '2018/10/3', 'Close': 97.638}, {'Date': '2018/10/4', 'Close': 95.471001}, {'Date': '2018/10/5', 'Close': 94.482498}, {'Date': '2018/10/8', 'Close': 93.221001}, {'Date': '2018/10/9', 'Close': 93.515999}, {'Date': '2018/10/10', 'Close': 87.762497}, {'Date': '2018/10/11', 'Close': 85.968002}, {'Date': '2018/10/12', 'Close': 89.430496}, {'Date': '2018/10/15', 'Close': 88.047501}, {'Date': '2018/10/16', 'Close': 90.998001}, {'Date': '2018/10/17', 'Close': 91.586502}, {'Date': '2018/10/18', 'Close': 88.536003}, {'Date': '2018/10/19', 'Close': 88.2015}, {'Date': '2018/10/22', 'Close': 89.464996}, {'Date': '2018/10/23', 'Close': 88.434998}, {'Date': '2018/10/24', 'Close': 83.209999}, {'Date': '2018/10/25', 'Close': 89.108498}, {'Date': '2018/10/26', 'Close': 82.140503}, {'Date': '2018/10/29', 'Close': 76.944}, {'Date': '2018/10/30', 'Close': 76.521004}, {'Date': '2018/10/31', 'Close': 79.900497}, {'Date': '2018/11/1', 'Close': 83.276497}, {'Date': '2018/11/2', 'Close': 83.276497}, {'Date': '2018/11/5', 'Close': 81.389999}, {'Date': '2018/11/6', 'Close': 82.140503}, {'Date': '2018/11/7', 'Close': 87.774498}, {'Date': '2018/11/8', 'Close': 87.745499}, {'Date': '2018/11/9', 'Close': 85.621498}, {'Date': '2018/11/12', 'Close': 81.842499}, {'Date': '2018/11/13', 'Close': 81.558502}, {'Date': '2018/11/14', 'Close': 79.9505}, {'Date': '2018/11/15', 'Close': 80.972}, {'Date': '2018/11/16', 'Close': 79.670502}, {'Date': '2018/11/19', 'Close': 75.614502}, {'Date': '2018/11/20', 'Close': 74.773003}]</t>
-  </si>
-  <si>
-    <t>{"ObjectName":"Price","BeginIndex":"22","EndIndex":"56","Trend":"triple top","Number":"None"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The "triple top" pattern happens from 2010/04/01 to 2010/05/05. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{'time': '2010/3/10', 'price': 96.4}, {'time': '2010/3/11', 'price': 98.8}, {'time': '2010/3/12', 'price': 101.23}, {'time': '2010/3/13', 'price': 98.6}, {'time': '2010/3/14', 'price': 96.5}, {'time': '2010/3/15', 'price': 94.3}, {'time': '2010/3/16', 'price': 98.023}, {'time': '2010/3/17', 'price': 97.25}, {'time': '2010/3/18', 'price': 98.089}, {'time': '2010/3/19', 'price': 98.144}, {'time': '2010/3/20', 'price': 98.899}, {'time': '2010/3/21', 'price': 100.001}, {'time': '2010/3/22', 'price': 102.2}, {'time': '2010/3/23', 'price': 103.7}, {'time': '2010/3/24', 'price': 102.46}, {'time': '2010/3/25', 'price': 99.46}, {'time': '2010/3/26', 'price': 97.01}, {'time': '2010/3/27', 'price': 99.14}, {'time': '2010/3/28', 'price': 100.74}, {'time': '2010/3/29', 'price': 104.58}, {'time': '2010/3/30', 'price': 105.31}, {'time': '2010/3/31', 'price': 107.07}, {'time': '2010/4/1', 'price': 110.13}, {'time': '2010/4/2', 'price': 111.26}, {'time': '2010/4/3', 'price': 113.0}, {'time': '2010/4/4', 'price': 115.8}, {'time': '2010/4/5', 'price': 116.6}, {'time': '2010/4/6', 'price': 117.0}, {'time': '2010/4/7', 'price': 116.7}, {'time': '2010/4/8', 'price': 116.5}, {'time': '2010/4/9', 'price': 116.6}, {'time': '2010/4/10', 'price': 116.7}, {'time': '2010/4/11', 'price': 116.0}, {'time': '2010/4/12', 'price': 115.0}, {'time': '2010/4/13', 'price': 112.9}, {'time': '2010/4/14', 'price': 112.7}, {'time': '2010/4/15', 'price': 113.0}, {'time': '2010/4/16', 'price': 113.2}, {'time': '2010/4/17', 'price': 114.6}, {'time': '2010/4/18', 'price': 115.5}, {'time': '2010/4/19', 'price': 117.8}, {'time': '2010/4/20', 'price': 117.6}, {'time': '2010/4/21', 'price': 116.2}, {'time': '2010/4/22', 'price': 115.2}, {'time': '2010/4/23', 'price': 114.4}, {'time': '2010/4/24', 'price': 113.0}, {'time': '2010/4/25', 'price': 112.8}, {'time': '2010/4/26', 'price': 113.8}, {'time': '2010/4/27', 'price': 116.0}, {'time': '2010/4/28', 'price': 115.5}, {'time': '2010/4/29', 'price': 114.9}, {'time': '2010/4/30', 'price': 114.7}, {'time': '2010/5/1', 'price': 112.2}, {'time': '2010/5/2', 'price': 111.4}, {'time': '2010/5/3', 'price': 110.8}, {'time': '2010/5/4', 'price': 110.9}, {'time': '2010/5/5', 'price': 109.9}, {'time': '2010/5/6', 'price': 106.8}, {'time': '2010/5/7', 'price': 105.5}, {'time': '2010/5/8', 'price': 104.6}, {'time': '2010/5/9', 'price': 106.5}, {'time': '2010/5/10', 'price': 110.5}, {'time': '2010/5/11', 'price': 111.0}, {'time': '2010/5/12', 'price': 110.6}, {'time': '2010/5/13', 'price': 110.2}, {'time': '2010/5/14', 'price': 104.9}, {'time': '2010/5/15', 'price': 105.8}, {'time': '2010/5/16', 'price': 106.6}, {'time': '2010/5/17', 'price': 106.0}, {'time': '2010/5/18', 'price': 105.6}, {'time': '2010/5/19', 'price': 106.0}, {'time': '2010/5/20', 'price': 105.0}, {'time': '2010/5/21', 'price': 106.6}, {'time': '2010/5/22', 'price': 106.9}, {'time': '2010/5/23', 'price': 107.7}, {'time': '2010/5/24', 'price': 110.3}, {'time': '2010/5/25', 'price': 111.5}, {'time': '2010/5/26', 'price': 110.4}, {'time': '2010/5/27', 'price': 107.0}, {'time': '2010/5/28', 'price': 105.5}, {'time': '2010/5/29', 'price': 103.0}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"Mini- and subcompact size","BeginIndex":"6","EndIndex":"6","Trend":"Declined","Number":"0.30"},{"ObjectName":"Mini- and subcompact size","BeginIndex":"0","EndIndex":"0","Trend":"None","Number":"0.61"}，{"ObjectName":"Compact Size" + "Midsize to large","BeginIndex":"6","EndIndex":"6","Trend":"upgrade trend","Number":"0.30" + "0.40"},{"ObjectName":"Compact Size" + "Midsize to large","BeginIndex":"0","EndIndex":"0","Trend":"None","Number":"0.35" + "0.04"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Date': '1999/5/3', 'Adj Close': 3.773438}, {'Date': '1999/5/4', 'Adj Close': 3.575}, {'Date': '1999/5/5', 'Adj Close': 3.6625}, {'Date': '1999/5/6', 'Adj Close': 3.434375}, {'Date': '1999/5/7', 'Adj Close': 3.409375}, {'Date': '1999/5/10', 'Adj Close': 3.671875}, {'Date': '1999/5/11', 'Adj Close': 3.709375}, {'Date': '1999/5/12', 'Adj Close': 3.573438}, {'Date': '1999/5/13', 'Adj Close': 3.4}, {'Date': '1999/5/14', 'Adj Close': 3.309375}, {'Date': '1999/5/17', 'Adj Close': 3.440625}, {'Date': '1999/5/18', 'Adj Close': 3.315625}, {'Date': '1999/5/19', 'Adj Close': 3.489063}, {'Date': '1999/5/20', 'Adj Close': 3.270313}, {'Date': '1999/5/21', 'Adj Close': 3.214063}, {'Date': '1999/5/24', 'Adj C 3.25}, {'Date': '1999/9/27', 'Adj Close': 3.128125}, {'Date': '1999/9/28', 'Adj Close': 3.29375}, {'Date': '1999/9/29', 'Adj Close': 4.0375}, {'Date': '1999/9/30', 'Adj Close': 3.996875}, {'Date': '1999/10/1', 'Adj Close': 3.8625}, {'Date': '1999/10/4', 'Adj Close': 3.853125}, {'Date': '1999/10/5', 'Adj Close': 3.921875}, {'Date': '1999/10/6', 'Adj Close': 4.121875}, {'Date': '1999/10/7', 'Adj Close': 4.365625}, {'Date': '1999/10/8', 'Adj Close': 4.4625}, {'Date': '1999/10/11', 'Adj Close': 4.41875}, {'Date': '1999/10/12', 'Adj Close': 4.246875}, {'Date': '1999/10/13', 'Adj Close': 3.996875}, {'Date': '1999/10/14', 'Adj Close': 3.979688}, {'Date': '1999/10/15', 'Adj Close': 3.753125}, {'Date': '1999/10/18', 'Adj Close': 3.703125}, {'Date': '1999/10/19', 'Adj Close': 3.83125}, {'Date': '1999/10/20', 'Adj Close': 4.025}, {'Date': '1999/10/21', 'Adj Close': 4.0375}, {'Date': '1999/10/22', 'Adj Close': 3.93125}, {'Date': '1999/10/25', 'Adj Close': 4.1375}, {'Date': '1999/10/26', 'Adj Close': 4.0625}, {'Date': '1999/10/27', 'Adj Close': 3.796875}, {'Date': '1999/10/28', 'Adj Close': 3.55}, {'Date': '1999/10/29', 'Adj Close': 3.53125}, {'Date': '1999/11/1', 'Adj Close': 3.45625}, {'Date': '1999/11/2', 'Adj Close': 3.321875}, {'Date': '1999/11/3', 'Adj Close': 3.290625}, {'Date': '1999/11/4', 'Adj Close': 3.153125}, {'Date': '1999/11/5', 'Adj Close': 3.246875}, {'Date': '1999/11/8', 'Adj Close': 3.9}, {'Date': '1999/11/9', 'Adj Close': 3.540625}, {'Date': '1999/11/10', 'Adj Close': 3.6}, {'Date': '1999/11/11', 'Adj Close': 3.65}, {'Date': '1999/11/12', 'Adj Close': 3.746875}, {'Date': '1999/11/15', 'Adj Close': 3.675}, {'Date': '1999/11/16', 'Adj Close': 3.946875}, {'Date': '1999/11/17', 'Adj Close': 3.825}, {'Date': '1999/11/18', 'Adj Close': 3.896875}, {'Date': '1999/11/19', 'Adj Close': 3.896875}, {'Date': '1999/11/22', 'Adj Close': 4.025}, {'Date': '1999/11/23', 'Adj Close': 4.0875}, {'Date': '1999/11/24', 'Adj Close': 4.3625}, {'Date': '1999/11/26', 'Adj Close': 4.65625}, {'Date': '1999/11/29', 'Adj Close': 4.521875}, {'Date': '1999/11/30', 'Adj Close': 4.253125}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Date": "1990/3/1", "Close": 16.8125}, {"Date": "1990/3/2", "Close": 17.0}, {"Date": "1990/3/5", "Close": 17.4375}, {"Date": "1990/3/6", "Close": 17.75}, {"Date": "1990/3/7", "Close": 17.6875}, {"Date": "1990/3/8", "Close": 17.6875}, {"Date": "1990/3/9", "Close": 17.75}, {"Date": "1990/3/12", "Close": 18.1875}, {"Date": "1990/3/13", "Close": 18.9375}, {"Date": "1990/3/14", "Close": 18.9375}, {"Date": "1990/3/15", "Close": 18.5}, {"Date": "1990/3/16", "Close": 18.75}, {"Date": "1990/3/19", "Close": 18.5625}, {"Date": "1990/3/20", "Close": 18.5625}, {"Date": "1990/3/21", "Close": 19.125}, {"Date": "1990/3/22", "Close": 18.5}, {"Date": "1990/3/23", "Close": 18.75}, {"Date": "1990/3/26", "Close": 18.625}, {"Date": "1990/3/27", "Close": 18.625}, {"Date": "1990/3/28", "Close": 18.4375}, {"Date": "1990/3/29", "Close": 18.125}, {"Date": "1990/3/30", "Close": 17.875}, {"Date": "1990/4/2", "Close": 18.125}, {"Date": "1990/4/3", "Close": 18.5}, {"Date": "1990/4/4", "Close": 18.5625}, {"Date": "1990/4/5", "Close": 18.125}, {"Date": "1990/4/6", "Close": 18.125}, {"Date": "1990/4/9", "Close": 17.875}, {"Date": "1990/4/10", "Close": 17.9375}, {"Date": "1990/4/11", "Close": 18.0625}, {"Date": "1990/4/12", "Close": 17.9375}, {"Date": "1990/4/16", "Close": 17.625}, {"Date": "1990/4/17", "Close": 17.5625}, {"Date": "1990/4/18", "Close": 17.5625}, {"Date": "1990/4/19", "Close": 17.5}, {"Date": "1990/4/20", "Close": 17.375}, {"Date": "1990/4/23", "Close": 17.0625}, {"Date": "1990/4/24", "Close": 17.5}, {"Date": "1990/4/25", "Close": 17.75}, {"Date": "1990/4/26", "Close": 17.75}, {"Date": "1990/4/27", "Close": 17.625}, {"Date": "1990/4/30", "Close": 17.6875}, {"Date": "1990/5/1", "Close": 17.6875}, {"Date": "1990/5/2", "Close": 17.625}, {"Date": "1990/5/3", "Close": 17.75}, {"Date": "1990/5/4", "Close": 17.6875}, {"Date": "1990/5/7", "Close": 17.75}, {"Date": "1990/5/8", "Close": 17.75}, {"Date": "1990/5/9", "Close": 17.6875}, {"Date": "1990/5/10", "Close": 17.4375}, {"Date": "1990/5/11", "Close": 17.75}, {"Date": "1990/5/14", "Close": 17.6875}, {"Date": "1990/5/15", "Close": 17.4375}, {"Date": "1990/5/16", "Close": 17.6875}, {"Date": "1990/5/17", "Close": 17.9375}, {"Date": "1990/5/18", "Close": 17.9375}, {"Date": "1990/5/21", "Close": 17.875}, {"Date": "1990/5/22", "Close": 17.5625}, {"Date": "1990/5/23", "Close": 17.3125}, {"Date": "1990/5/24", "Close": 17.3125}, {"Date": "1990/5/25", "Close": 17.25}, {"Date": "1990/5/29", "Close": 17.6875}, {"Date": "1990/5/30", "Close": 18.0625}, {"Date": "1990/5/31", "Close": 17.875}, {"Date": "1990/6/1", "Close": 17.8125}, {"Date": "1990/6/4", "Close": 18.125}, {"Date": "1990/6/5", "Close": 17.9375}, {"Date": "1990/6/6", "Close": 17.75}, {"Date": "1990/6/7", "Close": 17.5}, {"Date": "1990/6/8", "Close": 17.3125}, {"Date": "1990/6/11", "Close": 17.0625}, {"Date": "1990/6/12", "Close": 17.25}, {"Date": "1990/6/13", "Close": 17.0625}, {"Date": "1990/6/14", "Close": 17.375}, {"Date": "1990/6/15", "Close": 17.3125}, {"Date": "1990/6/18", "Close": 17.0}, {"Date": "1990/6/19", "Close": 16.875}, {"Date": "1990/6/20", "Close": 16.8125}, {"Date": "1990/6/21", "Close": 16.25}, {"Date": "1990/6/22", "Close": 15.8125}, {"Date": "1990/6/25", "Close": 15.8125}, {"Date": "1990/6/26", "Close": 15.875}, {"Date": "1990/6/27", "Close": 15.5625}, {"Date": "1990/6/28", "Close": 15.125}, {"Date": "1990/6/29", "Close": 15.0625}, {"Date": "1990/7/2", "Close": 14.875}, {"Date": "1990/7/3", "Close": 14.75}, {"Date": "1990/7/5", "Close": 14.5625}, {"Date": "1990/7/6", "Close": 14.6875}, {"Date": "1990/7/9", "Close": 14.5}, {"Date": "1990/7/10", "Close": 14.1875}, {"Date": "1990/7/11", "Close": 13.9375}, {"Date": "1990/7/12", "Close": 14.25}, {"Date": "1990/7/13", "Close": 14.5}, {"Date": "1990/7/16", "Close": 14.8125}, {"Date": "1990/7/17", "Close": 15.0625}, {"Date": "1990/7/18", "Close": 14.75}, {"Date": "1990/7/19", "Close": 15.0625}, {"Date": "1990/7/20", "Close": 14.5}, {"Date": "1990/7/23", "Close": 14.25}, {"Date": "1990/7/24", "Close": 13.8125}, {"Date": "1990/7/25", "Close": 14.0625}, {"Date": "1990/7/26", "Close": 13.625}, {"Date": "1990/7/27", "Close": 13.5625}, {"Date": "1990/7/30", "Close": 13.875}, {"Date": "1990/7/31", "Close": 13.25}, {"Date": "1990/8/1", "Close": 13.1875}, {"Date": "1990/8/2", "Close": 13.375}, {"Date": "1990/8/3", "Close": 12.5}, {"Date": "1990/8/6", "Close": 12.1875}, {"Date": "1990/8/7", "Close": 12.25}, {"Date": "1990/8/8", "Close": 12.75}, {"Date": "1990/8/9", "Close": 12.75}, {"Date": "1990/8/10", "Close": 12.25}, {"Date": "1990/8/13", "Close": 12.5}, {"Date": "1990/8/14", "Close": 12.6875}, {"Date": "1990/8/15", "Close": 12.9375}, {"Date": "1990/8/16", "Close": 12.4375}, {"Date": "1990/8/17", "Close": 11.8125}, {"Date": "1990/8/20", "Close": 11.625}, {"Date": "1990/8/21", "Close": 11.5}, {"Date": "1990/8/22", "Close": 12.1875}, {"Date": "1990/8/23", "Close": 11.25}, {"Date": "1990/8/24", "Close": 11.6875}, {"Date": "1990/8/27", "Close": 11.8125}, {"Date": "1990/8/28", "Close": 11.75}, {"Date": "1990/8/29", "Close": 11.9375}, {"Date": "1990/8/30", "Close": 12.0625}, {"Date": "1990/8/31", "Close": 11.375}, {"Date": "1990/9/4", "Close": 11.5}, {"Date": "1990/9/5", "Close": 11.5625}, {"Date": "1990/9/6", "Close": 11.125}, {"Date": "1990/9/7", "Close": 10.3125}, {"Date": "1990/9/10", "Close": 10.5}, {"Date": "1990/9/11", "Close": 10.1875}, {"Date": "1990/9/12", "Close": 10.125}, {"Date": "1990/9/13", "Close": 9.9375}, {"Date": "1990/9/14", "Close": 9.9375}, {"Date": "1990/9/17", "Close": 9.5}, {"Date": "1990/9/18", "Close": 9.375}, {"Date": "1990/9/19", "Close": 9.5}, {"Date": "1990/9/20", "Close": 9.4375}, {"Date": "1990/9/21", "Close": 9.3125}, {"Date": "1990/9/24", "Close": 9.0}, {"Date": "1990/9/25", "Close": 8.5}, {"Date": "1990/9/26", "Close": 8.875}, {"Date": "1990/9/27", "Close": 8.375}, {"Date": "1990/9/28", "Close": 8.5}, {"Date": "1990/10/1", "Close": 8.5625}, {"Date": "1990/10/2", "Close": 8.375}, {"Date": "1990/10/3", "Close": 8.4375}, {"Date": "1990/10/4", "Close": 8.625}, {"Date": "1990/10/5", "Close": 8.5625}, {"Date": "1990/10/8", "Close": 8.4375}, {"Date": "1990/10/9", "Close": 8.125}, {"Date": "1990/10/10", "Close": 8.1875}, {"Date": "1990/10/11", "Close": 8.25}, {"Date": "1990/10/12", "Close": 8.125}, {"Date": "1990/10/15", "Close": 7.5625}, {"Date": "1990/10/16", "Close": 7.625}, {"Date": "1990/10/17", "Close": 8.0625}, {"Date": "1990/10/18", "Close": 8.0625}, {"Date": "1990/10/19", "Close": 8.0625}, {"Date": "1990/10/22", "Close": 7.875}, {"Date": "1990/10/23", "Close": 8.0}, {"Date": "1990/10/24", "Close": 8.25}, {"Date": "1990/10/25", "Close": 8.0}, {"Date": "1990/10/26", "Close": 7.8125}, {"Date": "1990/10/29", "Close": 7.75}, {"Date": "1990/10/30", "Close": 7.8125}, {"Date": "1990/10/31", "Close": 7.625}, {"Date": "1990/11/1", "Close": 7.5625}, {"Date": "1990/11/2", "Close": 7.375}, {"Date": "1990/11/5", "Close": 7.25}, {"Date": "1990/11/6", "Close": 7.625}, {"Date": "1990/11/7", "Close": 7.4375}, {"Date": "1990/11/8", "Close": 7.375}, {"Date": "1990/11/9", "Close": 6.75}, {"Date": "1990/11/12", "Close": 7.0}, {"Date": "1990/11/13", "Close": 7.1875}, {"Date": "1990/11/14", "Close": 7.625}, {"Date": "1990/11/15", "Close": 7.75}, {"Date": "1990/11/16", "Close": 7.875}, {"Date": "1990/11/19", "Close": 7.875}, {"Date": "1990/11/20", "Close": 7.75}, {"Date": "1990/11/21", "Close": 7.8125}, {"Date": "1990/11/23", "Close": 7.8125}, {"Date": "1990/11/26", "Close": 7.625}, {"Date": "1990/11/27", "Close": 7.75}, {"Date": "1990/11/28", "Close": 8.1875}, {"Date": "1990/11/29", "Close": 8.0625}, {"Date": "1990/11/30", "Close": 8.0}, {"Date": "1990/12/3", "Close": 7.9375}, {"Date": "1990/12/4", "Close": 7.9375}, {"Date": "1990/12/5", "Close": 8.0}, {"Date": "1990/12/6", "Close": 7.9375}, {"Date": "1990/12/7", "Close": 8.125}, {"Date": "1990/12/10", "Close": 8.125}, {"Date": "1990/12/11", "Close": 8.625}, {"Date": "1990/12/12", "Close": 8.75}, {"Date": "1990/12/13", "Close": 8.625}, {"Date": "1990/12/14", "Close": 8.5}, {"Date": "1990/12/17", "Close": 8.375}, {"Date": "1990/12/18", "Close": 8.375}, {"Date": "1990/12/19", "Close": 8.75}, {"Date": "1990/12/20", "Close": 8.75}, {"Date": "1990/12/21", "Close": 8.5625}, {"Date": "1990/12/24", "Close": 8.6875}, {"Date": "1990/12/26", "Close": 9.0625}, {"Date": "1990/12/27", "Close": 9.375}, {"Date": "1990/12/28", "Close": 9.5625}, {"Date": "1990/12/31", "Close": 9.4375}, {"Date": "1991/1/2", "Close": 9.5}, {"Date": "1991/1/3", "Close": 9.0625}, {"Date": "1991/1/4", "Close": 8.8125}, {"Date": "1991/1/7", "Close": 8.6875}, {"Date": "1991/1/8", "Close": 8.8125}, {"Date": "1991/1/9", "Close": 8.625}, {"Date": "1991/1/10", "Close": 8.6875}, {"Date": "1991/1/11", "Close": 9.0625}, {"Date": "1991/1/14", "Close": 8.75}, {"Date": "1991/1/15", "Close": 8.75}, {"Date": "1991/1/16", "Close": 8.75}, {"Date": "1991/1/17", "Close": 9.25}, {"Date": "1991/1/18", "Close": 9.375}, {"Date": "1991/1/21", "Close": 9.25}, {"Date": "1991/1/22", "Close": 9.25}, {"Date": "1991/1/23", "Close": 9.5}, {"Date": "1991/1/24", "Close": 9.8125}, {"Date": "1991/1/25", "Close": 9.5625}, {"Date": "1991/1/28", "Close": 9.625}, {"Date": "1991/1/29", "Close": 9.8125}, {"Date": "1991/1/30", "Close": 10.3125}, {"Date": "1991/1/31", "Close": 10.125}, {"Date": "1991/2/1", "Close": 10.1875}, {"Date": "1991/2/4", "Close": 10.5}, {"Date": "1991/2/5", "Close": 10.3125}, {"Date": "1991/2/6", "Close": 9.9375}, {"Date": "1991/2/7", "Close": 9.375}, {"Date": "1991/2/8", "Close": 9.375}, {"Date": "1991/2/11", "Close": 9.6875}, {"Date": "1991/2/12", "Close": 9.5625}, {"Date": "1991/2/13", "Close": 9.8125}, {"Date": "1991/2/14", "Close": 9.8125}, {"Date": "1991/2/15", "Close": 9.9375}, {"Date": "1991/2/19", "Close": 10.0}, {"Date": "1991/2/20", "Close": 10.0}, {"Date": "1991/2/21", "Close": 10.0625}, {"Date": "1991/2/22", "Close": 10.25}, {"Date": "1991/2/25", "Close": 10.25}, {"Date": "1991/2/26", "Close": 10.1875}, {"Date": "1991/2/27", "Close": 10.375}, {"Date": "1991/2/28", "Close": 10.3125}, {"Date": "1991/3/1", "Close": 10.5625}, {"Date": "1991/3/4", "Close": 11.3125}, {"Date": "1991/3/5", "Close": 11.8125}, {"Date": "1991/3/6", "Close": 11.8125}, {"Date": "1991/3/7", "Close": 11.9375}, {"Date": "1991/3/8", "Close": 12.0625}, {"Date": "1991/3/11", "Close": 11.875}, {"Date": "1991/3/12", "Close": 11.4375}, {"Date": "1991/3/13", "Close": 11.4375}, {"Date": "1991/3/14", "Close": 11.25}, {"Date": "1991/3/15", "Close": 11.25}, {"Date": "1991/3/18", "Close": 11.125}, {"Date": "1991/3/19", "Close": 10.9375}, {"Date": "1991/3/20", "Close": 10.9375}, {"Date": "1991/3/21", "Close": 10.9375}, {"Date": "1991/3/22", "Close": 11.0625}, {"Date": "1991/3/25", "Close": 10.25}, {"Date": "1991/3/26", "Close": 10.375}, {"Date": "1991/3/27", "Close": 11.4375}, {"Date": "1991/3/28", "Close": 11.8125}, {"Date": "1991/4/1", "Close": 11.6875}, {"Date": "1991/4/2", "Close": 12.0625}, {"Date": "1991/4/3", "Close": 11.875}, {"Date": "1991/4/4", "Close": 11.6875}, {"Date": "1991/4/5", "Close": 11.5625}, {"Date": "1991/4/8", "Close": 11.625}, {"Date": "1991/4/9", "Close": 11.1875}, {"Date": "1991/4/10", "Close": 11.1875}, {"Date": "1991/4/11", "Close": 11.25}, {"Date": "1991/4/12", "Close": 11.4375}, {"Date": "1991/4/15", "Close": 11.5625}, {"Date": "1991/4/16", "Close": 11.375}, {"Date": "1991/4/17", "Close": 11.3125}, {"Date": "1991/4/18", "Close": 11.25}, {"Date": "1991/4/19", "Close": 11.3125}, {"Date": "1991/4/22", "Close": 10.875}, {"Date": "1991/4/23", "Close": 10.5}, {"Date": "1991/4/24", "Close": 10.75}, {"Date": "1991/4/25", "Close": 10.5625}, {"Date": "1991/4/26", "Close": 11.0}, {"Date": "1991/4/29", "Close": 10.8125}, {"Date": "1991/4/30", "Close": 10.625}, {"Date": "1991/5/1", "Close": 10.9375}, {"Date": "1991/5/2", "Close": 10.75}, {"Date": "1991/5/3", "Close": 10.9375}, {"Date": "1991/5/6", "Close": 11.3125}, {"Date": "1991/5/7", "Close": 11.0}, {"Date": "1991/5/8", "Close": 11.3125}, {"Date": "1991/5/9", "Close": 11.4375}, {"Date": "1991/5/10", "Close": 11.4375}, {"Date": "1991/5/13", "Close": 11.5625}, {"Date": "1991/5/14", "Close": 11.3125}, {"Date": "1991/5/15", "Close": 11.25}, {"Date": "1991/5/16", "Close": 11.4375}, {"Date": "1991/5/17", "Close": 11.4375}, {"Date": "1991/5/20", "Close": 11.875}, {"Date": "1991/5/21", "Close": 12.25}, {"Date": "1991/5/22", "Close": 12.3125}, {"Date": "1991/5/23", "Close": 12.1875}, {"Date": "1991/5/24", "Close": 12.375}, {"Date": "1991/5/28", "Close": 12.8125}, {"Date": "1991/5/29", "Close": 13.0}, {"Date": "1991/5/30", "Close": 13.0}, {"Date": "1991/5/31", "Close": 13.125}, {"Date": "1991/6/3", "Close": 13.5}, {"Date": "1991/6/4", "Close": 15.0625}, {"Date": "1991/6/5", "Close": 15.6875}, {"Date": "1991/6/6", "Close": 16.0625}, {"Date": "1991/6/7", "Close": 16.625}, {"Date": "1991/6/10", "Close": 16.625}, {"Date": "1991/6/11", "Close": 16.0625}, {"Date": "1991/6/12", "Close": 16.625}, {"Date": "1991/6/13", "Close": 16.5625}, {"Date": "1991/6/14", "Close": 16.75}, {"Date": "1991/6/17", "Close": 17.4375}, {"Date": "1991/6/18", "Close": 17.0}, {"Date": "1991/6/19", "Close": 17.0625}, {"Date": "1991/6/20", "Close": 17.125}, {"Date": "1991/6/21", "Close": 17.125}, {"Date": "1991/6/24", "Close": 16.9375}, {"Date": "1991/6/25", "Close": 16.75}, {"Date": "1991/6/26", "Close": 16.5625}, {"Date": "1991/6/27", "Close": 16.6875}, {"Date": "1991/6/28", "Close": 16.625}, {"Date": "1991/7/1", "Close": 16.875}, {"Date": "1991/7/2", "Close": 16.625}, {"Date": "1991/7/3", "Close": 16.75}, {"Date": "1991/7/5", "Close": 16.8125}, {"Date": "1991/7/8", "Close": 17.1875}, {"Date": "1991/7/9", "Close": 17.1875}, {"Date": "1991/7/10", "Close": 17.8125}, {"Date": "1991/7/11", "Close": 17.625}, {"Date": "1991/7/12", "Close": 18.0}, {"Date": "1991/7/15", "Close": 17.8125}, {"Date": "1991/7/16", "Close": 18.3125}, {"Date": "1991/7/17", "Close": 18.4375}, {"Date": "1991/7/18", "Close": 19.125}, {"Date": "1991/7/19", "Close": 19.4375}, {"Date": "1991/7/22", "Close": 19.125}, {"Date": "1991/7/23", "Close": 18.5}, {"Date": "1991/7/24", "Close": 18.1875}, {"Date": "1991/7/25", "Close": 19.0}, {"Date": "1991/7/26", "Close": 19.0625}, {"Date": "1991/7/29", "Close": 18.8125}, {"Date": "1991/7/30", "Close": 18.75}, {"Date": "1991/7/31", "Close": 19.0625}, {"Date": "1991/8/1", "Close": 18.875}, {"Date": "1991/8/2", "Close": 18.875}, {"Date": "1991/8/5", "Close": 18.625}, {"Date": "1991/8/6", "Close": 19.0}, {"Date": "1991/8/7", "Close": 19.125}, {"Date": "1991/8/8", "Close": 19.375}, {"Date": "1991/8/9", "Close": 19.375}, {"Date": "1991/8/12", "Close": 19.0}, {"Date": "1991/8/13", "Close": 18.3125}, {"Date": "1991/8/14", "Close": 18.5625}, {"Date": "1991/8/15", "Close": 18.3125}, {"Date": "1991/8/16", "Close": 17.875}, {"Date": "1991/8/19", "Close": 17.0625}, {"Date": "1991/8/20", "Close": 17.3125}, {"Date": "1991/8/21", "Close": 18.4375}, {"Date": "1991/8/22", "Close": 18.625}, {"Date": "1991/8/23", "Close": 18.9375}, {"Date": "1991/8/26", "Close": 19.0625}, {"Date": "1991/8/27", "Close": 18.9375}, {"Date": "1991/8/28", "Close": 19.375}, {"Date": "1991/8/29", "Close": 19.1875}, {"Date": "1991/8/30", "Close": 19.125}, {"Date": "1991/9/3", "Close": 19.25}, {"Date": "1991/9/4", "Close": 20.4375}, {"Date": "1991/9/5", "Close": 20.625}, {"Date": "1991/9/6", "Close": 21.0}, {"Date": "1991/9/9", "Close": 21.0625}, {"Date": "1991/9/10", "Close": 20.8125}, {"Date": "1991/9/11", "Close": 21.0}, {"Date": "1991/9/12", "Close": 21.1875}, {"Date": "1991/9/13", "Close": 20.8125}, {"Date": "1991/9/16", "Close": 21.0625}, {"Date": "1991/9/17", "Close": 21.125}, {"Date": "1991/9/18", "Close": 21.25}, {"Date": "1991/9/19", "Close": 21.5}, {"Date": "1991/9/20", "Close": 21.75}, {"Date": "1991/9/23", "Close": 21.375}, {"Date": "1991/9/24", "Close": 21.3125}, {"Date": "1991/9/25", "Close": 21.6875}, {"Date": "1991/9/26", "Close": 21.8125}, {"Date": "1991/9/27", "Close": 21.6875}, {"Date": "1991/9/30", "Close": 21.9375}, {"Date": "1991/10/1", "Close": 21.8125}, {"Date": "1991/10/2", "Close": 22.125}, {"Date": "1991/10/3", "Close": 21.75}, {"Date": "1991/10/4", "Close": 21.5625}, {"Date": "1991/10/7", "Close": 20.9375}, {"Date": "1991/10/8", "Close": 21.5625}, {"Date": "1991/10/9", "Close": 21.9375}, {"Date": "1991/10/10", "Close": 21.9375}, {"Date": "1991/10/11", "Close": 21.9375}, {"Date": "1991/10/14", "Close": 21.9375}, {"Date": "1991/10/15", "Close": 21.8125}, {"Date": "1991/10/16", "Close": 22.375}, {"Date": "1991/10/17", "Close": 22.3125}, {"Date": "1991/10/18", "Close": 22.1875}, {"Date": "1991/10/21", "Close": 22.4375}, {"Date": "1991/10/22", "Close": 22.875}, {"Date": "1991/10/23", "Close": 23.5}, {"Date": "1991/10/24", "Close": 23.25}, {"Date": "1991/10/25", "Close": 23.375}, {"Date": "1991/10/28", "Close": 24.4375}, {"Date": "1991/10/29", "Close": 24.5625}, {"Date": "1991/10/30", "Close": 24.8125}, {"Date": "1991/10/31", "Close": 25.0}, {"Date": "1991/11/1", "Close": 24.8125}, {"Date": "1991/11/4", "Close": 24.875}, {"Date": "1991/11/5", "Close": 25.875}, {"Date": "1991/11/6", "Close": 26.8125}, {"Date": "1991/11/7", "Close": 26.25}, {"Date": "1991/11/8", "Close": 26.25}, {"Date": "1991/11/11", "Close": 25.75}, {"Date": "1991/11/12", "Close": 25.25}, {"Date": "1991/11/13", "Close": 24.6875}, {"Date": "1991/11/14", "Close": 24.6875}, {"Date": "1991/11/15", "Close": 24.125}, {"Date": "1991/11/18", "Close": 24.1875}, {"Date": "1991/11/19", "Close": 23.5}, {"Date": "1991/11/20", "Close": 24.125}, {"Date": "1991/11/21", "Close": 24.4375}, {"Date": "1991/11/22", "Close": 24.875}, {"Date": "1991/11/25", "Close": 24.5}, {"Date": "1991/11/26", "Close": 24.375}, {"Date": "1991/11/27", "Close": 24.25}, {"Date": "1991/11/29", "Close": 23.9375}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'time': 2021, 'Installed wind + PV capacity (GW)': 615, 'energy consumption percentage': '13.80%'}, {'time': 2022, 'Installed wind + PV capacity (GW)': 695, 'energy consumption percentage': '15.10%'}, {'time': 2023, 'Installed wind + PV capacity (GW)': 775, 'energy consumption percentage': '16.60%'}, {'time': 2024, 'Installed wind + PV capacity (GW)': 855, 'energy consumption percentage': '18.30%'}, {'time': 2025, 'Installed wind + PV capacity (GW)': 935, 'energy consumption percentage': '20.00%'}, {'time': 2030, 'Installed wind + PV capacity (GW)': 1200, 'energy consumption percentage': '25.00%'}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,11 +594,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="126" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
@@ -577,9 +610,9 @@
     <col min="11" max="11" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -600,12 +633,12 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="88" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="88" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -620,18 +653,18 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="125" customHeight="1">
+    </row>
+    <row r="3" spans="1:11" ht="125" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -643,201 +676,231 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="288">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="252" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="168" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="409" customHeight="1">
+      <c r="D5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="409.6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="D8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="409.6">
+    <row r="10" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="409.6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="409.6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="96">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="409.6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
     </row>
   </sheetData>

--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578A9A4F-4866-4541-906F-5768E78880CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6C4715-B865-4FAF-818B-56867FF6BEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15800" yWindow="1280" windowWidth="21960" windowHeight="19850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="650" windowWidth="21960" windowHeight="19850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,232 +38,238 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[{'Position':'United Kingdom','Billions of dollars':'59.9'},{'Position':'Netherlands','Billions of dollars':'43.1'},{'Position':'France','Billions of dollars':'35.3'},{'Position':'Canada','Billions of dollars': '30'},{'Position':'Japan','Billions of dollars':'29.6'}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Category':'Real GDP','Outdoor recreation':'18.9','U.S. economy':'5.9'},{'Category':'Real Gross Output','Outdoor recreation':'21.8','U.S. economy':'6.3'},{'Category':'Compensation','Outdoor recreation':'16.2','U.S. economy':'7.8'},{'Category':'Compensation','Outdoor recreation':'13.1','U.S. economy':'2.7'}]</t>
+  </si>
+  <si>
+    <t>[{'Date': '1999/8/2', 'Close': 2.35}, {'Date': '1999/8/3', 'Close': 2.371875}, {'Date': '1999/8/4', 'Close': 2.210938}, {'Date': '1999/8/5', 'Close': 2.43125}, {'Date': '1999/8/6', 'Close': 2.239063}, {'Date': '1999/8/9', 'Close': 2.1375}, {'Date': '1999/8/10', 'Close': 2.275}, {'Date': '1999/8/11', 'Close': 2.273438}, {'Date': '1999/8/12', 'Close': 2.29375}, {'Date': '1999/8/13', 'Close': 2.435938}, {'Date': '1999/8/16', 'Close': 2.457813}, {'Date': '1999/8/17', 'Close': 2.73125}, {'Date': '1999/8/18', 'Close': 2.828125}, {'Date': '1999/8/19', 'Close': 2.653125}, {'Date': '1999/8/20', 'Close': 2.835938}, {'Date': '1999/8/23', 'Close': 2.959375}, {'Date': '1999/8/24', 'Close': 3.001563}, {'Date': '1999/8/25', 'Close': 3.321875}, {'Date': '1999/8/26', 'Close': 3.214063}, {'Date': '1999/8/27', 'Close': 3.2125}, {'Date': '1999/8/30', 'Close': 2.98125}, {'Date': '1999/8/31', 'Close': 3.109375}, {'Date': '1999/9/1', 'Close': 2.976563}, {'Date': '1999/9/2', 'Close': 3.003125}, {'Date': '1999/9/3', 'Close': 3.121875}, {'Date': '1999/9/7', 'Close': 3.146875}, {'Date': '1999/9/8', 'Close': 3.071875}, {'Date': '1999/9/9', 'Close': 3.18125}, {'Date': '1999/9/10', 'Close': 3.325}, {'Date': '1999/9/13', 'Close': 3.165625}, {'Date': '1999/9/14', 'Close': 3.3}, {'Date': '1999/9/15', 'Close': 3.278125}, {'Date': '1999/9/16', 'Close': 3.2625}, {'Date': '1999/9/17', 'Close': 3.190625}, {'Date': '1999/9/20', 'Close': 3.1375}, {'Date': '1999/9/21', 'Close': 3.1125}, {'Date': '1999/9/22', 'Close': 3.3}, {'Date': '1999/9/23', 'Close': 3.1125}, {'Date': '1999/9/24', 'Close': 3.25}, {'Date': '1999/9/27', 'Close': 3.128125}, {'Date': '1999/9/28', 'Close': 3.29375}, {'Date': '1999/9/29', 'Close': 4.0375}, {'Date': '1999/9/30', 'Close': 3.996875}, {'Date': '1999/10/1', 'Close': 3.8625}, {'Date': '1999/10/4', 'Close': 3.853125}, {'Date': '1999/10/5', 'Close': 3.921875}, {'Date': '1999/10/6', 'Close': 4.121875}, {'Date': '1999/10/7', 'Close': 4.365625}, {'Date': '1999/10/8', 'Close': 4.4625}, {'Date': '1999/10/11', 'Close': 4.41875}, {'Date': '1999/10/12', 'Close': 4.246875}, {'Date': '1999/10/13', 'Close': 3.996875}, {'Date': '1999/10/14', 'Close': 3.979688}, {'Date': '1999/10/15', 'Close': 3.753125}, {'Date': '1999/10/18', 'Close': 3.703125}, {'Date': '1999/10/19', 'Close': 3.83125}, {'Date': '1999/10/20', 'Close': 4.025}, {'Date': '1999/10/21', 'Close': 4.0375}, {'Date': '1999/10/22', 'Close': 3.93125}, {'Date': '1999/10/25', 'Close': 4.1375}, {'Date': '1999/10/26', 'Close': 4.0625}, {'Date': '1999/10/27', 'Close': 3.796875}, {'Date': '1999/10/28', 'Close': 3.55}, {'Date': '1999/10/29', 'Close': 3.53125}, {'Date': '1999/11/1', 'Close': 3.45625}, {'Date': '1999/11/2', 'Close': 3.321875}, {'Date': '1999/11/3', 'Close': 3.290625}, {'Date': '1999/11/4', 'Close': 3.153125}, {'Date': '1999/11/5', 'Close': 3.246875}, {'Date': '1999/11/8', 'Close': 3.9}, {'Date': '1999/11/9', 'Close': 3.540625}, {'Date': '1999/11/10', 'Close': 3.6}, {'Date': '1999/11/11', 'Close': 3.65}, {'Date': '1999/11/12', 'Close': 3.746875}, {'Date': '1999/11/15', 'Close': 3.675}, {'Date': '1999/11/16', 'Close': 3.946875}, {'Date': '1999/11/17', 'Close': 3.825}, {'Date': '1999/11/18', 'Close': 3.896875}, {'Date': '1999/11/19', 'Close': 3.896875}, {'Date': '1999/11/22', 'Close': 4.025}, {'Date': '1999/11/23', 'Close': 4.0875}, {'Date': '1999/11/24', 'Close': 4.3625}, {'Date': '1999/11/26', 'Close': 4.65625}, {'Date': '1999/11/29', 'Close': 4.521875}, {'Date': '1999/11/30', 'Close': 4.253125}, {'Date': '1999/12/1', 'Close': 4.25}, {'Date': '1999/12/2', 'Close': 4.453125}, {'Date': '1999/12/3', 'Close': 4.328125}, {'Date': '1999/12/6', 'Close': 4.3875}, {'Date': '1999/12/7', 'Close': 4.303125}, {'Date': '1999/12/8', 'Close': 4.428125}, {'Date': '1999/12/9', 'Close': 5.18125}, {'Date': '1999/12/10', 'Close': 5.334375}, {'Date': '1999/12/13', 'Close': 5.125}, {'Date': '1999/12/14', 'Close': 4.78125}, {'Date': '1999/12/15', 'Close': 4.825}, {'Date': '1999/12/16', 'Close': 4.74375}, {'Date': '1999/12/17', 'Close': 4.703125}, {'Date': '1999/12/20', 'Close': 4.85}, {'Date': '1999/12/21', 'Close': 4.99375}, {'Date': '1999/12/22', 'Close': 4.884375}, {'Date': '1999/12/23', 'Close': 4.5}, {'Date': '1999/12/27', 'Close': 4.05625}, {'Date': '1999/12/28', 'Close': 4.115625}, {'Date': '1999/12/29', 'Close': 4.175}, {'Date': '1999/12/30', 'Close': 3.953125}, {'Date': '1999/12/31', 'Close': 3.80625}, {'Date': '2000/1/3', 'Close': 4.46875}, {'Date': '2000/1/4', 'Close': 4.096875}, {'Date': '2000/1/5', 'Close': 3.4875}, {'Date': '2000/1/6', 'Close': 3.278125}, {'Date': '2000/1/7', 'Close': 3.478125}, {'Date': '2000/1/10', 'Close': 3.459375}, {'Date': '2000/1/11', 'Close': 3.3375}, {'Date': '2000/1/12', 'Close': 3.178125}, {'Date': '2000/1/13', 'Close': 3.296875}, {'Date': '2000/1/14', 'Close': 3.2125}, {'Date': '2000/1/18', 'Close': 3.20625}, {'Date': '2000/1/19', 'Close': 3.340625}, {'Date': '2000/1/20', 'Close': 3.2375}, {'Date': '2000/1/21', 'Close': 3.103125}, {'Date': '2000/1/24', 'Close': 3.50625}, {'Date': '2000/1/25', 'Close': 3.4625}, {'Date': '2000/1/26', 'Close': 3.240625}, {'Date': '2000/1/27', 'Close': 3.346875}, {'Date': '2000/1/28', 'Close': 3.084375}, {'Date': '2000/1/31', 'Close': 3.228125}, {'Date': '2000/2/1', 'Close': 3.371875}, {'Date': '2000/2/2', 'Close': 3.471875}, {'Date': '2000/2/3', 'Close': 4.209375}, {'Date': '2000/2/4', 'Close': 3.928125}, {'Date': '2000/2/7', 'Close': 3.75}, {'Date': '2000/2/8', 'Close': 4.15625}, {'Date': '2000/2/9', 'Close': 4.0125}, {'Date': '2000/2/10', 'Close': 3.809375}, {'Date': '2000/2/11', 'Close': 3.809375}, {'Date': '2000/2/14', 'Close': 3.721875}, {'Date': '2000/2/15', 'Close': 3.690625}, {'Date': '2000/2/16', 'Close': 3.534375}, {'Date': '2000/2/17', 'Close': 3.45}, {'Date': '2000/2/18', 'Close': 3.2375}, {'Date': '2000/2/22', 'Close': 3.178125}, {'Date': '2000/2/23', 'Close': 3.521875}, {'Date': '2000/2/24', 'Close': 3.421875}, {'Date': '2000/2/25', 'Close': 3.45625}, {'Date': '2000/2/28', 'Close': 3.2875}, {'Date': '2000/2/29', 'Close': 3.44375}, {'Date': '2000/3/1', 'Close': 3.29375}, {'Date': '2000/3/2', 'Close': 3.128125}, {'Date': '2000/3/3', 'Close': 3.125}, {'Date': '2000/3/6', 'Close': 3.196875}, {'Date': '2000/3/7', 'Close': 3.175}, {'Date': '2000/3/8', 'Close': 3.18125}, {'Date': '2000/3/9', 'Close': 3.440625}, {'Date': '2000/3/10', 'Close': 3.34375}, {'Date': '2000/3/13', 'Close': 3.265625}, {'Date': '2000/3/14', 'Close': 3.28125}, {'Date': '2000/3/15', 'Close': 3.1875}, {'Date': '2000/3/16', 'Close': 3.3125}, {'Date': '2000/3/17', 'Close': 3.240625}, {'Date': '2000/3/20', 'Close': 3.209375}, {'Date': '2000/3/21', 'Close': 3.61875}, {'Date': '2000/3/22', 'Close': 3.534375}, {'Date': '2000/3/23', 'Close': 3.384375}, {'Date': '2000/3/24', 'Close': 3.634375}, {'Date': '2000/3/27', 'Close': 3.65625}, {'Date': '2000/3/28', 'Close': 3.50625}, {'Date': '2000/3/29', 'Close': 3.3125}, {'Date': '2000/3/30', 'Close': 3.325}, {'Date': '2000/3/31', 'Close': 3.35}, {'Date': '2000/4/3', 'Close': 3.178125}, {'Date': '2000/4/4', 'Close': 3.196875}, {'Date': '2000/4/5', 'Close': 3.109375}, {'Date': '2000/4/6', 'Close': 3.2125}, {'Date': '2000/4/7', 'Close': 3.378125}, {'Date': '2000/4/10', 'Close': 3.16875}, {'Date': '2000/4/11', 'Close': 3.16875}, {'Date': '2000/4/12', 'Close': 2.81875}, {'Date': '2000/4/13', 'Close': 2.4}, {'Date': '2000/4/14', 'Close': 2.34375}, {'Date': '2000/4/17', 'Close': 2.353125}, {'Date': '2000/4/18', 'Close': 2.746875}, {'Date': '2000/4/19', 'Close': 2.671875}, {'Date': '2000/4/20', 'Close': 2.61875}, {'Date': '2000/4/24', 'Close': 2.490625}, {'Date': '2000/4/25', 'Close': 2.621875}, {'Date': '2000/4/26', 'Close': 2.675}, {'Date': '2000/4/27', 'Close': 2.64375}, {'Date': '2000/4/28', 'Close': 2.759375}, {'Date': '2000/5/1', 'Close': 2.996875}, {'Date': '2000/5/2', 'Close': 2.80625}, {'Date': '2000/5/3', 'Close': 2.70625}, {'Date': '2000/5/4', 'Close': 2.753125}, {'Date': '2000/5/5', 'Close': 2.925}, {'Date': '2000/5/8', 'Close': 2.800781}, {'Date': '2000/5/9', 'Close': 2.8125}, {'Date': '2000/5/10', 'Close': 2.665625}, {'Date': '2000/5/11', 'Close': 2.74375}, {'Date': '2000/5/12', 'Close': 2.6875}, {'Date': '2000/5/15', 'Close': 2.803125}, {'Date': '2000/5/16', 'Close': 2.953125}, {'Date': '2000/5/17', 'Close': 3.05}, {'Date': '2000/5/18', 'Close': 2.76875}, {'Date': '2000/5/19', 'Close': 2.63125}, {'Date': '2000/5/22', 'Close': 2.59375}, {'Date': '2000/5/23', 'Close': 2.334375}, {'Date': '2000/5/24', 'Close': 2.428125}, {'Date': '2000/5/25', 'Close': 2.275}, {'Date': '2000/5/26', 'Close': 2.325}, {'Date': '2000/5/30', 'Close': 2.5875}, {'Date': '2000/5/31', 'Close': 2.415625}]</t>
+  </si>
+  <si>
+    <t>pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head and shoulder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cup with handle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rouding bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uptrend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">down trend </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triple top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result 模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"Real GDP for the outdoor recreation economy", "BeginIndex”:"0","EndIndex":"0","Trend":"increase","Number":"18.9"},{"ObjectName":"U.S. economy", "BeginIndex":"0","EndIndex":"0"，"Trend":"rebound","Number":"5.9"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflation-adjusted ("real") GDP for the outdoor recreation economy increased 18.9 percent in 2021, compared with a 5.9 percent increase for the overall U.S. economy, reflecting a rebound in outdoor recreation after the decrease of 21.6 percent in 2020. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The first object is "Inflation-adjusted ("real") GDP for the outdoor recreation economy" and its value is 18.9. The second object is "U.S. economy" and its value is 5.9.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There exists a "head and shoulder" pattern on the Amazon stock moving averages from 1999/09/27 to 2000/02/22.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":"Close","BeginIndex":"39","EndIndex":"141","Trend":"Head and shoulder","Number":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The "head and shoulder" pattern consists of three rises and falls from three localized highs. The high point in the center is higher than the other two. This pattern is around from '1999/09/27' to '2000/02/22' and the middle high point exist on '1999/12/09'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":"Close","BeginIndex":"54","EndIndex":"100","Trend":"double bottom","Number":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The "double bottom" pattern has two lows. The first low in the data is at 2016/01/20 , and the second low is at 2016/02/11.  This pattern is around from '2015/12/29' to '2016/03/07'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The "double bottom" pattern happens on the 'Dow Janes Industrial (.DJI) from 2015/12/29 to 2016/03/07.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>From 2017/05/17 to 2018/01/26, the 'Dow Janes Industrial (.DJI)' is on an uptrend, which drew a much attention form analysts.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Date': '12-Oct-15', 'Close': 17131.86}, {'Date': '13-Oct-15', 'Close': 17081.89}, {'Date': '14-Oct-15', 'Close': 16924.75}, {'Date': '15-Oct-15', 'Close': 17141.75}, {'Date': '16-Oct-15', 'Close': 17215.97}, {'Date': '19-Oct-15', 'Close': 17230.54}, {'Date': '20-Oct-15', 'Close': 17217.11}, {'Date': '21-Oct-15', 'Close': 17168.61}, {'Date': '22-Oct-15', 'Close': 17489.16}, {'Date': '23-Oct-15', 'Close': 17646.7}, {'Date': '26-Oct-15', 'Close': 17623.05}, {'Date': '27-Oct-15', 'Close': 17581.43}, {'Date': '28-Oct-15', 'Close': 17779.52}, {'Date': '29-Oct-15', 'Close': 17755.8}, {'Date': '30-Oct-15', 'Close': 17663.54}, {'Date': '2-Nov-15', 'Close': 17828.76}, {'Date': '3-Nov-15', 'Close': 17918.15}, {'Date': '4-Nov-15', 'Close': 17867.58}, {'Date': '5-Nov-15', 'Close': 17863.43}, {'Date': '6-Nov-15', 'Close': 17910.33}, {'Date': '9-Nov-15', 'Close': 17730.48}, {'Date': '10-Nov-15', 'Close': 17758.21}, {'Date': '11-Nov-15', 'Close': 17702.22}, {'Date': '12-Nov-15', 'Close': 17448.07}, {'Date': '13-Nov-15', 'Close': 17245.24}, {'Date': '16-Nov-15', 'Close': 17483.01}, {'Date': '17-Nov-15', 'Close': 17489.5}, {'Date': '18-Nov-15', 'Close': 17737.16}, {'Date': '19-Nov-15', 'Close': 17732.75}, {'Date': '20-Nov-15', 'Close': 17823.81}, {'Date': '23-Nov-15', 'Close': 17792.68}, {'Date': '24-Nov-15', 'Close': 17812.19}, {'Date': '25-Nov-15', 'Close': 17813.39}, {'Date': '27-Nov-15', 'Close': 17813.39}, {'Date': '30-Nov-15', 'Close': 17719.92}, {'Date': '1-Dec-15', 'Close': 17888.35}, {'Date': '2-Dec-15', 'Close': 17729.68}, {'Date': '3-Dec-15', 'Close': 17477.67}, {'Date': '4-Dec-15', 'Close': 17847.63}, {'Date': '7-Dec-15', 'Close': 17730.51}, {'Date': '8-Dec-15', 'Close': 17568.0}, {'Date': '9-Dec-15', 'Close': 17492.3}, {'Date': '10-Dec-15', 'Close': 17574.75}, {'Date': '11-Dec-15', 'Close': 17265.21}, {'Date': '14-Dec-15', 'Close': 17368.5}, {'Date': '15-Dec-15', 'Close': 17524.91}, {'Date': '16-Dec-15', 'Close': 17749.09}, {'Date': '17-Dec-15', 'Close': 17495.84}, {'Date': '18-Dec-15', 'Close': 17128.55}, {'Date': '21-Dec-15', 'Close': 17251.62}, {'Date': '22-Dec-15', 'Close': 17417.27}, {'Date': '23-Dec-15', 'Close': 17602.61}, {'Date': '24-Dec-15', 'Close': 17552.17}, {'Date': '28-Dec-15', 'Close': 17528.27}, {'Date': '29-Dec-15', 'Close': 17720.98}, {'Date': '30-Dec-15', 'Close': 17603.87}, {'Date': '31-Dec-15', 'Close': 17425.03}, {'Date': '4-Jan-16', 'Close': 17148.94}, {'Date': '5-Jan-16', 'Close': 17158.66}, {'Date': '6-Jan-16', 'Close': 16906.51}, {'Date': '7-Jan-16', 'Close': 16514.1}, {'Date': '8-Jan-16', 'Close': 16346.45}, {'Date': '11-Jan-16', 'Close': 16398.57}, {'Date': '12-Jan-16', 'Close': 16516.22}, {'Date': '13-Jan-16', 'Close': 16151.41}, {'Date': '14-Jan-16', 'Close': 16379.05}, {'Date': '15-Jan-16', 'Close': 15988.08}, {'Date': '19-Jan-16', 'Close': 16016.02}, {'Date': '20-Jan-16', 'Close': 15766.74}, {'Date': '21-Jan-16', 'Close': 15882.68}, {'Date': '22-Jan-16', 'Close': 16093.51}, {'Date': '25-Jan-16', 'Close': 15885.22}, {'Date': '26-Jan-16', 'Close': 16167.23}, {'Date': '27-Jan-16', 'Close': 15944.46}, {'Date': '28-Jan-16', 'Close': 16069.64}, {'Date': '29-Jan-16', 'Close': 16466.3}, {'Date': '1-Feb-16', 'Close': 16449.18}, {'Date': '2-Feb-16', 'Close': 16153.54}, {'Date': '3-Feb-16', 'Close': 16336.66}, {'Date': '4-Feb-16', 'Close': 16416.58}, {'Date': '5-Feb-16', 'Close': 16204.97}, {'Date': '8-Feb-16', 'Close': 16027.05}, {'Date': '9-Feb-16', 'Close': 16014.38}, {'Date': '10-Feb-16', 'Close': 15914.74}, {'Date': '11-Feb-16', 'Close': 15660.18}, {'Date': '12-Feb-16', 'Close': 15973.84}, {'Date': '16-Feb-16', 'Close': 16196.41}, {'Date': '17-Feb-16', 'Close': 16453.83}, {'Date': '18-Feb-16', 'Close': 16413.43}, {'Date': '19-Feb-16', 'Close': 16391.99}, {'Date': '22-Feb-16', 'Close': 16620.66}, {'Date': '23-Feb-16', 'Close': 16431.78}, {'Date': '24-Feb-16', 'Close': 16484.99}, {'Date': '25-Feb-16', 'Close': 16697.29}, {'Date': '26-Feb-16', 'Close': 16639.97}, {'Date': '29-Feb-16', 'Close': 16516.5}, {'Date': '1-Mar-16', 'Close': 16865.08}, {'Date': '2-Mar-16', 'Close': 16899.32}, {'Date': '3-Mar-16', 'Close': 16943.9}, {'Date': '4-Mar-16', 'Close': 17006.77}, {'Date': '7-Mar-16', 'Close': 17073.95}, {'Date': '8-Mar-16', 'Close': 16964.1}, {'Date': '9-Mar-16', 'Close': 17000.36}, {'Date': '10-Mar-16', 'Close': 16995.13}, {'Date': '11-Mar-16', 'Close': 17213.31}, {'Date': '14-Mar-16', 'Close': 17229.13}, {'Date': '15-Mar-16', 'Close': 17251.53}, {'Date': '16-Mar-16', 'Close': 17325.76}, {'Date': '17-Mar-16', 'Close': 17481.49}, {'Date': '18-Mar-16', 'Close': 17602.3}, {'Date': '21-Mar-16', 'Close': 17623.87}, {'Date': '22-Mar-16', 'Close': 17582.57}, {'Date': '23-Mar-16', 'Close': 17502.59}, {'Date': '24-Mar-16', 'Close': 17515.73}, {'Date': '28-Mar-16', 'Close': 17535.39}, {'Date': '29-Mar-16', 'Close': 17633.11}, {'Date': '30-Mar-16', 'Close': 17716.66}, {'Date': '31-Mar-16', 'Close': 17685.09}, {'Date': '1-Apr-16', 'Close': 17792.75}, {'Date': '4-Apr-16', 'Close': 17737.0}, {'Date': '5-Apr-16', 'Close': 17603.32}, {'Date': '6-Apr-16', 'Close': 17716.05}, {'Date': '7-Apr-16', 'Close': 17541.96}, {'Date': '8-Apr-16', 'Close': 17576.96}, {'Date': '11-Apr-16', 'Close': 17556.41}, {'Date': '12-Apr-16', 'Close': 17721.25}, {'Date': '13-Apr-16', 'Close': 17908.28}, {'Date': '14-Apr-16', 'Close': 17926.43}, {'Date': '15-Apr-16', 'Close': 17897.46}, {'Date': '18-Apr-16', 'Close': 18004.16}, {'Date': '19-Apr-16', 'Close': 18053.6}, {'Date': '20-Apr-16', 'Close': 18096.27}, {'Date': '21-Apr-16', 'Close': 17982.52}, {'Date': '22-Apr-16', 'Close': 18003.75}, {'Date': '25-Apr-16', 'Close': 17977.24}, {'Date': '26-Apr-16', 'Close': 17990.32}, {'Date': '27-Apr-16', 'Close': 18041.55}, {'Date': '28-Apr-16', 'Close': 17830.76}, {'Date': '29-Apr-16', 'Close': 17773.64}, {'Date': '2-May-16', 'Close': 17891.16}, {'Date': '3-May-16', 'Close': 17750.91}, {'Date': '4-May-16', 'Close': 17651.26}, {'Date': '5-May-16', 'Close': 17660.71}, {'Date': '6-May-16', 'Close': 17740.63}, {'Date': '9-May-16', 'Close': 17705.91}, {'Date': '10-May-16', 'Close': 17928.35}, {'Date': '11-May-16', 'Close': 17711.12}, {'Date': '12-May-16', 'Close': 17720.5}, {'Date': '13-May-16', 'Close': 17535.32}, {'Date': '16-May-16', 'Close': 17710.71}, {'Date': '17-May-16', 'Close': 17529.98}, {'Date': '18-May-16', 'Close': 17526.62}, {'Date': '19-May-16', 'Close': 17435.4}, {'Date': '20-May-16', 'Close': 17500.94}, {'Date': '23-May-16', 'Close': 17492.93}, {'Date': '24-May-16', 'Close': 17706.05}, {'Date': '25-May-16', 'Close': 17851.51}, {'Date': '26-May-16', 'Close': 17828.29}, {'Date': '27-May-16', 'Close': 17873.22}, {'Date': '31-May-16', 'Close': 17787.2}, {'Date': '1-Jun-16', 'Close': 17789.67}, {'Date': '2-Jun-16', 'Close': 17838.56}, {'Date': '3-Jun-16', 'Close': 17807.06}, {'Date': '6-Jun-16', 'Close': 17920.33}, {'Date': '7-Jun-16', 'Close': 17938.28}, {'Date': '8-Jun-16', 'Close': 18005.05}, {'Date': '9-Jun-16', 'Close': 17985.19}, {'Date': '10-Jun-16', 'Close': 17865.34}, {'Date': '13-Jun-16', 'Close': 17732.48}, {'Date': '14-Jun-16', 'Close': 17674.82}, {'Date': '15-Jun-16', 'Close': 17640.17}, {'Date': '16-Jun-16', 'Close': 17733.1}, {'Date': '17-Jun-16', 'Close': 17675.16}, {'Date': '20-Jun-16', 'Close': 17804.87}, {'Date': '21-Jun-16', 'Close': 17829.73}, {'Date': '22-Jun-16', 'Close': 17780.83}, {'Date': '23-Jun-16', 'Close': 18011.07}, {'Date': '24-Jun-16', 'Close': 17400.75}, {'Date': '27-Jun-16', 'Close': 17140.24}, {'Date': '28-Jun-16', 'Close': 17409.72}, {'Date': '29-Jun-16', 'Close': 17694.68}, {'Date': '30-Jun-16', 'Close': 17929.99}, {'Date': '1-Jul-16', 'Close': 17949.37}, {'Date': '5-Jul-16', 'Close': 17840.62}, {'Date': '6-Jul-16', 'Close': 17918.62}, {'Date': '7-Jul-16', 'Close': 17895.88}, {'Date': '8-Jul-16', 'Close': 18146.74}, {'Date': '11-Jul-16', 'Close': 18226.93}, {'Date': '12-Jul-16', 'Close': 18347.67}, {'Date': '13-Jul-16', 'Close': 18372.12}, {'Date': '14-Jul-16', 'Close': 18506.41}, {'Date': '15-Jul-16', 'Close': 18516.55}, {'Date': '18-Jul-16', 'Close': 18533.05}, {'Date': '19-Jul-16', 'Close': 18559.01}, {'Date': '20-Jul-16', 'Close': 18595.03}, {'Date': '21-Jul-16', 'Close': 18517.23}, {'Date': '22-Jul-16', 'Close': 18570.85}, {'Date': '25-Jul-16', 'Close': 18493.06}, {'Date': '26-Jul-16', 'Close': 18473.75}, {'Date': '27-Jul-16', 'Close': 18472.17}, {'Date': '28-Jul-16', 'Close': 18456.35}, {'Date': '29-Jul-16', 'Close': 18432.24}, {'Date': '1-Aug-16', 'Close': 18404.51}, {'Date': '2-Aug-16', 'Close': 18313.77}, {'Date': '3-Aug-16', 'Close': 18355.0}, {'Date': '4-Aug-16', 'Close': 18352.05}, {'Date': '5-Aug-16', 'Close': 18543.53}, {'Date': '8-Aug-16', 'Close': 18529.29}, {'Date': '9-Aug-16', 'Close': 18533.05}, {'Date': '10-Aug-16', 'Close': 18495.66}, {'Date': '11-Aug-16', 'Close': 18613.52}, {'Date': '12-Aug-16', 'Close': 18576.47}, {'Date': '15-Aug-16', 'Close': 18636.05}, {'Date': '16-Aug-16', 'Close': 18552.02}, {'Date': '17-Aug-16', 'Close': 18573.94}, {'Date': '18-Aug-16', 'Close': 18597.7}, {'Date': '19-Aug-16', 'Close': 18552.57}, {'Date': '22-Aug-16', 'Close': 18529.42}, {'Date': '23-Aug-16', 'Close': 18547.3}, {'Date': '24-Aug-16', 'Close': 18481.48}, {'Date': '25-Aug-16', 'Close': 18448.41}, {'Date': '26-Aug-16', 'Close': 18395.4}, {'Date': '29-Aug-16', 'Close': 18502.99}, {'Date': '30-Aug-16', 'Close': 18454.3}, {'Date': '31-Aug-16', 'Close': 18400.88}, {'Date': '1-Sep-16', 'Close': 18419.3}, {'Date': '2-Sep-16', 'Close': 18491.96}, {'Date': '6-Sep-16', 'Close': 18538.12}, {'Date': '7-Sep-16', 'Close': 18526.14}, {'Date': '8-Sep-16', 'Close': 18479.91}, {'Date': '9-Sep-16', 'Close': 18085.45}, {'Date': '12-Sep-16', 'Close': 18325.07}, {'Date': '13-Sep-16', 'Close': 18066.75}, {'Date': '14-Sep-16', 'Close': 18034.77}, {'Date': '15-Sep-16', 'Close': 18212.48}, {'Date': '16-Sep-16', 'Close': 18123.8}, {'Date': '19-Sep-16', 'Close': 18120.17}, {'Date': '20-Sep-16', 'Close': 18129.96}, {'Date': '21-Sep-16', 'Close': 18293.7}, {'Date': '22-Sep-16', 'Close': 18392.46}, {'Date': '23-Sep-16', 'Close': 18261.45}, {'Date': '26-Sep-16', 'Close': 18094.83}, {'Date': '27-Sep-16', 'Close': 18228.3}, {'Date': '28-Sep-16', 'Close': 18339.24}, {'Date': '29-Sep-16', 'Close': 18143.45}, {'Date': '30-Sep-16', 'Close': 18308.15}, {'Date': '3-Oct-16', 'Close': 18253.85}, {'Date': '4-Oct-16', 'Close': 18168.45}, {'Date': '5-Oct-16', 'Close': 18281.03}, {'Date': '6-Oct-16', 'Close': 18268.5}, {'Date': '7-Oct-16', 'Close': 18240.49}, {'Date': '10-Oct-16', 'Close': 18329.04}, {'Date': '11-Oct-16', 'Close': 18128.66}, {'Date': '12-Oct-16', 'Close': 18144.2}, {'Date': '13-Oct-16', 'Close': 18098.94}, {'Date': '14-Oct-16', 'Close': 18138.38}, {'Date': '17-Oct-16', 'Close': 18086.4}, {'Date': '18-Oct-16', 'Close': 18161.94}, {'Date': '19-Oct-16', 'Close': 18202.62}, {'Date': '20-Oct-16', 'Close': 18162.35}, {'Date': '21-Oct-16', 'Close': 18145.71}, {'Date': '24-Oct-16', 'Close': 18223.03}, {'Date': '25-Oct-16', 'Close': 18169.27}, {'Date': '26-Oct-16', 'Close': 18199.33}, {'Date': '27-Oct-16', 'Close': 18169.68}, {'Date': '28-Oct-16', 'Close': 18161.19}, {'Date': '31-Oct-16', 'Close': 18142.42}, {'Date': '1-Nov-16', 'Close': 18037.1}, {'Date': '2-Nov-16', 'Close': 17959.64}, {'Date': '3-Nov-16', 'Close': 17930.67}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Date': '27-Jan-17', 'Close': '20,093.78'}, {'Date': '30-Jan-17', 'Close': '19,971.13'}, {'Date': '31-Jan-17', 'Close': '19,864.09'}, {'Date': '1-Feb-17', 'Close': '19,890.94'}, {'Date': '2-Feb-17', 'Close': '19,884.91'}, {'Date': '3-Feb-17', 'Close': '20,071.46'}, {'Date': '6-Feb-17', 'Close': '20,052.42'}, {'Date': '7-Feb-17', 'Close': '20,090.29'}, {'Date': '8-Feb-17', 'Close': '20,054.34'}, {'Date': '9-Feb-17', 'Close': '20,172.40'}, {'Date': '10-Feb-17', 'Close': '20,269.37'}, {'Date': '13-Feb-17', 'Close': '20,412.16'}, {'Date': '14-Feb-17', 'Close': '20,504.41'}, {'Date': '15-Feb-17', 'Close': '20,611.86'}, {'Date': '16-Feb-17', 'Close': '20,619.77'}, {'Date': '17-Feb-17', 'Close': '20,624.05'}, {'Date': '21-Feb-17', 'Close': '20,743.00'}, {'Date': '22-Feb-17', 'Close': '20,775.60'}, {'Date': '23-Feb-17', 'Close': '20,810.32'}, {'Date': '24-Feb-17', 'Close': '20,821.76'}, {'Date': '27-Feb-17', 'Close': '20,837.44'}, {'Date': '28-Feb-17', 'Close': '20,812.24'}, {'Date': '1-Mar-17', 'Close': '21,115.55'}, {'Date': '2-Mar-17', 'Close': '21,002.97'}, {'Date': '3-Mar-17', 'Close': '21,005.71'}, {'Date': '6-Mar-17', 'Close': '20,954.34'}, {'Date': '7-Mar-17', 'Close': '20,924.76'}, {'Date': '8-Mar-17', 'Close': '20,855.73'}, {'Date': '9-Mar-17', 'Close': '20,858.19'}, {'Date': '10-Mar-17', 'Close': '20,902.98'}, {'Date': '13-Mar-17', 'Close': '20,881.48'}, {'Date': '14-Mar-17', 'Close': '20,837.37'}, {'Date': '15-Mar-17', 'Close': '20,950.10'}, {'Date': '16-Mar-17', 'Close': '20,934.55'}, {'Date': '17-Mar-17', 'Close': '20,914.62'}, {'Date': '20-Mar-17', 'Close': '20,905.86'}, {'Date': '21-Mar-17', 'Close': '20,668.01'}, {'Date': '22-Mar-17', 'Close': '20,661.30'}, {'Date': '23-Mar-17', 'Close': '20,656.58'}, {'Date': '24-Mar-17', 'Close': '20,596.72'}, {'Date': '27-Mar-17', 'Close': '20,550.98'}, {'Date': '28-Mar-17', 'Close': '20,701.50'}, {'Date': '29-Mar-17', 'Close': '20,659.32'}, {'Date': '30-Mar-17', 'Close': '20,728.49'}, {'Date': '31-Mar-17', 'Close': '20,663.22'}, {'Date': '3-Apr-17', 'Close': '20,650.21'}, {'Date': '4-Apr-17', 'Close': '20,689.24'}, {'Date': '5-Apr-17', 'Close': '20,648.15'}, {'Date': '6-Apr-17', 'Close': '20,662.95'}, {'Date': '7-Apr-17', 'Close': '20,656.10'}, {'Date': '10-Apr-17', 'Close': '20,658.02'}, {'Date': '11-Apr-17', 'Close': '20,651.30'}, {'Date': '12-Apr-17', 'Close': '20,591.86'}, {'Date': '13-Apr-17', 'Close': '20,453.25'}, {'Date': '17-Apr-17', 'Close': '20,636.92'}, {'Date': '18-Apr-17', 'Close': '20,523.28'}, {'Date': '19-Apr-17', 'Close': '20,404.49'}, {'Date': '20-Apr-17', 'Close': '20,578.71'}, {'Date': '21-Apr-17', 'Close': '20,547.76'}, {'Date': '24-Apr-17', 'Close': '20,763.89'}, {'Date': '25-Apr-17', 'Close': '20,996.12'}, {'Date': '26-Apr-17', 'Close': '20,975.09'}, {'Date': '27-Apr-17', 'Close': '20,981.33'}, {'Date': '28-Apr-17', 'Close': '20,940.51'}, {'Date': '1-May-17', 'Close': '20,913.46'}, {'Date': '2-May-17', 'Close': '20,949.89'}, {'Date': '3-May-17', 'Close': '20,957.90'}, {'Date': '4-May-17', 'Close': '20,951.47'}, {'Date': '5-May-17', 'Close': '21,006.94'}, {'Date': '8-May-17', 'Close': '21,012.28'}, {'Date': '9-May-17', 'Close': '20,975.78'}, {'Date': '10-May-17', 'Close': '20,943.11'}, {'Date': '11-May-17', 'Close': '20,919.42'}, {'Date': '12-May-17', 'Close': '20,896.61'}, {'Date': '15-May-17', 'Close': '20,981.94'}, {'Date': '16-May-17', 'Close': '20,979.75'}, {'Date': '17-May-17', 'Close': '20,606.93'}, {'Date': '18-May-17', 'Close': '20,663.02'}, {'Date': '19-May-17', 'Close': '20,804.84'}, {'Date': '22-May-17', 'Close': '20,894.83'}, {'Date': '23-May-17', 'Close': '20,937.91'}, {'Date': '24-May-17', 'Close': '21,012.42'}, {'Date': '25-May-17', 'Close': '21,082.95'}, {'Date': '26-May-17', 'Close': '21,080.28'}, {'Date': '30-May-17', 'Close': '21,029.47'}, {'Date': '31-May-17', 'Close': '21,008.65'}, {'Date': '1-Jun-17', 'Close': '21,144.18'}, {'Date': '2-Jun-17', 'Close': '21,206.29'}, {'Date': '5-Jun-17', 'Close': '21,184.04'}, {'Date': '6-Jun-17', 'Close': '21,136.23'}, {'Date': '7-Jun-17', 'Close': '21,173.69'}, {'Date': '8-Jun-17', 'Close': '21,182.53'}, {'Date': '9-Jun-17', 'Close': '21,271.97'}, {'Date': '12-Jun-17', 'Close': '21,235.67'}, {'Date': '13-Jun-17', 'Close': '21,328.47'}, {'Date': '14-Jun-17', 'Close': '21,374.56'}, {'Date': '15-Jun-17', 'Close': '21,359.90'}, {'Date': '16-Jun-17', 'Close': '21,384.28'}, {'Date': '19-Jun-17', 'Close': '21,528.99'}, {'Date': '20-Jun-17', 'Close': '21,467.14'}, {'Date': '21-Jun-17', 'Close': '21,410.03'}, {'Date': '22-Jun-17', 'Close': '21,397.29'}, {'Date': '23-Jun-17', 'Close': '21,394.76'}, {'Date': '26-Jun-17', 'Close': '21,409.55'}, {'Date': '27-Jun-17', 'Close': '21,310.66'}, {'Date': '28-Jun-17', 'Close': '21,454.61'}, {'Date': '29-Jun-17', 'Close': '21,287.03'}, {'Date': '30-Jun-17', 'Close': '21,349.63'}, {'Date': '3-Jul-17', 'Close': '21,479.27'}, {'Date': '5-Jul-17', 'Close': '21,478.17'}, {'Date': '6-Jul-17', 'Close': '21,320.04'}, {'Date': '7-Jul-17', 'Close': '21,414.34'}, {'Date': '10-Jul-17', 'Close': '21,408.52'}, {'Date': '11-Jul-17', 'Close': '21,409.07'}, {'Date': '12-Jul-17', 'Close': '21,532.14'}, {'Date': '13-Jul-17', 'Close': '21,553.09'}, {'Date': '14-Jul-17', 'Close': '21,637.74'}, {'Date': '17-Jul-17', 'Close': '21,629.72'}, {'Date': '18-Jul-17', 'Close': '21,574.73'}, {'Date': '19-Jul-17', 'Close': '21,640.75'}, {'Date': '20-Jul-17', 'Close': '21,611.78'}, {'Date': '21-Jul-17', 'Close': '21,580.07'}, {'Date': '24-Jul-17', 'Close': '21,513.17'}, {'Date': '25-Jul-17', 'Close': '21,613.43'}, {'Date': '26-Jul-17', 'Close': '21,711.01'}, {'Date': '27-Jul-17', 'Close': '21,796.55'}, {'Date': '28-Jul-17', 'Close': '21,830.31'}, {'Date': '31-Jul-17', 'Close': '21,891.12'}, {'Date': '1-Aug-17', 'Close': '21,963.92'}, {'Date': '2-Aug-17', 'Close': '22,016.24'}, {'Date': '3-Aug-17', 'Close': '22,026.10'}, {'Date': '4-Aug-17', 'Close': '22,092.81'}, {'Date': '7-Aug-17', 'Close': '22,118.42'}, {'Date': '8-Aug-17', 'Close': '22,085.34'}, {'Date': '9-Aug-17', 'Close': '22,048.70'}, {'Date': '10-Aug-17', 'Close': '21,844.01'}, {'Date': '11-Aug-17', 'Close': '21,858.32'}, {'Date': '14-Aug-17', 'Close': '21,993.71'}, {'Date': '15-Aug-17', 'Close': '21,998.99'}, {'Date': '16-Aug-17', 'Close': '22,024.87'}, {'Date': '17-Aug-17', 'Close': '21,750.73'}, {'Date': '18-Aug-17', 'Close': '21,674.51'}, {'Date': '21-Aug-17', 'Close': '21,703.75'}, {'Date': '22-Aug-17', 'Close': '21,899.89'}, {'Date': '23-Aug-17', 'Close': '21,812.09'}, {'Date': '24-Aug-17', 'Close': '21,783.40'}, {'Date': '25-Aug-17', 'Close': '21,813.67'}, {'Date': '28-Aug-17', 'Close': '21,808.40'}, {'Date': '29-Aug-17', 'Close': '21,865.37'}, {'Date': '30-Aug-17', 'Close': '21,892.43'}, {'Date': '31-Aug-17', 'Close': '21,948.10'}, {'Date': '1-Sep-17', 'Close': '21,987.56'}, {'Date': '5-Sep-17', 'Close': '21,753.31'}, {'Date': '6-Sep-17', 'Close': '21,807.64'}, {'Date': '7-Sep-17', 'Close': '21,784.78'}, {'Date': '8-Sep-17', 'Close': '21,797.79'}, {'Date': '11-Sep-17', 'Close': '22,057.37'}, {'Date': '12-Sep-17', 'Close': '22,118.86'}, {'Date': '13-Sep-17', 'Close': '22,158.18'}, {'Date': '14-Sep-17', 'Close': '22,203.48'}, {'Date': '15-Sep-17', 'Close': '22,268.34'}, {'Date': '18-Sep-17', 'Close': '22,331.35'}, {'Date': '19-Sep-17', 'Close': '22,370.80'}, {'Date': '20-Sep-17', 'Close': '22,412.59'}, {'Date': '21-Sep-17', 'Close': '22,359.23'}, {'Date': '22-Sep-17', 'Close': '22,349.59'}, {'Date': '25-Sep-17', 'Close': '22,296.09'}, {'Date': '26-Sep-17', 'Close': '22,284.32'}, {'Date': '27-Sep-17', 'Close': '22,340.71'}, {'Date': '28-Sep-17', 'Close': '22,381.20'}, {'Date': '29-Sep-17', 'Close': '22,405.09'}, {'Date': '2-Oct-17', 'Close': '22,557.60'}, {'Date': '3-Oct-17', 'Close': '22,641.67'}, {'Date': '4-Oct-17', 'Close': '22,661.64'}, {'Date': '5-Oct-17', 'Close': '22,775.39'}, {'Date': '6-Oct-17', 'Close': '22,773.67'}, {'Date': '9-Oct-17', 'Close': '22,761.07'}, {'Date': '10-Oct-17', 'Close': '22,830.68'}, {'Date': '11-Oct-17', 'Close': '22,872.89'}, {'Date': '12-Oct-17', 'Close': '22,841.01'}, {'Date': '13-Oct-17', 'Close': '22,871.72'}, {'Date': '16-Oct-17', 'Close': '22,956.96'}, {'Date': '17-Oct-17', 'Close': '22,997.44'}, {'Date': '18-Oct-17', 'Close': '23,157.60'}, {'Date': '19-Oct-17', 'Close': '23,163.04'}, {'Date': '20-Oct-17', 'Close': '23,328.63'}, {'Date': '23-Oct-17', 'Close': '23,273.96'}, {'Date': '24-Oct-17', 'Close': '23,441.76'}, {'Date': '25-Oct-17', 'Close': '23,329.46'}, {'Date': '26-Oct-17', 'Close': '23,400.86'}, {'Date': '27-Oct-17', 'Close': '23,434.19'}, {'Date': '30-Oct-17', 'Close': '23,348.74'}, {'Date': '31-Oct-17', 'Close': '23,377.24'}, {'Date': '1-Nov-17', 'Close': '23,435.01'}, {'Date': '2-Nov-17', 'Close': '23,516.26'}, {'Date': '3-Nov-17', 'Close': '23,539.19'}, {'Date': '6-Nov-17', 'Close': '23,548.42'}, {'Date': '7-Nov-17', 'Close': '23,557.23'}, {'Date': '8-Nov-17', 'Close': '23,563.36'}, {'Date': '9-Nov-17', 'Close': '23,461.94'}, {'Date': '10-Nov-17', 'Close': '23,422.21'}, {'Date': '13-Nov-17', 'Close': '23,439.70'}, {'Date': '14-Nov-17', 'Close': '23,409.47'}, {'Date': '15-Nov-17', 'Close': '23,271.28'}, {'Date': '16-Nov-17', 'Close': '23,458.36'}, {'Date': '17-Nov-17', 'Close': '23,358.24'}, {'Date': '20-Nov-17', 'Close': '23,430.33'}, {'Date': '21-Nov-17', 'Close': '23,590.83'}, {'Date': '22-Nov-17', 'Close': '23,526.18'}, {'Date': '24-Nov-17', 'Close': '23,557.99'}, {'Date': '27-Nov-17', 'Close': '23,580.78'}, {'Date': '28-Nov-17', 'Close': '23,836.71'}, {'Date': '29-Nov-17', 'Close': '23,940.68'}, {'Date': '30-Nov-17', 'Close': '24,272.35'}, {'Date': '1-Dec-17', 'Close': '24,231.59'}, {'Date': '4-Dec-17', 'Close': '24,290.05'}, {'Date': '5-Dec-17', 'Close': '24,180.64'}, {'Date': '6-Dec-17', 'Close': '24,140.91'}, {'Date': '7-Dec-17', 'Close': '24,211.48'}, {'Date': '8-Dec-17', 'Close': '24,329.16'}, {'Date': '11-Dec-17', 'Close': '24,386.03'}, {'Date': '12-Dec-17', 'Close': '24,504.80'}, {'Date': '13-Dec-17', 'Close': '24,585.43'}, {'Date': '14-Dec-17', 'Close': '24,508.66'}, {'Date': '15-Dec-17', 'Close': '24,651.74'}, {'Date': '18-Dec-17', 'Close': '24,792.20'}, {'Date': '19-Dec-17', 'Close': '24,754.75'}, {'Date': '20-Dec-17', 'Close': '24,726.65'}, {'Date': '21-Dec-17', 'Close': '24,782.29'}, {'Date': '22-Dec-17', 'Close': '24,754.06'}, {'Date': '26-Dec-17', 'Close': '24,746.21'}, {'Date': '27-Dec-17', 'Close': '24,774.30'}, {'Date': '28-Dec-17', 'Close': '24,837.51'}, {'Date': '29-Dec-17', 'Close': '24,719.22'}, {'Date': '2-Jan-18', 'Close': '24,824.01'}, {'Date': '3-Jan-18', 'Close': '24,922.68'}, {'Date': '4-Jan-18', 'Close': '25,075.13'}, {'Date': '5-Jan-18', 'Close': '25,295.87'}, {'Date': '8-Jan-18', 'Close': '25,283.00'}, {'Date': '9-Jan-18', 'Close': '25,385.80'}, {'Date': '10-Jan-18', 'Close': '25,369.13'}, {'Date': '11-Jan-18', 'Close': '25,574.73'}, {'Date': '12-Jan-18', 'Close': '25,803.19'}, {'Date': '16-Jan-18', 'Close': '25,792.86'}, {'Date': '17-Jan-18', 'Close': '26,115.65'}, {'Date': '18-Jan-18', 'Close': '26,017.81'}, {'Date': '19-Jan-18', 'Close': '26,071.72'}, {'Date': '22-Jan-18', 'Close': '26,214.60'}, {'Date': '23-Jan-18', 'Close': '26,210.81'}, {'Date': '24-Jan-18', 'Close': '26,252.12'}, {'Date': '25-Jan-18', 'Close': '26,392.79'}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Date': '9-Jan-20', 'Close': '28,956.90'}, {'Date': '10-Jan-20', 'Close': '28,823.77'}, {'Date': '13-Jan-20', 'Close': '28,907.05'}, {'Date': '14-Jan-20', 'Close': '28,939.67'}, {'Date': '15-Jan-20', 'Close': '29,030.22'}, {'Date': '16-Jan-20', 'Close': '29,297.64'}, {'Date': '17-Jan-20', 'Close': '29,348.10'}, {'Date': '21-Jan-20', 'Close': '29,196.04'}, {'Date': '22-Jan-20', 'Close': '29,186.27'}, {'Date': '23-Jan-20', 'Close': '29,160.09'}, {'Date': '24-Jan-20', 'Close': '28,989.73'}, {'Date': '27-Jan-20', 'Close': '28,535.80'}, {'Date': '28-Jan-20', 'Close': '28,722.85'}, {'Date': '29-Jan-20', 'Close': '28,734.45'}, {'Date': '30-Jan-20', 'Close': '28,859.44'}, {'Date': '31-Jan-20', 'Close': '28,256.03'}, {'Date': '3-Feb-20', 'Close': '28,399.81'}, {'Date': '4-Feb-20', 'Close': '28,807.63'}, {'Date': '5-Feb-20', 'Close': '29,290.85'}, {'Date': '6-Feb-20', 'Close': '29,379.77'}, {'Date': '7-Feb-20', 'Close': '29,102.51'}, {'Date': '10-Feb-20', 'Close': '29,276.82'}, {'Date': '11-Feb-20', 'Close': '29,276.34'}, {'Date': '12-Feb-20', 'Close': '29,551.42'}, {'Date': '13-Feb-20', 'Close': '29,423.31'}, {'Date': '14-Feb-20', 'Close': '29,398.08'}, {'Date': '18-Feb-20', 'Close': '29,232.19'}, {'Date': '19-Feb-20', 'Close': '29,348.03'}, {'Date': '20-Feb-20', 'Close': '29,219.98'}, {'Date': '21-Feb-20', 'Close': '28,992.41'}, {'Date': '24-Feb-20', 'Close': '27,960.80'}, {'Date': '25-Feb-20', 'Close': '27,081.36'}, {'Date': '26-Feb-20', 'Close': '26,957.59'}, {'Date': '27-Feb-20', 'Close': '25,766.64'}, {'Date': '28-Feb-20', 'Close': '25,409.36'}, {'Date': '2-Mar-20', 'Close': '26,703.32'}, {'Date': '3-Mar-20', 'Close': '25,917.41'}, {'Date': '4-Mar-20', 'Close': '27,090.86'}, {'Date': '5-Mar-20', 'Close': '26,121.28'}, {'Date': '6-Mar-20', 'Close': '25,864.78'}, {'Date': '9-Mar-20', 'Close': '23,851.02'}, {'Date': '10-Mar-20', 'Close': '25,018.16'}, {'Date': '11-Mar-20', 'Close': '23,553.22'}, {'Date': '12-Mar-20', 'Close': '21,200.62'}, {'Date': '13-Mar-20', 'Close': '23,185.62'}, {'Date': '16-Mar-20', 'Close': '20,188.52'}, {'Date': '17-Mar-20', 'Close': '21,237.38'}, {'Date': '18-Mar-20', 'Close': '19,898.92'}, {'Date': '19-Mar-20', 'Close': '20,087.19'}, {'Date': '20-Mar-20', 'Close': '19,173.98'}, {'Date': '23-Mar-20', 'Close': '18,591.93'}, {'Date': '24-Mar-20', 'Close': '20,704.91'}, {'Date': '25-Mar-20', 'Close': '21,200.55'}, {'Date': '26-Mar-20', 'Close': '22,552.17'}, {'Date': '27-Mar-20', 'Close': '21,636.78'}, {'Date': '30-Mar-20', 'Close': '22,327.48'}, {'Date': '31-Mar-20', 'Close': '21,917.16'}, {'Date': '1-Apr-20', 'Close': '20,943.51'}, {'Date': '2-Apr-20', 'Close': '21,413.44'}, {'Date': '3-Apr-20', 'Close': '21,052.53'}, {'Date': '6-Apr-20', 'Close': '22,679.99'}, {'Date': '7-Apr-20', 'Close': '22,653.86'}, {'Date': '8-Apr-20', 'Close': '23,433.57'}, {'Date': '9-Apr-20', 'Close': '23,719.37'}, {'Date': '13-Apr-20', 'Close': '23,390.77'}, {'Date': '14-Apr-20', 'Close': '23,949.76'}, {'Date': '15-Apr-20', 'Close': '23,504.35'}, {'Date': '16-Apr-20', 'Close': '23,537.68'}, {'Date': '17-Apr-20', 'Close': '24,242.49'}, {'Date': '20-Apr-20', 'Close': '23,650.44'}, {'Date': '21-Apr-20', 'Close': '23,018.88'}, {'Date': '22-Apr-20', 'Close': '23,475.82'}, {'Date': '23-Apr-20', 'Close': '23,515.26'}, {'Date': '24-Apr-20', 'Close': '23,775.27'}, {'Date': '27-Apr-20', 'Close': '24,133.78'}, {'Date': '28-Apr-20', 'Close': '24,101.55'}, {'Date': '29-Apr-20', 'Close': '24,633.86'}, {'Date': '30-Apr-20', 'Close': '24,345.72'}, {'Date': '1-May-20', 'Close': '23,723.69'}, {'Date': '4-May-20', 'Close': '23,749.76'}, {'Date': '5-May-20', 'Close': '23,883.09'}, {'Date': '6-May-20', 'Close': '23,664.64'}, {'Date': '7-May-20', 'Close': '23,875.89'}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>From 2020/03/04 to 2020/03/23, the 'Dow Janes Industrial (.DJI) is on an downtrend.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":"Close","BeginIndex":"37","EndIndex":"50","Trend":"downtrend","Number":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":"Close","BeginIndex":"76","EndIndex":"250","Trend":"uptrend","Number":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The chart of Amazon.com Inc. (AMZN) shows a double top pattern that formed in the stock between September and October 2018. After the pattern appears, shares plunges another 31%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"Close","BeginIndex":"42","EndIndex":"69","Trend":"double top","Number":"None"}, {"ObjectName":"Close","BeginIndex":"70","EndIndex":"102","Trend":"plunges","Number":"31%"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Date': '2018/6/27', 'Close': 83.025497}, {'Date': '2018/6/28', 'Close': 85.072502}, {'Date': '2018/6/29', 'Close': 84.989998}, {'Date': '2018/7/2', 'Close': 85.689003}, {'Date': '2018/7/3', 'Close': 84.697998}, {'Date': '2018/7/5', 'Close': 84.986504}, {'Date': '2018/7/6', 'Close': 85.531502}, {'Date': '2018/7/9', 'Close': 86.950996}, {'Date': '2018/7/10', 'Close': 87.153503}, {'Date': '2018/7/11', 'Close': 87.75}, {'Date': '2018/7/12', 'Close': 89.831001}, {'Date': '2018/7/13', 'Close': 90.651497}, {'Date': '2018/7/16', 'Close': 91.124496}, {'Date': '2018/7/17', 'Close': 92.196503}, {'Date': '2018/7/18', 'Close': 92.146004}, {'Date': '2018/7/19', 'Close': 90.648499}, {'Date': '2018/7/20', 'Close': 90.684998}, {'Date': '2018/7/23', 'Close': 90.099998}, {'Date': '2018/7/24', 'Close': 91.461998}, {'Date': '2018/7/25', 'Close': 93.180496}, {'Date': '2018/7/26', 'Close': 90.400002}, {'Date': '2018/7/27', 'Close': 90.863503}, {'Date': '2018/7/30', 'Close': 88.960999}, {'Date': '2018/7/31', 'Close': 88.872002}, {'Date': '2018/8/1', 'Close': 89.858498}, {'Date': '2018/8/2', 'Close': 91.716499}, {'Date': '2018/8/3', 'Close': 91.164497}, {'Date': '2018/8/6', 'Close': 92.387497}, {'Date': '2018/8/7', 'Close': 93.124001}, {'Date': '2018/8/8', 'Close': 94.325996}, {'Date': '2018/8/9', 'Close': 94.926003}, {'Date': '2018/8/10', 'Close': 94.315002}, {'Date': '2018/8/13', 'Close': 94.809998}, {'Date': '2018/8/14', 'Close': 95.982498}, {'Date': '2018/8/15', 'Close': 94.130997}, {'Date': '2018/8/16', 'Close': 94.325996}, {'Date': '2018/8/17', 'Close': 94.111}, {'Date': '2018/8/20', 'Close': 93.835503}, {'Date': '2018/8/21', 'Close': 94.170998}, {'Date': '2018/8/22', 'Close': 95.245003}, {'Date': '2018/8/23', 'Close': 95.144997}, {'Date': '2018/8/24', 'Close': 95.269501}, {'Date': '2018/8/27', 'Close': 96.384003}, {'Date': '2018/8/28', 'Close': 96.640999}, {'Date': '2018/8/29', 'Close': 99.904999}, {'Date': '2018/8/30', 'Close': 100.119003}, {'Date': '2018/8/31', 'Close': 100.635498}, {'Date': '2018/9/4', 'Close': 101.975502}, {'Date': '2018/9/5', 'Close': 101.740997}, {'Date': '2018/9/6', 'Close': 99.915497}, {'Date': '2018/9/7', 'Close': 98.6035}, {'Date': '2018/9/10', 'Close': 97.9505}, {'Date': '2018/9/11', 'Close': 97.357498}, {'Date': '2018/9/12', 'Close': 96.93}, {'Date': '2018/9/13', 'Close': 96.7935}, {'Date': '2018/9/14', 'Close': 96.809499}, {'Date': '2018/9/17', 'Close': 96.901497}, {'Date': '2018/9/18', 'Close': 97.052498}, {'Date': '2018/9/19', 'Close': 96.320999}, {'Date': '2018/9/20', 'Close': 97.214996}, {'Date': '2018/9/21', 'Close': 95.750504}, {'Date': '2018/9/24', 'Close': 96.718002}, {'Date': '2018/9/25', 'Close': 98.727501}, {'Date': '2018/9/26', 'Close': 98.7425}, {'Date': '2018/9/27', 'Close': 100.649002}, {'Date': '2018/9/28', 'Close': 100.150002}, {'Date': '2018/10/1', 'Close': 100.218002}, {'Date': '2018/10/2', 'Close': 98.565498}, {'Date': '2018/10/3', 'Close': 97.638}, {'Date': '2018/10/4', 'Close': 95.471001}, {'Date': '2018/10/5', 'Close': 94.482498}, {'Date': '2018/10/8', 'Close': 93.221001}, {'Date': '2018/10/9', 'Close': 93.515999}, {'Date': '2018/10/10', 'Close': 87.762497}, {'Date': '2018/10/11', 'Close': 85.968002}, {'Date': '2018/10/12', 'Close': 89.430496}, {'Date': '2018/10/15', 'Close': 88.047501}, {'Date': '2018/10/16', 'Close': 90.998001}, {'Date': '2018/10/17', 'Close': 91.586502}, {'Date': '2018/10/18', 'Close': 88.536003}, {'Date': '2018/10/19', 'Close': 88.2015}, {'Date': '2018/10/22', 'Close': 89.464996}, {'Date': '2018/10/23', 'Close': 88.434998}, {'Date': '2018/10/24', 'Close': 83.209999}, {'Date': '2018/10/25', 'Close': 89.108498}, {'Date': '2018/10/26', 'Close': 82.140503}, {'Date': '2018/10/29', 'Close': 76.944}, {'Date': '2018/10/30', 'Close': 76.521004}, {'Date': '2018/10/31', 'Close': 79.900497}, {'Date': '2018/11/1', 'Close': 83.276497}, {'Date': '2018/11/2', 'Close': 83.276497}, {'Date': '2018/11/5', 'Close': 81.389999}, {'Date': '2018/11/6', 'Close': 82.140503}, {'Date': '2018/11/7', 'Close': 87.774498}, {'Date': '2018/11/8', 'Close': 87.745499}, {'Date': '2018/11/9', 'Close': 85.621498}, {'Date': '2018/11/12', 'Close': 81.842499}, {'Date': '2018/11/13', 'Close': 81.558502}, {'Date': '2018/11/14', 'Close': 79.9505}, {'Date': '2018/11/15', 'Close': 80.972}, {'Date': '2018/11/16', 'Close': 79.670502}, {'Date': '2018/11/19', 'Close': 75.614502}, {'Date': '2018/11/20', 'Close': 74.773003}]</t>
+  </si>
+  <si>
+    <t>{"ObjectName":"Price","BeginIndex":"22","EndIndex":"56","Trend":"triple top","Number":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The "triple top" pattern happens from 2010/04/01 to 2010/05/05. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'time': '2010/3/10', 'price': 96.4}, {'time': '2010/3/11', 'price': 98.8}, {'time': '2010/3/12', 'price': 101.23}, {'time': '2010/3/13', 'price': 98.6}, {'time': '2010/3/14', 'price': 96.5}, {'time': '2010/3/15', 'price': 94.3}, {'time': '2010/3/16', 'price': 98.023}, {'time': '2010/3/17', 'price': 97.25}, {'time': '2010/3/18', 'price': 98.089}, {'time': '2010/3/19', 'price': 98.144}, {'time': '2010/3/20', 'price': 98.899}, {'time': '2010/3/21', 'price': 100.001}, {'time': '2010/3/22', 'price': 102.2}, {'time': '2010/3/23', 'price': 103.7}, {'time': '2010/3/24', 'price': 102.46}, {'time': '2010/3/25', 'price': 99.46}, {'time': '2010/3/26', 'price': 97.01}, {'time': '2010/3/27', 'price': 99.14}, {'time': '2010/3/28', 'price': 100.74}, {'time': '2010/3/29', 'price': 104.58}, {'time': '2010/3/30', 'price': 105.31}, {'time': '2010/3/31', 'price': 107.07}, {'time': '2010/4/1', 'price': 110.13}, {'time': '2010/4/2', 'price': 111.26}, {'time': '2010/4/3', 'price': 113.0}, {'time': '2010/4/4', 'price': 115.8}, {'time': '2010/4/5', 'price': 116.6}, {'time': '2010/4/6', 'price': 117.0}, {'time': '2010/4/7', 'price': 116.7}, {'time': '2010/4/8', 'price': 116.5}, {'time': '2010/4/9', 'price': 116.6}, {'time': '2010/4/10', 'price': 116.7}, {'time': '2010/4/11', 'price': 116.0}, {'time': '2010/4/12', 'price': 115.0}, {'time': '2010/4/13', 'price': 112.9}, {'time': '2010/4/14', 'price': 112.7}, {'time': '2010/4/15', 'price': 113.0}, {'time': '2010/4/16', 'price': 113.2}, {'time': '2010/4/17', 'price': 114.6}, {'time': '2010/4/18', 'price': 115.5}, {'time': '2010/4/19', 'price': 117.8}, {'time': '2010/4/20', 'price': 117.6}, {'time': '2010/4/21', 'price': 116.2}, {'time': '2010/4/22', 'price': 115.2}, {'time': '2010/4/23', 'price': 114.4}, {'time': '2010/4/24', 'price': 113.0}, {'time': '2010/4/25', 'price': 112.8}, {'time': '2010/4/26', 'price': 113.8}, {'time': '2010/4/27', 'price': 116.0}, {'time': '2010/4/28', 'price': 115.5}, {'time': '2010/4/29', 'price': 114.9}, {'time': '2010/4/30', 'price': 114.7}, {'time': '2010/5/1', 'price': 112.2}, {'time': '2010/5/2', 'price': 111.4}, {'time': '2010/5/3', 'price': 110.8}, {'time': '2010/5/4', 'price': 110.9}, {'time': '2010/5/5', 'price': 109.9}, {'time': '2010/5/6', 'price': 106.8}, {'time': '2010/5/7', 'price': 105.5}, {'time': '2010/5/8', 'price': 104.6}, {'time': '2010/5/9', 'price': 106.5}, {'time': '2010/5/10', 'price': 110.5}, {'time': '2010/5/11', 'price': 111.0}, {'time': '2010/5/12', 'price': 110.6}, {'time': '2010/5/13', 'price': 110.2}, {'time': '2010/5/14', 'price': 104.9}, {'time': '2010/5/15', 'price': 105.8}, {'time': '2010/5/16', 'price': 106.6}, {'time': '2010/5/17', 'price': 106.0}, {'time': '2010/5/18', 'price': 105.6}, {'time': '2010/5/19', 'price': 106.0}, {'time': '2010/5/20', 'price': 105.0}, {'time': '2010/5/21', 'price': 106.6}, {'time': '2010/5/22', 'price': 106.9}, {'time': '2010/5/23', 'price': 107.7}, {'time': '2010/5/24', 'price': 110.3}, {'time': '2010/5/25', 'price': 111.5}, {'time': '2010/5/26', 'price': 110.4}, {'time': '2010/5/27', 'price': 107.0}, {'time': '2010/5/28', 'price': 105.5}, {'time': '2010/5/29', 'price': 103.0}]</t>
+  </si>
+  <si>
+    <t>There happens a 'cup and handle' pattern in Amazon stock from 1999/07/15 to 1999/09/29.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":"Close","BeginIndex":"51","EndIndex":"104","Trend":"cup and handle","Number":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The stock of Goodyear Tire &amp; Rubber company (GT) suffers a year-long 'rouding bottom' pattern from 1990.6.11 to 1991.6.3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":"Close","BeginIndex":"70","EndIndex":"317","Trend":"rouding bottom","Number":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The China Lithium Industry Development Index white paper predicts a rising trend for installed wind and PV capacity (GW). It is expected to reach 1,200 GW and reach a 25% energy percentage.</t>
+  </si>
+  <si>
+    <t>[{"ObjectName":"installed wind and PV capacity (GW)","BeginIndex":"0","EndIndex":"5","Trend":"rising","Number":"None"},{"ObjectName":"installed wind and PV capacity (GW)","BeginIndex":"5","EndIndex":"5","Trend":"None","Number":"1200"},{"ObjectName":"energy percentage","BeginIndex":"5","EndIndex":"5","Trend":"None","Number":"25%"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Time':'2017/1/1','Mini- and subcompact size':'0.61','Compact size':'0.35', 'Midsize to large':'0.04'},{'Time':'2018/1/1','Mini- and subcompact size':'0.49','Compact size':'0.41', 'Midsize to large':'0.10'},{'Time':'2019/1/1','Mini- and subcompact size':'0.33','Compact size':'0.54', 'Midsize to large':'0.13'},{'Time':'2020/1/1','Mini- and subcompact size':'0.35','Compact size':'0.33', 'Midsize to large':'0.32'},{'Time':'2021/1/1','Mini- and subcompact size':'0.37','Compact size':'0.28', 'Midsize to large':'0.35'},{'Time':'2022/1/1','Mini- and subcompact size':'0.37','Compact size':'0.31', 'Midsize to large':'0.32'},{'Time':'2023/1/1','Mini- and subcompact size':'0.30','Compact size':'0.30', 'Midsize to large':'0.40'}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Date': '1999/5/3', 'Adj Close': 3.773438}, {'Date': '1999/5/4', 'Adj Close': 3.575}, {'Date': '1999/5/5', 'Adj Close': 3.6625}, {'Date': '1999/5/6', 'Adj Close': 3.434375}, {'Date': '1999/5/7', 'Adj Close': 3.409375}, {'Date': '1999/5/10', 'Adj Close': 3.671875}, {'Date': '1999/5/11', 'Adj Close': 3.709375}, {'Date': '1999/5/12', 'Adj Close': 3.573438}, {'Date': '1999/5/13', 'Adj Close': 3.4}, {'Date': '1999/5/14', 'Adj Close': 3.309375}, {'Date': '1999/5/17', 'Adj Close': 3.440625}, {'Date': '1999/5/18', 'Adj Close': 3.315625}, {'Date': '1999/5/19', 'Adj Close': 3.489063}, {'Date': '1999/5/20', 'Adj Close': 3.270313}, {'Date': '1999/5/21', 'Adj Close': 3.214063}, {'Date': '1999/5/24', 'Adj C 3.25}, {'Date': '1999/9/27', 'Adj Close': 3.128125}, {'Date': '1999/9/28', 'Adj Close': 3.29375}, {'Date': '1999/9/29', 'Adj Close': 4.0375}, {'Date': '1999/9/30', 'Adj Close': 3.996875}, {'Date': '1999/10/1', 'Adj Close': 3.8625}, {'Date': '1999/10/4', 'Adj Close': 3.853125}, {'Date': '1999/10/5', 'Adj Close': 3.921875}, {'Date': '1999/10/6', 'Adj Close': 4.121875}, {'Date': '1999/10/7', 'Adj Close': 4.365625}, {'Date': '1999/10/8', 'Adj Close': 4.4625}, {'Date': '1999/10/11', 'Adj Close': 4.41875}, {'Date': '1999/10/12', 'Adj Close': 4.246875}, {'Date': '1999/10/13', 'Adj Close': 3.996875}, {'Date': '1999/10/14', 'Adj Close': 3.979688}, {'Date': '1999/10/15', 'Adj Close': 3.753125}, {'Date': '1999/10/18', 'Adj Close': 3.703125}, {'Date': '1999/10/19', 'Adj Close': 3.83125}, {'Date': '1999/10/20', 'Adj Close': 4.025}, {'Date': '1999/10/21', 'Adj Close': 4.0375}, {'Date': '1999/10/22', 'Adj Close': 3.93125}, {'Date': '1999/10/25', 'Adj Close': 4.1375}, {'Date': '1999/10/26', 'Adj Close': 4.0625}, {'Date': '1999/10/27', 'Adj Close': 3.796875}, {'Date': '1999/10/28', 'Adj Close': 3.55}, {'Date': '1999/10/29', 'Adj Close': 3.53125}, {'Date': '1999/11/1', 'Adj Close': 3.45625}, {'Date': '1999/11/2', 'Adj Close': 3.321875}, {'Date': '1999/11/3', 'Adj Close': 3.290625}, {'Date': '1999/11/4', 'Adj Close': 3.153125}, {'Date': '1999/11/5', 'Adj Close': 3.246875}, {'Date': '1999/11/8', 'Adj Close': 3.9}, {'Date': '1999/11/9', 'Adj Close': 3.540625}, {'Date': '1999/11/10', 'Adj Close': 3.6}, {'Date': '1999/11/11', 'Adj Close': 3.65}, {'Date': '1999/11/12', 'Adj Close': 3.746875}, {'Date': '1999/11/15', 'Adj Close': 3.675}, {'Date': '1999/11/16', 'Adj Close': 3.946875}, {'Date': '1999/11/17', 'Adj Close': 3.825}, {'Date': '1999/11/18', 'Adj Close': 3.896875}, {'Date': '1999/11/19', 'Adj Close': 3.896875}, {'Date': '1999/11/22', 'Adj Close': 4.025}, {'Date': '1999/11/23', 'Adj Close': 4.0875}, {'Date': '1999/11/24', 'Adj Close': 4.3625}, {'Date': '1999/11/26', 'Adj Close': 4.65625}, {'Date': '1999/11/29', 'Adj Close': 4.521875}, {'Date': '1999/11/30', 'Adj Close': 4.253125}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Date": "1990/3/1", "Close": 16.8125}, {"Date": "1990/3/2", "Close": 17.0}, {"Date": "1990/3/5", "Close": 17.4375}, {"Date": "1990/3/6", "Close": 17.75}, {"Date": "1990/3/7", "Close": 17.6875}, {"Date": "1990/3/8", "Close": 17.6875}, {"Date": "1990/3/9", "Close": 17.75}, {"Date": "1990/3/12", "Close": 18.1875}, {"Date": "1990/3/13", "Close": 18.9375}, {"Date": "1990/3/14", "Close": 18.9375}, {"Date": "1990/3/15", "Close": 18.5}, {"Date": "1990/3/16", "Close": 18.75}, {"Date": "1990/3/19", "Close": 18.5625}, {"Date": "1990/3/20", "Close": 18.5625}, {"Date": "1990/3/21", "Close": 19.125}, {"Date": "1990/3/22", "Close": 18.5}, {"Date": "1990/3/23", "Close": 18.75}, {"Date": "1990/3/26", "Close": 18.625}, {"Date": "1990/3/27", "Close": 18.625}, {"Date": "1990/3/28", "Close": 18.4375}, {"Date": "1990/3/29", "Close": 18.125}, {"Date": "1990/3/30", "Close": 17.875}, {"Date": "1990/4/2", "Close": 18.125}, {"Date": "1990/4/3", "Close": 18.5}, {"Date": "1990/4/4", "Close": 18.5625}, {"Date": "1990/4/5", "Close": 18.125}, {"Date": "1990/4/6", "Close": 18.125}, {"Date": "1990/4/9", "Close": 17.875}, {"Date": "1990/4/10", "Close": 17.9375}, {"Date": "1990/4/11", "Close": 18.0625}, {"Date": "1990/4/12", "Close": 17.9375}, {"Date": "1990/4/16", "Close": 17.625}, {"Date": "1990/4/17", "Close": 17.5625}, {"Date": "1990/4/18", "Close": 17.5625}, {"Date": "1990/4/19", "Close": 17.5}, {"Date": "1990/4/20", "Close": 17.375}, {"Date": "1990/4/23", "Close": 17.0625}, {"Date": "1990/4/24", "Close": 17.5}, {"Date": "1990/4/25", "Close": 17.75}, {"Date": "1990/4/26", "Close": 17.75}, {"Date": "1990/4/27", "Close": 17.625}, {"Date": "1990/4/30", "Close": 17.6875}, {"Date": "1990/5/1", "Close": 17.6875}, {"Date": "1990/5/2", "Close": 17.625}, {"Date": "1990/5/3", "Close": 17.75}, {"Date": "1990/5/4", "Close": 17.6875}, {"Date": "1990/5/7", "Close": 17.75}, {"Date": "1990/5/8", "Close": 17.75}, {"Date": "1990/5/9", "Close": 17.6875}, {"Date": "1990/5/10", "Close": 17.4375}, {"Date": "1990/5/11", "Close": 17.75}, {"Date": "1990/5/14", "Close": 17.6875}, {"Date": "1990/5/15", "Close": 17.4375}, {"Date": "1990/5/16", "Close": 17.6875}, {"Date": "1990/5/17", "Close": 17.9375}, {"Date": "1990/5/18", "Close": 17.9375}, {"Date": "1990/5/21", "Close": 17.875}, {"Date": "1990/5/22", "Close": 17.5625}, {"Date": "1990/5/23", "Close": 17.3125}, {"Date": "1990/5/24", "Close": 17.3125}, {"Date": "1990/5/25", "Close": 17.25}, {"Date": "1990/5/29", "Close": 17.6875}, {"Date": "1990/5/30", "Close": 18.0625}, {"Date": "1990/5/31", "Close": 17.875}, {"Date": "1990/6/1", "Close": 17.8125}, {"Date": "1990/6/4", "Close": 18.125}, {"Date": "1990/6/5", "Close": 17.9375}, {"Date": "1990/6/6", "Close": 17.75}, {"Date": "1990/6/7", "Close": 17.5}, {"Date": "1990/6/8", "Close": 17.3125}, {"Date": "1990/6/11", "Close": 17.0625}, {"Date": "1990/6/12", "Close": 17.25}, {"Date": "1990/6/13", "Close": 17.0625}, {"Date": "1990/6/14", "Close": 17.375}, {"Date": "1990/6/15", "Close": 17.3125}, {"Date": "1990/6/18", "Close": 17.0}, {"Date": "1990/6/19", "Close": 16.875}, {"Date": "1990/6/20", "Close": 16.8125}, {"Date": "1990/6/21", "Close": 16.25}, {"Date": "1990/6/22", "Close": 15.8125}, {"Date": "1990/6/25", "Close": 15.8125}, {"Date": "1990/6/26", "Close": 15.875}, {"Date": "1990/6/27", "Close": 15.5625}, {"Date": "1990/6/28", "Close": 15.125}, {"Date": "1990/6/29", "Close": 15.0625}, {"Date": "1990/7/2", "Close": 14.875}, {"Date": "1990/7/3", "Close": 14.75}, {"Date": "1990/7/5", "Close": 14.5625}, {"Date": "1990/7/6", "Close": 14.6875}, {"Date": "1990/7/9", "Close": 14.5}, {"Date": "1990/7/10", "Close": 14.1875}, {"Date": "1990/7/11", "Close": 13.9375}, {"Date": "1990/7/12", "Close": 14.25}, {"Date": "1990/7/13", "Close": 14.5}, {"Date": "1990/7/16", "Close": 14.8125}, {"Date": "1990/7/17", "Close": 15.0625}, {"Date": "1990/7/18", "Close": 14.75}, {"Date": "1990/7/19", "Close": 15.0625}, {"Date": "1990/7/20", "Close": 14.5}, {"Date": "1990/7/23", "Close": 14.25}, {"Date": "1990/7/24", "Close": 13.8125}, {"Date": "1990/7/25", "Close": 14.0625}, {"Date": "1990/7/26", "Close": 13.625}, {"Date": "1990/7/27", "Close": 13.5625}, {"Date": "1990/7/30", "Close": 13.875}, {"Date": "1990/7/31", "Close": 13.25}, {"Date": "1990/8/1", "Close": 13.1875}, {"Date": "1990/8/2", "Close": 13.375}, {"Date": "1990/8/3", "Close": 12.5}, {"Date": "1990/8/6", "Close": 12.1875}, {"Date": "1990/8/7", "Close": 12.25}, {"Date": "1990/8/8", "Close": 12.75}, {"Date": "1990/8/9", "Close": 12.75}, {"Date": "1990/8/10", "Close": 12.25}, {"Date": "1990/8/13", "Close": 12.5}, {"Date": "1990/8/14", "Close": 12.6875}, {"Date": "1990/8/15", "Close": 12.9375}, {"Date": "1990/8/16", "Close": 12.4375}, {"Date": "1990/8/17", "Close": 11.8125}, {"Date": "1990/8/20", "Close": 11.625}, {"Date": "1990/8/21", "Close": 11.5}, {"Date": "1990/8/22", "Close": 12.1875}, {"Date": "1990/8/23", "Close": 11.25}, {"Date": "1990/8/24", "Close": 11.6875}, {"Date": "1990/8/27", "Close": 11.8125}, {"Date": "1990/8/28", "Close": 11.75}, {"Date": "1990/8/29", "Close": 11.9375}, {"Date": "1990/8/30", "Close": 12.0625}, {"Date": "1990/8/31", "Close": 11.375}, {"Date": "1990/9/4", "Close": 11.5}, {"Date": "1990/9/5", "Close": 11.5625}, {"Date": "1990/9/6", "Close": 11.125}, {"Date": "1990/9/7", "Close": 10.3125}, {"Date": "1990/9/10", "Close": 10.5}, {"Date": "1990/9/11", "Close": 10.1875}, {"Date": "1990/9/12", "Close": 10.125}, {"Date": "1990/9/13", "Close": 9.9375}, {"Date": "1990/9/14", "Close": 9.9375}, {"Date": "1990/9/17", "Close": 9.5}, {"Date": "1990/9/18", "Close": 9.375}, {"Date": "1990/9/19", "Close": 9.5}, {"Date": "1990/9/20", "Close": 9.4375}, {"Date": "1990/9/21", "Close": 9.3125}, {"Date": "1990/9/24", "Close": 9.0}, {"Date": "1990/9/25", "Close": 8.5}, {"Date": "1990/9/26", "Close": 8.875}, {"Date": "1990/9/27", "Close": 8.375}, {"Date": "1990/9/28", "Close": 8.5}, {"Date": "1990/10/1", "Close": 8.5625}, {"Date": "1990/10/2", "Close": 8.375}, {"Date": "1990/10/3", "Close": 8.4375}, {"Date": "1990/10/4", "Close": 8.625}, {"Date": "1990/10/5", "Close": 8.5625}, {"Date": "1990/10/8", "Close": 8.4375}, {"Date": "1990/10/9", "Close": 8.125}, {"Date": "1990/10/10", "Close": 8.1875}, {"Date": "1990/10/11", "Close": 8.25}, {"Date": "1990/10/12", "Close": 8.125}, {"Date": "1990/10/15", "Close": 7.5625}, {"Date": "1990/10/16", "Close": 7.625}, {"Date": "1990/10/17", "Close": 8.0625}, {"Date": "1990/10/18", "Close": 8.0625}, {"Date": "1990/10/19", "Close": 8.0625}, {"Date": "1990/10/22", "Close": 7.875}, {"Date": "1990/10/23", "Close": 8.0}, {"Date": "1990/10/24", "Close": 8.25}, {"Date": "1990/10/25", "Close": 8.0}, {"Date": "1990/10/26", "Close": 7.8125}, {"Date": "1990/10/29", "Close": 7.75}, {"Date": "1990/10/30", "Close": 7.8125}, {"Date": "1990/10/31", "Close": 7.625}, {"Date": "1990/11/1", "Close": 7.5625}, {"Date": "1990/11/2", "Close": 7.375}, {"Date": "1990/11/5", "Close": 7.25}, {"Date": "1990/11/6", "Close": 7.625}, {"Date": "1990/11/7", "Close": 7.4375}, {"Date": "1990/11/8", "Close": 7.375}, {"Date": "1990/11/9", "Close": 6.75}, {"Date": "1990/11/12", "Close": 7.0}, {"Date": "1990/11/13", "Close": 7.1875}, {"Date": "1990/11/14", "Close": 7.625}, {"Date": "1990/11/15", "Close": 7.75}, {"Date": "1990/11/16", "Close": 7.875}, {"Date": "1990/11/19", "Close": 7.875}, {"Date": "1990/11/20", "Close": 7.75}, {"Date": "1990/11/21", "Close": 7.8125}, {"Date": "1990/11/23", "Close": 7.8125}, {"Date": "1990/11/26", "Close": 7.625}, {"Date": "1990/11/27", "Close": 7.75}, {"Date": "1990/11/28", "Close": 8.1875}, {"Date": "1990/11/29", "Close": 8.0625}, {"Date": "1990/11/30", "Close": 8.0}, {"Date": "1990/12/3", "Close": 7.9375}, {"Date": "1990/12/4", "Close": 7.9375}, {"Date": "1990/12/5", "Close": 8.0}, {"Date": "1990/12/6", "Close": 7.9375}, {"Date": "1990/12/7", "Close": 8.125}, {"Date": "1990/12/10", "Close": 8.125}, {"Date": "1990/12/11", "Close": 8.625}, {"Date": "1990/12/12", "Close": 8.75}, {"Date": "1990/12/13", "Close": 8.625}, {"Date": "1990/12/14", "Close": 8.5}, {"Date": "1990/12/17", "Close": 8.375}, {"Date": "1990/12/18", "Close": 8.375}, {"Date": "1990/12/19", "Close": 8.75}, {"Date": "1990/12/20", "Close": 8.75}, {"Date": "1990/12/21", "Close": 8.5625}, {"Date": "1990/12/24", "Close": 8.6875}, {"Date": "1990/12/26", "Close": 9.0625}, {"Date": "1990/12/27", "Close": 9.375}, {"Date": "1990/12/28", "Close": 9.5625}, {"Date": "1990/12/31", "Close": 9.4375}, {"Date": "1991/1/2", "Close": 9.5}, {"Date": "1991/1/3", "Close": 9.0625}, {"Date": "1991/1/4", "Close": 8.8125}, {"Date": "1991/1/7", "Close": 8.6875}, {"Date": "1991/1/8", "Close": 8.8125}, {"Date": "1991/1/9", "Close": 8.625}, {"Date": "1991/1/10", "Close": 8.6875}, {"Date": "1991/1/11", "Close": 9.0625}, {"Date": "1991/1/14", "Close": 8.75}, {"Date": "1991/1/15", "Close": 8.75}, {"Date": "1991/1/16", "Close": 8.75}, {"Date": "1991/1/17", "Close": 9.25}, {"Date": "1991/1/18", "Close": 9.375}, {"Date": "1991/1/21", "Close": 9.25}, {"Date": "1991/1/22", "Close": 9.25}, {"Date": "1991/1/23", "Close": 9.5}, {"Date": "1991/1/24", "Close": 9.8125}, {"Date": "1991/1/25", "Close": 9.5625}, {"Date": "1991/1/28", "Close": 9.625}, {"Date": "1991/1/29", "Close": 9.8125}, {"Date": "1991/1/30", "Close": 10.3125}, {"Date": "1991/1/31", "Close": 10.125}, {"Date": "1991/2/1", "Close": 10.1875}, {"Date": "1991/2/4", "Close": 10.5}, {"Date": "1991/2/5", "Close": 10.3125}, {"Date": "1991/2/6", "Close": 9.9375}, {"Date": "1991/2/7", "Close": 9.375}, {"Date": "1991/2/8", "Close": 9.375}, {"Date": "1991/2/11", "Close": 9.6875}, {"Date": "1991/2/12", "Close": 9.5625}, {"Date": "1991/2/13", "Close": 9.8125}, {"Date": "1991/2/14", "Close": 9.8125}, {"Date": "1991/2/15", "Close": 9.9375}, {"Date": "1991/2/19", "Close": 10.0}, {"Date": "1991/2/20", "Close": 10.0}, {"Date": "1991/2/21", "Close": 10.0625}, {"Date": "1991/2/22", "Close": 10.25}, {"Date": "1991/2/25", "Close": 10.25}, {"Date": "1991/2/26", "Close": 10.1875}, {"Date": "1991/2/27", "Close": 10.375}, {"Date": "1991/2/28", "Close": 10.3125}, {"Date": "1991/3/1", "Close": 10.5625}, {"Date": "1991/3/4", "Close": 11.3125}, {"Date": "1991/3/5", "Close": 11.8125}, {"Date": "1991/3/6", "Close": 11.8125}, {"Date": "1991/3/7", "Close": 11.9375}, {"Date": "1991/3/8", "Close": 12.0625}, {"Date": "1991/3/11", "Close": 11.875}, {"Date": "1991/3/12", "Close": 11.4375}, {"Date": "1991/3/13", "Close": 11.4375}, {"Date": "1991/3/14", "Close": 11.25}, {"Date": "1991/3/15", "Close": 11.25}, {"Date": "1991/3/18", "Close": 11.125}, {"Date": "1991/3/19", "Close": 10.9375}, {"Date": "1991/3/20", "Close": 10.9375}, {"Date": "1991/3/21", "Close": 10.9375}, {"Date": "1991/3/22", "Close": 11.0625}, {"Date": "1991/3/25", "Close": 10.25}, {"Date": "1991/3/26", "Close": 10.375}, {"Date": "1991/3/27", "Close": 11.4375}, {"Date": "1991/3/28", "Close": 11.8125}, {"Date": "1991/4/1", "Close": 11.6875}, {"Date": "1991/4/2", "Close": 12.0625}, {"Date": "1991/4/3", "Close": 11.875}, {"Date": "1991/4/4", "Close": 11.6875}, {"Date": "1991/4/5", "Close": 11.5625}, {"Date": "1991/4/8", "Close": 11.625}, {"Date": "1991/4/9", "Close": 11.1875}, {"Date": "1991/4/10", "Close": 11.1875}, {"Date": "1991/4/11", "Close": 11.25}, {"Date": "1991/4/12", "Close": 11.4375}, {"Date": "1991/4/15", "Close": 11.5625}, {"Date": "1991/4/16", "Close": 11.375}, {"Date": "1991/4/17", "Close": 11.3125}, {"Date": "1991/4/18", "Close": 11.25}, {"Date": "1991/4/19", "Close": 11.3125}, {"Date": "1991/4/22", "Close": 10.875}, {"Date": "1991/4/23", "Close": 10.5}, {"Date": "1991/4/24", "Close": 10.75}, {"Date": "1991/4/25", "Close": 10.5625}, {"Date": "1991/4/26", "Close": 11.0}, {"Date": "1991/4/29", "Close": 10.8125}, {"Date": "1991/4/30", "Close": 10.625}, {"Date": "1991/5/1", "Close": 10.9375}, {"Date": "1991/5/2", "Close": 10.75}, {"Date": "1991/5/3", "Close": 10.9375}, {"Date": "1991/5/6", "Close": 11.3125}, {"Date": "1991/5/7", "Close": 11.0}, {"Date": "1991/5/8", "Close": 11.3125}, {"Date": "1991/5/9", "Close": 11.4375}, {"Date": "1991/5/10", "Close": 11.4375}, {"Date": "1991/5/13", "Close": 11.5625}, {"Date": "1991/5/14", "Close": 11.3125}, {"Date": "1991/5/15", "Close": 11.25}, {"Date": "1991/5/16", "Close": 11.4375}, {"Date": "1991/5/17", "Close": 11.4375}, {"Date": "1991/5/20", "Close": 11.875}, {"Date": "1991/5/21", "Close": 12.25}, {"Date": "1991/5/22", "Close": 12.3125}, {"Date": "1991/5/23", "Close": 12.1875}, {"Date": "1991/5/24", "Close": 12.375}, {"Date": "1991/5/28", "Close": 12.8125}, {"Date": "1991/5/29", "Close": 13.0}, {"Date": "1991/5/30", "Close": 13.0}, {"Date": "1991/5/31", "Close": 13.125}, {"Date": "1991/6/3", "Close": 13.5}, {"Date": "1991/6/4", "Close": 15.0625}, {"Date": "1991/6/5", "Close": 15.6875}, {"Date": "1991/6/6", "Close": 16.0625}, {"Date": "1991/6/7", "Close": 16.625}, {"Date": "1991/6/10", "Close": 16.625}, {"Date": "1991/6/11", "Close": 16.0625}, {"Date": "1991/6/12", "Close": 16.625}, {"Date": "1991/6/13", "Close": 16.5625}, {"Date": "1991/6/14", "Close": 16.75}, {"Date": "1991/6/17", "Close": 17.4375}, {"Date": "1991/6/18", "Close": 17.0}, {"Date": "1991/6/19", "Close": 17.0625}, {"Date": "1991/6/20", "Close": 17.125}, {"Date": "1991/6/21", "Close": 17.125}, {"Date": "1991/6/24", "Close": 16.9375}, {"Date": "1991/6/25", "Close": 16.75}, {"Date": "1991/6/26", "Close": 16.5625}, {"Date": "1991/6/27", "Close": 16.6875}, {"Date": "1991/6/28", "Close": 16.625}, {"Date": "1991/7/1", "Close": 16.875}, {"Date": "1991/7/2", "Close": 16.625}, {"Date": "1991/7/3", "Close": 16.75}, {"Date": "1991/7/5", "Close": 16.8125}, {"Date": "1991/7/8", "Close": 17.1875}, {"Date": "1991/7/9", "Close": 17.1875}, {"Date": "1991/7/10", "Close": 17.8125}, {"Date": "1991/7/11", "Close": 17.625}, {"Date": "1991/7/12", "Close": 18.0}, {"Date": "1991/7/15", "Close": 17.8125}, {"Date": "1991/7/16", "Close": 18.3125}, {"Date": "1991/7/17", "Close": 18.4375}, {"Date": "1991/7/18", "Close": 19.125}, {"Date": "1991/7/19", "Close": 19.4375}, {"Date": "1991/7/22", "Close": 19.125}, {"Date": "1991/7/23", "Close": 18.5}, {"Date": "1991/7/24", "Close": 18.1875}, {"Date": "1991/7/25", "Close": 19.0}, {"Date": "1991/7/26", "Close": 19.0625}, {"Date": "1991/7/29", "Close": 18.8125}, {"Date": "1991/7/30", "Close": 18.75}, {"Date": "1991/7/31", "Close": 19.0625}, {"Date": "1991/8/1", "Close": 18.875}, {"Date": "1991/8/2", "Close": 18.875}, {"Date": "1991/8/5", "Close": 18.625}, {"Date": "1991/8/6", "Close": 19.0}, {"Date": "1991/8/7", "Close": 19.125}, {"Date": "1991/8/8", "Close": 19.375}, {"Date": "1991/8/9", "Close": 19.375}, {"Date": "1991/8/12", "Close": 19.0}, {"Date": "1991/8/13", "Close": 18.3125}, {"Date": "1991/8/14", "Close": 18.5625}, {"Date": "1991/8/15", "Close": 18.3125}, {"Date": "1991/8/16", "Close": 17.875}, {"Date": "1991/8/19", "Close": 17.0625}, {"Date": "1991/8/20", "Close": 17.3125}, {"Date": "1991/8/21", "Close": 18.4375}, {"Date": "1991/8/22", "Close": 18.625}, {"Date": "1991/8/23", "Close": 18.9375}, {"Date": "1991/8/26", "Close": 19.0625}, {"Date": "1991/8/27", "Close": 18.9375}, {"Date": "1991/8/28", "Close": 19.375}, {"Date": "1991/8/29", "Close": 19.1875}, {"Date": "1991/8/30", "Close": 19.125}, {"Date": "1991/9/3", "Close": 19.25}, {"Date": "1991/9/4", "Close": 20.4375}, {"Date": "1991/9/5", "Close": 20.625}, {"Date": "1991/9/6", "Close": 21.0}, {"Date": "1991/9/9", "Close": 21.0625}, {"Date": "1991/9/10", "Close": 20.8125}, {"Date": "1991/9/11", "Close": 21.0}, {"Date": "1991/9/12", "Close": 21.1875}, {"Date": "1991/9/13", "Close": 20.8125}, {"Date": "1991/9/16", "Close": 21.0625}, {"Date": "1991/9/17", "Close": 21.125}, {"Date": "1991/9/18", "Close": 21.25}, {"Date": "1991/9/19", "Close": 21.5}, {"Date": "1991/9/20", "Close": 21.75}, {"Date": "1991/9/23", "Close": 21.375}, {"Date": "1991/9/24", "Close": 21.3125}, {"Date": "1991/9/25", "Close": 21.6875}, {"Date": "1991/9/26", "Close": 21.8125}, {"Date": "1991/9/27", "Close": 21.6875}, {"Date": "1991/9/30", "Close": 21.9375}, {"Date": "1991/10/1", "Close": 21.8125}, {"Date": "1991/10/2", "Close": 22.125}, {"Date": "1991/10/3", "Close": 21.75}, {"Date": "1991/10/4", "Close": 21.5625}, {"Date": "1991/10/7", "Close": 20.9375}, {"Date": "1991/10/8", "Close": 21.5625}, {"Date": "1991/10/9", "Close": 21.9375}, {"Date": "1991/10/10", "Close": 21.9375}, {"Date": "1991/10/11", "Close": 21.9375}, {"Date": "1991/10/14", "Close": 21.9375}, {"Date": "1991/10/15", "Close": 21.8125}, {"Date": "1991/10/16", "Close": 22.375}, {"Date": "1991/10/17", "Close": 22.3125}, {"Date": "1991/10/18", "Close": 22.1875}, {"Date": "1991/10/21", "Close": 22.4375}, {"Date": "1991/10/22", "Close": 22.875}, {"Date": "1991/10/23", "Close": 23.5}, {"Date": "1991/10/24", "Close": 23.25}, {"Date": "1991/10/25", "Close": 23.375}, {"Date": "1991/10/28", "Close": 24.4375}, {"Date": "1991/10/29", "Close": 24.5625}, {"Date": "1991/10/30", "Close": 24.8125}, {"Date": "1991/10/31", "Close": 25.0}, {"Date": "1991/11/1", "Close": 24.8125}, {"Date": "1991/11/4", "Close": 24.875}, {"Date": "1991/11/5", "Close": 25.875}, {"Date": "1991/11/6", "Close": 26.8125}, {"Date": "1991/11/7", "Close": 26.25}, {"Date": "1991/11/8", "Close": 26.25}, {"Date": "1991/11/11", "Close": 25.75}, {"Date": "1991/11/12", "Close": 25.25}, {"Date": "1991/11/13", "Close": 24.6875}, {"Date": "1991/11/14", "Close": 24.6875}, {"Date": "1991/11/15", "Close": 24.125}, {"Date": "1991/11/18", "Close": 24.1875}, {"Date": "1991/11/19", "Close": 23.5}, {"Date": "1991/11/20", "Close": 24.125}, {"Date": "1991/11/21", "Close": 24.4375}, {"Date": "1991/11/22", "Close": 24.875}, {"Date": "1991/11/25", "Close": 24.5}, {"Date": "1991/11/26", "Close": 24.375}, {"Date": "1991/11/27", "Close": 24.25}, {"Date": "1991/11/29", "Close": 23.9375}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'time': 2021, 'Installed wind + PV capacity (GW)': 615, 'energy consumption percentage': '13.80%'}, {'time': 2022, 'Installed wind + PV capacity (GW)': 695, 'energy consumption percentage': '15.10%'}, {'time': 2023, 'Installed wind + PV capacity (GW)': 775, 'energy consumption percentage': '16.60%'}, {'time': 2024, 'Installed wind + PV capacity (GW)': 855, 'energy consumption percentage': '18.30%'}, {'time': 2025, 'Installed wind + PV capacity (GW)': 935, 'energy consumption percentage': '20.00%'}, {'time': 2030, 'Installed wind + PV capacity (GW)': 1200, 'energy consumption percentage': '25.00%'}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Investment by British investors accounted for 18 percent of new foreign direct investment expenditures. The Netherlands ($43.1 billion) was the second-largest investing country, followed by France ($35.3 billion).</t>
-  </si>
-  <si>
-    <t>[{'Position':'United Kingdom','Billions of dollars':'59.9'},{'Position':'Netherlands','Billions of dollars':'43.1'},{'Position':'France','Billions of dollars':'35.3'},{'Position':'Canada','Billions of dollars': '30'},{'Position':'Japan','Billions of dollars':'29.6'}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>single bar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{'Category':'Real GDP','Outdoor recreation':'18.9','U.S. economy':'5.9'},{'Category':'Real Gross Output','Outdoor recreation':'21.8','U.S. economy':'6.3'},{'Category':'Compensation','Outdoor recreation':'16.2','U.S. economy':'7.8'},{'Category':'Compensation','Outdoor recreation':'13.1','U.S. economy':'2.7'}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>In 2023, the sales proportion of NEVs that were subcompact and below declined to 30%, from 61% in 2017. During the same periods of comparison, the mix of compact and midsize-to-large NEVs increased to 70% from 39%, reflecting the upgrade trend in terms of vehicle size.</t>
-  </si>
-  <si>
-    <t>[{'Date': '1999/8/2', 'Close': 2.35}, {'Date': '1999/8/3', 'Close': 2.371875}, {'Date': '1999/8/4', 'Close': 2.210938}, {'Date': '1999/8/5', 'Close': 2.43125}, {'Date': '1999/8/6', 'Close': 2.239063}, {'Date': '1999/8/9', 'Close': 2.1375}, {'Date': '1999/8/10', 'Close': 2.275}, {'Date': '1999/8/11', 'Close': 2.273438}, {'Date': '1999/8/12', 'Close': 2.29375}, {'Date': '1999/8/13', 'Close': 2.435938}, {'Date': '1999/8/16', 'Close': 2.457813}, {'Date': '1999/8/17', 'Close': 2.73125}, {'Date': '1999/8/18', 'Close': 2.828125}, {'Date': '1999/8/19', 'Close': 2.653125}, {'Date': '1999/8/20', 'Close': 2.835938}, {'Date': '1999/8/23', 'Close': 2.959375}, {'Date': '1999/8/24', 'Close': 3.001563}, {'Date': '1999/8/25', 'Close': 3.321875}, {'Date': '1999/8/26', 'Close': 3.214063}, {'Date': '1999/8/27', 'Close': 3.2125}, {'Date': '1999/8/30', 'Close': 2.98125}, {'Date': '1999/8/31', 'Close': 3.109375}, {'Date': '1999/9/1', 'Close': 2.976563}, {'Date': '1999/9/2', 'Close': 3.003125}, {'Date': '1999/9/3', 'Close': 3.121875}, {'Date': '1999/9/7', 'Close': 3.146875}, {'Date': '1999/9/8', 'Close': 3.071875}, {'Date': '1999/9/9', 'Close': 3.18125}, {'Date': '1999/9/10', 'Close': 3.325}, {'Date': '1999/9/13', 'Close': 3.165625}, {'Date': '1999/9/14', 'Close': 3.3}, {'Date': '1999/9/15', 'Close': 3.278125}, {'Date': '1999/9/16', 'Close': 3.2625}, {'Date': '1999/9/17', 'Close': 3.190625}, {'Date': '1999/9/20', 'Close': 3.1375}, {'Date': '1999/9/21', 'Close': 3.1125}, {'Date': '1999/9/22', 'Close': 3.3}, {'Date': '1999/9/23', 'Close': 3.1125}, {'Date': '1999/9/24', 'Close': 3.25}, {'Date': '1999/9/27', 'Close': 3.128125}, {'Date': '1999/9/28', 'Close': 3.29375}, {'Date': '1999/9/29', 'Close': 4.0375}, {'Date': '1999/9/30', 'Close': 3.996875}, {'Date': '1999/10/1', 'Close': 3.8625}, {'Date': '1999/10/4', 'Close': 3.853125}, {'Date': '1999/10/5', 'Close': 3.921875}, {'Date': '1999/10/6', 'Close': 4.121875}, {'Date': '1999/10/7', 'Close': 4.365625}, {'Date': '1999/10/8', 'Close': 4.4625}, {'Date': '1999/10/11', 'Close': 4.41875}, {'Date': '1999/10/12', 'Close': 4.246875}, {'Date': '1999/10/13', 'Close': 3.996875}, {'Date': '1999/10/14', 'Close': 3.979688}, {'Date': '1999/10/15', 'Close': 3.753125}, {'Date': '1999/10/18', 'Close': 3.703125}, {'Date': '1999/10/19', 'Close': 3.83125}, {'Date': '1999/10/20', 'Close': 4.025}, {'Date': '1999/10/21', 'Close': 4.0375}, {'Date': '1999/10/22', 'Close': 3.93125}, {'Date': '1999/10/25', 'Close': 4.1375}, {'Date': '1999/10/26', 'Close': 4.0625}, {'Date': '1999/10/27', 'Close': 3.796875}, {'Date': '1999/10/28', 'Close': 3.55}, {'Date': '1999/10/29', 'Close': 3.53125}, {'Date': '1999/11/1', 'Close': 3.45625}, {'Date': '1999/11/2', 'Close': 3.321875}, {'Date': '1999/11/3', 'Close': 3.290625}, {'Date': '1999/11/4', 'Close': 3.153125}, {'Date': '1999/11/5', 'Close': 3.246875}, {'Date': '1999/11/8', 'Close': 3.9}, {'Date': '1999/11/9', 'Close': 3.540625}, {'Date': '1999/11/10', 'Close': 3.6}, {'Date': '1999/11/11', 'Close': 3.65}, {'Date': '1999/11/12', 'Close': 3.746875}, {'Date': '1999/11/15', 'Close': 3.675}, {'Date': '1999/11/16', 'Close': 3.946875}, {'Date': '1999/11/17', 'Close': 3.825}, {'Date': '1999/11/18', 'Close': 3.896875}, {'Date': '1999/11/19', 'Close': 3.896875}, {'Date': '1999/11/22', 'Close': 4.025}, {'Date': '1999/11/23', 'Close': 4.0875}, {'Date': '1999/11/24', 'Close': 4.3625}, {'Date': '1999/11/26', 'Close': 4.65625}, {'Date': '1999/11/29', 'Close': 4.521875}, {'Date': '1999/11/30', 'Close': 4.253125}, {'Date': '1999/12/1', 'Close': 4.25}, {'Date': '1999/12/2', 'Close': 4.453125}, {'Date': '1999/12/3', 'Close': 4.328125}, {'Date': '1999/12/6', 'Close': 4.3875}, {'Date': '1999/12/7', 'Close': 4.303125}, {'Date': '1999/12/8', 'Close': 4.428125}, {'Date': '1999/12/9', 'Close': 5.18125}, {'Date': '1999/12/10', 'Close': 5.334375}, {'Date': '1999/12/13', 'Close': 5.125}, {'Date': '1999/12/14', 'Close': 4.78125}, {'Date': '1999/12/15', 'Close': 4.825}, {'Date': '1999/12/16', 'Close': 4.74375}, {'Date': '1999/12/17', 'Close': 4.703125}, {'Date': '1999/12/20', 'Close': 4.85}, {'Date': '1999/12/21', 'Close': 4.99375}, {'Date': '1999/12/22', 'Close': 4.884375}, {'Date': '1999/12/23', 'Close': 4.5}, {'Date': '1999/12/27', 'Close': 4.05625}, {'Date': '1999/12/28', 'Close': 4.115625}, {'Date': '1999/12/29', 'Close': 4.175}, {'Date': '1999/12/30', 'Close': 3.953125}, {'Date': '1999/12/31', 'Close': 3.80625}, {'Date': '2000/1/3', 'Close': 4.46875}, {'Date': '2000/1/4', 'Close': 4.096875}, {'Date': '2000/1/5', 'Close': 3.4875}, {'Date': '2000/1/6', 'Close': 3.278125}, {'Date': '2000/1/7', 'Close': 3.478125}, {'Date': '2000/1/10', 'Close': 3.459375}, {'Date': '2000/1/11', 'Close': 3.3375}, {'Date': '2000/1/12', 'Close': 3.178125}, {'Date': '2000/1/13', 'Close': 3.296875}, {'Date': '2000/1/14', 'Close': 3.2125}, {'Date': '2000/1/18', 'Close': 3.20625}, {'Date': '2000/1/19', 'Close': 3.340625}, {'Date': '2000/1/20', 'Close': 3.2375}, {'Date': '2000/1/21', 'Close': 3.103125}, {'Date': '2000/1/24', 'Close': 3.50625}, {'Date': '2000/1/25', 'Close': 3.4625}, {'Date': '2000/1/26', 'Close': 3.240625}, {'Date': '2000/1/27', 'Close': 3.346875}, {'Date': '2000/1/28', 'Close': 3.084375}, {'Date': '2000/1/31', 'Close': 3.228125}, {'Date': '2000/2/1', 'Close': 3.371875}, {'Date': '2000/2/2', 'Close': 3.471875}, {'Date': '2000/2/3', 'Close': 4.209375}, {'Date': '2000/2/4', 'Close': 3.928125}, {'Date': '2000/2/7', 'Close': 3.75}, {'Date': '2000/2/8', 'Close': 4.15625}, {'Date': '2000/2/9', 'Close': 4.0125}, {'Date': '2000/2/10', 'Close': 3.809375}, {'Date': '2000/2/11', 'Close': 3.809375}, {'Date': '2000/2/14', 'Close': 3.721875}, {'Date': '2000/2/15', 'Close': 3.690625}, {'Date': '2000/2/16', 'Close': 3.534375}, {'Date': '2000/2/17', 'Close': 3.45}, {'Date': '2000/2/18', 'Close': 3.2375}, {'Date': '2000/2/22', 'Close': 3.178125}, {'Date': '2000/2/23', 'Close': 3.521875}, {'Date': '2000/2/24', 'Close': 3.421875}, {'Date': '2000/2/25', 'Close': 3.45625}, {'Date': '2000/2/28', 'Close': 3.2875}, {'Date': '2000/2/29', 'Close': 3.44375}, {'Date': '2000/3/1', 'Close': 3.29375}, {'Date': '2000/3/2', 'Close': 3.128125}, {'Date': '2000/3/3', 'Close': 3.125}, {'Date': '2000/3/6', 'Close': 3.196875}, {'Date': '2000/3/7', 'Close': 3.175}, {'Date': '2000/3/8', 'Close': 3.18125}, {'Date': '2000/3/9', 'Close': 3.440625}, {'Date': '2000/3/10', 'Close': 3.34375}, {'Date': '2000/3/13', 'Close': 3.265625}, {'Date': '2000/3/14', 'Close': 3.28125}, {'Date': '2000/3/15', 'Close': 3.1875}, {'Date': '2000/3/16', 'Close': 3.3125}, {'Date': '2000/3/17', 'Close': 3.240625}, {'Date': '2000/3/20', 'Close': 3.209375}, {'Date': '2000/3/21', 'Close': 3.61875}, {'Date': '2000/3/22', 'Close': 3.534375}, {'Date': '2000/3/23', 'Close': 3.384375}, {'Date': '2000/3/24', 'Close': 3.634375}, {'Date': '2000/3/27', 'Close': 3.65625}, {'Date': '2000/3/28', 'Close': 3.50625}, {'Date': '2000/3/29', 'Close': 3.3125}, {'Date': '2000/3/30', 'Close': 3.325}, {'Date': '2000/3/31', 'Close': 3.35}, {'Date': '2000/4/3', 'Close': 3.178125}, {'Date': '2000/4/4', 'Close': 3.196875}, {'Date': '2000/4/5', 'Close': 3.109375}, {'Date': '2000/4/6', 'Close': 3.2125}, {'Date': '2000/4/7', 'Close': 3.378125}, {'Date': '2000/4/10', 'Close': 3.16875}, {'Date': '2000/4/11', 'Close': 3.16875}, {'Date': '2000/4/12', 'Close': 2.81875}, {'Date': '2000/4/13', 'Close': 2.4}, {'Date': '2000/4/14', 'Close': 2.34375}, {'Date': '2000/4/17', 'Close': 2.353125}, {'Date': '2000/4/18', 'Close': 2.746875}, {'Date': '2000/4/19', 'Close': 2.671875}, {'Date': '2000/4/20', 'Close': 2.61875}, {'Date': '2000/4/24', 'Close': 2.490625}, {'Date': '2000/4/25', 'Close': 2.621875}, {'Date': '2000/4/26', 'Close': 2.675}, {'Date': '2000/4/27', 'Close': 2.64375}, {'Date': '2000/4/28', 'Close': 2.759375}, {'Date': '2000/5/1', 'Close': 2.996875}, {'Date': '2000/5/2', 'Close': 2.80625}, {'Date': '2000/5/3', 'Close': 2.70625}, {'Date': '2000/5/4', 'Close': 2.753125}, {'Date': '2000/5/5', 'Close': 2.925}, {'Date': '2000/5/8', 'Close': 2.800781}, {'Date': '2000/5/9', 'Close': 2.8125}, {'Date': '2000/5/10', 'Close': 2.665625}, {'Date': '2000/5/11', 'Close': 2.74375}, {'Date': '2000/5/12', 'Close': 2.6875}, {'Date': '2000/5/15', 'Close': 2.803125}, {'Date': '2000/5/16', 'Close': 2.953125}, {'Date': '2000/5/17', 'Close': 3.05}, {'Date': '2000/5/18', 'Close': 2.76875}, {'Date': '2000/5/19', 'Close': 2.63125}, {'Date': '2000/5/22', 'Close': 2.59375}, {'Date': '2000/5/23', 'Close': 2.334375}, {'Date': '2000/5/24', 'Close': 2.428125}, {'Date': '2000/5/25', 'Close': 2.275}, {'Date': '2000/5/26', 'Close': 2.325}, {'Date': '2000/5/30', 'Close': 2.5875}, {'Date': '2000/5/31', 'Close': 2.415625}]</t>
-  </si>
-  <si>
-    <t>pattern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multiple bar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>head and shoulder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>single line</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cup with handle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rouding bottom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double bottom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uptrend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">down trend </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double top</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>triple top</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The object in unit 1 is "Mini- and subcompact size". Its compact size goes from '0.61' in 2017 to '0.30' in 2023. The subject in unit 2 is the combination of  "Compact Size" and  "Midsize to large". Its sompact size goes from the combination from "0.35"+"0.04" in 2017 to "0.30+0.40" in 2023.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The corresponding value for object "Netherlands" is "43.1". The corresponding value for object "France" is "35.3".</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"Netherlands","BeginIndex":"1","EndIndex":"1","Trend":"None",Number:"43.1"},{"ObjectName":"France","BeginIndex":"2","EndIndex":"2","Trend":"None","Number":"35.3"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result 模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"ObjectName":"None","BeginIndex":"1","EndIndex":"1","Trend":"None","Number":"None"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"Real GDP for the outdoor recreation economy", "BeginIndex”:"0","EndIndex":"0","Trend":"increase","Number":"18.9"},{"ObjectName":"U.S. economy", "BeginIndex":"0","EndIndex":"0"，"Trend":"rebound","Number":"5.9"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflation-adjusted ("real") GDP for the outdoor recreation economy increased 18.9 percent in 2021, compared with a 5.9 percent increase for the overall U.S. economy, reflecting a rebound in outdoor recreation after the decrease of 21.6 percent in 2020. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The first object is "Inflation-adjusted ("real") GDP for the outdoor recreation economy" and its value is 18.9. The second object is "U.S. economy" and its value is 5.9.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>There exists a "head and shoulder" pattern on the Amazon stock moving averages from 1999/09/27 to 2000/02/22.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"ObjectName":"Close","BeginIndex":"39","EndIndex":"141","Trend":"Head and shoulder","Number":"None"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The "head and shoulder" pattern consists of three rises and falls from three localized highs. The high point in the center is higher than the other two. This pattern is around from '1999/09/27' to '2000/02/22' and the middle high point exist on '1999/12/09'.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"ObjectName":"Close","BeginIndex":"54","EndIndex":"100","Trend":"double bottom","Number":"None"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The "double bottom" pattern has two lows. The first low in the data is at 2016/01/20 , and the second low is at 2016/02/11.  This pattern is around from '2015/12/29' to '2016/03/07'.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The "double bottom" pattern happens on the 'Dow Janes Industrial (.DJI) from 2015/12/29 to 2016/03/07.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>From 2017/05/17 to 2018/01/26, the 'Dow Janes Industrial (.DJI)' is on an uptrend, which drew a much attention form analysts.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{'Date': '12-Oct-15', 'Close': 17131.86}, {'Date': '13-Oct-15', 'Close': 17081.89}, {'Date': '14-Oct-15', 'Close': 16924.75}, {'Date': '15-Oct-15', 'Close': 17141.75}, {'Date': '16-Oct-15', 'Close': 17215.97}, {'Date': '19-Oct-15', 'Close': 17230.54}, {'Date': '20-Oct-15', 'Close': 17217.11}, {'Date': '21-Oct-15', 'Close': 17168.61}, {'Date': '22-Oct-15', 'Close': 17489.16}, {'Date': '23-Oct-15', 'Close': 17646.7}, {'Date': '26-Oct-15', 'Close': 17623.05}, {'Date': '27-Oct-15', 'Close': 17581.43}, {'Date': '28-Oct-15', 'Close': 17779.52}, {'Date': '29-Oct-15', 'Close': 17755.8}, {'Date': '30-Oct-15', 'Close': 17663.54}, {'Date': '2-Nov-15', 'Close': 17828.76}, {'Date': '3-Nov-15', 'Close': 17918.15}, {'Date': '4-Nov-15', 'Close': 17867.58}, {'Date': '5-Nov-15', 'Close': 17863.43}, {'Date': '6-Nov-15', 'Close': 17910.33}, {'Date': '9-Nov-15', 'Close': 17730.48}, {'Date': '10-Nov-15', 'Close': 17758.21}, {'Date': '11-Nov-15', 'Close': 17702.22}, {'Date': '12-Nov-15', 'Close': 17448.07}, {'Date': '13-Nov-15', 'Close': 17245.24}, {'Date': '16-Nov-15', 'Close': 17483.01}, {'Date': '17-Nov-15', 'Close': 17489.5}, {'Date': '18-Nov-15', 'Close': 17737.16}, {'Date': '19-Nov-15', 'Close': 17732.75}, {'Date': '20-Nov-15', 'Close': 17823.81}, {'Date': '23-Nov-15', 'Close': 17792.68}, {'Date': '24-Nov-15', 'Close': 17812.19}, {'Date': '25-Nov-15', 'Close': 17813.39}, {'Date': '27-Nov-15', 'Close': 17813.39}, {'Date': '30-Nov-15', 'Close': 17719.92}, {'Date': '1-Dec-15', 'Close': 17888.35}, {'Date': '2-Dec-15', 'Close': 17729.68}, {'Date': '3-Dec-15', 'Close': 17477.67}, {'Date': '4-Dec-15', 'Close': 17847.63}, {'Date': '7-Dec-15', 'Close': 17730.51}, {'Date': '8-Dec-15', 'Close': 17568.0}, {'Date': '9-Dec-15', 'Close': 17492.3}, {'Date': '10-Dec-15', 'Close': 17574.75}, {'Date': '11-Dec-15', 'Close': 17265.21}, {'Date': '14-Dec-15', 'Close': 17368.5}, {'Date': '15-Dec-15', 'Close': 17524.91}, {'Date': '16-Dec-15', 'Close': 17749.09}, {'Date': '17-Dec-15', 'Close': 17495.84}, {'Date': '18-Dec-15', 'Close': 17128.55}, {'Date': '21-Dec-15', 'Close': 17251.62}, {'Date': '22-Dec-15', 'Close': 17417.27}, {'Date': '23-Dec-15', 'Close': 17602.61}, {'Date': '24-Dec-15', 'Close': 17552.17}, {'Date': '28-Dec-15', 'Close': 17528.27}, {'Date': '29-Dec-15', 'Close': 17720.98}, {'Date': '30-Dec-15', 'Close': 17603.87}, {'Date': '31-Dec-15', 'Close': 17425.03}, {'Date': '4-Jan-16', 'Close': 17148.94}, {'Date': '5-Jan-16', 'Close': 17158.66}, {'Date': '6-Jan-16', 'Close': 16906.51}, {'Date': '7-Jan-16', 'Close': 16514.1}, {'Date': '8-Jan-16', 'Close': 16346.45}, {'Date': '11-Jan-16', 'Close': 16398.57}, {'Date': '12-Jan-16', 'Close': 16516.22}, {'Date': '13-Jan-16', 'Close': 16151.41}, {'Date': '14-Jan-16', 'Close': 16379.05}, {'Date': '15-Jan-16', 'Close': 15988.08}, {'Date': '19-Jan-16', 'Close': 16016.02}, {'Date': '20-Jan-16', 'Close': 15766.74}, {'Date': '21-Jan-16', 'Close': 15882.68}, {'Date': '22-Jan-16', 'Close': 16093.51}, {'Date': '25-Jan-16', 'Close': 15885.22}, {'Date': '26-Jan-16', 'Close': 16167.23}, {'Date': '27-Jan-16', 'Close': 15944.46}, {'Date': '28-Jan-16', 'Close': 16069.64}, {'Date': '29-Jan-16', 'Close': 16466.3}, {'Date': '1-Feb-16', 'Close': 16449.18}, {'Date': '2-Feb-16', 'Close': 16153.54}, {'Date': '3-Feb-16', 'Close': 16336.66}, {'Date': '4-Feb-16', 'Close': 16416.58}, {'Date': '5-Feb-16', 'Close': 16204.97}, {'Date': '8-Feb-16', 'Close': 16027.05}, {'Date': '9-Feb-16', 'Close': 16014.38}, {'Date': '10-Feb-16', 'Close': 15914.74}, {'Date': '11-Feb-16', 'Close': 15660.18}, {'Date': '12-Feb-16', 'Close': 15973.84}, {'Date': '16-Feb-16', 'Close': 16196.41}, {'Date': '17-Feb-16', 'Close': 16453.83}, {'Date': '18-Feb-16', 'Close': 16413.43}, {'Date': '19-Feb-16', 'Close': 16391.99}, {'Date': '22-Feb-16', 'Close': 16620.66}, {'Date': '23-Feb-16', 'Close': 16431.78}, {'Date': '24-Feb-16', 'Close': 16484.99}, {'Date': '25-Feb-16', 'Close': 16697.29}, {'Date': '26-Feb-16', 'Close': 16639.97}, {'Date': '29-Feb-16', 'Close': 16516.5}, {'Date': '1-Mar-16', 'Close': 16865.08}, {'Date': '2-Mar-16', 'Close': 16899.32}, {'Date': '3-Mar-16', 'Close': 16943.9}, {'Date': '4-Mar-16', 'Close': 17006.77}, {'Date': '7-Mar-16', 'Close': 17073.95}, {'Date': '8-Mar-16', 'Close': 16964.1}, {'Date': '9-Mar-16', 'Close': 17000.36}, {'Date': '10-Mar-16', 'Close': 16995.13}, {'Date': '11-Mar-16', 'Close': 17213.31}, {'Date': '14-Mar-16', 'Close': 17229.13}, {'Date': '15-Mar-16', 'Close': 17251.53}, {'Date': '16-Mar-16', 'Close': 17325.76}, {'Date': '17-Mar-16', 'Close': 17481.49}, {'Date': '18-Mar-16', 'Close': 17602.3}, {'Date': '21-Mar-16', 'Close': 17623.87}, {'Date': '22-Mar-16', 'Close': 17582.57}, {'Date': '23-Mar-16', 'Close': 17502.59}, {'Date': '24-Mar-16', 'Close': 17515.73}, {'Date': '28-Mar-16', 'Close': 17535.39}, {'Date': '29-Mar-16', 'Close': 17633.11}, {'Date': '30-Mar-16', 'Close': 17716.66}, {'Date': '31-Mar-16', 'Close': 17685.09}, {'Date': '1-Apr-16', 'Close': 17792.75}, {'Date': '4-Apr-16', 'Close': 17737.0}, {'Date': '5-Apr-16', 'Close': 17603.32}, {'Date': '6-Apr-16', 'Close': 17716.05}, {'Date': '7-Apr-16', 'Close': 17541.96}, {'Date': '8-Apr-16', 'Close': 17576.96}, {'Date': '11-Apr-16', 'Close': 17556.41}, {'Date': '12-Apr-16', 'Close': 17721.25}, {'Date': '13-Apr-16', 'Close': 17908.28}, {'Date': '14-Apr-16', 'Close': 17926.43}, {'Date': '15-Apr-16', 'Close': 17897.46}, {'Date': '18-Apr-16', 'Close': 18004.16}, {'Date': '19-Apr-16', 'Close': 18053.6}, {'Date': '20-Apr-16', 'Close': 18096.27}, {'Date': '21-Apr-16', 'Close': 17982.52}, {'Date': '22-Apr-16', 'Close': 18003.75}, {'Date': '25-Apr-16', 'Close': 17977.24}, {'Date': '26-Apr-16', 'Close': 17990.32}, {'Date': '27-Apr-16', 'Close': 18041.55}, {'Date': '28-Apr-16', 'Close': 17830.76}, {'Date': '29-Apr-16', 'Close': 17773.64}, {'Date': '2-May-16', 'Close': 17891.16}, {'Date': '3-May-16', 'Close': 17750.91}, {'Date': '4-May-16', 'Close': 17651.26}, {'Date': '5-May-16', 'Close': 17660.71}, {'Date': '6-May-16', 'Close': 17740.63}, {'Date': '9-May-16', 'Close': 17705.91}, {'Date': '10-May-16', 'Close': 17928.35}, {'Date': '11-May-16', 'Close': 17711.12}, {'Date': '12-May-16', 'Close': 17720.5}, {'Date': '13-May-16', 'Close': 17535.32}, {'Date': '16-May-16', 'Close': 17710.71}, {'Date': '17-May-16', 'Close': 17529.98}, {'Date': '18-May-16', 'Close': 17526.62}, {'Date': '19-May-16', 'Close': 17435.4}, {'Date': '20-May-16', 'Close': 17500.94}, {'Date': '23-May-16', 'Close': 17492.93}, {'Date': '24-May-16', 'Close': 17706.05}, {'Date': '25-May-16', 'Close': 17851.51}, {'Date': '26-May-16', 'Close': 17828.29}, {'Date': '27-May-16', 'Close': 17873.22}, {'Date': '31-May-16', 'Close': 17787.2}, {'Date': '1-Jun-16', 'Close': 17789.67}, {'Date': '2-Jun-16', 'Close': 17838.56}, {'Date': '3-Jun-16', 'Close': 17807.06}, {'Date': '6-Jun-16', 'Close': 17920.33}, {'Date': '7-Jun-16', 'Close': 17938.28}, {'Date': '8-Jun-16', 'Close': 18005.05}, {'Date': '9-Jun-16', 'Close': 17985.19}, {'Date': '10-Jun-16', 'Close': 17865.34}, {'Date': '13-Jun-16', 'Close': 17732.48}, {'Date': '14-Jun-16', 'Close': 17674.82}, {'Date': '15-Jun-16', 'Close': 17640.17}, {'Date': '16-Jun-16', 'Close': 17733.1}, {'Date': '17-Jun-16', 'Close': 17675.16}, {'Date': '20-Jun-16', 'Close': 17804.87}, {'Date': '21-Jun-16', 'Close': 17829.73}, {'Date': '22-Jun-16', 'Close': 17780.83}, {'Date': '23-Jun-16', 'Close': 18011.07}, {'Date': '24-Jun-16', 'Close': 17400.75}, {'Date': '27-Jun-16', 'Close': 17140.24}, {'Date': '28-Jun-16', 'Close': 17409.72}, {'Date': '29-Jun-16', 'Close': 17694.68}, {'Date': '30-Jun-16', 'Close': 17929.99}, {'Date': '1-Jul-16', 'Close': 17949.37}, {'Date': '5-Jul-16', 'Close': 17840.62}, {'Date': '6-Jul-16', 'Close': 17918.62}, {'Date': '7-Jul-16', 'Close': 17895.88}, {'Date': '8-Jul-16', 'Close': 18146.74}, {'Date': '11-Jul-16', 'Close': 18226.93}, {'Date': '12-Jul-16', 'Close': 18347.67}, {'Date': '13-Jul-16', 'Close': 18372.12}, {'Date': '14-Jul-16', 'Close': 18506.41}, {'Date': '15-Jul-16', 'Close': 18516.55}, {'Date': '18-Jul-16', 'Close': 18533.05}, {'Date': '19-Jul-16', 'Close': 18559.01}, {'Date': '20-Jul-16', 'Close': 18595.03}, {'Date': '21-Jul-16', 'Close': 18517.23}, {'Date': '22-Jul-16', 'Close': 18570.85}, {'Date': '25-Jul-16', 'Close': 18493.06}, {'Date': '26-Jul-16', 'Close': 18473.75}, {'Date': '27-Jul-16', 'Close': 18472.17}, {'Date': '28-Jul-16', 'Close': 18456.35}, {'Date': '29-Jul-16', 'Close': 18432.24}, {'Date': '1-Aug-16', 'Close': 18404.51}, {'Date': '2-Aug-16', 'Close': 18313.77}, {'Date': '3-Aug-16', 'Close': 18355.0}, {'Date': '4-Aug-16', 'Close': 18352.05}, {'Date': '5-Aug-16', 'Close': 18543.53}, {'Date': '8-Aug-16', 'Close': 18529.29}, {'Date': '9-Aug-16', 'Close': 18533.05}, {'Date': '10-Aug-16', 'Close': 18495.66}, {'Date': '11-Aug-16', 'Close': 18613.52}, {'Date': '12-Aug-16', 'Close': 18576.47}, {'Date': '15-Aug-16', 'Close': 18636.05}, {'Date': '16-Aug-16', 'Close': 18552.02}, {'Date': '17-Aug-16', 'Close': 18573.94}, {'Date': '18-Aug-16', 'Close': 18597.7}, {'Date': '19-Aug-16', 'Close': 18552.57}, {'Date': '22-Aug-16', 'Close': 18529.42}, {'Date': '23-Aug-16', 'Close': 18547.3}, {'Date': '24-Aug-16', 'Close': 18481.48}, {'Date': '25-Aug-16', 'Close': 18448.41}, {'Date': '26-Aug-16', 'Close': 18395.4}, {'Date': '29-Aug-16', 'Close': 18502.99}, {'Date': '30-Aug-16', 'Close': 18454.3}, {'Date': '31-Aug-16', 'Close': 18400.88}, {'Date': '1-Sep-16', 'Close': 18419.3}, {'Date': '2-Sep-16', 'Close': 18491.96}, {'Date': '6-Sep-16', 'Close': 18538.12}, {'Date': '7-Sep-16', 'Close': 18526.14}, {'Date': '8-Sep-16', 'Close': 18479.91}, {'Date': '9-Sep-16', 'Close': 18085.45}, {'Date': '12-Sep-16', 'Close': 18325.07}, {'Date': '13-Sep-16', 'Close': 18066.75}, {'Date': '14-Sep-16', 'Close': 18034.77}, {'Date': '15-Sep-16', 'Close': 18212.48}, {'Date': '16-Sep-16', 'Close': 18123.8}, {'Date': '19-Sep-16', 'Close': 18120.17}, {'Date': '20-Sep-16', 'Close': 18129.96}, {'Date': '21-Sep-16', 'Close': 18293.7}, {'Date': '22-Sep-16', 'Close': 18392.46}, {'Date': '23-Sep-16', 'Close': 18261.45}, {'Date': '26-Sep-16', 'Close': 18094.83}, {'Date': '27-Sep-16', 'Close': 18228.3}, {'Date': '28-Sep-16', 'Close': 18339.24}, {'Date': '29-Sep-16', 'Close': 18143.45}, {'Date': '30-Sep-16', 'Close': 18308.15}, {'Date': '3-Oct-16', 'Close': 18253.85}, {'Date': '4-Oct-16', 'Close': 18168.45}, {'Date': '5-Oct-16', 'Close': 18281.03}, {'Date': '6-Oct-16', 'Close': 18268.5}, {'Date': '7-Oct-16', 'Close': 18240.49}, {'Date': '10-Oct-16', 'Close': 18329.04}, {'Date': '11-Oct-16', 'Close': 18128.66}, {'Date': '12-Oct-16', 'Close': 18144.2}, {'Date': '13-Oct-16', 'Close': 18098.94}, {'Date': '14-Oct-16', 'Close': 18138.38}, {'Date': '17-Oct-16', 'Close': 18086.4}, {'Date': '18-Oct-16', 'Close': 18161.94}, {'Date': '19-Oct-16', 'Close': 18202.62}, {'Date': '20-Oct-16', 'Close': 18162.35}, {'Date': '21-Oct-16', 'Close': 18145.71}, {'Date': '24-Oct-16', 'Close': 18223.03}, {'Date': '25-Oct-16', 'Close': 18169.27}, {'Date': '26-Oct-16', 'Close': 18199.33}, {'Date': '27-Oct-16', 'Close': 18169.68}, {'Date': '28-Oct-16', 'Close': 18161.19}, {'Date': '31-Oct-16', 'Close': 18142.42}, {'Date': '1-Nov-16', 'Close': 18037.1}, {'Date': '2-Nov-16', 'Close': 17959.64}, {'Date': '3-Nov-16', 'Close': 17930.67}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{'Date': '27-Jan-17', 'Close': '20,093.78'}, {'Date': '30-Jan-17', 'Close': '19,971.13'}, {'Date': '31-Jan-17', 'Close': '19,864.09'}, {'Date': '1-Feb-17', 'Close': '19,890.94'}, {'Date': '2-Feb-17', 'Close': '19,884.91'}, {'Date': '3-Feb-17', 'Close': '20,071.46'}, {'Date': '6-Feb-17', 'Close': '20,052.42'}, {'Date': '7-Feb-17', 'Close': '20,090.29'}, {'Date': '8-Feb-17', 'Close': '20,054.34'}, {'Date': '9-Feb-17', 'Close': '20,172.40'}, {'Date': '10-Feb-17', 'Close': '20,269.37'}, {'Date': '13-Feb-17', 'Close': '20,412.16'}, {'Date': '14-Feb-17', 'Close': '20,504.41'}, {'Date': '15-Feb-17', 'Close': '20,611.86'}, {'Date': '16-Feb-17', 'Close': '20,619.77'}, {'Date': '17-Feb-17', 'Close': '20,624.05'}, {'Date': '21-Feb-17', 'Close': '20,743.00'}, {'Date': '22-Feb-17', 'Close': '20,775.60'}, {'Date': '23-Feb-17', 'Close': '20,810.32'}, {'Date': '24-Feb-17', 'Close': '20,821.76'}, {'Date': '27-Feb-17', 'Close': '20,837.44'}, {'Date': '28-Feb-17', 'Close': '20,812.24'}, {'Date': '1-Mar-17', 'Close': '21,115.55'}, {'Date': '2-Mar-17', 'Close': '21,002.97'}, {'Date': '3-Mar-17', 'Close': '21,005.71'}, {'Date': '6-Mar-17', 'Close': '20,954.34'}, {'Date': '7-Mar-17', 'Close': '20,924.76'}, {'Date': '8-Mar-17', 'Close': '20,855.73'}, {'Date': '9-Mar-17', 'Close': '20,858.19'}, {'Date': '10-Mar-17', 'Close': '20,902.98'}, {'Date': '13-Mar-17', 'Close': '20,881.48'}, {'Date': '14-Mar-17', 'Close': '20,837.37'}, {'Date': '15-Mar-17', 'Close': '20,950.10'}, {'Date': '16-Mar-17', 'Close': '20,934.55'}, {'Date': '17-Mar-17', 'Close': '20,914.62'}, {'Date': '20-Mar-17', 'Close': '20,905.86'}, {'Date': '21-Mar-17', 'Close': '20,668.01'}, {'Date': '22-Mar-17', 'Close': '20,661.30'}, {'Date': '23-Mar-17', 'Close': '20,656.58'}, {'Date': '24-Mar-17', 'Close': '20,596.72'}, {'Date': '27-Mar-17', 'Close': '20,550.98'}, {'Date': '28-Mar-17', 'Close': '20,701.50'}, {'Date': '29-Mar-17', 'Close': '20,659.32'}, {'Date': '30-Mar-17', 'Close': '20,728.49'}, {'Date': '31-Mar-17', 'Close': '20,663.22'}, {'Date': '3-Apr-17', 'Close': '20,650.21'}, {'Date': '4-Apr-17', 'Close': '20,689.24'}, {'Date': '5-Apr-17', 'Close': '20,648.15'}, {'Date': '6-Apr-17', 'Close': '20,662.95'}, {'Date': '7-Apr-17', 'Close': '20,656.10'}, {'Date': '10-Apr-17', 'Close': '20,658.02'}, {'Date': '11-Apr-17', 'Close': '20,651.30'}, {'Date': '12-Apr-17', 'Close': '20,591.86'}, {'Date': '13-Apr-17', 'Close': '20,453.25'}, {'Date': '17-Apr-17', 'Close': '20,636.92'}, {'Date': '18-Apr-17', 'Close': '20,523.28'}, {'Date': '19-Apr-17', 'Close': '20,404.49'}, {'Date': '20-Apr-17', 'Close': '20,578.71'}, {'Date': '21-Apr-17', 'Close': '20,547.76'}, {'Date': '24-Apr-17', 'Close': '20,763.89'}, {'Date': '25-Apr-17', 'Close': '20,996.12'}, {'Date': '26-Apr-17', 'Close': '20,975.09'}, {'Date': '27-Apr-17', 'Close': '20,981.33'}, {'Date': '28-Apr-17', 'Close': '20,940.51'}, {'Date': '1-May-17', 'Close': '20,913.46'}, {'Date': '2-May-17', 'Close': '20,949.89'}, {'Date': '3-May-17', 'Close': '20,957.90'}, {'Date': '4-May-17', 'Close': '20,951.47'}, {'Date': '5-May-17', 'Close': '21,006.94'}, {'Date': '8-May-17', 'Close': '21,012.28'}, {'Date': '9-May-17', 'Close': '20,975.78'}, {'Date': '10-May-17', 'Close': '20,943.11'}, {'Date': '11-May-17', 'Close': '20,919.42'}, {'Date': '12-May-17', 'Close': '20,896.61'}, {'Date': '15-May-17', 'Close': '20,981.94'}, {'Date': '16-May-17', 'Close': '20,979.75'}, {'Date': '17-May-17', 'Close': '20,606.93'}, {'Date': '18-May-17', 'Close': '20,663.02'}, {'Date': '19-May-17', 'Close': '20,804.84'}, {'Date': '22-May-17', 'Close': '20,894.83'}, {'Date': '23-May-17', 'Close': '20,937.91'}, {'Date': '24-May-17', 'Close': '21,012.42'}, {'Date': '25-May-17', 'Close': '21,082.95'}, {'Date': '26-May-17', 'Close': '21,080.28'}, {'Date': '30-May-17', 'Close': '21,029.47'}, {'Date': '31-May-17', 'Close': '21,008.65'}, {'Date': '1-Jun-17', 'Close': '21,144.18'}, {'Date': '2-Jun-17', 'Close': '21,206.29'}, {'Date': '5-Jun-17', 'Close': '21,184.04'}, {'Date': '6-Jun-17', 'Close': '21,136.23'}, {'Date': '7-Jun-17', 'Close': '21,173.69'}, {'Date': '8-Jun-17', 'Close': '21,182.53'}, {'Date': '9-Jun-17', 'Close': '21,271.97'}, {'Date': '12-Jun-17', 'Close': '21,235.67'}, {'Date': '13-Jun-17', 'Close': '21,328.47'}, {'Date': '14-Jun-17', 'Close': '21,374.56'}, {'Date': '15-Jun-17', 'Close': '21,359.90'}, {'Date': '16-Jun-17', 'Close': '21,384.28'}, {'Date': '19-Jun-17', 'Close': '21,528.99'}, {'Date': '20-Jun-17', 'Close': '21,467.14'}, {'Date': '21-Jun-17', 'Close': '21,410.03'}, {'Date': '22-Jun-17', 'Close': '21,397.29'}, {'Date': '23-Jun-17', 'Close': '21,394.76'}, {'Date': '26-Jun-17', 'Close': '21,409.55'}, {'Date': '27-Jun-17', 'Close': '21,310.66'}, {'Date': '28-Jun-17', 'Close': '21,454.61'}, {'Date': '29-Jun-17', 'Close': '21,287.03'}, {'Date': '30-Jun-17', 'Close': '21,349.63'}, {'Date': '3-Jul-17', 'Close': '21,479.27'}, {'Date': '5-Jul-17', 'Close': '21,478.17'}, {'Date': '6-Jul-17', 'Close': '21,320.04'}, {'Date': '7-Jul-17', 'Close': '21,414.34'}, {'Date': '10-Jul-17', 'Close': '21,408.52'}, {'Date': '11-Jul-17', 'Close': '21,409.07'}, {'Date': '12-Jul-17', 'Close': '21,532.14'}, {'Date': '13-Jul-17', 'Close': '21,553.09'}, {'Date': '14-Jul-17', 'Close': '21,637.74'}, {'Date': '17-Jul-17', 'Close': '21,629.72'}, {'Date': '18-Jul-17', 'Close': '21,574.73'}, {'Date': '19-Jul-17', 'Close': '21,640.75'}, {'Date': '20-Jul-17', 'Close': '21,611.78'}, {'Date': '21-Jul-17', 'Close': '21,580.07'}, {'Date': '24-Jul-17', 'Close': '21,513.17'}, {'Date': '25-Jul-17', 'Close': '21,613.43'}, {'Date': '26-Jul-17', 'Close': '21,711.01'}, {'Date': '27-Jul-17', 'Close': '21,796.55'}, {'Date': '28-Jul-17', 'Close': '21,830.31'}, {'Date': '31-Jul-17', 'Close': '21,891.12'}, {'Date': '1-Aug-17', 'Close': '21,963.92'}, {'Date': '2-Aug-17', 'Close': '22,016.24'}, {'Date': '3-Aug-17', 'Close': '22,026.10'}, {'Date': '4-Aug-17', 'Close': '22,092.81'}, {'Date': '7-Aug-17', 'Close': '22,118.42'}, {'Date': '8-Aug-17', 'Close': '22,085.34'}, {'Date': '9-Aug-17', 'Close': '22,048.70'}, {'Date': '10-Aug-17', 'Close': '21,844.01'}, {'Date': '11-Aug-17', 'Close': '21,858.32'}, {'Date': '14-Aug-17', 'Close': '21,993.71'}, {'Date': '15-Aug-17', 'Close': '21,998.99'}, {'Date': '16-Aug-17', 'Close': '22,024.87'}, {'Date': '17-Aug-17', 'Close': '21,750.73'}, {'Date': '18-Aug-17', 'Close': '21,674.51'}, {'Date': '21-Aug-17', 'Close': '21,703.75'}, {'Date': '22-Aug-17', 'Close': '21,899.89'}, {'Date': '23-Aug-17', 'Close': '21,812.09'}, {'Date': '24-Aug-17', 'Close': '21,783.40'}, {'Date': '25-Aug-17', 'Close': '21,813.67'}, {'Date': '28-Aug-17', 'Close': '21,808.40'}, {'Date': '29-Aug-17', 'Close': '21,865.37'}, {'Date': '30-Aug-17', 'Close': '21,892.43'}, {'Date': '31-Aug-17', 'Close': '21,948.10'}, {'Date': '1-Sep-17', 'Close': '21,987.56'}, {'Date': '5-Sep-17', 'Close': '21,753.31'}, {'Date': '6-Sep-17', 'Close': '21,807.64'}, {'Date': '7-Sep-17', 'Close': '21,784.78'}, {'Date': '8-Sep-17', 'Close': '21,797.79'}, {'Date': '11-Sep-17', 'Close': '22,057.37'}, {'Date': '12-Sep-17', 'Close': '22,118.86'}, {'Date': '13-Sep-17', 'Close': '22,158.18'}, {'Date': '14-Sep-17', 'Close': '22,203.48'}, {'Date': '15-Sep-17', 'Close': '22,268.34'}, {'Date': '18-Sep-17', 'Close': '22,331.35'}, {'Date': '19-Sep-17', 'Close': '22,370.80'}, {'Date': '20-Sep-17', 'Close': '22,412.59'}, {'Date': '21-Sep-17', 'Close': '22,359.23'}, {'Date': '22-Sep-17', 'Close': '22,349.59'}, {'Date': '25-Sep-17', 'Close': '22,296.09'}, {'Date': '26-Sep-17', 'Close': '22,284.32'}, {'Date': '27-Sep-17', 'Close': '22,340.71'}, {'Date': '28-Sep-17', 'Close': '22,381.20'}, {'Date': '29-Sep-17', 'Close': '22,405.09'}, {'Date': '2-Oct-17', 'Close': '22,557.60'}, {'Date': '3-Oct-17', 'Close': '22,641.67'}, {'Date': '4-Oct-17', 'Close': '22,661.64'}, {'Date': '5-Oct-17', 'Close': '22,775.39'}, {'Date': '6-Oct-17', 'Close': '22,773.67'}, {'Date': '9-Oct-17', 'Close': '22,761.07'}, {'Date': '10-Oct-17', 'Close': '22,830.68'}, {'Date': '11-Oct-17', 'Close': '22,872.89'}, {'Date': '12-Oct-17', 'Close': '22,841.01'}, {'Date': '13-Oct-17', 'Close': '22,871.72'}, {'Date': '16-Oct-17', 'Close': '22,956.96'}, {'Date': '17-Oct-17', 'Close': '22,997.44'}, {'Date': '18-Oct-17', 'Close': '23,157.60'}, {'Date': '19-Oct-17', 'Close': '23,163.04'}, {'Date': '20-Oct-17', 'Close': '23,328.63'}, {'Date': '23-Oct-17', 'Close': '23,273.96'}, {'Date': '24-Oct-17', 'Close': '23,441.76'}, {'Date': '25-Oct-17', 'Close': '23,329.46'}, {'Date': '26-Oct-17', 'Close': '23,400.86'}, {'Date': '27-Oct-17', 'Close': '23,434.19'}, {'Date': '30-Oct-17', 'Close': '23,348.74'}, {'Date': '31-Oct-17', 'Close': '23,377.24'}, {'Date': '1-Nov-17', 'Close': '23,435.01'}, {'Date': '2-Nov-17', 'Close': '23,516.26'}, {'Date': '3-Nov-17', 'Close': '23,539.19'}, {'Date': '6-Nov-17', 'Close': '23,548.42'}, {'Date': '7-Nov-17', 'Close': '23,557.23'}, {'Date': '8-Nov-17', 'Close': '23,563.36'}, {'Date': '9-Nov-17', 'Close': '23,461.94'}, {'Date': '10-Nov-17', 'Close': '23,422.21'}, {'Date': '13-Nov-17', 'Close': '23,439.70'}, {'Date': '14-Nov-17', 'Close': '23,409.47'}, {'Date': '15-Nov-17', 'Close': '23,271.28'}, {'Date': '16-Nov-17', 'Close': '23,458.36'}, {'Date': '17-Nov-17', 'Close': '23,358.24'}, {'Date': '20-Nov-17', 'Close': '23,430.33'}, {'Date': '21-Nov-17', 'Close': '23,590.83'}, {'Date': '22-Nov-17', 'Close': '23,526.18'}, {'Date': '24-Nov-17', 'Close': '23,557.99'}, {'Date': '27-Nov-17', 'Close': '23,580.78'}, {'Date': '28-Nov-17', 'Close': '23,836.71'}, {'Date': '29-Nov-17', 'Close': '23,940.68'}, {'Date': '30-Nov-17', 'Close': '24,272.35'}, {'Date': '1-Dec-17', 'Close': '24,231.59'}, {'Date': '4-Dec-17', 'Close': '24,290.05'}, {'Date': '5-Dec-17', 'Close': '24,180.64'}, {'Date': '6-Dec-17', 'Close': '24,140.91'}, {'Date': '7-Dec-17', 'Close': '24,211.48'}, {'Date': '8-Dec-17', 'Close': '24,329.16'}, {'Date': '11-Dec-17', 'Close': '24,386.03'}, {'Date': '12-Dec-17', 'Close': '24,504.80'}, {'Date': '13-Dec-17', 'Close': '24,585.43'}, {'Date': '14-Dec-17', 'Close': '24,508.66'}, {'Date': '15-Dec-17', 'Close': '24,651.74'}, {'Date': '18-Dec-17', 'Close': '24,792.20'}, {'Date': '19-Dec-17', 'Close': '24,754.75'}, {'Date': '20-Dec-17', 'Close': '24,726.65'}, {'Date': '21-Dec-17', 'Close': '24,782.29'}, {'Date': '22-Dec-17', 'Close': '24,754.06'}, {'Date': '26-Dec-17', 'Close': '24,746.21'}, {'Date': '27-Dec-17', 'Close': '24,774.30'}, {'Date': '28-Dec-17', 'Close': '24,837.51'}, {'Date': '29-Dec-17', 'Close': '24,719.22'}, {'Date': '2-Jan-18', 'Close': '24,824.01'}, {'Date': '3-Jan-18', 'Close': '24,922.68'}, {'Date': '4-Jan-18', 'Close': '25,075.13'}, {'Date': '5-Jan-18', 'Close': '25,295.87'}, {'Date': '8-Jan-18', 'Close': '25,283.00'}, {'Date': '9-Jan-18', 'Close': '25,385.80'}, {'Date': '10-Jan-18', 'Close': '25,369.13'}, {'Date': '11-Jan-18', 'Close': '25,574.73'}, {'Date': '12-Jan-18', 'Close': '25,803.19'}, {'Date': '16-Jan-18', 'Close': '25,792.86'}, {'Date': '17-Jan-18', 'Close': '26,115.65'}, {'Date': '18-Jan-18', 'Close': '26,017.81'}, {'Date': '19-Jan-18', 'Close': '26,071.72'}, {'Date': '22-Jan-18', 'Close': '26,214.60'}, {'Date': '23-Jan-18', 'Close': '26,210.81'}, {'Date': '24-Jan-18', 'Close': '26,252.12'}, {'Date': '25-Jan-18', 'Close': '26,392.79'}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{'Date': '9-Jan-20', 'Close': '28,956.90'}, {'Date': '10-Jan-20', 'Close': '28,823.77'}, {'Date': '13-Jan-20', 'Close': '28,907.05'}, {'Date': '14-Jan-20', 'Close': '28,939.67'}, {'Date': '15-Jan-20', 'Close': '29,030.22'}, {'Date': '16-Jan-20', 'Close': '29,297.64'}, {'Date': '17-Jan-20', 'Close': '29,348.10'}, {'Date': '21-Jan-20', 'Close': '29,196.04'}, {'Date': '22-Jan-20', 'Close': '29,186.27'}, {'Date': '23-Jan-20', 'Close': '29,160.09'}, {'Date': '24-Jan-20', 'Close': '28,989.73'}, {'Date': '27-Jan-20', 'Close': '28,535.80'}, {'Date': '28-Jan-20', 'Close': '28,722.85'}, {'Date': '29-Jan-20', 'Close': '28,734.45'}, {'Date': '30-Jan-20', 'Close': '28,859.44'}, {'Date': '31-Jan-20', 'Close': '28,256.03'}, {'Date': '3-Feb-20', 'Close': '28,399.81'}, {'Date': '4-Feb-20', 'Close': '28,807.63'}, {'Date': '5-Feb-20', 'Close': '29,290.85'}, {'Date': '6-Feb-20', 'Close': '29,379.77'}, {'Date': '7-Feb-20', 'Close': '29,102.51'}, {'Date': '10-Feb-20', 'Close': '29,276.82'}, {'Date': '11-Feb-20', 'Close': '29,276.34'}, {'Date': '12-Feb-20', 'Close': '29,551.42'}, {'Date': '13-Feb-20', 'Close': '29,423.31'}, {'Date': '14-Feb-20', 'Close': '29,398.08'}, {'Date': '18-Feb-20', 'Close': '29,232.19'}, {'Date': '19-Feb-20', 'Close': '29,348.03'}, {'Date': '20-Feb-20', 'Close': '29,219.98'}, {'Date': '21-Feb-20', 'Close': '28,992.41'}, {'Date': '24-Feb-20', 'Close': '27,960.80'}, {'Date': '25-Feb-20', 'Close': '27,081.36'}, {'Date': '26-Feb-20', 'Close': '26,957.59'}, {'Date': '27-Feb-20', 'Close': '25,766.64'}, {'Date': '28-Feb-20', 'Close': '25,409.36'}, {'Date': '2-Mar-20', 'Close': '26,703.32'}, {'Date': '3-Mar-20', 'Close': '25,917.41'}, {'Date': '4-Mar-20', 'Close': '27,090.86'}, {'Date': '5-Mar-20', 'Close': '26,121.28'}, {'Date': '6-Mar-20', 'Close': '25,864.78'}, {'Date': '9-Mar-20', 'Close': '23,851.02'}, {'Date': '10-Mar-20', 'Close': '25,018.16'}, {'Date': '11-Mar-20', 'Close': '23,553.22'}, {'Date': '12-Mar-20', 'Close': '21,200.62'}, {'Date': '13-Mar-20', 'Close': '23,185.62'}, {'Date': '16-Mar-20', 'Close': '20,188.52'}, {'Date': '17-Mar-20', 'Close': '21,237.38'}, {'Date': '18-Mar-20', 'Close': '19,898.92'}, {'Date': '19-Mar-20', 'Close': '20,087.19'}, {'Date': '20-Mar-20', 'Close': '19,173.98'}, {'Date': '23-Mar-20', 'Close': '18,591.93'}, {'Date': '24-Mar-20', 'Close': '20,704.91'}, {'Date': '25-Mar-20', 'Close': '21,200.55'}, {'Date': '26-Mar-20', 'Close': '22,552.17'}, {'Date': '27-Mar-20', 'Close': '21,636.78'}, {'Date': '30-Mar-20', 'Close': '22,327.48'}, {'Date': '31-Mar-20', 'Close': '21,917.16'}, {'Date': '1-Apr-20', 'Close': '20,943.51'}, {'Date': '2-Apr-20', 'Close': '21,413.44'}, {'Date': '3-Apr-20', 'Close': '21,052.53'}, {'Date': '6-Apr-20', 'Close': '22,679.99'}, {'Date': '7-Apr-20', 'Close': '22,653.86'}, {'Date': '8-Apr-20', 'Close': '23,433.57'}, {'Date': '9-Apr-20', 'Close': '23,719.37'}, {'Date': '13-Apr-20', 'Close': '23,390.77'}, {'Date': '14-Apr-20', 'Close': '23,949.76'}, {'Date': '15-Apr-20', 'Close': '23,504.35'}, {'Date': '16-Apr-20', 'Close': '23,537.68'}, {'Date': '17-Apr-20', 'Close': '24,242.49'}, {'Date': '20-Apr-20', 'Close': '23,650.44'}, {'Date': '21-Apr-20', 'Close': '23,018.88'}, {'Date': '22-Apr-20', 'Close': '23,475.82'}, {'Date': '23-Apr-20', 'Close': '23,515.26'}, {'Date': '24-Apr-20', 'Close': '23,775.27'}, {'Date': '27-Apr-20', 'Close': '24,133.78'}, {'Date': '28-Apr-20', 'Close': '24,101.55'}, {'Date': '29-Apr-20', 'Close': '24,633.86'}, {'Date': '30-Apr-20', 'Close': '24,345.72'}, {'Date': '1-May-20', 'Close': '23,723.69'}, {'Date': '4-May-20', 'Close': '23,749.76'}, {'Date': '5-May-20', 'Close': '23,883.09'}, {'Date': '6-May-20', 'Close': '23,664.64'}, {'Date': '7-May-20', 'Close': '23,875.89'}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>From 2020/03/04 to 2020/03/23, the 'Dow Janes Industrial (.DJI) is on an downtrend.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"ObjectName":"Close","BeginIndex":"37","EndIndex":"50","Trend":"downtrend","Number":"None"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"ObjectName":"Close","BeginIndex":"76","EndIndex":"250","Trend":"uptrend","Number":"None"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The chart of Amazon.com Inc. (AMZN) shows a double top pattern that formed in the stock between September and October 2018. After the pattern appears, shares plunges another 31%.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"Close","BeginIndex":"42","EndIndex":"69","Trend":"double top","Number":"None"}, {"ObjectName":"Close","BeginIndex":"70","EndIndex":"102","Trend":"plunges","Number":"31%"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{'Date': '2018/6/27', 'Close': 83.025497}, {'Date': '2018/6/28', 'Close': 85.072502}, {'Date': '2018/6/29', 'Close': 84.989998}, {'Date': '2018/7/2', 'Close': 85.689003}, {'Date': '2018/7/3', 'Close': 84.697998}, {'Date': '2018/7/5', 'Close': 84.986504}, {'Date': '2018/7/6', 'Close': 85.531502}, {'Date': '2018/7/9', 'Close': 86.950996}, {'Date': '2018/7/10', 'Close': 87.153503}, {'Date': '2018/7/11', 'Close': 87.75}, {'Date': '2018/7/12', 'Close': 89.831001}, {'Date': '2018/7/13', 'Close': 90.651497}, {'Date': '2018/7/16', 'Close': 91.124496}, {'Date': '2018/7/17', 'Close': 92.196503}, {'Date': '2018/7/18', 'Close': 92.146004}, {'Date': '2018/7/19', 'Close': 90.648499}, {'Date': '2018/7/20', 'Close': 90.684998}, {'Date': '2018/7/23', 'Close': 90.099998}, {'Date': '2018/7/24', 'Close': 91.461998}, {'Date': '2018/7/25', 'Close': 93.180496}, {'Date': '2018/7/26', 'Close': 90.400002}, {'Date': '2018/7/27', 'Close': 90.863503}, {'Date': '2018/7/30', 'Close': 88.960999}, {'Date': '2018/7/31', 'Close': 88.872002}, {'Date': '2018/8/1', 'Close': 89.858498}, {'Date': '2018/8/2', 'Close': 91.716499}, {'Date': '2018/8/3', 'Close': 91.164497}, {'Date': '2018/8/6', 'Close': 92.387497}, {'Date': '2018/8/7', 'Close': 93.124001}, {'Date': '2018/8/8', 'Close': 94.325996}, {'Date': '2018/8/9', 'Close': 94.926003}, {'Date': '2018/8/10', 'Close': 94.315002}, {'Date': '2018/8/13', 'Close': 94.809998}, {'Date': '2018/8/14', 'Close': 95.982498}, {'Date': '2018/8/15', 'Close': 94.130997}, {'Date': '2018/8/16', 'Close': 94.325996}, {'Date': '2018/8/17', 'Close': 94.111}, {'Date': '2018/8/20', 'Close': 93.835503}, {'Date': '2018/8/21', 'Close': 94.170998}, {'Date': '2018/8/22', 'Close': 95.245003}, {'Date': '2018/8/23', 'Close': 95.144997}, {'Date': '2018/8/24', 'Close': 95.269501}, {'Date': '2018/8/27', 'Close': 96.384003}, {'Date': '2018/8/28', 'Close': 96.640999}, {'Date': '2018/8/29', 'Close': 99.904999}, {'Date': '2018/8/30', 'Close': 100.119003}, {'Date': '2018/8/31', 'Close': 100.635498}, {'Date': '2018/9/4', 'Close': 101.975502}, {'Date': '2018/9/5', 'Close': 101.740997}, {'Date': '2018/9/6', 'Close': 99.915497}, {'Date': '2018/9/7', 'Close': 98.6035}, {'Date': '2018/9/10', 'Close': 97.9505}, {'Date': '2018/9/11', 'Close': 97.357498}, {'Date': '2018/9/12', 'Close': 96.93}, {'Date': '2018/9/13', 'Close': 96.7935}, {'Date': '2018/9/14', 'Close': 96.809499}, {'Date': '2018/9/17', 'Close': 96.901497}, {'Date': '2018/9/18', 'Close': 97.052498}, {'Date': '2018/9/19', 'Close': 96.320999}, {'Date': '2018/9/20', 'Close': 97.214996}, {'Date': '2018/9/21', 'Close': 95.750504}, {'Date': '2018/9/24', 'Close': 96.718002}, {'Date': '2018/9/25', 'Close': 98.727501}, {'Date': '2018/9/26', 'Close': 98.7425}, {'Date': '2018/9/27', 'Close': 100.649002}, {'Date': '2018/9/28', 'Close': 100.150002}, {'Date': '2018/10/1', 'Close': 100.218002}, {'Date': '2018/10/2', 'Close': 98.565498}, {'Date': '2018/10/3', 'Close': 97.638}, {'Date': '2018/10/4', 'Close': 95.471001}, {'Date': '2018/10/5', 'Close': 94.482498}, {'Date': '2018/10/8', 'Close': 93.221001}, {'Date': '2018/10/9', 'Close': 93.515999}, {'Date': '2018/10/10', 'Close': 87.762497}, {'Date': '2018/10/11', 'Close': 85.968002}, {'Date': '2018/10/12', 'Close': 89.430496}, {'Date': '2018/10/15', 'Close': 88.047501}, {'Date': '2018/10/16', 'Close': 90.998001}, {'Date': '2018/10/17', 'Close': 91.586502}, {'Date': '2018/10/18', 'Close': 88.536003}, {'Date': '2018/10/19', 'Close': 88.2015}, {'Date': '2018/10/22', 'Close': 89.464996}, {'Date': '2018/10/23', 'Close': 88.434998}, {'Date': '2018/10/24', 'Close': 83.209999}, {'Date': '2018/10/25', 'Close': 89.108498}, {'Date': '2018/10/26', 'Close': 82.140503}, {'Date': '2018/10/29', 'Close': 76.944}, {'Date': '2018/10/30', 'Close': 76.521004}, {'Date': '2018/10/31', 'Close': 79.900497}, {'Date': '2018/11/1', 'Close': 83.276497}, {'Date': '2018/11/2', 'Close': 83.276497}, {'Date': '2018/11/5', 'Close': 81.389999}, {'Date': '2018/11/6', 'Close': 82.140503}, {'Date': '2018/11/7', 'Close': 87.774498}, {'Date': '2018/11/8', 'Close': 87.745499}, {'Date': '2018/11/9', 'Close': 85.621498}, {'Date': '2018/11/12', 'Close': 81.842499}, {'Date': '2018/11/13', 'Close': 81.558502}, {'Date': '2018/11/14', 'Close': 79.9505}, {'Date': '2018/11/15', 'Close': 80.972}, {'Date': '2018/11/16', 'Close': 79.670502}, {'Date': '2018/11/19', 'Close': 75.614502}, {'Date': '2018/11/20', 'Close': 74.773003}]</t>
-  </si>
-  <si>
-    <t>{"ObjectName":"Price","BeginIndex":"22","EndIndex":"56","Trend":"triple top","Number":"None"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The "triple top" pattern happens from 2010/04/01 to 2010/05/05. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{'time': '2010/3/10', 'price': 96.4}, {'time': '2010/3/11', 'price': 98.8}, {'time': '2010/3/12', 'price': 101.23}, {'time': '2010/3/13', 'price': 98.6}, {'time': '2010/3/14', 'price': 96.5}, {'time': '2010/3/15', 'price': 94.3}, {'time': '2010/3/16', 'price': 98.023}, {'time': '2010/3/17', 'price': 97.25}, {'time': '2010/3/18', 'price': 98.089}, {'time': '2010/3/19', 'price': 98.144}, {'time': '2010/3/20', 'price': 98.899}, {'time': '2010/3/21', 'price': 100.001}, {'time': '2010/3/22', 'price': 102.2}, {'time': '2010/3/23', 'price': 103.7}, {'time': '2010/3/24', 'price': 102.46}, {'time': '2010/3/25', 'price': 99.46}, {'time': '2010/3/26', 'price': 97.01}, {'time': '2010/3/27', 'price': 99.14}, {'time': '2010/3/28', 'price': 100.74}, {'time': '2010/3/29', 'price': 104.58}, {'time': '2010/3/30', 'price': 105.31}, {'time': '2010/3/31', 'price': 107.07}, {'time': '2010/4/1', 'price': 110.13}, {'time': '2010/4/2', 'price': 111.26}, {'time': '2010/4/3', 'price': 113.0}, {'time': '2010/4/4', 'price': 115.8}, {'time': '2010/4/5', 'price': 116.6}, {'time': '2010/4/6', 'price': 117.0}, {'time': '2010/4/7', 'price': 116.7}, {'time': '2010/4/8', 'price': 116.5}, {'time': '2010/4/9', 'price': 116.6}, {'time': '2010/4/10', 'price': 116.7}, {'time': '2010/4/11', 'price': 116.0}, {'time': '2010/4/12', 'price': 115.0}, {'time': '2010/4/13', 'price': 112.9}, {'time': '2010/4/14', 'price': 112.7}, {'time': '2010/4/15', 'price': 113.0}, {'time': '2010/4/16', 'price': 113.2}, {'time': '2010/4/17', 'price': 114.6}, {'time': '2010/4/18', 'price': 115.5}, {'time': '2010/4/19', 'price': 117.8}, {'time': '2010/4/20', 'price': 117.6}, {'time': '2010/4/21', 'price': 116.2}, {'time': '2010/4/22', 'price': 115.2}, {'time': '2010/4/23', 'price': 114.4}, {'time': '2010/4/24', 'price': 113.0}, {'time': '2010/4/25', 'price': 112.8}, {'time': '2010/4/26', 'price': 113.8}, {'time': '2010/4/27', 'price': 116.0}, {'time': '2010/4/28', 'price': 115.5}, {'time': '2010/4/29', 'price': 114.9}, {'time': '2010/4/30', 'price': 114.7}, {'time': '2010/5/1', 'price': 112.2}, {'time': '2010/5/2', 'price': 111.4}, {'time': '2010/5/3', 'price': 110.8}, {'time': '2010/5/4', 'price': 110.9}, {'time': '2010/5/5', 'price': 109.9}, {'time': '2010/5/6', 'price': 106.8}, {'time': '2010/5/7', 'price': 105.5}, {'time': '2010/5/8', 'price': 104.6}, {'time': '2010/5/9', 'price': 106.5}, {'time': '2010/5/10', 'price': 110.5}, {'time': '2010/5/11', 'price': 111.0}, {'time': '2010/5/12', 'price': 110.6}, {'time': '2010/5/13', 'price': 110.2}, {'time': '2010/5/14', 'price': 104.9}, {'time': '2010/5/15', 'price': 105.8}, {'time': '2010/5/16', 'price': 106.6}, {'time': '2010/5/17', 'price': 106.0}, {'time': '2010/5/18', 'price': 105.6}, {'time': '2010/5/19', 'price': 106.0}, {'time': '2010/5/20', 'price': 105.0}, {'time': '2010/5/21', 'price': 106.6}, {'time': '2010/5/22', 'price': 106.9}, {'time': '2010/5/23', 'price': 107.7}, {'time': '2010/5/24', 'price': 110.3}, {'time': '2010/5/25', 'price': 111.5}, {'time': '2010/5/26', 'price': 110.4}, {'time': '2010/5/27', 'price': 107.0}, {'time': '2010/5/28', 'price': 105.5}, {'time': '2010/5/29', 'price': 103.0}]</t>
-  </si>
-  <si>
-    <t>There happens a 'cup and handle' pattern in Amazon stock from 1999/07/15 to 1999/09/29.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"ObjectName":"Close","BeginIndex":"51","EndIndex":"104","Trend":"cup and handle","Number":"None"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The stock of Goodyear Tire &amp; Rubber company (GT) suffers a year-long 'rouding bottom' pattern from 1990.6.11 to 1991.6.3.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"ObjectName":"Close","BeginIndex":"70","EndIndex":"317","Trend":"rouding bottom","Number":"None"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The China Lithium Industry Development Index white paper predicts a rising trend for installed wind and PV capacity (GW). It is expected to reach 1,200 GW and reach a 25% energy percentage.</t>
-  </si>
-  <si>
-    <t>[{"ObjectName":"installed wind and PV capacity (GW)","BeginIndex":"0","EndIndex":"5","Trend":"rising","Number":"None"},{"ObjectName":"installed wind and PV capacity (GW)","BeginIndex":"5","EndIndex":"5","Trend":"None","Number":"1200"},{"ObjectName":"energy percentage","BeginIndex":"5","EndIndex":"5","Trend":"None","Number":"25%"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{'Time':'2017/1/1','Mini- and subcompact size':'0.61','Compact size':'0.35', 'Midsize to large':'0.04'},{'Time':'2018/1/1','Mini- and subcompact size':'0.49','Compact size':'0.41', 'Midsize to large':'0.10'},{'Time':'2019/1/1','Mini- and subcompact size':'0.33','Compact size':'0.54', 'Midsize to large':'0.13'},{'Time':'2020/1/1','Mini- and subcompact size':'0.35','Compact size':'0.33', 'Midsize to large':'0.32'},{'Time':'2021/1/1','Mini- and subcompact size':'0.37','Compact size':'0.28', 'Midsize to large':'0.35'},{'Time':'2022/1/1','Mini- and subcompact size':'0.37','Compact size':'0.31', 'Midsize to large':'0.32'},{'Time':'2023/1/1','Mini- and subcompact size':'0.30','Compact size':'0.30', 'Midsize to large':'0.40'}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"Mini- and subcompact size","BeginIndex":"6","EndIndex":"6","Trend":"Declined","Number":"0.30"},{"ObjectName":"Mini- and subcompact size","BeginIndex":"0","EndIndex":"0","Trend":"None","Number":"0.61"}，{"ObjectName":"Compact Size" + "Midsize to large","BeginIndex":"6","EndIndex":"6","Trend":"upgrade trend","Number":"0.30" + "0.40"},{"ObjectName":"Compact Size" + "Midsize to large","BeginIndex":"0","EndIndex":"0","Trend":"None","Number":"0.35" + "0.04"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{'Date': '1999/5/3', 'Adj Close': 3.773438}, {'Date': '1999/5/4', 'Adj Close': 3.575}, {'Date': '1999/5/5', 'Adj Close': 3.6625}, {'Date': '1999/5/6', 'Adj Close': 3.434375}, {'Date': '1999/5/7', 'Adj Close': 3.409375}, {'Date': '1999/5/10', 'Adj Close': 3.671875}, {'Date': '1999/5/11', 'Adj Close': 3.709375}, {'Date': '1999/5/12', 'Adj Close': 3.573438}, {'Date': '1999/5/13', 'Adj Close': 3.4}, {'Date': '1999/5/14', 'Adj Close': 3.309375}, {'Date': '1999/5/17', 'Adj Close': 3.440625}, {'Date': '1999/5/18', 'Adj Close': 3.315625}, {'Date': '1999/5/19', 'Adj Close': 3.489063}, {'Date': '1999/5/20', 'Adj Close': 3.270313}, {'Date': '1999/5/21', 'Adj Close': 3.214063}, {'Date': '1999/5/24', 'Adj C 3.25}, {'Date': '1999/9/27', 'Adj Close': 3.128125}, {'Date': '1999/9/28', 'Adj Close': 3.29375}, {'Date': '1999/9/29', 'Adj Close': 4.0375}, {'Date': '1999/9/30', 'Adj Close': 3.996875}, {'Date': '1999/10/1', 'Adj Close': 3.8625}, {'Date': '1999/10/4', 'Adj Close': 3.853125}, {'Date': '1999/10/5', 'Adj Close': 3.921875}, {'Date': '1999/10/6', 'Adj Close': 4.121875}, {'Date': '1999/10/7', 'Adj Close': 4.365625}, {'Date': '1999/10/8', 'Adj Close': 4.4625}, {'Date': '1999/10/11', 'Adj Close': 4.41875}, {'Date': '1999/10/12', 'Adj Close': 4.246875}, {'Date': '1999/10/13', 'Adj Close': 3.996875}, {'Date': '1999/10/14', 'Adj Close': 3.979688}, {'Date': '1999/10/15', 'Adj Close': 3.753125}, {'Date': '1999/10/18', 'Adj Close': 3.703125}, {'Date': '1999/10/19', 'Adj Close': 3.83125}, {'Date': '1999/10/20', 'Adj Close': 4.025}, {'Date': '1999/10/21', 'Adj Close': 4.0375}, {'Date': '1999/10/22', 'Adj Close': 3.93125}, {'Date': '1999/10/25', 'Adj Close': 4.1375}, {'Date': '1999/10/26', 'Adj Close': 4.0625}, {'Date': '1999/10/27', 'Adj Close': 3.796875}, {'Date': '1999/10/28', 'Adj Close': 3.55}, {'Date': '1999/10/29', 'Adj Close': 3.53125}, {'Date': '1999/11/1', 'Adj Close': 3.45625}, {'Date': '1999/11/2', 'Adj Close': 3.321875}, {'Date': '1999/11/3', 'Adj Close': 3.290625}, {'Date': '1999/11/4', 'Adj Close': 3.153125}, {'Date': '1999/11/5', 'Adj Close': 3.246875}, {'Date': '1999/11/8', 'Adj Close': 3.9}, {'Date': '1999/11/9', 'Adj Close': 3.540625}, {'Date': '1999/11/10', 'Adj Close': 3.6}, {'Date': '1999/11/11', 'Adj Close': 3.65}, {'Date': '1999/11/12', 'Adj Close': 3.746875}, {'Date': '1999/11/15', 'Adj Close': 3.675}, {'Date': '1999/11/16', 'Adj Close': 3.946875}, {'Date': '1999/11/17', 'Adj Close': 3.825}, {'Date': '1999/11/18', 'Adj Close': 3.896875}, {'Date': '1999/11/19', 'Adj Close': 3.896875}, {'Date': '1999/11/22', 'Adj Close': 4.025}, {'Date': '1999/11/23', 'Adj Close': 4.0875}, {'Date': '1999/11/24', 'Adj Close': 4.3625}, {'Date': '1999/11/26', 'Adj Close': 4.65625}, {'Date': '1999/11/29', 'Adj Close': 4.521875}, {'Date': '1999/11/30', 'Adj Close': 4.253125}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"Date": "1990/3/1", "Close": 16.8125}, {"Date": "1990/3/2", "Close": 17.0}, {"Date": "1990/3/5", "Close": 17.4375}, {"Date": "1990/3/6", "Close": 17.75}, {"Date": "1990/3/7", "Close": 17.6875}, {"Date": "1990/3/8", "Close": 17.6875}, {"Date": "1990/3/9", "Close": 17.75}, {"Date": "1990/3/12", "Close": 18.1875}, {"Date": "1990/3/13", "Close": 18.9375}, {"Date": "1990/3/14", "Close": 18.9375}, {"Date": "1990/3/15", "Close": 18.5}, {"Date": "1990/3/16", "Close": 18.75}, {"Date": "1990/3/19", "Close": 18.5625}, {"Date": "1990/3/20", "Close": 18.5625}, {"Date": "1990/3/21", "Close": 19.125}, {"Date": "1990/3/22", "Close": 18.5}, {"Date": "1990/3/23", "Close": 18.75}, {"Date": "1990/3/26", "Close": 18.625}, {"Date": "1990/3/27", "Close": 18.625}, {"Date": "1990/3/28", "Close": 18.4375}, {"Date": "1990/3/29", "Close": 18.125}, {"Date": "1990/3/30", "Close": 17.875}, {"Date": "1990/4/2", "Close": 18.125}, {"Date": "1990/4/3", "Close": 18.5}, {"Date": "1990/4/4", "Close": 18.5625}, {"Date": "1990/4/5", "Close": 18.125}, {"Date": "1990/4/6", "Close": 18.125}, {"Date": "1990/4/9", "Close": 17.875}, {"Date": "1990/4/10", "Close": 17.9375}, {"Date": "1990/4/11", "Close": 18.0625}, {"Date": "1990/4/12", "Close": 17.9375}, {"Date": "1990/4/16", "Close": 17.625}, {"Date": "1990/4/17", "Close": 17.5625}, {"Date": "1990/4/18", "Close": 17.5625}, {"Date": "1990/4/19", "Close": 17.5}, {"Date": "1990/4/20", "Close": 17.375}, {"Date": "1990/4/23", "Close": 17.0625}, {"Date": "1990/4/24", "Close": 17.5}, {"Date": "1990/4/25", "Close": 17.75}, {"Date": "1990/4/26", "Close": 17.75}, {"Date": "1990/4/27", "Close": 17.625}, {"Date": "1990/4/30", "Close": 17.6875}, {"Date": "1990/5/1", "Close": 17.6875}, {"Date": "1990/5/2", "Close": 17.625}, {"Date": "1990/5/3", "Close": 17.75}, {"Date": "1990/5/4", "Close": 17.6875}, {"Date": "1990/5/7", "Close": 17.75}, {"Date": "1990/5/8", "Close": 17.75}, {"Date": "1990/5/9", "Close": 17.6875}, {"Date": "1990/5/10", "Close": 17.4375}, {"Date": "1990/5/11", "Close": 17.75}, {"Date": "1990/5/14", "Close": 17.6875}, {"Date": "1990/5/15", "Close": 17.4375}, {"Date": "1990/5/16", "Close": 17.6875}, {"Date": "1990/5/17", "Close": 17.9375}, {"Date": "1990/5/18", "Close": 17.9375}, {"Date": "1990/5/21", "Close": 17.875}, {"Date": "1990/5/22", "Close": 17.5625}, {"Date": "1990/5/23", "Close": 17.3125}, {"Date": "1990/5/24", "Close": 17.3125}, {"Date": "1990/5/25", "Close": 17.25}, {"Date": "1990/5/29", "Close": 17.6875}, {"Date": "1990/5/30", "Close": 18.0625}, {"Date": "1990/5/31", "Close": 17.875}, {"Date": "1990/6/1", "Close": 17.8125}, {"Date": "1990/6/4", "Close": 18.125}, {"Date": "1990/6/5", "Close": 17.9375}, {"Date": "1990/6/6", "Close": 17.75}, {"Date": "1990/6/7", "Close": 17.5}, {"Date": "1990/6/8", "Close": 17.3125}, {"Date": "1990/6/11", "Close": 17.0625}, {"Date": "1990/6/12", "Close": 17.25}, {"Date": "1990/6/13", "Close": 17.0625}, {"Date": "1990/6/14", "Close": 17.375}, {"Date": "1990/6/15", "Close": 17.3125}, {"Date": "1990/6/18", "Close": 17.0}, {"Date": "1990/6/19", "Close": 16.875}, {"Date": "1990/6/20", "Close": 16.8125}, {"Date": "1990/6/21", "Close": 16.25}, {"Date": "1990/6/22", "Close": 15.8125}, {"Date": "1990/6/25", "Close": 15.8125}, {"Date": "1990/6/26", "Close": 15.875}, {"Date": "1990/6/27", "Close": 15.5625}, {"Date": "1990/6/28", "Close": 15.125}, {"Date": "1990/6/29", "Close": 15.0625}, {"Date": "1990/7/2", "Close": 14.875}, {"Date": "1990/7/3", "Close": 14.75}, {"Date": "1990/7/5", "Close": 14.5625}, {"Date": "1990/7/6", "Close": 14.6875}, {"Date": "1990/7/9", "Close": 14.5}, {"Date": "1990/7/10", "Close": 14.1875}, {"Date": "1990/7/11", "Close": 13.9375}, {"Date": "1990/7/12", "Close": 14.25}, {"Date": "1990/7/13", "Close": 14.5}, {"Date": "1990/7/16", "Close": 14.8125}, {"Date": "1990/7/17", "Close": 15.0625}, {"Date": "1990/7/18", "Close": 14.75}, {"Date": "1990/7/19", "Close": 15.0625}, {"Date": "1990/7/20", "Close": 14.5}, {"Date": "1990/7/23", "Close": 14.25}, {"Date": "1990/7/24", "Close": 13.8125}, {"Date": "1990/7/25", "Close": 14.0625}, {"Date": "1990/7/26", "Close": 13.625}, {"Date": "1990/7/27", "Close": 13.5625}, {"Date": "1990/7/30", "Close": 13.875}, {"Date": "1990/7/31", "Close": 13.25}, {"Date": "1990/8/1", "Close": 13.1875}, {"Date": "1990/8/2", "Close": 13.375}, {"Date": "1990/8/3", "Close": 12.5}, {"Date": "1990/8/6", "Close": 12.1875}, {"Date": "1990/8/7", "Close": 12.25}, {"Date": "1990/8/8", "Close": 12.75}, {"Date": "1990/8/9", "Close": 12.75}, {"Date": "1990/8/10", "Close": 12.25}, {"Date": "1990/8/13", "Close": 12.5}, {"Date": "1990/8/14", "Close": 12.6875}, {"Date": "1990/8/15", "Close": 12.9375}, {"Date": "1990/8/16", "Close": 12.4375}, {"Date": "1990/8/17", "Close": 11.8125}, {"Date": "1990/8/20", "Close": 11.625}, {"Date": "1990/8/21", "Close": 11.5}, {"Date": "1990/8/22", "Close": 12.1875}, {"Date": "1990/8/23", "Close": 11.25}, {"Date": "1990/8/24", "Close": 11.6875}, {"Date": "1990/8/27", "Close": 11.8125}, {"Date": "1990/8/28", "Close": 11.75}, {"Date": "1990/8/29", "Close": 11.9375}, {"Date": "1990/8/30", "Close": 12.0625}, {"Date": "1990/8/31", "Close": 11.375}, {"Date": "1990/9/4", "Close": 11.5}, {"Date": "1990/9/5", "Close": 11.5625}, {"Date": "1990/9/6", "Close": 11.125}, {"Date": "1990/9/7", "Close": 10.3125}, {"Date": "1990/9/10", "Close": 10.5}, {"Date": "1990/9/11", "Close": 10.1875}, {"Date": "1990/9/12", "Close": 10.125}, {"Date": "1990/9/13", "Close": 9.9375}, {"Date": "1990/9/14", "Close": 9.9375}, {"Date": "1990/9/17", "Close": 9.5}, {"Date": "1990/9/18", "Close": 9.375}, {"Date": "1990/9/19", "Close": 9.5}, {"Date": "1990/9/20", "Close": 9.4375}, {"Date": "1990/9/21", "Close": 9.3125}, {"Date": "1990/9/24", "Close": 9.0}, {"Date": "1990/9/25", "Close": 8.5}, {"Date": "1990/9/26", "Close": 8.875}, {"Date": "1990/9/27", "Close": 8.375}, {"Date": "1990/9/28", "Close": 8.5}, {"Date": "1990/10/1", "Close": 8.5625}, {"Date": "1990/10/2", "Close": 8.375}, {"Date": "1990/10/3", "Close": 8.4375}, {"Date": "1990/10/4", "Close": 8.625}, {"Date": "1990/10/5", "Close": 8.5625}, {"Date": "1990/10/8", "Close": 8.4375}, {"Date": "1990/10/9", "Close": 8.125}, {"Date": "1990/10/10", "Close": 8.1875}, {"Date": "1990/10/11", "Close": 8.25}, {"Date": "1990/10/12", "Close": 8.125}, {"Date": "1990/10/15", "Close": 7.5625}, {"Date": "1990/10/16", "Close": 7.625}, {"Date": "1990/10/17", "Close": 8.0625}, {"Date": "1990/10/18", "Close": 8.0625}, {"Date": "1990/10/19", "Close": 8.0625}, {"Date": "1990/10/22", "Close": 7.875}, {"Date": "1990/10/23", "Close": 8.0}, {"Date": "1990/10/24", "Close": 8.25}, {"Date": "1990/10/25", "Close": 8.0}, {"Date": "1990/10/26", "Close": 7.8125}, {"Date": "1990/10/29", "Close": 7.75}, {"Date": "1990/10/30", "Close": 7.8125}, {"Date": "1990/10/31", "Close": 7.625}, {"Date": "1990/11/1", "Close": 7.5625}, {"Date": "1990/11/2", "Close": 7.375}, {"Date": "1990/11/5", "Close": 7.25}, {"Date": "1990/11/6", "Close": 7.625}, {"Date": "1990/11/7", "Close": 7.4375}, {"Date": "1990/11/8", "Close": 7.375}, {"Date": "1990/11/9", "Close": 6.75}, {"Date": "1990/11/12", "Close": 7.0}, {"Date": "1990/11/13", "Close": 7.1875}, {"Date": "1990/11/14", "Close": 7.625}, {"Date": "1990/11/15", "Close": 7.75}, {"Date": "1990/11/16", "Close": 7.875}, {"Date": "1990/11/19", "Close": 7.875}, {"Date": "1990/11/20", "Close": 7.75}, {"Date": "1990/11/21", "Close": 7.8125}, {"Date": "1990/11/23", "Close": 7.8125}, {"Date": "1990/11/26", "Close": 7.625}, {"Date": "1990/11/27", "Close": 7.75}, {"Date": "1990/11/28", "Close": 8.1875}, {"Date": "1990/11/29", "Close": 8.0625}, {"Date": "1990/11/30", "Close": 8.0}, {"Date": "1990/12/3", "Close": 7.9375}, {"Date": "1990/12/4", "Close": 7.9375}, {"Date": "1990/12/5", "Close": 8.0}, {"Date": "1990/12/6", "Close": 7.9375}, {"Date": "1990/12/7", "Close": 8.125}, {"Date": "1990/12/10", "Close": 8.125}, {"Date": "1990/12/11", "Close": 8.625}, {"Date": "1990/12/12", "Close": 8.75}, {"Date": "1990/12/13", "Close": 8.625}, {"Date": "1990/12/14", "Close": 8.5}, {"Date": "1990/12/17", "Close": 8.375}, {"Date": "1990/12/18", "Close": 8.375}, {"Date": "1990/12/19", "Close": 8.75}, {"Date": "1990/12/20", "Close": 8.75}, {"Date": "1990/12/21", "Close": 8.5625}, {"Date": "1990/12/24", "Close": 8.6875}, {"Date": "1990/12/26", "Close": 9.0625}, {"Date": "1990/12/27", "Close": 9.375}, {"Date": "1990/12/28", "Close": 9.5625}, {"Date": "1990/12/31", "Close": 9.4375}, {"Date": "1991/1/2", "Close": 9.5}, {"Date": "1991/1/3", "Close": 9.0625}, {"Date": "1991/1/4", "Close": 8.8125}, {"Date": "1991/1/7", "Close": 8.6875}, {"Date": "1991/1/8", "Close": 8.8125}, {"Date": "1991/1/9", "Close": 8.625}, {"Date": "1991/1/10", "Close": 8.6875}, {"Date": "1991/1/11", "Close": 9.0625}, {"Date": "1991/1/14", "Close": 8.75}, {"Date": "1991/1/15", "Close": 8.75}, {"Date": "1991/1/16", "Close": 8.75}, {"Date": "1991/1/17", "Close": 9.25}, {"Date": "1991/1/18", "Close": 9.375}, {"Date": "1991/1/21", "Close": 9.25}, {"Date": "1991/1/22", "Close": 9.25}, {"Date": "1991/1/23", "Close": 9.5}, {"Date": "1991/1/24", "Close": 9.8125}, {"Date": "1991/1/25", "Close": 9.5625}, {"Date": "1991/1/28", "Close": 9.625}, {"Date": "1991/1/29", "Close": 9.8125}, {"Date": "1991/1/30", "Close": 10.3125}, {"Date": "1991/1/31", "Close": 10.125}, {"Date": "1991/2/1", "Close": 10.1875}, {"Date": "1991/2/4", "Close": 10.5}, {"Date": "1991/2/5", "Close": 10.3125}, {"Date": "1991/2/6", "Close": 9.9375}, {"Date": "1991/2/7", "Close": 9.375}, {"Date": "1991/2/8", "Close": 9.375}, {"Date": "1991/2/11", "Close": 9.6875}, {"Date": "1991/2/12", "Close": 9.5625}, {"Date": "1991/2/13", "Close": 9.8125}, {"Date": "1991/2/14", "Close": 9.8125}, {"Date": "1991/2/15", "Close": 9.9375}, {"Date": "1991/2/19", "Close": 10.0}, {"Date": "1991/2/20", "Close": 10.0}, {"Date": "1991/2/21", "Close": 10.0625}, {"Date": "1991/2/22", "Close": 10.25}, {"Date": "1991/2/25", "Close": 10.25}, {"Date": "1991/2/26", "Close": 10.1875}, {"Date": "1991/2/27", "Close": 10.375}, {"Date": "1991/2/28", "Close": 10.3125}, {"Date": "1991/3/1", "Close": 10.5625}, {"Date": "1991/3/4", "Close": 11.3125}, {"Date": "1991/3/5", "Close": 11.8125}, {"Date": "1991/3/6", "Close": 11.8125}, {"Date": "1991/3/7", "Close": 11.9375}, {"Date": "1991/3/8", "Close": 12.0625}, {"Date": "1991/3/11", "Close": 11.875}, {"Date": "1991/3/12", "Close": 11.4375}, {"Date": "1991/3/13", "Close": 11.4375}, {"Date": "1991/3/14", "Close": 11.25}, {"Date": "1991/3/15", "Close": 11.25}, {"Date": "1991/3/18", "Close": 11.125}, {"Date": "1991/3/19", "Close": 10.9375}, {"Date": "1991/3/20", "Close": 10.9375}, {"Date": "1991/3/21", "Close": 10.9375}, {"Date": "1991/3/22", "Close": 11.0625}, {"Date": "1991/3/25", "Close": 10.25}, {"Date": "1991/3/26", "Close": 10.375}, {"Date": "1991/3/27", "Close": 11.4375}, {"Date": "1991/3/28", "Close": 11.8125}, {"Date": "1991/4/1", "Close": 11.6875}, {"Date": "1991/4/2", "Close": 12.0625}, {"Date": "1991/4/3", "Close": 11.875}, {"Date": "1991/4/4", "Close": 11.6875}, {"Date": "1991/4/5", "Close": 11.5625}, {"Date": "1991/4/8", "Close": 11.625}, {"Date": "1991/4/9", "Close": 11.1875}, {"Date": "1991/4/10", "Close": 11.1875}, {"Date": "1991/4/11", "Close": 11.25}, {"Date": "1991/4/12", "Close": 11.4375}, {"Date": "1991/4/15", "Close": 11.5625}, {"Date": "1991/4/16", "Close": 11.375}, {"Date": "1991/4/17", "Close": 11.3125}, {"Date": "1991/4/18", "Close": 11.25}, {"Date": "1991/4/19", "Close": 11.3125}, {"Date": "1991/4/22", "Close": 10.875}, {"Date": "1991/4/23", "Close": 10.5}, {"Date": "1991/4/24", "Close": 10.75}, {"Date": "1991/4/25", "Close": 10.5625}, {"Date": "1991/4/26", "Close": 11.0}, {"Date": "1991/4/29", "Close": 10.8125}, {"Date": "1991/4/30", "Close": 10.625}, {"Date": "1991/5/1", "Close": 10.9375}, {"Date": "1991/5/2", "Close": 10.75}, {"Date": "1991/5/3", "Close": 10.9375}, {"Date": "1991/5/6", "Close": 11.3125}, {"Date": "1991/5/7", "Close": 11.0}, {"Date": "1991/5/8", "Close": 11.3125}, {"Date": "1991/5/9", "Close": 11.4375}, {"Date": "1991/5/10", "Close": 11.4375}, {"Date": "1991/5/13", "Close": 11.5625}, {"Date": "1991/5/14", "Close": 11.3125}, {"Date": "1991/5/15", "Close": 11.25}, {"Date": "1991/5/16", "Close": 11.4375}, {"Date": "1991/5/17", "Close": 11.4375}, {"Date": "1991/5/20", "Close": 11.875}, {"Date": "1991/5/21", "Close": 12.25}, {"Date": "1991/5/22", "Close": 12.3125}, {"Date": "1991/5/23", "Close": 12.1875}, {"Date": "1991/5/24", "Close": 12.375}, {"Date": "1991/5/28", "Close": 12.8125}, {"Date": "1991/5/29", "Close": 13.0}, {"Date": "1991/5/30", "Close": 13.0}, {"Date": "1991/5/31", "Close": 13.125}, {"Date": "1991/6/3", "Close": 13.5}, {"Date": "1991/6/4", "Close": 15.0625}, {"Date": "1991/6/5", "Close": 15.6875}, {"Date": "1991/6/6", "Close": 16.0625}, {"Date": "1991/6/7", "Close": 16.625}, {"Date": "1991/6/10", "Close": 16.625}, {"Date": "1991/6/11", "Close": 16.0625}, {"Date": "1991/6/12", "Close": 16.625}, {"Date": "1991/6/13", "Close": 16.5625}, {"Date": "1991/6/14", "Close": 16.75}, {"Date": "1991/6/17", "Close": 17.4375}, {"Date": "1991/6/18", "Close": 17.0}, {"Date": "1991/6/19", "Close": 17.0625}, {"Date": "1991/6/20", "Close": 17.125}, {"Date": "1991/6/21", "Close": 17.125}, {"Date": "1991/6/24", "Close": 16.9375}, {"Date": "1991/6/25", "Close": 16.75}, {"Date": "1991/6/26", "Close": 16.5625}, {"Date": "1991/6/27", "Close": 16.6875}, {"Date": "1991/6/28", "Close": 16.625}, {"Date": "1991/7/1", "Close": 16.875}, {"Date": "1991/7/2", "Close": 16.625}, {"Date": "1991/7/3", "Close": 16.75}, {"Date": "1991/7/5", "Close": 16.8125}, {"Date": "1991/7/8", "Close": 17.1875}, {"Date": "1991/7/9", "Close": 17.1875}, {"Date": "1991/7/10", "Close": 17.8125}, {"Date": "1991/7/11", "Close": 17.625}, {"Date": "1991/7/12", "Close": 18.0}, {"Date": "1991/7/15", "Close": 17.8125}, {"Date": "1991/7/16", "Close": 18.3125}, {"Date": "1991/7/17", "Close": 18.4375}, {"Date": "1991/7/18", "Close": 19.125}, {"Date": "1991/7/19", "Close": 19.4375}, {"Date": "1991/7/22", "Close": 19.125}, {"Date": "1991/7/23", "Close": 18.5}, {"Date": "1991/7/24", "Close": 18.1875}, {"Date": "1991/7/25", "Close": 19.0}, {"Date": "1991/7/26", "Close": 19.0625}, {"Date": "1991/7/29", "Close": 18.8125}, {"Date": "1991/7/30", "Close": 18.75}, {"Date": "1991/7/31", "Close": 19.0625}, {"Date": "1991/8/1", "Close": 18.875}, {"Date": "1991/8/2", "Close": 18.875}, {"Date": "1991/8/5", "Close": 18.625}, {"Date": "1991/8/6", "Close": 19.0}, {"Date": "1991/8/7", "Close": 19.125}, {"Date": "1991/8/8", "Close": 19.375}, {"Date": "1991/8/9", "Close": 19.375}, {"Date": "1991/8/12", "Close": 19.0}, {"Date": "1991/8/13", "Close": 18.3125}, {"Date": "1991/8/14", "Close": 18.5625}, {"Date": "1991/8/15", "Close": 18.3125}, {"Date": "1991/8/16", "Close": 17.875}, {"Date": "1991/8/19", "Close": 17.0625}, {"Date": "1991/8/20", "Close": 17.3125}, {"Date": "1991/8/21", "Close": 18.4375}, {"Date": "1991/8/22", "Close": 18.625}, {"Date": "1991/8/23", "Close": 18.9375}, {"Date": "1991/8/26", "Close": 19.0625}, {"Date": "1991/8/27", "Close": 18.9375}, {"Date": "1991/8/28", "Close": 19.375}, {"Date": "1991/8/29", "Close": 19.1875}, {"Date": "1991/8/30", "Close": 19.125}, {"Date": "1991/9/3", "Close": 19.25}, {"Date": "1991/9/4", "Close": 20.4375}, {"Date": "1991/9/5", "Close": 20.625}, {"Date": "1991/9/6", "Close": 21.0}, {"Date": "1991/9/9", "Close": 21.0625}, {"Date": "1991/9/10", "Close": 20.8125}, {"Date": "1991/9/11", "Close": 21.0}, {"Date": "1991/9/12", "Close": 21.1875}, {"Date": "1991/9/13", "Close": 20.8125}, {"Date": "1991/9/16", "Close": 21.0625}, {"Date": "1991/9/17", "Close": 21.125}, {"Date": "1991/9/18", "Close": 21.25}, {"Date": "1991/9/19", "Close": 21.5}, {"Date": "1991/9/20", "Close": 21.75}, {"Date": "1991/9/23", "Close": 21.375}, {"Date": "1991/9/24", "Close": 21.3125}, {"Date": "1991/9/25", "Close": 21.6875}, {"Date": "1991/9/26", "Close": 21.8125}, {"Date": "1991/9/27", "Close": 21.6875}, {"Date": "1991/9/30", "Close": 21.9375}, {"Date": "1991/10/1", "Close": 21.8125}, {"Date": "1991/10/2", "Close": 22.125}, {"Date": "1991/10/3", "Close": 21.75}, {"Date": "1991/10/4", "Close": 21.5625}, {"Date": "1991/10/7", "Close": 20.9375}, {"Date": "1991/10/8", "Close": 21.5625}, {"Date": "1991/10/9", "Close": 21.9375}, {"Date": "1991/10/10", "Close": 21.9375}, {"Date": "1991/10/11", "Close": 21.9375}, {"Date": "1991/10/14", "Close": 21.9375}, {"Date": "1991/10/15", "Close": 21.8125}, {"Date": "1991/10/16", "Close": 22.375}, {"Date": "1991/10/17", "Close": 22.3125}, {"Date": "1991/10/18", "Close": 22.1875}, {"Date": "1991/10/21", "Close": 22.4375}, {"Date": "1991/10/22", "Close": 22.875}, {"Date": "1991/10/23", "Close": 23.5}, {"Date": "1991/10/24", "Close": 23.25}, {"Date": "1991/10/25", "Close": 23.375}, {"Date": "1991/10/28", "Close": 24.4375}, {"Date": "1991/10/29", "Close": 24.5625}, {"Date": "1991/10/30", "Close": 24.8125}, {"Date": "1991/10/31", "Close": 25.0}, {"Date": "1991/11/1", "Close": 24.8125}, {"Date": "1991/11/4", "Close": 24.875}, {"Date": "1991/11/5", "Close": 25.875}, {"Date": "1991/11/6", "Close": 26.8125}, {"Date": "1991/11/7", "Close": 26.25}, {"Date": "1991/11/8", "Close": 26.25}, {"Date": "1991/11/11", "Close": 25.75}, {"Date": "1991/11/12", "Close": 25.25}, {"Date": "1991/11/13", "Close": 24.6875}, {"Date": "1991/11/14", "Close": 24.6875}, {"Date": "1991/11/15", "Close": 24.125}, {"Date": "1991/11/18", "Close": 24.1875}, {"Date": "1991/11/19", "Close": 23.5}, {"Date": "1991/11/20", "Close": 24.125}, {"Date": "1991/11/21", "Close": 24.4375}, {"Date": "1991/11/22", "Close": 24.875}, {"Date": "1991/11/25", "Close": 24.5}, {"Date": "1991/11/26", "Close": 24.375}, {"Date": "1991/11/27", "Close": 24.25}, {"Date": "1991/11/29", "Close": 23.9375}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{'time': 2021, 'Installed wind + PV capacity (GW)': 615, 'energy consumption percentage': '13.80%'}, {'time': 2022, 'Installed wind + PV capacity (GW)': 695, 'energy consumption percentage': '15.10%'}, {'time': 2023, 'Installed wind + PV capacity (GW)': 775, 'energy consumption percentage': '16.60%'}, {'time': 2024, 'Installed wind + PV capacity (GW)': 855, 'energy consumption percentage': '18.30%'}, {'time': 2025, 'Installed wind + PV capacity (GW)': 935, 'energy consumption percentage': '20.00%'}, {'time': 2030, 'Installed wind + PV capacity (GW)': 1200, 'energy consumption percentage': '25.00%'}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色代表我改过了！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The corresponding value for object "Netherlands" is "43.1", and its shortest descriptive phrase is "The Netherlands ($43.1 billion)". The corresponding value for object "France" is "35.3" and its shortest descriptive phrase is "France ($35.3 billion)"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":[],"Position":[{"Begin":[,],"End":[,]}], "Trend":"None","Num":[],"Text":"..."}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":[“Netherlands"],"Position":[{"Begin":[1,1],"End":[1,1]}],"Trend":"None","Num":[43.1],"Text":"The Netherlands ($43.1 billion)"},{"ObjectName":[“France"],"Position":[{"Begin":[1,2],"End":[1,2]}],"Trend":"None","Num":[35.3],"Text":"France ($35.3 billion)"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The object in unit 1 is "Mini- and subcompact size". Its compact size goes from '0.61' in 2017 to '0.30' in 2023. The subject in unit 2 is the combination of  "Compact Size" and  "Midsize to large". Its compact size goes from the combination from "0.35" and "0.04" in 2017 to "0.30" and "0.40" in 2023.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Mini- and subcompact size"],"Position":[{"Begin":[1,6],"End":[1,6]}], "Trend":"declined","Num":[0.30],"Text":"the sales proportion of NEVs that were subcompact and below declined to 30%"},{"ObjectName":["Mini- and subcompact size"],"Position":[{"Begin":[1,0],"End":[1,0]}], "Trend":"None","Num":[0.61],"Text":"from 61% in 2017"},{"ObjectName":["Compact Size","Midsize to large"],"Position":[{"Begin":[2,6],"End":[2,6]},{"Begin":[3,6],"End":[3,6]}], "Trend":"upgrade trend","Num":[0.30,0.40],"Text":"the mix of compact and midsize-to-large NEVs increased to 70%"},{"ObjectName":["Compact Size","Midsize to large"],"Position":[{"Begin":[2,0],"End":[2,0]},{"Begin":[3,0],"End":[3,0]}], "Trend":"upgrade trend","Num":[0.35,0.04],"Text":"the mix of compact and midsize-to-large NEVs increased to 70% from 39%"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -287,12 +293,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -307,9 +319,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -594,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="126" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="126" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -612,7 +628,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -627,169 +643,172 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
       <c r="K1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="88" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="128.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="125" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="252" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="168" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -799,105 +818,105 @@
     </row>
     <row r="10" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">

--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6C4715-B865-4FAF-818B-56867FF6BEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC0F0B4-355B-3E46-B110-8C66BF39D040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="650" windowWidth="21960" windowHeight="19850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -265,11 +265,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The object in unit 1 is "Mini- and subcompact size". Its compact size goes from '0.61' in 2017 to '0.30' in 2023. The subject in unit 2 is the combination of  "Compact Size" and  "Midsize to large". Its compact size goes from the combination from "0.35" and "0.04" in 2017 to "0.30" and "0.40" in 2023.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["Mini- and subcompact size"],"Position":[{"Begin":[1,6],"End":[1,6]}], "Trend":"declined","Num":[0.30],"Text":"the sales proportion of NEVs that were subcompact and below declined to 30%"},{"ObjectName":["Mini- and subcompact size"],"Position":[{"Begin":[1,0],"End":[1,0]}], "Trend":"None","Num":[0.61],"Text":"from 61% in 2017"},{"ObjectName":["Compact Size","Midsize to large"],"Position":[{"Begin":[2,6],"End":[2,6]},{"Begin":[3,6],"End":[3,6]}], "Trend":"upgrade trend","Num":[0.30,0.40],"Text":"the mix of compact and midsize-to-large NEVs increased to 70%"},{"ObjectName":["Compact Size","Midsize to large"],"Position":[{"Begin":[2,0],"End":[2,0]},{"Begin":[3,0],"End":[3,0]}], "Trend":"upgrade trend","Num":[0.35,0.04],"Text":"the mix of compact and midsize-to-large NEVs increased to 70% from 39%"}]</t>
+    <t>"The object in unit 1 is ‘Mini- and subcompact size’. Its compact size goes from '0.61' in 2017 to '0.30' in 2023. The subject in unit 2 is the combination of ‘Compact Size’ and ‘Midsize to large’. Its compact size goes from the combination from ‘0.35’ and ‘0.04’ in 2017 to '0.30' and '0.40' in 2023."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Mini- and subcompact size"],"Position":[{"Begin":[1,6],"End":[1,6]}], "Trend":"declined","Num":[0.30],"Text":"the sales proportion of NEVs that were subcompact and below declined to 30%"},{"ObjectName":["Mini- and subcompact size"],"Position":[{"Begin":[1,0],"End":[1,0]}], "Trend":"None","Num":[0.61],"Text":"from 61% in 2017"},{"ObjectName":["Compact Size","Midsize to large"],"Position":[{"Begin":[2,6],"End":[2,6]},{"Begin":[3,6],"End":[3,6]}], "Trend":"upgrade trend","Num":[0.30,0.40],"Text":"the mix of compact and midsize-to-large NEVs increased to 70%"},{"ObjectName":["Compact Size","Midsize to large"],"Position":[{"Begin":[2,0],"End":[2,0]},{"Begin":[3,0],"End":[3,0]}], "Trend":"None","Num":[0.35,0.04],"Text":"the mix of compact and midsize-to-large NEVs increased to 70% from 39%"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +277,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,11 +610,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="126" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="126" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
@@ -626,7 +626,7 @@
     <col min="11" max="11" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="128.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="128.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -681,7 +681,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="125" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="125" customHeight="1">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -704,7 +704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="409.6">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -728,7 +728,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="168" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="192">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -748,7 +748,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="409" customHeight="1">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -771,7 +771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="409.6">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -791,7 +791,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="409.6">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -811,12 +811,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="409.6">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -839,7 +839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="409.6">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -859,7 +859,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="409.6">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -879,7 +879,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="409.6">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -899,7 +899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="409.6">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -919,7 +919,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="D15" s="1"/>
     </row>
   </sheetData>

--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC0F0B4-355B-3E46-B110-8C66BF39D040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BA0911-321F-4324-B3F2-70B5480E346C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2110" yWindow="770" windowWidth="28220" windowHeight="19850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,18 +116,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"ObjectName":"Real GDP for the outdoor recreation economy", "BeginIndex”:"0","EndIndex":"0","Trend":"increase","Number":"18.9"},{"ObjectName":"U.S. economy", "BeginIndex":"0","EndIndex":"0"，"Trend":"rebound","Number":"5.9"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Inflation-adjusted ("real") GDP for the outdoor recreation economy increased 18.9 percent in 2021, compared with a 5.9 percent increase for the overall U.S. economy, reflecting a rebound in outdoor recreation after the decrease of 21.6 percent in 2020. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The first object is "Inflation-adjusted ("real") GDP for the outdoor recreation economy" and its value is 18.9. The second object is "U.S. economy" and its value is 5.9.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>There exists a "head and shoulder" pattern on the Amazon stock moving averages from 1999/09/27 to 2000/02/22.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,13 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The China Lithium Industry Development Index white paper predicts a rising trend for installed wind and PV capacity (GW). It is expected to reach 1,200 GW and reach a 25% energy percentage.</t>
-  </si>
-  <si>
-    <t>[{"ObjectName":"installed wind and PV capacity (GW)","BeginIndex":"0","EndIndex":"5","Trend":"rising","Number":"None"},{"ObjectName":"installed wind and PV capacity (GW)","BeginIndex":"5","EndIndex":"5","Trend":"None","Number":"1200"},{"ObjectName":"energy percentage","BeginIndex":"5","EndIndex":"5","Trend":"None","Number":"25%"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{'Time':'2017/1/1','Mini- and subcompact size':'0.61','Compact size':'0.35', 'Midsize to large':'0.04'},{'Time':'2018/1/1','Mini- and subcompact size':'0.49','Compact size':'0.41', 'Midsize to large':'0.10'},{'Time':'2019/1/1','Mini- and subcompact size':'0.33','Compact size':'0.54', 'Midsize to large':'0.13'},{'Time':'2020/1/1','Mini- and subcompact size':'0.35','Compact size':'0.33', 'Midsize to large':'0.32'},{'Time':'2021/1/1','Mini- and subcompact size':'0.37','Compact size':'0.28', 'Midsize to large':'0.35'},{'Time':'2022/1/1','Mini- and subcompact size':'0.37','Compact size':'0.31', 'Midsize to large':'0.32'},{'Time':'2023/1/1','Mini- and subcompact size':'0.30','Compact size':'0.30', 'Midsize to large':'0.40'}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,11 +250,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"The object in unit 1 is ‘Mini- and subcompact size’. Its compact size goes from '0.61' in 2017 to '0.30' in 2023. The subject in unit 2 is the combination of ‘Compact Size’ and ‘Midsize to large’. Its compact size goes from the combination from ‘0.35’ and ‘0.04’ in 2017 to '0.30' and '0.40' in 2023."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"ObjectName":["Mini- and subcompact size"],"Position":[{"Begin":[1,6],"End":[1,6]}], "Trend":"declined","Num":[0.30],"Text":"the sales proportion of NEVs that were subcompact and below declined to 30%"},{"ObjectName":["Mini- and subcompact size"],"Position":[{"Begin":[1,0],"End":[1,0]}], "Trend":"None","Num":[0.61],"Text":"from 61% in 2017"},{"ObjectName":["Compact Size","Midsize to large"],"Position":[{"Begin":[2,6],"End":[2,6]},{"Begin":[3,6],"End":[3,6]}], "Trend":"upgrade trend","Num":[0.30,0.40],"Text":"the mix of compact and midsize-to-large NEVs increased to 70%"},{"ObjectName":["Compact Size","Midsize to large"],"Position":[{"Begin":[2,0],"End":[2,0]},{"Begin":[3,0],"End":[3,0]}], "Trend":"None","Num":[0.35,0.04],"Text":"the mix of compact and midsize-to-large NEVs increased to 70% from 39%"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Real GDP for the outdoor recreation economy"], "Position":[{"Begin":[1,0],"End":[1,0],"Trend":"increase","Number":[18.9],"Text":"Inflation-adjusted ("real") GDP for the outdoor recreation economy increased 18.9 percent in 2021"},
+{"ObjectName":["U.S. economy"], "Position":["Begin":[2,0],"End":[2,0]，"Trend":"rebound","Number":[5.9],"Text":"compared with a 5.9 percent increase for the overall U.S. economy, reflecting a rebound in outdoor recreation"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The first object is "Inflation-adjusted ("real") GDP for the outdoor recreation economy"， its value is 18.9 and its descriptive phrase is "Inflation-adjusted ("real") GDP for the outdoor recreation economy increased 18.9 percent in 2021". The second object is "U.S. economy", its value is 5.9 and its descriptive phrase is "compared with a 5.9 percent increase for the overall U.S. economy, reflecting a rebound in outdoor recreation".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"The object in unit 1 is 'Mini- and subcompact size'. Its compact size goes from '0.61' in 2017 to '0.30' in 2023. The subject in unit 2 is the combination of ‘Compact Size’ and 'Midsize to large'. Its compact size goes from the combination from ‘0.35’ and ‘0.04’ in 2017 to '0.30' and '0.40' in 2023."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The China Lithium Industry Development Index white paper predicts a rising trend for installed wind and PV capacity (GW). It is expected to reach 1,200 GW and reach a 25% energy percentage in 2030.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"installed wind and PV capacity (GW)","Position":[{"Begin":[1,0],"End":[1,5],"Trend":"rising","Number":"None","Text":"a rising trend for installed wind and PV capacity (GW)"},{"ObjectName":"installed wind and PV capacity (GW)","Position":[{"Begin":[1,5],"End":[1,5],"Trend":"None","Number":[1200],"Text":"It is expected to reach 1,200 GW"},{"ObjectName":"energy percentage","Position":[{"Begin":[2,5],"End":[2,5],"Trend":"None","Number":[25.00%],"Text":"reach a 25% energy percentage in 2030"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The object in unit 1 is "installed wind and PV capacity (GW)". It has a "rising" trend from 2021 to 2030 and its descriptive phrase is 'a rising trend for installed wind and PV capacity (GW)'. The object in unit 2 is "installed wind and PV capacity (GW)". It reachs '1200' in 2030 and its descriptive phrase is 'It is expected to reach 1,200 GW'. The object in unit 3 is "energy percentage". It reaches '25%' in 2030 and its descriptive phrase is 'reach a 25% energy percentage in 2030'.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +283,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,11 +616,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="126" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
@@ -626,7 +632,7 @@
     <col min="11" max="11" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -652,7 +658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="128.5" customHeight="1">
+    <row r="2" spans="1:11" ht="128.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -666,23 +672,23 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="125" customHeight="1">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="208.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
@@ -695,16 +701,16 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="409.6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -715,21 +721,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="192">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" ht="201" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
@@ -739,16 +745,19 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="409" customHeight="1">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -762,16 +771,16 @@
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="409.6">
+    </row>
+    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -782,16 +791,16 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="409.6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -802,21 +811,21 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="409.6">
+    <row r="10" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -827,19 +836,19 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="409.6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -850,16 +859,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="409.6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -870,16 +879,16 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="409.6">
+    </row>
+    <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -890,16 +899,16 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="409.6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -910,16 +919,16 @@
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
     </row>
   </sheetData>

--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BA0911-321F-4324-B3F2-70B5480E346C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A530379-E759-4DB0-B06A-53DE6EA47945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2110" yWindow="770" windowWidth="28220" windowHeight="19850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1760" yWindow="970" windowWidth="27570" windowHeight="19870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,18 +124,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"ObjectName":"Close","BeginIndex":"39","EndIndex":"141","Trend":"Head and shoulder","Number":"None"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The "head and shoulder" pattern consists of three rises and falls from three localized highs. The high point in the center is higher than the other two. This pattern is around from '1999/09/27' to '2000/02/22' and the middle high point exist on '1999/12/09'.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"ObjectName":"Close","BeginIndex":"54","EndIndex":"100","Trend":"double bottom","Number":"None"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The "double bottom" pattern has two lows. The first low in the data is at 2016/01/20 , and the second low is at 2016/02/11.  This pattern is around from '2015/12/29' to '2016/03/07'.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,29 +156,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"ObjectName":"Close","BeginIndex":"37","EndIndex":"50","Trend":"downtrend","Number":"None"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"ObjectName":"Close","BeginIndex":"76","EndIndex":"250","Trend":"uptrend","Number":"None"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The chart of Amazon.com Inc. (AMZN) shows a double top pattern that formed in the stock between September and October 2018. After the pattern appears, shares plunges another 31%.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"ObjectName":"Close","BeginIndex":"42","EndIndex":"69","Trend":"double top","Number":"None"}, {"ObjectName":"Close","BeginIndex":"70","EndIndex":"102","Trend":"plunges","Number":"31%"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{'Date': '2018/6/27', 'Close': 83.025497}, {'Date': '2018/6/28', 'Close': 85.072502}, {'Date': '2018/6/29', 'Close': 84.989998}, {'Date': '2018/7/2', 'Close': 85.689003}, {'Date': '2018/7/3', 'Close': 84.697998}, {'Date': '2018/7/5', 'Close': 84.986504}, {'Date': '2018/7/6', 'Close': 85.531502}, {'Date': '2018/7/9', 'Close': 86.950996}, {'Date': '2018/7/10', 'Close': 87.153503}, {'Date': '2018/7/11', 'Close': 87.75}, {'Date': '2018/7/12', 'Close': 89.831001}, {'Date': '2018/7/13', 'Close': 90.651497}, {'Date': '2018/7/16', 'Close': 91.124496}, {'Date': '2018/7/17', 'Close': 92.196503}, {'Date': '2018/7/18', 'Close': 92.146004}, {'Date': '2018/7/19', 'Close': 90.648499}, {'Date': '2018/7/20', 'Close': 90.684998}, {'Date': '2018/7/23', 'Close': 90.099998}, {'Date': '2018/7/24', 'Close': 91.461998}, {'Date': '2018/7/25', 'Close': 93.180496}, {'Date': '2018/7/26', 'Close': 90.400002}, {'Date': '2018/7/27', 'Close': 90.863503}, {'Date': '2018/7/30', 'Close': 88.960999}, {'Date': '2018/7/31', 'Close': 88.872002}, {'Date': '2018/8/1', 'Close': 89.858498}, {'Date': '2018/8/2', 'Close': 91.716499}, {'Date': '2018/8/3', 'Close': 91.164497}, {'Date': '2018/8/6', 'Close': 92.387497}, {'Date': '2018/8/7', 'Close': 93.124001}, {'Date': '2018/8/8', 'Close': 94.325996}, {'Date': '2018/8/9', 'Close': 94.926003}, {'Date': '2018/8/10', 'Close': 94.315002}, {'Date': '2018/8/13', 'Close': 94.809998}, {'Date': '2018/8/14', 'Close': 95.982498}, {'Date': '2018/8/15', 'Close': 94.130997}, {'Date': '2018/8/16', 'Close': 94.325996}, {'Date': '2018/8/17', 'Close': 94.111}, {'Date': '2018/8/20', 'Close': 93.835503}, {'Date': '2018/8/21', 'Close': 94.170998}, {'Date': '2018/8/22', 'Close': 95.245003}, {'Date': '2018/8/23', 'Close': 95.144997}, {'Date': '2018/8/24', 'Close': 95.269501}, {'Date': '2018/8/27', 'Close': 96.384003}, {'Date': '2018/8/28', 'Close': 96.640999}, {'Date': '2018/8/29', 'Close': 99.904999}, {'Date': '2018/8/30', 'Close': 100.119003}, {'Date': '2018/8/31', 'Close': 100.635498}, {'Date': '2018/9/4', 'Close': 101.975502}, {'Date': '2018/9/5', 'Close': 101.740997}, {'Date': '2018/9/6', 'Close': 99.915497}, {'Date': '2018/9/7', 'Close': 98.6035}, {'Date': '2018/9/10', 'Close': 97.9505}, {'Date': '2018/9/11', 'Close': 97.357498}, {'Date': '2018/9/12', 'Close': 96.93}, {'Date': '2018/9/13', 'Close': 96.7935}, {'Date': '2018/9/14', 'Close': 96.809499}, {'Date': '2018/9/17', 'Close': 96.901497}, {'Date': '2018/9/18', 'Close': 97.052498}, {'Date': '2018/9/19', 'Close': 96.320999}, {'Date': '2018/9/20', 'Close': 97.214996}, {'Date': '2018/9/21', 'Close': 95.750504}, {'Date': '2018/9/24', 'Close': 96.718002}, {'Date': '2018/9/25', 'Close': 98.727501}, {'Date': '2018/9/26', 'Close': 98.7425}, {'Date': '2018/9/27', 'Close': 100.649002}, {'Date': '2018/9/28', 'Close': 100.150002}, {'Date': '2018/10/1', 'Close': 100.218002}, {'Date': '2018/10/2', 'Close': 98.565498}, {'Date': '2018/10/3', 'Close': 97.638}, {'Date': '2018/10/4', 'Close': 95.471001}, {'Date': '2018/10/5', 'Close': 94.482498}, {'Date': '2018/10/8', 'Close': 93.221001}, {'Date': '2018/10/9', 'Close': 93.515999}, {'Date': '2018/10/10', 'Close': 87.762497}, {'Date': '2018/10/11', 'Close': 85.968002}, {'Date': '2018/10/12', 'Close': 89.430496}, {'Date': '2018/10/15', 'Close': 88.047501}, {'Date': '2018/10/16', 'Close': 90.998001}, {'Date': '2018/10/17', 'Close': 91.586502}, {'Date': '2018/10/18', 'Close': 88.536003}, {'Date': '2018/10/19', 'Close': 88.2015}, {'Date': '2018/10/22', 'Close': 89.464996}, {'Date': '2018/10/23', 'Close': 88.434998}, {'Date': '2018/10/24', 'Close': 83.209999}, {'Date': '2018/10/25', 'Close': 89.108498}, {'Date': '2018/10/26', 'Close': 82.140503}, {'Date': '2018/10/29', 'Close': 76.944}, {'Date': '2018/10/30', 'Close': 76.521004}, {'Date': '2018/10/31', 'Close': 79.900497}, {'Date': '2018/11/1', 'Close': 83.276497}, {'Date': '2018/11/2', 'Close': 83.276497}, {'Date': '2018/11/5', 'Close': 81.389999}, {'Date': '2018/11/6', 'Close': 82.140503}, {'Date': '2018/11/7', 'Close': 87.774498}, {'Date': '2018/11/8', 'Close': 87.745499}, {'Date': '2018/11/9', 'Close': 85.621498}, {'Date': '2018/11/12', 'Close': 81.842499}, {'Date': '2018/11/13', 'Close': 81.558502}, {'Date': '2018/11/14', 'Close': 79.9505}, {'Date': '2018/11/15', 'Close': 80.972}, {'Date': '2018/11/16', 'Close': 79.670502}, {'Date': '2018/11/19', 'Close': 75.614502}, {'Date': '2018/11/20', 'Close': 74.773003}]</t>
   </si>
   <si>
-    <t>{"ObjectName":"Price","BeginIndex":"22","EndIndex":"56","Trend":"triple top","Number":"None"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">The "triple top" pattern happens from 2010/04/01 to 2010/05/05. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,18 +174,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"ObjectName":"Close","BeginIndex":"51","EndIndex":"104","Trend":"cup and handle","Number":"None"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The stock of Goodyear Tire &amp; Rubber company (GT) suffers a year-long 'rouding bottom' pattern from 1990.6.11 to 1991.6.3.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"ObjectName":"Close","BeginIndex":"70","EndIndex":"317","Trend":"rouding bottom","Number":"None"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{'Time':'2017/1/1','Mini- and subcompact size':'0.61','Compact size':'0.35', 'Midsize to large':'0.04'},{'Time':'2018/1/1','Mini- and subcompact size':'0.49','Compact size':'0.41', 'Midsize to large':'0.10'},{'Time':'2019/1/1','Mini- and subcompact size':'0.33','Compact size':'0.54', 'Midsize to large':'0.13'},{'Time':'2020/1/1','Mini- and subcompact size':'0.35','Compact size':'0.33', 'Midsize to large':'0.32'},{'Time':'2021/1/1','Mini- and subcompact size':'0.37','Compact size':'0.28', 'Midsize to large':'0.35'},{'Time':'2022/1/1','Mini- and subcompact size':'0.37','Compact size':'0.31', 'Midsize to large':'0.32'},{'Time':'2023/1/1','Mini- and subcompact size':'0.30','Compact size':'0.30', 'Midsize to large':'0.40'}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,19 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"ObjectName":[“Netherlands"],"Position":[{"Begin":[1,1],"End":[1,1]}],"Trend":"None","Num":[43.1],"Text":"The Netherlands ($43.1 billion)"},{"ObjectName":[“France"],"Position":[{"Begin":[1,2],"End":[1,2]}],"Trend":"None","Num":[35.3],"Text":"France ($35.3 billion)"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["Mini- and subcompact size"],"Position":[{"Begin":[1,6],"End":[1,6]}], "Trend":"declined","Num":[0.30],"Text":"the sales proportion of NEVs that were subcompact and below declined to 30%"},{"ObjectName":["Mini- and subcompact size"],"Position":[{"Begin":[1,0],"End":[1,0]}], "Trend":"None","Num":[0.61],"Text":"from 61% in 2017"},{"ObjectName":["Compact Size","Midsize to large"],"Position":[{"Begin":[2,6],"End":[2,6]},{"Begin":[3,6],"End":[3,6]}], "Trend":"upgrade trend","Num":[0.30,0.40],"Text":"the mix of compact and midsize-to-large NEVs increased to 70%"},{"ObjectName":["Compact Size","Midsize to large"],"Position":[{"Begin":[2,0],"End":[2,0]},{"Begin":[3,0],"End":[3,0]}], "Trend":"None","Num":[0.35,0.04],"Text":"the mix of compact and midsize-to-large NEVs increased to 70% from 39%"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["Real GDP for the outdoor recreation economy"], "Position":[{"Begin":[1,0],"End":[1,0],"Trend":"increase","Number":[18.9],"Text":"Inflation-adjusted ("real") GDP for the outdoor recreation economy increased 18.9 percent in 2021"},
-{"ObjectName":["U.S. economy"], "Position":["Begin":[2,0],"End":[2,0]，"Trend":"rebound","Number":[5.9],"Text":"compared with a 5.9 percent increase for the overall U.S. economy, reflecting a rebound in outdoor recreation"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The first object is "Inflation-adjusted ("real") GDP for the outdoor recreation economy"， its value is 18.9 and its descriptive phrase is "Inflation-adjusted ("real") GDP for the outdoor recreation economy increased 18.9 percent in 2021". The second object is "U.S. economy", its value is 5.9 and its descriptive phrase is "compared with a 5.9 percent increase for the overall U.S. economy, reflecting a rebound in outdoor recreation".</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,19 +226,156 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"ObjectName":"installed wind and PV capacity (GW)","Position":[{"Begin":[1,0],"End":[1,5],"Trend":"rising","Number":"None","Text":"a rising trend for installed wind and PV capacity (GW)"},{"ObjectName":"installed wind and PV capacity (GW)","Position":[{"Begin":[1,5],"End":[1,5],"Trend":"None","Number":[1200],"Text":"It is expected to reach 1,200 GW"},{"ObjectName":"energy percentage","Position":[{"Begin":[2,5],"End":[2,5],"Trend":"None","Number":[25.00%],"Text":"reach a 25% energy percentage in 2030"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The object in unit 1 is "installed wind and PV capacity (GW)". It has a "rising" trend from 2021 to 2030 and its descriptive phrase is 'a rising trend for installed wind and PV capacity (GW)'. The object in unit 2 is "installed wind and PV capacity (GW)". It reachs '1200' in 2030 and its descriptive phrase is 'It is expected to reach 1,200 GW'. The object in unit 3 is "energy percentage". It reaches '25%' in 2030 and its descriptive phrase is 'reach a 25% energy percentage in 2030'.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":[“Netherlands"],"Position":[{"Begin":[1,1],"End":[1,1]}],"Trend":"None","Num":[43.1],"Text":"The Netherlands ($43.1 billion)"},{"ObjectName":[“France"],"Position":[{"Begin":[2,1],"End":[2,1]}],"Trend":"None","Num":[35.3],"Text":"France ($35.3 billion)"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Real GDP for the outdoor recreation economy"], "Position":[{"Begin":[0,1],"End":[0,1],"Trend":"increase","Number":[18.9],"Text":"Inflation-adjusted ("real") GDP for the outdoor recreation economy increased 18.9 percent in 2021"},
+{"ObjectName":["U.S. economy"], "Position":["Begin":[0,2],"End":[0,2]，"Trend":"rebound","Number":[5.9],"Text":"compared with a 5.9 percent increase for the overall U.S. economy, reflecting a rebound in outdoor recreation"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Mini- and subcompact size"],"Position":[{"Begin":[6,1],"End":[6,1]}], "Trend":"declined","Num":[0.30],"Text":"the sales proportion of NEVs that were subcompact and below declined to 30%"},{"ObjectName":["Mini- and subcompact size"],"Position":[{"Begin":[0,1],"End":[0,1]}], "Trend":"None","Num":[0.61],"Text":"from 61% in 2017"},{"ObjectName":["Compact Size","Midsize to large"],"Position":[{"Begin":[6,2],"End":[6,2]},{"Begin":[6,3],"End":[6,3]}], "Trend":"upgrade trend","Num":[0.30,0.40],"Text":"the mix of compact and midsize-to-large NEVs increased to 70%"},{"ObjectName":["Compact Size","Midsize to large"],"Position":[{"Begin":[0,2],"End":[0,2]},{"Begin":[0,3],"End":[0,3]}], "Trend":"None","Num":[0.35,0.04],"Text":"the mix of compact and midsize-to-large NEVs increased to 70% from 39%"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"installed wind and PV capacity (GW)","Position":[{"Begin":[0,1],"End":[5,1]}],"Trend":"rising","Number":"None","Text":"a rising trend for installed wind and PV capacity (GW)"},{"ObjectName":"installed wind and PV capacity (GW)","Position":[{"Begin":[5,1],"End":[5,1]}],"Trend":"None","Number":[1200],"Text":"It is expected to reach 1,200 GW"},{"ObjectName":"energy percentage","Position":[{"Begin":[5,2],"End":[5,2]}],"Trend":"None","Number":[25.00%],"Text":"reach a 25% energy percentage in 2030"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":"Close","Position":[{"Begin":[39,1],"EndIndex":[141,1]}],"Trend":"Head and shoulder","Number":"None","Text":"a "head and shoulder" pattern on the Amazon stock moving averages from 1999/09/27 to 2000/02/22"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The 'cup and handle' pattern is characterized by a curved, U-shaped formation (the 'cup') followed by a brief consolidation period represented by a smaller formation (the 'handle'). This pattern is occurred around 1999.07.15 to 1999.09.29 where the cup is from 1999.07.15 to 1999.8.26 and the handle is from 1999.8.27 to 1999.09.29. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The 'rouding bottom' takes the shape of a gradual and smooth curve resembling the bottom of a bowl which is from 1990.5.11 to 1991.6.3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The 'uptrend' pattern characterizes a consistent and sustained upward movement of the value over time. Later values are usually larger. In this data, this pattern happens from around 2017/05/17 to 2018/01/26.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The 'downtrend' pattern depicts a persistent and continuous decline in the value over time. Later values are usually smaller. In this dataset, this pattern happens from around 2020/03/04 to 2020/03/23.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"Close","BeginIndex":[42,1],"EndIndex":[69,1],"Trend":"double top","Number":"None", "Text":"The chart of Amazon.com Inc. (AMZN) shows a double top pattern that formed in the stock between September and October 2018"}, {"ObjectName":"Close","BeginIndex":[70,1],"EndIndex":[102,1],"Trend":"plunges","Number":"31%","Text":"shares plunges another 31%"}]</t>
+  </si>
+  <si>
+    <t>The "Double Top" pattern is characterized by two distinct peaks and separated by a trough. This pattern often signifies a potential reversal from an uptrend to a downtrend, suggesting a shift in investor sentiment. The double top pattern in this data is from 2018.8.27 to 2018.10.4, and the two peaks exist at around 2018.09.05 and 2018.09.28. After this pattern, the value plunges from 2018.10.05 to 2018.11.20.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"price","Position":[{"Begin":[22,1],"End":[56,1]}],"Trend":"triple top","Number":"None","Text":"The "triple top" pattern happens from 2010/04/01 to 2010/05/05"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"Close","Position":[{"Begin":[51,1],"End":[104,1]}],"Trend":"cup and handle","Number":"None","Text":"a 'cup and handle' pattern in Amazon stock from 1999/07/15 to 1999/09/29"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"Close","Position":[{"Begin":[70,1],"End":[317,1]}],"Trend":"rouding bottom","Number":"None","Text":"The stock of Goodyear Tire &amp; Rubber company (GT) suffers a year-long 'rouding bottom' pattern"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"Close","Position":[{"Begin":[54,1],"End":[100,1]}],"Trend":"double bottom","Number":"None","Text":"The "double bottom" pattern happens on the 'Dow Janes Industrial (.DJI) from 2015/12/29 to 2016/03/07"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"Close","Position":[{"Begin":[76,1],"End":[250,1]}],"Trend":"uptrend","Number":"None","Text":"From 2017/05/17 to 2018/01/26, the 'Dow Janes Industrial (.DJI)' is on an uptrend"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"Close","Position":[{"Begin":[37,1],"End":[50,1]}],"Trend":"downtrend","Number":"None","Text":"From 2020/03/04 to 2020/03/23, the 'Dow Janes Industrial (.DJI) is on an downtrend"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The 'triple top' pattern has three discernible peaks at approximatrely the same level, separated by troughs. The pattern in this data is from 2010.04.01 to 2010.05.05 and the three peaks are at about 2010.04.06, 2010.04.18 and 2010.04.27.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tesla earned $53.8 billion in sales revenue in 2021. This was up from $31.5 billion earned in 2020, with a 70.64% growth in sales during 2021. In 2022, Tesla remains the largest EV manufacturer in terms of revenue and market share, followed by Volkswagen. </t>
+  </si>
+  <si>
+    <t>[{'Year': 2017, 'Annual Revenue (billions of US $)': 11.7}, {'Year': 2018, 'Annual Revenue (billions of US $)': 21.4}, {'Year': 2019, 'Annual Revenue (billions of US $)': 24.5}, {'Year': 2020, 'Annual Revenue (billions of US $)': 31.5}, {'Year': 2021, 'Annual Revenue (billions of US $)': 53.8}, {'Year': 2022, 'Annual Revenue (billions of US $)': 81.4}]</t>
+  </si>
+  <si>
+    <t>single bar</t>
+  </si>
+  <si>
+    <t>uptrend</t>
+  </si>
+  <si>
+    <t>The number of active China-focused hedge funds has slipped for the first time since at least 2012, with only five new funds launched this year as of June. Another 18 funds were liquidated, the data show.</t>
+  </si>
+  <si>
+    <t>[{'Time': 2012, 'Launches': 46, 'Liquidations': 14, 'Active': 271}, {'Time': 2013, 'Launches': 50, 'Liquidations': 18, 'Active': 303}, {'Time': 2014, 'Launches': 76, 'Liquidations': 18, 'Active': 361}, {'Time': 2015, 'Launches': 68, 'Liquidations': 18, 'Active': 411}, {'Time': 2016, 'Launches': 51, 'Liquidations': 14, 'Active': 448}, {'Time': 2017, 'Launches': 63, 'Liquidations': 20, 'Active': 491}, {'Time': 2018, 'Launches': 61, 'Liquidations': 24, 'Active': 528}, {'Time': 2019, 'Launches': 64, 'Liquidations': 19, 'Active': 573}, {'Time': 2020, 'Launches': 65, 'Liquidations': 32, 'Active': 606}, {'Time': 2021, 'Launches': 75, 'Liquidations': 17, 'Active': 664}, {'Time': 2022, 'Launches': 26, 'Liquidations': 21, 'Active': 669}, {'Time': 2023, 'Launches': 5, 'Liquidations': 18, 'Active': 656}]</t>
+  </si>
+  <si>
+    <t>multiple bar</t>
+  </si>
+  <si>
+    <t>downtrend</t>
+  </si>
+  <si>
+    <t>In 2018, Tesla's total revenue was US$19.8 billion, and BYD's total revenue was US$18.5 billion. In 2022, Tesla's total revenue was US$81.4 billion, and BYD's total revenue was US$60.5 billion. From the perspective of total revenue, Tesla and BYD are gradually widening the gap.</t>
+  </si>
+  <si>
+    <t>[{'Time': 2018, 'Tesla': 19.8, 'BYD': 18.5}, {'Time': 2019, 'Tesla': 22.6, 'BYD': 18.2}, {'Time': 2020, 'Tesla': 31.5, 'BYD': 22.3}, {'Time': 2021, 'Tesla': 53.8, 'BYD': 30.8}, {'Time': 2022, 'Tesla': 81.4, 'BYD': 60.5}]</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>China's banks extended CNY 345.9 billion in new yuan loans in July 2023, the least since November of 2009 and well below market forecasts of CNY 800 billion. The value is also much lower than CNY 679 billion a year earlier and CNY 3.05 trillion in June, after a record CNY 15.73 trillion loans in the first half of the year. The reading adds to further evidence of a lacklustre economic recovery in China although July is usually a weak month for financing activities, with banks not in a rush to meet their lending targets at the beginning of the quarter.</t>
+  </si>
+  <si>
+    <t>[{'Time': 'Jul 2022', 'Banks Balance Sheet (CNY Billion)': 679.0}, {'Time': 'Aug 2022', 'Banks Balance Sheet (CNY Billion)': 1250.0}, {'Time': 'Sep 2022', 'Banks Balance Sheet (CNY Billion)': 2470.0}, {'Time': 'Oct 2022', 'Banks Balance Sheet (CNY Billion)': 615.2}, {'Time': 'Nov 2022', 'Banks Balance Sheet (CNY Billion)': 1210.0}, {'Time': 'Dec 2022', 'Banks Balance Sheet (CNY Billion)': 1400.0}, {'Time': 'Jan 2023', 'Banks Balance Sheet (CNY Billion)': 4900.0}, {'Time': 'Feb 2023', 'Banks Balance Sheet (CNY Billion)': 1810.0}, {'Time': 'Mar 2023', 'Banks Balance Sheet (CNY Billion)': 3890.0}, {'Time': 'Apr 2023', 'Banks Balance Sheet (CNY Billion)': 718.8}, {'Time': 'May 2023', 'Banks Balance Sheet (CNY Billion)': 1360.0}, {'Time': 'Jun 2023', 'Banks Balance Sheet (CNY Billion)': 3050.0}, {'Time': 'Jul 2023', 'Banks Balance Sheet (CNY Billion)': 345.9}]</t>
+  </si>
+  <si>
+    <t>Food prices in China declined by 1.7 percent year-on-year in July 2023, reversing from a 2.3 percent rise in the prior month while pointing to the first drop since March 2022.</t>
+  </si>
+  <si>
+    <t>[{'Time': 'Aug 2022', 'Food inflation': 6.1}, {'Time': 'Sep 2022', 'Food inflation': 8.8}, {'Time': 'Oct 2022', 'Food inflation': 7.0}, {'Time': 'Nov 2022', 'Food inflation': 3.7}, {'Time': 'Dec 2022', 'Food inflation': 4.8}, {'Time': 'Jan 2023', 'Food inflation': 6.2}, {'Time': 'Feb 2023', 'Food inflation': 2.6}, {'Time': 'Mar 2023', 'Food inflation': 2.4}, {'Time': 'Apr 2023', 'Food inflation': 0.4}, {'Time': 'May 2023', 'Food inflation': 1.0}, {'Time': 'Jun 2023', 'Food inflation': 2.3}, {'Time': 'Jul 2023', 'Food inflation': -1.7}]</t>
+  </si>
+  <si>
+    <t>The British economy expanded 0.2% on quarter in Q2 2023, following a 0.1% growth in Q1 and beating forecasts of a flat reading, preliminary estimates showed.</t>
+  </si>
+  <si>
+    <t>[{'Time': '2021 Q3', 'GDP Growth Rate': 1.7}, {'Time': '2021 Q4', 'GDP Growth Rate': 1.5}, {'Time': '2022 Q1', 'GDP Growth Rate': 0.5}, {'Time': '2022 Q2', 'GDP Growth Rate': 0.1}, {'Time': '2022 Q3', 'GDP Growth Rate': -0.1}, {'Time': '2022 Q4', 'GDP Growth Rate': 0.1}, {'Time': '2023 Q1', 'GDP Growth Rate': 0.1}, {'Time': '2023 Q2', 'GDP Growth Rate': 0.2}]</t>
+  </si>
+  <si>
+    <t>Annual inflation rate in the US accelerated to 3.2% in July 2023 from 3% in June, but below forecasts of 3.3%. It marks a halt in the 12 consecutive months of declines, due to base effects.</t>
+  </si>
+  <si>
+    <t>[{'Time': 'Aug 2022', 'Inflation rate': 8.3}, {'Time': 'Sep 2022', 'Inflation rate': 8.2}, {'Time': 'Oct 2022', 'Inflation rate': 7.7}, {'Time': 'Nov 2022', 'Inflation rate': 7.1}, {'Time': 'Dec 2022', 'Inflation rate': 6.5}, {'Time': 'Jan 2023', 'Inflation rate': 6.4}, {'Time': 'Feb 2023', 'Inflation rate': 6.0}, {'Time': 'Mar 2023', 'Inflation rate': 5.0}, {'Time': 'Apr 2023', 'Inflation rate': 4.9}, {'Time': 'May 2023', 'Inflation rate': 4.1}, {'Time': 'Jun 2023', 'Inflation rate': 3.0}, {'Time': 'Jul 2023', 'Inflation rate': 3.2}]</t>
+  </si>
+  <si>
+    <t>Singapore's current account surplus declined to SGD 31.02 billion in the second quarter of 2023 from SGD 33.72 billion in the same period of 2022.</t>
+  </si>
+  <si>
+    <t>[{'Time': '2022 Q1', 'Current account (billion)': 34.43}, {'Time': '2022 Q2', 'Current account (billion)': 33.72}, {'Time': '2022 Q3', 'Current account (billion)': 32.72}, {'Time': '2022 Q4', 'Current account (billion)': 23.52}, {'Time': '2023 Q1', 'Current account (billion)': 30.55}, {'Time': '2023 Q2', 'Current account (billion)': 31.02}]</t>
+  </si>
+  <si>
+    <t>The unemployment rate in France inched up to 7.2% in the second quarter of 2023 from 7.1% in the previous quarter, and the highest since Q4 2022, as the number of unemployed people increased by 20 thousand to 2.2 million.</t>
+  </si>
+  <si>
+    <t>[{'Time': '2022 Q1', 'Unemployment rate': 7.3}, {'Time': '2022 Q2', 'Unemployment rate': 7.4}, {'Time': '2022 Q3', 'Unemployment rate': 7.3}, {'Time': '2022 Q4', 'Unemployment rate': 7.1}, {'Time': '2023 Q1', 'Unemployment rate': 7.1}, {'Time': '2023 Q2', 'Unemployment rate': 7.2}]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +389,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -325,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -333,6 +431,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -627,7 +731,7 @@
     <col min="3" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
     <col min="5" max="5" width="34.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="48.1640625" customWidth="1"/>
     <col min="7" max="7" width="26.5" customWidth="1"/>
     <col min="11" max="11" width="18.5" customWidth="1"/>
   </cols>
@@ -672,19 +776,19 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="208.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -704,13 +808,13 @@
         <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="238" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -721,16 +825,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -745,20 +849,20 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
@@ -774,14 +878,14 @@
         <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
@@ -791,17 +895,20 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
@@ -811,13 +918,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -826,7 +936,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
@@ -836,20 +946,20 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
@@ -859,17 +969,20 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>68</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
@@ -879,17 +992,20 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
@@ -899,17 +1015,20 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
@@ -919,17 +1038,180 @@
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="93" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="5">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="5">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="155" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="5">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="5">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="170.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="5">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="279" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="5">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="5">
+        <v>21</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="248" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="5">
+        <v>22</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="5">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A530379-E759-4DB0-B06A-53DE6EA47945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4669EC-E82A-4A3C-B0DA-B6F90F0DF0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="970" windowWidth="27570" windowHeight="19870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="112">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,80 +302,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>single bar</t>
+  </si>
+  <si>
+    <t>uptrend</t>
+  </si>
+  <si>
+    <t>[{'Time': 2012, 'Launches': 46, 'Liquidations': 14, 'Active': 271}, {'Time': 2013, 'Launches': 50, 'Liquidations': 18, 'Active': 303}, {'Time': 2014, 'Launches': 76, 'Liquidations': 18, 'Active': 361}, {'Time': 2015, 'Launches': 68, 'Liquidations': 18, 'Active': 411}, {'Time': 2016, 'Launches': 51, 'Liquidations': 14, 'Active': 448}, {'Time': 2017, 'Launches': 63, 'Liquidations': 20, 'Active': 491}, {'Time': 2018, 'Launches': 61, 'Liquidations': 24, 'Active': 528}, {'Time': 2019, 'Launches': 64, 'Liquidations': 19, 'Active': 573}, {'Time': 2020, 'Launches': 65, 'Liquidations': 32, 'Active': 606}, {'Time': 2021, 'Launches': 75, 'Liquidations': 17, 'Active': 664}, {'Time': 2022, 'Launches': 26, 'Liquidations': 21, 'Active': 669}, {'Time': 2023, 'Launches': 5, 'Liquidations': 18, 'Active': 656}]</t>
+  </si>
+  <si>
+    <t>multiple bar</t>
+  </si>
+  <si>
+    <t>downtrend</t>
+  </si>
+  <si>
+    <t>[{'Time': 2018, 'Tesla': 19.8, 'BYD': 18.5}, {'Time': 2019, 'Tesla': 22.6, 'BYD': 18.2}, {'Time': 2020, 'Tesla': 31.5, 'BYD': 22.3}, {'Time': 2021, 'Tesla': 53.8, 'BYD': 30.8}, {'Time': 2022, 'Tesla': 81.4, 'BYD': 60.5}]</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>[{'Time': 'Aug 2022', 'Food inflation': 6.1}, {'Time': 'Sep 2022', 'Food inflation': 8.8}, {'Time': 'Oct 2022', 'Food inflation': 7.0}, {'Time': 'Nov 2022', 'Food inflation': 3.7}, {'Time': 'Dec 2022', 'Food inflation': 4.8}, {'Time': 'Jan 2023', 'Food inflation': 6.2}, {'Time': 'Feb 2023', 'Food inflation': 2.6}, {'Time': 'Mar 2023', 'Food inflation': 2.4}, {'Time': 'Apr 2023', 'Food inflation': 0.4}, {'Time': 'May 2023', 'Food inflation': 1.0}, {'Time': 'Jun 2023', 'Food inflation': 2.3}, {'Time': 'Jul 2023', 'Food inflation': -1.7}]</t>
+  </si>
+  <si>
+    <t>[{'Time': '2021 Q3', 'GDP Growth Rate': 1.7}, {'Time': '2021 Q4', 'GDP Growth Rate': 1.5}, {'Time': '2022 Q1', 'GDP Growth Rate': 0.5}, {'Time': '2022 Q2', 'GDP Growth Rate': 0.1}, {'Time': '2022 Q3', 'GDP Growth Rate': -0.1}, {'Time': '2022 Q4', 'GDP Growth Rate': 0.1}, {'Time': '2023 Q1', 'GDP Growth Rate': 0.1}, {'Time': '2023 Q2', 'GDP Growth Rate': 0.2}]</t>
+  </si>
+  <si>
+    <t>[{'Time': 'Aug 2022', 'Inflation rate': 8.3}, {'Time': 'Sep 2022', 'Inflation rate': 8.2}, {'Time': 'Oct 2022', 'Inflation rate': 7.7}, {'Time': 'Nov 2022', 'Inflation rate': 7.1}, {'Time': 'Dec 2022', 'Inflation rate': 6.5}, {'Time': 'Jan 2023', 'Inflation rate': 6.4}, {'Time': 'Feb 2023', 'Inflation rate': 6.0}, {'Time': 'Mar 2023', 'Inflation rate': 5.0}, {'Time': 'Apr 2023', 'Inflation rate': 4.9}, {'Time': 'May 2023', 'Inflation rate': 4.1}, {'Time': 'Jun 2023', 'Inflation rate': 3.0}, {'Time': 'Jul 2023', 'Inflation rate': 3.2}]</t>
+  </si>
+  <si>
+    <t>[{'Time': '2022 Q1', 'Unemployment rate': 7.3}, {'Time': '2022 Q2', 'Unemployment rate': 7.4}, {'Time': '2022 Q3', 'Unemployment rate': 7.3}, {'Time': '2022 Q4', 'Unemployment rate': 7.1}, {'Time': '2023 Q1', 'Unemployment rate': 7.1}, {'Time': '2023 Q2', 'Unemployment rate': 7.2}]</t>
+  </si>
+  <si>
+    <t>Singapore's current account surplus declined to SGD 31.02 billion in the second quarter of 2023 from SGD 33.72 billion in the same period of 2022.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The number of active China-focused hedge funds has slipped for the first time since at least 2012, with only five new funds launched this year as of June. Another 18 funds were liquidated, the data show.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are three objects in data and text: active funds, liquidated funds and launched funds. The has a down trend in  active funds as its number keep increasing before 2023. The 'funds launched' corresponds to the column 'Launches', and the 'funds were liquidated' corresponds to the column 'Liquidation'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Tesla earned $53.8 billion in sales revenue in 2021. This was up from $31.5 billion earned in 2020, with a 70.64% growth in sales during 2021. In 2022, Tesla remains the largest EV manufacturer in terms of revenue and market share, followed by Volkswagen. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[{'Year': 2017, 'Annual Revenue (billions of US $)': 11.7}, {'Year': 2018, 'Annual Revenue (billions of US $)': 21.4}, {'Year': 2019, 'Annual Revenue (billions of US $)': 24.5}, {'Year': 2020, 'Annual Revenue (billions of US $)': 31.5}, {'Year': 2021, 'Annual Revenue (billions of US $)': 53.8}, {'Year': 2022, 'Annual Revenue (billions of US $)': 81.4}]</t>
-  </si>
-  <si>
-    <t>single bar</t>
-  </si>
-  <si>
-    <t>uptrend</t>
-  </si>
-  <si>
-    <t>The number of active China-focused hedge funds has slipped for the first time since at least 2012, with only five new funds launched this year as of June. Another 18 funds were liquidated, the data show.</t>
-  </si>
-  <si>
-    <t>[{'Time': 2012, 'Launches': 46, 'Liquidations': 14, 'Active': 271}, {'Time': 2013, 'Launches': 50, 'Liquidations': 18, 'Active': 303}, {'Time': 2014, 'Launches': 76, 'Liquidations': 18, 'Active': 361}, {'Time': 2015, 'Launches': 68, 'Liquidations': 18, 'Active': 411}, {'Time': 2016, 'Launches': 51, 'Liquidations': 14, 'Active': 448}, {'Time': 2017, 'Launches': 63, 'Liquidations': 20, 'Active': 491}, {'Time': 2018, 'Launches': 61, 'Liquidations': 24, 'Active': 528}, {'Time': 2019, 'Launches': 64, 'Liquidations': 19, 'Active': 573}, {'Time': 2020, 'Launches': 65, 'Liquidations': 32, 'Active': 606}, {'Time': 2021, 'Launches': 75, 'Liquidations': 17, 'Active': 664}, {'Time': 2022, 'Launches': 26, 'Liquidations': 21, 'Active': 669}, {'Time': 2023, 'Launches': 5, 'Liquidations': 18, 'Active': 656}]</t>
-  </si>
-  <si>
-    <t>multiple bar</t>
-  </si>
-  <si>
-    <t>downtrend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"sales revenue","DataName":"Annual Revenue (billions of US $)","Position":[{"Begin":[4,1],"End":[4,1]}],"Trend":"None","Number":[53.8],"Text":"Tesla earned $53.8 billion in sales revenue in 2021"},
+{"ObjectName":"This","DataName":"Annual Revenue (billions of US $)","Position":[{"Begin":[3,1],"End":[3,1]}],"Trend":"None","Number":[31.5],"Text":"from $31.5 billion earned in 2020"},
+{"ObjectName":"None","DataName":"Annual Revenue (billions of US $)","Position":[{"Begin":[3,1],"End":[4,1]}],"Trend":"None","Number":[70.64%],"Another 18 funds were liquidated"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The column 'Annual Revenue' corresponds to the 'sales reveue' in text. Its value is '53.8' in 2021 and '31.5' in 2020. The 'Annual Revenue' has a '70.64%'  growth between '31.5' in 2020 and '53.8' in 2021. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>In 2018, Tesla's total revenue was US$19.8 billion, and BYD's total revenue was US$18.5 billion. In 2022, Tesla's total revenue was US$81.4 billion, and BYD's total revenue was US$60.5 billion. From the perspective of total revenue, Tesla and BYD are gradually widening the gap.</t>
-  </si>
-  <si>
-    <t>[{'Time': 2018, 'Tesla': 19.8, 'BYD': 18.5}, {'Time': 2019, 'Tesla': 22.6, 'BYD': 18.2}, {'Time': 2020, 'Tesla': 31.5, 'BYD': 22.3}, {'Time': 2021, 'Tesla': 53.8, 'BYD': 30.8}, {'Time': 2022, 'Tesla': 81.4, 'BYD': 60.5}]</t>
-  </si>
-  <si>
-    <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"Tesla's total revenue","DataName":"Tesla","Position":[{"Begin":[0,1],"End":[0,1]}],"Trend":"None","Number":[19.8],"Text":"In 2018, Tesla's total revenue was US$19.8 billion"},{"ObjectName":"BYD's total revenue","DataName":"BYD","Position":[{"Begin":[0,2],"End":[0,2]}],"Trend":"None","Number":[18.5],"Text":"BYD's total revenue was US$18.5 billion"},{"ObjectName":"Tesla's total revenue","DataName":"Tesla","Position":[{"Begin":[4,1],"End":[4,1]}],"Trend":"None","Number":[81.4],"Text":"In 2022, Tesla's total revenue was US$81.4 billion"},{"ObjectName":"BYD's total revenue","DataName":"BYD","Position":[{"Begin":[4,2],"End":[4,2]}],"Trend":"None","Number":[60.5],"Text":"BYD's total revenue was US$60.5 billion"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The column 'Tesla' corresponds to 'Tesla's total revenue' in text and the column 'BYD' corresponds to 'BYD's total revenue'. In 2018, Tesla's value is '19.8' and BYD's value is '18.5'. In 2022, Tesla's value is '81.4' while BYD's value is '60.5'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"active China-focused hedge funds","DataName":"Active","Position":[{"Begin":[11,3],"End":[11,3]}],"Trend":"slipped","Number":"None","Text":"The number of active China-focused hedge funds has slipped for the first time since at least 2012"},{"ObjectName":"funds launched","DataName":"Launches","Position":[{"Begin":[11,1],"End":[11,1]}],"Trend":"None","Number":[5],"Text":"only five new funds launched this year as of June"},{"ObjectName":"funds were liquidated","DataName":"Liquidations","Position":[{"Begin":[11,2],"End":[11,2]}],"Trend":"None","Number":[18],"Text":"Another 18 funds were liquidated"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food prices in China declined by 1.7 percent year-on-year in July 2023, reversing from a 2.3 percent rise in the prior month while pointing to the first drop since March 2022.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"Food prices","DataName":"Food inflation","Position":[{"Begin":[11,1],"End":[11,1]}],"Trend":"declined","Number":[-1.7],"Text":"Food prices in China declined by 1.7 percent year-on-year in July 2023"},
+{"ObjectName":"None","DataName":"Food inflation","Position":[{"Begin":[10,1],"End":[10,1]}],"Trend":"reversing","Number":[2.3],"Text":"reversing from a 2.3 percent rise in the prior month"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The column 'Food inflation' corresponds to the 'Food prices' in the text. The 'declined by 1.7 percent' corresponds to the '-1.7' in data, and 'reversing' value corresponds to '2.3'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annual inflation rate in the US accelerated to 3.2% in July 2023 from 3% in June, but below forecasts of 3.3%. It marks a halt in the 12 consecutive months of declines, due to base effects.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"Annual inflation rate","DataName":"Inflation rate","Position":[{"Begin":[10,1],"End":[11,1]}],"Trend":"accelerate","Number":[3,3.2],"Text":"Annual inflation rate in the US accelerated to 3.2% in July 2023 from 3% in June"},{"ObjectName":"It","DataName":"Inflation rate","Position":[{"Begin":[0,1],"End":[11,1]}],"Trend":"decline","Number":"None,"Text":"It marks a halt in the 12 consecutive months of declines"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The column 'Inflation rate' corresponds to the 'Annual inflation rate' and 'it' in the text. The annual inflation rate acceletated from 3% in June to 3.2% in July, which corresponds the 'Jun 2023' row and the 'Jul 2023' row. The 12 consecutive months of declines correspond to the interval from 'Aug 2022' to 'Jun 2023'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The column 'GDP Growth Rate' corresponds to 'The British economy' in the text. The '0.2% on quarter in Q2 2023' corresponds to row '2023 Q2' and the '0.1% growth in Q1' corresponds to row '2023 Q1'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The British economy expanded 0.2% on quarter in Q2 2023, following a 0.1% growth in Q1 and beating forecasts of a flat reading, preliminary estimates showed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"The British economy","DataName":"GDP Growth Rate","Position":[{"Begin":[7,1],"End":[6,1]}],"Trend":"expanded","Number":[0.2,0.1],"Text":"The British economy expanded 0.2% on quarter in Q2 2023, following a 0.1% growth in Q1"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>China's banks extended CNY 345.9 billion in new yuan loans in July 2023, the least since November of 2009 and well below market forecasts of CNY 800 billion. The value is also much lower than CNY 679 billion a year earlier and CNY 3.05 trillion in June, after a record CNY 15.73 trillion loans in the first half of the year. The reading adds to further evidence of a lacklustre economic recovery in China although July is usually a weak month for financing activities, with banks not in a rush to meet their lending targets at the beginning of the quarter.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[{'Time': 'Jul 2022', 'Banks Balance Sheet (CNY Billion)': 679.0}, {'Time': 'Aug 2022', 'Banks Balance Sheet (CNY Billion)': 1250.0}, {'Time': 'Sep 2022', 'Banks Balance Sheet (CNY Billion)': 2470.0}, {'Time': 'Oct 2022', 'Banks Balance Sheet (CNY Billion)': 615.2}, {'Time': 'Nov 2022', 'Banks Balance Sheet (CNY Billion)': 1210.0}, {'Time': 'Dec 2022', 'Banks Balance Sheet (CNY Billion)': 1400.0}, {'Time': 'Jan 2023', 'Banks Balance Sheet (CNY Billion)': 4900.0}, {'Time': 'Feb 2023', 'Banks Balance Sheet (CNY Billion)': 1810.0}, {'Time': 'Mar 2023', 'Banks Balance Sheet (CNY Billion)': 3890.0}, {'Time': 'Apr 2023', 'Banks Balance Sheet (CNY Billion)': 718.8}, {'Time': 'May 2023', 'Banks Balance Sheet (CNY Billion)': 1360.0}, {'Time': 'Jun 2023', 'Banks Balance Sheet (CNY Billion)': 3050.0}, {'Time': 'Jul 2023', 'Banks Balance Sheet (CNY Billion)': 345.9}]</t>
-  </si>
-  <si>
-    <t>Food prices in China declined by 1.7 percent year-on-year in July 2023, reversing from a 2.3 percent rise in the prior month while pointing to the first drop since March 2022.</t>
-  </si>
-  <si>
-    <t>[{'Time': 'Aug 2022', 'Food inflation': 6.1}, {'Time': 'Sep 2022', 'Food inflation': 8.8}, {'Time': 'Oct 2022', 'Food inflation': 7.0}, {'Time': 'Nov 2022', 'Food inflation': 3.7}, {'Time': 'Dec 2022', 'Food inflation': 4.8}, {'Time': 'Jan 2023', 'Food inflation': 6.2}, {'Time': 'Feb 2023', 'Food inflation': 2.6}, {'Time': 'Mar 2023', 'Food inflation': 2.4}, {'Time': 'Apr 2023', 'Food inflation': 0.4}, {'Time': 'May 2023', 'Food inflation': 1.0}, {'Time': 'Jun 2023', 'Food inflation': 2.3}, {'Time': 'Jul 2023', 'Food inflation': -1.7}]</t>
-  </si>
-  <si>
-    <t>The British economy expanded 0.2% on quarter in Q2 2023, following a 0.1% growth in Q1 and beating forecasts of a flat reading, preliminary estimates showed.</t>
-  </si>
-  <si>
-    <t>[{'Time': '2021 Q3', 'GDP Growth Rate': 1.7}, {'Time': '2021 Q4', 'GDP Growth Rate': 1.5}, {'Time': '2022 Q1', 'GDP Growth Rate': 0.5}, {'Time': '2022 Q2', 'GDP Growth Rate': 0.1}, {'Time': '2022 Q3', 'GDP Growth Rate': -0.1}, {'Time': '2022 Q4', 'GDP Growth Rate': 0.1}, {'Time': '2023 Q1', 'GDP Growth Rate': 0.1}, {'Time': '2023 Q2', 'GDP Growth Rate': 0.2}]</t>
-  </si>
-  <si>
-    <t>Annual inflation rate in the US accelerated to 3.2% in July 2023 from 3% in June, but below forecasts of 3.3%. It marks a halt in the 12 consecutive months of declines, due to base effects.</t>
-  </si>
-  <si>
-    <t>[{'Time': 'Aug 2022', 'Inflation rate': 8.3}, {'Time': 'Sep 2022', 'Inflation rate': 8.2}, {'Time': 'Oct 2022', 'Inflation rate': 7.7}, {'Time': 'Nov 2022', 'Inflation rate': 7.1}, {'Time': 'Dec 2022', 'Inflation rate': 6.5}, {'Time': 'Jan 2023', 'Inflation rate': 6.4}, {'Time': 'Feb 2023', 'Inflation rate': 6.0}, {'Time': 'Mar 2023', 'Inflation rate': 5.0}, {'Time': 'Apr 2023', 'Inflation rate': 4.9}, {'Time': 'May 2023', 'Inflation rate': 4.1}, {'Time': 'Jun 2023', 'Inflation rate': 3.0}, {'Time': 'Jul 2023', 'Inflation rate': 3.2}]</t>
-  </si>
-  <si>
-    <t>Singapore's current account surplus declined to SGD 31.02 billion in the second quarter of 2023 from SGD 33.72 billion in the same period of 2022.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"China's banks","DataName":"Banks Balance Sheet (CNY Billion)","Position":[{"Begin":[12,1],"End":[12,1]}],"Trend":"least","Number":[345.9],"Text":"China's banks extended CNY 345.9 billion in new yuan loans in July 2023"},{"ObjectName":"The value","DataName":"Banks Balance Sheet (CNY Billion)","Position":[{"Begin":[0,1],"End":[11,1]}],"Trend":"lower","Number":[679,3050],"Text":"China's banks extended CNY 345.9 billion in new yuan loans in July 2023"},{"ObjectName":"a record","DataName":"Banks Balance Sheet (CNY Billion)","Position":[{"Begin":[6,1],"End":[11,1]}],"Trend":"None","Number":[15.73],"Text":"a record CNY 15.73 trillion loans in the first half of the year"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The column 'Banks Balance Sheet (CNY Billion)' corresponds to 'China's banks' and 'The value' in the text. 'The value' correspond to the value in July 2023, and the 'CNY 679 billion a year earlier' corresponds the time 'Jul 2022. The value 'CNY 15.73 trillion' is the sum of of 'Banks Balance Sheet' from 'Jan 2023' to 'Jun 2023'. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[{'Time': '2022 Q1', 'Current account (billion)': 34.43}, {'Time': '2022 Q2', 'Current account (billion)': 33.72}, {'Time': '2022 Q3', 'Current account (billion)': 32.72}, {'Time': '2022 Q4', 'Current account (billion)': 23.52}, {'Time': '2023 Q1', 'Current account (billion)': 30.55}, {'Time': '2023 Q2', 'Current account (billion)': 31.02}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"Singapore's current account surplus","DataName":"Current account (billion)","Position":[{"Begin":[1,1],"End":[5,1]}],"Trend":"declined","Number":[31.02,33.72],"Text":"Singapore's current account surplus declined to SGD 31.02 billion in the second quarter of 2023from SGD 33.72 billion in the same period of 2022"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The text ’Singapore's current account surplus' corresponds to the column 'Current account (billion)' in data. Its value is SGD 31.02 billion in the second quarter of 2023 and is SGD 33.72 in the second quarter of 2022, which shows a declined pattern.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The unemployment rate in France inched up to 7.2% in the second quarter of 2023 from 7.1% in the previous quarter, and the highest since Q4 2022, as the number of unemployed people increased by 20 thousand to 2.2 million.</t>
-  </si>
-  <si>
-    <t>[{'Time': '2022 Q1', 'Unemployment rate': 7.3}, {'Time': '2022 Q2', 'Unemployment rate': 7.4}, {'Time': '2022 Q3', 'Unemployment rate': 7.3}, {'Time': '2022 Q4', 'Unemployment rate': 7.1}, {'Time': '2023 Q1', 'Unemployment rate': 7.1}, {'Time': '2023 Q2', 'Unemployment rate': 7.2}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"The unemployment rate in France","DataName":"Unemployment rate","Position":[{"Begin":[4,1],"End":[5,1]}],"Trend":"inched up","Number":[7.1,7.2],"Text":"The unemployment rate in France inched up to 7.2% in the second quarter of 2023 from 7.1% in the previous quarter"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The unemployment rate in France' in text corresponds to the column 'Unemployment rate' in data. The 'second quarter of 2023' corresponds to '2023 Q2' and 'the previous quarter' corresponds to '2023 Q1'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,13 +478,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +504,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,20 +526,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,499 +828,551 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="42" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="48.1640625" customWidth="1"/>
-    <col min="7" max="7" width="26.5" customWidth="1"/>
-    <col min="11" max="11" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="48.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="1" customWidth="1"/>
+    <col min="8" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="18.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="128.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="208.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="238" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="201" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C9">
+      <c r="C9" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>13</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" ht="93" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="98" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="6">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="E16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="155" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="6">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="154" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="6">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="98" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="6">
+        <v>18</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="140" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="6">
+        <v>19</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="238" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="6">
+        <v>20</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="6">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="224" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="6">
+        <v>22</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="5">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="E23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="5">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="155" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="5">
-        <v>17</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="G23" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="203" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="6">
+        <v>23</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="124" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="5">
-        <v>18</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="5">
-        <v>19</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="279" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="5">
-        <v>20</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="5">
-        <v>21</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="248" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="5">
-        <v>22</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="5">
-        <v>23</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4669EC-E82A-4A3C-B0DA-B6F90F0DF0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C311BE2E-125A-409E-BCD6-447CEDE9D128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="120">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,14 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The "head and shoulder" pattern consists of three rises and falls from three localized highs. The high point in the center is higher than the other two. This pattern is around from '1999/09/27' to '2000/02/22' and the middle high point exist on '1999/12/09'.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The "double bottom" pattern has two lows. The first low in the data is at 2016/01/20 , and the second low is at 2016/02/11.  This pattern is around from '2015/12/29' to '2016/03/07'.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The "double bottom" pattern happens on the 'Dow Janes Industrial (.DJI) from 2015/12/29 to 2016/03/07.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,10 +155,6 @@
     <t>[{'Date': '2018/6/27', 'Close': 83.025497}, {'Date': '2018/6/28', 'Close': 85.072502}, {'Date': '2018/6/29', 'Close': 84.989998}, {'Date': '2018/7/2', 'Close': 85.689003}, {'Date': '2018/7/3', 'Close': 84.697998}, {'Date': '2018/7/5', 'Close': 84.986504}, {'Date': '2018/7/6', 'Close': 85.531502}, {'Date': '2018/7/9', 'Close': 86.950996}, {'Date': '2018/7/10', 'Close': 87.153503}, {'Date': '2018/7/11', 'Close': 87.75}, {'Date': '2018/7/12', 'Close': 89.831001}, {'Date': '2018/7/13', 'Close': 90.651497}, {'Date': '2018/7/16', 'Close': 91.124496}, {'Date': '2018/7/17', 'Close': 92.196503}, {'Date': '2018/7/18', 'Close': 92.146004}, {'Date': '2018/7/19', 'Close': 90.648499}, {'Date': '2018/7/20', 'Close': 90.684998}, {'Date': '2018/7/23', 'Close': 90.099998}, {'Date': '2018/7/24', 'Close': 91.461998}, {'Date': '2018/7/25', 'Close': 93.180496}, {'Date': '2018/7/26', 'Close': 90.400002}, {'Date': '2018/7/27', 'Close': 90.863503}, {'Date': '2018/7/30', 'Close': 88.960999}, {'Date': '2018/7/31', 'Close': 88.872002}, {'Date': '2018/8/1', 'Close': 89.858498}, {'Date': '2018/8/2', 'Close': 91.716499}, {'Date': '2018/8/3', 'Close': 91.164497}, {'Date': '2018/8/6', 'Close': 92.387497}, {'Date': '2018/8/7', 'Close': 93.124001}, {'Date': '2018/8/8', 'Close': 94.325996}, {'Date': '2018/8/9', 'Close': 94.926003}, {'Date': '2018/8/10', 'Close': 94.315002}, {'Date': '2018/8/13', 'Close': 94.809998}, {'Date': '2018/8/14', 'Close': 95.982498}, {'Date': '2018/8/15', 'Close': 94.130997}, {'Date': '2018/8/16', 'Close': 94.325996}, {'Date': '2018/8/17', 'Close': 94.111}, {'Date': '2018/8/20', 'Close': 93.835503}, {'Date': '2018/8/21', 'Close': 94.170998}, {'Date': '2018/8/22', 'Close': 95.245003}, {'Date': '2018/8/23', 'Close': 95.144997}, {'Date': '2018/8/24', 'Close': 95.269501}, {'Date': '2018/8/27', 'Close': 96.384003}, {'Date': '2018/8/28', 'Close': 96.640999}, {'Date': '2018/8/29', 'Close': 99.904999}, {'Date': '2018/8/30', 'Close': 100.119003}, {'Date': '2018/8/31', 'Close': 100.635498}, {'Date': '2018/9/4', 'Close': 101.975502}, {'Date': '2018/9/5', 'Close': 101.740997}, {'Date': '2018/9/6', 'Close': 99.915497}, {'Date': '2018/9/7', 'Close': 98.6035}, {'Date': '2018/9/10', 'Close': 97.9505}, {'Date': '2018/9/11', 'Close': 97.357498}, {'Date': '2018/9/12', 'Close': 96.93}, {'Date': '2018/9/13', 'Close': 96.7935}, {'Date': '2018/9/14', 'Close': 96.809499}, {'Date': '2018/9/17', 'Close': 96.901497}, {'Date': '2018/9/18', 'Close': 97.052498}, {'Date': '2018/9/19', 'Close': 96.320999}, {'Date': '2018/9/20', 'Close': 97.214996}, {'Date': '2018/9/21', 'Close': 95.750504}, {'Date': '2018/9/24', 'Close': 96.718002}, {'Date': '2018/9/25', 'Close': 98.727501}, {'Date': '2018/9/26', 'Close': 98.7425}, {'Date': '2018/9/27', 'Close': 100.649002}, {'Date': '2018/9/28', 'Close': 100.150002}, {'Date': '2018/10/1', 'Close': 100.218002}, {'Date': '2018/10/2', 'Close': 98.565498}, {'Date': '2018/10/3', 'Close': 97.638}, {'Date': '2018/10/4', 'Close': 95.471001}, {'Date': '2018/10/5', 'Close': 94.482498}, {'Date': '2018/10/8', 'Close': 93.221001}, {'Date': '2018/10/9', 'Close': 93.515999}, {'Date': '2018/10/10', 'Close': 87.762497}, {'Date': '2018/10/11', 'Close': 85.968002}, {'Date': '2018/10/12', 'Close': 89.430496}, {'Date': '2018/10/15', 'Close': 88.047501}, {'Date': '2018/10/16', 'Close': 90.998001}, {'Date': '2018/10/17', 'Close': 91.586502}, {'Date': '2018/10/18', 'Close': 88.536003}, {'Date': '2018/10/19', 'Close': 88.2015}, {'Date': '2018/10/22', 'Close': 89.464996}, {'Date': '2018/10/23', 'Close': 88.434998}, {'Date': '2018/10/24', 'Close': 83.209999}, {'Date': '2018/10/25', 'Close': 89.108498}, {'Date': '2018/10/26', 'Close': 82.140503}, {'Date': '2018/10/29', 'Close': 76.944}, {'Date': '2018/10/30', 'Close': 76.521004}, {'Date': '2018/10/31', 'Close': 79.900497}, {'Date': '2018/11/1', 'Close': 83.276497}, {'Date': '2018/11/2', 'Close': 83.276497}, {'Date': '2018/11/5', 'Close': 81.389999}, {'Date': '2018/11/6', 'Close': 82.140503}, {'Date': '2018/11/7', 'Close': 87.774498}, {'Date': '2018/11/8', 'Close': 87.745499}, {'Date': '2018/11/9', 'Close': 85.621498}, {'Date': '2018/11/12', 'Close': 81.842499}, {'Date': '2018/11/13', 'Close': 81.558502}, {'Date': '2018/11/14', 'Close': 79.9505}, {'Date': '2018/11/15', 'Close': 80.972}, {'Date': '2018/11/16', 'Close': 79.670502}, {'Date': '2018/11/19', 'Close': 75.614502}, {'Date': '2018/11/20', 'Close': 74.773003}]</t>
   </si>
   <si>
-    <t xml:space="preserve">The "triple top" pattern happens from 2010/04/01 to 2010/05/05. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{'time': '2010/3/10', 'price': 96.4}, {'time': '2010/3/11', 'price': 98.8}, {'time': '2010/3/12', 'price': 101.23}, {'time': '2010/3/13', 'price': 98.6}, {'time': '2010/3/14', 'price': 96.5}, {'time': '2010/3/15', 'price': 94.3}, {'time': '2010/3/16', 'price': 98.023}, {'time': '2010/3/17', 'price': 97.25}, {'time': '2010/3/18', 'price': 98.089}, {'time': '2010/3/19', 'price': 98.144}, {'time': '2010/3/20', 'price': 98.899}, {'time': '2010/3/21', 'price': 100.001}, {'time': '2010/3/22', 'price': 102.2}, {'time': '2010/3/23', 'price': 103.7}, {'time': '2010/3/24', 'price': 102.46}, {'time': '2010/3/25', 'price': 99.46}, {'time': '2010/3/26', 'price': 97.01}, {'time': '2010/3/27', 'price': 99.14}, {'time': '2010/3/28', 'price': 100.74}, {'time': '2010/3/29', 'price': 104.58}, {'time': '2010/3/30', 'price': 105.31}, {'time': '2010/3/31', 'price': 107.07}, {'time': '2010/4/1', 'price': 110.13}, {'time': '2010/4/2', 'price': 111.26}, {'time': '2010/4/3', 'price': 113.0}, {'time': '2010/4/4', 'price': 115.8}, {'time': '2010/4/5', 'price': 116.6}, {'time': '2010/4/6', 'price': 117.0}, {'time': '2010/4/7', 'price': 116.7}, {'time': '2010/4/8', 'price': 116.5}, {'time': '2010/4/9', 'price': 116.6}, {'time': '2010/4/10', 'price': 116.7}, {'time': '2010/4/11', 'price': 116.0}, {'time': '2010/4/12', 'price': 115.0}, {'time': '2010/4/13', 'price': 112.9}, {'time': '2010/4/14', 'price': 112.7}, {'time': '2010/4/15', 'price': 113.0}, {'time': '2010/4/16', 'price': 113.2}, {'time': '2010/4/17', 'price': 114.6}, {'time': '2010/4/18', 'price': 115.5}, {'time': '2010/4/19', 'price': 117.8}, {'time': '2010/4/20', 'price': 117.6}, {'time': '2010/4/21', 'price': 116.2}, {'time': '2010/4/22', 'price': 115.2}, {'time': '2010/4/23', 'price': 114.4}, {'time': '2010/4/24', 'price': 113.0}, {'time': '2010/4/25', 'price': 112.8}, {'time': '2010/4/26', 'price': 113.8}, {'time': '2010/4/27', 'price': 116.0}, {'time': '2010/4/28', 'price': 115.5}, {'time': '2010/4/29', 'price': 114.9}, {'time': '2010/4/30', 'price': 114.7}, {'time': '2010/5/1', 'price': 112.2}, {'time': '2010/5/2', 'price': 111.4}, {'time': '2010/5/3', 'price': 110.8}, {'time': '2010/5/4', 'price': 110.9}, {'time': '2010/5/5', 'price': 109.9}, {'time': '2010/5/6', 'price': 106.8}, {'time': '2010/5/7', 'price': 105.5}, {'time': '2010/5/8', 'price': 104.6}, {'time': '2010/5/9', 'price': 106.5}, {'time': '2010/5/10', 'price': 110.5}, {'time': '2010/5/11', 'price': 111.0}, {'time': '2010/5/12', 'price': 110.6}, {'time': '2010/5/13', 'price': 110.2}, {'time': '2010/5/14', 'price': 104.9}, {'time': '2010/5/15', 'price': 105.8}, {'time': '2010/5/16', 'price': 106.6}, {'time': '2010/5/17', 'price': 106.0}, {'time': '2010/5/18', 'price': 105.6}, {'time': '2010/5/19', 'price': 106.0}, {'time': '2010/5/20', 'price': 105.0}, {'time': '2010/5/21', 'price': 106.6}, {'time': '2010/5/22', 'price': 106.9}, {'time': '2010/5/23', 'price': 107.7}, {'time': '2010/5/24', 'price': 110.3}, {'time': '2010/5/25', 'price': 111.5}, {'time': '2010/5/26', 'price': 110.4}, {'time': '2010/5/27', 'price': 107.0}, {'time': '2010/5/28', 'price': 105.5}, {'time': '2010/5/29', 'price': 103.0}]</t>
   </si>
   <si>
@@ -202,18 +190,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄色代表我改过了！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The corresponding value for object "Netherlands" is "43.1", and its shortest descriptive phrase is "The Netherlands ($43.1 billion)". The corresponding value for object "France" is "35.3" and its shortest descriptive phrase is "France ($35.3 billion)"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"ObjectName":[],"Position":[{"Begin":[,],"End":[,]}], "Trend":"None","Num":[],"Text":"..."}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The first object is "Inflation-adjusted ("real") GDP for the outdoor recreation economy"， its value is 18.9 and its descriptive phrase is "Inflation-adjusted ("real") GDP for the outdoor recreation economy increased 18.9 percent in 2021". The second object is "U.S. economy", its value is 5.9 and its descriptive phrase is "compared with a 5.9 percent increase for the overall U.S. economy, reflecting a rebound in outdoor recreation".</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,82 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The object in unit 1 is "installed wind and PV capacity (GW)". It has a "rising" trend from 2021 to 2030 and its descriptive phrase is 'a rising trend for installed wind and PV capacity (GW)'. The object in unit 2 is "installed wind and PV capacity (GW)". It reachs '1200' in 2030 and its descriptive phrase is 'It is expected to reach 1,200 GW'. The object in unit 3 is "energy percentage". It reaches '25%' in 2030 and its descriptive phrase is 'reach a 25% energy percentage in 2030'.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":[“Netherlands"],"Position":[{"Begin":[1,1],"End":[1,1]}],"Trend":"None","Num":[43.1],"Text":"The Netherlands ($43.1 billion)"},{"ObjectName":[“France"],"Position":[{"Begin":[2,1],"End":[2,1]}],"Trend":"None","Num":[35.3],"Text":"France ($35.3 billion)"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["Real GDP for the outdoor recreation economy"], "Position":[{"Begin":[0,1],"End":[0,1],"Trend":"increase","Number":[18.9],"Text":"Inflation-adjusted ("real") GDP for the outdoor recreation economy increased 18.9 percent in 2021"},
-{"ObjectName":["U.S. economy"], "Position":["Begin":[0,2],"End":[0,2]，"Trend":"rebound","Number":[5.9],"Text":"compared with a 5.9 percent increase for the overall U.S. economy, reflecting a rebound in outdoor recreation"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["Mini- and subcompact size"],"Position":[{"Begin":[6,1],"End":[6,1]}], "Trend":"declined","Num":[0.30],"Text":"the sales proportion of NEVs that were subcompact and below declined to 30%"},{"ObjectName":["Mini- and subcompact size"],"Position":[{"Begin":[0,1],"End":[0,1]}], "Trend":"None","Num":[0.61],"Text":"from 61% in 2017"},{"ObjectName":["Compact Size","Midsize to large"],"Position":[{"Begin":[6,2],"End":[6,2]},{"Begin":[6,3],"End":[6,3]}], "Trend":"upgrade trend","Num":[0.30,0.40],"Text":"the mix of compact and midsize-to-large NEVs increased to 70%"},{"ObjectName":["Compact Size","Midsize to large"],"Position":[{"Begin":[0,2],"End":[0,2]},{"Begin":[0,3],"End":[0,3]}], "Trend":"None","Num":[0.35,0.04],"Text":"the mix of compact and midsize-to-large NEVs increased to 70% from 39%"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"installed wind and PV capacity (GW)","Position":[{"Begin":[0,1],"End":[5,1]}],"Trend":"rising","Number":"None","Text":"a rising trend for installed wind and PV capacity (GW)"},{"ObjectName":"installed wind and PV capacity (GW)","Position":[{"Begin":[5,1],"End":[5,1]}],"Trend":"None","Number":[1200],"Text":"It is expected to reach 1,200 GW"},{"ObjectName":"energy percentage","Position":[{"Begin":[5,2],"End":[5,2]}],"Trend":"None","Number":[25.00%],"Text":"reach a 25% energy percentage in 2030"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"ObjectName":"Close","Position":[{"Begin":[39,1],"EndIndex":[141,1]}],"Trend":"Head and shoulder","Number":"None","Text":"a "head and shoulder" pattern on the Amazon stock moving averages from 1999/09/27 to 2000/02/22"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The 'cup and handle' pattern is characterized by a curved, U-shaped formation (the 'cup') followed by a brief consolidation period represented by a smaller formation (the 'handle'). This pattern is occurred around 1999.07.15 to 1999.09.29 where the cup is from 1999.07.15 to 1999.8.26 and the handle is from 1999.8.27 to 1999.09.29. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The 'rouding bottom' takes the shape of a gradual and smooth curve resembling the bottom of a bowl which is from 1990.5.11 to 1991.6.3.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The 'uptrend' pattern characterizes a consistent and sustained upward movement of the value over time. Later values are usually larger. In this data, this pattern happens from around 2017/05/17 to 2018/01/26.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The 'downtrend' pattern depicts a persistent and continuous decline in the value over time. Later values are usually smaller. In this dataset, this pattern happens from around 2020/03/04 to 2020/03/23.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"Close","BeginIndex":[42,1],"EndIndex":[69,1],"Trend":"double top","Number":"None", "Text":"The chart of Amazon.com Inc. (AMZN) shows a double top pattern that formed in the stock between September and October 2018"}, {"ObjectName":"Close","BeginIndex":[70,1],"EndIndex":[102,1],"Trend":"plunges","Number":"31%","Text":"shares plunges another 31%"}]</t>
-  </si>
-  <si>
-    <t>The "Double Top" pattern is characterized by two distinct peaks and separated by a trough. This pattern often signifies a potential reversal from an uptrend to a downtrend, suggesting a shift in investor sentiment. The double top pattern in this data is from 2018.8.27 to 2018.10.4, and the two peaks exist at around 2018.09.05 and 2018.09.28. After this pattern, the value plunges from 2018.10.05 to 2018.11.20.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"price","Position":[{"Begin":[22,1],"End":[56,1]}],"Trend":"triple top","Number":"None","Text":"The "triple top" pattern happens from 2010/04/01 to 2010/05/05"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"Close","Position":[{"Begin":[51,1],"End":[104,1]}],"Trend":"cup and handle","Number":"None","Text":"a 'cup and handle' pattern in Amazon stock from 1999/07/15 to 1999/09/29"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"Close","Position":[{"Begin":[70,1],"End":[317,1]}],"Trend":"rouding bottom","Number":"None","Text":"The stock of Goodyear Tire &amp; Rubber company (GT) suffers a year-long 'rouding bottom' pattern"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"Close","Position":[{"Begin":[54,1],"End":[100,1]}],"Trend":"double bottom","Number":"None","Text":"The "double bottom" pattern happens on the 'Dow Janes Industrial (.DJI) from 2015/12/29 to 2016/03/07"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"Close","Position":[{"Begin":[76,1],"End":[250,1]}],"Trend":"uptrend","Number":"None","Text":"From 2017/05/17 to 2018/01/26, the 'Dow Janes Industrial (.DJI)' is on an uptrend"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"Close","Position":[{"Begin":[37,1],"End":[50,1]}],"Trend":"downtrend","Number":"None","Text":"From 2020/03/04 to 2020/03/23, the 'Dow Janes Industrial (.DJI) is on an downtrend"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The 'triple top' pattern has three discernible peaks at approximatrely the same level, separated by troughs. The pattern in this data is from 2010.04.01 to 2010.05.05 and the three peaks are at about 2010.04.06, 2010.04.18 and 2010.04.27.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>single bar</t>
   </si>
   <si>
@@ -355,106 +259,235 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"ObjectName":"sales revenue","DataName":"Annual Revenue (billions of US $)","Position":[{"Begin":[4,1],"End":[4,1]}],"Trend":"None","Number":[53.8],"Text":"Tesla earned $53.8 billion in sales revenue in 2021"},
-{"ObjectName":"This","DataName":"Annual Revenue (billions of US $)","Position":[{"Begin":[3,1],"End":[3,1]}],"Trend":"None","Number":[31.5],"Text":"from $31.5 billion earned in 2020"},
+    <t xml:space="preserve">The column 'Annual Revenue' corresponds to the 'sales reveue' in text. Its value is '53.8' in 2021 and '31.5' in 2020. The 'Annual Revenue' has a '70.64%'  growth between '31.5' in 2020 and '53.8' in 2021. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In 2018, Tesla's total revenue was US$19.8 billion, and BYD's total revenue was US$18.5 billion. In 2022, Tesla's total revenue was US$81.4 billion, and BYD's total revenue was US$60.5 billion. From the perspective of total revenue, Tesla and BYD are gradually widening the gap.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The column 'Tesla' corresponds to 'Tesla's total revenue' in text and the column 'BYD' corresponds to 'BYD's total revenue'. In 2018, Tesla's value is '19.8' and BYD's value is '18.5'. In 2022, Tesla's value is '81.4' while BYD's value is '60.5'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food prices in China declined by 1.7 percent year-on-year in July 2023, reversing from a 2.3 percent rise in the prior month while pointing to the first drop since March 2022.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The column 'Food inflation' corresponds to the 'Food prices' in the text. The 'declined by 1.7 percent' corresponds to the '-1.7' in data, and 'reversing' value corresponds to '2.3'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annual inflation rate in the US accelerated to 3.2% in July 2023 from 3% in June, but below forecasts of 3.3%. It marks a halt in the 12 consecutive months of declines, due to base effects.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The column 'Inflation rate' corresponds to the 'Annual inflation rate' and 'it' in the text. The annual inflation rate acceletated from 3% in June to 3.2% in July, which corresponds the 'Jun 2023' row and the 'Jul 2023' row. The 12 consecutive months of declines correspond to the interval from 'Aug 2022' to 'Jun 2023'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The column 'GDP Growth Rate' corresponds to 'The British economy' in the text. The '0.2% on quarter in Q2 2023' corresponds to row '2023 Q2' and the '0.1% growth in Q1' corresponds to row '2023 Q1'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The British economy expanded 0.2% on quarter in Q2 2023, following a 0.1% growth in Q1 and beating forecasts of a flat reading, preliminary estimates showed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>China's banks extended CNY 345.9 billion in new yuan loans in July 2023, the least since November of 2009 and well below market forecasts of CNY 800 billion. The value is also much lower than CNY 679 billion a year earlier and CNY 3.05 trillion in June, after a record CNY 15.73 trillion loans in the first half of the year. The reading adds to further evidence of a lacklustre economic recovery in China although July is usually a weak month for financing activities, with banks not in a rush to meet their lending targets at the beginning of the quarter.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Time': 'Jul 2022', 'Banks Balance Sheet (CNY Billion)': 679.0}, {'Time': 'Aug 2022', 'Banks Balance Sheet (CNY Billion)': 1250.0}, {'Time': 'Sep 2022', 'Banks Balance Sheet (CNY Billion)': 2470.0}, {'Time': 'Oct 2022', 'Banks Balance Sheet (CNY Billion)': 615.2}, {'Time': 'Nov 2022', 'Banks Balance Sheet (CNY Billion)': 1210.0}, {'Time': 'Dec 2022', 'Banks Balance Sheet (CNY Billion)': 1400.0}, {'Time': 'Jan 2023', 'Banks Balance Sheet (CNY Billion)': 4900.0}, {'Time': 'Feb 2023', 'Banks Balance Sheet (CNY Billion)': 1810.0}, {'Time': 'Mar 2023', 'Banks Balance Sheet (CNY Billion)': 3890.0}, {'Time': 'Apr 2023', 'Banks Balance Sheet (CNY Billion)': 718.8}, {'Time': 'May 2023', 'Banks Balance Sheet (CNY Billion)': 1360.0}, {'Time': 'Jun 2023', 'Banks Balance Sheet (CNY Billion)': 3050.0}, {'Time': 'Jul 2023', 'Banks Balance Sheet (CNY Billion)': 345.9}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The column 'Banks Balance Sheet (CNY Billion)' corresponds to 'China's banks' and 'The value' in the text. 'The value' correspond to the value in July 2023, and the 'CNY 679 billion a year earlier' corresponds the time 'Jul 2022. The value 'CNY 15.73 trillion' is the sum of of 'Banks Balance Sheet' from 'Jan 2023' to 'Jun 2023'. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Time': '2022 Q1', 'Current account (billion)': 34.43}, {'Time': '2022 Q2', 'Current account (billion)': 33.72}, {'Time': '2022 Q3', 'Current account (billion)': 32.72}, {'Time': '2022 Q4', 'Current account (billion)': 23.52}, {'Time': '2023 Q1', 'Current account (billion)': 30.55}, {'Time': '2023 Q2', 'Current account (billion)': 31.02}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The text ’Singapore's current account surplus' corresponds to the column 'Current account (billion)' in data. Its value is SGD 31.02 billion in the second quarter of 2023 and is SGD 33.72 in the second quarter of 2022, which shows a declined pattern.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The unemployment rate in France inched up to 7.2% in the second quarter of 2023 from 7.1% in the previous quarter, and the highest since Q4 2022, as the number of unemployed people increased by 20 thousand to 2.2 million.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The unemployment rate in France' in text corresponds to the column 'Unemployment rate' in data. The 'second quarter of 2023' corresponds to '2023 Q2' and 'the previous quarter' corresponds to '2023 Q1'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiple line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">According to the data from Amazon’s US station released by marketplacepulse, the proportion of Chinese sellers among new sellers in 2020 has greatly increased compared with the previous two years, and the proportion of Chinese sellers has stabilized at more than 50% since June 2020. In August 2020, it reached its highest point, 62.8%, getting an increase of 93.83% year-on-year. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Japan Electric Institute has made a forecast for future electricity generation sources, predicting that the renewables will continuously increase and reach 211 billion kilowatt hours in 2040.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'time': 2010, 'coal': 290, 'natural gas ': 306, 'renewables ': 112, 'nuclear': 287, 'liquids': 103}, {'time': 2015, 'coal': 323, 'natural gas ': 408, 'renewables ': 154, 'nuclear': 3, 'liquids': 112}, {'time': 2020, 'coal': 315, 'natural gas ': 417, 'renewables ': 151, 'nuclear': 94, 'liquids': 85}, {'time': 2025, 'coal': 311, 'natural gas ': 427, 'renewables ': 198, 'nuclear': 116, 'liquids': 7}, {'time': 2030, 'coal': 305, 'natural gas ': 436, 'renewables ': 201, 'nuclear': 107, 'liquids': 4}, {'time': 2035, 'coal': 304, 'natural gas ': 439, 'renewables ': 203, 'nuclear': 111, 'liquids': 3}, {'time': 2040, 'coal': 300, 'natural gas ': 438, 'renewables ': 211, 'nuclear': 110, 'liquids': 4}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'month': 'Jan', '2018': '29.70%', '2019': '37.60%', '2020': '37.60%'}, {'month': 'Feb', '2018': '25.30%', '2019': '18.65%', '2020': '28.50%'}, {'month': 'Mar', '2018': '35.10%', '2019': '35.10%', '2020': '50.10%'}, {'month': 'Apr', '2018': '37.90%', '2019': '38.40%', '2020': '54.20%'}, {'month': 'May', '2018': '37.10%', '2019': '37.60%', '2020': '49.40%'}, {'month': 'Jun', '2018': '37.30%', '2019': '40.20%', '2020': '54.50%'}, {'month': 'Jul', '2018': '31.90%', '2019': '43.40%', '2020': '56.50%'}, {'month': 'Aug', '2018': '20.60%', '2019': '32.40%', '2020': '62.80%'}, {'month': 'Sep', '2018': '22.20%', '2019': '34.60%', '2020': '59.80%'}, {'month': 'Oct', '2018': '19.30%', '2019': '36.40%', '2020': '61.00%'}, {'month': 'Nov', '2018': '22.70%', '2019': '30.20%', '2020': '56.70%'}, {'month': 'Dec', '2018': '21.30%', '2019': '23.80%', '2020': '53.50%'}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The columns in the data are uncertain, combined with text, we can identify that 'the proportion of Chinese sellers' is the object, and 'it' refers to 'the proportion of Chinese sellers'. All values from 'Jun' in '2020' column are higher than 50%. Compared with August 2019, the '62.8%' in August 2020 gets an increase of 93.83%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">In Amazon stock moving averages, "triple top" pattern happens from 2010/04/01 to 2010/05/05. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The 'Amazon stock moving averages' corresponds to the column 'price' in data. The 'triple top' pattern has three discernible peaks at approximatrely the same level, separated by troughs. The pattern in this data is from 2010.04.01 to 2010.05.05 and the three peaks are at about 2010.04.06, 2010.04.18 and 2010.04.27.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The 'Amazon.com Inc. (AMZN)  corresponds to the column 'Close' in data. The "Double Top" pattern is characterized by two distinct peaks and separated by a trough. This pattern often signifies a potential reversal from an uptrend to a downtrend, suggesting a shift in investor sentiment. The double top pattern in this data is from 2018.8.27 to 2018.10.4, and the two peaks exist at around 2018.09.05 and 2018.09.28. After this pattern, the value plunges from 2018.10.05 to 2018.11.20.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The 'Dow Janes Industrial (.DJI)' in text corresponds to the 'Close' column in data. The 'downtrend' pattern depicts a persistent and continuous decline in the value over time. Later values are usually smaller. In this dataset, this pattern happens from around 2020/03/04 to 2020/03/23.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":[],"DataName":" ","Position":[{"Begin":[,],"End":[,]}], "Trend":"None","Num":[],"Text":"..."}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The 'Dow Janes Industrial (.DJI) in text corresponds to the column 'Close' in data. The 'uptrend' pattern characterizes a consistent and sustained upward movement of the value over time. Later values are usually larger. In this data, this pattern happens from around 2017/05/17 to 2018/01/26.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The 'Dow Janes Industrial (.DJI) in text corresponds to the column 'Close' in data. The "double bottom" pattern has two lows. The first low in the data is at 2016/01/20 , and the second low is at 2016/02/11.  This pattern is around from '2015/12/29' to '2016/03/07'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The stock of Goodyear Tire &amp; Rubber company (GT)' in text corresponds to the 'Close' column in data. The 'rouding bottom' takes the shape of a gradual and smooth curve resembling the bottom of a bowl which is from 1990.5.11 to 1991.6.3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":"Amazon stock","DataName":"Adj Close","Position":[{"Begin":[51,1],"End":[104,1]}],"Trend":"cup and handle","Number":"None","Text":"a 'cup and handle' pattern in Amazon stock from 1999/07/15 to 1999/09/29"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The 'Amazon stock' in text corresponds to the 'Adj Close' column in data. The 'cup and handle' pattern is characterized by a curved, U-shaped formation (the 'cup') followed by a brief consolidation period represented by a smaller formation (the 'handle'). This pattern is occurred around 1999.07.15 to 1999.09.29 where the cup is from 1999.07.15 to 1999.8.26 and the handle is from 1999.8.27 to 1999.09.29. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The 'Amazon stock' in text corresponds to the 'Close' column in data. The "head and shoulder" pattern consists of three rises and falls from three localized highs. The high point in the center is higher than the other two. This pattern is around from '1999/09/27' to '2000/02/22' and the middle high point exist on '1999/12/09'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It' in text refers to 'installed wind + PV capacity (GW)'. The object in unit 1 is "installed wind and PV capacity (GW)". It has a "rising" trend from 2021 to 2030 and its descriptive phrase is 'a rising trend for installed wind and PV capacity (GW)'. The object in unit 2 is "installed wind and PV capacity (GW)". It reachs '1200' in 2030 and its descriptive phrase is 'It is expected to reach 1,200 GW'. The object in unit 3 is "energy percentage". It reaches '25%' in 2030 and its descriptive phrase is 'reach a 25% energy percentage in 2030'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["the sales proportion of NEVs that were subcompact and below"],"DataName":"Mini- and subcompact size","Position":[{"Begin":[6,1],"End":[6,1]}], "Trend":"declined","Num":[0.30],"Text":"the sales proportion of NEVs that were subcompact and below declined to 30%"},{"ObjectName":["the sales proportion of NEVs that were subcompact"],"DataName":"Mini- and subcompact size","Position":[{"Begin":[0,1],"End":[0,1]}], "Trend":"None","Num":[0.61],"Text":"from 61% in 2017"},{"ObjectName":["compact size","midsize-to-large"],"DataName":["Compact size","Mini- and subcompact size"],"Position":[{"Begin":[6,2],"End":[6,2]},{"Begin":[6,3],"End":[6,3]}], "Trend":"upgrade trend","Num":[0.30,0.40],"Text":"the mix of compact and midsize-to-large NEVs increased to 70%"},{"ObjectName":["compact Size","midsize-to-large"],"DataName":["Compact size","Midsize to large"],"Position":[{"Begin":[0,2],"End":[0,2]},{"Begin":[0,3],"End":[0,3]}], "Trend":"None","Num":[0.35,0.04],"Text":"the mix of compact and midsize-to-large NEVs increased to 70% from 39%"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Inflation-adjusted ("real") GDP"],"DataName":"Outdoor recreation", "Position":[{"Begin":[0,1],"End":[0,1],"Trend":"increase","Number":[18.9],"Text":"Inflation-adjusted ("real") GDP for the outdoor recreation economy increased 18.9 percent in 2021"},
+{"ObjectName":["overall U.S. economy"],"DataName":"U.S. economy", "Position":["Begin":[0,2],"End":[0,2]，"Trend":"rebound","Number":[5.9],"Text":"compared with a 5.9 percent increase for the overall U.S. economy, reflecting a rebound in outdoor recreation"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":[“Netherlands"],"DataName":"Billions of dollars","Position":[{"Begin":[1,1],"End":[1,1]}],"Trend":"None","Num":[43.1],"Text":"The Netherlands ($43.1 billion)"},{"ObjectName":[“France"],"DataName":"Billions of dollars","Position":[{"Begin":[2,1],"End":[2,1]}],"Trend":"None","Num":[35.3],"Text":"France ($35.3 billion)"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["installed wind and PV capacity (GW)"],"DataName":"Installed wind + PV capacity (GW)","Position":[{"Begin":[0,1],"End":[5,1]}],"Trend":"rising","Number":"None","Text":"a rising trend for installed wind and PV capacity (GW)"},{"ObjectName":["It"],"DataName":"Installed wind + PV capacity (GW)","Position":[{"Begin":[5,1],"End":[5,1]}],"Trend":"None","Number":[1200],"Text":"It is expected to reach 1,200 GW"},{"ObjectName":"None","DataName":"Installed wind + PV capacity (GW)","Position":[{"Begin":[5,2],"End":[5,2]}],"Trend":"None","Number":[25.00%],"Text":"reach a 25% energy percentage in 2030"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ObjectName":["Amazon stock"],"DataName":"Close","Position":[{"Begin":[39,1],"EndIndex":[141,1]}],"Trend":["Head and shoulder"],"Number":"None","Text":"a "head and shoulder" pattern on the Amazon stock moving averages from 1999/09/27 to 2000/02/22"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["The stock of Goodyear Tire &amp; Rubber company (GT)"],"DataName":"Close","Position":[{"Begin":[70,1],"End":[317,1]}],"Trend":"rouding bottom","Number":"None","Text":"The stock of Goodyear Tire &amp; Rubber company (GT) suffers a year-long 'rouding bottom' pattern"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["the renewables"],"DataName":"renewables","Position":[{"Begin":[6,3],"End":[6,3]}],"Trend":"increase","Number":[211],"Text":"the renewables will continuously increase and reach 211 billion kilowatt hours in 2040"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The renewables' in text corresponds to 'renewables' column in data. In '2040', the corresponding value is '211'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Dow Janes Industrial (.DJI)"],"DataName":"Close","Position":[{"Begin":[54,1],"End":[100,1]}],"Trend":"double bottom","Number":"None","Text":"The "double bottom" pattern happens on the 'Dow Janes Industrial (.DJI) from 2015/12/29 to 2016/03/07"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Dow Janes Industrial (.DJI)"],"DataName":"Close","Position":[{"Begin":[76,1],"End":[250,1]}],"Trend":"uptrend","Number":"None","Text":"From 2017/05/17 to 2018/01/26, the 'Dow Janes Industrial (.DJI)' is on an uptrend"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Dow Janes Industrial (.DJI)"],"DataName":"Close","Position":[{"Begin":[37,1],"End":[50,1]}],"Trend":"downtrend","Number":"None","Text":"From 2020/03/04 to 2020/03/23, the 'Dow Janes Industrial (.DJI) is on an downtrend"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Amazon.com Inc. (AMZN)"],"DataName":"Close","BeginIndex":[42,1],"EndIndex":[69,1],"Trend":"double top","Number":"None", "Text":"The chart of Amazon.com Inc. (AMZN) shows a double top pattern that formed in the stock between September and October 2018"}, {"ObjectName":["Amazon.com Inc. (AMZN)"],"DataName":"Close","BeginIndex":[70,1],"EndIndex":[102,1],"Trend":"plunges","Number":"31%","Text":"shares plunges another 31%"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Amazon stock moving averages"],"DataName":"price","Position":[{"Begin":[22,1],"End":[56,1]}],"Trend":"triple top","Number":"None","Text":"The "triple top" pattern happens from 2010/04/01 to 2010/05/05"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["The proportion of Chinese sellers"],"DataName":"2020","Position":[{"Begin":[0,3],"End":[11,3]}],"Trend":"increased","Number":"None","Text":"the proportion of Chinese sellers among new sellers in 2020 has greatly increased compared with the previous two years"},{"ObjectName":["The proportion of Chinese sellers"],"DataName":"2020","Position":[{"Begin":[5,3],"End":[11,3]}],"Trend":"stabilized","Number":"None","Text":"the proportion of Chinese sellers has stabilized at more than 50% since June 2020"},{"ObjectName":["It"],"DataName":"2020","Position":[{"Begin":[7,3],"End":[7,3]}],"Trend":"highest","Number":[62.8%],"Text":"In August 2020, it reached its highest point, 62.8%"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["The unemployment rate in France"],"DataName":"Unemployment rate","Position":[{"Begin":[4,1],"End":[5,1]}],"Trend":"inched up","Number":[7.1,7.2],"Text":"The unemployment rate in France inched up to 7.2% in the second quarter of 2023 from 7.1% in the previous quarter"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Singapore's current account surplus"],"DataName":"Current account (billion)","Position":[{"Begin":[1,1],"End":[5,1]}],"Trend":"declined","Number":[31.02,33.72],"Text":"Singapore's current account surplus declined to SGD 31.02 billion in the second quarter of 2023from SGD 33.72 billion in the same period of 2022"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Annual inflation rate"],"DataName":"Inflation rate","Position":[{"Begin":[10,1],"End":[11,1]}],"Trend":"accelerate","Number":[3,3.2],"Text":"Annual inflation rate in the US accelerated to 3.2% in July 2023 from 3% in June"},{"ObjectName":["It"],"DataName":"Inflation rate","Position":[{"Begin":[0,1],"End":[11,1]}],"Trend":"decline","Number":"None,"Text":"It marks a halt in the 12 consecutive months of declines"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["The British economy"],"DataName":"GDP Growth Rate","Position":[{"Begin":[7,1],"End":[6,1]}],"Trend":"expanded","Number":[0.2,0.1],"Text":"The British economy expanded 0.2% on quarter in Q2 2023, following a 0.1% growth in Q1"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Food prices"],"DataName":"Food inflation","Position":[{"Begin":[11,1],"End":[11,1]}],"Trend":"declined","Number":[-1.7],"Text":"Food prices in China declined by 1.7 percent year-on-year in July 2023"},
+{"ObjectName":"None","DataName":"Food inflation","Position":[{"Begin":[10,1],"End":[10,1]}],"Trend":"reversing","Number":[2.3],"Text":"reversing from a 2.3 percent rise in the prior month"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["China's banks"],"DataName":"Banks Balance Sheet (CNY Billion)","Position":[{"Begin":[12,1],"End":[12,1]}],"Trend":"least","Number":[345.9],"Text":"China's banks extended CNY 345.9 billion in new yuan loans in July 2023"},{"ObjectName":["The value"],"DataName":"Banks Balance Sheet (CNY Billion)","Position":[{"Begin":[0,1],"End":[11,1]}],"Trend":"lower","Number":[679,3050],"Text":"China's banks extended CNY 345.9 billion in new yuan loans in July 2023"},{"ObjectName":["a record"],"DataName":"Banks Balance Sheet (CNY Billion)","Position":[{"Begin":[6,1],"End":[11,1]}],"Trend":"None","Number":[15.73],"Text":"a record CNY 15.73 trillion loans in the first half of the year"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Tesla's total revenue"],"DataName":"Tesla","Position":[{"Begin":[0,1],"End":[0,1]}],"Trend":"None","Number":[19.8],"Text":"In 2018, Tesla's total revenue was US$19.8 billion"},{"ObjectName":["BYD's total revenue"],"DataName":"BYD","Position":[{"Begin":[0,2],"End":[0,2]}],"Trend":"None","Number":[18.5],"Text":"BYD's total revenue was US$18.5 billion"},{"ObjectName":["Tesla's total revenue"],"DataName":"Tesla","Position":[{"Begin":[4,1],"End":[4,1]}],"Trend":"None","Number":[81.4],"Text":"In 2022, Tesla's total revenue was US$81.4 billion"},{"ObjectName":["BYD's total revenue"],"DataName":"BYD","Position":[{"Begin":[4,2],"End":[4,2]}],"Trend":"None","Number":[60.5],"Text":"BYD's total revenue was US$60.5 billion"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["active China-focused hedge funds"],"DataName":"Active","Position":[{"Begin":[11,3],"End":[11,3]}],"Trend":"slipped","Number":"None","Text":"The number of active China-focused hedge funds has slipped for the first time since at least 2012"},{"ObjectName":["funds launched"],"DataName":"Launches","Position":[{"Begin":[11,1],"End":[11,1]}],"Trend":"None","Number":[5],"Text":"only five new funds launched this year as of June"},{"ObjectName":["funds were liquidated"],"DataName":"Liquidations","Position":[{"Begin":[11,2],"End":[11,2]}],"Trend":"None","Number":[18],"Text":"Another 18 funds were liquidated"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["sales revenue"],"DataName":"Annual Revenue (billions of US $)","Position":[{"Begin":[4,1],"End":[4,1]}],"Trend":"None","Number":[53.8],"Text":"Tesla earned $53.8 billion in sales revenue in 2021"},
+{"ObjectName":["This"],"DataName":"Annual Revenue (billions of US $)","Position":[{"Begin":[3,1],"End":[3,1]}],"Trend":"None","Number":[31.5],"Text":"from $31.5 billion earned in 2020"},
 {"ObjectName":"None","DataName":"Annual Revenue (billions of US $)","Position":[{"Begin":[3,1],"End":[4,1]}],"Trend":"None","Number":[70.64%],"Another 18 funds were liquidated"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The column 'Annual Revenue' corresponds to the 'sales reveue' in text. Its value is '53.8' in 2021 and '31.5' in 2020. The 'Annual Revenue' has a '70.64%'  growth between '31.5' in 2020 and '53.8' in 2021. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In 2018, Tesla's total revenue was US$19.8 billion, and BYD's total revenue was US$18.5 billion. In 2022, Tesla's total revenue was US$81.4 billion, and BYD's total revenue was US$60.5 billion. From the perspective of total revenue, Tesla and BYD are gradually widening the gap.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"Tesla's total revenue","DataName":"Tesla","Position":[{"Begin":[0,1],"End":[0,1]}],"Trend":"None","Number":[19.8],"Text":"In 2018, Tesla's total revenue was US$19.8 billion"},{"ObjectName":"BYD's total revenue","DataName":"BYD","Position":[{"Begin":[0,2],"End":[0,2]}],"Trend":"None","Number":[18.5],"Text":"BYD's total revenue was US$18.5 billion"},{"ObjectName":"Tesla's total revenue","DataName":"Tesla","Position":[{"Begin":[4,1],"End":[4,1]}],"Trend":"None","Number":[81.4],"Text":"In 2022, Tesla's total revenue was US$81.4 billion"},{"ObjectName":"BYD's total revenue","DataName":"BYD","Position":[{"Begin":[4,2],"End":[4,2]}],"Trend":"None","Number":[60.5],"Text":"BYD's total revenue was US$60.5 billion"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The column 'Tesla' corresponds to 'Tesla's total revenue' in text and the column 'BYD' corresponds to 'BYD's total revenue'. In 2018, Tesla's value is '19.8' and BYD's value is '18.5'. In 2022, Tesla's value is '81.4' while BYD's value is '60.5'.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"active China-focused hedge funds","DataName":"Active","Position":[{"Begin":[11,3],"End":[11,3]}],"Trend":"slipped","Number":"None","Text":"The number of active China-focused hedge funds has slipped for the first time since at least 2012"},{"ObjectName":"funds launched","DataName":"Launches","Position":[{"Begin":[11,1],"End":[11,1]}],"Trend":"None","Number":[5],"Text":"only five new funds launched this year as of June"},{"ObjectName":"funds were liquidated","DataName":"Liquidations","Position":[{"Begin":[11,2],"End":[11,2]}],"Trend":"None","Number":[18],"Text":"Another 18 funds were liquidated"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Food prices in China declined by 1.7 percent year-on-year in July 2023, reversing from a 2.3 percent rise in the prior month while pointing to the first drop since March 2022.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"Food prices","DataName":"Food inflation","Position":[{"Begin":[11,1],"End":[11,1]}],"Trend":"declined","Number":[-1.7],"Text":"Food prices in China declined by 1.7 percent year-on-year in July 2023"},
-{"ObjectName":"None","DataName":"Food inflation","Position":[{"Begin":[10,1],"End":[10,1]}],"Trend":"reversing","Number":[2.3],"Text":"reversing from a 2.3 percent rise in the prior month"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The column 'Food inflation' corresponds to the 'Food prices' in the text. The 'declined by 1.7 percent' corresponds to the '-1.7' in data, and 'reversing' value corresponds to '2.3'.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Annual inflation rate in the US accelerated to 3.2% in July 2023 from 3% in June, but below forecasts of 3.3%. It marks a halt in the 12 consecutive months of declines, due to base effects.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"Annual inflation rate","DataName":"Inflation rate","Position":[{"Begin":[10,1],"End":[11,1]}],"Trend":"accelerate","Number":[3,3.2],"Text":"Annual inflation rate in the US accelerated to 3.2% in July 2023 from 3% in June"},{"ObjectName":"It","DataName":"Inflation rate","Position":[{"Begin":[0,1],"End":[11,1]}],"Trend":"decline","Number":"None,"Text":"It marks a halt in the 12 consecutive months of declines"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The column 'Inflation rate' corresponds to the 'Annual inflation rate' and 'it' in the text. The annual inflation rate acceletated from 3% in June to 3.2% in July, which corresponds the 'Jun 2023' row and the 'Jul 2023' row. The 12 consecutive months of declines correspond to the interval from 'Aug 2022' to 'Jun 2023'.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The column 'GDP Growth Rate' corresponds to 'The British economy' in the text. The '0.2% on quarter in Q2 2023' corresponds to row '2023 Q2' and the '0.1% growth in Q1' corresponds to row '2023 Q1'.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The British economy expanded 0.2% on quarter in Q2 2023, following a 0.1% growth in Q1 and beating forecasts of a flat reading, preliminary estimates showed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"The British economy","DataName":"GDP Growth Rate","Position":[{"Begin":[7,1],"End":[6,1]}],"Trend":"expanded","Number":[0.2,0.1],"Text":"The British economy expanded 0.2% on quarter in Q2 2023, following a 0.1% growth in Q1"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>China's banks extended CNY 345.9 billion in new yuan loans in July 2023, the least since November of 2009 and well below market forecasts of CNY 800 billion. The value is also much lower than CNY 679 billion a year earlier and CNY 3.05 trillion in June, after a record CNY 15.73 trillion loans in the first half of the year. The reading adds to further evidence of a lacklustre economic recovery in China although July is usually a weak month for financing activities, with banks not in a rush to meet their lending targets at the beginning of the quarter.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{'Time': 'Jul 2022', 'Banks Balance Sheet (CNY Billion)': 679.0}, {'Time': 'Aug 2022', 'Banks Balance Sheet (CNY Billion)': 1250.0}, {'Time': 'Sep 2022', 'Banks Balance Sheet (CNY Billion)': 2470.0}, {'Time': 'Oct 2022', 'Banks Balance Sheet (CNY Billion)': 615.2}, {'Time': 'Nov 2022', 'Banks Balance Sheet (CNY Billion)': 1210.0}, {'Time': 'Dec 2022', 'Banks Balance Sheet (CNY Billion)': 1400.0}, {'Time': 'Jan 2023', 'Banks Balance Sheet (CNY Billion)': 4900.0}, {'Time': 'Feb 2023', 'Banks Balance Sheet (CNY Billion)': 1810.0}, {'Time': 'Mar 2023', 'Banks Balance Sheet (CNY Billion)': 3890.0}, {'Time': 'Apr 2023', 'Banks Balance Sheet (CNY Billion)': 718.8}, {'Time': 'May 2023', 'Banks Balance Sheet (CNY Billion)': 1360.0}, {'Time': 'Jun 2023', 'Banks Balance Sheet (CNY Billion)': 3050.0}, {'Time': 'Jul 2023', 'Banks Balance Sheet (CNY Billion)': 345.9}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"China's banks","DataName":"Banks Balance Sheet (CNY Billion)","Position":[{"Begin":[12,1],"End":[12,1]}],"Trend":"least","Number":[345.9],"Text":"China's banks extended CNY 345.9 billion in new yuan loans in July 2023"},{"ObjectName":"The value","DataName":"Banks Balance Sheet (CNY Billion)","Position":[{"Begin":[0,1],"End":[11,1]}],"Trend":"lower","Number":[679,3050],"Text":"China's banks extended CNY 345.9 billion in new yuan loans in July 2023"},{"ObjectName":"a record","DataName":"Banks Balance Sheet (CNY Billion)","Position":[{"Begin":[6,1],"End":[11,1]}],"Trend":"None","Number":[15.73],"Text":"a record CNY 15.73 trillion loans in the first half of the year"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The column 'Banks Balance Sheet (CNY Billion)' corresponds to 'China's banks' and 'The value' in the text. 'The value' correspond to the value in July 2023, and the 'CNY 679 billion a year earlier' corresponds the time 'Jul 2022. The value 'CNY 15.73 trillion' is the sum of of 'Banks Balance Sheet' from 'Jan 2023' to 'Jun 2023'. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{'Time': '2022 Q1', 'Current account (billion)': 34.43}, {'Time': '2022 Q2', 'Current account (billion)': 33.72}, {'Time': '2022 Q3', 'Current account (billion)': 32.72}, {'Time': '2022 Q4', 'Current account (billion)': 23.52}, {'Time': '2023 Q1', 'Current account (billion)': 30.55}, {'Time': '2023 Q2', 'Current account (billion)': 31.02}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"Singapore's current account surplus","DataName":"Current account (billion)","Position":[{"Begin":[1,1],"End":[5,1]}],"Trend":"declined","Number":[31.02,33.72],"Text":"Singapore's current account surplus declined to SGD 31.02 billion in the second quarter of 2023from SGD 33.72 billion in the same period of 2022"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The text ’Singapore's current account surplus' corresponds to the column 'Current account (billion)' in data. Its value is SGD 31.02 billion in the second quarter of 2023 and is SGD 33.72 in the second quarter of 2022, which shows a declined pattern.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The unemployment rate in France inched up to 7.2% in the second quarter of 2023 from 7.1% in the previous quarter, and the highest since Q4 2022, as the number of unemployed people increased by 20 thousand to 2.2 million.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"The unemployment rate in France","DataName":"Unemployment rate","Position":[{"Begin":[4,1],"End":[5,1]}],"Trend":"inched up","Number":[7.1,7.2],"Text":"The unemployment rate in France inched up to 7.2% in the second quarter of 2023 from 7.1% in the previous quarter"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The unemployment rate in France' in text corresponds to the column 'Unemployment rate' in data. The 'second quarter of 2023' corresponds to '2023 Q2' and 'the previous quarter' corresponds to '2023 Q1'.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,13 +536,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,14 +559,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -542,12 +571,17 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -830,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -875,7 +909,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="128.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -888,23 +922,21 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J2" s="8"/>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="208.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -920,14 +952,14 @@
         <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="238" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="280" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -937,21 +969,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="201" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -961,20 +993,20 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -990,14 +1022,14 @@
         <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1007,20 +1039,20 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1030,25 +1062,43 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="202" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C9" s="1">
         <v>8</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1058,20 +1108,20 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1081,20 +1131,20 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1104,20 +1154,20 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1127,20 +1177,20 @@
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1150,229 +1200,246 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="171" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C15" s="1">
         <v>14</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="98" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="F16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="155" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="4">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="154" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="4">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="98" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="4">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="6">
-        <v>15</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="155" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="6">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="154" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="6">
-        <v>17</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="98" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="6">
-        <v>18</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="140" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="A20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="4">
         <v>19</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>93</v>
+      <c r="D20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>95</v>
+        <v>115</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="238" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="A21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="4">
         <v>20</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>102</v>
+      <c r="D21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="A22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="4">
         <v>21</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>91</v>
+      <c r="D22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="224" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="A23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="4">
         <v>22</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>84</v>
+      <c r="D23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="203" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="A24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="4">
         <v>23</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>85</v>
+      <c r="D24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>88</v>
+        <v>119</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C311BE2E-125A-409E-BCD6-447CEDE9D128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D723561-279E-0148-9269-CF3CDAFEA5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28020" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rouding bottom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>double bottom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The stock of Goodyear Tire &amp; Rubber company (GT) suffers a year-long 'rouding bottom' pattern from 1990.6.11 to 1991.6.3.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{'Time':'2017/1/1','Mini- and subcompact size':'0.61','Compact size':'0.35', 'Midsize to large':'0.04'},{'Time':'2018/1/1','Mini- and subcompact size':'0.49','Compact size':'0.41', 'Midsize to large':'0.10'},{'Time':'2019/1/1','Mini- and subcompact size':'0.33','Compact size':'0.54', 'Midsize to large':'0.13'},{'Time':'2020/1/1','Mini- and subcompact size':'0.35','Compact size':'0.33', 'Midsize to large':'0.32'},{'Time':'2021/1/1','Mini- and subcompact size':'0.37','Compact size':'0.28', 'Midsize to large':'0.35'},{'Time':'2022/1/1','Mini- and subcompact size':'0.37','Compact size':'0.31', 'Midsize to large':'0.32'},{'Time':'2023/1/1','Mini- and subcompact size':'0.30','Compact size':'0.30', 'Midsize to large':'0.40'}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,10 +303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The text ’Singapore's current account surplus' corresponds to the column 'Current account (billion)' in data. Its value is SGD 31.02 billion in the second quarter of 2023 and is SGD 33.72 in the second quarter of 2022, which shows a declined pattern.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The unemployment rate in France inched up to 7.2% in the second quarter of 2023 from 7.1% in the previous quarter, and the highest since Q4 2022, as the number of unemployed people increased by 20 thousand to 2.2 million.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,14 +363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The stock of Goodyear Tire &amp; Rubber company (GT)' in text corresponds to the 'Close' column in data. The 'rouding bottom' takes the shape of a gradual and smooth curve resembling the bottom of a bowl which is from 1990.5.11 to 1991.6.3.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":"Amazon stock","DataName":"Adj Close","Position":[{"Begin":[51,1],"End":[104,1]}],"Trend":"cup and handle","Number":"None","Text":"a 'cup and handle' pattern in Amazon stock from 1999/07/15 to 1999/09/29"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">The 'Amazon stock' in text corresponds to the 'Adj Close' column in data. The 'cup and handle' pattern is characterized by a curved, U-shaped formation (the 'cup') followed by a brief consolidation period represented by a smaller formation (the 'handle'). This pattern is occurred around 1999.07.15 to 1999.09.29 where the cup is from 1999.07.15 to 1999.8.26 and the handle is from 1999.8.27 to 1999.09.29. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -399,95 +379,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"ObjectName":["Inflation-adjusted ("real") GDP"],"DataName":"Outdoor recreation", "Position":[{"Begin":[0,1],"End":[0,1],"Trend":"increase","Number":[18.9],"Text":"Inflation-adjusted ("real") GDP for the outdoor recreation economy increased 18.9 percent in 2021"},
-{"ObjectName":["overall U.S. economy"],"DataName":"U.S. economy", "Position":["Begin":[0,2],"End":[0,2]，"Trend":"rebound","Number":[5.9],"Text":"compared with a 5.9 percent increase for the overall U.S. economy, reflecting a rebound in outdoor recreation"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":[“Netherlands"],"DataName":"Billions of dollars","Position":[{"Begin":[1,1],"End":[1,1]}],"Trend":"None","Num":[43.1],"Text":"The Netherlands ($43.1 billion)"},{"ObjectName":[“France"],"DataName":"Billions of dollars","Position":[{"Begin":[2,1],"End":[2,1]}],"Trend":"None","Num":[35.3],"Text":"France ($35.3 billion)"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["installed wind and PV capacity (GW)"],"DataName":"Installed wind + PV capacity (GW)","Position":[{"Begin":[0,1],"End":[5,1]}],"Trend":"rising","Number":"None","Text":"a rising trend for installed wind and PV capacity (GW)"},{"ObjectName":["It"],"DataName":"Installed wind + PV capacity (GW)","Position":[{"Begin":[5,1],"End":[5,1]}],"Trend":"None","Number":[1200],"Text":"It is expected to reach 1,200 GW"},{"ObjectName":"None","DataName":"Installed wind + PV capacity (GW)","Position":[{"Begin":[5,2],"End":[5,2]}],"Trend":"None","Number":[25.00%],"Text":"reach a 25% energy percentage in 2030"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"ObjectName":["Amazon stock"],"DataName":"Close","Position":[{"Begin":[39,1],"EndIndex":[141,1]}],"Trend":["Head and shoulder"],"Number":"None","Text":"a "head and shoulder" pattern on the Amazon stock moving averages from 1999/09/27 to 2000/02/22"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["The stock of Goodyear Tire &amp; Rubber company (GT)"],"DataName":"Close","Position":[{"Begin":[70,1],"End":[317,1]}],"Trend":"rouding bottom","Number":"None","Text":"The stock of Goodyear Tire &amp; Rubber company (GT) suffers a year-long 'rouding bottom' pattern"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["the renewables"],"DataName":"renewables","Position":[{"Begin":[6,3],"End":[6,3]}],"Trend":"increase","Number":[211],"Text":"the renewables will continuously increase and reach 211 billion kilowatt hours in 2040"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The renewables' in text corresponds to 'renewables' column in data. In '2040', the corresponding value is '211'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"ObjectName":["Dow Janes Industrial (.DJI)"],"DataName":"Close","Position":[{"Begin":[54,1],"End":[100,1]}],"Trend":"double bottom","Number":"None","Text":"The "double bottom" pattern happens on the 'Dow Janes Industrial (.DJI) from 2015/12/29 to 2016/03/07"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["Dow Janes Industrial (.DJI)"],"DataName":"Close","Position":[{"Begin":[76,1],"End":[250,1]}],"Trend":"uptrend","Number":"None","Text":"From 2017/05/17 to 2018/01/26, the 'Dow Janes Industrial (.DJI)' is on an uptrend"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["Dow Janes Industrial (.DJI)"],"DataName":"Close","Position":[{"Begin":[37,1],"End":[50,1]}],"Trend":"downtrend","Number":"None","Text":"From 2020/03/04 to 2020/03/23, the 'Dow Janes Industrial (.DJI) is on an downtrend"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["Amazon.com Inc. (AMZN)"],"DataName":"Close","BeginIndex":[42,1],"EndIndex":[69,1],"Trend":"double top","Number":"None", "Text":"The chart of Amazon.com Inc. (AMZN) shows a double top pattern that formed in the stock between September and October 2018"}, {"ObjectName":["Amazon.com Inc. (AMZN)"],"DataName":"Close","BeginIndex":[70,1],"EndIndex":[102,1],"Trend":"plunges","Number":"31%","Text":"shares plunges another 31%"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["Amazon stock moving averages"],"DataName":"price","Position":[{"Begin":[22,1],"End":[56,1]}],"Trend":"triple top","Number":"None","Text":"The "triple top" pattern happens from 2010/04/01 to 2010/05/05"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["The proportion of Chinese sellers"],"DataName":"2020","Position":[{"Begin":[0,3],"End":[11,3]}],"Trend":"increased","Number":"None","Text":"the proportion of Chinese sellers among new sellers in 2020 has greatly increased compared with the previous two years"},{"ObjectName":["The proportion of Chinese sellers"],"DataName":"2020","Position":[{"Begin":[5,3],"End":[11,3]}],"Trend":"stabilized","Number":"None","Text":"the proportion of Chinese sellers has stabilized at more than 50% since June 2020"},{"ObjectName":["It"],"DataName":"2020","Position":[{"Begin":[7,3],"End":[7,3]}],"Trend":"highest","Number":[62.8%],"Text":"In August 2020, it reached its highest point, 62.8%"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["The unemployment rate in France"],"DataName":"Unemployment rate","Position":[{"Begin":[4,1],"End":[5,1]}],"Trend":"inched up","Number":[7.1,7.2],"Text":"The unemployment rate in France inched up to 7.2% in the second quarter of 2023 from 7.1% in the previous quarter"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["Singapore's current account surplus"],"DataName":"Current account (billion)","Position":[{"Begin":[1,1],"End":[5,1]}],"Trend":"declined","Number":[31.02,33.72],"Text":"Singapore's current account surplus declined to SGD 31.02 billion in the second quarter of 2023from SGD 33.72 billion in the same period of 2022"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["Annual inflation rate"],"DataName":"Inflation rate","Position":[{"Begin":[10,1],"End":[11,1]}],"Trend":"accelerate","Number":[3,3.2],"Text":"Annual inflation rate in the US accelerated to 3.2% in July 2023 from 3% in June"},{"ObjectName":["It"],"DataName":"Inflation rate","Position":[{"Begin":[0,1],"End":[11,1]}],"Trend":"decline","Number":"None,"Text":"It marks a halt in the 12 consecutive months of declines"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["The British economy"],"DataName":"GDP Growth Rate","Position":[{"Begin":[7,1],"End":[6,1]}],"Trend":"expanded","Number":[0.2,0.1],"Text":"The British economy expanded 0.2% on quarter in Q2 2023, following a 0.1% growth in Q1"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["Food prices"],"DataName":"Food inflation","Position":[{"Begin":[11,1],"End":[11,1]}],"Trend":"declined","Number":[-1.7],"Text":"Food prices in China declined by 1.7 percent year-on-year in July 2023"},
-{"ObjectName":"None","DataName":"Food inflation","Position":[{"Begin":[10,1],"End":[10,1]}],"Trend":"reversing","Number":[2.3],"Text":"reversing from a 2.3 percent rise in the prior month"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["China's banks"],"DataName":"Banks Balance Sheet (CNY Billion)","Position":[{"Begin":[12,1],"End":[12,1]}],"Trend":"least","Number":[345.9],"Text":"China's banks extended CNY 345.9 billion in new yuan loans in July 2023"},{"ObjectName":["The value"],"DataName":"Banks Balance Sheet (CNY Billion)","Position":[{"Begin":[0,1],"End":[11,1]}],"Trend":"lower","Number":[679,3050],"Text":"China's banks extended CNY 345.9 billion in new yuan loans in July 2023"},{"ObjectName":["a record"],"DataName":"Banks Balance Sheet (CNY Billion)","Position":[{"Begin":[6,1],"End":[11,1]}],"Trend":"None","Number":[15.73],"Text":"a record CNY 15.73 trillion loans in the first half of the year"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["Tesla's total revenue"],"DataName":"Tesla","Position":[{"Begin":[0,1],"End":[0,1]}],"Trend":"None","Number":[19.8],"Text":"In 2018, Tesla's total revenue was US$19.8 billion"},{"ObjectName":["BYD's total revenue"],"DataName":"BYD","Position":[{"Begin":[0,2],"End":[0,2]}],"Trend":"None","Number":[18.5],"Text":"BYD's total revenue was US$18.5 billion"},{"ObjectName":["Tesla's total revenue"],"DataName":"Tesla","Position":[{"Begin":[4,1],"End":[4,1]}],"Trend":"None","Number":[81.4],"Text":"In 2022, Tesla's total revenue was US$81.4 billion"},{"ObjectName":["BYD's total revenue"],"DataName":"BYD","Position":[{"Begin":[4,2],"End":[4,2]}],"Trend":"None","Number":[60.5],"Text":"BYD's total revenue was US$60.5 billion"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["active China-focused hedge funds"],"DataName":"Active","Position":[{"Begin":[11,3],"End":[11,3]}],"Trend":"slipped","Number":"None","Text":"The number of active China-focused hedge funds has slipped for the first time since at least 2012"},{"ObjectName":["funds launched"],"DataName":"Launches","Position":[{"Begin":[11,1],"End":[11,1]}],"Trend":"None","Number":[5],"Text":"only five new funds launched this year as of June"},{"ObjectName":["funds were liquidated"],"DataName":"Liquidations","Position":[{"Begin":[11,2],"End":[11,2]}],"Trend":"None","Number":[18],"Text":"Another 18 funds were liquidated"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"ObjectName":["sales revenue"],"DataName":"Annual Revenue (billions of US $)","Position":[{"Begin":[4,1],"End":[4,1]}],"Trend":"None","Number":[53.8],"Text":"Tesla earned $53.8 billion in sales revenue in 2021"},
-{"ObjectName":["This"],"DataName":"Annual Revenue (billions of US $)","Position":[{"Begin":[3,1],"End":[3,1]}],"Trend":"None","Number":[31.5],"Text":"from $31.5 billion earned in 2020"},
-{"ObjectName":"None","DataName":"Annual Revenue (billions of US $)","Position":[{"Begin":[3,1],"End":[4,1]}],"Trend":"None","Number":[70.64%],"Another 18 funds were liquidated"}]</t>
+    <t>[{"ObjectName":["Netherlands"],"DataName":"Billions of dollars","Position":[{"Begin":[1,1],"End":[1,1]}],"Trend":"None","Num":[43.1],"Text":"The Netherlands ($43.1 billion)"},{"ObjectName":[“France"],"DataName":"Billions of dollars","Position":[{"Begin":[2,1],"End":[2,1]}],"Trend":"None","Num":[35.3],"Text":"France ($35.3 billion)"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The text 'Singapore's current account surplus' corresponds to the column 'Current account (billion)' in data. Its value is SGD 31.02 billion in the second quarter of 2023 and is SGD 33.72 in the second quarter of 2022, which shows a declined pattern.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Inflation-adjusted ("real") GDP"],"DataName":"Outdoor recreation", "Position":[{"Begin":[0,1],"End":[0,1],"Trend":"increase","Num":[18.9],"Text":"Inflation-adjusted ("real") GDP for the outdoor recreation economy increased 18.9 percent in 2021"},
+{"ObjectName":["overall U.S. economy"],"DataName":"U.S. economy", "Position":["Begin":[0,2],"End":[0,2]，"Trend":"rebound","Num":[5.9],"Text":"compared with a 5.9 percent increase for the overall U.S. economy, reflecting a rebound in outdoor recreation"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["installed wind and PV capacity (GW)"],"DataName":"Installed wind + PV capacity (GW)","Position":[{"Begin":[0,1],"End":[5,1]}],"Trend":"rising","Num":"None","Text":"a rising trend for installed wind and PV capacity (GW)"},{"ObjectName":["It"],"DataName":"Installed wind + PV capacity (GW)","Position":[{"Begin":[5,1],"End":[5,1]}],"Trend":"None","Num":[1200],"Text":"It is expected to reach 1,200 GW"},{"ObjectName":"None","DataName":"energy consumption percentage","Position":[{"Begin":[5,2],"End":[5,2]}],"Trend":"None","Num":[25.00%],"Text":"reach a 25% energy percentage in 2030"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Amazon stock"],"DataName":"Adj Close","Position":[{"Begin":[51,1],"End":[104,1]}],"Trend":"cup and handle","Num":"None","Text":"a 'cup and handle' pattern in Amazon stock from 1999/07/15 to 1999/09/29"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["the renewables"],"DataName":"renewables","Position":[{"Begin":[6,3],"End":[6,3]}],"Trend":"increase","Num":[211],"Text":"the renewables will continuously increase and reach 211 billion kilowatt hours in 2040"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Dow Janes Industrial (.DJI)"],"DataName":"Close","Position":[{"Begin":[54,1],"End":[100,1]}],"Trend":"double bottom","Num":"None","Text":"The "double bottom" pattern happens on the 'Dow Janes Industrial (.DJI) from 2015/12/29 to 2016/03/07"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Dow Janes Industrial (.DJI)"],"DataName":"Close","Position":[{"Begin":[76,1],"End":[250,1]}],"Trend":"uptrend","Num":"None","Text":"From 2017/05/17 to 2018/01/26, the 'Dow Janes Industrial (.DJI)' is on an uptrend"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Dow Janes Industrial (.DJI)"],"DataName":"Close","Position":[{"Begin":[37,1],"End":[50,1]}],"Trend":"downtrend","Num":"None","Text":"From 2020/03/04 to 2020/03/23, the 'Dow Janes Industrial (.DJI) is on an downtrend"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Amazon.com Inc. (AMZN)"],"DataName":"Close","BeginIndex":[42,1],"EndIndex":[69,1],"Trend":"double top","Num":"None", "Text":"The chart of Amazon.com Inc. (AMZN) shows a double top pattern that formed in the stock between September and October 2018"}, {"ObjectName":["Amazon.com Inc. (AMZN)"],"DataName":"Close","BeginIndex":[70,1],"EndIndex":[102,1],"Trend":"plunges","Num":"31%","Text":"shares plunges another 31%"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Amazon stock moving averages"],"DataName":"price","Position":[{"Begin":[22,1],"End":[56,1]}],"Trend":"triple top","Num":"None","Text":"The "triple top" pattern happens from 2010/04/01 to 2010/05/05"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["The proportion of Chinese sellers"],"DataName":"2020","Position":[{"Begin":[0,3],"End":[11,3]}],"Trend":"increased","Num":"None","Text":"the proportion of Chinese sellers among new sellers in 2020 has greatly increased compared with the previous two years"},{"ObjectName":["The proportion of Chinese sellers"],"DataName":"2020","Position":[{"Begin":[5,3],"End":[11,3]}],"Trend":"stabilized","Num":"None","Text":"the proportion of Chinese sellers has stabilized at more than 50% since June 2020"},{"ObjectName":["It"],"DataName":"2020","Position":[{"Begin":[7,3],"End":[7,3]}],"Trend":"highest","Num":[62.8%],"Text":"In August 2020, it reached its highest point, 62.8%"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Singapore's current account surplus"],"DataName":"Current account (billion)","Position":[{"Begin":[1,1],"End":[5,1]}],"Trend":"declined","Num":[31.02,33.72],"Text":"Singapore's current account surplus declined to SGD 31.02 billion in the second quarter of 2023 from SGD 33.72 billion in the same period of 2022"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Annual inflation rate"],"DataName":"Inflation rate","Position":[{"Begin":[10,1],"End":[11,1]}],"Trend":"accelerate","Num":[3,3.2],"Text":"Annual inflation rate in the US accelerated to 3.2% in July 2023 from 3% in June"},{"ObjectName":["It"],"DataName":"Inflation rate","Position":[{"Begin":[0,1],"End":[11,1]}],"Trend":"decline","Num":"None,"Text":"It marks a halt in the 12 consecutive months of declines"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["The British economy"],"DataName":"GDP Growth Rate","Position":[{"Begin":[6,1],"End":[7,1]}],"Trend":"expanded","Num":[0.1,0.2],"Text":"The British economy expanded 0.2% on quarter in Q2 2023, following a 0.1% growth in Q1"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Food prices"],"DataName":"Food inflation","Position":[{"Begin":[11,1],"End":[11,1]}],"Trend":"declined","Num":[-1.7],"Text":"Food prices in China declined by 1.7 percent year-on-year in July 2023"},
+{"ObjectName":"None","DataName":"Food inflation","Position":[{"Begin":[10,1],"End":[10,1]}],"Trend":"reversing","Num":[2.3],"Text":"reversing from a 2.3 percent rise in the prior month"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Tesla's total revenue"],"DataName":"Tesla","Position":[{"Begin":[0,1],"End":[0,1]}],"Trend":"None","Num":[19.8],"Text":"In 2018, Tesla's total revenue was US$19.8 billion"},{"ObjectName":["BYD's total revenue"],"DataName":"BYD","Position":[{"Begin":[0,2],"End":[0,2]}],"Trend":"None","Num":[18.5],"Text":"BYD's total revenue was US$18.5 billion"},{"ObjectName":["Tesla's total revenue"],"DataName":"Tesla","Position":[{"Begin":[4,1],"End":[4,1]}],"Trend":"None","Num":[81.4],"Text":"In 2022, Tesla's total revenue was US$81.4 billion"},{"ObjectName":["BYD's total revenue"],"DataName":"BYD","Position":[{"Begin":[4,2],"End":[4,2]}],"Trend":"None","Num":[60.5],"Text":"BYD's total revenue was US$60.5 billion"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["sales revenue"],"DataName":"Annual Revenue (billions of US $)","Position":[{"Begin":[4,1],"End":[4,1]}],"Trend":"None","Num":[53.8],"Text":"Tesla earned $53.8 billion in sales revenue in 2021"},
+{"ObjectName":["This"],"DataName":"Annual Revenue (billions of US $)","Position":[{"Begin":[3,1],"End":[3,1]}],"Trend":"None","Num":[31.5],"Text":"from $31.5 billion earned in 2020"},
+{"ObjectName":"None","DataName":"Annual Revenue (billions of US $)","Position":[{"Begin":[3,1],"End":[4,1]}],"Trend":"growth","Num":[70.64%],"Text":"with a 70.64% growth in sales during 2021"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Amazon stock"],"DataName":"Close","Position":[{"Begin":[39,1],"EndIndex":[141,1]}],"Trend":"Head and shoulder","Num":"None","Text":"a "head and shoulder" pattern on the Amazon stock moving averages from 1999/09/27 to 2000/02/22"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["The unemployment rate in France"],"DataName":"Unemployment rate","Position":[{"Begin":[4,1],"End":[5,1]}],"Trend":"inched up","Num":[7.1,7.2],"Text":"The unemployment rate in France inched up to 7.2% in the second quarter of 2023 from 7.1% in the previous quarter"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["active China-focused hedge funds"],"DataName":"Active","Position":[{"Begin":[11,3],"End":[11,3]}],"Trend":"slipped","Num":"None","Text":"The number of active China-focused hedge funds has slipped for the first time since at least 2012"},{"ObjectName":["funds launched"],"DataName":"Launches","Position":[{"Begin":[11,1],"End":[11,1]}],"Trend":"None","Num":[5],"Text":"only five new funds launched this year as of June"},{"ObjectName":["funds were liquidated"],"DataName":"Liquidations","Position":[{"Begin":[11,2],"End":[11,2]}],"Trend":"None","Num":[18],"Text":"Another 18 funds were liquidated"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["China's banks"],"DataName":"Banks Balance Sheet (CNY Billion)","Position":[{"Begin":[12,1],"End":[12,1]}],"Trend":"least","Num":[345.9],"Text":"China's banks extended CNY 345.9 billion in new yuan loans in July 2023"},{"ObjectName":["The value"],"DataName":"Banks Balance Sheet (CNY Billion)","Position":[{"Begin":[0,1],"End":[11,1]}],"Trend":"lower","Num":[679,3050],"Text":"much lower than CNY 679 billion a year earlier and CNY 3.05 trillion in June"},{"ObjectName":["a record"],"DataName":"Banks Balance Sheet (CNY Billion)","Position":[{"Begin":[6,1],"End":[11,1]}],"Trend":"None","Num":[15.73],"Text":"a record CNY 15.73 trillion loans in the first half of the year"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The stock of Goodyear Tire &amp; Rubber company (GT) suffers a year-long 'rounding bottom' pattern from 1990.6.11 to 1991.6.3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rounding bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["The stock of Goodyear Tire &amp; Rubber company (GT)"],"DataName":"Close","Position":[{"Begin":[70,1],"End":[317,1]}],"Trend":"rounding bottom","Num":"None","Text":"The stock of Goodyear Tire &amp; Rubber company (GT) suffers a year-long 'rounding bottom' pattern"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The stock of Goodyear Tire &amp; Rubber company (GT)' in text corresponds to the 'Close' column in data. The 'rounding bottom' takes the shape of a gradual and smooth curve resembling the bottom of a bowl which is from 1990.5.11 to 1991.6.3.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +495,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -578,9 +578,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -864,11 +861,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
@@ -882,7 +879,7 @@
     <col min="12" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -905,10 +902,10 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="128.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="128.5" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -922,20 +919,20 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="208.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="208.5" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -949,18 +946,18 @@
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="280" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="320">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -969,21 +966,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="201" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:11" ht="201" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -993,19 +990,19 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="409" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1019,16 +1016,16 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="409.6">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1039,21 +1036,21 @@
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="409.6">
       <c r="A8" s="7" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -1062,44 +1059,44 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="202" customHeight="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="202" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="409.6">
       <c r="A10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1108,21 +1105,21 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="409.6">
       <c r="A11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
@@ -1131,21 +1128,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="409.6">
       <c r="A12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
@@ -1154,21 +1151,21 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="409.6">
       <c r="A13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
@@ -1177,21 +1174,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="409.6">
       <c r="A14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
@@ -1200,250 +1197,251 @@
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="171" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="171" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="98" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="112">
       <c r="A16" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="4">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="155" customHeight="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="155" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="4">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="154" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="176">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="98" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="112">
       <c r="A19" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="140" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="144">
       <c r="A20" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="238" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="272">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="4">
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" ht="124.5" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="224" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="240">
       <c r="A23" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="4">
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="203" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="203" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" s="4">
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D723561-279E-0148-9269-CF3CDAFEA5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7392ACE3-03A1-4336-86F7-CFC2301213B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28020" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,18 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The corresponding value for object "Netherlands" is "43.1", and its shortest descriptive phrase is "The Netherlands ($43.1 billion)". The corresponding value for object "France" is "35.3" and its shortest descriptive phrase is "France ($35.3 billion)"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The first object is "Inflation-adjusted ("real") GDP for the outdoor recreation economy"， its value is 18.9 and its descriptive phrase is "Inflation-adjusted ("real") GDP for the outdoor recreation economy increased 18.9 percent in 2021". The second object is "U.S. economy", its value is 5.9 and its descriptive phrase is "compared with a 5.9 percent increase for the overall U.S. economy, reflecting a rebound in outdoor recreation".</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"The object in unit 1 is 'Mini- and subcompact size'. Its compact size goes from '0.61' in 2017 to '0.30' in 2023. The subject in unit 2 is the combination of ‘Compact Size’ and 'Midsize to large'. Its compact size goes from the combination from ‘0.35’ and ‘0.04’ in 2017 to '0.30' and '0.40' in 2023."</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The China Lithium Industry Development Index white paper predicts a rising trend for installed wind and PV capacity (GW). It is expected to reach 1,200 GW and reach a 25% energy percentage in 2030.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,10 +356,6 @@
   </si>
   <si>
     <t>The 'Amazon stock' in text corresponds to the 'Close' column in data. The "head and shoulder" pattern consists of three rises and falls from three localized highs. The high point in the center is higher than the other two. This pattern is around from '1999/09/27' to '2000/02/22' and the middle high point exist on '1999/12/09'.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It' in text refers to 'installed wind + PV capacity (GW)'. The object in unit 1 is "installed wind and PV capacity (GW)". It has a "rising" trend from 2021 to 2030 and its descriptive phrase is 'a rising trend for installed wind and PV capacity (GW)'. The object in unit 2 is "installed wind and PV capacity (GW)". It reachs '1200' in 2030 and its descriptive phrase is 'It is expected to reach 1,200 GW'. The object in unit 3 is "energy percentage". It reaches '25%' in 2030 and its descriptive phrase is 'reach a 25% energy percentage in 2030'.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -488,6 +472,22 @@
   </si>
   <si>
     <t>The stock of Goodyear Tire &amp; Rubber company (GT)' in text corresponds to the 'Close' column in data. The 'rounding bottom' takes the shape of a gradual and smooth curve resembling the bottom of a bowl which is from 1990.5.11 to 1991.6.3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The text ’Netherlands‘ corresponds to the row 'Netherlands' in data, and its corresponding value is '43.1'. The text 'France' corresponds to the row 'France' in data, and its corresponding value is '35.3' in 'Billions of dollars' colounn.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The text 'Inflation-adjusted ("real") GDP for the outdoor recreation economy' corresponds to the column 'Outdoor recreation' and the row 'Real GDP' in data. Its value is '18.9'. The text 'U.S. economy' corresponds to the column 'U.S. economy' and row 'Real GDP' in data and its value is '5.9', reflecting a rebound trend.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The text 'Mini- and subcompact size' corresponds to column 'Mini- and subcompact size' in data. Its compact size goes from '0.61' in 2017 to '0.30' in 2023 which shows a declined trend. The text 'the mix of compact and midsize-to-large' correspond to columns 'Compact Size' and 'Midsize to large' in data. the corresponding value goes from the combination from '0.35' and '0.04' in 2017 to '0.30' and '0.40' in 2023.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It' in text refers to the column 'installed wind + PV capacity (GW)' in data. It has a "rising" trend from 2021 to 2030. The text 'installed wind and PV capacity (GW)' corresponds to the column 'installed wind + PV capacity (GW)' in data. Its value reachs '1200' in 2030. The text 'energy percentage' corresponds to the column 'energy consumption percentage' and the value is '25%' in 2030.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +495,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,7 +527,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -537,12 +537,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -578,7 +572,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -861,11 +854,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
@@ -879,7 +872,7 @@
     <col min="12" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -905,7 +898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="128.5" customHeight="1">
+    <row r="2" spans="1:11" ht="128.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -922,17 +915,17 @@
         <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="208.5" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="208.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -949,13 +942,13 @@
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="320">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="280" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
@@ -972,15 +965,15 @@
         <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="201" customHeight="1">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:11" ht="286" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -993,16 +986,16 @@
         <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="409" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1019,13 +1012,13 @@
         <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="409.6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1042,15 +1035,15 @@
         <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="409.6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -1062,39 +1055,39 @@
         <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="202" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="202" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="409.6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -1111,13 +1104,13 @@
         <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="409.6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -1134,13 +1127,13 @@
         <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="409.6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1157,13 +1150,13 @@
         <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="409.6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -1180,13 +1173,13 @@
         <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="409.6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -1200,243 +1193,243 @@
         <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="171" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="171" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="112">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="98" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="155" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="155" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17" s="4">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="176">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="154" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="112">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="98" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="144">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="140" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="272">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="238" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C21" s="4">
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="124.5" customHeight="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="240">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="224" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C23" s="4">
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="203" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="203" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C24" s="4">
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7392ACE3-03A1-4336-86F7-CFC2301213B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F63650-77F6-AA4E-B1CD-95D0D83DFE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="125">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,9 +201,6 @@
     <t>downtrend</t>
   </si>
   <si>
-    <t>[{'Time': 2018, 'Tesla': 19.8, 'BYD': 18.5}, {'Time': 2019, 'Tesla': 22.6, 'BYD': 18.2}, {'Time': 2020, 'Tesla': 31.5, 'BYD': 22.3}, {'Time': 2021, 'Tesla': 53.8, 'BYD': 30.8}, {'Time': 2022, 'Tesla': 81.4, 'BYD': 60.5}]</t>
-  </si>
-  <si>
     <t>normal</t>
   </si>
   <si>
@@ -276,14 +273,6 @@
   </si>
   <si>
     <t>China's banks extended CNY 345.9 billion in new yuan loans in July 2023, the least since November of 2009 and well below market forecasts of CNY 800 billion. The value is also much lower than CNY 679 billion a year earlier and CNY 3.05 trillion in June, after a record CNY 15.73 trillion loans in the first half of the year. The reading adds to further evidence of a lacklustre economic recovery in China although July is usually a weak month for financing activities, with banks not in a rush to meet their lending targets at the beginning of the quarter.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{'Time': 'Jul 2022', 'Banks Balance Sheet (CNY Billion)': 679.0}, {'Time': 'Aug 2022', 'Banks Balance Sheet (CNY Billion)': 1250.0}, {'Time': 'Sep 2022', 'Banks Balance Sheet (CNY Billion)': 2470.0}, {'Time': 'Oct 2022', 'Banks Balance Sheet (CNY Billion)': 615.2}, {'Time': 'Nov 2022', 'Banks Balance Sheet (CNY Billion)': 1210.0}, {'Time': 'Dec 2022', 'Banks Balance Sheet (CNY Billion)': 1400.0}, {'Time': 'Jan 2023', 'Banks Balance Sheet (CNY Billion)': 4900.0}, {'Time': 'Feb 2023', 'Banks Balance Sheet (CNY Billion)': 1810.0}, {'Time': 'Mar 2023', 'Banks Balance Sheet (CNY Billion)': 3890.0}, {'Time': 'Apr 2023', 'Banks Balance Sheet (CNY Billion)': 718.8}, {'Time': 'May 2023', 'Banks Balance Sheet (CNY Billion)': 1360.0}, {'Time': 'Jun 2023', 'Banks Balance Sheet (CNY Billion)': 3050.0}, {'Time': 'Jul 2023', 'Banks Balance Sheet (CNY Billion)': 345.9}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The column 'Banks Balance Sheet (CNY Billion)' corresponds to 'China's banks' and 'The value' in the text. 'The value' correspond to the value in July 2023, and the 'CNY 679 billion a year earlier' corresponds the time 'Jul 2022. The value 'CNY 15.73 trillion' is the sum of of 'Banks Balance Sheet' from 'Jan 2023' to 'Jun 2023'. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -488,6 +477,39 @@
   </si>
   <si>
     <t>It' in text refers to the column 'installed wind + PV capacity (GW)' in data. It has a "rising" trend from 2021 to 2030. The text 'installed wind and PV capacity (GW)' corresponds to the column 'installed wind + PV capacity (GW)' in data. Its value reachs '1200' in 2030. The text 'energy percentage' corresponds to the column 'energy consumption percentage' and the value is '25%' in 2030.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Time': '2022-Jul', 'Banks Balance Sheet (CNY Billion)': 679.0}, {'Time': '2022-Aug', 'Banks Balance Sheet (CNY Billion)': 1250.0}, {'Time': '2022-Sep', 'Banks Balance Sheet (CNY Billion)': 2470.0}, {'Time': '2022-Oct', 'Banks Balance Sheet (CNY Billion)': 615.2}, {'Time': '2022-Nov', 'Banks Balance Sheet (CNY Billion)': 1210.0}, {'Time': '2022-Dec', 'Banks Balance Sheet (CNY Billion)': 1400.0}, {'Time': '2023-Jan', 'Banks Balance Sheet (CNY Billion)': 4900.0}, {'Time': '2023-Feb', 'Banks Balance Sheet (CNY Billion)': 1810.0}, {'Time': '2023-Mar', 'Banks Balance Sheet (CNY Billion)': 3890.0}, {'Time': '2023-Apr', 'Banks Balance Sheet (CNY Billion)': 718.8}, {'Time': '2023-May', 'Banks Balance Sheet (CNY Billion)': 1360.0}, {'Time': '2023-Jun', 'Banks Balance Sheet (CNY Billion)': 3050.0}, {'Time': '2023-Jul', 'Banks Balance Sheet (CNY Billion)': 345.9}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">In World War Two, the Soviet Union had the highest human losses in the world, with 23.57 million dead. Due to the high number of human losses (10. 71 percent in Germany and 18.51 percent in Poland), the European economy collapsed after World War Two. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Country': 'Soviet Union', 'Human Losses of World War Two': 23.57, 'Percentage of country population': 13.43}, {'Country': 'China', 'Human Losses of World War Two': 19.49, 'Percentage of country population': 3.71}, {'Country': 'Germany', 'Human Losses of World War Two': 7.43, 'Percentage of country population': 10.71}, {'Country': 'Poland', 'Human Losses of World War Two': 4.96, 'Percentage of country population': 18.51}, {'Country': 'Indonesia', 'Human Losses of World War Two': 3.99, 'Percentage of country population': 5.71}, {'Country': 'Japan', 'Human Losses of World War Two': 2.71, 'Percentage of country population': 3.66}, {'Country': 'India', 'Human Losses of World War Two': 1.48, 'Percentage of country population': 0.37}, {'Country': 'Yugostavia', 'Human Losses of World War Two': 1.0, 'Percentage of country population': 6.6}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The column 'Banks Balance Sheet (CNY Billion)' corresponds to 'China's banks' and 'The value' in the text. 'The value' correspond to the value in July 2023, and the 'CNY 679 billion a year earlier' corresponds the time '2022-Jul. The value 'CNY 15.73 trillion' is the sum of of 'Banks Balance Sheet' from '2023-Jan' to '2023-Jun'. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Time': 2018, 'Tesla': 19.8, 'BYD': 18.5}, {'Time': 2019, 'Tesla': 22.6, 'BYD': 18.2}, {'Time': 2020, 'Tesla': 31.5, 'BYD': 22.3}, {'Time': 2021, 'Tesla': 53.8, 'BYD': 30.8}, {'Time': 2022, 'Tesla': 81.4, 'BYD': 60.5}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName": ["the Soviet Union"], "DataName": "Human Losses of World War Two", "Position": [{ "Begin": [0, 1], "End": [0, 1] }], "Trend": "None", "Num": [23.57], "Text": "the Soviet Union had the highest human losses in the world, with 23.57 million dead"},{"ObjectName": ["Germany"], "DataName": "Percentage of country population", "Position": [{ "Begin": [2, 2], "End": [2, 2] }], "Trend": "None", "Num": [10.71], "Text": "10.71 percent in Germany"}, {"ObjectName": ["Poland"], "DataName": "Percentage of country population", "Position": [{ "Begin": [3, 2], "End": [3, 2] }], "Trend": "None","Num": [18.51],
+"Text": "18.51 percent in Poland"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The text 'the Soviet Union' corresponds to the row 'Soviet Union', '23.57 million dead' corresponds to the column 'Human Losses of World War Two'. The '10.71 percent in Germany' corresponds to the column 'Percentage of country population' and the row 'Germany' in data. The '18.51 percent in Poland' corresponds to the row 'Poland' and the column 'Percentage of country population' in data.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +517,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -572,6 +594,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -852,13 +875,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
@@ -872,7 +895,7 @@
     <col min="12" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,7 +921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="128.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="128.5" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -915,17 +938,17 @@
         <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="208.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="208.5" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -942,13 +965,13 @@
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="280" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="320">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
@@ -965,14 +988,14 @@
         <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="286" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="286" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -989,13 +1012,13 @@
         <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="409" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1012,13 +1035,13 @@
         <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="409.6">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1035,15 +1058,15 @@
         <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="409.6">
       <c r="A8" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -1055,39 +1078,39 @@
         <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="202" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" ht="202" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="409.6">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -1104,13 +1127,13 @@
         <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="409.6">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -1127,13 +1150,13 @@
         <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="409.6">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1150,13 +1173,13 @@
         <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="409.6">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -1173,13 +1196,13 @@
         <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="409.6">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -1193,41 +1216,41 @@
         <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="171" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="171" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="98" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="112">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>42</v>
@@ -1236,19 +1259,19 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="155" customHeight="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="155" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
@@ -1259,21 +1282,21 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="154" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="176">
       <c r="A18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>42</v>
@@ -1282,21 +1305,21 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="98" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" ht="112">
       <c r="A19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>42</v>
@@ -1305,21 +1328,21 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="140" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="144">
       <c r="A20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>42</v>
@@ -1328,19 +1351,19 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="238" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:9" ht="272">
       <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
@@ -1351,21 +1374,21 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="124.5" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>45</v>
@@ -1374,19 +1397,19 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="224" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:9" ht="240">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -1400,16 +1423,16 @@
         <v>44</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="203" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:9" ht="203" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
@@ -1420,16 +1443,40 @@
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>58</v>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" ht="270" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="4">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F63650-77F6-AA4E-B1CD-95D0D83DFE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41966BB-85E2-2946-8846-D853F243C467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,10 +464,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The text ’Netherlands‘ corresponds to the row 'Netherlands' in data, and its corresponding value is '43.1'. The text 'France' corresponds to the row 'France' in data, and its corresponding value is '35.3' in 'Billions of dollars' colounn.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The text 'Inflation-adjusted ("real") GDP for the outdoor recreation economy' corresponds to the column 'Outdoor recreation' and the row 'Real GDP' in data. Its value is '18.9'. The text 'U.S. economy' corresponds to the column 'U.S. economy' and row 'Real GDP' in data and its value is '5.9', reflecting a rebound trend.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -510,6 +506,10 @@
   </si>
   <si>
     <t>The text 'the Soviet Union' corresponds to the row 'Soviet Union', '23.57 million dead' corresponds to the column 'Human Losses of World War Two'. The '10.71 percent in Germany' corresponds to the column 'Percentage of country population' and the row 'Germany' in data. The '18.51 percent in Poland' corresponds to the row 'Poland' and the column 'Percentage of country population' in data.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The text 'Netherlands' corresponds to the row 'Netherlands' in data, and its corresponding value is '43.1'. The text 'France' corresponds to the row 'France' in data, and its corresponding value is '35.3' in 'Billions of dollars' column.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -941,7 +941,7 @@
         <v>87</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
@@ -968,7 +968,7 @@
         <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="320">
@@ -991,7 +991,7 @@
         <v>85</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -1015,7 +1015,7 @@
         <v>90</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="409" customHeight="1">
@@ -1374,7 +1374,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>66</v>
@@ -1383,7 +1383,7 @@
         <v>108</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="124.5" customHeight="1">
@@ -1397,7 +1397,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>58</v>
@@ -1461,22 +1461,22 @@
         <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="4">
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41966BB-85E2-2946-8846-D853F243C467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E40D97-B09D-0E4C-BB8D-930A7E8EDEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4520" yWindow="-28180" windowWidth="28020" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41966BB-85E2-2946-8846-D853F243C467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AED75B-A3BD-4034-885C-1B93D90BC1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15220" yWindow="0" windowWidth="18530" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="129">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -510,6 +510,23 @@
   </si>
   <si>
     <t>The text 'Netherlands' corresponds to the row 'Netherlands' in data, and its corresponding value is '43.1'. The text 'France' corresponds to the row 'France' in data, and its corresponding value is '35.3' in 'Billions of dollars' column.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'time': '2006 Q3', 'change in real GDP': 1.8}, {'time': '2006 Q4', 'change in real GDP': 2.4}, {'time': '2007 Q1', 'change in real GDP': 2.0}, {'time': '2007 Q2 ', 'change in real GDP': 1.6}, {'time': '2007 Q3', 'change in real GDP': 1.15}, {'time': '2007 Q4', 'change in real GDP': 0.75}, {'time': '2008 Q1', 'change in real GDP': 0.1}, {'time': '2008 Q2', 'change in real GDP': -0.04}, {'time': '2008 Q3', 'change in real GDP': -1.5}, {'time': '2008 Q4', 'change in real GDP': -2.1}, {'time': '2009 Q1', 'change in real GDP': -2.6}, {'time': '2009 Q2', 'change in real GDP': -1.2}, {'time': '2009 Q3', 'change in real GDP': 0.5}, {'time': '2009 Q4', 'change in real GDP': 1.47}, {'time': '2010 Q1', 'change in real GDP': 2.7}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the recession period, the change in real GDP of the United States suffers a sharp decrease then a rise.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName": ["change in real GDP"],"DataName": "change in real GDP","Position": [{
+"Begin": [7, 1],"End": [10, 1]}],"Trend": "sharp decrease","Num": [None],"Text": "the change in real GDP of the United States suffers a sharp decrease then a rise"},{"ObjectName": ["change in real GDP"],"DataName": "change in real GDP","Position": [{"Begin": [10, 1],"End": [13, 1]}],"Trend": "rise","Num": [None],"Text": "the change in real GDP of the United States suffers a sharp decrease then a rise"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The text 'a sharp decrease' corresponds to the changes in 'change in real GDP' column from 2008 Q2 to 2009 Q2. The text 'rise' corresponds to the changes in 'change in real GDP' column from 2009 Q2 to 2009 Q4 in data.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,7 +534,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,13 +892,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="E24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
@@ -895,7 +912,7 @@
     <col min="12" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,7 +938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="128.5" customHeight="1">
+    <row r="2" spans="1:11" ht="128.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -948,7 +965,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="208.5" customHeight="1">
+    <row r="3" spans="1:11" ht="208.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -971,7 +988,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="320">
+    <row r="4" spans="1:11" ht="280" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
@@ -995,7 +1012,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="286" customHeight="1">
+    <row r="5" spans="1:11" ht="286" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1018,7 +1035,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="409" customHeight="1">
+    <row r="6" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1041,7 +1058,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="409.6">
+    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1064,7 +1081,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="409.6">
+    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>110</v>
       </c>
@@ -1087,7 +1104,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="202" customHeight="1">
+    <row r="9" spans="1:11" ht="202" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1110,7 +1127,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="409.6">
+    <row r="10" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -1133,7 +1150,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="409.6">
+    <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -1156,7 +1173,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="409.6">
+    <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1179,7 +1196,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="409.6">
+    <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -1202,7 +1219,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="409.6">
+    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -1225,7 +1242,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="171" customHeight="1">
+    <row r="15" spans="1:11" ht="171" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -1248,7 +1265,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="112">
+    <row r="16" spans="1:11" ht="98" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
@@ -1271,7 +1288,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="155" customHeight="1">
+    <row r="17" spans="1:9" ht="155" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
@@ -1294,7 +1311,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="176">
+    <row r="18" spans="1:9" ht="154" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -1317,7 +1334,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="112">
+    <row r="19" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
@@ -1340,7 +1357,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="144">
+    <row r="20" spans="1:9" ht="140" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
@@ -1363,7 +1380,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="272">
+    <row r="21" spans="1:9" ht="238" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
@@ -1386,7 +1403,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="124.5" customHeight="1">
+    <row r="22" spans="1:9" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
@@ -1409,7 +1426,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="240">
+    <row r="23" spans="1:9" ht="224" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -1432,7 +1449,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="203" customHeight="1">
+    <row r="24" spans="1:9" ht="203" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
@@ -1456,7 +1473,7 @@
       </c>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" ht="270" customHeight="1">
+    <row r="25" spans="1:9" ht="270" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
@@ -1477,6 +1494,29 @@
       </c>
       <c r="G25" s="3" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="196" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E40D97-B09D-0E4C-BB8D-930A7E8EDEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F71C460-BBFF-4DFF-B474-D8B52CB8FC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4520" yWindow="-28180" windowWidth="28020" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="31570" windowHeight="13960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="129">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,13 +511,26 @@
   <si>
     <t>The text 'Netherlands' corresponds to the row 'Netherlands' in data, and its corresponding value is '43.1'. The text 'France' corresponds to the row 'France' in data, and its corresponding value is '35.3' in 'Billions of dollars' column.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'time': '2006 Q3', 'change in real GDP': 1.8}, {'time': '2006 Q4', 'change in real GDP': 2.4}, {'time': '2007 Q1', 'change in real GDP': 2.0}, {'time': '2007 Q2 ', 'change in real GDP': 1.6}, {'time': '2007 Q3', 'change in real GDP': 1.15}, {'time': '2007 Q4', 'change in real GDP': 0.75}, {'time': '2008 Q1', 'change in real GDP': 0.1}, {'time': '2008 Q2', 'change in real GDP': -0.04}, {'time': '2008 Q3', 'change in real GDP': -1.5}, {'time': '2008 Q4', 'change in real GDP': -2.1}, {'time': '2009 Q1', 'change in real GDP': -2.6}, {'time': '2009 Q2', 'change in real GDP': -1.2}, {'time': '2009 Q3', 'change in real GDP': 0.5}, {'time': '2009 Q4', 'change in real GDP': 1.47}, {'time': '2010 Q1', 'change in real GDP': 2.7}]</t>
+  </si>
+  <si>
+    <t>In the recession period, the change in real GDP of the United States suffers a sharp decrease then a rise.</t>
+  </si>
+  <si>
+    <t>[{"ObjectName": ["change in real GDP"],"DataName": "change in real GDP","Position": [{_x000D_
+"Begin": [7, 1],"End": [10, 1]}],"Trend": "sharp decrease","Num": [None],"Text": "the change in real GDP of the United States suffers a sharp decrease then a rise"},{"ObjectName": ["change in real GDP"],"DataName": "change in real GDP","Position": [{"Begin": [10, 1],"End": [13, 1]}],"Trend": "rise","Num": [None],"Text": "the change in real GDP of the United States suffers a sharp decrease then a rise"}]</t>
+  </si>
+  <si>
+    <t>The text 'a sharp decrease' corresponds to the changes in 'change in real GDP' column from 2008 Q2 to 2009 Q2. The text 'rise' corresponds to the changes in 'change in real GDP' column from 2009 Q2 to 2009 Q4 in data.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,13 +888,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
@@ -895,7 +908,7 @@
     <col min="12" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,7 +934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="128.5" customHeight="1">
+    <row r="2" spans="1:11" ht="128.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -948,7 +961,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="208.5" customHeight="1">
+    <row r="3" spans="1:11" ht="208.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -971,7 +984,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="320">
+    <row r="4" spans="1:11" ht="280" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
@@ -995,7 +1008,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="286" customHeight="1">
+    <row r="5" spans="1:11" ht="286" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
@@ -1018,7 +1031,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="409" customHeight="1">
+    <row r="6" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1041,7 +1054,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="409.6">
+    <row r="7" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
@@ -1064,7 +1077,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="409.6">
+    <row r="8" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>110</v>
       </c>
@@ -1087,7 +1100,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="202" customHeight="1">
+    <row r="9" spans="1:11" ht="202" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1110,7 +1123,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="409.6">
+    <row r="10" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -1133,7 +1146,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="409.6">
+    <row r="11" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -1156,7 +1169,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="409.6">
+    <row r="12" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
@@ -1179,7 +1192,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="409.6">
+    <row r="13" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
@@ -1202,7 +1215,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="409.6">
+    <row r="14" spans="1:11" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
@@ -1225,7 +1238,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="171" customHeight="1">
+    <row r="15" spans="1:11" ht="171" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
@@ -1248,7 +1261,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="112">
+    <row r="16" spans="1:11" ht="98" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>47</v>
       </c>
@@ -1271,7 +1284,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="155" customHeight="1">
+    <row r="17" spans="1:9" ht="155" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
@@ -1294,7 +1307,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="176">
+    <row r="18" spans="1:9" ht="154" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -1317,7 +1330,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="112">
+    <row r="19" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
@@ -1340,7 +1353,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="144">
+    <row r="20" spans="1:9" ht="140" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>47</v>
       </c>
@@ -1363,7 +1376,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="272">
+    <row r="21" spans="1:9" ht="238" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
@@ -1386,7 +1399,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="124.5" customHeight="1">
+    <row r="22" spans="1:9" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
@@ -1409,7 +1422,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="240">
+    <row r="23" spans="1:9" ht="224" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>
@@ -1432,7 +1445,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="203" customHeight="1">
+    <row r="24" spans="1:9" ht="203" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
@@ -1456,7 +1469,7 @@
       </c>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:9" ht="270" customHeight="1">
+    <row r="25" spans="1:9" ht="270" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>11</v>
       </c>
@@ -1477,6 +1490,23 @@
       </c>
       <c r="G25" s="3" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="196" x14ac:dyDescent="0.3">
+      <c r="C26" s="4">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E40D97-B09D-0E4C-BB8D-930A7E8EDEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A498D4-D2CE-AA42-94B4-CE95DA6CC49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4520" yWindow="-28180" windowWidth="28020" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"Date": "1990/3/1", "Close": 16.8125}, {"Date": "1990/3/2", "Close": 17.0}, {"Date": "1990/3/5", "Close": 17.4375}, {"Date": "1990/3/6", "Close": 17.75}, {"Date": "1990/3/7", "Close": 17.6875}, {"Date": "1990/3/8", "Close": 17.6875}, {"Date": "1990/3/9", "Close": 17.75}, {"Date": "1990/3/12", "Close": 18.1875}, {"Date": "1990/3/13", "Close": 18.9375}, {"Date": "1990/3/14", "Close": 18.9375}, {"Date": "1990/3/15", "Close": 18.5}, {"Date": "1990/3/16", "Close": 18.75}, {"Date": "1990/3/19", "Close": 18.5625}, {"Date": "1990/3/20", "Close": 18.5625}, {"Date": "1990/3/21", "Close": 19.125}, {"Date": "1990/3/22", "Close": 18.5}, {"Date": "1990/3/23", "Close": 18.75}, {"Date": "1990/3/26", "Close": 18.625}, {"Date": "1990/3/27", "Close": 18.625}, {"Date": "1990/3/28", "Close": 18.4375}, {"Date": "1990/3/29", "Close": 18.125}, {"Date": "1990/3/30", "Close": 17.875}, {"Date": "1990/4/2", "Close": 18.125}, {"Date": "1990/4/3", "Close": 18.5}, {"Date": "1990/4/4", "Close": 18.5625}, {"Date": "1990/4/5", "Close": 18.125}, {"Date": "1990/4/6", "Close": 18.125}, {"Date": "1990/4/9", "Close": 17.875}, {"Date": "1990/4/10", "Close": 17.9375}, {"Date": "1990/4/11", "Close": 18.0625}, {"Date": "1990/4/12", "Close": 17.9375}, {"Date": "1990/4/16", "Close": 17.625}, {"Date": "1990/4/17", "Close": 17.5625}, {"Date": "1990/4/18", "Close": 17.5625}, {"Date": "1990/4/19", "Close": 17.5}, {"Date": "1990/4/20", "Close": 17.375}, {"Date": "1990/4/23", "Close": 17.0625}, {"Date": "1990/4/24", "Close": 17.5}, {"Date": "1990/4/25", "Close": 17.75}, {"Date": "1990/4/26", "Close": 17.75}, {"Date": "1990/4/27", "Close": 17.625}, {"Date": "1990/4/30", "Close": 17.6875}, {"Date": "1990/5/1", "Close": 17.6875}, {"Date": "1990/5/2", "Close": 17.625}, {"Date": "1990/5/3", "Close": 17.75}, {"Date": "1990/5/4", "Close": 17.6875}, {"Date": "1990/5/7", "Close": 17.75}, {"Date": "1990/5/8", "Close": 17.75}, {"Date": "1990/5/9", "Close": 17.6875}, {"Date": "1990/5/10", "Close": 17.4375}, {"Date": "1990/5/11", "Close": 17.75}, {"Date": "1990/5/14", "Close": 17.6875}, {"Date": "1990/5/15", "Close": 17.4375}, {"Date": "1990/5/16", "Close": 17.6875}, {"Date": "1990/5/17", "Close": 17.9375}, {"Date": "1990/5/18", "Close": 17.9375}, {"Date": "1990/5/21", "Close": 17.875}, {"Date": "1990/5/22", "Close": 17.5625}, {"Date": "1990/5/23", "Close": 17.3125}, {"Date": "1990/5/24", "Close": 17.3125}, {"Date": "1990/5/25", "Close": 17.25}, {"Date": "1990/5/29", "Close": 17.6875}, {"Date": "1990/5/30", "Close": 18.0625}, {"Date": "1990/5/31", "Close": 17.875}, {"Date": "1990/6/1", "Close": 17.8125}, {"Date": "1990/6/4", "Close": 18.125}, {"Date": "1990/6/5", "Close": 17.9375}, {"Date": "1990/6/6", "Close": 17.75}, {"Date": "1990/6/7", "Close": 17.5}, {"Date": "1990/6/8", "Close": 17.3125}, {"Date": "1990/6/11", "Close": 17.0625}, {"Date": "1990/6/12", "Close": 17.25}, {"Date": "1990/6/13", "Close": 17.0625}, {"Date": "1990/6/14", "Close": 17.375}, {"Date": "1990/6/15", "Close": 17.3125}, {"Date": "1990/6/18", "Close": 17.0}, {"Date": "1990/6/19", "Close": 16.875}, {"Date": "1990/6/20", "Close": 16.8125}, {"Date": "1990/6/21", "Close": 16.25}, {"Date": "1990/6/22", "Close": 15.8125}, {"Date": "1990/6/25", "Close": 15.8125}, {"Date": "1990/6/26", "Close": 15.875}, {"Date": "1990/6/27", "Close": 15.5625}, {"Date": "1990/6/28", "Close": 15.125}, {"Date": "1990/6/29", "Close": 15.0625}, {"Date": "1990/7/2", "Close": 14.875}, {"Date": "1990/7/3", "Close": 14.75}, {"Date": "1990/7/5", "Close": 14.5625}, {"Date": "1990/7/6", "Close": 14.6875}, {"Date": "1990/7/9", "Close": 14.5}, {"Date": "1990/7/10", "Close": 14.1875}, {"Date": "1990/7/11", "Close": 13.9375}, {"Date": "1990/7/12", "Close": 14.25}, {"Date": "1990/7/13", "Close": 14.5}, {"Date": "1990/7/16", "Close": 14.8125}, {"Date": "1990/7/17", "Close": 15.0625}, {"Date": "1990/7/18", "Close": 14.75}, {"Date": "1990/7/19", "Close": 15.0625}, {"Date": "1990/7/20", "Close": 14.5}, {"Date": "1990/7/23", "Close": 14.25}, {"Date": "1990/7/24", "Close": 13.8125}, {"Date": "1990/7/25", "Close": 14.0625}, {"Date": "1990/7/26", "Close": 13.625}, {"Date": "1990/7/27", "Close": 13.5625}, {"Date": "1990/7/30", "Close": 13.875}, {"Date": "1990/7/31", "Close": 13.25}, {"Date": "1990/8/1", "Close": 13.1875}, {"Date": "1990/8/2", "Close": 13.375}, {"Date": "1990/8/3", "Close": 12.5}, {"Date": "1990/8/6", "Close": 12.1875}, {"Date": "1990/8/7", "Close": 12.25}, {"Date": "1990/8/8", "Close": 12.75}, {"Date": "1990/8/9", "Close": 12.75}, {"Date": "1990/8/10", "Close": 12.25}, {"Date": "1990/8/13", "Close": 12.5}, {"Date": "1990/8/14", "Close": 12.6875}, {"Date": "1990/8/15", "Close": 12.9375}, {"Date": "1990/8/16", "Close": 12.4375}, {"Date": "1990/8/17", "Close": 11.8125}, {"Date": "1990/8/20", "Close": 11.625}, {"Date": "1990/8/21", "Close": 11.5}, {"Date": "1990/8/22", "Close": 12.1875}, {"Date": "1990/8/23", "Close": 11.25}, {"Date": "1990/8/24", "Close": 11.6875}, {"Date": "1990/8/27", "Close": 11.8125}, {"Date": "1990/8/28", "Close": 11.75}, {"Date": "1990/8/29", "Close": 11.9375}, {"Date": "1990/8/30", "Close": 12.0625}, {"Date": "1990/8/31", "Close": 11.375}, {"Date": "1990/9/4", "Close": 11.5}, {"Date": "1990/9/5", "Close": 11.5625}, {"Date": "1990/9/6", "Close": 11.125}, {"Date": "1990/9/7", "Close": 10.3125}, {"Date": "1990/9/10", "Close": 10.5}, {"Date": "1990/9/11", "Close": 10.1875}, {"Date": "1990/9/12", "Close": 10.125}, {"Date": "1990/9/13", "Close": 9.9375}, {"Date": "1990/9/14", "Close": 9.9375}, {"Date": "1990/9/17", "Close": 9.5}, {"Date": "1990/9/18", "Close": 9.375}, {"Date": "1990/9/19", "Close": 9.5}, {"Date": "1990/9/20", "Close": 9.4375}, {"Date": "1990/9/21", "Close": 9.3125}, {"Date": "1990/9/24", "Close": 9.0}, {"Date": "1990/9/25", "Close": 8.5}, {"Date": "1990/9/26", "Close": 8.875}, {"Date": "1990/9/27", "Close": 8.375}, {"Date": "1990/9/28", "Close": 8.5}, {"Date": "1990/10/1", "Close": 8.5625}, {"Date": "1990/10/2", "Close": 8.375}, {"Date": "1990/10/3", "Close": 8.4375}, {"Date": "1990/10/4", "Close": 8.625}, {"Date": "1990/10/5", "Close": 8.5625}, {"Date": "1990/10/8", "Close": 8.4375}, {"Date": "1990/10/9", "Close": 8.125}, {"Date": "1990/10/10", "Close": 8.1875}, {"Date": "1990/10/11", "Close": 8.25}, {"Date": "1990/10/12", "Close": 8.125}, {"Date": "1990/10/15", "Close": 7.5625}, {"Date": "1990/10/16", "Close": 7.625}, {"Date": "1990/10/17", "Close": 8.0625}, {"Date": "1990/10/18", "Close": 8.0625}, {"Date": "1990/10/19", "Close": 8.0625}, {"Date": "1990/10/22", "Close": 7.875}, {"Date": "1990/10/23", "Close": 8.0}, {"Date": "1990/10/24", "Close": 8.25}, {"Date": "1990/10/25", "Close": 8.0}, {"Date": "1990/10/26", "Close": 7.8125}, {"Date": "1990/10/29", "Close": 7.75}, {"Date": "1990/10/30", "Close": 7.8125}, {"Date": "1990/10/31", "Close": 7.625}, {"Date": "1990/11/1", "Close": 7.5625}, {"Date": "1990/11/2", "Close": 7.375}, {"Date": "1990/11/5", "Close": 7.25}, {"Date": "1990/11/6", "Close": 7.625}, {"Date": "1990/11/7", "Close": 7.4375}, {"Date": "1990/11/8", "Close": 7.375}, {"Date": "1990/11/9", "Close": 6.75}, {"Date": "1990/11/12", "Close": 7.0}, {"Date": "1990/11/13", "Close": 7.1875}, {"Date": "1990/11/14", "Close": 7.625}, {"Date": "1990/11/15", "Close": 7.75}, {"Date": "1990/11/16", "Close": 7.875}, {"Date": "1990/11/19", "Close": 7.875}, {"Date": "1990/11/20", "Close": 7.75}, {"Date": "1990/11/21", "Close": 7.8125}, {"Date": "1990/11/23", "Close": 7.8125}, {"Date": "1990/11/26", "Close": 7.625}, {"Date": "1990/11/27", "Close": 7.75}, {"Date": "1990/11/28", "Close": 8.1875}, {"Date": "1990/11/29", "Close": 8.0625}, {"Date": "1990/11/30", "Close": 8.0}, {"Date": "1990/12/3", "Close": 7.9375}, {"Date": "1990/12/4", "Close": 7.9375}, {"Date": "1990/12/5", "Close": 8.0}, {"Date": "1990/12/6", "Close": 7.9375}, {"Date": "1990/12/7", "Close": 8.125}, {"Date": "1990/12/10", "Close": 8.125}, {"Date": "1990/12/11", "Close": 8.625}, {"Date": "1990/12/12", "Close": 8.75}, {"Date": "1990/12/13", "Close": 8.625}, {"Date": "1990/12/14", "Close": 8.5}, {"Date": "1990/12/17", "Close": 8.375}, {"Date": "1990/12/18", "Close": 8.375}, {"Date": "1990/12/19", "Close": 8.75}, {"Date": "1990/12/20", "Close": 8.75}, {"Date": "1990/12/21", "Close": 8.5625}, {"Date": "1990/12/24", "Close": 8.6875}, {"Date": "1990/12/26", "Close": 9.0625}, {"Date": "1990/12/27", "Close": 9.375}, {"Date": "1990/12/28", "Close": 9.5625}, {"Date": "1990/12/31", "Close": 9.4375}, {"Date": "1991/1/2", "Close": 9.5}, {"Date": "1991/1/3", "Close": 9.0625}, {"Date": "1991/1/4", "Close": 8.8125}, {"Date": "1991/1/7", "Close": 8.6875}, {"Date": "1991/1/8", "Close": 8.8125}, {"Date": "1991/1/9", "Close": 8.625}, {"Date": "1991/1/10", "Close": 8.6875}, {"Date": "1991/1/11", "Close": 9.0625}, {"Date": "1991/1/14", "Close": 8.75}, {"Date": "1991/1/15", "Close": 8.75}, {"Date": "1991/1/16", "Close": 8.75}, {"Date": "1991/1/17", "Close": 9.25}, {"Date": "1991/1/18", "Close": 9.375}, {"Date": "1991/1/21", "Close": 9.25}, {"Date": "1991/1/22", "Close": 9.25}, {"Date": "1991/1/23", "Close": 9.5}, {"Date": "1991/1/24", "Close": 9.8125}, {"Date": "1991/1/25", "Close": 9.5625}, {"Date": "1991/1/28", "Close": 9.625}, {"Date": "1991/1/29", "Close": 9.8125}, {"Date": "1991/1/30", "Close": 10.3125}, {"Date": "1991/1/31", "Close": 10.125}, {"Date": "1991/2/1", "Close": 10.1875}, {"Date": "1991/2/4", "Close": 10.5}, {"Date": "1991/2/5", "Close": 10.3125}, {"Date": "1991/2/6", "Close": 9.9375}, {"Date": "1991/2/7", "Close": 9.375}, {"Date": "1991/2/8", "Close": 9.375}, {"Date": "1991/2/11", "Close": 9.6875}, {"Date": "1991/2/12", "Close": 9.5625}, {"Date": "1991/2/13", "Close": 9.8125}, {"Date": "1991/2/14", "Close": 9.8125}, {"Date": "1991/2/15", "Close": 9.9375}, {"Date": "1991/2/19", "Close": 10.0}, {"Date": "1991/2/20", "Close": 10.0}, {"Date": "1991/2/21", "Close": 10.0625}, {"Date": "1991/2/22", "Close": 10.25}, {"Date": "1991/2/25", "Close": 10.25}, {"Date": "1991/2/26", "Close": 10.1875}, {"Date": "1991/2/27", "Close": 10.375}, {"Date": "1991/2/28", "Close": 10.3125}, {"Date": "1991/3/1", "Close": 10.5625}, {"Date": "1991/3/4", "Close": 11.3125}, {"Date": "1991/3/5", "Close": 11.8125}, {"Date": "1991/3/6", "Close": 11.8125}, {"Date": "1991/3/7", "Close": 11.9375}, {"Date": "1991/3/8", "Close": 12.0625}, {"Date": "1991/3/11", "Close": 11.875}, {"Date": "1991/3/12", "Close": 11.4375}, {"Date": "1991/3/13", "Close": 11.4375}, {"Date": "1991/3/14", "Close": 11.25}, {"Date": "1991/3/15", "Close": 11.25}, {"Date": "1991/3/18", "Close": 11.125}, {"Date": "1991/3/19", "Close": 10.9375}, {"Date": "1991/3/20", "Close": 10.9375}, {"Date": "1991/3/21", "Close": 10.9375}, {"Date": "1991/3/22", "Close": 11.0625}, {"Date": "1991/3/25", "Close": 10.25}, {"Date": "1991/3/26", "Close": 10.375}, {"Date": "1991/3/27", "Close": 11.4375}, {"Date": "1991/3/28", "Close": 11.8125}, {"Date": "1991/4/1", "Close": 11.6875}, {"Date": "1991/4/2", "Close": 12.0625}, {"Date": "1991/4/3", "Close": 11.875}, {"Date": "1991/4/4", "Close": 11.6875}, {"Date": "1991/4/5", "Close": 11.5625}, {"Date": "1991/4/8", "Close": 11.625}, {"Date": "1991/4/9", "Close": 11.1875}, {"Date": "1991/4/10", "Close": 11.1875}, {"Date": "1991/4/11", "Close": 11.25}, {"Date": "1991/4/12", "Close": 11.4375}, {"Date": "1991/4/15", "Close": 11.5625}, {"Date": "1991/4/16", "Close": 11.375}, {"Date": "1991/4/17", "Close": 11.3125}, {"Date": "1991/4/18", "Close": 11.25}, {"Date": "1991/4/19", "Close": 11.3125}, {"Date": "1991/4/22", "Close": 10.875}, {"Date": "1991/4/23", "Close": 10.5}, {"Date": "1991/4/24", "Close": 10.75}, {"Date": "1991/4/25", "Close": 10.5625}, {"Date": "1991/4/26", "Close": 11.0}, {"Date": "1991/4/29", "Close": 10.8125}, {"Date": "1991/4/30", "Close": 10.625}, {"Date": "1991/5/1", "Close": 10.9375}, {"Date": "1991/5/2", "Close": 10.75}, {"Date": "1991/5/3", "Close": 10.9375}, {"Date": "1991/5/6", "Close": 11.3125}, {"Date": "1991/5/7", "Close": 11.0}, {"Date": "1991/5/8", "Close": 11.3125}, {"Date": "1991/5/9", "Close": 11.4375}, {"Date": "1991/5/10", "Close": 11.4375}, {"Date": "1991/5/13", "Close": 11.5625}, {"Date": "1991/5/14", "Close": 11.3125}, {"Date": "1991/5/15", "Close": 11.25}, {"Date": "1991/5/16", "Close": 11.4375}, {"Date": "1991/5/17", "Close": 11.4375}, {"Date": "1991/5/20", "Close": 11.875}, {"Date": "1991/5/21", "Close": 12.25}, {"Date": "1991/5/22", "Close": 12.3125}, {"Date": "1991/5/23", "Close": 12.1875}, {"Date": "1991/5/24", "Close": 12.375}, {"Date": "1991/5/28", "Close": 12.8125}, {"Date": "1991/5/29", "Close": 13.0}, {"Date": "1991/5/30", "Close": 13.0}, {"Date": "1991/5/31", "Close": 13.125}, {"Date": "1991/6/3", "Close": 13.5}, {"Date": "1991/6/4", "Close": 15.0625}, {"Date": "1991/6/5", "Close": 15.6875}, {"Date": "1991/6/6", "Close": 16.0625}, {"Date": "1991/6/7", "Close": 16.625}, {"Date": "1991/6/10", "Close": 16.625}, {"Date": "1991/6/11", "Close": 16.0625}, {"Date": "1991/6/12", "Close": 16.625}, {"Date": "1991/6/13", "Close": 16.5625}, {"Date": "1991/6/14", "Close": 16.75}, {"Date": "1991/6/17", "Close": 17.4375}, {"Date": "1991/6/18", "Close": 17.0}, {"Date": "1991/6/19", "Close": 17.0625}, {"Date": "1991/6/20", "Close": 17.125}, {"Date": "1991/6/21", "Close": 17.125}, {"Date": "1991/6/24", "Close": 16.9375}, {"Date": "1991/6/25", "Close": 16.75}, {"Date": "1991/6/26", "Close": 16.5625}, {"Date": "1991/6/27", "Close": 16.6875}, {"Date": "1991/6/28", "Close": 16.625}, {"Date": "1991/7/1", "Close": 16.875}, {"Date": "1991/7/2", "Close": 16.625}, {"Date": "1991/7/3", "Close": 16.75}, {"Date": "1991/7/5", "Close": 16.8125}, {"Date": "1991/7/8", "Close": 17.1875}, {"Date": "1991/7/9", "Close": 17.1875}, {"Date": "1991/7/10", "Close": 17.8125}, {"Date": "1991/7/11", "Close": 17.625}, {"Date": "1991/7/12", "Close": 18.0}, {"Date": "1991/7/15", "Close": 17.8125}, {"Date": "1991/7/16", "Close": 18.3125}, {"Date": "1991/7/17", "Close": 18.4375}, {"Date": "1991/7/18", "Close": 19.125}, {"Date": "1991/7/19", "Close": 19.4375}, {"Date": "1991/7/22", "Close": 19.125}, {"Date": "1991/7/23", "Close": 18.5}, {"Date": "1991/7/24", "Close": 18.1875}, {"Date": "1991/7/25", "Close": 19.0}, {"Date": "1991/7/26", "Close": 19.0625}, {"Date": "1991/7/29", "Close": 18.8125}, {"Date": "1991/7/30", "Close": 18.75}, {"Date": "1991/7/31", "Close": 19.0625}, {"Date": "1991/8/1", "Close": 18.875}, {"Date": "1991/8/2", "Close": 18.875}, {"Date": "1991/8/5", "Close": 18.625}, {"Date": "1991/8/6", "Close": 19.0}, {"Date": "1991/8/7", "Close": 19.125}, {"Date": "1991/8/8", "Close": 19.375}, {"Date": "1991/8/9", "Close": 19.375}, {"Date": "1991/8/12", "Close": 19.0}, {"Date": "1991/8/13", "Close": 18.3125}, {"Date": "1991/8/14", "Close": 18.5625}, {"Date": "1991/8/15", "Close": 18.3125}, {"Date": "1991/8/16", "Close": 17.875}, {"Date": "1991/8/19", "Close": 17.0625}, {"Date": "1991/8/20", "Close": 17.3125}, {"Date": "1991/8/21", "Close": 18.4375}, {"Date": "1991/8/22", "Close": 18.625}, {"Date": "1991/8/23", "Close": 18.9375}, {"Date": "1991/8/26", "Close": 19.0625}, {"Date": "1991/8/27", "Close": 18.9375}, {"Date": "1991/8/28", "Close": 19.375}, {"Date": "1991/8/29", "Close": 19.1875}, {"Date": "1991/8/30", "Close": 19.125}, {"Date": "1991/9/3", "Close": 19.25}, {"Date": "1991/9/4", "Close": 20.4375}, {"Date": "1991/9/5", "Close": 20.625}, {"Date": "1991/9/6", "Close": 21.0}, {"Date": "1991/9/9", "Close": 21.0625}, {"Date": "1991/9/10", "Close": 20.8125}, {"Date": "1991/9/11", "Close": 21.0}, {"Date": "1991/9/12", "Close": 21.1875}, {"Date": "1991/9/13", "Close": 20.8125}, {"Date": "1991/9/16", "Close": 21.0625}, {"Date": "1991/9/17", "Close": 21.125}, {"Date": "1991/9/18", "Close": 21.25}, {"Date": "1991/9/19", "Close": 21.5}, {"Date": "1991/9/20", "Close": 21.75}, {"Date": "1991/9/23", "Close": 21.375}, {"Date": "1991/9/24", "Close": 21.3125}, {"Date": "1991/9/25", "Close": 21.6875}, {"Date": "1991/9/26", "Close": 21.8125}, {"Date": "1991/9/27", "Close": 21.6875}, {"Date": "1991/9/30", "Close": 21.9375}, {"Date": "1991/10/1", "Close": 21.8125}, {"Date": "1991/10/2", "Close": 22.125}, {"Date": "1991/10/3", "Close": 21.75}, {"Date": "1991/10/4", "Close": 21.5625}, {"Date": "1991/10/7", "Close": 20.9375}, {"Date": "1991/10/8", "Close": 21.5625}, {"Date": "1991/10/9", "Close": 21.9375}, {"Date": "1991/10/10", "Close": 21.9375}, {"Date": "1991/10/11", "Close": 21.9375}, {"Date": "1991/10/14", "Close": 21.9375}, {"Date": "1991/10/15", "Close": 21.8125}, {"Date": "1991/10/16", "Close": 22.375}, {"Date": "1991/10/17", "Close": 22.3125}, {"Date": "1991/10/18", "Close": 22.1875}, {"Date": "1991/10/21", "Close": 22.4375}, {"Date": "1991/10/22", "Close": 22.875}, {"Date": "1991/10/23", "Close": 23.5}, {"Date": "1991/10/24", "Close": 23.25}, {"Date": "1991/10/25", "Close": 23.375}, {"Date": "1991/10/28", "Close": 24.4375}, {"Date": "1991/10/29", "Close": 24.5625}, {"Date": "1991/10/30", "Close": 24.8125}, {"Date": "1991/10/31", "Close": 25.0}, {"Date": "1991/11/1", "Close": 24.8125}, {"Date": "1991/11/4", "Close": 24.875}, {"Date": "1991/11/5", "Close": 25.875}, {"Date": "1991/11/6", "Close": 26.8125}, {"Date": "1991/11/7", "Close": 26.25}, {"Date": "1991/11/8", "Close": 26.25}, {"Date": "1991/11/11", "Close": 25.75}, {"Date": "1991/11/12", "Close": 25.25}, {"Date": "1991/11/13", "Close": 24.6875}, {"Date": "1991/11/14", "Close": 24.6875}, {"Date": "1991/11/15", "Close": 24.125}, {"Date": "1991/11/18", "Close": 24.1875}, {"Date": "1991/11/19", "Close": 23.5}, {"Date": "1991/11/20", "Close": 24.125}, {"Date": "1991/11/21", "Close": 24.4375}, {"Date": "1991/11/22", "Close": 24.875}, {"Date": "1991/11/25", "Close": 24.5}, {"Date": "1991/11/26", "Close": 24.375}, {"Date": "1991/11/27", "Close": 24.25}, {"Date": "1991/11/29", "Close": 23.9375}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{'time': 2021, 'Installed wind + PV capacity (GW)': 615, 'energy consumption percentage': '13.80%'}, {'time': 2022, 'Installed wind + PV capacity (GW)': 695, 'energy consumption percentage': '15.10%'}, {'time': 2023, 'Installed wind + PV capacity (GW)': 775, 'energy consumption percentage': '16.60%'}, {'time': 2024, 'Installed wind + PV capacity (GW)': 855, 'energy consumption percentage': '18.30%'}, {'time': 2025, 'Installed wind + PV capacity (GW)': 935, 'energy consumption percentage': '20.00%'}, {'time': 2030, 'Installed wind + PV capacity (GW)': 1200, 'energy consumption percentage': '25.00%'}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,10 +428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"ObjectName":["Amazon stock"],"DataName":"Close","Position":[{"Begin":[39,1],"EndIndex":[141,1]}],"Trend":"Head and shoulder","Num":"None","Text":"a "head and shoulder" pattern on the Amazon stock moving averages from 1999/09/27 to 2000/02/22"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"ObjectName":["The unemployment rate in France"],"DataName":"Unemployment rate","Position":[{"Begin":[4,1],"End":[5,1]}],"Trend":"inched up","Num":[7.1,7.2],"Text":"The unemployment rate in France inched up to 7.2% in the second quarter of 2023 from 7.1% in the previous quarter"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,6 +503,13 @@
   <si>
     <t>The text 'Netherlands' corresponds to the row 'Netherlands' in data, and its corresponding value is '43.1'. The text 'France' corresponds to the row 'France' in data, and its corresponding value is '35.3' in 'Billions of dollars' column.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Amazon stock"],"DataName":"Close","Position":[{"Begin":[39,1],"EndIndex":[141,1]}],"Trend":"head and shoulder","Num":"None","Text":"a "head and shoulder" pattern on the Amazon stock moving averages from 1999/09/27 to 2000/02/22"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Date': '1999/5/3', 'Adj Close': 3.7734379999999996}, {'Date': '1999/5/4', 'Adj Close': 3.575}, {'Date': '1999/5/5', 'Adj Close': 3.6625}, {'Date': '1999/5/6', 'Adj Close': 3.434375}, {'Date': '1999/5/7', 'Adj Close': 3.409375}, {'Date': '1999/5/10', 'Adj Close': 3.671875}, {'Date': '1999/5/11', 'Adj Close': 3.709375}, {'Date': '1999/5/12', 'Adj Close': 3.573438}, {'Date': '1999/5/13', 'Adj Close': 3.4}, {'Date': '1999/5/14', 'Adj Close': 3.309375}, {'Date': '1999/5/17', 'Adj Close': 3.440625}, {'Date': '1999/5/18', 'Adj Close': 3.315625}, {'Date': '1999/5/19', 'Adj Close': 3.489063}, {'Date': '1999/5/20', 'Adj Close': 3.2703130000000002}, {'Date': '1999/5/21', 'Adj Close': 3.214063}, {'Date': '1999/5/24', 'Adj Close': 2.9375}, {'Date': '1999/5/25', 'Adj Close': 2.789063}, {'Date': '1999/5/26', 'Adj Close': 3.023438}, {'Date': '1999/5/27', 'Adj Close': 2.8640630000000002}, {'Date': '1999/5/28', 'Adj Close': 2.96875}, {'Date': '1999/6/1', 'Adj Close': 2.6453130000000002}, {'Date': '1999/6/2', 'Adj Close': 2.803125}, {'Date': '1999/6/3', 'Adj Close': 2.626563}, {'Date': '1999/6/4', 'Adj Close': 2.710938}, {'Date': '1999/6/7', 'Adj Close': 2.934375}, {'Date': '1999/6/8', 'Adj Close': 2.789063}, {'Date': '1999/6/9', 'Adj Close': 2.85}, {'Date': '1999/6/10', 'Adj Close': 2.898438}, {'Date': '1999/6/11', 'Adj Close': 2.6453130000000002}, {'Date': '1999/6/14', 'Adj Close': 2.3}, {'Date': '1999/6/15', 'Adj Close': 2.4125}, {'Date': '1999/6/16', 'Adj Close': 2.792188}, {'Date': '1999/6/17', 'Adj Close': 2.823438}, {'Date': '1999/6/18', 'Adj Close': 2.782813}, {'Date': '1999/6/21', 'Adj Close': 3.0875}, {'Date': '1999/6/22', 'Adj Close': 2.9375}, {'Date': '1999/6/23', 'Adj Close': 2.94375}, {'Date': '1999/6/24', 'Adj Close': 2.840625}, {'Date': '1999/6/25', 'Adj Close': 2.7546880000000002}, {'Date': '1999/6/28', 'Adj Close': 2.767188}, {'Date': '1999/6/29', 'Adj Close': 2.901563}, {'Date': '1999/6/30', 'Adj Close': 3.128125}, {'Date': '1999/7/1', 'Adj Close': 3.059375}, {'Date': '1999/7/2', 'Adj Close': 3.101563}, {'Date': '1999/7/6', 'Adj Close': 3.171875}, {'Date': '1999/7/7', 'Adj Close': 3.046875}, {'Date': '1999/7/8', 'Adj Close': 3.134375}, {'Date': '1999/7/9', 'Adj Close': 3.1375}, {'Date': '1999/7/12', 'Adj Close': 2.934375}, {'Date': '1999/7/13', 'Adj Close': 3.153125}, {'Date': '1999/7/14', 'Adj Close': 3.375}, {'Date': '1999/7/15', 'Adj Close': 3.489063}, {'Date': '1999/7/16', 'Adj Close': 3.440625}, {'Date': '1999/7/19', 'Adj Close': 3.292188}, {'Date': '1999/7/20', 'Adj Close': 3.003125}, {'Date': '1999/7/21', 'Adj Close': 3.135938}, {'Date': '1999/7/22', 'Adj Close': 2.670313}, {'Date': '1999/7/23', 'Adj Close': 2.8640630000000002}, {'Date': '1999/7/26', 'Adj Close': 2.648438}, {'Date': '1999/7/27', 'Adj Close': 2.525}, {'Date': '1999/7/28', 'Adj Close': 2.64375}, {'Date': '1999/7/29', 'Adj Close': 2.539063}, {'Date': '1999/7/30', 'Adj Close': 2.501563}, {'Date': '1999/8/2', 'Adj Close': 2.35}, {'Date': '1999/8/3', 'Adj Close': 2.371875}, {'Date': '1999/8/4', 'Adj Close': 2.210938}, {'Date': '1999/8/5', 'Adj Close': 2.43125}, {'Date': '1999/8/6', 'Adj Close': 2.2390630000000002}, {'Date': '1999/8/9', 'Adj Close': 2.1375}, {'Date': '1999/8/10', 'Adj Close': 2.275}, {'Date': '1999/8/11', 'Adj Close': 2.273438}, {'Date': '1999/8/12', 'Adj Close': 2.29375}, {'Date': '1999/8/13', 'Adj Close': 2.435938}, {'Date': '1999/8/16', 'Adj Close': 2.4578130000000002}, {'Date': '1999/8/17', 'Adj Close': 2.73125}, {'Date': '1999/8/18', 'Adj Close': 2.828125}, {'Date': '1999/8/19', 'Adj Close': 2.653125}, {'Date': '1999/8/20', 'Adj Close': 2.835938}, {'Date': '1999/8/23', 'Adj Close': 2.959375}, {'Date': '1999/8/24', 'Adj Close': 3.001563}, {'Date': '1999/8/25', 'Adj Close': 3.321875}, {'Date': '1999/8/26', 'Adj Close': 3.214063}, {'Date': '1999/8/27', 'Adj Close': 3.2125}, {'Date': '1999/8/30', 'Adj Close': 2.98125}, {'Date': '1999/8/31', 'Adj Close': 3.109375}, {'Date': '1999/9/1', 'Adj Close': 2.976563}, {'Date': '1999/9/2', 'Adj Close': 3.003125}, {'Date': '1999/9/3', 'Adj Close': 3.121875}, {'Date': '1999/9/7', 'Adj Close': 3.146875}, {'Date': '1999/9/8', 'Adj Close': 3.071875}, {'Date': '1999/9/9', 'Adj Close': 3.18125}, {'Date': '1999/9/10', 'Adj Close': 3.325}, {'Date': '1999/9/13', 'Adj Close': 3.165625}, {'Date': '1999/9/14', 'Adj Close': 3.3}, {'Date': '1999/9/15', 'Adj Close': 3.278125}, {'Date': '1999/9/16', 'Adj Close': 3.2625}, {'Date': '1999/9/17', 'Adj Close': 3.190625}, {'Date': '1999/9/20', 'Adj Close': 3.1375}, {'Date': '1999/9/21', 'Adj Close': 3.1125}, {'Date': '1999/9/22', 'Adj Close': 3.3}, {'Date': '1999/9/23', 'Adj Close': 3.1125}, {'Date': '1999/9/24', 'Adj Close': 3.25}, {'Date': '1999/9/27', 'Adj Close': 3.128125}, {'Date': '1999/9/28', 'Adj Close': 3.29375}, {'Date': '1999/9/29', 'Adj Close': 4.0375}, {'Date': '1999/9/30', 'Adj Close': 3.996875}, {'Date': '1999/10/1', 'Adj Close': 3.8625}, {'Date': '1999/10/4', 'Adj Close': 3.853125}, {'Date': '1999/10/5', 'Adj Close': 3.921875}, {'Date': '1999/10/6', 'Adj Close': 4.121875}, {'Date': '1999/10/7', 'Adj Close': 4.365625}, {'Date': '1999/10/8', 'Adj Close': 4.4625}, {'Date': '1999/10/11', 'Adj Close': 4.41875}, {'Date': '1999/10/12', 'Adj Close': 4.246875}, {'Date': '1999/10/13', 'Adj Close': 3.996875}, {'Date': '1999/10/14', 'Adj Close': 3.979688}, {'Date': '1999/10/15', 'Adj Close': 3.753125}, {'Date': '1999/10/18', 'Adj Close': 3.703125}, {'Date': '1999/10/19', 'Adj Close': 3.83125}, {'Date': '1999/10/20', 'Adj Close': 4.025}, {'Date': '1999/10/21', 'Adj Close': 4.0375}, {'Date': '1999/10/22', 'Adj Close': 3.93125}, {'Date': '1999/10/25', 'Adj Close': 4.1375}, {'Date': '1999/10/26', 'Adj Close': 4.0625}, {'Date': '1999/10/27', 'Adj Close': 3.796875}, {'Date': '1999/10/28', 'Adj Close': 3.55}, {'Date': '1999/10/29', 'Adj Close': 3.53125}, {'Date': '1999/11/1', 'Adj Close': 3.45625}, {'Date': '1999/11/2', 'Adj Close': 3.321875}, {'Date': '1999/11/3', 'Adj Close': 3.290625}, {'Date': '1999/11/4', 'Adj Close': 3.153125}, {'Date': '1999/11/5', 'Adj Close': 3.246875}, {'Date': '1999/11/8', 'Adj Close': 3.9}, {'Date': '1999/11/9', 'Adj Close': 3.540625}, {'Date': '1999/11/10', 'Adj Close': 3.6}, {'Date': '1999/11/11', 'Adj Close': 3.65}, {'Date': '1999/11/12', 'Adj Close': 3.746875}, {'Date': '1999/11/15', 'Adj Close': 3.675}, {'Date': '1999/11/16', 'Adj Close': 3.946875}, {'Date': '1999/11/17', 'Adj Close': 3.825}, {'Date': '1999/11/18', 'Adj Close': 3.896875}, {'Date': '1999/11/19', 'Adj Close': 3.896875}, {'Date': '1999/11/22', 'Adj Close': 4.025}, {'Date': '1999/11/23', 'Adj Close': 4.0875}, {'Date': '1999/11/24', 'Adj Close': 4.3625}, {'Date': '1999/11/26', 'Adj Close': 4.65625}, {'Date': '1999/11/29', 'Adj Close': 4.521875}, {'Date': '1999/11/30', 'Adj Close': 4.253125}]</t>
   </si>
 </sst>
 </file>
@@ -877,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -935,17 +934,17 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="208.5" customHeight="1">
@@ -965,10 +964,10 @@
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="320">
@@ -985,13 +984,13 @@
         <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -1006,16 +1005,16 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="409" customHeight="1">
@@ -1035,10 +1034,10 @@
         <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="409.6">
@@ -1058,15 +1057,15 @@
         <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="409.6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="144">
       <c r="A8" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -1075,16 +1074,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="202" customHeight="1">
@@ -1092,22 +1091,22 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="409.6">
@@ -1127,10 +1126,10 @@
         <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="409.6">
@@ -1150,10 +1149,10 @@
         <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="409.6">
@@ -1173,10 +1172,10 @@
         <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="409.6">
@@ -1196,10 +1195,10 @@
         <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="409.6">
@@ -1216,13 +1215,13 @@
         <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="171" customHeight="1">
@@ -1230,229 +1229,229 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="112">
       <c r="A16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="4">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="155" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="176">
       <c r="A18" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="4">
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="112">
       <c r="A19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="144">
       <c r="A20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4">
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="272">
       <c r="A21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4">
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="124.5" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="240">
       <c r="A23" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="4">
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="203" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="4">
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="I24" s="8"/>
     </row>
@@ -1461,22 +1460,22 @@
         <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C25" s="4">
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CHI24/CHI24 code/ECO_LLM_VIS/data_pair/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941356CD-20A9-8040-955C-0F0A794731ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-9100" yWindow="-28800" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="131">
   <si>
     <t>pattern</t>
   </si>
@@ -46,9 +52,6 @@
     <t>single bar</t>
   </si>
   <si>
-    <t>[{'Position':'United Kingdom','Billions of dollars':'59.9'},{'Position':'Netherlands','Billions of dollars':'43.1'},{'Position':'France','Billions of dollars':'35.3'},{'Position':'Canada','Billions of dollars': '30'},{'Position':'Japan','Billions of dollars':'29.6'}]</t>
-  </si>
-  <si>
     <t>Investment by British investors accounted for 18 percent of new foreign direct investment expenditures. The Netherlands ($43.1 billion) was the second-largest investing country, followed by France ($35.3 billion).</t>
   </si>
   <si>
@@ -59,30 +62,18 @@
   </si>
   <si>
     <t>{"ObjectName":[],"DataName":" ","Position":[{"Begin":[,],"End":[,]}], "Trend":"None","Num":[],"Text":"..."}</t>
-  </si>
-  <si>
-    <t>[{'Category':'Real GDP','Outdoor recreation':'18.9','U.S. economy':'5.9'},{'Category':'Real Gross Output','Outdoor recreation':'21.8','U.S. economy':'6.3'},{'Category':'Compensation','Outdoor recreation':'16.2','U.S. economy':'7.8'},{'Category':'Compensation','Outdoor recreation':'13.1','U.S. economy':'2.7'}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflation-adjusted ("real") GDP for the outdoor recreation economy increased 18.9 percent in 2021, compared with a 5.9 percent increase for the overall U.S. economy, reflecting a rebound in outdoor recreation after the decrease of 21.6 percent in 2020. </t>
   </si>
   <si>
     <t>[{"ObjectName":["Inflation-adjusted ("real") GDP"],"DataName":"Outdoor recreation", "Position":[{"Begin":[0,1],"End":[0,1],"Trend":"increase","Num":[18.9],"Text":"Inflation-adjusted ("real") GDP for the outdoor recreation economy increased 18.9 percent in 2021"},
 {"ObjectName":["overall U.S. economy"],"DataName":"U.S. economy", "Position":["Begin":[0,2],"End":[0,2]，"Trend":"rebound","Num":[5.9],"Text":"compared with a 5.9 percent increase for the overall U.S. economy, reflecting a rebound in outdoor recreation"}]</t>
   </si>
   <si>
-    <t>The text 'Inflation-adjusted ("real") GDP for the outdoor recreation economy' corresponds to the column 'Outdoor recreation' and the row 'Real GDP' in data. Its value is '18.9'. The text 'U.S. economy' corresponds to the column 'U.S. economy' and row 'Real GDP' in data and its value is '5.9', reflecting a rebound trend.</t>
-  </si>
-  <si>
     <t>group</t>
   </si>
   <si>
     <t>multiple bar</t>
   </si>
   <si>
-    <t>[{'Time':'2017/1/1','Mini- and subcompact size':'0.61','Compact size':'0.35', 'Midsize to large':'0.04'},{'Time':'2018/1/1','Mini- and subcompact size':'0.49','Compact size':'0.41', 'Midsize to large':'0.10'},{'Time':'2019/1/1','Mini- and subcompact size':'0.33','Compact size':'0.54', 'Midsize to large':'0.13'},{'Time':'2020/1/1','Mini- and subcompact size':'0.35','Compact size':'0.33', 'Midsize to large':'0.32'},{'Time':'2021/1/1','Mini- and subcompact size':'0.37','Compact size':'0.28', 'Midsize to large':'0.35'},{'Time':'2022/1/1','Mini- and subcompact size':'0.37','Compact size':'0.31', 'Midsize to large':'0.32'},{'Time':'2023/1/1','Mini- and subcompact size':'0.30','Compact size':'0.30', 'Midsize to large':'0.40'}]</t>
-  </si>
-  <si>
     <t>In 2023, the sales proportion of NEVs that were subcompact and below declined to 30%, from 61% in 2017. During the same periods of comparison, the mix of compact and midsize-to-large NEVs increased to 70% from 39%, reflecting the upgrade trend in terms of vehicle size.</t>
   </si>
   <si>
@@ -101,9 +92,6 @@
     <t>[{"ObjectName":["installed wind and PV capacity (GW)"],"DataName":"Installed wind + PV capacity (GW)","Position":[{"Begin":[0,1],"End":[5,1]}],"Trend":"rising","Num":"None","Text":"a rising trend for installed wind and PV capacity (GW)"},{"ObjectName":["It"],"DataName":"Installed wind + PV capacity (GW)","Position":[{"Begin":[5,1],"End":[5,1]}],"Trend":"None","Num":[1200],"Text":"It is expected to reach 1,200 GW"},{"ObjectName":"None","DataName":"energy consumption percentage","Position":[{"Begin":[5,2],"End":[5,2]}],"Trend":"None","Num":[25.00%],"Text":"reach a 25% energy percentage in 2030"}]</t>
   </si>
   <si>
-    <t>It' in text refers to the column 'installed wind + PV capacity (GW)' in data. It has a "rising" trend from 2021 to 2030. The text 'installed wind and PV capacity (GW)' corresponds to the column 'installed wind + PV capacity (GW)' in data. Its value reachs '1200' in 2030. The text 'energy percentage' corresponds to the column 'energy consumption percentage' and the value is '25%' in 2030.</t>
-  </si>
-  <si>
     <t>head and shoulder</t>
   </si>
   <si>
@@ -113,21 +101,12 @@
     <t>[{'Date': '1999/8/2', 'Close': 2.35}, {'Date': '1999/8/3', 'Close': 2.371875}, {'Date': '1999/8/4', 'Close': 2.210938}, {'Date': '1999/8/5', 'Close': 2.43125}, {'Date': '1999/8/6', 'Close': 2.239063}, {'Date': '1999/8/9', 'Close': 2.1375}, {'Date': '1999/8/10', 'Close': 2.275}, {'Date': '1999/8/11', 'Close': 2.273438}, {'Date': '1999/8/12', 'Close': 2.29375}, {'Date': '1999/8/13', 'Close': 2.435938}, {'Date': '1999/8/16', 'Close': 2.457813}, {'Date': '1999/8/17', 'Close': 2.73125}, {'Date': '1999/8/18', 'Close': 2.828125}, {'Date': '1999/8/19', 'Close': 2.653125}, {'Date': '1999/8/20', 'Close': 2.835938}, {'Date': '1999/8/23', 'Close': 2.959375}, {'Date': '1999/8/24', 'Close': 3.001563}, {'Date': '1999/8/25', 'Close': 3.321875}, {'Date': '1999/8/26', 'Close': 3.214063}, {'Date': '1999/8/27', 'Close': 3.2125}, {'Date': '1999/8/30', 'Close': 2.98125}, {'Date': '1999/8/31', 'Close': 3.109375}, {'Date': '1999/9/1', 'Close': 2.976563}, {'Date': '1999/9/2', 'Close': 3.003125}, {'Date': '1999/9/3', 'Close': 3.121875}, {'Date': '1999/9/7', 'Close': 3.146875}, {'Date': '1999/9/8', 'Close': 3.071875}, {'Date': '1999/9/9', 'Close': 3.18125}, {'Date': '1999/9/10', 'Close': 3.325}, {'Date': '1999/9/13', 'Close': 3.165625}, {'Date': '1999/9/14', 'Close': 3.3}, {'Date': '1999/9/15', 'Close': 3.278125}, {'Date': '1999/9/16', 'Close': 3.2625}, {'Date': '1999/9/17', 'Close': 3.190625}, {'Date': '1999/9/20', 'Close': 3.1375}, {'Date': '1999/9/21', 'Close': 3.1125}, {'Date': '1999/9/22', 'Close': 3.3}, {'Date': '1999/9/23', 'Close': 3.1125}, {'Date': '1999/9/24', 'Close': 3.25}, {'Date': '1999/9/27', 'Close': 3.128125}, {'Date': '1999/9/28', 'Close': 3.29375}, {'Date': '1999/9/29', 'Close': 4.0375}, {'Date': '1999/9/30', 'Close': 3.996875}, {'Date': '1999/10/1', 'Close': 3.8625}, {'Date': '1999/10/4', 'Close': 3.853125}, {'Date': '1999/10/5', 'Close': 3.921875}, {'Date': '1999/10/6', 'Close': 4.121875}, {'Date': '1999/10/7', 'Close': 4.365625}, {'Date': '1999/10/8', 'Close': 4.4625}, {'Date': '1999/10/11', 'Close': 4.41875}, {'Date': '1999/10/12', 'Close': 4.246875}, {'Date': '1999/10/13', 'Close': 3.996875}, {'Date': '1999/10/14', 'Close': 3.979688}, {'Date': '1999/10/15', 'Close': 3.753125}, {'Date': '1999/10/18', 'Close': 3.703125}, {'Date': '1999/10/19', 'Close': 3.83125}, {'Date': '1999/10/20', 'Close': 4.025}, {'Date': '1999/10/21', 'Close': 4.0375}, {'Date': '1999/10/22', 'Close': 3.93125}, {'Date': '1999/10/25', 'Close': 4.1375}, {'Date': '1999/10/26', 'Close': 4.0625}, {'Date': '1999/10/27', 'Close': 3.796875}, {'Date': '1999/10/28', 'Close': 3.55}, {'Date': '1999/10/29', 'Close': 3.53125}, {'Date': '1999/11/1', 'Close': 3.45625}, {'Date': '1999/11/2', 'Close': 3.321875}, {'Date': '1999/11/3', 'Close': 3.290625}, {'Date': '1999/11/4', 'Close': 3.153125}, {'Date': '1999/11/5', 'Close': 3.246875}, {'Date': '1999/11/8', 'Close': 3.9}, {'Date': '1999/11/9', 'Close': 3.540625}, {'Date': '1999/11/10', 'Close': 3.6}, {'Date': '1999/11/11', 'Close': 3.65}, {'Date': '1999/11/12', 'Close': 3.746875}, {'Date': '1999/11/15', 'Close': 3.675}, {'Date': '1999/11/16', 'Close': 3.946875}, {'Date': '1999/11/17', 'Close': 3.825}, {'Date': '1999/11/18', 'Close': 3.896875}, {'Date': '1999/11/19', 'Close': 3.896875}, {'Date': '1999/11/22', 'Close': 4.025}, {'Date': '1999/11/23', 'Close': 4.0875}, {'Date': '1999/11/24', 'Close': 4.3625}, {'Date': '1999/11/26', 'Close': 4.65625}, {'Date': '1999/11/29', 'Close': 4.521875}, {'Date': '1999/11/30', 'Close': 4.253125}, {'Date': '1999/12/1', 'Close': 4.25}, {'Date': '1999/12/2', 'Close': 4.453125}, {'Date': '1999/12/3', 'Close': 4.328125}, {'Date': '1999/12/6', 'Close': 4.3875}, {'Date': '1999/12/7', 'Close': 4.303125}, {'Date': '1999/12/8', 'Close': 4.428125}, {'Date': '1999/12/9', 'Close': 5.18125}, {'Date': '1999/12/10', 'Close': 5.334375}, {'Date': '1999/12/13', 'Close': 5.125}, {'Date': '1999/12/14', 'Close': 4.78125}, {'Date': '1999/12/15', 'Close': 4.825}, {'Date': '1999/12/16', 'Close': 4.74375}, {'Date': '1999/12/17', 'Close': 4.703125}, {'Date': '1999/12/20', 'Close': 4.85}, {'Date': '1999/12/21', 'Close': 4.99375}, {'Date': '1999/12/22', 'Close': 4.884375}, {'Date': '1999/12/23', 'Close': 4.5}, {'Date': '1999/12/27', 'Close': 4.05625}, {'Date': '1999/12/28', 'Close': 4.115625}, {'Date': '1999/12/29', 'Close': 4.175}, {'Date': '1999/12/30', 'Close': 3.953125}, {'Date': '1999/12/31', 'Close': 3.80625}, {'Date': '2000/1/3', 'Close': 4.46875}, {'Date': '2000/1/4', 'Close': 4.096875}, {'Date': '2000/1/5', 'Close': 3.4875}, {'Date': '2000/1/6', 'Close': 3.278125}, {'Date': '2000/1/7', 'Close': 3.478125}, {'Date': '2000/1/10', 'Close': 3.459375}, {'Date': '2000/1/11', 'Close': 3.3375}, {'Date': '2000/1/12', 'Close': 3.178125}, {'Date': '2000/1/13', 'Close': 3.296875}, {'Date': '2000/1/14', 'Close': 3.2125}, {'Date': '2000/1/18', 'Close': 3.20625}, {'Date': '2000/1/19', 'Close': 3.340625}, {'Date': '2000/1/20', 'Close': 3.2375}, {'Date': '2000/1/21', 'Close': 3.103125}, {'Date': '2000/1/24', 'Close': 3.50625}, {'Date': '2000/1/25', 'Close': 3.4625}, {'Date': '2000/1/26', 'Close': 3.240625}, {'Date': '2000/1/27', 'Close': 3.346875}, {'Date': '2000/1/28', 'Close': 3.084375}, {'Date': '2000/1/31', 'Close': 3.228125}, {'Date': '2000/2/1', 'Close': 3.371875}, {'Date': '2000/2/2', 'Close': 3.471875}, {'Date': '2000/2/3', 'Close': 4.209375}, {'Date': '2000/2/4', 'Close': 3.928125}, {'Date': '2000/2/7', 'Close': 3.75}, {'Date': '2000/2/8', 'Close': 4.15625}, {'Date': '2000/2/9', 'Close': 4.0125}, {'Date': '2000/2/10', 'Close': 3.809375}, {'Date': '2000/2/11', 'Close': 3.809375}, {'Date': '2000/2/14', 'Close': 3.721875}, {'Date': '2000/2/15', 'Close': 3.690625}, {'Date': '2000/2/16', 'Close': 3.534375}, {'Date': '2000/2/17', 'Close': 3.45}, {'Date': '2000/2/18', 'Close': 3.2375}, {'Date': '2000/2/22', 'Close': 3.178125}, {'Date': '2000/2/23', 'Close': 3.521875}, {'Date': '2000/2/24', 'Close': 3.421875}, {'Date': '2000/2/25', 'Close': 3.45625}, {'Date': '2000/2/28', 'Close': 3.2875}, {'Date': '2000/2/29', 'Close': 3.44375}, {'Date': '2000/3/1', 'Close': 3.29375}, {'Date': '2000/3/2', 'Close': 3.128125}, {'Date': '2000/3/3', 'Close': 3.125}, {'Date': '2000/3/6', 'Close': 3.196875}, {'Date': '2000/3/7', 'Close': 3.175}, {'Date': '2000/3/8', 'Close': 3.18125}, {'Date': '2000/3/9', 'Close': 3.440625}, {'Date': '2000/3/10', 'Close': 3.34375}, {'Date': '2000/3/13', 'Close': 3.265625}, {'Date': '2000/3/14', 'Close': 3.28125}, {'Date': '2000/3/15', 'Close': 3.1875}, {'Date': '2000/3/16', 'Close': 3.3125}, {'Date': '2000/3/17', 'Close': 3.240625}, {'Date': '2000/3/20', 'Close': 3.209375}, {'Date': '2000/3/21', 'Close': 3.61875}, {'Date': '2000/3/22', 'Close': 3.534375}, {'Date': '2000/3/23', 'Close': 3.384375}, {'Date': '2000/3/24', 'Close': 3.634375}, {'Date': '2000/3/27', 'Close': 3.65625}, {'Date': '2000/3/28', 'Close': 3.50625}, {'Date': '2000/3/29', 'Close': 3.3125}, {'Date': '2000/3/30', 'Close': 3.325}, {'Date': '2000/3/31', 'Close': 3.35}, {'Date': '2000/4/3', 'Close': 3.178125}, {'Date': '2000/4/4', 'Close': 3.196875}, {'Date': '2000/4/5', 'Close': 3.109375}, {'Date': '2000/4/6', 'Close': 3.2125}, {'Date': '2000/4/7', 'Close': 3.378125}, {'Date': '2000/4/10', 'Close': 3.16875}, {'Date': '2000/4/11', 'Close': 3.16875}, {'Date': '2000/4/12', 'Close': 2.81875}, {'Date': '2000/4/13', 'Close': 2.4}, {'Date': '2000/4/14', 'Close': 2.34375}, {'Date': '2000/4/17', 'Close': 2.353125}, {'Date': '2000/4/18', 'Close': 2.746875}, {'Date': '2000/4/19', 'Close': 2.671875}, {'Date': '2000/4/20', 'Close': 2.61875}, {'Date': '2000/4/24', 'Close': 2.490625}, {'Date': '2000/4/25', 'Close': 2.621875}, {'Date': '2000/4/26', 'Close': 2.675}, {'Date': '2000/4/27', 'Close': 2.64375}, {'Date': '2000/4/28', 'Close': 2.759375}, {'Date': '2000/5/1', 'Close': 2.996875}, {'Date': '2000/5/2', 'Close': 2.80625}, {'Date': '2000/5/3', 'Close': 2.70625}, {'Date': '2000/5/4', 'Close': 2.753125}, {'Date': '2000/5/5', 'Close': 2.925}, {'Date': '2000/5/8', 'Close': 2.800781}, {'Date': '2000/5/9', 'Close': 2.8125}, {'Date': '2000/5/10', 'Close': 2.665625}, {'Date': '2000/5/11', 'Close': 2.74375}, {'Date': '2000/5/12', 'Close': 2.6875}, {'Date': '2000/5/15', 'Close': 2.803125}, {'Date': '2000/5/16', 'Close': 2.953125}, {'Date': '2000/5/17', 'Close': 3.05}, {'Date': '2000/5/18', 'Close': 2.76875}, {'Date': '2000/5/19', 'Close': 2.63125}, {'Date': '2000/5/22', 'Close': 2.59375}, {'Date': '2000/5/23', 'Close': 2.334375}, {'Date': '2000/5/24', 'Close': 2.428125}, {'Date': '2000/5/25', 'Close': 2.275}, {'Date': '2000/5/26', 'Close': 2.325}, {'Date': '2000/5/30', 'Close': 2.5875}, {'Date': '2000/5/31', 'Close': 2.415625}]</t>
   </si>
   <si>
-    <t>There exists a "head and shoulder" pattern on the Amazon stock moving averages from 1999/09/27 to 2000/02/22.</t>
-  </si>
-  <si>
     <t>[{"ObjectName":["Amazon stock"],"DataName":"Close","Position":[{"Begin":[39,1],"EndIndex":[141,1]}],"Trend":"Head and shoulder","Num":"None","Text":"a "head and shoulder" pattern on the Amazon stock moving averages from 1999/09/27 to 2000/02/22"}]</t>
   </si>
   <si>
-    <t>The 'Amazon stock' in text corresponds to the 'Close' column in data. The "head and shoulder" pattern consists of three rises and falls from three localized highs. The high point in the center is higher than the other two. This pattern is around from '1999/09/27' to '2000/02/22' and the middle high point exist on '1999/12/09'.</t>
-  </si>
-  <si>
     <t>cup with handle</t>
   </si>
   <si>
-    <t>[{'Date': '1999/5/3', 'Adj Close': 3.773438}, {'Date': '1999/5/4', 'Adj Close': 3.575}, {'Date': '1999/5/5', 'Adj Close': 3.6625}, {'Date': '1999/5/6', 'Adj Close': 3.434375}, {'Date': '1999/5/7', 'Adj Close': 3.409375}, {'Date': '1999/5/10', 'Adj Close': 3.671875}, {'Date': '1999/5/11', 'Adj Close': 3.709375}, {'Date': '1999/5/12', 'Adj Close': 3.573438}, {'Date': '1999/5/13', 'Adj Close': 3.4}, {'Date': '1999/5/14', 'Adj Close': 3.309375}, {'Date': '1999/5/17', 'Adj Close': 3.440625}, {'Date': '1999/5/18', 'Adj Close': 3.315625}, {'Date': '1999/5/19', 'Adj Close': 3.489063}, {'Date': '1999/5/20', 'Adj Close': 3.270313}, {'Date': '1999/5/21', 'Adj Close': 3.214063}, {'Date': '1999/5/24', 'Adj C 3.25}, {'Date': '1999/9/27', 'Adj Close': 3.128125}, {'Date': '1999/9/28', 'Adj Close': 3.29375}, {'Date': '1999/9/29', 'Adj Close': 4.0375}, {'Date': '1999/9/30', 'Adj Close': 3.996875}, {'Date': '1999/10/1', 'Adj Close': 3.8625}, {'Date': '1999/10/4', 'Adj Close': 3.853125}, {'Date': '1999/10/5', 'Adj Close': 3.921875}, {'Date': '1999/10/6', 'Adj Close': 4.121875}, {'Date': '1999/10/7', 'Adj Close': 4.365625}, {'Date': '1999/10/8', 'Adj Close': 4.4625}, {'Date': '1999/10/11', 'Adj Close': 4.41875}, {'Date': '1999/10/12', 'Adj Close': 4.246875}, {'Date': '1999/10/13', 'Adj Close': 3.996875}, {'Date': '1999/10/14', 'Adj Close': 3.979688}, {'Date': '1999/10/15', 'Adj Close': 3.753125}, {'Date': '1999/10/18', 'Adj Close': 3.703125}, {'Date': '1999/10/19', 'Adj Close': 3.83125}, {'Date': '1999/10/20', 'Adj Close': 4.025}, {'Date': '1999/10/21', 'Adj Close': 4.0375}, {'Date': '1999/10/22', 'Adj Close': 3.93125}, {'Date': '1999/10/25', 'Adj Close': 4.1375}, {'Date': '1999/10/26', 'Adj Close': 4.0625}, {'Date': '1999/10/27', 'Adj Close': 3.796875}, {'Date': '1999/10/28', 'Adj Close': 3.55}, {'Date': '1999/10/29', 'Adj Close': 3.53125}, {'Date': '1999/11/1', 'Adj Close': 3.45625}, {'Date': '1999/11/2', 'Adj Close': 3.321875}, {'Date': '1999/11/3', 'Adj Close': 3.290625}, {'Date': '1999/11/4', 'Adj Close': 3.153125}, {'Date': '1999/11/5', 'Adj Close': 3.246875}, {'Date': '1999/11/8', 'Adj Close': 3.9}, {'Date': '1999/11/9', 'Adj Close': 3.540625}, {'Date': '1999/11/10', 'Adj Close': 3.6}, {'Date': '1999/11/11', 'Adj Close': 3.65}, {'Date': '1999/11/12', 'Adj Close': 3.746875}, {'Date': '1999/11/15', 'Adj Close': 3.675}, {'Date': '1999/11/16', 'Adj Close': 3.946875}, {'Date': '1999/11/17', 'Adj Close': 3.825}, {'Date': '1999/11/18', 'Adj Close': 3.896875}, {'Date': '1999/11/19', 'Adj Close': 3.896875}, {'Date': '1999/11/22', 'Adj Close': 4.025}, {'Date': '1999/11/23', 'Adj Close': 4.0875}, {'Date': '1999/11/24', 'Adj Close': 4.3625}, {'Date': '1999/11/26', 'Adj Close': 4.65625}, {'Date': '1999/11/29', 'Adj Close': 4.521875}, {'Date': '1999/11/30', 'Adj Close': 4.253125}]</t>
-  </si>
-  <si>
     <t>There happens a 'cup and handle' pattern in Amazon stock from 1999/07/15 to 1999/09/29.</t>
   </si>
   <si>
@@ -140,9 +119,6 @@
     <t>rounding bottom</t>
   </si>
   <si>
-    <t>[{"Date": "1990/3/1", "Close": 16.8125}, {"Date": "1990/3/2", "Close": 17.0}, {"Date": "1990/3/5", "Close": 17.4375}, {"Date": "1990/3/6", "Close": 17.75}, {"Date": "1990/3/7", "Close": 17.6875}, {"Date": "1990/3/8", "Close": 17.6875}, {"Date": "1990/3/9", "Close": 17.75}, {"Date": "1990/3/12", "Close": 18.1875}, {"Date": "1990/3/13", "Close": 18.9375}, {"Date": "1990/3/14", "Close": 18.9375}, {"Date": "1990/3/15", "Close": 18.5}, {"Date": "1990/3/16", "Close": 18.75}, {"Date": "1990/3/19", "Close": 18.5625}, {"Date": "1990/3/20", "Close": 18.5625}, {"Date": "1990/3/21", "Close": 19.125}, {"Date": "1990/3/22", "Close": 18.5}, {"Date": "1990/3/23", "Close": 18.75}, {"Date": "1990/3/26", "Close": 18.625}, {"Date": "1990/3/27", "Close": 18.625}, {"Date": "1990/3/28", "Close": 18.4375}, {"Date": "1990/3/29", "Close": 18.125}, {"Date": "1990/3/30", "Close": 17.875}, {"Date": "1990/4/2", "Close": 18.125}, {"Date": "1990/4/3", "Close": 18.5}, {"Date": "1990/4/4", "Close": 18.5625}, {"Date": "1990/4/5", "Close": 18.125}, {"Date": "1990/4/6", "Close": 18.125}, {"Date": "1990/4/9", "Close": 17.875}, {"Date": "1990/4/10", "Close": 17.9375}, {"Date": "1990/4/11", "Close": 18.0625}, {"Date": "1990/4/12", "Close": 17.9375}, {"Date": "1990/4/16", "Close": 17.625}, {"Date": "1990/4/17", "Close": 17.5625}, {"Date": "1990/4/18", "Close": 17.5625}, {"Date": "1990/4/19", "Close": 17.5}, {"Date": "1990/4/20", "Close": 17.375}, {"Date": "1990/4/23", "Close": 17.0625}, {"Date": "1990/4/24", "Close": 17.5}, {"Date": "1990/4/25", "Close": 17.75}, {"Date": "1990/4/26", "Close": 17.75}, {"Date": "1990/4/27", "Close": 17.625}, {"Date": "1990/4/30", "Close": 17.6875}, {"Date": "1990/5/1", "Close": 17.6875}, {"Date": "1990/5/2", "Close": 17.625}, {"Date": "1990/5/3", "Close": 17.75}, {"Date": "1990/5/4", "Close": 17.6875}, {"Date": "1990/5/7", "Close": 17.75}, {"Date": "1990/5/8", "Close": 17.75}, {"Date": "1990/5/9", "Close": 17.6875}, {"Date": "1990/5/10", "Close": 17.4375}, {"Date": "1990/5/11", "Close": 17.75}, {"Date": "1990/5/14", "Close": 17.6875}, {"Date": "1990/5/15", "Close": 17.4375}, {"Date": "1990/5/16", "Close": 17.6875}, {"Date": "1990/5/17", "Close": 17.9375}, {"Date": "1990/5/18", "Close": 17.9375}, {"Date": "1990/5/21", "Close": 17.875}, {"Date": "1990/5/22", "Close": 17.5625}, {"Date": "1990/5/23", "Close": 17.3125}, {"Date": "1990/5/24", "Close": 17.3125}, {"Date": "1990/5/25", "Close": 17.25}, {"Date": "1990/5/29", "Close": 17.6875}, {"Date": "1990/5/30", "Close": 18.0625}, {"Date": "1990/5/31", "Close": 17.875}, {"Date": "1990/6/1", "Close": 17.8125}, {"Date": "1990/6/4", "Close": 18.125}, {"Date": "1990/6/5", "Close": 17.9375}, {"Date": "1990/6/6", "Close": 17.75}, {"Date": "1990/6/7", "Close": 17.5}, {"Date": "1990/6/8", "Close": 17.3125}, {"Date": "1990/6/11", "Close": 17.0625}, {"Date": "1990/6/12", "Close": 17.25}, {"Date": "1990/6/13", "Close": 17.0625}, {"Date": "1990/6/14", "Close": 17.375}, {"Date": "1990/6/15", "Close": 17.3125}, {"Date": "1990/6/18", "Close": 17.0}, {"Date": "1990/6/19", "Close": 16.875}, {"Date": "1990/6/20", "Close": 16.8125}, {"Date": "1990/6/21", "Close": 16.25}, {"Date": "1990/6/22", "Close": 15.8125}, {"Date": "1990/6/25", "Close": 15.8125}, {"Date": "1990/6/26", "Close": 15.875}, {"Date": "1990/6/27", "Close": 15.5625}, {"Date": "1990/6/28", "Close": 15.125}, {"Date": "1990/6/29", "Close": 15.0625}, {"Date": "1990/7/2", "Close": 14.875}, {"Date": "1990/7/3", "Close": 14.75}, {"Date": "1990/7/5", "Close": 14.5625}, {"Date": "1990/7/6", "Close": 14.6875}, {"Date": "1990/7/9", "Close": 14.5}, {"Date": "1990/7/10", "Close": 14.1875}, {"Date": "1990/7/11", "Close": 13.9375}, {"Date": "1990/7/12", "Close": 14.25}, {"Date": "1990/7/13", "Close": 14.5}, {"Date": "1990/7/16", "Close": 14.8125}, {"Date": "1990/7/17", "Close": 15.0625}, {"Date": "1990/7/18", "Close": 14.75}, {"Date": "1990/7/19", "Close": 15.0625}, {"Date": "1990/7/20", "Close": 14.5}, {"Date": "1990/7/23", "Close": 14.25}, {"Date": "1990/7/24", "Close": 13.8125}, {"Date": "1990/7/25", "Close": 14.0625}, {"Date": "1990/7/26", "Close": 13.625}, {"Date": "1990/7/27", "Close": 13.5625}, {"Date": "1990/7/30", "Close": 13.875}, {"Date": "1990/7/31", "Close": 13.25}, {"Date": "1990/8/1", "Close": 13.1875}, {"Date": "1990/8/2", "Close": 13.375}, {"Date": "1990/8/3", "Close": 12.5}, {"Date": "1990/8/6", "Close": 12.1875}, {"Date": "1990/8/7", "Close": 12.25}, {"Date": "1990/8/8", "Close": 12.75}, {"Date": "1990/8/9", "Close": 12.75}, {"Date": "1990/8/10", "Close": 12.25}, {"Date": "1990/8/13", "Close": 12.5}, {"Date": "1990/8/14", "Close": 12.6875}, {"Date": "1990/8/15", "Close": 12.9375}, {"Date": "1990/8/16", "Close": 12.4375}, {"Date": "1990/8/17", "Close": 11.8125}, {"Date": "1990/8/20", "Close": 11.625}, {"Date": "1990/8/21", "Close": 11.5}, {"Date": "1990/8/22", "Close": 12.1875}, {"Date": "1990/8/23", "Close": 11.25}, {"Date": "1990/8/24", "Close": 11.6875}, {"Date": "1990/8/27", "Close": 11.8125}, {"Date": "1990/8/28", "Close": 11.75}, {"Date": "1990/8/29", "Close": 11.9375}, {"Date": "1990/8/30", "Close": 12.0625}, {"Date": "1990/8/31", "Close": 11.375}, {"Date": "1990/9/4", "Close": 11.5}, {"Date": "1990/9/5", "Close": 11.5625}, {"Date": "1990/9/6", "Close": 11.125}, {"Date": "1990/9/7", "Close": 10.3125}, {"Date": "1990/9/10", "Close": 10.5}, {"Date": "1990/9/11", "Close": 10.1875}, {"Date": "1990/9/12", "Close": 10.125}, {"Date": "1990/9/13", "Close": 9.9375}, {"Date": "1990/9/14", "Close": 9.9375}, {"Date": "1990/9/17", "Close": 9.5}, {"Date": "1990/9/18", "Close": 9.375}, {"Date": "1990/9/19", "Close": 9.5}, {"Date": "1990/9/20", "Close": 9.4375}, {"Date": "1990/9/21", "Close": 9.3125}, {"Date": "1990/9/24", "Close": 9.0}, {"Date": "1990/9/25", "Close": 8.5}, {"Date": "1990/9/26", "Close": 8.875}, {"Date": "1990/9/27", "Close": 8.375}, {"Date": "1990/9/28", "Close": 8.5}, {"Date": "1990/10/1", "Close": 8.5625}, {"Date": "1990/10/2", "Close": 8.375}, {"Date": "1990/10/3", "Close": 8.4375}, {"Date": "1990/10/4", "Close": 8.625}, {"Date": "1990/10/5", "Close": 8.5625}, {"Date": "1990/10/8", "Close": 8.4375}, {"Date": "1990/10/9", "Close": 8.125}, {"Date": "1990/10/10", "Close": 8.1875}, {"Date": "1990/10/11", "Close": 8.25}, {"Date": "1990/10/12", "Close": 8.125}, {"Date": "1990/10/15", "Close": 7.5625}, {"Date": "1990/10/16", "Close": 7.625}, {"Date": "1990/10/17", "Close": 8.0625}, {"Date": "1990/10/18", "Close": 8.0625}, {"Date": "1990/10/19", "Close": 8.0625}, {"Date": "1990/10/22", "Close": 7.875}, {"Date": "1990/10/23", "Close": 8.0}, {"Date": "1990/10/24", "Close": 8.25}, {"Date": "1990/10/25", "Close": 8.0}, {"Date": "1990/10/26", "Close": 7.8125}, {"Date": "1990/10/29", "Close": 7.75}, {"Date": "1990/10/30", "Close": 7.8125}, {"Date": "1990/10/31", "Close": 7.625}, {"Date": "1990/11/1", "Close": 7.5625}, {"Date": "1990/11/2", "Close": 7.375}, {"Date": "1990/11/5", "Close": 7.25}, {"Date": "1990/11/6", "Close": 7.625}, {"Date": "1990/11/7", "Close": 7.4375}, {"Date": "1990/11/8", "Close": 7.375}, {"Date": "1990/11/9", "Close": 6.75}, {"Date": "1990/11/12", "Close": 7.0}, {"Date": "1990/11/13", "Close": 7.1875}, {"Date": "1990/11/14", "Close": 7.625}, {"Date": "1990/11/15", "Close": 7.75}, {"Date": "1990/11/16", "Close": 7.875}, {"Date": "1990/11/19", "Close": 7.875}, {"Date": "1990/11/20", "Close": 7.75}, {"Date": "1990/11/21", "Close": 7.8125}, {"Date": "1990/11/23", "Close": 7.8125}, {"Date": "1990/11/26", "Close": 7.625}, {"Date": "1990/11/27", "Close": 7.75}, {"Date": "1990/11/28", "Close": 8.1875}, {"Date": "1990/11/29", "Close": 8.0625}, {"Date": "1990/11/30", "Close": 8.0}, {"Date": "1990/12/3", "Close": 7.9375}, {"Date": "1990/12/4", "Close": 7.9375}, {"Date": "1990/12/5", "Close": 8.0}, {"Date": "1990/12/6", "Close": 7.9375}, {"Date": "1990/12/7", "Close": 8.125}, {"Date": "1990/12/10", "Close": 8.125}, {"Date": "1990/12/11", "Close": 8.625}, {"Date": "1990/12/12", "Close": 8.75}, {"Date": "1990/12/13", "Close": 8.625}, {"Date": "1990/12/14", "Close": 8.5}, {"Date": "1990/12/17", "Close": 8.375}, {"Date": "1990/12/18", "Close": 8.375}, {"Date": "1990/12/19", "Close": 8.75}, {"Date": "1990/12/20", "Close": 8.75}, {"Date": "1990/12/21", "Close": 8.5625}, {"Date": "1990/12/24", "Close": 8.6875}, {"Date": "1990/12/26", "Close": 9.0625}, {"Date": "1990/12/27", "Close": 9.375}, {"Date": "1990/12/28", "Close": 9.5625}, {"Date": "1990/12/31", "Close": 9.4375}, {"Date": "1991/1/2", "Close": 9.5}, {"Date": "1991/1/3", "Close": 9.0625}, {"Date": "1991/1/4", "Close": 8.8125}, {"Date": "1991/1/7", "Close": 8.6875}, {"Date": "1991/1/8", "Close": 8.8125}, {"Date": "1991/1/9", "Close": 8.625}, {"Date": "1991/1/10", "Close": 8.6875}, {"Date": "1991/1/11", "Close": 9.0625}, {"Date": "1991/1/14", "Close": 8.75}, {"Date": "1991/1/15", "Close": 8.75}, {"Date": "1991/1/16", "Close": 8.75}, {"Date": "1991/1/17", "Close": 9.25}, {"Date": "1991/1/18", "Close": 9.375}, {"Date": "1991/1/21", "Close": 9.25}, {"Date": "1991/1/22", "Close": 9.25}, {"Date": "1991/1/23", "Close": 9.5}, {"Date": "1991/1/24", "Close": 9.8125}, {"Date": "1991/1/25", "Close": 9.5625}, {"Date": "1991/1/28", "Close": 9.625}, {"Date": "1991/1/29", "Close": 9.8125}, {"Date": "1991/1/30", "Close": 10.3125}, {"Date": "1991/1/31", "Close": 10.125}, {"Date": "1991/2/1", "Close": 10.1875}, {"Date": "1991/2/4", "Close": 10.5}, {"Date": "1991/2/5", "Close": 10.3125}, {"Date": "1991/2/6", "Close": 9.9375}, {"Date": "1991/2/7", "Close": 9.375}, {"Date": "1991/2/8", "Close": 9.375}, {"Date": "1991/2/11", "Close": 9.6875}, {"Date": "1991/2/12", "Close": 9.5625}, {"Date": "1991/2/13", "Close": 9.8125}, {"Date": "1991/2/14", "Close": 9.8125}, {"Date": "1991/2/15", "Close": 9.9375}, {"Date": "1991/2/19", "Close": 10.0}, {"Date": "1991/2/20", "Close": 10.0}, {"Date": "1991/2/21", "Close": 10.0625}, {"Date": "1991/2/22", "Close": 10.25}, {"Date": "1991/2/25", "Close": 10.25}, {"Date": "1991/2/26", "Close": 10.1875}, {"Date": "1991/2/27", "Close": 10.375}, {"Date": "1991/2/28", "Close": 10.3125}, {"Date": "1991/3/1", "Close": 10.5625}, {"Date": "1991/3/4", "Close": 11.3125}, {"Date": "1991/3/5", "Close": 11.8125}, {"Date": "1991/3/6", "Close": 11.8125}, {"Date": "1991/3/7", "Close": 11.9375}, {"Date": "1991/3/8", "Close": 12.0625}, {"Date": "1991/3/11", "Close": 11.875}, {"Date": "1991/3/12", "Close": 11.4375}, {"Date": "1991/3/13", "Close": 11.4375}, {"Date": "1991/3/14", "Close": 11.25}, {"Date": "1991/3/15", "Close": 11.25}, {"Date": "1991/3/18", "Close": 11.125}, {"Date": "1991/3/19", "Close": 10.9375}, {"Date": "1991/3/20", "Close": 10.9375}, {"Date": "1991/3/21", "Close": 10.9375}, {"Date": "1991/3/22", "Close": 11.0625}, {"Date": "1991/3/25", "Close": 10.25}, {"Date": "1991/3/26", "Close": 10.375}, {"Date": "1991/3/27", "Close": 11.4375}, {"Date": "1991/3/28", "Close": 11.8125}, {"Date": "1991/4/1", "Close": 11.6875}, {"Date": "1991/4/2", "Close": 12.0625}, {"Date": "1991/4/3", "Close": 11.875}, {"Date": "1991/4/4", "Close": 11.6875}, {"Date": "1991/4/5", "Close": 11.5625}, {"Date": "1991/4/8", "Close": 11.625}, {"Date": "1991/4/9", "Close": 11.1875}, {"Date": "1991/4/10", "Close": 11.1875}, {"Date": "1991/4/11", "Close": 11.25}, {"Date": "1991/4/12", "Close": 11.4375}, {"Date": "1991/4/15", "Close": 11.5625}, {"Date": "1991/4/16", "Close": 11.375}, {"Date": "1991/4/17", "Close": 11.3125}, {"Date": "1991/4/18", "Close": 11.25}, {"Date": "1991/4/19", "Close": 11.3125}, {"Date": "1991/4/22", "Close": 10.875}, {"Date": "1991/4/23", "Close": 10.5}, {"Date": "1991/4/24", "Close": 10.75}, {"Date": "1991/4/25", "Close": 10.5625}, {"Date": "1991/4/26", "Close": 11.0}, {"Date": "1991/4/29", "Close": 10.8125}, {"Date": "1991/4/30", "Close": 10.625}, {"Date": "1991/5/1", "Close": 10.9375}, {"Date": "1991/5/2", "Close": 10.75}, {"Date": "1991/5/3", "Close": 10.9375}, {"Date": "1991/5/6", "Close": 11.3125}, {"Date": "1991/5/7", "Close": 11.0}, {"Date": "1991/5/8", "Close": 11.3125}, {"Date": "1991/5/9", "Close": 11.4375}, {"Date": "1991/5/10", "Close": 11.4375}, {"Date": "1991/5/13", "Close": 11.5625}, {"Date": "1991/5/14", "Close": 11.3125}, {"Date": "1991/5/15", "Close": 11.25}, {"Date": "1991/5/16", "Close": 11.4375}, {"Date": "1991/5/17", "Close": 11.4375}, {"Date": "1991/5/20", "Close": 11.875}, {"Date": "1991/5/21", "Close": 12.25}, {"Date": "1991/5/22", "Close": 12.3125}, {"Date": "1991/5/23", "Close": 12.1875}, {"Date": "1991/5/24", "Close": 12.375}, {"Date": "1991/5/28", "Close": 12.8125}, {"Date": "1991/5/29", "Close": 13.0}, {"Date": "1991/5/30", "Close": 13.0}, {"Date": "1991/5/31", "Close": 13.125}, {"Date": "1991/6/3", "Close": 13.5}, {"Date": "1991/6/4", "Close": 15.0625}, {"Date": "1991/6/5", "Close": 15.6875}, {"Date": "1991/6/6", "Close": 16.0625}, {"Date": "1991/6/7", "Close": 16.625}, {"Date": "1991/6/10", "Close": 16.625}, {"Date": "1991/6/11", "Close": 16.0625}, {"Date": "1991/6/12", "Close": 16.625}, {"Date": "1991/6/13", "Close": 16.5625}, {"Date": "1991/6/14", "Close": 16.75}, {"Date": "1991/6/17", "Close": 17.4375}, {"Date": "1991/6/18", "Close": 17.0}, {"Date": "1991/6/19", "Close": 17.0625}, {"Date": "1991/6/20", "Close": 17.125}, {"Date": "1991/6/21", "Close": 17.125}, {"Date": "1991/6/24", "Close": 16.9375}, {"Date": "1991/6/25", "Close": 16.75}, {"Date": "1991/6/26", "Close": 16.5625}, {"Date": "1991/6/27", "Close": 16.6875}, {"Date": "1991/6/28", "Close": 16.625}, {"Date": "1991/7/1", "Close": 16.875}, {"Date": "1991/7/2", "Close": 16.625}, {"Date": "1991/7/3", "Close": 16.75}, {"Date": "1991/7/5", "Close": 16.8125}, {"Date": "1991/7/8", "Close": 17.1875}, {"Date": "1991/7/9", "Close": 17.1875}, {"Date": "1991/7/10", "Close": 17.8125}, {"Date": "1991/7/11", "Close": 17.625}, {"Date": "1991/7/12", "Close": 18.0}, {"Date": "1991/7/15", "Close": 17.8125}, {"Date": "1991/7/16", "Close": 18.3125}, {"Date": "1991/7/17", "Close": 18.4375}, {"Date": "1991/7/18", "Close": 19.125}, {"Date": "1991/7/19", "Close": 19.4375}, {"Date": "1991/7/22", "Close": 19.125}, {"Date": "1991/7/23", "Close": 18.5}, {"Date": "1991/7/24", "Close": 18.1875}, {"Date": "1991/7/25", "Close": 19.0}, {"Date": "1991/7/26", "Close": 19.0625}, {"Date": "1991/7/29", "Close": 18.8125}, {"Date": "1991/7/30", "Close": 18.75}, {"Date": "1991/7/31", "Close": 19.0625}, {"Date": "1991/8/1", "Close": 18.875}, {"Date": "1991/8/2", "Close": 18.875}, {"Date": "1991/8/5", "Close": 18.625}, {"Date": "1991/8/6", "Close": 19.0}, {"Date": "1991/8/7", "Close": 19.125}, {"Date": "1991/8/8", "Close": 19.375}, {"Date": "1991/8/9", "Close": 19.375}, {"Date": "1991/8/12", "Close": 19.0}, {"Date": "1991/8/13", "Close": 18.3125}, {"Date": "1991/8/14", "Close": 18.5625}, {"Date": "1991/8/15", "Close": 18.3125}, {"Date": "1991/8/16", "Close": 17.875}, {"Date": "1991/8/19", "Close": 17.0625}, {"Date": "1991/8/20", "Close": 17.3125}, {"Date": "1991/8/21", "Close": 18.4375}, {"Date": "1991/8/22", "Close": 18.625}, {"Date": "1991/8/23", "Close": 18.9375}, {"Date": "1991/8/26", "Close": 19.0625}, {"Date": "1991/8/27", "Close": 18.9375}, {"Date": "1991/8/28", "Close": 19.375}, {"Date": "1991/8/29", "Close": 19.1875}, {"Date": "1991/8/30", "Close": 19.125}, {"Date": "1991/9/3", "Close": 19.25}, {"Date": "1991/9/4", "Close": 20.4375}, {"Date": "1991/9/5", "Close": 20.625}, {"Date": "1991/9/6", "Close": 21.0}, {"Date": "1991/9/9", "Close": 21.0625}, {"Date": "1991/9/10", "Close": 20.8125}, {"Date": "1991/9/11", "Close": 21.0}, {"Date": "1991/9/12", "Close": 21.1875}, {"Date": "1991/9/13", "Close": 20.8125}, {"Date": "1991/9/16", "Close": 21.0625}, {"Date": "1991/9/17", "Close": 21.125}, {"Date": "1991/9/18", "Close": 21.25}, {"Date": "1991/9/19", "Close": 21.5}, {"Date": "1991/9/20", "Close": 21.75}, {"Date": "1991/9/23", "Close": 21.375}, {"Date": "1991/9/24", "Close": 21.3125}, {"Date": "1991/9/25", "Close": 21.6875}, {"Date": "1991/9/26", "Close": 21.8125}, {"Date": "1991/9/27", "Close": 21.6875}, {"Date": "1991/9/30", "Close": 21.9375}, {"Date": "1991/10/1", "Close": 21.8125}, {"Date": "1991/10/2", "Close": 22.125}, {"Date": "1991/10/3", "Close": 21.75}, {"Date": "1991/10/4", "Close": 21.5625}, {"Date": "1991/10/7", "Close": 20.9375}, {"Date": "1991/10/8", "Close": 21.5625}, {"Date": "1991/10/9", "Close": 21.9375}, {"Date": "1991/10/10", "Close": 21.9375}, {"Date": "1991/10/11", "Close": 21.9375}, {"Date": "1991/10/14", "Close": 21.9375}, {"Date": "1991/10/15", "Close": 21.8125}, {"Date": "1991/10/16", "Close": 22.375}, {"Date": "1991/10/17", "Close": 22.3125}, {"Date": "1991/10/18", "Close": 22.1875}, {"Date": "1991/10/21", "Close": 22.4375}, {"Date": "1991/10/22", "Close": 22.875}, {"Date": "1991/10/23", "Close": 23.5}, {"Date": "1991/10/24", "Close": 23.25}, {"Date": "1991/10/25", "Close": 23.375}, {"Date": "1991/10/28", "Close": 24.4375}, {"Date": "1991/10/29", "Close": 24.5625}, {"Date": "1991/10/30", "Close": 24.8125}, {"Date": "1991/10/31", "Close": 25.0}, {"Date": "1991/11/1", "Close": 24.8125}, {"Date": "1991/11/4", "Close": 24.875}, {"Date": "1991/11/5", "Close": 25.875}, {"Date": "1991/11/6", "Close": 26.8125}, {"Date": "1991/11/7", "Close": 26.25}, {"Date": "1991/11/8", "Close": 26.25}, {"Date": "1991/11/11", "Close": 25.75}, {"Date": "1991/11/12", "Close": 25.25}, {"Date": "1991/11/13", "Close": 24.6875}, {"Date": "1991/11/14", "Close": 24.6875}, {"Date": "1991/11/15", "Close": 24.125}, {"Date": "1991/11/18", "Close": 24.1875}, {"Date": "1991/11/19", "Close": 23.5}, {"Date": "1991/11/20", "Close": 24.125}, {"Date": "1991/11/21", "Close": 24.4375}, {"Date": "1991/11/22", "Close": 24.875}, {"Date": "1991/11/25", "Close": 24.5}, {"Date": "1991/11/26", "Close": 24.375}, {"Date": "1991/11/27", "Close": 24.25}, {"Date": "1991/11/29", "Close": 23.9375}]</t>
-  </si>
-  <si>
     <t>The stock of Goodyear Tire &amp; Rubber company (GT) suffers a year-long 'rounding bottom' pattern from 1990.6.11 to 1991.6.3.</t>
   </si>
   <si>
@@ -173,15 +149,9 @@
     <t>[{'Date': '12-Oct-15', 'Close': 17131.86}, {'Date': '13-Oct-15', 'Close': 17081.89}, {'Date': '14-Oct-15', 'Close': 16924.75}, {'Date': '15-Oct-15', 'Close': 17141.75}, {'Date': '16-Oct-15', 'Close': 17215.97}, {'Date': '19-Oct-15', 'Close': 17230.54}, {'Date': '20-Oct-15', 'Close': 17217.11}, {'Date': '21-Oct-15', 'Close': 17168.61}, {'Date': '22-Oct-15', 'Close': 17489.16}, {'Date': '23-Oct-15', 'Close': 17646.7}, {'Date': '26-Oct-15', 'Close': 17623.05}, {'Date': '27-Oct-15', 'Close': 17581.43}, {'Date': '28-Oct-15', 'Close': 17779.52}, {'Date': '29-Oct-15', 'Close': 17755.8}, {'Date': '30-Oct-15', 'Close': 17663.54}, {'Date': '2-Nov-15', 'Close': 17828.76}, {'Date': '3-Nov-15', 'Close': 17918.15}, {'Date': '4-Nov-15', 'Close': 17867.58}, {'Date': '5-Nov-15', 'Close': 17863.43}, {'Date': '6-Nov-15', 'Close': 17910.33}, {'Date': '9-Nov-15', 'Close': 17730.48}, {'Date': '10-Nov-15', 'Close': 17758.21}, {'Date': '11-Nov-15', 'Close': 17702.22}, {'Date': '12-Nov-15', 'Close': 17448.07}, {'Date': '13-Nov-15', 'Close': 17245.24}, {'Date': '16-Nov-15', 'Close': 17483.01}, {'Date': '17-Nov-15', 'Close': 17489.5}, {'Date': '18-Nov-15', 'Close': 17737.16}, {'Date': '19-Nov-15', 'Close': 17732.75}, {'Date': '20-Nov-15', 'Close': 17823.81}, {'Date': '23-Nov-15', 'Close': 17792.68}, {'Date': '24-Nov-15', 'Close': 17812.19}, {'Date': '25-Nov-15', 'Close': 17813.39}, {'Date': '27-Nov-15', 'Close': 17813.39}, {'Date': '30-Nov-15', 'Close': 17719.92}, {'Date': '1-Dec-15', 'Close': 17888.35}, {'Date': '2-Dec-15', 'Close': 17729.68}, {'Date': '3-Dec-15', 'Close': 17477.67}, {'Date': '4-Dec-15', 'Close': 17847.63}, {'Date': '7-Dec-15', 'Close': 17730.51}, {'Date': '8-Dec-15', 'Close': 17568.0}, {'Date': '9-Dec-15', 'Close': 17492.3}, {'Date': '10-Dec-15', 'Close': 17574.75}, {'Date': '11-Dec-15', 'Close': 17265.21}, {'Date': '14-Dec-15', 'Close': 17368.5}, {'Date': '15-Dec-15', 'Close': 17524.91}, {'Date': '16-Dec-15', 'Close': 17749.09}, {'Date': '17-Dec-15', 'Close': 17495.84}, {'Date': '18-Dec-15', 'Close': 17128.55}, {'Date': '21-Dec-15', 'Close': 17251.62}, {'Date': '22-Dec-15', 'Close': 17417.27}, {'Date': '23-Dec-15', 'Close': 17602.61}, {'Date': '24-Dec-15', 'Close': 17552.17}, {'Date': '28-Dec-15', 'Close': 17528.27}, {'Date': '29-Dec-15', 'Close': 17720.98}, {'Date': '30-Dec-15', 'Close': 17603.87}, {'Date': '31-Dec-15', 'Close': 17425.03}, {'Date': '4-Jan-16', 'Close': 17148.94}, {'Date': '5-Jan-16', 'Close': 17158.66}, {'Date': '6-Jan-16', 'Close': 16906.51}, {'Date': '7-Jan-16', 'Close': 16514.1}, {'Date': '8-Jan-16', 'Close': 16346.45}, {'Date': '11-Jan-16', 'Close': 16398.57}, {'Date': '12-Jan-16', 'Close': 16516.22}, {'Date': '13-Jan-16', 'Close': 16151.41}, {'Date': '14-Jan-16', 'Close': 16379.05}, {'Date': '15-Jan-16', 'Close': 15988.08}, {'Date': '19-Jan-16', 'Close': 16016.02}, {'Date': '20-Jan-16', 'Close': 15766.74}, {'Date': '21-Jan-16', 'Close': 15882.68}, {'Date': '22-Jan-16', 'Close': 16093.51}, {'Date': '25-Jan-16', 'Close': 15885.22}, {'Date': '26-Jan-16', 'Close': 16167.23}, {'Date': '27-Jan-16', 'Close': 15944.46}, {'Date': '28-Jan-16', 'Close': 16069.64}, {'Date': '29-Jan-16', 'Close': 16466.3}, {'Date': '1-Feb-16', 'Close': 16449.18}, {'Date': '2-Feb-16', 'Close': 16153.54}, {'Date': '3-Feb-16', 'Close': 16336.66}, {'Date': '4-Feb-16', 'Close': 16416.58}, {'Date': '5-Feb-16', 'Close': 16204.97}, {'Date': '8-Feb-16', 'Close': 16027.05}, {'Date': '9-Feb-16', 'Close': 16014.38}, {'Date': '10-Feb-16', 'Close': 15914.74}, {'Date': '11-Feb-16', 'Close': 15660.18}, {'Date': '12-Feb-16', 'Close': 15973.84}, {'Date': '16-Feb-16', 'Close': 16196.41}, {'Date': '17-Feb-16', 'Close': 16453.83}, {'Date': '18-Feb-16', 'Close': 16413.43}, {'Date': '19-Feb-16', 'Close': 16391.99}, {'Date': '22-Feb-16', 'Close': 16620.66}, {'Date': '23-Feb-16', 'Close': 16431.78}, {'Date': '24-Feb-16', 'Close': 16484.99}, {'Date': '25-Feb-16', 'Close': 16697.29}, {'Date': '26-Feb-16', 'Close': 16639.97}, {'Date': '29-Feb-16', 'Close': 16516.5}, {'Date': '1-Mar-16', 'Close': 16865.08}, {'Date': '2-Mar-16', 'Close': 16899.32}, {'Date': '3-Mar-16', 'Close': 16943.9}, {'Date': '4-Mar-16', 'Close': 17006.77}, {'Date': '7-Mar-16', 'Close': 17073.95}, {'Date': '8-Mar-16', 'Close': 16964.1}, {'Date': '9-Mar-16', 'Close': 17000.36}, {'Date': '10-Mar-16', 'Close': 16995.13}, {'Date': '11-Mar-16', 'Close': 17213.31}, {'Date': '14-Mar-16', 'Close': 17229.13}, {'Date': '15-Mar-16', 'Close': 17251.53}, {'Date': '16-Mar-16', 'Close': 17325.76}, {'Date': '17-Mar-16', 'Close': 17481.49}, {'Date': '18-Mar-16', 'Close': 17602.3}, {'Date': '21-Mar-16', 'Close': 17623.87}, {'Date': '22-Mar-16', 'Close': 17582.57}, {'Date': '23-Mar-16', 'Close': 17502.59}, {'Date': '24-Mar-16', 'Close': 17515.73}, {'Date': '28-Mar-16', 'Close': 17535.39}, {'Date': '29-Mar-16', 'Close': 17633.11}, {'Date': '30-Mar-16', 'Close': 17716.66}, {'Date': '31-Mar-16', 'Close': 17685.09}, {'Date': '1-Apr-16', 'Close': 17792.75}, {'Date': '4-Apr-16', 'Close': 17737.0}, {'Date': '5-Apr-16', 'Close': 17603.32}, {'Date': '6-Apr-16', 'Close': 17716.05}, {'Date': '7-Apr-16', 'Close': 17541.96}, {'Date': '8-Apr-16', 'Close': 17576.96}, {'Date': '11-Apr-16', 'Close': 17556.41}, {'Date': '12-Apr-16', 'Close': 17721.25}, {'Date': '13-Apr-16', 'Close': 17908.28}, {'Date': '14-Apr-16', 'Close': 17926.43}, {'Date': '15-Apr-16', 'Close': 17897.46}, {'Date': '18-Apr-16', 'Close': 18004.16}, {'Date': '19-Apr-16', 'Close': 18053.6}, {'Date': '20-Apr-16', 'Close': 18096.27}, {'Date': '21-Apr-16', 'Close': 17982.52}, {'Date': '22-Apr-16', 'Close': 18003.75}, {'Date': '25-Apr-16', 'Close': 17977.24}, {'Date': '26-Apr-16', 'Close': 17990.32}, {'Date': '27-Apr-16', 'Close': 18041.55}, {'Date': '28-Apr-16', 'Close': 17830.76}, {'Date': '29-Apr-16', 'Close': 17773.64}, {'Date': '2-May-16', 'Close': 17891.16}, {'Date': '3-May-16', 'Close': 17750.91}, {'Date': '4-May-16', 'Close': 17651.26}, {'Date': '5-May-16', 'Close': 17660.71}, {'Date': '6-May-16', 'Close': 17740.63}, {'Date': '9-May-16', 'Close': 17705.91}, {'Date': '10-May-16', 'Close': 17928.35}, {'Date': '11-May-16', 'Close': 17711.12}, {'Date': '12-May-16', 'Close': 17720.5}, {'Date': '13-May-16', 'Close': 17535.32}, {'Date': '16-May-16', 'Close': 17710.71}, {'Date': '17-May-16', 'Close': 17529.98}, {'Date': '18-May-16', 'Close': 17526.62}, {'Date': '19-May-16', 'Close': 17435.4}, {'Date': '20-May-16', 'Close': 17500.94}, {'Date': '23-May-16', 'Close': 17492.93}, {'Date': '24-May-16', 'Close': 17706.05}, {'Date': '25-May-16', 'Close': 17851.51}, {'Date': '26-May-16', 'Close': 17828.29}, {'Date': '27-May-16', 'Close': 17873.22}, {'Date': '31-May-16', 'Close': 17787.2}, {'Date': '1-Jun-16', 'Close': 17789.67}, {'Date': '2-Jun-16', 'Close': 17838.56}, {'Date': '3-Jun-16', 'Close': 17807.06}, {'Date': '6-Jun-16', 'Close': 17920.33}, {'Date': '7-Jun-16', 'Close': 17938.28}, {'Date': '8-Jun-16', 'Close': 18005.05}, {'Date': '9-Jun-16', 'Close': 17985.19}, {'Date': '10-Jun-16', 'Close': 17865.34}, {'Date': '13-Jun-16', 'Close': 17732.48}, {'Date': '14-Jun-16', 'Close': 17674.82}, {'Date': '15-Jun-16', 'Close': 17640.17}, {'Date': '16-Jun-16', 'Close': 17733.1}, {'Date': '17-Jun-16', 'Close': 17675.16}, {'Date': '20-Jun-16', 'Close': 17804.87}, {'Date': '21-Jun-16', 'Close': 17829.73}, {'Date': '22-Jun-16', 'Close': 17780.83}, {'Date': '23-Jun-16', 'Close': 18011.07}, {'Date': '24-Jun-16', 'Close': 17400.75}, {'Date': '27-Jun-16', 'Close': 17140.24}, {'Date': '28-Jun-16', 'Close': 17409.72}, {'Date': '29-Jun-16', 'Close': 17694.68}, {'Date': '30-Jun-16', 'Close': 17929.99}, {'Date': '1-Jul-16', 'Close': 17949.37}, {'Date': '5-Jul-16', 'Close': 17840.62}, {'Date': '6-Jul-16', 'Close': 17918.62}, {'Date': '7-Jul-16', 'Close': 17895.88}, {'Date': '8-Jul-16', 'Close': 18146.74}, {'Date': '11-Jul-16', 'Close': 18226.93}, {'Date': '12-Jul-16', 'Close': 18347.67}, {'Date': '13-Jul-16', 'Close': 18372.12}, {'Date': '14-Jul-16', 'Close': 18506.41}, {'Date': '15-Jul-16', 'Close': 18516.55}, {'Date': '18-Jul-16', 'Close': 18533.05}, {'Date': '19-Jul-16', 'Close': 18559.01}, {'Date': '20-Jul-16', 'Close': 18595.03}, {'Date': '21-Jul-16', 'Close': 18517.23}, {'Date': '22-Jul-16', 'Close': 18570.85}, {'Date': '25-Jul-16', 'Close': 18493.06}, {'Date': '26-Jul-16', 'Close': 18473.75}, {'Date': '27-Jul-16', 'Close': 18472.17}, {'Date': '28-Jul-16', 'Close': 18456.35}, {'Date': '29-Jul-16', 'Close': 18432.24}, {'Date': '1-Aug-16', 'Close': 18404.51}, {'Date': '2-Aug-16', 'Close': 18313.77}, {'Date': '3-Aug-16', 'Close': 18355.0}, {'Date': '4-Aug-16', 'Close': 18352.05}, {'Date': '5-Aug-16', 'Close': 18543.53}, {'Date': '8-Aug-16', 'Close': 18529.29}, {'Date': '9-Aug-16', 'Close': 18533.05}, {'Date': '10-Aug-16', 'Close': 18495.66}, {'Date': '11-Aug-16', 'Close': 18613.52}, {'Date': '12-Aug-16', 'Close': 18576.47}, {'Date': '15-Aug-16', 'Close': 18636.05}, {'Date': '16-Aug-16', 'Close': 18552.02}, {'Date': '17-Aug-16', 'Close': 18573.94}, {'Date': '18-Aug-16', 'Close': 18597.7}, {'Date': '19-Aug-16', 'Close': 18552.57}, {'Date': '22-Aug-16', 'Close': 18529.42}, {'Date': '23-Aug-16', 'Close': 18547.3}, {'Date': '24-Aug-16', 'Close': 18481.48}, {'Date': '25-Aug-16', 'Close': 18448.41}, {'Date': '26-Aug-16', 'Close': 18395.4}, {'Date': '29-Aug-16', 'Close': 18502.99}, {'Date': '30-Aug-16', 'Close': 18454.3}, {'Date': '31-Aug-16', 'Close': 18400.88}, {'Date': '1-Sep-16', 'Close': 18419.3}, {'Date': '2-Sep-16', 'Close': 18491.96}, {'Date': '6-Sep-16', 'Close': 18538.12}, {'Date': '7-Sep-16', 'Close': 18526.14}, {'Date': '8-Sep-16', 'Close': 18479.91}, {'Date': '9-Sep-16', 'Close': 18085.45}, {'Date': '12-Sep-16', 'Close': 18325.07}, {'Date': '13-Sep-16', 'Close': 18066.75}, {'Date': '14-Sep-16', 'Close': 18034.77}, {'Date': '15-Sep-16', 'Close': 18212.48}, {'Date': '16-Sep-16', 'Close': 18123.8}, {'Date': '19-Sep-16', 'Close': 18120.17}, {'Date': '20-Sep-16', 'Close': 18129.96}, {'Date': '21-Sep-16', 'Close': 18293.7}, {'Date': '22-Sep-16', 'Close': 18392.46}, {'Date': '23-Sep-16', 'Close': 18261.45}, {'Date': '26-Sep-16', 'Close': 18094.83}, {'Date': '27-Sep-16', 'Close': 18228.3}, {'Date': '28-Sep-16', 'Close': 18339.24}, {'Date': '29-Sep-16', 'Close': 18143.45}, {'Date': '30-Sep-16', 'Close': 18308.15}, {'Date': '3-Oct-16', 'Close': 18253.85}, {'Date': '4-Oct-16', 'Close': 18168.45}, {'Date': '5-Oct-16', 'Close': 18281.03}, {'Date': '6-Oct-16', 'Close': 18268.5}, {'Date': '7-Oct-16', 'Close': 18240.49}, {'Date': '10-Oct-16', 'Close': 18329.04}, {'Date': '11-Oct-16', 'Close': 18128.66}, {'Date': '12-Oct-16', 'Close': 18144.2}, {'Date': '13-Oct-16', 'Close': 18098.94}, {'Date': '14-Oct-16', 'Close': 18138.38}, {'Date': '17-Oct-16', 'Close': 18086.4}, {'Date': '18-Oct-16', 'Close': 18161.94}, {'Date': '19-Oct-16', 'Close': 18202.62}, {'Date': '20-Oct-16', 'Close': 18162.35}, {'Date': '21-Oct-16', 'Close': 18145.71}, {'Date': '24-Oct-16', 'Close': 18223.03}, {'Date': '25-Oct-16', 'Close': 18169.27}, {'Date': '26-Oct-16', 'Close': 18199.33}, {'Date': '27-Oct-16', 'Close': 18169.68}, {'Date': '28-Oct-16', 'Close': 18161.19}, {'Date': '31-Oct-16', 'Close': 18142.42}, {'Date': '1-Nov-16', 'Close': 18037.1}, {'Date': '2-Nov-16', 'Close': 17959.64}, {'Date': '3-Nov-16', 'Close': 17930.67}]</t>
   </si>
   <si>
-    <t>The "double bottom" pattern happens on the 'Dow Janes Industrial (.DJI) from 2015/12/29 to 2016/03/07.</t>
-  </si>
-  <si>
     <t>[{"ObjectName":["Dow Janes Industrial (.DJI)"],"DataName":"Close","Position":[{"Begin":[54,1],"End":[100,1]}],"Trend":"double bottom","Num":"None","Text":"The "double bottom" pattern happens on the 'Dow Janes Industrial (.DJI) from 2015/12/29 to 2016/03/07"}]</t>
   </si>
   <si>
-    <t>The 'Dow Janes Industrial (.DJI) in text corresponds to the column 'Close' in data. The "double bottom" pattern has two lows. The first low in the data is at 2016/01/20 , and the second low is at 2016/02/11.  This pattern is around from '2015/12/29' to '2016/03/07'.</t>
-  </si>
-  <si>
     <t>uptrend</t>
   </si>
   <si>
@@ -224,25 +194,16 @@
     <t>[{"ObjectName":["Amazon.com Inc. (AMZN)"],"DataName":"Close","BeginIndex":[42,1],"EndIndex":[69,1],"Trend":"double top","Num":"None", "Text":"The chart of Amazon.com Inc. (AMZN) shows a double top pattern that formed in the stock between September and October 2018"}, {"ObjectName":["Amazon.com Inc. (AMZN)"],"DataName":"Close","BeginIndex":[70,1],"EndIndex":[102,1],"Trend":"plunges","Num":"31%","Text":"shares plunges another 31%"}]</t>
   </si>
   <si>
-    <t>The 'Amazon.com Inc. (AMZN)  corresponds to the column 'Close' in data. The "Double Top" pattern is characterized by two distinct peaks and separated by a trough. This pattern often signifies a potential reversal from an uptrend to a downtrend, suggesting a shift in investor sentiment. The double top pattern in this data is from 2018.8.27 to 2018.10.4, and the two peaks exist at around 2018.09.05 and 2018.09.28. After this pattern, the value plunges from 2018.10.05 to 2018.11.20.</t>
-  </si>
-  <si>
     <t>triple top</t>
   </si>
   <si>
     <t>[{'time': '2010/3/10', 'price': 96.4}, {'time': '2010/3/11', 'price': 98.8}, {'time': '2010/3/12', 'price': 101.23}, {'time': '2010/3/13', 'price': 98.6}, {'time': '2010/3/14', 'price': 96.5}, {'time': '2010/3/15', 'price': 94.3}, {'time': '2010/3/16', 'price': 98.023}, {'time': '2010/3/17', 'price': 97.25}, {'time': '2010/3/18', 'price': 98.089}, {'time': '2010/3/19', 'price': 98.144}, {'time': '2010/3/20', 'price': 98.899}, {'time': '2010/3/21', 'price': 100.001}, {'time': '2010/3/22', 'price': 102.2}, {'time': '2010/3/23', 'price': 103.7}, {'time': '2010/3/24', 'price': 102.46}, {'time': '2010/3/25', 'price': 99.46}, {'time': '2010/3/26', 'price': 97.01}, {'time': '2010/3/27', 'price': 99.14}, {'time': '2010/3/28', 'price': 100.74}, {'time': '2010/3/29', 'price': 104.58}, {'time': '2010/3/30', 'price': 105.31}, {'time': '2010/3/31', 'price': 107.07}, {'time': '2010/4/1', 'price': 110.13}, {'time': '2010/4/2', 'price': 111.26}, {'time': '2010/4/3', 'price': 113.0}, {'time': '2010/4/4', 'price': 115.8}, {'time': '2010/4/5', 'price': 116.6}, {'time': '2010/4/6', 'price': 117.0}, {'time': '2010/4/7', 'price': 116.7}, {'time': '2010/4/8', 'price': 116.5}, {'time': '2010/4/9', 'price': 116.6}, {'time': '2010/4/10', 'price': 116.7}, {'time': '2010/4/11', 'price': 116.0}, {'time': '2010/4/12', 'price': 115.0}, {'time': '2010/4/13', 'price': 112.9}, {'time': '2010/4/14', 'price': 112.7}, {'time': '2010/4/15', 'price': 113.0}, {'time': '2010/4/16', 'price': 113.2}, {'time': '2010/4/17', 'price': 114.6}, {'time': '2010/4/18', 'price': 115.5}, {'time': '2010/4/19', 'price': 117.8}, {'time': '2010/4/20', 'price': 117.6}, {'time': '2010/4/21', 'price': 116.2}, {'time': '2010/4/22', 'price': 115.2}, {'time': '2010/4/23', 'price': 114.4}, {'time': '2010/4/24', 'price': 113.0}, {'time': '2010/4/25', 'price': 112.8}, {'time': '2010/4/26', 'price': 113.8}, {'time': '2010/4/27', 'price': 116.0}, {'time': '2010/4/28', 'price': 115.5}, {'time': '2010/4/29', 'price': 114.9}, {'time': '2010/4/30', 'price': 114.7}, {'time': '2010/5/1', 'price': 112.2}, {'time': '2010/5/2', 'price': 111.4}, {'time': '2010/5/3', 'price': 110.8}, {'time': '2010/5/4', 'price': 110.9}, {'time': '2010/5/5', 'price': 109.9}, {'time': '2010/5/6', 'price': 106.8}, {'time': '2010/5/7', 'price': 105.5}, {'time': '2010/5/8', 'price': 104.6}, {'time': '2010/5/9', 'price': 106.5}, {'time': '2010/5/10', 'price': 110.5}, {'time': '2010/5/11', 'price': 111.0}, {'time': '2010/5/12', 'price': 110.6}, {'time': '2010/5/13', 'price': 110.2}, {'time': '2010/5/14', 'price': 104.9}, {'time': '2010/5/15', 'price': 105.8}, {'time': '2010/5/16', 'price': 106.6}, {'time': '2010/5/17', 'price': 106.0}, {'time': '2010/5/18', 'price': 105.6}, {'time': '2010/5/19', 'price': 106.0}, {'time': '2010/5/20', 'price': 105.0}, {'time': '2010/5/21', 'price': 106.6}, {'time': '2010/5/22', 'price': 106.9}, {'time': '2010/5/23', 'price': 107.7}, {'time': '2010/5/24', 'price': 110.3}, {'time': '2010/5/25', 'price': 111.5}, {'time': '2010/5/26', 'price': 110.4}, {'time': '2010/5/27', 'price': 107.0}, {'time': '2010/5/28', 'price': 105.5}, {'time': '2010/5/29', 'price': 103.0}]</t>
   </si>
   <si>
-    <t xml:space="preserve">In Amazon stock moving averages, "triple top" pattern happens from 2010/04/01 to 2010/05/05. </t>
-  </si>
-  <si>
     <t>[{"ObjectName":["Amazon stock moving averages"],"DataName":"price","Position":[{"Begin":[22,1],"End":[56,1]}],"Trend":"triple top","Num":"None","Text":"The "triple top" pattern happens from 2010/04/01 to 2010/05/05"}]</t>
   </si>
   <si>
     <t>The 'Amazon stock moving averages' corresponds to the column 'price' in data. The 'triple top' pattern has three discernible peaks at approximatrely the same level, separated by troughs. The pattern in this data is from 2010.04.01 to 2010.05.05 and the three peaks are at about 2010.04.06, 2010.04.18 and 2010.04.27.</t>
-  </si>
-  <si>
-    <t>[{'month': 'Jan', '2018': '29.70%', '2019': '37.60%', '2020': '37.60%'}, {'month': 'Feb', '2018': '25.30%', '2019': '18.65%', '2020': '28.50%'}, {'month': 'Mar', '2018': '35.10%', '2019': '35.10%', '2020': '50.10%'}, {'month': 'Apr', '2018': '37.90%', '2019': '38.40%', '2020': '54.20%'}, {'month': 'May', '2018': '37.10%', '2019': '37.60%', '2020': '49.40%'}, {'month': 'Jun', '2018': '37.30%', '2019': '40.20%', '2020': '54.50%'}, {'month': 'Jul', '2018': '31.90%', '2019': '43.40%', '2020': '56.50%'}, {'month': 'Aug', '2018': '20.60%', '2019': '32.40%', '2020': '62.80%'}, {'month': 'Sep', '2018': '22.20%', '2019': '34.60%', '2020': '59.80%'}, {'month': 'Oct', '2018': '19.30%', '2019': '36.40%', '2020': '61.00%'}, {'month': 'Nov', '2018': '22.70%', '2019': '30.20%', '2020': '56.70%'}, {'month': 'Dec', '2018': '21.30%', '2019': '23.80%', '2020': '53.50%'}]</t>
   </si>
   <si>
     <t xml:space="preserve">According to the data from Amazon’s US station released by marketplacepulse, the proportion of Chinese sellers among new sellers in 2020 has greatly increased compared with the previous two years, and the proportion of Chinese sellers has stabilized at more than 50% since June 2020. In August 2020, it reached its highest point, 62.8%, getting an increase of 93.83% year-on-year. </t>
@@ -357,7 +318,7 @@
     <t>[{'Year': 2017, 'Annual Revenue (billions of US $)': 11.7}, {'Year': 2018, 'Annual Revenue (billions of US $)': 21.4}, {'Year': 2019, 'Annual Revenue (billions of US $)': 24.5}, {'Year': 2020, 'Annual Revenue (billions of US $)': 31.5}, {'Year': 2021, 'Annual Revenue (billions of US $)': 53.8}, {'Year': 2022, 'Annual Revenue (billions of US $)': 81.4}]</t>
   </si>
   <si>
-    <t xml:space="preserve">Tesla earned $53.8 billion in sales revenue in 2021. This was up from $31.5 billion earned in 2020, with a 70.64% growth in sales during 2021. In 2022, Tesla remains the largest EV manufacturer in terms of revenue and market share, followed by Volkswagen. </t>
+    <t>Tesla earned $53.8 billion in sales revenue in 2021. This was up from $31.5 billion earned in 2020, with a 70.64% growth in sales during 2021. In 2022, Tesla remains the largest EV manufacturer in terms of revenue and market share, followed by Volkswagen. </t>
   </si>
   <si>
     <t>[{"ObjectName":["sales revenue"],"DataName":"Annual Revenue (billions of US $)","Position":[{"Begin":[4,1],"End":[4,1]}],"Trend":"None","Num":[53.8],"Text":"Tesla earned $53.8 billion in sales revenue in 2021"},
@@ -384,29 +345,115 @@
     <t>The text 'the Soviet Union' corresponds to the row 'Soviet Union', '23.57 million dead' corresponds to the column 'Human Losses of World War Two'. The '10.71 percent in Germany' corresponds to the column 'Percentage of country population' and the row 'Germany' in data. The '18.51 percent in Poland' corresponds to the row 'Poland' and the column 'Percentage of country population' in data.</t>
   </si>
   <si>
+    <t>The text 'a sharp decrease' corresponds to the changes in 'change in real GDP' column from 2008 Q2 to 2009 Q2. The text 'rise' corresponds to the changes in 'change in real GDP' column from 2009 Q2 to 2009 Q4 in data.</t>
+  </si>
+  <si>
+    <t>used！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi line</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Time': '2019-Jan', 'All items': 1.6, 'Food': 1.6, 'Energy': -4.8, 'Shelter': 3.2}, {'Time': '2019-Feb', 'All items': 1.5, 'Food': 2.0, 'Energy': -5.0, 'Shelter': 3.4}, {'Time': '2019-Mar', 'All items': 1.9, 'Food': 2.1, 'Energy': -0.4, 'Shelter': 3.4}, {'Time': '2019-Apr', 'All items': 2.0, 'Food': 1.8, 'Energy': 1.7, 'Shelter': 3.4}, {'Time': '2019-May', 'All items': 1.8, 'Food': 2.0, 'Energy': -0.5, 'Shelter': 3.3}, {'Time': '2019-Jun', 'All items': 1.6, 'Food': 1.9, 'Energy': -3.4, 'Shelter': 3.5}, {'Time': '2019-Jul', 'All items': 1.8, 'Food': 1.8, 'Energy': -2.0, 'Shelter': 3.5}, {'Time': '2019-Aug', 'All items': 1.7, 'Food': 1.7, 'Energy': -4.4, 'Shelter': 3.4}, {'Time': '2019-Sep', 'All items': 1.7, 'Food': 1.8, 'Energy': -4.8, 'Shelter': 3.5}, {'Time': '2019-Oct', 'All items': 1.8, 'Food': 2.1, 'Energy': -4.2, 'Shelter': 3.3}, {'Time': '2019-Nov', 'All items': 2.1, 'Food': 2.0, 'Energy': -0.6, 'Shelter': 3.3}, {'Time': '2019-Dec', 'All items': 2.3, 'Food': 1.8, 'Energy': 3.4, 'Shelter': 3.2}, {'Time': '2020-Jan', 'All items': 2.5, 'Food': 1.8, 'Energy': 6.2, 'Shelter': 3.3}, {'Time': '2020-Feb', 'All items': 2.3, 'Food': 1.8, 'Energy': 2.8, 'Shelter': 3.3}, {'Time': '2020-Mar', 'All items': 1.5, 'Food': 1.9, 'Energy': -5.7, 'Shelter': 3.0}, {'Time': '2020-Apr', 'All items': 0.3, 'Food': 3.5, 'Energy': -17.7, 'Shelter': 2.6}, {'Time': '2020-May', 'All items': 0.1, 'Food': 4.0, 'Energy': -18.9, 'Shelter': 2.5}, {'Time': '2020-Jun', 'All items': 0.6, 'Food': 4.5, 'Energy': -12.6, 'Shelter': 2.4}, {'Time': '2020-Jul', 'All items': 1.0, 'Food': 4.1, 'Energy': -11.2, 'Shelter': 2.3}, {'Time': '2020-Aug', 'All items': 1.3, 'Food': 4.1, 'Energy': -9.0, 'Shelter': 2.3}, {'Time': '2020-Sep', 'All items': 1.4, 'Food': 3.9, 'Energy': -7.7, 'Shelter': 2.0}, {'Time': '2020-Oct', 'All items': 1.2, 'Food': 3.9, 'Energy': -9.2, 'Shelter': 2.0}, {'Time': '2020-Nov', 'All items': 1.2, 'Food': 3.7, 'Energy': -9.4, 'Shelter': 1.9}, {'Time': '2020-Dec', 'All items': 1.4, 'Food': 3.9, 'Energy': -7.0, 'Shelter': 1.8}, {'Time': '2021-Jan', 'All items': 1.4, 'Food': 3.8, 'Energy': -3.6, 'Shelter': 1.6}, {'Time': '2021-Feb', 'All items': 1.7, 'Food': 3.6, 'Energy': 2.4, 'Shelter': 1.5}, {'Time': '2021-Mar', 'All items': 2.6, 'Food': 3.5, 'Energy': 13.2, 'Shelter': 1.7}, {'Time': '2021-Apr', 'All items': 4.2, 'Food': 2.4, 'Energy': 25.1, 'Shelter': 2.1}, {'Time': '2021-May', 'All items': 5.0, 'Food': 2.2, 'Energy': 28.5, 'Shelter': 2.2}, {'Time': '2021-Jun', 'All items': 5.4, 'Food': 2.4, 'Energy': 24.5, 'Shelter': 2.6}, {'Time': '2021-Jul', 'All items': 5.4, 'Food': 3.4, 'Energy': 23.8, 'Shelter': 2.8}, {'Time': '2021-Aug', 'All items': 5.3, 'Food': 3.7, 'Energy': 25.0, 'Shelter': 2.8}, {'Time': '2021-Sep', 'All items': 5.4, 'Food': 4.6, 'Energy': 24.8, 'Shelter': 3.2}, {'Time': '2021-Oct', 'All items': 6.2, 'Food': 5.3, 'Energy': 30.0, 'Shelter': 3.5}, {'Time': '2021-Nov', 'All items': 6.8, 'Food': 6.1, 'Energy': 33.3, 'Shelter': 3.8}, {'Time': '2021-Dec', 'All items': 7.0, 'Food': 6.3, 'Energy': 29.3, 'Shelter': 4.1}, {'Time': '2022-Jan', 'All items': 7.5, 'Food': 7.0, 'Energy': 27.0, 'Shelter': 4.4}, {'Time': '2022-Feb', 'All items': 7.9, 'Food': 7.9, 'Energy': 25.6, 'Shelter': 4.7}, {'Time': '2022-Mar', 'All items': 8.5, 'Food': 8.8, 'Energy': 32.0, 'Shelter': 5.0}, {'Time': '2022-Apr', 'All items': 8.3, 'Food': 9.4, 'Energy': 30.3, 'Shelter': 5.1}, {'Time': '2022-May', 'All items': 8.6, 'Food': 10.1, 'Energy': 34.6, 'Shelter': 5.5}, {'Time': '2022-Jun', 'All items': 9.1, 'Food': 10.4, 'Energy': 41.6, 'Shelter': 5.6}, {'Time': '2022-Jul', 'All items': 8.5, 'Food': 10.9, 'Energy': 32.9, 'Shelter': 5.7}, {'Time': '2022-Aug', 'All items': 8.3, 'Food': 11.4, 'Energy': 23.8, 'Shelter': 6.2}, {'Time': '2022-Sep', 'All items': 8.2, 'Food': 11.2, 'Energy': 19.8, 'Shelter': 6.6}, {'Time': '2022-Oct', 'All items': 7.7, 'Food': 10.9, 'Energy': 17.6, 'Shelter': 6.9}, {'Time': '2022-Nov', 'All items': 7.1, 'Food': 10.6, 'Energy': 13.1, 'Shelter': 7.1}, {'Time': '2022-Dec', 'All items': 6.5, 'Food': 10.4, 'Energy': 7.3, 'Shelter': 7.5}, {'Time': '2023-Jan', 'All items': 6.4, 'Food': 10.1, 'Energy': 8.7, 'Shelter': 7.9}, {'Time': '2023-Feb', 'All items': 6.0, 'Food': 9.5, 'Energy': 5.2, 'Shelter': 8.1}, {'Time': '2023-Mar', 'All items': 5.0, 'Food': 8.5, 'Energy': -6.4, 'Shelter': 8.2}, {'Time': '2023-Apr', 'All items': 4.9, 'Food': 7.7, 'Energy': -5.1, 'Shelter': 8.1}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>[{'time': '2006 Q3', 'change in real GDP': 1.8}, {'time': '2006 Q4', 'change in real GDP': 2.4}, {'time': '2007 Q1', 'change in real GDP': 2.0}, {'time': '2007 Q2 ', 'change in real GDP': 1.6}, {'time': '2007 Q3', 'change in real GDP': 1.15}, {'time': '2007 Q4', 'change in real GDP': 0.75}, {'time': '2008 Q1', 'change in real GDP': 0.1}, {'time': '2008 Q2', 'change in real GDP': -0.04}, {'time': '2008 Q3', 'change in real GDP': -1.5}, {'time': '2008 Q4', 'change in real GDP': -2.1}, {'time': '2009 Q1', 'change in real GDP': -2.6}, {'time': '2009 Q2', 'change in real GDP': -1.2}, {'time': '2009 Q3', 'change in real GDP': 0.5}, {'time': '2009 Q4', 'change in real GDP': 1.47}, {'time': '2010 Q1', 'change in real GDP': 2.7}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>In the recession period, the change in real GDP of the United States suffers a sharp decrease then a rise.</t>
-  </si>
-  <si>
-    <t>[{"ObjectName": ["change in real GDP"],"DataName": "change in real GDP","Position": [{_x000D_
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName": ["change in real GDP"],"DataName": "change in real GDP","Position": [{
 "Begin": [7, 1],"End": [10, 1]}],"Trend": "sharp decrease","Num": [None],"Text": "the change in real GDP of the United States suffers a sharp decrease then a rise"},{"ObjectName": ["change in real GDP"],"DataName": "change in real GDP","Position": [{"Begin": [10, 1],"End": [13, 1]}],"Trend": "rise","Num": [None],"Text": "the change in real GDP of the United States suffers a sharp decrease then a rise"}]</t>
-  </si>
-  <si>
-    <t>The text 'a sharp decrease' corresponds to the changes in 'change in real GDP' column from 2008 Q2 to 2009 Q2. The text 'rise' corresponds to the changes in 'change in real GDP' column from 2009 Q2 to 2009 Q4 in data.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The 12-month percentage change in Consumer Price Index for all items increased 4.9 percentage in 2023 April. Consumer Price Index for food rose 7.7 percent in the same month, while consumer prices for energy fell 5.1 percentage.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName": ["Consumer Price Index for all items"], "DataName": "All items","Position": [{"Begin": [51, 1],"End": [51, 1]}],"Trend": "increased”,”Num": [4.9],"Text": "The 12-month percentage change in Consumer Price Index for all items increased 4.9 percentage in 2023 April."},{"ObjectName": ["Consumer Price Index for food"],"DataName": "Food","Position": [{ "Begin": [51, 2],"End": [51, 2]}],"Trend": "rose","Num": [7.7],"Text": "Consumer Price Index for food rose 7.7 percent in the same month."},{"ObjectName": ["consumer prices for energy"],"DataName": "Energy","Position": [{"Begin": [51, 3],"End": [51, 3]}],”Trend": "fell","Num": [-5.1],"Text": "while consumer prices for energy fell 5.1 percentage."}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The text 'consumer price index for all items' corresponds to the column 'All items' in data and the test '2023 April' corresponds to the row '2023-Apr' in data. The test 'fell 5.1 percentage'  refer to '-5.1' in data.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflation-adjusted ('real') GDP for the outdoor recreation economy increased 18.9 percent in 2021, compared with a 5.9 percent increase for the overall U.S. economy, reflecting a rebound in outdoor recreation after the decrease of 21.6 percent in 2020. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>There exists a 'head and shoulder' pattern on the Amazon stock moving averages from 1999/09/27 to 2000/02/22.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The 'double bottom' pattern happens on the 'Dow Janes Industrial (.DJI) from 2015/12/29 to 2016/03/07.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">In Amazon stock moving averages, 'triple top' pattern happens from 2010/04/01 to 2010/05/05. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The 'Dow Janes Industrial (.DJI) in text corresponds to the column 'Close' in data. The 'double bottom' pattern has two lows. The first low in the data is at 2016/01/20 , and the second low is at 2016/02/11.  This pattern is around from '2015/12/29' to '2016/03/07'.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The 'Amazon.com Inc. (AMZN)  corresponds to the column 'Close' in data. The 'Double Top' pattern is characterized by two distinct peaks and separated by a trough. This pattern often signifies a potential reversal from an uptrend to a downtrend, suggesting a shift in investor sentiment. The double top pattern in this data is from 2018.8.27 to 2018.10.4, and the two peaks exist at around 2018.09.05 and 2018.09.28. After this pattern, the value plunges from 2018.10.05 to 2018.11.20.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The text 'Inflation-adjusted ('real') GDP for the outdoor recreation economy' corresponds to the column 'Outdoor recreation' and the row 'Real GDP' in data. Its value is '18.9'. The text 'U.S. economy' corresponds to the column 'U.S. economy' and row 'Real GDP' in data and its value is '5.9', reflecting a rebound trend.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>It' in text refers to the column 'installed wind + PV capacity (GW)' in data. It has a 'rising' trend from 2021 to 2030. The text 'installed wind and PV capacity (GW)' corresponds to the column 'installed wind + PV capacity (GW)' in data. Its value reachs '1200' in 2030. The text 'energy percentage' corresponds to the column 'energy consumption percentage' and the value is '25%' in 2030.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The 'Amazon stock' in text corresponds to the 'Close' column in data. The 'head and shoulder' pattern consists of three rises and falls from three localized highs. The high point in the center is higher than the other two. This pattern is around from '1999/09/27' to '2000/02/22' and the middle high point exist on '1999/12/09'.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Date": "1990/3/1", "Close": 16.8125}, {"Date": "1990/3/2", "Close": 17.0}, {"Date": "1990/3/5", "Close": 17.4375}, {"Date": "1990/3/6", "Close": 17.75}, {"Date": "1990/3/7", "Close": 17.6875}, {"Date": "1990/3/8", "Close": 17.6875}, {"Date": "1990/3/9", "Close": 17.75}, {"Date": "1990/3/12", "Close": 18.1875}, {"Date": "1990/3/13", "Close": 18.9375}, {"Date": "1990/3/14", "Close": 18.9375}, {"Date": "1990/3/15", "Close": 18.5}, {"Date": "1990/3/16", "Close": 18.75}, {"Date": "1990/3/19", "Close": 18.5625}, {"Date": "1990/3/20", "Close": 18.5625}, {"Date": "1990/3/21", "Close": 19.125}, {"Date": "1990/3/22", "Close": 18.5}, {"Date": "1990/3/23", "Close": 18.75}, {"Date": "1990/3/26", "Close": 18.625}, {"Date": "1990/3/27", "Close": 18.625}, {"Date": "1990/3/28", "Close": 18.4375}, {"Date": "1990/3/29", "Close": 18.125}, {"Date": "1990/3/30", "Close": 17.875}, {"Date": "1990/4/2", "Close": 18.125}, {"Date": "1990/4/3", "Close": 18.5}, {"Date": "1990/4/4", "Close": 18.5625}, {"Date": "1990/4/5", "Close": 18.125}, {"Date": "1990/4/6", "Close": 18.125}, {"Date": "1990/4/9", "Close": 17.875}, {"Date": "1990/4/10", "Close": 17.9375}, {"Date": "1990/4/11", "Close": 18.0625}, {"Date": "1990/4/12", "Close": 17.9375}, {"Date": "1990/4/16", "Close": 17.625}, {"Date": "1990/4/17", "Close": 17.5625}, {"Date": "1990/4/18", "Close": 17.5625}, {"Date": "1990/4/19", "Close": 17.5}, {"Date": "1990/4/20", "Close": 17.375}, {"Date": "1990/4/23", "Close": 17.0625}, {"Date": "1990/4/24", "Close": 17.5}, {"Date": "1990/4/25", "Close": 17.75}, {"Date": "1990/4/26", "Close": 17.75}, {"Date": "1990/4/27", "Close": 17.625}, {"Date": "1990/4/30", "Close": 17.6875}, {"Date": "1990/5/1", "Close": 17.6875}, {"Date": "1990/5/2", "Close": 17.625}, {"Date": "1990/5/3", "Close": 17.75}, {"Date": "1990/5/4", "Close": 17.6875}, {"Date": "1990/5/7", "Close": 17.75}, {"Date": "1990/5/8", "Close": 17.75}, {"Date": "1990/5/9", "Close": 17.6875}, {"Date": "1990/5/10", "Close": 17.4375}, {"Date": "1990/5/11", "Close": 17.75}, {"Date": "1990/5/14", "Close": 17.6875}, {"Date": "1990/5/15", "Close": 17.4375}, {"Date": "1990/5/16", "Close": 17.6875}, {"Date": "1990/5/17", "Close": 17.9375}, {"Date": "1990/5/18", "Close": 17.9375}, {"Date": "1990/5/21", "Close": 17.875}, {"Date": "1990/5/22", "Close": 17.5625}, {"Date": "1990/5/23", "Close": 17.3125}, {"Date": "1990/5/24", "Close": 17.3125}, {"Date": "1990/5/25", "Close": 17.25}, {"Date": "1990/5/29", "Close": 17.6875}, {"Date": "1990/5/30", "Close": 18.0625}, {"Date": "1990/5/31", "Close": 17.875}, {"Date": "1990/6/1", "Close": 17.8125}, {"Date": "1990/6/4", "Close": 18.125}, {"Date": "1990/6/5", "Close": 17.9375}, {"Date": "1990/6/6", "Close": 17.75}, {"Date": "1990/6/7", "Close": 17.5}, {"Date": "1990/6/8", "Close": 17.3125}, {"Date": "1990/6/11", "Close": 17.0625}, {"Date": "1990/6/12", "Close": 17.25}, {"Date": "1990/6/13", "Close": 17.0625}, {"Date": "1990/6/14", "Close": 17.375}, {"Date": "1990/6/15", "Close": 17.3125}, {"Date": "1990/6/18", "Close": 17.0}, {"Date": "1990/6/19", "Close": 16.875}, {"Date": "1990/6/20", "Close": 16.8125}, {"Date": "1990/6/21", "Close": 16.25}, {"Date": "1990/6/22", "Close": 15.8125}, {"Date": "1990/6/25", "Close": 15.8125}, {"Date": "1990/6/26", "Close": 15.875}, {"Date": "1990/6/27", "Close": 15.5625}, {"Date": "1990/6/28", "Close": 15.125}, {"Date": "1990/6/29", "Close": 15.0625}, {"Date": "1990/7/2", "Close": 14.875}, {"Date": "1990/7/3", "Close": 14.75}, {"Date": "1990/7/5", "Close": 14.5625}, {"Date": "1990/7/6", "Close": 14.6875}, {"Date": "1990/7/9", "Close": 14.5}, {"Date": "1990/7/10", "Close": 14.1875}, {"Date": "1990/7/11", "Close": 13.9375}, {"Date": "1990/7/12", "Close": 14.25}, {"Date": "1990/7/13", "Close": 14.5}, {"Date": "1990/7/16", "Close": 14.8125}, {"Date": "1990/7/17", "Close": 15.0625}, {"Date": "1990/7/18", "Close": 14.75}, {"Date": "1990/7/19", "Close": 15.0625}, {"Date": "1990/7/20", "Close": 14.5}, {"Date": "1990/7/23", "Close": 14.25}, {"Date": "1990/7/24", "Close": 13.8125}, {"Date": "1990/7/25", "Close": 14.0625}, {"Date": "1990/7/26", "Close": 13.625}, {"Date": "1990/7/27", "Close": 13.5625}, {"Date": "1990/7/30", "Close": 13.875}, {"Date": "1990/7/31", "Close": 13.25}, {"Date": "1990/8/1", "Close": 13.1875}, {"Date": "1990/8/2", "Close": 13.375}, {"Date": "1990/8/3", "Close": 12.5}, {"Date": "1990/8/6", "Close": 12.1875}, {"Date": "1990/8/7", "Close": 12.25}, {"Date": "1990/8/8", "Close": 12.75}, {"Date": "1990/8/9", "Close": 12.75}, {"Date": "1990/8/10", "Close": 12.25}, {"Date": "1990/8/13", "Close": 12.5}, {"Date": "1990/8/14", "Close": 12.6875}, {"Date": "1990/8/15", "Close": 12.9375}, {"Date": "1990/8/16", "Close": 12.4375}, {"Date": "1990/8/17", "Close": 11.8125}, {"Date": "1990/8/20", "Close": 11.625}, {"Date": "1990/8/21", "Close": 11.5}, {"Date": "1990/8/22", "Close": 12.1875}, {"Date": "1990/8/23", "Close": 11.25}, {"Date": "1990/8/24", "Close": 11.6875}, {"Date": "1990/8/27", "Close": 11.8125}, {"Date": "1990/8/28", "Close": 11.75}, {"Date": "1990/8/29", "Close": 11.9375}, {"Date": "1990/8/30", "Close": 12.0625}, {"Date": "1990/8/31", "Close": 11.375}, {"Date": "1990/9/4", "Close": 11.5}, {"Date": "1990/9/5", "Close": 11.5625}, {"Date": "1990/9/6", "Close": 11.125}, {"Date": "1990/9/7", "Close": 10.3125}, {"Date": "1990/9/10", "Close": 10.5}, {"Date": "1990/9/11", "Close": 10.1875}, {"Date": "1990/9/12", "Close": 10.125}, {"Date": "1990/9/13", "Close": 9.9375}, {"Date": "1990/9/14", "Close": 9.9375}, {"Date": "1990/9/17", "Close": 9.5}, {"Date": "1990/9/18", "Close": 9.375}, {"Date": "1990/9/19", "Close": 9.5}, {"Date": "1990/9/20", "Close": 9.4375}, {"Date": "1990/9/21", "Close": 9.3125}, {"Date": "1990/9/24", "Close": 9.0}, {"Date": "1990/9/25", "Close": 8.5}, {"Date": "1990/9/26", "Close": 8.875}, {"Date": "1990/9/27", "Close": 8.375}, {"Date": "1990/9/28", "Close": 8.5}, {"Date": "1990/10/1", "Close": 8.5625}, {"Date": "1990/10/2", "Close": 8.375}, {"Date": "1990/10/3", "Close": 8.4375}, {"Date": "1990/10/4", "Close": 8.625}, {"Date": "1990/10/5", "Close": 8.5625}, {"Date": "1990/10/8", "Close": 8.4375}, {"Date": "1990/10/9", "Close": 8.125}, {"Date": "1990/10/10", "Close": 8.1875}, {"Date": "1990/10/11", "Close": 8.25}, {"Date": "1990/10/12", "Close": 8.125}, {"Date": "1990/10/15", "Close": 7.5625}, {"Date": "1990/10/16", "Close": 7.625}, {"Date": "1990/10/17", "Close": 8.0625}, {"Date": "1990/10/18", "Close": 8.0625}, {"Date": "1990/10/19", "Close": 8.0625}, {"Date": "1990/10/22", "Close": 7.875}, {"Date": "1990/10/23", "Close": 8.0}, {"Date": "1990/10/24", "Close": 8.25}, {"Date": "1990/10/25", "Close": 8.0}, {"Date": "1990/10/26", "Close": 7.8125}, {"Date": "1990/10/29", "Close": 7.75}, {"Date": "1990/10/30", "Close": 7.8125}, {"Date": "1990/10/31", "Close": 7.625}, {"Date": "1990/11/1", "Close": 7.5625}, {"Date": "1990/11/2", "Close": 7.375}, {"Date": "1990/11/5", "Close": 7.25}, {"Date": "1990/11/6", "Close": 7.625}, {"Date": "1990/11/7", "Close": 7.4375}, {"Date": "1990/11/8", "Close": 7.375}, {"Date": "1990/11/9", "Close": 6.75}, {"Date": "1990/11/12", "Close": 7.0}, {"Date": "1990/11/13", "Close": 7.1875}, {"Date": "1990/11/14", "Close": 7.625}, {"Date": "1990/11/15", "Close": 7.75}, {"Date": "1990/11/16", "Close": 7.875}, {"Date": "1990/11/19", "Close": 7.875}, {"Date": "1990/11/20", "Close": 7.75}, {"Date": "1990/11/21", "Close": 7.8125}, {"Date": "1990/11/23", "Close": 7.8125}, {"Date": "1990/11/26", "Close": 7.625}, {"Date": "1990/11/27", "Close": 7.75}, {"Date": "1990/11/28", "Close": 8.1875}, {"Date": "1990/11/29", "Close": 8.0625}, {"Date": "1990/11/30", "Close": 8.0}, {"Date": "1990/12/3", "Close": 7.9375}, {"Date": "1990/12/4", "Close": 7.9375}, {"Date": "1990/12/5", "Close": 8.0}, {"Date": "1990/12/6", "Close": 7.9375}, {"Date": "1990/12/7", "Close": 8.125}, {"Date": "1990/12/10", "Close": 8.125}, {"Date": "1990/12/11", "Close": 8.625}, {"Date": "1990/12/12", "Close": 8.75}, {"Date": "1990/12/13", "Close": 8.625}, {"Date": "1990/12/14", "Close": 8.5}, {"Date": "1990/12/17", "Close": 8.375}, {"Date": "1990/12/18", "Close": 8.375}, {"Date": "1990/12/19", "Close": 8.75}, {"Date": "1990/12/20", "Close": 8.75}, {"Date": "1990/12/21", "Close": 8.5625}, {"Date": "1990/12/24", "Close": 8.6875}, {"Date": "1990/12/26", "Close": 9.0625}, {"Date": "1990/12/27", "Close": 9.375}, {"Date": "1990/12/28", "Close": 9.5625}, {"Date": "1990/12/31", "Close": 9.4375}, {"Date": "1991/1/2", "Close": 9.5}, {"Date": "1991/1/3", "Close": 9.0625}, {"Date": "1991/1/4", "Close": 8.8125}, {"Date": "1991/1/7", "Close": 8.6875}, {"Date": "1991/1/8", "Close": 8.8125}, {"Date": "1991/1/9", "Close": 8.625}, {"Date": "1991/1/10", "Close": 8.6875}, {"Date": "1991/1/11", "Close": 9.0625}, {"Date": "1991/1/14", "Close": 8.75}, {"Date": "1991/1/15", "Close": 8.75}, {"Date": "1991/1/16", "Close": 8.75}, {"Date": "1991/1/17", "Close": 9.25}, {"Date": "1991/1/18", "Close": 9.375}, {"Date": "1991/1/21", "Close": 9.25}, {"Date": "1991/1/22", "Close": 9.25}, {"Date": "1991/1/23", "Close": 9.5}, {"Date": "1991/1/24", "Close": 9.8125}, {"Date": "1991/1/25", "Close": 9.5625}, {"Date": "1991/1/28", "Close": 9.625}, {"Date": "1991/1/29", "Close": 9.8125}, {"Date": "1991/1/30", "Close": 10.3125}, {"Date": "1991/1/31", "Close": 10.125}, {"Date": "1991/2/1", "Close": 10.1875}, {"Date": "1991/2/4", "Close": 10.5}, {"Date": "1991/2/5", "Close": 10.3125}, {"Date": "1991/2/6", "Close": 9.9375}, {"Date": "1991/2/7", "Close": 9.375}, {"Date": "1991/2/8", "Close": 9.375}, {"Date": "1991/2/11", "Close": 9.6875}, {"Date": "1991/2/12", "Close": 9.5625}, {"Date": "1991/2/13", "Close": 9.8125}, {"Date": "1991/2/14", "Close": 9.8125}, {"Date": "1991/2/15", "Close": 9.9375}, {"Date": "1991/2/19", "Close": 10.0}, {"Date": "1991/2/20", "Close": 10.0}, {"Date": "1991/2/21", "Close": 10.0625}, {"Date": "1991/2/22", "Close": 10.25}, {"Date": "1991/2/25", "Close": 10.25}, {"Date": "1991/2/26", "Close": 10.1875}, {"Date": "1991/2/27", "Close": 10.375}, {"Date": "1991/2/28", "Close": 10.3125}, {"Date": "1991/3/1", "Close": 10.5625}, {"Date": "1991/3/4", "Close": 11.3125}, {"Date": "1991/3/5", "Close": 11.8125}, {"Date": "1991/3/6", "Close": 11.8125}, {"Date": "1991/3/7", "Close": 11.9375}, {"Date": "1991/3/8", "Close": 12.0625}, {"Date": "1991/3/11", "Close": 11.875}, {"Date": "1991/3/12", "Close": 11.4375}, {"Date": "1991/3/13", "Close": 11.4375}, {"Date": "1991/3/14", "Close": 11.25}, {"Date": "1991/3/15", "Close": 11.25}, {"Date": "1991/3/18", "Close": 11.125}, {"Date": "1991/3/19", "Close": 10.9375}, {"Date": "1991/3/20", "Close": 10.9375}, {"Date": "1991/3/21", "Close": 10.9375}, {"Date": "1991/3/22", "Close": 11.0625}, {"Date": "1991/3/25", "Close": 10.25}, {"Date": "1991/3/26", "Close": 10.375}, {"Date": "1991/3/27", "Close": 11.4375}, {"Date": "1991/3/28", "Close": 11.8125}, {"Date": "1991/4/1", "Close": 11.6875}, {"Date": "1991/4/2", "Close": 12.0625}, {"Date": "1991/4/3", "Close": 11.875}, {"Date": "1991/4/4", "Close": 11.6875}, {"Date": "1991/4/5", "Close": 11.5625}, {"Date": "1991/4/8", "Close": 11.625}, {"Date": "1991/4/9", "Close": 11.1875}, {"Date": "1991/4/10", "Close": 11.1875}, {"Date": "1991/4/11", "Close": 11.25}, {"Date": "1991/4/12", "Close": 11.4375}, {"Date": "1991/4/15", "Close": 11.5625}, {"Date": "1991/4/16", "Close": 11.375}, {"Date": "1991/4/17", "Close": 11.3125}, {"Date": "1991/4/18", "Close": 11.25}, {"Date": "1991/4/19", "Close": 11.3125}, {"Date": "1991/4/22", "Close": 10.875}, {"Date": "1991/4/23", "Close": 10.5}, {"Date": "1991/4/24", "Close": 10.75}, {"Date": "1991/4/25", "Close": 10.5625}, {"Date": "1991/4/26", "Close": 11.0}, {"Date": "1991/4/29", "Close": 10.8125}, {"Date": "1991/4/30", "Close": 10.625}, {"Date": "1991/5/1", "Close": 10.9375}, {"Date": "1991/5/2", "Close": 10.75}, {"Date": "1991/5/3", "Close": 10.9375}, {"Date": "1991/5/6", "Close": 11.3125}, {"Date": "1991/5/7", "Close": 11.0}, {"Date": "1991/5/8", "Close": 11.3125}, {"Date": "1991/5/9", "Close": 11.4375}, {"Date": "1991/5/10", "Close": 11.4375}, {"Date": "1991/5/13", "Close": 11.5625}, {"Date": "1991/5/14", "Close": 11.3125}, {"Date": "1991/5/15", "Close": 11.25}, {"Date": "1991/5/16", "Close": 11.4375}, {"Date": "1991/5/17", "Close": 11.4375}, {"Date": "1991/5/20", "Close": 11.875}, {"Date": "1991/5/21", "Close": 12.25}, {"Date": "1991/5/22", "Close": 12.3125}, {"Date": "1991/5/23", "Close": 12.1875}, {"Date": "1991/5/24", "Close": 12.375}, {"Date": "1991/5/28", "Close": 12.8125}, {"Date": "1991/5/29", "Close": 13.0}, {"Date": "1991/5/30", "Close": 13.0}, {"Date": "1991/5/31", "Close": 13.125}, {"Date": "1991/6/3", "Close": 13.5}, {"Date": "1991/6/4", "Close": 15.0625}, {"Date": "1991/6/5", "Close": 15.6875}, {"Date": "1991/6/6", "Close": 16.0625}, {"Date": "1991/6/7", "Close": 16.625}, {"Date": "1991/6/10", "Close": 16.625}, {"Date": "1991/6/11", "Close": 16.0625}, {"Date": "1991/6/12", "Close": 16.625}, {"Date": "1991/6/13", "Close": 16.5625}, {"Date": "1991/6/14", "Close": 16.75}, {"Date": "1991/6/17", "Close": 17.4375}, {"Date": "1991/6/18", "Close": 17.0}, {"Date": "1991/6/19", "Close": 17.0625}, {"Date": "1991/6/20", "Close": 17.125}, {"Date": "1991/6/21", "Close": 17.125}, {"Date": "1991/6/24", "Close": 16.9375}, {"Date": "1991/6/25", "Close": 16.75}, {"Date": "1991/6/26", "Close": 16.5625}, {"Date": "1991/6/27", "Close": 16.6875}, {"Date": "1991/6/28", "Close": 16.625}, {"Date": "1991/7/1", "Close": 16.875}, {"Date": "1991/7/2", "Close": 16.625}, {"Date": "1991/7/3", "Close": 16.75}, {"Date": "1991/7/5", "Close": 16.8125}, {"Date": "1991/7/8", "Close": 17.1875}, {"Date": "1991/7/9", "Close": 17.1875}, {"Date": "1991/7/10", "Close": 17.8125}, {"Date": "1991/7/11", "Close": 17.625}, {"Date": "1991/7/12", "Close": 18.0}, {"Date": "1991/7/15", "Close": 17.8125}, {"Date": "1991/7/16", "Close": 18.3125}, {"Date": "1991/7/17", "Close": 18.4375}, {"Date": "1991/7/18", "Close": 19.125}, {"Date": "1991/7/19", "Close": 19.4375}, {"Date": "1991/7/22", "Close": 19.125}, {"Date": "1991/7/23", "Close": 18.5}, {"Date": "1991/7/24", "Close": 18.1875}, {"Date": "1991/7/25", "Close": 19.0}, {"Date": "1991/7/26", "Close": 19.0625}, {"Date": "1991/7/29", "Close": 18.8125}, {"Date": "1991/7/30", "Close": 18.75}, {"Date": "1991/7/31", "Close": 19.0625}, {"Date": "1991/8/1", "Close": 18.875}, {"Date": "1991/8/2", "Close": 18.875}, {"Date": "1991/8/5", "Close": 18.625}, {"Date": "1991/8/6", "Close": 19.0}, {"Date": "1991/8/7", "Close": 19.125}, {"Date": "1991/8/8", "Close": 19.375}, {"Date": "1991/8/9", "Close": 19.375}, {"Date": "1991/8/12", "Close": 19.0}, {"Date": "1991/8/13", "Close": 18.3125}, {"Date": "1991/8/14", "Close": 18.5625}, {"Date": "1991/8/15", "Close": 18.3125}, {"Date": "1991/8/16", "Close": 17.875}, {"Date": "1991/8/19", "Close": 17.0625}, {"Date": "1991/8/20", "Close": 17.3125}, {"Date": "1991/8/21", "Close": 18.4375}, {"Date": "1991/8/22", "Close": 18.625}, {"Date": "1991/8/23", "Close": 18.9375}, {"Date": "1991/8/26", "Close": 19.0625}, {"Date": "1991/8/27", "Close": 18.9375}, {"Date": "1991/8/28", "Close": 19.375}, {"Date": "1991/8/29", "Close": 19.1875}, {"Date": "1991/8/30", "Close": 19.125}, {"Date": "1991/9/3", "Close": 19.25}, {"Date": "1991/9/4", "Close": 20.4375}, {"Date": "1991/9/5", "Close": 20.625}, {"Date": "1991/9/6", "Close": 21.0}, {"Date": "1991/9/9", "Close": 21.0625}, {"Date": "1991/9/10", "Close": 20.8125}, {"Date": "1991/9/11", "Close": 21.0}, {"Date": "1991/9/12", "Close": 21.1875}, {"Date": "1991/9/13", "Close": 20.8125}, {"Date": "1991/9/16", "Close": 21.0625}, {"Date": "1991/9/17", "Close": 21.125}, {"Date": "1991/9/18", "Close": 21.25}, {"Date": "1991/9/19", "Close": 21.5}, {"Date": "1991/9/20", "Close": 21.75}, {"Date": "1991/9/23", "Close": 21.375}, {"Date": "1991/9/24", "Close": 21.3125}, {"Date": "1991/9/25", "Close": 21.6875}, {"Date": "1991/9/26", "Close": 21.8125}, {"Date": "1991/9/27", "Close": 21.6875}, {"Date": "1991/9/30", "Close": 21.9375}, {"Date": "1991/10/1", "Close": 21.8125}, {"Date": "1991/10/2", "Close": 22.125}, {"Date": "1991/10/3", "Close": 21.75}, {"Date": "1991/10/4", "Close": 21.5625}, {"Date": "1991/10/7", "Close": 20.9375}, {"Date": "1991/10/8", "Close": 21.5625}, {"Date": "1991/10/9", "Close": 21.9375}, {"Date": "1991/10/10", "Close": 21.9375}, {"Date": "1991/10/11", "Close": 21.9375}, {"Date": "1991/10/14", "Close": 21.9375}, {"Date": "1991/10/15", "Close": 21.8125}, {"Date": "1991/10/16", "Close": 22.375}, {"Date": "1991/10/17", "Close": 22.3125}, {"Date": "1991/10/18", "Close": 22.1875}, {"Date": "1991/10/21", "Close": 22.4375}, {"Date": "1991/10/22", "Close": 22.875}, {"Date": "1991/10/23", "Close": 23.5}, {"Date": "1991/10/24", "Close": 23.25}, {"Date": "1991/10/25", "Close": 23.375}, {"Date": "1991/10/28", "Close": 24.4375}, {"Date": "1991/10/29", "Close": 24.5625}, {"Date": "1991/10/30", "Close": 24.8125}, {"Date": "1991/10/31", "Close": 25.0}, {"Date": "1991/11/1", "Close": 24.8125}, {"Date": "1991/11/4", "Close": 24.875}, {"Date": "1991/11/5", "Close": 25.875}, {"Date": "1991/11/6", "Close": 26.8125}, {"Date": "1991/11/7", "Close": 26.25}, {"Date": "1991/11/8", "Close": 26.25}, {"Date": "1991/11/11", "Close": 25.75}, {"Date": "1991/11/12", "Close": 25.25}, {"Date": "1991/11/13", "Close": 24.6875}, {"Date": "1991/11/14", "Close": 24.6875}, {"Date": "1991/11/15", "Close": 24.125}, {"Date": "1991/11/18", "Close": 24.1875}, {"Date": "1991/11/19", "Close": 23.5}, {"Date": "1991/11/20", "Close": 24.125}, {"Date": "1991/11/21", "Close": 24.4375}, {"Date": "1991/11/22", "Close": 24.875}, {"Date": "1991/11/25", "Close": 24.5}, {"Date": "1991/11/26", "Close": 24.375}, {"Date": "1991/11/27", "Close": 24.25}, {"Date": "1991/11/29", "Close": 23.9375}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'month': 'Jan', '2018': '29.70%', '2019': '37.60%', '2020': '37.60%'}, {'month': 'Feb', '2018': '25.30%', '2019': '18.65%', '2020': '28.50%'}, {'month': 'Mar', '2018': '35.10%', '2019': '35.10%', '2020': '50.10%'}, {'month': 'Apr', '2018': '37.90%', '2019': '38.40%', '2020': '54.20%'}, {'month': 'May', '2018': '37.10%', '2019': '37.60%', '2020': '49.40%'}, {'month': 'Jun', '2018': '37.30%', '2019': '40.20%', '2020': '54.50%'}, {'month': 'Jul', '2018': '31.90%', '2019': '43.40%', '2020': '56.50%'}, {'month': 'Aug', '2018': '20.60%', '2019': '32.40%', '2020': '62.80%'}, {'month': 'Sep', '2018': '22.20%', '2019': '34.60%', '2020': '59.80%'}, {'month': 'Oct', '2018': '19.30%', '2019': '36.40%', '2020': '61.00%'}, {'month': 'Nov', '2018': '22.70%', '2019': '30.20%', '2020': '56.70%'}, {'month': 'Dec', '2018': '21.30%', '2019': '23.80%', '2020': '53.50%'}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Position':'United Kingdom','Billions of dollars':59.9},{'Position':'Netherlands','Billions of dollars': 43.1},{'Position':'France','Billions of dollars': 35.3},{'Position':'Canada','Billions of dollars': 30},{'Position':'Japan','Billions of dollars': 29.6}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Category':'Real GDP','Outdoor recreation':18.9,'U.S. economy':5.9},{'Category':'Real Gross Output','Outdoor recreation':21.8,'U.S. economy':6.3},{'Category':'Compensation','Outdoor recreation':16.2,'U.S. economy':7.8},{'Category':'Compensation','Outdoor recreation':13.1,'U.S. economy':2.7}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Time':'2017/1/1','Mini- and subcompact size': 0.61,'Compact size':0.35, 'Midsize to large':0.04},{'Time':'2018/1/1','Mini- and subcompact size':0.49,'Compact size':0.41, 'Midsize to large':0.10},{'Time':'2019/1/1','Mini- and subcompact size':0.33,'Compact size':0.54, 'Midsize to large':0.13},{'Time':'2020/1/1','Mini- and subcompact size':0.35,'Compact size':0.33, 'Midsize to large':0.32},{'Time':'2021/1/1','Mini- and subcompact size':0.37,'Compact size':0.28, 'Midsize to large':0.35},{'Time':'2022/1/1','Mini- and subcompact size':0.37,'Compact size':0.31, 'Midsize to large': 0.32},{'Time':'2023/1/1','Mini- and subcompact size':0.30,'Compact size':0.30, 'Midsize to large':0.40}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Date': '1999/5/3', 'Adj Close': 3.773438}, {'Date': '1999/5/4', 'Adj Close': 3.575}, {'Date': '1999/5/5', 'Adj Close': 3.6625}, {'Date': '1999/5/6', 'Adj Close': 3.434375}, {'Date': '1999/5/7', 'Adj Close': 3.409375}, {'Date': '1999/5/10', 'Adj Close': 3.671875}, {'Date': '1999/5/11', 'Adj Close': 3.709375}, {'Date': '1999/5/12', 'Adj Close': 3.573438}, {'Date': '1999/5/13', 'Adj Close': 3.4}, {'Date': '1999/5/14', 'Adj Close': 3.309375}, {'Date': '1999/5/17', 'Adj Close': 3.440625}, {'Date': '1999/5/18', 'Adj Close': 3.315625}, {'Date': '1999/5/19', 'Adj Close': 3.489063}, {'Date': '1999/5/20', 'Adj Close': 3.270313}, {'Date': '1999/5/21', 'Adj Close': 3.214063}, {'Date': '1999/5/24', 'Adj Close': 2.9375}, {'Date': '1999/5/25', 'Adj Close': 2.789063}, {'Date': '1999/5/26', 'Adj Close': 3.023438}, {'Date': '1999/5/27', 'Adj Close': 2.864063}, {'Date': '1999/5/28', 'Adj Close': 2.96875}, {'Date': '1999/6/1', 'Adj Close': 2.645313}, {'Date': '1999/6/2', 'Adj Close': 2.803125}, {'Date': '1999/6/3', 'Adj Close': 2.626563}, {'Date': '1999/6/4', 'Adj Close': 2.710938}, {'Date': '1999/6/7', 'Adj Close': 2.934375}, {'Date': '1999/6/8', 'Adj Close': 2.789063}, {'Date': '1999/6/9', 'Adj Close': 2.85}, {'Date': '1999/6/10', 'Adj Close': 2.898438}, {'Date': '1999/6/11', 'Adj Close': 2.645313}, {'Date': '1999/6/14', 'Adj Close': 2.3}, {'Date': '1999/6/15', 'Adj Close': 2.4125}, {'Date': '1999/6/16', 'Adj Close': 2.792188}, {'Date': '1999/6/17', 'Adj Close': 2.823438}, {'Date': '1999/6/18', 'Adj Close': 2.782813}, {'Date': '1999/6/21', 'Adj Close': 3.0875}, {'Date': '1999/6/22', 'Adj Close': 2.9375}, {'Date': '1999/6/23', 'Adj Close': 2.94375}, {'Date': '1999/6/24', 'Adj Close': 2.840625}, {'Date': '1999/6/25', 'Adj Close': 2.754688}, {'Date': '1999/6/28', 'Adj Close': 2.767188}, {'Date': '1999/6/29', 'Adj Close': 2.901563}, {'Date': '1999/6/30', 'Adj Close': 3.128125}, {'Date': '1999/7/1', 'Adj Close': 3.059375}, {'Date': '1999/7/2', 'Adj Close': 3.101563}, {'Date': '1999/7/6', 'Adj Close': 3.171875}, {'Date': '1999/7/7', 'Adj Close': 3.046875}, {'Date': '1999/7/8', 'Adj Close': 3.134375}, {'Date': '1999/7/9', 'Adj Close': 3.1375}, {'Date': '1999/7/12', 'Adj Close': 2.934375}, {'Date': '1999/7/13', 'Adj Close': 3.153125}, {'Date': '1999/7/14', 'Adj Close': 3.375}, {'Date': '1999/7/15', 'Adj Close': 3.489063}, {'Date': '1999/7/16', 'Adj Close': 3.440625}, {'Date': '1999/7/19', 'Adj Close': 3.292188}, {'Date': '1999/7/20', 'Adj Close': 3.003125}, {'Date': '1999/7/21', 'Adj Close': 3.135938}, {'Date': '1999/7/22', 'Adj Close': 2.670313}, {'Date': '1999/7/23', 'Adj Close': 2.864063}, {'Date': '1999/7/26', 'Adj Close': 2.648438}, {'Date': '1999/7/27', 'Adj Close': 2.525}, {'Date': '1999/7/28', 'Adj Close': 2.64375}, {'Date': '1999/7/29', 'Adj Close': 2.539063}, {'Date': '1999/7/30', 'Adj Close': 2.501563}, {'Date': '1999/8/2', 'Adj Close': 2.35}, {'Date': '1999/8/3', 'Adj Close': 2.371875}, {'Date': '1999/8/4', 'Adj Close': 2.210938}, {'Date': '1999/8/5', 'Adj Close': 2.43125}, {'Date': '1999/8/6', 'Adj Close': 2.239063}, {'Date': '1999/8/9', 'Adj Close': 2.1375}, {'Date': '1999/8/10', 'Adj Close': 2.275}, {'Date': '1999/8/11', 'Adj Close': 2.273438}, {'Date': '1999/8/12', 'Adj Close': 2.29375}, {'Date': '1999/8/13', 'Adj Close': 2.435938}, {'Date': '1999/8/16', 'Adj Close': 2.457813}, {'Date': '1999/8/17', 'Adj Close': 2.73125}, {'Date': '1999/8/18', 'Adj Close': 2.828125}, {'Date': '1999/8/19', 'Adj Close': 2.653125}, {'Date': '1999/8/20', 'Adj Close': 2.835938}, {'Date': '1999/8/23', 'Adj Close': 2.959375}, {'Date': '1999/8/24', 'Adj Close': 3.001563}, {'Date': '1999/8/25', 'Adj Close': 3.321875}, {'Date': '1999/8/26', 'Adj Close': 3.214063}, {'Date': '1999/8/27', 'Adj Close': 3.2125}, {'Date': '1999/8/30', 'Adj Close': 2.98125}, {'Date': '1999/8/31', 'Adj Close': 3.109375}, {'Date': '1999/9/1', 'Adj Close': 2.976563}, {'Date': '1999/9/2', 'Adj Close': 3.003125}, {'Date': '1999/9/3', 'Adj Close': 3.121875}, {'Date': '1999/9/7', 'Adj Close': 3.146875}, {'Date': '1999/9/8', 'Adj Close': 3.071875}, {'Date': '1999/9/9', 'Adj Close': 3.18125}, {'Date': '1999/9/10', 'Adj Close': 3.325}, {'Date': '1999/9/13', 'Adj Close': 3.165625}, {'Date': '1999/9/14', 'Adj Close': 3.3}, {'Date': '1999/9/15', 'Adj Close': 3.278125}, {'Date': '1999/9/16', 'Adj Close': 3.2625}, {'Date': '1999/9/17', 'Adj Close': 3.190625}, {'Date': '1999/9/20', 'Adj Close': 3.1375}, {'Date': '1999/9/21', 'Adj Close': 3.1125}, {'Date': '1999/9/22', 'Adj Close': 3.3}, {'Date': '1999/9/23', 'Adj Close': 3.1125}, {'Date': '1999/9/24', 'Adj Close': 3.25}, {'Date': '1999/9/27', 'Adj Close': 3.128125}, {'Date': '1999/9/28', 'Adj Close': 3.29375}, {'Date': '1999/9/29', 'Adj Close': 4.0375}, {'Date': '1999/9/30', 'Adj Close': 3.996875}, {'Date': '1999/10/1', 'Adj Close': 3.8625}, {'Date': '1999/10/4', 'Adj Close': 3.853125}, {'Date': '1999/10/5', 'Adj Close': 3.921875}, {'Date': '1999/10/6', 'Adj Close': 4.121875}, {'Date': '1999/10/7', 'Adj Close': 4.365625}, {'Date': '1999/10/8', 'Adj Close': 4.4625}, {'Date': '1999/10/11', 'Adj Close': 4.41875}, {'Date': '1999/10/12', 'Adj Close': 4.246875}, {'Date': '1999/10/13', 'Adj Close': 3.996875}, {'Date': '1999/10/14', 'Adj Close': 3.979688}, {'Date': '1999/10/15', 'Adj Close': 3.753125}, {'Date': '1999/10/18', 'Adj Close': 3.703125}, {'Date': '1999/10/19', 'Adj Close': 3.83125}, {'Date': '1999/10/20', 'Adj Close': 4.025}, {'Date': '1999/10/21', 'Adj Close': 4.0375}, {'Date': '1999/10/22', 'Adj Close': 3.93125}, {'Date': '1999/10/25', 'Adj Close': 4.1375}, {'Date': '1999/10/26', 'Adj Close': 4.0625}, {'Date': '1999/10/27', 'Adj Close': 3.796875}, {'Date': '1999/10/28', 'Adj Close': 3.55}, {'Date': '1999/10/29', 'Adj Close': 3.53125}, {'Date': '1999/11/1', 'Adj Close': 3.45625}, {'Date': '1999/11/2', 'Adj Close': 3.321875}, {'Date': '1999/11/3', 'Adj Close': 3.290625}, {'Date': '1999/11/4', 'Adj Close': 3.153125}, {'Date': '1999/11/5', 'Adj Close': 3.246875}, {'Date': '1999/11/8', 'Adj Close': 3.9}, {'Date': '1999/11/9', 'Adj Close': 3.540625}, {'Date': '1999/11/10', 'Adj Close': 3.6}, {'Date': '1999/11/11', 'Adj Close': 3.65}, {'Date': '1999/11/12', 'Adj Close': 3.746875}, {'Date': '1999/11/15', 'Adj Close': 3.675}, {'Date': '1999/11/16', 'Adj Close': 3.946875}, {'Date': '1999/11/17', 'Adj Close': 3.825}, {'Date': '1999/11/18', 'Adj Close': 3.896875}, {'Date': '1999/11/19', 'Adj Close': 3.896875}, {'Date': '1999/11/22', 'Adj Close': 4.025}, {'Date': '1999/11/23', 'Adj Close': 4.0875}, {'Date': '1999/11/24', 'Adj Close': 4.3625}, {'Date': '1999/11/26', 'Adj Close': 4.65625}, {'Date': '1999/11/29', 'Adj Close': 4.521875}, {'Date': '1999/11/30', 'Adj Close': 4.253125}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -416,8 +463,22 @@
       <name val="等线"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,7 +487,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92d050"/>
+        <fgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -447,16 +514,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,49 +532,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -518,10 +588,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -559,71 +629,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,7 +721,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -674,11 +744,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -687,13 +757,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -703,7 +773,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -712,7 +782,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -721,7 +791,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -729,10 +799,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -797,30 +867,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="108" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" style="9" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="42.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="34.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="48.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="26.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="9" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="11" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row r="1" spans="1:11" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,687 +913,610 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
       <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="128.5">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:11" ht="221" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="208.5">
-      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="208.5" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="111" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="286" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="7">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="409" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="286">
-      <c r="A5" s="6" t="s">
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="364" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="409.5" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="202" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="409">
-      <c r="A6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="7">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="6" t="s">
+      <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="7">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C9" s="6">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="6" t="s">
+    </row>
+    <row r="10" spans="1:11" ht="173" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="7">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G10" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="6">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="202">
-      <c r="A9" s="6" t="s">
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="6">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="146" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="155" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="270" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="7">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="7">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="7">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="7">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="6">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="7">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="7">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="171">
-      <c r="A15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="7">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="8" t="s">
+    </row>
+    <row r="16" spans="1:11" ht="17.25" customHeight="1">
+      <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="155">
-      <c r="A17" s="8" t="s">
-        <v>83</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="155" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="188" customHeight="1">
+      <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="124.5">
-      <c r="A22" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="124.5" customHeight="1">
+      <c r="A22" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="7">
+        <v>16</v>
+      </c>
+      <c r="C22" s="6">
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="8" t="s">
-        <v>83</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="7">
+        <v>16</v>
+      </c>
+      <c r="C23" s="6">
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="203">
-      <c r="A24" s="8" t="s">
-        <v>55</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="203" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="270" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="6">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="289.5" customHeight="1">
+      <c r="C26" s="6">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="G26" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="409" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="8">
+        <v>26</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F27" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G27" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="270">
-      <c r="A25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="7">
-        <v>24</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="289.5">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="7">
-        <v>25</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F71C460-BBFF-4DFF-B474-D8B52CB8FC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE29862-6446-43C3-B4B4-D19B34683FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1900" windowWidth="31570" windowHeight="13960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1422,7 +1422,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="224" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="262.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>46</v>
       </c>

--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CHI24/CHI24 code/ECO_LLM_VIS/data_pair/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CHI24\code\ECO_LLM_VIS\data_pair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941356CD-20A9-8040-955C-0F0A794731ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A34012-ED68-4A79-96B4-FC22E0538EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9100" yWindow="-28800" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3830" yWindow="1360" windowWidth="21430" windowHeight="17350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>single bar</t>
   </si>
   <si>
-    <t>Investment by British investors accounted for 18 percent of new foreign direct investment expenditures. The Netherlands ($43.1 billion) was the second-largest investing country, followed by France ($35.3 billion).</t>
-  </si>
-  <si>
     <t>[{"ObjectName":["Netherlands"],"DataName":"Billions of dollars","Position":[{"Begin":[1,1],"End":[1,1]}],"Trend":"None","Num":[43.1],"Text":"The Netherlands ($43.1 billion)"},{"ObjectName":[“France"],"DataName":"Billions of dollars","Position":[{"Begin":[2,1],"End":[2,1]}],"Trend":"None","Num":[35.3],"Text":"France ($35.3 billion)"}]</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>multiple bar</t>
   </si>
   <si>
-    <t>In 2023, the sales proportion of NEVs that were subcompact and below declined to 30%, from 61% in 2017. During the same periods of comparison, the mix of compact and midsize-to-large NEVs increased to 70% from 39%, reflecting the upgrade trend in terms of vehicle size.</t>
-  </si>
-  <si>
     <t>[{"ObjectName":["the sales proportion of NEVs that were subcompact and below"],"DataName":"Mini- and subcompact size","Position":[{"Begin":[6,1],"End":[6,1]}], "Trend":"declined","Num":[0.30],"Text":"the sales proportion of NEVs that were subcompact and below declined to 30%"},{"ObjectName":["the sales proportion of NEVs that were subcompact"],"DataName":"Mini- and subcompact size","Position":[{"Begin":[0,1],"End":[0,1]}], "Trend":"None","Num":[0.61],"Text":"from 61% in 2017"},{"ObjectName":["compact size","midsize-to-large"],"DataName":["Compact size","Mini- and subcompact size"],"Position":[{"Begin":[6,2],"End":[6,2]},{"Begin":[6,3],"End":[6,3]}], "Trend":"upgrade trend","Num":[0.30,0.40],"Text":"the mix of compact and midsize-to-large NEVs increased to 70%"},{"ObjectName":["compact Size","midsize-to-large"],"DataName":["Compact size","Midsize to large"],"Position":[{"Begin":[0,2],"End":[0,2]},{"Begin":[0,3],"End":[0,3]}], "Trend":"None","Num":[0.35,0.04],"Text":"the mix of compact and midsize-to-large NEVs increased to 70% from 39%"}]</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
   </si>
   <si>
     <t>[{'Date': '1999/8/2', 'Close': 2.35}, {'Date': '1999/8/3', 'Close': 2.371875}, {'Date': '1999/8/4', 'Close': 2.210938}, {'Date': '1999/8/5', 'Close': 2.43125}, {'Date': '1999/8/6', 'Close': 2.239063}, {'Date': '1999/8/9', 'Close': 2.1375}, {'Date': '1999/8/10', 'Close': 2.275}, {'Date': '1999/8/11', 'Close': 2.273438}, {'Date': '1999/8/12', 'Close': 2.29375}, {'Date': '1999/8/13', 'Close': 2.435938}, {'Date': '1999/8/16', 'Close': 2.457813}, {'Date': '1999/8/17', 'Close': 2.73125}, {'Date': '1999/8/18', 'Close': 2.828125}, {'Date': '1999/8/19', 'Close': 2.653125}, {'Date': '1999/8/20', 'Close': 2.835938}, {'Date': '1999/8/23', 'Close': 2.959375}, {'Date': '1999/8/24', 'Close': 3.001563}, {'Date': '1999/8/25', 'Close': 3.321875}, {'Date': '1999/8/26', 'Close': 3.214063}, {'Date': '1999/8/27', 'Close': 3.2125}, {'Date': '1999/8/30', 'Close': 2.98125}, {'Date': '1999/8/31', 'Close': 3.109375}, {'Date': '1999/9/1', 'Close': 2.976563}, {'Date': '1999/9/2', 'Close': 3.003125}, {'Date': '1999/9/3', 'Close': 3.121875}, {'Date': '1999/9/7', 'Close': 3.146875}, {'Date': '1999/9/8', 'Close': 3.071875}, {'Date': '1999/9/9', 'Close': 3.18125}, {'Date': '1999/9/10', 'Close': 3.325}, {'Date': '1999/9/13', 'Close': 3.165625}, {'Date': '1999/9/14', 'Close': 3.3}, {'Date': '1999/9/15', 'Close': 3.278125}, {'Date': '1999/9/16', 'Close': 3.2625}, {'Date': '1999/9/17', 'Close': 3.190625}, {'Date': '1999/9/20', 'Close': 3.1375}, {'Date': '1999/9/21', 'Close': 3.1125}, {'Date': '1999/9/22', 'Close': 3.3}, {'Date': '1999/9/23', 'Close': 3.1125}, {'Date': '1999/9/24', 'Close': 3.25}, {'Date': '1999/9/27', 'Close': 3.128125}, {'Date': '1999/9/28', 'Close': 3.29375}, {'Date': '1999/9/29', 'Close': 4.0375}, {'Date': '1999/9/30', 'Close': 3.996875}, {'Date': '1999/10/1', 'Close': 3.8625}, {'Date': '1999/10/4', 'Close': 3.853125}, {'Date': '1999/10/5', 'Close': 3.921875}, {'Date': '1999/10/6', 'Close': 4.121875}, {'Date': '1999/10/7', 'Close': 4.365625}, {'Date': '1999/10/8', 'Close': 4.4625}, {'Date': '1999/10/11', 'Close': 4.41875}, {'Date': '1999/10/12', 'Close': 4.246875}, {'Date': '1999/10/13', 'Close': 3.996875}, {'Date': '1999/10/14', 'Close': 3.979688}, {'Date': '1999/10/15', 'Close': 3.753125}, {'Date': '1999/10/18', 'Close': 3.703125}, {'Date': '1999/10/19', 'Close': 3.83125}, {'Date': '1999/10/20', 'Close': 4.025}, {'Date': '1999/10/21', 'Close': 4.0375}, {'Date': '1999/10/22', 'Close': 3.93125}, {'Date': '1999/10/25', 'Close': 4.1375}, {'Date': '1999/10/26', 'Close': 4.0625}, {'Date': '1999/10/27', 'Close': 3.796875}, {'Date': '1999/10/28', 'Close': 3.55}, {'Date': '1999/10/29', 'Close': 3.53125}, {'Date': '1999/11/1', 'Close': 3.45625}, {'Date': '1999/11/2', 'Close': 3.321875}, {'Date': '1999/11/3', 'Close': 3.290625}, {'Date': '1999/11/4', 'Close': 3.153125}, {'Date': '1999/11/5', 'Close': 3.246875}, {'Date': '1999/11/8', 'Close': 3.9}, {'Date': '1999/11/9', 'Close': 3.540625}, {'Date': '1999/11/10', 'Close': 3.6}, {'Date': '1999/11/11', 'Close': 3.65}, {'Date': '1999/11/12', 'Close': 3.746875}, {'Date': '1999/11/15', 'Close': 3.675}, {'Date': '1999/11/16', 'Close': 3.946875}, {'Date': '1999/11/17', 'Close': 3.825}, {'Date': '1999/11/18', 'Close': 3.896875}, {'Date': '1999/11/19', 'Close': 3.896875}, {'Date': '1999/11/22', 'Close': 4.025}, {'Date': '1999/11/23', 'Close': 4.0875}, {'Date': '1999/11/24', 'Close': 4.3625}, {'Date': '1999/11/26', 'Close': 4.65625}, {'Date': '1999/11/29', 'Close': 4.521875}, {'Date': '1999/11/30', 'Close': 4.253125}, {'Date': '1999/12/1', 'Close': 4.25}, {'Date': '1999/12/2', 'Close': 4.453125}, {'Date': '1999/12/3', 'Close': 4.328125}, {'Date': '1999/12/6', 'Close': 4.3875}, {'Date': '1999/12/7', 'Close': 4.303125}, {'Date': '1999/12/8', 'Close': 4.428125}, {'Date': '1999/12/9', 'Close': 5.18125}, {'Date': '1999/12/10', 'Close': 5.334375}, {'Date': '1999/12/13', 'Close': 5.125}, {'Date': '1999/12/14', 'Close': 4.78125}, {'Date': '1999/12/15', 'Close': 4.825}, {'Date': '1999/12/16', 'Close': 4.74375}, {'Date': '1999/12/17', 'Close': 4.703125}, {'Date': '1999/12/20', 'Close': 4.85}, {'Date': '1999/12/21', 'Close': 4.99375}, {'Date': '1999/12/22', 'Close': 4.884375}, {'Date': '1999/12/23', 'Close': 4.5}, {'Date': '1999/12/27', 'Close': 4.05625}, {'Date': '1999/12/28', 'Close': 4.115625}, {'Date': '1999/12/29', 'Close': 4.175}, {'Date': '1999/12/30', 'Close': 3.953125}, {'Date': '1999/12/31', 'Close': 3.80625}, {'Date': '2000/1/3', 'Close': 4.46875}, {'Date': '2000/1/4', 'Close': 4.096875}, {'Date': '2000/1/5', 'Close': 3.4875}, {'Date': '2000/1/6', 'Close': 3.278125}, {'Date': '2000/1/7', 'Close': 3.478125}, {'Date': '2000/1/10', 'Close': 3.459375}, {'Date': '2000/1/11', 'Close': 3.3375}, {'Date': '2000/1/12', 'Close': 3.178125}, {'Date': '2000/1/13', 'Close': 3.296875}, {'Date': '2000/1/14', 'Close': 3.2125}, {'Date': '2000/1/18', 'Close': 3.20625}, {'Date': '2000/1/19', 'Close': 3.340625}, {'Date': '2000/1/20', 'Close': 3.2375}, {'Date': '2000/1/21', 'Close': 3.103125}, {'Date': '2000/1/24', 'Close': 3.50625}, {'Date': '2000/1/25', 'Close': 3.4625}, {'Date': '2000/1/26', 'Close': 3.240625}, {'Date': '2000/1/27', 'Close': 3.346875}, {'Date': '2000/1/28', 'Close': 3.084375}, {'Date': '2000/1/31', 'Close': 3.228125}, {'Date': '2000/2/1', 'Close': 3.371875}, {'Date': '2000/2/2', 'Close': 3.471875}, {'Date': '2000/2/3', 'Close': 4.209375}, {'Date': '2000/2/4', 'Close': 3.928125}, {'Date': '2000/2/7', 'Close': 3.75}, {'Date': '2000/2/8', 'Close': 4.15625}, {'Date': '2000/2/9', 'Close': 4.0125}, {'Date': '2000/2/10', 'Close': 3.809375}, {'Date': '2000/2/11', 'Close': 3.809375}, {'Date': '2000/2/14', 'Close': 3.721875}, {'Date': '2000/2/15', 'Close': 3.690625}, {'Date': '2000/2/16', 'Close': 3.534375}, {'Date': '2000/2/17', 'Close': 3.45}, {'Date': '2000/2/18', 'Close': 3.2375}, {'Date': '2000/2/22', 'Close': 3.178125}, {'Date': '2000/2/23', 'Close': 3.521875}, {'Date': '2000/2/24', 'Close': 3.421875}, {'Date': '2000/2/25', 'Close': 3.45625}, {'Date': '2000/2/28', 'Close': 3.2875}, {'Date': '2000/2/29', 'Close': 3.44375}, {'Date': '2000/3/1', 'Close': 3.29375}, {'Date': '2000/3/2', 'Close': 3.128125}, {'Date': '2000/3/3', 'Close': 3.125}, {'Date': '2000/3/6', 'Close': 3.196875}, {'Date': '2000/3/7', 'Close': 3.175}, {'Date': '2000/3/8', 'Close': 3.18125}, {'Date': '2000/3/9', 'Close': 3.440625}, {'Date': '2000/3/10', 'Close': 3.34375}, {'Date': '2000/3/13', 'Close': 3.265625}, {'Date': '2000/3/14', 'Close': 3.28125}, {'Date': '2000/3/15', 'Close': 3.1875}, {'Date': '2000/3/16', 'Close': 3.3125}, {'Date': '2000/3/17', 'Close': 3.240625}, {'Date': '2000/3/20', 'Close': 3.209375}, {'Date': '2000/3/21', 'Close': 3.61875}, {'Date': '2000/3/22', 'Close': 3.534375}, {'Date': '2000/3/23', 'Close': 3.384375}, {'Date': '2000/3/24', 'Close': 3.634375}, {'Date': '2000/3/27', 'Close': 3.65625}, {'Date': '2000/3/28', 'Close': 3.50625}, {'Date': '2000/3/29', 'Close': 3.3125}, {'Date': '2000/3/30', 'Close': 3.325}, {'Date': '2000/3/31', 'Close': 3.35}, {'Date': '2000/4/3', 'Close': 3.178125}, {'Date': '2000/4/4', 'Close': 3.196875}, {'Date': '2000/4/5', 'Close': 3.109375}, {'Date': '2000/4/6', 'Close': 3.2125}, {'Date': '2000/4/7', 'Close': 3.378125}, {'Date': '2000/4/10', 'Close': 3.16875}, {'Date': '2000/4/11', 'Close': 3.16875}, {'Date': '2000/4/12', 'Close': 2.81875}, {'Date': '2000/4/13', 'Close': 2.4}, {'Date': '2000/4/14', 'Close': 2.34375}, {'Date': '2000/4/17', 'Close': 2.353125}, {'Date': '2000/4/18', 'Close': 2.746875}, {'Date': '2000/4/19', 'Close': 2.671875}, {'Date': '2000/4/20', 'Close': 2.61875}, {'Date': '2000/4/24', 'Close': 2.490625}, {'Date': '2000/4/25', 'Close': 2.621875}, {'Date': '2000/4/26', 'Close': 2.675}, {'Date': '2000/4/27', 'Close': 2.64375}, {'Date': '2000/4/28', 'Close': 2.759375}, {'Date': '2000/5/1', 'Close': 2.996875}, {'Date': '2000/5/2', 'Close': 2.80625}, {'Date': '2000/5/3', 'Close': 2.70625}, {'Date': '2000/5/4', 'Close': 2.753125}, {'Date': '2000/5/5', 'Close': 2.925}, {'Date': '2000/5/8', 'Close': 2.800781}, {'Date': '2000/5/9', 'Close': 2.8125}, {'Date': '2000/5/10', 'Close': 2.665625}, {'Date': '2000/5/11', 'Close': 2.74375}, {'Date': '2000/5/12', 'Close': 2.6875}, {'Date': '2000/5/15', 'Close': 2.803125}, {'Date': '2000/5/16', 'Close': 2.953125}, {'Date': '2000/5/17', 'Close': 3.05}, {'Date': '2000/5/18', 'Close': 2.76875}, {'Date': '2000/5/19', 'Close': 2.63125}, {'Date': '2000/5/22', 'Close': 2.59375}, {'Date': '2000/5/23', 'Close': 2.334375}, {'Date': '2000/5/24', 'Close': 2.428125}, {'Date': '2000/5/25', 'Close': 2.275}, {'Date': '2000/5/26', 'Close': 2.325}, {'Date': '2000/5/30', 'Close': 2.5875}, {'Date': '2000/5/31', 'Close': 2.415625}]</t>
-  </si>
-  <si>
-    <t>[{"ObjectName":["Amazon stock"],"DataName":"Close","Position":[{"Begin":[39,1],"EndIndex":[141,1]}],"Trend":"Head and shoulder","Num":"None","Text":"a "head and shoulder" pattern on the Amazon stock moving averages from 1999/09/27 to 2000/02/22"}]</t>
   </si>
   <si>
     <t>cup with handle</t>
@@ -280,9 +271,6 @@
   </si>
   <si>
     <t>[{'Time': '2022-Jul', 'Banks Balance Sheet (CNY Billion)': 679.0}, {'Time': '2022-Aug', 'Banks Balance Sheet (CNY Billion)': 1250.0}, {'Time': '2022-Sep', 'Banks Balance Sheet (CNY Billion)': 2470.0}, {'Time': '2022-Oct', 'Banks Balance Sheet (CNY Billion)': 615.2}, {'Time': '2022-Nov', 'Banks Balance Sheet (CNY Billion)': 1210.0}, {'Time': '2022-Dec', 'Banks Balance Sheet (CNY Billion)': 1400.0}, {'Time': '2023-Jan', 'Banks Balance Sheet (CNY Billion)': 4900.0}, {'Time': '2023-Feb', 'Banks Balance Sheet (CNY Billion)': 1810.0}, {'Time': '2023-Mar', 'Banks Balance Sheet (CNY Billion)': 3890.0}, {'Time': '2023-Apr', 'Banks Balance Sheet (CNY Billion)': 718.8}, {'Time': '2023-May', 'Banks Balance Sheet (CNY Billion)': 1360.0}, {'Time': '2023-Jun', 'Banks Balance Sheet (CNY Billion)': 3050.0}, {'Time': '2023-Jul', 'Banks Balance Sheet (CNY Billion)': 345.9}]</t>
-  </si>
-  <si>
-    <t>China's banks extended CNY 345.9 billion in new yuan loans in July 2023, the least since November of 2009 and well below market forecasts of CNY 800 billion. The value is also much lower than CNY 679 billion a year earlier and CNY 3.05 trillion in June, after a record CNY 15.73 trillion loans in the first half of the year. The reading adds to further evidence of a lacklustre economic recovery in China although July is usually a weak month for financing activities, with banks not in a rush to meet their lending targets at the beginning of the quarter.</t>
   </si>
   <si>
     <t>[{"ObjectName":["China's banks"],"DataName":"Banks Balance Sheet (CNY Billion)","Position":[{"Begin":[12,1],"End":[12,1]}],"Trend":"least","Num":[345.9],"Text":"China's banks extended CNY 345.9 billion in new yuan loans in July 2023"},{"ObjectName":["The value"],"DataName":"Banks Balance Sheet (CNY Billion)","Position":[{"Begin":[0,1],"End":[11,1]}],"Trend":"lower","Num":[679,3050],"Text":"much lower than CNY 679 billion a year earlier and CNY 3.05 trillion in June"},{"ObjectName":["a record"],"DataName":"Banks Balance Sheet (CNY Billion)","Position":[{"Begin":[6,1],"End":[11,1]}],"Trend":"None","Num":[15.73],"Text":"a record CNY 15.73 trillion loans in the first half of the year"}]</t>
@@ -389,10 +377,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>There exists a 'head and shoulder' pattern on the Amazon stock moving averages from 1999/09/27 to 2000/02/22.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>The 'double bottom' pattern happens on the 'Dow Janes Industrial (.DJI) from 2015/12/29 to 2016/03/07.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -417,10 +401,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>The 'Amazon stock' in text corresponds to the 'Close' column in data. The 'head and shoulder' pattern consists of three rises and falls from three localized highs. The high point in the center is higher than the other two. This pattern is around from '1999/09/27' to '2000/02/22' and the middle high point exist on '1999/12/09'.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"Date": "1990/3/1", "Close": 16.8125}, {"Date": "1990/3/2", "Close": 17.0}, {"Date": "1990/3/5", "Close": 17.4375}, {"Date": "1990/3/6", "Close": 17.75}, {"Date": "1990/3/7", "Close": 17.6875}, {"Date": "1990/3/8", "Close": 17.6875}, {"Date": "1990/3/9", "Close": 17.75}, {"Date": "1990/3/12", "Close": 18.1875}, {"Date": "1990/3/13", "Close": 18.9375}, {"Date": "1990/3/14", "Close": 18.9375}, {"Date": "1990/3/15", "Close": 18.5}, {"Date": "1990/3/16", "Close": 18.75}, {"Date": "1990/3/19", "Close": 18.5625}, {"Date": "1990/3/20", "Close": 18.5625}, {"Date": "1990/3/21", "Close": 19.125}, {"Date": "1990/3/22", "Close": 18.5}, {"Date": "1990/3/23", "Close": 18.75}, {"Date": "1990/3/26", "Close": 18.625}, {"Date": "1990/3/27", "Close": 18.625}, {"Date": "1990/3/28", "Close": 18.4375}, {"Date": "1990/3/29", "Close": 18.125}, {"Date": "1990/3/30", "Close": 17.875}, {"Date": "1990/4/2", "Close": 18.125}, {"Date": "1990/4/3", "Close": 18.5}, {"Date": "1990/4/4", "Close": 18.5625}, {"Date": "1990/4/5", "Close": 18.125}, {"Date": "1990/4/6", "Close": 18.125}, {"Date": "1990/4/9", "Close": 17.875}, {"Date": "1990/4/10", "Close": 17.9375}, {"Date": "1990/4/11", "Close": 18.0625}, {"Date": "1990/4/12", "Close": 17.9375}, {"Date": "1990/4/16", "Close": 17.625}, {"Date": "1990/4/17", "Close": 17.5625}, {"Date": "1990/4/18", "Close": 17.5625}, {"Date": "1990/4/19", "Close": 17.5}, {"Date": "1990/4/20", "Close": 17.375}, {"Date": "1990/4/23", "Close": 17.0625}, {"Date": "1990/4/24", "Close": 17.5}, {"Date": "1990/4/25", "Close": 17.75}, {"Date": "1990/4/26", "Close": 17.75}, {"Date": "1990/4/27", "Close": 17.625}, {"Date": "1990/4/30", "Close": 17.6875}, {"Date": "1990/5/1", "Close": 17.6875}, {"Date": "1990/5/2", "Close": 17.625}, {"Date": "1990/5/3", "Close": 17.75}, {"Date": "1990/5/4", "Close": 17.6875}, {"Date": "1990/5/7", "Close": 17.75}, {"Date": "1990/5/8", "Close": 17.75}, {"Date": "1990/5/9", "Close": 17.6875}, {"Date": "1990/5/10", "Close": 17.4375}, {"Date": "1990/5/11", "Close": 17.75}, {"Date": "1990/5/14", "Close": 17.6875}, {"Date": "1990/5/15", "Close": 17.4375}, {"Date": "1990/5/16", "Close": 17.6875}, {"Date": "1990/5/17", "Close": 17.9375}, {"Date": "1990/5/18", "Close": 17.9375}, {"Date": "1990/5/21", "Close": 17.875}, {"Date": "1990/5/22", "Close": 17.5625}, {"Date": "1990/5/23", "Close": 17.3125}, {"Date": "1990/5/24", "Close": 17.3125}, {"Date": "1990/5/25", "Close": 17.25}, {"Date": "1990/5/29", "Close": 17.6875}, {"Date": "1990/5/30", "Close": 18.0625}, {"Date": "1990/5/31", "Close": 17.875}, {"Date": "1990/6/1", "Close": 17.8125}, {"Date": "1990/6/4", "Close": 18.125}, {"Date": "1990/6/5", "Close": 17.9375}, {"Date": "1990/6/6", "Close": 17.75}, {"Date": "1990/6/7", "Close": 17.5}, {"Date": "1990/6/8", "Close": 17.3125}, {"Date": "1990/6/11", "Close": 17.0625}, {"Date": "1990/6/12", "Close": 17.25}, {"Date": "1990/6/13", "Close": 17.0625}, {"Date": "1990/6/14", "Close": 17.375}, {"Date": "1990/6/15", "Close": 17.3125}, {"Date": "1990/6/18", "Close": 17.0}, {"Date": "1990/6/19", "Close": 16.875}, {"Date": "1990/6/20", "Close": 16.8125}, {"Date": "1990/6/21", "Close": 16.25}, {"Date": "1990/6/22", "Close": 15.8125}, {"Date": "1990/6/25", "Close": 15.8125}, {"Date": "1990/6/26", "Close": 15.875}, {"Date": "1990/6/27", "Close": 15.5625}, {"Date": "1990/6/28", "Close": 15.125}, {"Date": "1990/6/29", "Close": 15.0625}, {"Date": "1990/7/2", "Close": 14.875}, {"Date": "1990/7/3", "Close": 14.75}, {"Date": "1990/7/5", "Close": 14.5625}, {"Date": "1990/7/6", "Close": 14.6875}, {"Date": "1990/7/9", "Close": 14.5}, {"Date": "1990/7/10", "Close": 14.1875}, {"Date": "1990/7/11", "Close": 13.9375}, {"Date": "1990/7/12", "Close": 14.25}, {"Date": "1990/7/13", "Close": 14.5}, {"Date": "1990/7/16", "Close": 14.8125}, {"Date": "1990/7/17", "Close": 15.0625}, {"Date": "1990/7/18", "Close": 14.75}, {"Date": "1990/7/19", "Close": 15.0625}, {"Date": "1990/7/20", "Close": 14.5}, {"Date": "1990/7/23", "Close": 14.25}, {"Date": "1990/7/24", "Close": 13.8125}, {"Date": "1990/7/25", "Close": 14.0625}, {"Date": "1990/7/26", "Close": 13.625}, {"Date": "1990/7/27", "Close": 13.5625}, {"Date": "1990/7/30", "Close": 13.875}, {"Date": "1990/7/31", "Close": 13.25}, {"Date": "1990/8/1", "Close": 13.1875}, {"Date": "1990/8/2", "Close": 13.375}, {"Date": "1990/8/3", "Close": 12.5}, {"Date": "1990/8/6", "Close": 12.1875}, {"Date": "1990/8/7", "Close": 12.25}, {"Date": "1990/8/8", "Close": 12.75}, {"Date": "1990/8/9", "Close": 12.75}, {"Date": "1990/8/10", "Close": 12.25}, {"Date": "1990/8/13", "Close": 12.5}, {"Date": "1990/8/14", "Close": 12.6875}, {"Date": "1990/8/15", "Close": 12.9375}, {"Date": "1990/8/16", "Close": 12.4375}, {"Date": "1990/8/17", "Close": 11.8125}, {"Date": "1990/8/20", "Close": 11.625}, {"Date": "1990/8/21", "Close": 11.5}, {"Date": "1990/8/22", "Close": 12.1875}, {"Date": "1990/8/23", "Close": 11.25}, {"Date": "1990/8/24", "Close": 11.6875}, {"Date": "1990/8/27", "Close": 11.8125}, {"Date": "1990/8/28", "Close": 11.75}, {"Date": "1990/8/29", "Close": 11.9375}, {"Date": "1990/8/30", "Close": 12.0625}, {"Date": "1990/8/31", "Close": 11.375}, {"Date": "1990/9/4", "Close": 11.5}, {"Date": "1990/9/5", "Close": 11.5625}, {"Date": "1990/9/6", "Close": 11.125}, {"Date": "1990/9/7", "Close": 10.3125}, {"Date": "1990/9/10", "Close": 10.5}, {"Date": "1990/9/11", "Close": 10.1875}, {"Date": "1990/9/12", "Close": 10.125}, {"Date": "1990/9/13", "Close": 9.9375}, {"Date": "1990/9/14", "Close": 9.9375}, {"Date": "1990/9/17", "Close": 9.5}, {"Date": "1990/9/18", "Close": 9.375}, {"Date": "1990/9/19", "Close": 9.5}, {"Date": "1990/9/20", "Close": 9.4375}, {"Date": "1990/9/21", "Close": 9.3125}, {"Date": "1990/9/24", "Close": 9.0}, {"Date": "1990/9/25", "Close": 8.5}, {"Date": "1990/9/26", "Close": 8.875}, {"Date": "1990/9/27", "Close": 8.375}, {"Date": "1990/9/28", "Close": 8.5}, {"Date": "1990/10/1", "Close": 8.5625}, {"Date": "1990/10/2", "Close": 8.375}, {"Date": "1990/10/3", "Close": 8.4375}, {"Date": "1990/10/4", "Close": 8.625}, {"Date": "1990/10/5", "Close": 8.5625}, {"Date": "1990/10/8", "Close": 8.4375}, {"Date": "1990/10/9", "Close": 8.125}, {"Date": "1990/10/10", "Close": 8.1875}, {"Date": "1990/10/11", "Close": 8.25}, {"Date": "1990/10/12", "Close": 8.125}, {"Date": "1990/10/15", "Close": 7.5625}, {"Date": "1990/10/16", "Close": 7.625}, {"Date": "1990/10/17", "Close": 8.0625}, {"Date": "1990/10/18", "Close": 8.0625}, {"Date": "1990/10/19", "Close": 8.0625}, {"Date": "1990/10/22", "Close": 7.875}, {"Date": "1990/10/23", "Close": 8.0}, {"Date": "1990/10/24", "Close": 8.25}, {"Date": "1990/10/25", "Close": 8.0}, {"Date": "1990/10/26", "Close": 7.8125}, {"Date": "1990/10/29", "Close": 7.75}, {"Date": "1990/10/30", "Close": 7.8125}, {"Date": "1990/10/31", "Close": 7.625}, {"Date": "1990/11/1", "Close": 7.5625}, {"Date": "1990/11/2", "Close": 7.375}, {"Date": "1990/11/5", "Close": 7.25}, {"Date": "1990/11/6", "Close": 7.625}, {"Date": "1990/11/7", "Close": 7.4375}, {"Date": "1990/11/8", "Close": 7.375}, {"Date": "1990/11/9", "Close": 6.75}, {"Date": "1990/11/12", "Close": 7.0}, {"Date": "1990/11/13", "Close": 7.1875}, {"Date": "1990/11/14", "Close": 7.625}, {"Date": "1990/11/15", "Close": 7.75}, {"Date": "1990/11/16", "Close": 7.875}, {"Date": "1990/11/19", "Close": 7.875}, {"Date": "1990/11/20", "Close": 7.75}, {"Date": "1990/11/21", "Close": 7.8125}, {"Date": "1990/11/23", "Close": 7.8125}, {"Date": "1990/11/26", "Close": 7.625}, {"Date": "1990/11/27", "Close": 7.75}, {"Date": "1990/11/28", "Close": 8.1875}, {"Date": "1990/11/29", "Close": 8.0625}, {"Date": "1990/11/30", "Close": 8.0}, {"Date": "1990/12/3", "Close": 7.9375}, {"Date": "1990/12/4", "Close": 7.9375}, {"Date": "1990/12/5", "Close": 8.0}, {"Date": "1990/12/6", "Close": 7.9375}, {"Date": "1990/12/7", "Close": 8.125}, {"Date": "1990/12/10", "Close": 8.125}, {"Date": "1990/12/11", "Close": 8.625}, {"Date": "1990/12/12", "Close": 8.75}, {"Date": "1990/12/13", "Close": 8.625}, {"Date": "1990/12/14", "Close": 8.5}, {"Date": "1990/12/17", "Close": 8.375}, {"Date": "1990/12/18", "Close": 8.375}, {"Date": "1990/12/19", "Close": 8.75}, {"Date": "1990/12/20", "Close": 8.75}, {"Date": "1990/12/21", "Close": 8.5625}, {"Date": "1990/12/24", "Close": 8.6875}, {"Date": "1990/12/26", "Close": 9.0625}, {"Date": "1990/12/27", "Close": 9.375}, {"Date": "1990/12/28", "Close": 9.5625}, {"Date": "1990/12/31", "Close": 9.4375}, {"Date": "1991/1/2", "Close": 9.5}, {"Date": "1991/1/3", "Close": 9.0625}, {"Date": "1991/1/4", "Close": 8.8125}, {"Date": "1991/1/7", "Close": 8.6875}, {"Date": "1991/1/8", "Close": 8.8125}, {"Date": "1991/1/9", "Close": 8.625}, {"Date": "1991/1/10", "Close": 8.6875}, {"Date": "1991/1/11", "Close": 9.0625}, {"Date": "1991/1/14", "Close": 8.75}, {"Date": "1991/1/15", "Close": 8.75}, {"Date": "1991/1/16", "Close": 8.75}, {"Date": "1991/1/17", "Close": 9.25}, {"Date": "1991/1/18", "Close": 9.375}, {"Date": "1991/1/21", "Close": 9.25}, {"Date": "1991/1/22", "Close": 9.25}, {"Date": "1991/1/23", "Close": 9.5}, {"Date": "1991/1/24", "Close": 9.8125}, {"Date": "1991/1/25", "Close": 9.5625}, {"Date": "1991/1/28", "Close": 9.625}, {"Date": "1991/1/29", "Close": 9.8125}, {"Date": "1991/1/30", "Close": 10.3125}, {"Date": "1991/1/31", "Close": 10.125}, {"Date": "1991/2/1", "Close": 10.1875}, {"Date": "1991/2/4", "Close": 10.5}, {"Date": "1991/2/5", "Close": 10.3125}, {"Date": "1991/2/6", "Close": 9.9375}, {"Date": "1991/2/7", "Close": 9.375}, {"Date": "1991/2/8", "Close": 9.375}, {"Date": "1991/2/11", "Close": 9.6875}, {"Date": "1991/2/12", "Close": 9.5625}, {"Date": "1991/2/13", "Close": 9.8125}, {"Date": "1991/2/14", "Close": 9.8125}, {"Date": "1991/2/15", "Close": 9.9375}, {"Date": "1991/2/19", "Close": 10.0}, {"Date": "1991/2/20", "Close": 10.0}, {"Date": "1991/2/21", "Close": 10.0625}, {"Date": "1991/2/22", "Close": 10.25}, {"Date": "1991/2/25", "Close": 10.25}, {"Date": "1991/2/26", "Close": 10.1875}, {"Date": "1991/2/27", "Close": 10.375}, {"Date": "1991/2/28", "Close": 10.3125}, {"Date": "1991/3/1", "Close": 10.5625}, {"Date": "1991/3/4", "Close": 11.3125}, {"Date": "1991/3/5", "Close": 11.8125}, {"Date": "1991/3/6", "Close": 11.8125}, {"Date": "1991/3/7", "Close": 11.9375}, {"Date": "1991/3/8", "Close": 12.0625}, {"Date": "1991/3/11", "Close": 11.875}, {"Date": "1991/3/12", "Close": 11.4375}, {"Date": "1991/3/13", "Close": 11.4375}, {"Date": "1991/3/14", "Close": 11.25}, {"Date": "1991/3/15", "Close": 11.25}, {"Date": "1991/3/18", "Close": 11.125}, {"Date": "1991/3/19", "Close": 10.9375}, {"Date": "1991/3/20", "Close": 10.9375}, {"Date": "1991/3/21", "Close": 10.9375}, {"Date": "1991/3/22", "Close": 11.0625}, {"Date": "1991/3/25", "Close": 10.25}, {"Date": "1991/3/26", "Close": 10.375}, {"Date": "1991/3/27", "Close": 11.4375}, {"Date": "1991/3/28", "Close": 11.8125}, {"Date": "1991/4/1", "Close": 11.6875}, {"Date": "1991/4/2", "Close": 12.0625}, {"Date": "1991/4/3", "Close": 11.875}, {"Date": "1991/4/4", "Close": 11.6875}, {"Date": "1991/4/5", "Close": 11.5625}, {"Date": "1991/4/8", "Close": 11.625}, {"Date": "1991/4/9", "Close": 11.1875}, {"Date": "1991/4/10", "Close": 11.1875}, {"Date": "1991/4/11", "Close": 11.25}, {"Date": "1991/4/12", "Close": 11.4375}, {"Date": "1991/4/15", "Close": 11.5625}, {"Date": "1991/4/16", "Close": 11.375}, {"Date": "1991/4/17", "Close": 11.3125}, {"Date": "1991/4/18", "Close": 11.25}, {"Date": "1991/4/19", "Close": 11.3125}, {"Date": "1991/4/22", "Close": 10.875}, {"Date": "1991/4/23", "Close": 10.5}, {"Date": "1991/4/24", "Close": 10.75}, {"Date": "1991/4/25", "Close": 10.5625}, {"Date": "1991/4/26", "Close": 11.0}, {"Date": "1991/4/29", "Close": 10.8125}, {"Date": "1991/4/30", "Close": 10.625}, {"Date": "1991/5/1", "Close": 10.9375}, {"Date": "1991/5/2", "Close": 10.75}, {"Date": "1991/5/3", "Close": 10.9375}, {"Date": "1991/5/6", "Close": 11.3125}, {"Date": "1991/5/7", "Close": 11.0}, {"Date": "1991/5/8", "Close": 11.3125}, {"Date": "1991/5/9", "Close": 11.4375}, {"Date": "1991/5/10", "Close": 11.4375}, {"Date": "1991/5/13", "Close": 11.5625}, {"Date": "1991/5/14", "Close": 11.3125}, {"Date": "1991/5/15", "Close": 11.25}, {"Date": "1991/5/16", "Close": 11.4375}, {"Date": "1991/5/17", "Close": 11.4375}, {"Date": "1991/5/20", "Close": 11.875}, {"Date": "1991/5/21", "Close": 12.25}, {"Date": "1991/5/22", "Close": 12.3125}, {"Date": "1991/5/23", "Close": 12.1875}, {"Date": "1991/5/24", "Close": 12.375}, {"Date": "1991/5/28", "Close": 12.8125}, {"Date": "1991/5/29", "Close": 13.0}, {"Date": "1991/5/30", "Close": 13.0}, {"Date": "1991/5/31", "Close": 13.125}, {"Date": "1991/6/3", "Close": 13.5}, {"Date": "1991/6/4", "Close": 15.0625}, {"Date": "1991/6/5", "Close": 15.6875}, {"Date": "1991/6/6", "Close": 16.0625}, {"Date": "1991/6/7", "Close": 16.625}, {"Date": "1991/6/10", "Close": 16.625}, {"Date": "1991/6/11", "Close": 16.0625}, {"Date": "1991/6/12", "Close": 16.625}, {"Date": "1991/6/13", "Close": 16.5625}, {"Date": "1991/6/14", "Close": 16.75}, {"Date": "1991/6/17", "Close": 17.4375}, {"Date": "1991/6/18", "Close": 17.0}, {"Date": "1991/6/19", "Close": 17.0625}, {"Date": "1991/6/20", "Close": 17.125}, {"Date": "1991/6/21", "Close": 17.125}, {"Date": "1991/6/24", "Close": 16.9375}, {"Date": "1991/6/25", "Close": 16.75}, {"Date": "1991/6/26", "Close": 16.5625}, {"Date": "1991/6/27", "Close": 16.6875}, {"Date": "1991/6/28", "Close": 16.625}, {"Date": "1991/7/1", "Close": 16.875}, {"Date": "1991/7/2", "Close": 16.625}, {"Date": "1991/7/3", "Close": 16.75}, {"Date": "1991/7/5", "Close": 16.8125}, {"Date": "1991/7/8", "Close": 17.1875}, {"Date": "1991/7/9", "Close": 17.1875}, {"Date": "1991/7/10", "Close": 17.8125}, {"Date": "1991/7/11", "Close": 17.625}, {"Date": "1991/7/12", "Close": 18.0}, {"Date": "1991/7/15", "Close": 17.8125}, {"Date": "1991/7/16", "Close": 18.3125}, {"Date": "1991/7/17", "Close": 18.4375}, {"Date": "1991/7/18", "Close": 19.125}, {"Date": "1991/7/19", "Close": 19.4375}, {"Date": "1991/7/22", "Close": 19.125}, {"Date": "1991/7/23", "Close": 18.5}, {"Date": "1991/7/24", "Close": 18.1875}, {"Date": "1991/7/25", "Close": 19.0}, {"Date": "1991/7/26", "Close": 19.0625}, {"Date": "1991/7/29", "Close": 18.8125}, {"Date": "1991/7/30", "Close": 18.75}, {"Date": "1991/7/31", "Close": 19.0625}, {"Date": "1991/8/1", "Close": 18.875}, {"Date": "1991/8/2", "Close": 18.875}, {"Date": "1991/8/5", "Close": 18.625}, {"Date": "1991/8/6", "Close": 19.0}, {"Date": "1991/8/7", "Close": 19.125}, {"Date": "1991/8/8", "Close": 19.375}, {"Date": "1991/8/9", "Close": 19.375}, {"Date": "1991/8/12", "Close": 19.0}, {"Date": "1991/8/13", "Close": 18.3125}, {"Date": "1991/8/14", "Close": 18.5625}, {"Date": "1991/8/15", "Close": 18.3125}, {"Date": "1991/8/16", "Close": 17.875}, {"Date": "1991/8/19", "Close": 17.0625}, {"Date": "1991/8/20", "Close": 17.3125}, {"Date": "1991/8/21", "Close": 18.4375}, {"Date": "1991/8/22", "Close": 18.625}, {"Date": "1991/8/23", "Close": 18.9375}, {"Date": "1991/8/26", "Close": 19.0625}, {"Date": "1991/8/27", "Close": 18.9375}, {"Date": "1991/8/28", "Close": 19.375}, {"Date": "1991/8/29", "Close": 19.1875}, {"Date": "1991/8/30", "Close": 19.125}, {"Date": "1991/9/3", "Close": 19.25}, {"Date": "1991/9/4", "Close": 20.4375}, {"Date": "1991/9/5", "Close": 20.625}, {"Date": "1991/9/6", "Close": 21.0}, {"Date": "1991/9/9", "Close": 21.0625}, {"Date": "1991/9/10", "Close": 20.8125}, {"Date": "1991/9/11", "Close": 21.0}, {"Date": "1991/9/12", "Close": 21.1875}, {"Date": "1991/9/13", "Close": 20.8125}, {"Date": "1991/9/16", "Close": 21.0625}, {"Date": "1991/9/17", "Close": 21.125}, {"Date": "1991/9/18", "Close": 21.25}, {"Date": "1991/9/19", "Close": 21.5}, {"Date": "1991/9/20", "Close": 21.75}, {"Date": "1991/9/23", "Close": 21.375}, {"Date": "1991/9/24", "Close": 21.3125}, {"Date": "1991/9/25", "Close": 21.6875}, {"Date": "1991/9/26", "Close": 21.8125}, {"Date": "1991/9/27", "Close": 21.6875}, {"Date": "1991/9/30", "Close": 21.9375}, {"Date": "1991/10/1", "Close": 21.8125}, {"Date": "1991/10/2", "Close": 22.125}, {"Date": "1991/10/3", "Close": 21.75}, {"Date": "1991/10/4", "Close": 21.5625}, {"Date": "1991/10/7", "Close": 20.9375}, {"Date": "1991/10/8", "Close": 21.5625}, {"Date": "1991/10/9", "Close": 21.9375}, {"Date": "1991/10/10", "Close": 21.9375}, {"Date": "1991/10/11", "Close": 21.9375}, {"Date": "1991/10/14", "Close": 21.9375}, {"Date": "1991/10/15", "Close": 21.8125}, {"Date": "1991/10/16", "Close": 22.375}, {"Date": "1991/10/17", "Close": 22.3125}, {"Date": "1991/10/18", "Close": 22.1875}, {"Date": "1991/10/21", "Close": 22.4375}, {"Date": "1991/10/22", "Close": 22.875}, {"Date": "1991/10/23", "Close": 23.5}, {"Date": "1991/10/24", "Close": 23.25}, {"Date": "1991/10/25", "Close": 23.375}, {"Date": "1991/10/28", "Close": 24.4375}, {"Date": "1991/10/29", "Close": 24.5625}, {"Date": "1991/10/30", "Close": 24.8125}, {"Date": "1991/10/31", "Close": 25.0}, {"Date": "1991/11/1", "Close": 24.8125}, {"Date": "1991/11/4", "Close": 24.875}, {"Date": "1991/11/5", "Close": 25.875}, {"Date": "1991/11/6", "Close": 26.8125}, {"Date": "1991/11/7", "Close": 26.25}, {"Date": "1991/11/8", "Close": 26.25}, {"Date": "1991/11/11", "Close": 25.75}, {"Date": "1991/11/12", "Close": 25.25}, {"Date": "1991/11/13", "Close": 24.6875}, {"Date": "1991/11/14", "Close": 24.6875}, {"Date": "1991/11/15", "Close": 24.125}, {"Date": "1991/11/18", "Close": 24.1875}, {"Date": "1991/11/19", "Close": 23.5}, {"Date": "1991/11/20", "Close": 24.125}, {"Date": "1991/11/21", "Close": 24.4375}, {"Date": "1991/11/22", "Close": 24.875}, {"Date": "1991/11/25", "Close": 24.5}, {"Date": "1991/11/26", "Close": 24.375}, {"Date": "1991/11/27", "Close": 24.25}, {"Date": "1991/11/29", "Close": 23.9375}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -442,6 +422,30 @@
   </si>
   <si>
     <t>[{'Date': '1999/5/3', 'Adj Close': 3.773438}, {'Date': '1999/5/4', 'Adj Close': 3.575}, {'Date': '1999/5/5', 'Adj Close': 3.6625}, {'Date': '1999/5/6', 'Adj Close': 3.434375}, {'Date': '1999/5/7', 'Adj Close': 3.409375}, {'Date': '1999/5/10', 'Adj Close': 3.671875}, {'Date': '1999/5/11', 'Adj Close': 3.709375}, {'Date': '1999/5/12', 'Adj Close': 3.573438}, {'Date': '1999/5/13', 'Adj Close': 3.4}, {'Date': '1999/5/14', 'Adj Close': 3.309375}, {'Date': '1999/5/17', 'Adj Close': 3.440625}, {'Date': '1999/5/18', 'Adj Close': 3.315625}, {'Date': '1999/5/19', 'Adj Close': 3.489063}, {'Date': '1999/5/20', 'Adj Close': 3.270313}, {'Date': '1999/5/21', 'Adj Close': 3.214063}, {'Date': '1999/5/24', 'Adj Close': 2.9375}, {'Date': '1999/5/25', 'Adj Close': 2.789063}, {'Date': '1999/5/26', 'Adj Close': 3.023438}, {'Date': '1999/5/27', 'Adj Close': 2.864063}, {'Date': '1999/5/28', 'Adj Close': 2.96875}, {'Date': '1999/6/1', 'Adj Close': 2.645313}, {'Date': '1999/6/2', 'Adj Close': 2.803125}, {'Date': '1999/6/3', 'Adj Close': 2.626563}, {'Date': '1999/6/4', 'Adj Close': 2.710938}, {'Date': '1999/6/7', 'Adj Close': 2.934375}, {'Date': '1999/6/8', 'Adj Close': 2.789063}, {'Date': '1999/6/9', 'Adj Close': 2.85}, {'Date': '1999/6/10', 'Adj Close': 2.898438}, {'Date': '1999/6/11', 'Adj Close': 2.645313}, {'Date': '1999/6/14', 'Adj Close': 2.3}, {'Date': '1999/6/15', 'Adj Close': 2.4125}, {'Date': '1999/6/16', 'Adj Close': 2.792188}, {'Date': '1999/6/17', 'Adj Close': 2.823438}, {'Date': '1999/6/18', 'Adj Close': 2.782813}, {'Date': '1999/6/21', 'Adj Close': 3.0875}, {'Date': '1999/6/22', 'Adj Close': 2.9375}, {'Date': '1999/6/23', 'Adj Close': 2.94375}, {'Date': '1999/6/24', 'Adj Close': 2.840625}, {'Date': '1999/6/25', 'Adj Close': 2.754688}, {'Date': '1999/6/28', 'Adj Close': 2.767188}, {'Date': '1999/6/29', 'Adj Close': 2.901563}, {'Date': '1999/6/30', 'Adj Close': 3.128125}, {'Date': '1999/7/1', 'Adj Close': 3.059375}, {'Date': '1999/7/2', 'Adj Close': 3.101563}, {'Date': '1999/7/6', 'Adj Close': 3.171875}, {'Date': '1999/7/7', 'Adj Close': 3.046875}, {'Date': '1999/7/8', 'Adj Close': 3.134375}, {'Date': '1999/7/9', 'Adj Close': 3.1375}, {'Date': '1999/7/12', 'Adj Close': 2.934375}, {'Date': '1999/7/13', 'Adj Close': 3.153125}, {'Date': '1999/7/14', 'Adj Close': 3.375}, {'Date': '1999/7/15', 'Adj Close': 3.489063}, {'Date': '1999/7/16', 'Adj Close': 3.440625}, {'Date': '1999/7/19', 'Adj Close': 3.292188}, {'Date': '1999/7/20', 'Adj Close': 3.003125}, {'Date': '1999/7/21', 'Adj Close': 3.135938}, {'Date': '1999/7/22', 'Adj Close': 2.670313}, {'Date': '1999/7/23', 'Adj Close': 2.864063}, {'Date': '1999/7/26', 'Adj Close': 2.648438}, {'Date': '1999/7/27', 'Adj Close': 2.525}, {'Date': '1999/7/28', 'Adj Close': 2.64375}, {'Date': '1999/7/29', 'Adj Close': 2.539063}, {'Date': '1999/7/30', 'Adj Close': 2.501563}, {'Date': '1999/8/2', 'Adj Close': 2.35}, {'Date': '1999/8/3', 'Adj Close': 2.371875}, {'Date': '1999/8/4', 'Adj Close': 2.210938}, {'Date': '1999/8/5', 'Adj Close': 2.43125}, {'Date': '1999/8/6', 'Adj Close': 2.239063}, {'Date': '1999/8/9', 'Adj Close': 2.1375}, {'Date': '1999/8/10', 'Adj Close': 2.275}, {'Date': '1999/8/11', 'Adj Close': 2.273438}, {'Date': '1999/8/12', 'Adj Close': 2.29375}, {'Date': '1999/8/13', 'Adj Close': 2.435938}, {'Date': '1999/8/16', 'Adj Close': 2.457813}, {'Date': '1999/8/17', 'Adj Close': 2.73125}, {'Date': '1999/8/18', 'Adj Close': 2.828125}, {'Date': '1999/8/19', 'Adj Close': 2.653125}, {'Date': '1999/8/20', 'Adj Close': 2.835938}, {'Date': '1999/8/23', 'Adj Close': 2.959375}, {'Date': '1999/8/24', 'Adj Close': 3.001563}, {'Date': '1999/8/25', 'Adj Close': 3.321875}, {'Date': '1999/8/26', 'Adj Close': 3.214063}, {'Date': '1999/8/27', 'Adj Close': 3.2125}, {'Date': '1999/8/30', 'Adj Close': 2.98125}, {'Date': '1999/8/31', 'Adj Close': 3.109375}, {'Date': '1999/9/1', 'Adj Close': 2.976563}, {'Date': '1999/9/2', 'Adj Close': 3.003125}, {'Date': '1999/9/3', 'Adj Close': 3.121875}, {'Date': '1999/9/7', 'Adj Close': 3.146875}, {'Date': '1999/9/8', 'Adj Close': 3.071875}, {'Date': '1999/9/9', 'Adj Close': 3.18125}, {'Date': '1999/9/10', 'Adj Close': 3.325}, {'Date': '1999/9/13', 'Adj Close': 3.165625}, {'Date': '1999/9/14', 'Adj Close': 3.3}, {'Date': '1999/9/15', 'Adj Close': 3.278125}, {'Date': '1999/9/16', 'Adj Close': 3.2625}, {'Date': '1999/9/17', 'Adj Close': 3.190625}, {'Date': '1999/9/20', 'Adj Close': 3.1375}, {'Date': '1999/9/21', 'Adj Close': 3.1125}, {'Date': '1999/9/22', 'Adj Close': 3.3}, {'Date': '1999/9/23', 'Adj Close': 3.1125}, {'Date': '1999/9/24', 'Adj Close': 3.25}, {'Date': '1999/9/27', 'Adj Close': 3.128125}, {'Date': '1999/9/28', 'Adj Close': 3.29375}, {'Date': '1999/9/29', 'Adj Close': 4.0375}, {'Date': '1999/9/30', 'Adj Close': 3.996875}, {'Date': '1999/10/1', 'Adj Close': 3.8625}, {'Date': '1999/10/4', 'Adj Close': 3.853125}, {'Date': '1999/10/5', 'Adj Close': 3.921875}, {'Date': '1999/10/6', 'Adj Close': 4.121875}, {'Date': '1999/10/7', 'Adj Close': 4.365625}, {'Date': '1999/10/8', 'Adj Close': 4.4625}, {'Date': '1999/10/11', 'Adj Close': 4.41875}, {'Date': '1999/10/12', 'Adj Close': 4.246875}, {'Date': '1999/10/13', 'Adj Close': 3.996875}, {'Date': '1999/10/14', 'Adj Close': 3.979688}, {'Date': '1999/10/15', 'Adj Close': 3.753125}, {'Date': '1999/10/18', 'Adj Close': 3.703125}, {'Date': '1999/10/19', 'Adj Close': 3.83125}, {'Date': '1999/10/20', 'Adj Close': 4.025}, {'Date': '1999/10/21', 'Adj Close': 4.0375}, {'Date': '1999/10/22', 'Adj Close': 3.93125}, {'Date': '1999/10/25', 'Adj Close': 4.1375}, {'Date': '1999/10/26', 'Adj Close': 4.0625}, {'Date': '1999/10/27', 'Adj Close': 3.796875}, {'Date': '1999/10/28', 'Adj Close': 3.55}, {'Date': '1999/10/29', 'Adj Close': 3.53125}, {'Date': '1999/11/1', 'Adj Close': 3.45625}, {'Date': '1999/11/2', 'Adj Close': 3.321875}, {'Date': '1999/11/3', 'Adj Close': 3.290625}, {'Date': '1999/11/4', 'Adj Close': 3.153125}, {'Date': '1999/11/5', 'Adj Close': 3.246875}, {'Date': '1999/11/8', 'Adj Close': 3.9}, {'Date': '1999/11/9', 'Adj Close': 3.540625}, {'Date': '1999/11/10', 'Adj Close': 3.6}, {'Date': '1999/11/11', 'Adj Close': 3.65}, {'Date': '1999/11/12', 'Adj Close': 3.746875}, {'Date': '1999/11/15', 'Adj Close': 3.675}, {'Date': '1999/11/16', 'Adj Close': 3.946875}, {'Date': '1999/11/17', 'Adj Close': 3.825}, {'Date': '1999/11/18', 'Adj Close': 3.896875}, {'Date': '1999/11/19', 'Adj Close': 3.896875}, {'Date': '1999/11/22', 'Adj Close': 4.025}, {'Date': '1999/11/23', 'Adj Close': 4.0875}, {'Date': '1999/11/24', 'Adj Close': 4.3625}, {'Date': '1999/11/26', 'Adj Close': 4.65625}, {'Date': '1999/11/29', 'Adj Close': 4.521875}, {'Date': '1999/11/30', 'Adj Close': 4.253125}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China's banks extended CNY 345.9 billion in new yuan loans in July 2023, the least since November of 2009 and well below market forecasts of CNY 800 billion. The value is also much lower than CNY 679 billion a year earlier and CNY 3.05 trillion in June, after a record CNY 15.73 trillion loans in the first half of the year. The reading adds to further evidence of a lacklustre economic recovery in China although July is usually a weak month for financing activities, with banks not in a rush to meet their lending targets at the beginning of the quarter.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>In 2023, the sales proportion of NEVs that were subcompact and below declined to 30%, from 61% in 2017. During the same periods of comparison, the mix of compact and midsize-to-large NEVs increased to 70% from 39%, reflecting the upgrade trend in terms of vehicle size.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Investment by British investors accounted for 18 percent of new foreign direct investment expenditures. The Netherlands ($43.1 billion) was the second-largest investing country, followed by France ($35.3 billion).</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>There exists a 'head and shoulder' pattern on the Amazon stock moving averages from 1999/09/27 to 2000/02/22. On December 10th, the price per share reached 5.334375.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The 'Amazon stock' in text corresponds to the 'Close' column in data. The 'head and shoulder' pattern consists of three rises and falls from three localized highs. The high point in the center is higher than the other two. This pattern is around from '1999/09/27' to '2000/02/22' and the middle high point exist on '1999/12/10'. The highest point has the price of 5.334375. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Amazon stock"],"DataName":"Close","Position":[{"Begin":[39,1],"EndIndex":[141,1]}],"Trend":"Head and shoulder","Num":"None","Text":"a ’head and shoulder‘ pattern on the Amazon stock moving averages from 1999/09/27 to 2000/02/22"}，{"ObjectName":["Amazon stock"],"DataName":"Close","Position":[{"Begin":[92,1],"EndIndex":[92,1]}],"Trend":"Head and shoulder","Num":"None","Text":"On December 10th, the price per share reached 5.334375."}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +453,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -873,25 +877,25 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="108" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="108" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.36328125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.453125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" customHeight="1">
+    <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,7 +921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="221" customHeight="1">
+    <row r="2" spans="1:11" ht="221" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -928,23 +932,23 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="208.5" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="208.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -955,296 +959,296 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="111" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="6">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="286" customHeight="1">
+    <row r="5" spans="1:11" ht="286" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6">
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="409" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C6" s="6">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="364" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="364" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="409.5" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="202" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="202" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="6">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:11" ht="173" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="173" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="6">
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="17.25" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="6">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="6">
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:11" ht="146" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="146" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="6">
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="155" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="155" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="6">
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="270" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="270" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" s="6">
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="17.25" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>8</v>
       </c>
@@ -1255,21 +1259,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:9" ht="155" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="155" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>9</v>
@@ -1278,19 +1282,19 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="188" customHeight="1">
+    </row>
+    <row r="18" spans="1:9" ht="188" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
@@ -1301,19 +1305,19 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="17.25" customHeight="1">
+    </row>
+    <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
@@ -1324,19 +1328,19 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="17.25" customHeight="1">
+    </row>
+    <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
@@ -1347,21 +1351,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="17.25" customHeight="1">
+    </row>
+    <row r="21" spans="1:9" ht="344" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
@@ -1370,67 +1374,67 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="124.5" customHeight="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="6">
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="17.25" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="6">
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="203" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="203" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>9</v>
@@ -1439,80 +1443,80 @@
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="270" customHeight="1">
+    <row r="25" spans="1:9" ht="270" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C25" s="6">
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="289.5" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="289.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="6">
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="409" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="409" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C27" s="8">
         <v>26</v>
       </c>
       <c r="D27" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>113</v>
-      </c>
       <c r="F27" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/data_pair/1_full_used_data.xlsx
+++ b/data_pair/1_full_used_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CHI24\code\ECO_LLM_VIS\data_pair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A34012-ED68-4A79-96B4-FC22E0538EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924EF9BF-0B67-4250-8017-E3CF860AC9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3830" yWindow="1360" windowWidth="21430" windowHeight="17350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>[{'time': 2021, 'Installed wind + PV capacity (GW)': 615, 'energy consumption percentage': '13.80%'}, {'time': 2022, 'Installed wind + PV capacity (GW)': 695, 'energy consumption percentage': '15.10%'}, {'time': 2023, 'Installed wind + PV capacity (GW)': 775, 'energy consumption percentage': '16.60%'}, {'time': 2024, 'Installed wind + PV capacity (GW)': 855, 'energy consumption percentage': '18.30%'}, {'time': 2025, 'Installed wind + PV capacity (GW)': 935, 'energy consumption percentage': '20.00%'}, {'time': 2030, 'Installed wind + PV capacity (GW)': 1200, 'energy consumption percentage': '25.00%'}]</t>
   </si>
   <si>
-    <t>The China Lithium Industry Development Index white paper predicts a rising trend for installed wind and PV capacity (GW). It is expected to reach 1,200 GW and reach a 25% energy percentage in 2030.</t>
-  </si>
-  <si>
     <t>[{"ObjectName":["installed wind and PV capacity (GW)"],"DataName":"Installed wind + PV capacity (GW)","Position":[{"Begin":[0,1],"End":[5,1]}],"Trend":"rising","Num":"None","Text":"a rising trend for installed wind and PV capacity (GW)"},{"ObjectName":["It"],"DataName":"Installed wind + PV capacity (GW)","Position":[{"Begin":[5,1],"End":[5,1]}],"Trend":"None","Num":[1200],"Text":"It is expected to reach 1,200 GW"},{"ObjectName":"None","DataName":"energy consumption percentage","Position":[{"Begin":[5,2],"End":[5,2]}],"Trend":"None","Num":[25.00%],"Text":"reach a 25% energy percentage in 2030"}]</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>cup with handle</t>
   </si>
   <si>
-    <t>There happens a 'cup and handle' pattern in Amazon stock from 1999/07/15 to 1999/09/29.</t>
-  </si>
-  <si>
     <t>[{"ObjectName":["Amazon stock"],"DataName":"Adj Close","Position":[{"Begin":[51,1],"End":[104,1]}],"Trend":"cup and handle","Num":"None","Text":"a 'cup and handle' pattern in Amazon stock from 1999/07/15 to 1999/09/29"}]</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
     <t>[{'time': 2010, 'coal': 290, 'natural gas ': 306, 'renewables ': 112, 'nuclear': 287, 'liquids': 103}, {'time': 2015, 'coal': 323, 'natural gas ': 408, 'renewables ': 154, 'nuclear': 3, 'liquids': 112}, {'time': 2020, 'coal': 315, 'natural gas ': 417, 'renewables ': 151, 'nuclear': 94, 'liquids': 85}, {'time': 2025, 'coal': 311, 'natural gas ': 427, 'renewables ': 198, 'nuclear': 116, 'liquids': 7}, {'time': 2030, 'coal': 305, 'natural gas ': 436, 'renewables ': 201, 'nuclear': 107, 'liquids': 4}, {'time': 2035, 'coal': 304, 'natural gas ': 439, 'renewables ': 203, 'nuclear': 111, 'liquids': 3}, {'time': 2040, 'coal': 300, 'natural gas ': 438, 'renewables ': 211, 'nuclear': 110, 'liquids': 4}]</t>
   </si>
   <si>
-    <t>The Japan Electric Institute has made a forecast for future electricity generation sources, predicting that the renewables will continuously increase and reach 211 billion kilowatt hours in 2040.</t>
-  </si>
-  <si>
     <t>[{"ObjectName":["the renewables"],"DataName":"renewables","Position":[{"Begin":[6,3],"End":[6,3]}],"Trend":"increase","Num":[211],"Text":"the renewables will continuously increase and reach 211 billion kilowatt hours in 2040"}]</t>
   </si>
   <si>
@@ -135,12 +126,6 @@
   </si>
   <si>
     <t>double bottom</t>
-  </si>
-  <si>
-    <t>[{'Date': '12-Oct-15', 'Close': 17131.86}, {'Date': '13-Oct-15', 'Close': 17081.89}, {'Date': '14-Oct-15', 'Close': 16924.75}, {'Date': '15-Oct-15', 'Close': 17141.75}, {'Date': '16-Oct-15', 'Close': 17215.97}, {'Date': '19-Oct-15', 'Close': 17230.54}, {'Date': '20-Oct-15', 'Close': 17217.11}, {'Date': '21-Oct-15', 'Close': 17168.61}, {'Date': '22-Oct-15', 'Close': 17489.16}, {'Date': '23-Oct-15', 'Close': 17646.7}, {'Date': '26-Oct-15', 'Close': 17623.05}, {'Date': '27-Oct-15', 'Close': 17581.43}, {'Date': '28-Oct-15', 'Close': 17779.52}, {'Date': '29-Oct-15', 'Close': 17755.8}, {'Date': '30-Oct-15', 'Close': 17663.54}, {'Date': '2-Nov-15', 'Close': 17828.76}, {'Date': '3-Nov-15', 'Close': 17918.15}, {'Date': '4-Nov-15', 'Close': 17867.58}, {'Date': '5-Nov-15', 'Close': 17863.43}, {'Date': '6-Nov-15', 'Close': 17910.33}, {'Date': '9-Nov-15', 'Close': 17730.48}, {'Date': '10-Nov-15', 'Close': 17758.21}, {'Date': '11-Nov-15', 'Close': 17702.22}, {'Date': '12-Nov-15', 'Close': 17448.07}, {'Date': '13-Nov-15', 'Close': 17245.24}, {'Date': '16-Nov-15', 'Close': 17483.01}, {'Date': '17-Nov-15', 'Close': 17489.5}, {'Date': '18-Nov-15', 'Close': 17737.16}, {'Date': '19-Nov-15', 'Close': 17732.75}, {'Date': '20-Nov-15', 'Close': 17823.81}, {'Date': '23-Nov-15', 'Close': 17792.68}, {'Date': '24-Nov-15', 'Close': 17812.19}, {'Date': '25-Nov-15', 'Close': 17813.39}, {'Date': '27-Nov-15', 'Close': 17813.39}, {'Date': '30-Nov-15', 'Close': 17719.92}, {'Date': '1-Dec-15', 'Close': 17888.35}, {'Date': '2-Dec-15', 'Close': 17729.68}, {'Date': '3-Dec-15', 'Close': 17477.67}, {'Date': '4-Dec-15', 'Close': 17847.63}, {'Date': '7-Dec-15', 'Close': 17730.51}, {'Date': '8-Dec-15', 'Close': 17568.0}, {'Date': '9-Dec-15', 'Close': 17492.3}, {'Date': '10-Dec-15', 'Close': 17574.75}, {'Date': '11-Dec-15', 'Close': 17265.21}, {'Date': '14-Dec-15', 'Close': 17368.5}, {'Date': '15-Dec-15', 'Close': 17524.91}, {'Date': '16-Dec-15', 'Close': 17749.09}, {'Date': '17-Dec-15', 'Close': 17495.84}, {'Date': '18-Dec-15', 'Close': 17128.55}, {'Date': '21-Dec-15', 'Close': 17251.62}, {'Date': '22-Dec-15', 'Close': 17417.27}, {'Date': '23-Dec-15', 'Close': 17602.61}, {'Date': '24-Dec-15', 'Close': 17552.17}, {'Date': '28-Dec-15', 'Close': 17528.27}, {'Date': '29-Dec-15', 'Close': 17720.98}, {'Date': '30-Dec-15', 'Close': 17603.87}, {'Date': '31-Dec-15', 'Close': 17425.03}, {'Date': '4-Jan-16', 'Close': 17148.94}, {'Date': '5-Jan-16', 'Close': 17158.66}, {'Date': '6-Jan-16', 'Close': 16906.51}, {'Date': '7-Jan-16', 'Close': 16514.1}, {'Date': '8-Jan-16', 'Close': 16346.45}, {'Date': '11-Jan-16', 'Close': 16398.57}, {'Date': '12-Jan-16', 'Close': 16516.22}, {'Date': '13-Jan-16', 'Close': 16151.41}, {'Date': '14-Jan-16', 'Close': 16379.05}, {'Date': '15-Jan-16', 'Close': 15988.08}, {'Date': '19-Jan-16', 'Close': 16016.02}, {'Date': '20-Jan-16', 'Close': 15766.74}, {'Date': '21-Jan-16', 'Close': 15882.68}, {'Date': '22-Jan-16', 'Close': 16093.51}, {'Date': '25-Jan-16', 'Close': 15885.22}, {'Date': '26-Jan-16', 'Close': 16167.23}, {'Date': '27-Jan-16', 'Close': 15944.46}, {'Date': '28-Jan-16', 'Close': 16069.64}, {'Date': '29-Jan-16', 'Close': 16466.3}, {'Date': '1-Feb-16', 'Close': 16449.18}, {'Date': '2-Feb-16', 'Close': 16153.54}, {'Date': '3-Feb-16', 'Close': 16336.66}, {'Date': '4-Feb-16', 'Close': 16416.58}, {'Date': '5-Feb-16', 'Close': 16204.97}, {'Date': '8-Feb-16', 'Close': 16027.05}, {'Date': '9-Feb-16', 'Close': 16014.38}, {'Date': '10-Feb-16', 'Close': 15914.74}, {'Date': '11-Feb-16', 'Close': 15660.18}, {'Date': '12-Feb-16', 'Close': 15973.84}, {'Date': '16-Feb-16', 'Close': 16196.41}, {'Date': '17-Feb-16', 'Close': 16453.83}, {'Date': '18-Feb-16', 'Close': 16413.43}, {'Date': '19-Feb-16', 'Close': 16391.99}, {'Date': '22-Feb-16', 'Close': 16620.66}, {'Date': '23-Feb-16', 'Close': 16431.78}, {'Date': '24-Feb-16', 'Close': 16484.99}, {'Date': '25-Feb-16', 'Close': 16697.29}, {'Date': '26-Feb-16', 'Close': 16639.97}, {'Date': '29-Feb-16', 'Close': 16516.5}, {'Date': '1-Mar-16', 'Close': 16865.08}, {'Date': '2-Mar-16', 'Close': 16899.32}, {'Date': '3-Mar-16', 'Close': 16943.9}, {'Date': '4-Mar-16', 'Close': 17006.77}, {'Date': '7-Mar-16', 'Close': 17073.95}, {'Date': '8-Mar-16', 'Close': 16964.1}, {'Date': '9-Mar-16', 'Close': 17000.36}, {'Date': '10-Mar-16', 'Close': 16995.13}, {'Date': '11-Mar-16', 'Close': 17213.31}, {'Date': '14-Mar-16', 'Close': 17229.13}, {'Date': '15-Mar-16', 'Close': 17251.53}, {'Date': '16-Mar-16', 'Close': 17325.76}, {'Date': '17-Mar-16', 'Close': 17481.49}, {'Date': '18-Mar-16', 'Close': 17602.3}, {'Date': '21-Mar-16', 'Close': 17623.87}, {'Date': '22-Mar-16', 'Close': 17582.57}, {'Date': '23-Mar-16', 'Close': 17502.59}, {'Date': '24-Mar-16', 'Close': 17515.73}, {'Date': '28-Mar-16', 'Close': 17535.39}, {'Date': '29-Mar-16', 'Close': 17633.11}, {'Date': '30-Mar-16', 'Close': 17716.66}, {'Date': '31-Mar-16', 'Close': 17685.09}, {'Date': '1-Apr-16', 'Close': 17792.75}, {'Date': '4-Apr-16', 'Close': 17737.0}, {'Date': '5-Apr-16', 'Close': 17603.32}, {'Date': '6-Apr-16', 'Close': 17716.05}, {'Date': '7-Apr-16', 'Close': 17541.96}, {'Date': '8-Apr-16', 'Close': 17576.96}, {'Date': '11-Apr-16', 'Close': 17556.41}, {'Date': '12-Apr-16', 'Close': 17721.25}, {'Date': '13-Apr-16', 'Close': 17908.28}, {'Date': '14-Apr-16', 'Close': 17926.43}, {'Date': '15-Apr-16', 'Close': 17897.46}, {'Date': '18-Apr-16', 'Close': 18004.16}, {'Date': '19-Apr-16', 'Close': 18053.6}, {'Date': '20-Apr-16', 'Close': 18096.27}, {'Date': '21-Apr-16', 'Close': 17982.52}, {'Date': '22-Apr-16', 'Close': 18003.75}, {'Date': '25-Apr-16', 'Close': 17977.24}, {'Date': '26-Apr-16', 'Close': 17990.32}, {'Date': '27-Apr-16', 'Close': 18041.55}, {'Date': '28-Apr-16', 'Close': 17830.76}, {'Date': '29-Apr-16', 'Close': 17773.64}, {'Date': '2-May-16', 'Close': 17891.16}, {'Date': '3-May-16', 'Close': 17750.91}, {'Date': '4-May-16', 'Close': 17651.26}, {'Date': '5-May-16', 'Close': 17660.71}, {'Date': '6-May-16', 'Close': 17740.63}, {'Date': '9-May-16', 'Close': 17705.91}, {'Date': '10-May-16', 'Close': 17928.35}, {'Date': '11-May-16', 'Close': 17711.12}, {'Date': '12-May-16', 'Close': 17720.5}, {'Date': '13-May-16', 'Close': 17535.32}, {'Date': '16-May-16', 'Close': 17710.71}, {'Date': '17-May-16', 'Close': 17529.98}, {'Date': '18-May-16', 'Close': 17526.62}, {'Date': '19-May-16', 'Close': 17435.4}, {'Date': '20-May-16', 'Close': 17500.94}, {'Date': '23-May-16', 'Close': 17492.93}, {'Date': '24-May-16', 'Close': 17706.05}, {'Date': '25-May-16', 'Close': 17851.51}, {'Date': '26-May-16', 'Close': 17828.29}, {'Date': '27-May-16', 'Close': 17873.22}, {'Date': '31-May-16', 'Close': 17787.2}, {'Date': '1-Jun-16', 'Close': 17789.67}, {'Date': '2-Jun-16', 'Close': 17838.56}, {'Date': '3-Jun-16', 'Close': 17807.06}, {'Date': '6-Jun-16', 'Close': 17920.33}, {'Date': '7-Jun-16', 'Close': 17938.28}, {'Date': '8-Jun-16', 'Close': 18005.05}, {'Date': '9-Jun-16', 'Close': 17985.19}, {'Date': '10-Jun-16', 'Close': 17865.34}, {'Date': '13-Jun-16', 'Close': 17732.48}, {'Date': '14-Jun-16', 'Close': 17674.82}, {'Date': '15-Jun-16', 'Close': 17640.17}, {'Date': '16-Jun-16', 'Close': 17733.1}, {'Date': '17-Jun-16', 'Close': 17675.16}, {'Date': '20-Jun-16', 'Close': 17804.87}, {'Date': '21-Jun-16', 'Close': 17829.73}, {'Date': '22-Jun-16', 'Close': 17780.83}, {'Date': '23-Jun-16', 'Close': 18011.07}, {'Date': '24-Jun-16', 'Close': 17400.75}, {'Date': '27-Jun-16', 'Close': 17140.24}, {'Date': '28-Jun-16', 'Close': 17409.72}, {'Date': '29-Jun-16', 'Close': 17694.68}, {'Date': '30-Jun-16', 'Close': 17929.99}, {'Date': '1-Jul-16', 'Close': 17949.37}, {'Date': '5-Jul-16', 'Close': 17840.62}, {'Date': '6-Jul-16', 'Close': 17918.62}, {'Date': '7-Jul-16', 'Close': 17895.88}, {'Date': '8-Jul-16', 'Close': 18146.74}, {'Date': '11-Jul-16', 'Close': 18226.93}, {'Date': '12-Jul-16', 'Close': 18347.67}, {'Date': '13-Jul-16', 'Close': 18372.12}, {'Date': '14-Jul-16', 'Close': 18506.41}, {'Date': '15-Jul-16', 'Close': 18516.55}, {'Date': '18-Jul-16', 'Close': 18533.05}, {'Date': '19-Jul-16', 'Close': 18559.01}, {'Date': '20-Jul-16', 'Close': 18595.03}, {'Date': '21-Jul-16', 'Close': 18517.23}, {'Date': '22-Jul-16', 'Close': 18570.85}, {'Date': '25-Jul-16', 'Close': 18493.06}, {'Date': '26-Jul-16', 'Close': 18473.75}, {'Date': '27-Jul-16', 'Close': 18472.17}, {'Date': '28-Jul-16', 'Close': 18456.35}, {'Date': '29-Jul-16', 'Close': 18432.24}, {'Date': '1-Aug-16', 'Close': 18404.51}, {'Date': '2-Aug-16', 'Close': 18313.77}, {'Date': '3-Aug-16', 'Close': 18355.0}, {'Date': '4-Aug-16', 'Close': 18352.05}, {'Date': '5-Aug-16', 'Close': 18543.53}, {'Date': '8-Aug-16', 'Close': 18529.29}, {'Date': '9-Aug-16', 'Close': 18533.05}, {'Date': '10-Aug-16', 'Close': 18495.66}, {'Date': '11-Aug-16', 'Close': 18613.52}, {'Date': '12-Aug-16', 'Close': 18576.47}, {'Date': '15-Aug-16', 'Close': 18636.05}, {'Date': '16-Aug-16', 'Close': 18552.02}, {'Date': '17-Aug-16', 'Close': 18573.94}, {'Date': '18-Aug-16', 'Close': 18597.7}, {'Date': '19-Aug-16', 'Close': 18552.57}, {'Date': '22-Aug-16', 'Close': 18529.42}, {'Date': '23-Aug-16', 'Close': 18547.3}, {'Date': '24-Aug-16', 'Close': 18481.48}, {'Date': '25-Aug-16', 'Close': 18448.41}, {'Date': '26-Aug-16', 'Close': 18395.4}, {'Date': '29-Aug-16', 'Close': 18502.99}, {'Date': '30-Aug-16', 'Close': 18454.3}, {'Date': '31-Aug-16', 'Close': 18400.88}, {'Date': '1-Sep-16', 'Close': 18419.3}, {'Date': '2-Sep-16', 'Close': 18491.96}, {'Date': '6-Sep-16', 'Close': 18538.12}, {'Date': '7-Sep-16', 'Close': 18526.14}, {'Date': '8-Sep-16', 'Close': 18479.91}, {'Date': '9-Sep-16', 'Close': 18085.45}, {'Date': '12-Sep-16', 'Close': 18325.07}, {'Date': '13-Sep-16', 'Close': 18066.75}, {'Date': '14-Sep-16', 'Close': 18034.77}, {'Date': '15-Sep-16', 'Close': 18212.48}, {'Date': '16-Sep-16', 'Close': 18123.8}, {'Date': '19-Sep-16', 'Close': 18120.17}, {'Date': '20-Sep-16', 'Close': 18129.96}, {'Date': '21-Sep-16', 'Close': 18293.7}, {'Date': '22-Sep-16', 'Close': 18392.46}, {'Date': '23-Sep-16', 'Close': 18261.45}, {'Date': '26-Sep-16', 'Close': 18094.83}, {'Date': '27-Sep-16', 'Close': 18228.3}, {'Date': '28-Sep-16', 'Close': 18339.24}, {'Date': '29-Sep-16', 'Close': 18143.45}, {'Date': '30-Sep-16', 'Close': 18308.15}, {'Date': '3-Oct-16', 'Close': 18253.85}, {'Date': '4-Oct-16', 'Close': 18168.45}, {'Date': '5-Oct-16', 'Close': 18281.03}, {'Date': '6-Oct-16', 'Close': 18268.5}, {'Date': '7-Oct-16', 'Close': 18240.49}, {'Date': '10-Oct-16', 'Close': 18329.04}, {'Date': '11-Oct-16', 'Close': 18128.66}, {'Date': '12-Oct-16', 'Close': 18144.2}, {'Date': '13-Oct-16', 'Close': 18098.94}, {'Date': '14-Oct-16', 'Close': 18138.38}, {'Date': '17-Oct-16', 'Close': 18086.4}, {'Date': '18-Oct-16', 'Close': 18161.94}, {'Date': '19-Oct-16', 'Close': 18202.62}, {'Date': '20-Oct-16', 'Close': 18162.35}, {'Date': '21-Oct-16', 'Close': 18145.71}, {'Date': '24-Oct-16', 'Close': 18223.03}, {'Date': '25-Oct-16', 'Close': 18169.27}, {'Date': '26-Oct-16', 'Close': 18199.33}, {'Date': '27-Oct-16', 'Close': 18169.68}, {'Date': '28-Oct-16', 'Close': 18161.19}, {'Date': '31-Oct-16', 'Close': 18142.42}, {'Date': '1-Nov-16', 'Close': 18037.1}, {'Date': '2-Nov-16', 'Close': 17959.64}, {'Date': '3-Nov-16', 'Close': 17930.67}]</t>
-  </si>
-  <si>
-    <t>[{"ObjectName":["Dow Janes Industrial (.DJI)"],"DataName":"Close","Position":[{"Begin":[54,1],"End":[100,1]}],"Trend":"double bottom","Num":"None","Text":"The "double bottom" pattern happens on the 'Dow Janes Industrial (.DJI) from 2015/12/29 to 2016/03/07"}]</t>
   </si>
   <si>
     <t>uptrend</t>
@@ -377,10 +362,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>The 'double bottom' pattern happens on the 'Dow Janes Industrial (.DJI) from 2015/12/29 to 2016/03/07.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">In Amazon stock moving averages, 'triple top' pattern happens from 2010/04/01 to 2010/05/05. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -446,6 +427,30 @@
   </si>
   <si>
     <t>[{"ObjectName":["Amazon stock"],"DataName":"Close","Position":[{"Begin":[39,1],"EndIndex":[141,1]}],"Trend":"Head and shoulder","Num":"None","Text":"a ’head and shoulder‘ pattern on the Amazon stock moving averages from 1999/09/27 to 2000/02/22"}，{"ObjectName":["Amazon stock"],"DataName":"Close","Position":[{"Begin":[92,1],"EndIndex":[92,1]}],"Trend":"Head and shoulder","Num":"None","Text":"On December 10th, the price per share reached 5.334375."}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The China Lithium Industry Development Index white paper predicts a rising trend for installed wind and PV capacity (GW). It is expected to reach 1,200 GW and reach a 25% energy percentage in 2030.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>There happens a 'cup and handle' pattern in Amazon stock from 1999/07/15 to 1999/09/29.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Japan Electric Institute has made a forecast for future electricity generation sources, predicting that the renewables will continuously increase and reach 211 billion kilowatt hours in 2040.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'Date': '12-Oct-15', 'Close': 17131.86}, {'Date': '13-Oct-15', 'Close': 17081.89}, {'Date': '14-Oct-15', 'Close': 16924.75}, {'Date': '15-Oct-15', 'Close': 17141.75}, {'Date': '16-Oct-15', 'Close': 17215.97}, {'Date': '19-Oct-15', 'Close': 17230.54}, {'Date': '20-Oct-15', 'Close': 17217.11}, {'Date': '21-Oct-15', 'Close': 17168.61}, {'Date': '22-Oct-15', 'Close': 17489.16}, {'Date': '23-Oct-15', 'Close': 17646.7}, {'Date': '26-Oct-15', 'Close': 17623.05}, {'Date': '27-Oct-15', 'Close': 17581.43}, {'Date': '28-Oct-15', 'Close': 17779.52}, {'Date': '29-Oct-15', 'Close': 17755.8}, {'Date': '30-Oct-15', 'Close': 17663.54}, {'Date': '2-Nov-15', 'Close': 17828.76}, {'Date': '3-Nov-15', 'Close': 17918.15}, {'Date': '4-Nov-15', 'Close': 17867.58}, {'Date': '5-Nov-15', 'Close': 17863.43}, {'Date': '6-Nov-15', 'Close': 17910.33}, {'Date': '9-Nov-15', 'Close': 17730.48}, {'Date': '10-Nov-15', 'Close': 17758.21}, {'Date': '11-Nov-15', 'Close': 17702.22}, {'Date': '12-Nov-15', 'Close': 17448.07}, {'Date': '13-Nov-15', 'Close': 17245.24}, {'Date': '16-Nov-15', 'Close': 17483.01}, {'Date': '17-Nov-15', 'Close': 17489.5}, {'Date': '18-Nov-15', 'Close': 17737.16}, {'Date': '19-Nov-15', 'Close': 17732.75}, {'Date': '20-Nov-15', 'Close': 17823.81}, {'Date': '23-Nov-15', 'Close': 17792.68}, {'Date': '24-Nov-15', 'Close': 17812.19}, {'Date': '25-Nov-15', 'Close': 17813.39}, {'Date': '27-Nov-15', 'Close': 17813.39}, {'Date': '30-Nov-15', 'Close': 17719.92}, {'Date': '1-Dec-15', 'Close': 17888.35}, {'Date': '2-Dec-15', 'Close': 17729.68}, {'Date': '3-Dec-15', 'Close': 17477.67}, {'Date': '4-Dec-15', 'Close': 17847.63}, {'Date': '7-Dec-15', 'Close': 17730.51}, {'Date': '8-Dec-15', 'Close': 17568.0}, {'Date': '9-Dec-15', 'Close': 17492.3}, {'Date': '10-Dec-15', 'Close': 17574.75}, {'Date': '11-Dec-15', 'Close': 17265.21}, {'Date': '14-Dec-15', 'Close': 17368.5}, {'Date': '15-Dec-15', 'Close': 17524.91}, {'Date': '16-Dec-15', 'Close': 17749.09}, {'Date': '17-Dec-15', 'Close': 17495.84}, {'Date': '18-Dec-15', 'Close': 17128.55}, {'Date': '21-Dec-15', 'Close': 17251.62}, {'Date': '22-Dec-15', 'Close': 17417.27}, {'Date': '23-Dec-15', 'Close': 17602.61}, {'Date': '24-Dec-15', 'Close': 17552.17}, {'Date': '28-Dec-15', 'Close': 17528.27}, {'Date': '29-Dec-15', 'Close': 17720.98}, {'Date': '30-Dec-15', 'Close': 17603.87}, {'Date': '31-Dec-15', 'Close': 17425.03}, {'Date': '4-Jan-16', 'Close': 17148.94}, {'Date': '5-Jan-16', 'Close': 17158.66}, {'Date': '6-Jan-16', 'Close': 16906.51}, {'Date': '7-Jan-16', 'Close': 16514.1}, {'Date': '8-Jan-16', 'Close': 16346.45}, {'Date': '11-Jan-16', 'Close': 16398.57}, {'Date': '12-Jan-16', 'Close': 16516.22}, {'Date': '13-Jan-16', 'Close': 16151.41}, {'Date': '14-Jan-16', 'Close': 16379.05}, {'Date': '15-Jan-16', 'Close': 15988.08}, {'Date': '19-Jan-16', 'Close': 16016.02}, {'Date': '20-Jan-16', 'Close': 15766.74}, {'Date': '21-Jan-16', 'Close': 15882.68}, {'Date': '22-Jan-16', 'Close': 16093.51}, {'Date': '25-Jan-16', 'Close': 15885.22}, {'Date': '26-Jan-16', 'Close': 16167.23}, {'Date': '27-Jan-16', 'Close': 15944.46}, {'Date': '28-Jan-16', 'Close': 16069.64}, {'Date': '29-Jan-16', 'Close': 16466.3}, {'Date': '1-Feb-16', 'Close': 16449.18}, {'Date': '2-Feb-16', 'Close': 16153.54}, {'Date': '3-Feb-16', 'Close': 16336.66}, {'Date': '4-Feb-16', 'Close': 16416.58}, {'Date': '5-Feb-16', 'Close': 16204.97}, {'Date': '8-Feb-16', 'Close': 16027.05}, {'Date': '9-Feb-16', 'Close': 16014.38}, {'Date': '10-Feb-16', 'Close': 15914.74}, {'Date': '11-Feb-16', 'Close': 15660.18}, {'Date': '12-Feb-16', 'Close': 15973.84}, {'Date': '16-Feb-16', 'Close': 16196.41}, {'Date': '17-Feb-16', 'Close': 16453.83}, {'Date': '18-Feb-16', 'Close': 16413.43}, {'Date': '19-Feb-16', 'Close': 16391.99}, {'Date': '22-Feb-16', 'Close': 16620.66}, {'Date': '23-Feb-16', 'Close': 16431.78}, {'Date': '24-Feb-16', 'Close': 16484.99}, {'Date': '25-Feb-16', 'Close': 16697.29}, {'Date': '26-Feb-16', 'Close': 16639.97}, {'Date': '29-Feb-16', 'Close': 16516.5}, {'Date': '1-Mar-16', 'Close': 16865.08}, {'Date': '2-Mar-16', 'Close': 16899.32}, {'Date': '3-Mar-16', 'Close': 16943.9}, {'Date': '4-Mar-16', 'Close': 17006.77}, {'Date': '7-Mar-16', 'Close': 17073.95}, {'Date': '8-Mar-16', 'Close': 16964.1}, {'Date': '9-Mar-16', 'Close': 17000.36}, {'Date': '10-Mar-16', 'Close': 16995.13}, {'Date': '11-Mar-16', 'Close': 17213.31}, {'Date': '14-Mar-16', 'Close': 17229.13}, {'Date': '15-Mar-16', 'Close': 17251.53}, {'Date': '16-Mar-16', 'Close': 17325.76}, {'Date': '17-Mar-16', 'Close': 17481.49}, {'Date': '18-Mar-16', 'Close': 17602.3}, {'Date': '21-Mar-16', 'Close': 17623.87}, {'Date': '22-Mar-16', 'Close': 17582.57}, {'Date': '23-Mar-16', 'Close': 17502.59}, {'Date': '24-Mar-16', 'Close': 17515.73}, {'Date': '28-Mar-16', 'Close': 17535.39}, {'Date': '29-Mar-16', 'Close': 17633.11}, {'Date': '30-Mar-16', 'Close': 17716.66}, {'Date': '31-Mar-16', 'Close': 17685.09}, {'Date': '1-Apr-16', 'Close': 17792.75}, {'Date': '4-Apr-16', 'Close': 17737.0}, {'Date': '5-Apr-16', 'Close': 17603.32}, {'Date': '6-Apr-16', 'Close': 17716.05}, {'Date': '7-Apr-16', 'Close': 17541.96}, {'Date': '8-Apr-16', 'Close': 17576.96}, {'Date': '11-Apr-16', 'Close': 17556.41}, {'Date': '12-Apr-16', 'Close': 17721.25}, {'Date': '13-Apr-16', 'Close': 17908.28}, {'Date': '14-Apr-16', 'Close': 17926.43}, {'Date': '15-Apr-16', 'Close': 17897.46}, {'Date': '18-Apr-16', 'Close': 18004.16}, {'Date': '19-Apr-16', 'Close': 18053.6}, {'Date': '20-Apr-16', 'Close': 18096.27}, {'Date': '21-Apr-16', 'Close': 17982.52}, {'Date': '22-Apr-16', 'Close': 18003.75}, {'Date': '25-Apr-16', 'Close': 17977.24}, {'Date': '26-Apr-16', 'Close': 17990.32}, {'Date': '27-Apr-16', 'Close': 18041.55}, {'Date': '28-Apr-16', 'Close': 17830.76}, {'Date': '29-Apr-16', 'Close': 17773.64}, {'Date': '2-May-16', 'Close': 17891.16}, {'Date': '3-May-16', 'Close': 17750.91}, {'Date': '4-May-16', 'Close': 17651.26}, {'Date': '5-May-16', 'Close': 17660.71}, {'Date': '6-May-16', 'Close': 17740.63}, {'Date': '9-May-16', 'Close': 17705.91}, {'Date': '10-May-16', 'Close': 17928.35}, {'Date': '11-May-16', 'Close': 17711.12}, {'Date': '12-May-16', 'Close': 17720.5}, {'Date': '13-May-16', 'Close': 17535.32}, {'Date': '16-May-16', 'Close': 17710.71}, {'Date': '17-May-16', 'Close': 17529.98}, {'Date': '18-May-16', 'Close': 17526.62}, {'Date': '19-May-16', 'Close': 17435.4}, {'Date': '20-May-16', 'Close': 17500.94}, {'Date': '23-May-16', 'Close': 17492.93}, {'Date': '24-May-16', 'Close': 17706.05}, {'Date': '25-May-16', 'Close': 17851.51}, {'Date': '26-May-16', 'Close': 17828.29}, {'Date': '27-May-16', 'Close': 17873.22}, {'Date': '31-May-16', 'Close': 17787.2}, {'Date': '1-Jun-16', 'Close': 17789.67}, {'Date': '2-Jun-16', 'Close': 17838.56}, {'Date': '3-Jun-16', 'Close': 17807.06}, {'Date': '6-Jun-16', 'Close': 17920.33}, {'Date': '7-Jun-16', 'Close': 17938.28}, {'Date': '8-Jun-16', 'Close': 18005.05}, {'Date': '9-Jun-16', 'Close': 17985.19}, {'Date': '10-Jun-16', 'Close': 17865.34}, {'Date': '13-Jun-16', 'Close': 17732.48}, {'Date': '14-Jun-16', 'Close': 17674.82}, {'Date': '15-Jun-16', 'Close': 17640.17}, {'Date': '16-Jun-16', 'Close': 17733.1}, {'Date': '17-Jun-16', 'Close': 17675.16}, {'Date': '20-Jun-16', 'Close': 17804.87}, {'Date': '21-Jun-16', 'Close': 17829.73}, {'Date': '22-Jun-16', 'Close': 17780.83}, {'Date': '23-Jun-16', 'Close': 18011.07}, {'Date': '24-Jun-16', 'Close': 17400.75}, {'Date': '27-Jun-16', 'Close': 17140.24}, {'Date': '28-Jun-16', 'Close': 17409.72}, {'Date': '29-Jun-16', 'Close': 17694.68}, {'Date': '30-Jun-16', 'Close': 17929.99}, {'Date': '1-Jul-16', 'Close': 17949.37}, {'Date': '5-Jul-16', 'Close': 17840.62}, {'Date': '6-Jul-16', 'Close': 17918.62}, {'Date': '7-Jul-16', 'Close': 17895.88}, {'Date': '8-Jul-16', 'Close': 18146.74}, {'Date': '11-Jul-16', 'Close': 18226.93}, {'Date': '12-Jul-16', 'Close': 18347.67}, {'Date': '13-Jul-16', 'Close': 18372.12}, {'Date': '14-Jul-16', 'Close': 18506.41}, {'Date': '15-Jul-16', 'Close': 18516.55}, {'Date': '18-Jul-16', 'Close': 18533.05}, {'Date': '19-Jul-16', 'Close': 18559.01}, {'Date': '20-Jul-16', 'Close': 18595.03}, {'Date': '21-Jul-16', 'Close': 18517.23}, {'Date': '22-Jul-16', 'Close': 18570.85}, {'Date': '25-Jul-16', 'Close': 18493.06}, {'Date': '26-Jul-16', 'Close': 18473.75}, {'Date': '27-Jul-16', 'Close': 18472.17}, {'Date': '28-Jul-16', 'Close': 18456.35}, {'Date': '29-Jul-16', 'Close': 18432.24}, {'Date': '1-Aug-16', 'Close': 18404.51}, {'Date': '2-Aug-16', 'Close': 18313.77}, {'Date': '3-Aug-16', 'Close': 18355.0}, {'Date': '4-Aug-16', 'Close': 18352.05}, {'Date': '5-Aug-16', 'Close': 18543.53}, {'Date': '8-Aug-16', 'Close': 18529.29}, {'Date': '9-Aug-16', 'Close': 18533.05}, {'Date': '10-Aug-16', 'Close': 18495.66}, {'Date': '11-Aug-16', 'Close': 18613.52}, {'Date': '12-Aug-16', 'Close': 18576.47}, {'Date': '15-Aug-16', 'Close': 18636.05}, {'Date': '16-Aug-16', 'Close': 18552.02}, {'Date': '17-Aug-16', 'Close': 18573.94}, {'Date': '18-Aug-16', 'Close': 18597.7}, {'Date': '19-Aug-16', 'Close': 18552.57}, {'Date': '22-Aug-16', 'Close': 18529.42}, {'Date': '23-Aug-16', 'Close': 18547.3}, {'Date': '24-Aug-16', 'Close': 18481.48}, {'Date': '25-Aug-16', 'Close': 18448.41}, {'Date': '26-Aug-16', 'Close': 18395.4}, {'Date': '29-Aug-16', 'Close': 18502.99}, {'Date': '30-Aug-16', 'Close': 18454.3}, {'Date': '31-Aug-16', 'Close': 18400.88}, {'Date': '1-Sep-16', 'Close': 18419.3}, {'Date': '2-Sep-16', 'Close': 18491.96}, {'Date': '6-Sep-16', 'Close': 18538.12}, {'Date': '7-Sep-16', 'Close': 18526.14}, {'Date': '8-Sep-16', 'Close': 18479.91}, {'Date': '9-Sep-16', 'Close': 18085.45}, {'Date': '12-Sep-16', 'Close': 18325.07}, {'Date': '13-Sep-16', 'Close': 18066.75}, {'Date': '14-Sep-16', 'Close': 18034.77}, {'Date': '15-Sep-16', 'Close': 18212.48}, {'Date': '16-Sep-16', 'Close': 18123.8}, {'Date': '19-Sep-16', 'Close': 18120.17}, {'Date': '20-Sep-16', 'Close': 18129.96}, {'Date': '21-Sep-16', 'Close': 18293.7}, {'Date': '22-Sep-16', 'Close': 18392.46}, {'Date': '23-Sep-16', 'Close': 18261.45}, {'Date': '26-Sep-16', 'Close': 18094.83}, {'Date': '27-Sep-16', 'Close': 18228.3}, {'Date': '28-Sep-16', 'Close': 18339.24}, {'Date': '29-Sep-16', 'Close': 18143.45}, {'Date': '30-Sep-16', 'Close': 18308.15}, {'Date': '3-Oct-16', 'Close': 18253.85}, {'Date': '4-Oct-16', 'Close': 18168.45}, {'Date': '5-Oct-16', 'Close': 18281.03}, {'Date': '6-Oct-16', 'Close': 18268.5}, {'Date': '7-Oct-16', 'Close': 18240.49}, {'Date': '10-Oct-16', 'Close': 18329.04}, {'Date': '11-Oct-16', 'Close': 18128.66}, {'Date': '12-Oct-16', 'Close': 18144.2}, {'Date': '13-Oct-16', 'Close': 18098.94}, {'Date': '14-Oct-16', 'Close': 18138.38}, {'Date': '17-Oct-16', 'Close': 18086.4}, {'Date': '18-Oct-16', 'Close': 18161.94}, {'Date': '19-Oct-16', 'Close': 18202.62}, {'Date': '20-Oct-16', 'Close': 18162.35}, {'Date': '21-Oct-16', 'Close': 18145.71}, {'Date': '24-Oct-16', 'Close': 18223.03}, {'Date': '25-Oct-16', 'Close': 18169.27}, {'Date': '26-Oct-16', 'Close': 18199.33}, {'Date': '27-Oct-16', 'Close': 18169.68}, {'Date': '28-Oct-16', 'Close': 18161.19}, {'Date': '31-Oct-16', 'Close': 18142.42}, {'Date': '1-Nov-16', 'Close': 18037.1}, {'Date': '2-Nov-16', 'Close': 17959.64}, {'Date': '3-Nov-16', 'Close': 17930.67}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"ObjectName":["Dow Janes Industrial (.DJI)"],"DataName":"Close","Position":[{"Begin":[54,1],"End":[100,1]}],"Trend":"double bottom","Num":"None","Text":"The "double bottom" pattern happens on the 'Dow Janes Industrial (.DJI) from 2015/12/29 to 2016/03/07"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The 'double bottom' pattern happens on the 'Dow Janes Industrial (.DJI)' from 2015/12/29 to 2016/03/07.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -877,8 +882,8 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" zoomScale="108" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="108" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -932,10 +937,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>10</v>
@@ -959,16 +964,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.3">
@@ -982,10 +987,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>16</v>
@@ -1009,82 +1014,82 @@
         <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="409" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="6">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="364" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="202" customHeight="1" x14ac:dyDescent="0.3">
@@ -1092,137 +1097,137 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6">
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="173" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6">
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="6">
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="146" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6">
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="155" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="6">
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="270" customHeight="1" x14ac:dyDescent="0.3">
@@ -1230,22 +1235,22 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="6">
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1259,21 +1264,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="155" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>9</v>
@@ -1282,16 +1287,16 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="188" customHeight="1" x14ac:dyDescent="0.3">
@@ -1305,16 +1310,16 @@
         <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1328,16 +1333,16 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1351,21 +1356,21 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="344" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>9</v>
@@ -1374,16 +1379,16 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1397,21 +1402,21 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>15</v>
@@ -1420,21 +1425,21 @@
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="203" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>9</v>
@@ -1443,16 +1448,16 @@
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I24" s="1"/>
     </row>
@@ -1461,22 +1466,22 @@
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C25" s="6">
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="289.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1484,39 +1489,39 @@
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="409" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C27" s="8">
         <v>26</v>
       </c>
       <c r="D27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>110</v>
-      </c>
       <c r="G27" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
